--- a/Traditional Yoga Updated Document.xlsx
+++ b/Traditional Yoga Updated Document.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Traditional Yoga\TY Excelsheet\yoga_excelsheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F764C4-04A0-4EE0-82AE-3FE0C01EE6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -19,17 +25,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1192,7 +1187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1231,7 +1226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1289,6 +1284,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,7 +1778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1858,78 +1859,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1958,6 +1887,81 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1994,10 +1998,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2289,14 +2289,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2407,12 +2407,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:K349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,516 +2431,516 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="K2" s="67" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="96">
+      <c r="B3" s="72">
         <v>2</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="G3" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H3" s="97">
+      <c r="H3" s="73">
         <v>44865</v>
       </c>
-      <c r="I3" s="97">
+      <c r="I3" s="73">
         <v>44865</v>
       </c>
-      <c r="J3" s="96" t="s">
+      <c r="J3" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="96"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="96">
+      <c r="B4" s="72">
         <v>4</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="72" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H4" s="97">
+      <c r="H4" s="73">
         <v>44865</v>
       </c>
-      <c r="I4" s="97">
+      <c r="I4" s="73">
         <v>44865</v>
       </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="96"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="86">
+      <c r="B5" s="62">
         <v>6</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="62" t="s">
         <v>340</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="62" t="s">
         <v>381</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="65">
         <v>44866</v>
       </c>
-      <c r="I5" s="89">
+      <c r="I5" s="65">
         <v>44866</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="86"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="86">
+      <c r="B6" s="62">
         <v>8</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="62" t="s">
         <v>381</v>
       </c>
-      <c r="H6" s="89">
+      <c r="H6" s="65">
         <v>44866</v>
       </c>
-      <c r="I6" s="89">
+      <c r="I6" s="65">
         <v>44866</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="86"/>
+      <c r="K6" s="62"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="96">
+      <c r="B7" s="72">
         <v>3</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="73">
         <v>44867</v>
       </c>
-      <c r="I7" s="97">
+      <c r="I7" s="73">
         <v>44867</v>
       </c>
-      <c r="J7" s="96" t="s">
+      <c r="J7" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="96"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="96">
+      <c r="B8" s="72">
         <v>5</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="72" t="s">
         <v>339</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H8" s="97">
+      <c r="H8" s="73">
         <v>44867</v>
       </c>
-      <c r="I8" s="97">
+      <c r="I8" s="73">
         <v>44867</v>
       </c>
-      <c r="J8" s="96" t="s">
+      <c r="J8" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K8" s="96"/>
+      <c r="K8" s="72"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="86">
+      <c r="B9" s="62">
         <v>10</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="62" t="s">
         <v>381</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="65">
         <v>44867</v>
       </c>
-      <c r="I9" s="89">
+      <c r="I9" s="65">
         <v>44867</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="86"/>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="96">
+      <c r="B10" s="72">
         <v>12</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H10" s="97">
+      <c r="H10" s="73">
         <v>44867</v>
       </c>
-      <c r="I10" s="97">
+      <c r="I10" s="73">
         <v>44867</v>
       </c>
-      <c r="J10" s="96" t="s">
+      <c r="J10" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="96"/>
+      <c r="K10" s="72"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="96">
+      <c r="B11" s="72">
         <v>7</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G11" s="96" t="s">
+      <c r="G11" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="73">
         <v>44868</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="73">
         <v>44868</v>
       </c>
-      <c r="J11" s="96" t="s">
+      <c r="J11" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K11" s="96"/>
+      <c r="K11" s="72"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="96">
+      <c r="B12" s="72">
         <v>9</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H12" s="97">
+      <c r="H12" s="73">
         <v>44868</v>
       </c>
-      <c r="I12" s="97">
+      <c r="I12" s="73">
         <v>44868</v>
       </c>
-      <c r="J12" s="96" t="s">
+      <c r="J12" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K12" s="96"/>
+      <c r="K12" s="72"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="96">
+      <c r="B13" s="72">
         <v>14</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="F13" s="96" t="s">
+      <c r="F13" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H13" s="97">
+      <c r="H13" s="73">
         <v>44881</v>
       </c>
-      <c r="I13" s="97">
+      <c r="I13" s="73">
         <v>44868</v>
       </c>
-      <c r="J13" s="96" t="s">
+      <c r="J13" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="K13" s="96"/>
+      <c r="K13" s="72"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="96">
+      <c r="B14" s="72">
         <v>16</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="F14" s="96" t="s">
+      <c r="F14" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="96" t="s">
+      <c r="G14" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H14" s="97">
+      <c r="H14" s="73">
         <v>44881</v>
       </c>
-      <c r="I14" s="97">
+      <c r="I14" s="73">
         <v>44868</v>
       </c>
-      <c r="J14" s="96" t="s">
+      <c r="J14" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="96"/>
+      <c r="K14" s="72"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="96">
+      <c r="B15" s="72">
         <v>11</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H15" s="97">
+      <c r="H15" s="73">
         <v>44869</v>
       </c>
-      <c r="I15" s="97">
+      <c r="I15" s="73">
         <v>44869</v>
       </c>
-      <c r="J15" s="96" t="s">
+      <c r="J15" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K15" s="96"/>
+      <c r="K15" s="72"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="96">
+      <c r="B16" s="72">
         <v>13</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="72" t="s">
         <v>346</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="F16" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H16" s="97">
+      <c r="H16" s="73">
         <v>44869</v>
       </c>
-      <c r="I16" s="97">
+      <c r="I16" s="73">
         <v>44869</v>
       </c>
-      <c r="J16" s="96" t="s">
+      <c r="J16" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K16" s="96"/>
+      <c r="K16" s="72"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="96">
+      <c r="B17" s="72">
         <v>15</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="96" t="s">
+      <c r="F17" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G17" s="96" t="s">
+      <c r="G17" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H17" s="97">
+      <c r="H17" s="73">
         <v>44872</v>
       </c>
-      <c r="I17" s="97">
+      <c r="I17" s="73">
         <v>44872</v>
       </c>
-      <c r="J17" s="96" t="s">
+      <c r="J17" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K17" s="96"/>
+      <c r="K17" s="72"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="96">
+      <c r="B18" s="72">
         <v>17</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F18" s="96" t="s">
+      <c r="F18" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G18" s="96" t="s">
+      <c r="G18" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H18" s="97">
+      <c r="H18" s="73">
         <v>44872</v>
       </c>
-      <c r="I18" s="97">
+      <c r="I18" s="73">
         <v>44872</v>
       </c>
-      <c r="J18" s="96" t="s">
+      <c r="J18" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K18" s="96"/>
+      <c r="K18" s="72"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
@@ -2961,10 +2961,10 @@
       <c r="G19" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H19" s="93">
+      <c r="H19" s="69">
         <v>44881</v>
       </c>
-      <c r="I19" s="93">
+      <c r="I19" s="69">
         <v>44872</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -2991,10 +2991,10 @@
       <c r="G20" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="69">
         <v>44881</v>
       </c>
-      <c r="I20" s="93">
+      <c r="I20" s="69">
         <v>44872</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -3021,10 +3021,10 @@
       <c r="G21" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="93">
+      <c r="H21" s="69">
         <v>44881</v>
       </c>
-      <c r="I21" s="93">
+      <c r="I21" s="69">
         <v>44873</v>
       </c>
       <c r="J21" s="4" t="s">
@@ -3051,10 +3051,10 @@
       <c r="G22" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="93">
+      <c r="H22" s="69">
         <v>44881</v>
       </c>
-      <c r="I22" s="93">
+      <c r="I22" s="69">
         <v>44873</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -3063,34 +3063,34 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="96">
+      <c r="B23" s="72">
         <v>23</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="96" t="s">
+      <c r="D23" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F23" s="96" t="s">
+      <c r="F23" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="96" t="s">
+      <c r="G23" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H23" s="97">
+      <c r="H23" s="73">
         <v>44874</v>
       </c>
-      <c r="I23" s="97">
+      <c r="I23" s="73">
         <v>44874</v>
       </c>
-      <c r="J23" s="96" t="s">
+      <c r="J23" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K23" s="96"/>
+      <c r="K23" s="72"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
@@ -3111,10 +3111,10 @@
       <c r="G24" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H24" s="93">
+      <c r="H24" s="69">
         <v>44881</v>
       </c>
-      <c r="I24" s="93">
+      <c r="I24" s="69">
         <v>44874</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -3141,10 +3141,10 @@
       <c r="G25" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H25" s="93">
+      <c r="H25" s="69">
         <v>44881</v>
       </c>
-      <c r="I25" s="93">
+      <c r="I25" s="69">
         <v>44874</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -3153,88 +3153,88 @@
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="87">
+      <c r="B26" s="63">
         <v>1</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87" t="s">
-        <v>382</v>
-      </c>
-      <c r="H26" s="90">
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="66">
         <v>44847</v>
       </c>
-      <c r="I26" s="90">
+      <c r="I26" s="66">
         <v>44875</v>
       </c>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="96">
+      <c r="B27" s="72">
         <v>27</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="96" t="s">
+      <c r="E27" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F27" s="96" t="s">
+      <c r="F27" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G27" s="96" t="s">
+      <c r="G27" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H27" s="97">
+      <c r="H27" s="73">
         <v>44875</v>
       </c>
-      <c r="I27" s="97">
+      <c r="I27" s="73">
         <v>44875</v>
       </c>
-      <c r="J27" s="96" t="s">
+      <c r="J27" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K27" s="96"/>
+      <c r="K27" s="72"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="96">
+      <c r="B28" s="72">
         <v>29</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="96" t="s">
+      <c r="E28" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F28" s="96" t="s">
+      <c r="F28" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G28" s="96" t="s">
+      <c r="G28" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H28" s="97">
+      <c r="H28" s="73">
         <v>44875</v>
       </c>
-      <c r="I28" s="97">
+      <c r="I28" s="73">
         <v>44875</v>
       </c>
-      <c r="J28" s="96" t="s">
+      <c r="J28" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K28" s="96"/>
+      <c r="K28" s="72"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
@@ -3255,10 +3255,10 @@
       <c r="G29" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="93">
+      <c r="H29" s="69">
         <v>44881</v>
       </c>
-      <c r="I29" s="93">
+      <c r="I29" s="69">
         <v>44875</v>
       </c>
       <c r="J29" s="4" t="s">
@@ -3285,10 +3285,10 @@
       <c r="G30" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H30" s="93">
+      <c r="H30" s="69">
         <v>44881</v>
       </c>
-      <c r="I30" s="93">
+      <c r="I30" s="69">
         <v>44875</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -3312,13 +3312,13 @@
       <c r="F31" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H31" s="93">
+      <c r="G31" s="98" t="s">
+        <v>381</v>
+      </c>
+      <c r="H31" s="69">
         <v>44879</v>
       </c>
-      <c r="I31" s="93">
+      <c r="I31" s="69">
         <v>44879</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -3347,10 +3347,10 @@
       <c r="G32" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H32" s="93">
+      <c r="H32" s="69">
         <v>44874</v>
       </c>
-      <c r="I32" s="93">
+      <c r="I32" s="69">
         <v>44881</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -3359,94 +3359,94 @@
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="96">
+      <c r="B33" s="72">
         <v>31</v>
       </c>
-      <c r="C33" s="96" t="s">
+      <c r="C33" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="96" t="s">
+      <c r="D33" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="96" t="s">
+      <c r="E33" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F33" s="96" t="s">
+      <c r="F33" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G33" s="96" t="s">
+      <c r="G33" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H33" s="97">
+      <c r="H33" s="73">
         <v>44876</v>
       </c>
-      <c r="I33" s="97">
+      <c r="I33" s="73">
         <v>44881</v>
       </c>
-      <c r="J33" s="96" t="s">
+      <c r="J33" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K33" s="96"/>
+      <c r="K33" s="72"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="96">
+      <c r="B34" s="72">
         <v>33</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="96" t="s">
+      <c r="D34" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="96" t="s">
+      <c r="E34" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F34" s="96" t="s">
+      <c r="F34" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="96" t="s">
+      <c r="G34" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H34" s="97">
+      <c r="H34" s="73">
         <v>44876</v>
       </c>
-      <c r="I34" s="97">
+      <c r="I34" s="73">
         <v>44881</v>
       </c>
-      <c r="J34" s="96" t="s">
+      <c r="J34" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K34" s="96"/>
+      <c r="K34" s="72"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="96">
+      <c r="B35" s="72">
         <v>35</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="96" t="s">
+      <c r="D35" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="96" t="s">
+      <c r="E35" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="F35" s="96" t="s">
+      <c r="F35" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="96" t="s">
+      <c r="G35" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H35" s="97">
+      <c r="H35" s="73">
         <v>44879</v>
       </c>
-      <c r="I35" s="97">
+      <c r="I35" s="73">
         <v>44881</v>
       </c>
-      <c r="J35" s="96" t="s">
+      <c r="J35" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K35" s="96"/>
+      <c r="K35" s="72"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
@@ -3464,13 +3464,13 @@
       <c r="F36" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="93">
+      <c r="G36" s="98" t="s">
+        <v>381</v>
+      </c>
+      <c r="H36" s="69">
         <v>44880</v>
       </c>
-      <c r="I36" s="93">
+      <c r="I36" s="69">
         <v>44881</v>
       </c>
       <c r="J36" s="4" t="s">
@@ -3496,13 +3496,13 @@
       <c r="F37" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H37" s="93">
+      <c r="G37" s="98" t="s">
+        <v>381</v>
+      </c>
+      <c r="H37" s="69">
         <v>44880</v>
       </c>
-      <c r="I37" s="93">
+      <c r="I37" s="69">
         <v>44881</v>
       </c>
       <c r="J37" s="4" t="s">
@@ -3513,34 +3513,34 @@
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="96">
+      <c r="B38" s="72">
         <v>43</v>
       </c>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="96" t="s">
+      <c r="E38" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="F38" s="96" t="s">
+      <c r="F38" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G38" s="96" t="s">
+      <c r="G38" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H38" s="97">
+      <c r="H38" s="73">
         <v>44881</v>
       </c>
-      <c r="I38" s="97">
+      <c r="I38" s="73">
         <v>44881</v>
       </c>
-      <c r="J38" s="96" t="s">
+      <c r="J38" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K38" s="96"/>
+      <c r="K38" s="72"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
@@ -3558,13 +3558,13 @@
       <c r="F39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H39" s="88">
+      <c r="G39" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="64">
         <v>44876</v>
       </c>
-      <c r="I39" s="88">
+      <c r="I39" s="64">
         <v>44882</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -3591,10 +3591,10 @@
       <c r="G40" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H40" s="88">
+      <c r="H40" s="64">
         <v>44876</v>
       </c>
-      <c r="I40" s="88">
+      <c r="I40" s="64">
         <v>44882</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -3618,13 +3618,13 @@
       <c r="F41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H41" s="88">
+      <c r="G41" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="64">
         <v>44879</v>
       </c>
-      <c r="I41" s="88">
+      <c r="I41" s="64">
         <v>44882</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -3651,10 +3651,10 @@
       <c r="G42" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H42" s="88">
+      <c r="H42" s="64">
         <v>44879</v>
       </c>
-      <c r="I42" s="88">
+      <c r="I42" s="64">
         <v>44882</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -3663,34 +3663,34 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="96">
+      <c r="B43" s="72">
         <v>45</v>
       </c>
-      <c r="C43" s="96" t="s">
+      <c r="C43" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="96" t="s">
+      <c r="D43" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="96" t="s">
+      <c r="E43" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="F43" s="96" t="s">
+      <c r="F43" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G43" s="96" t="s">
+      <c r="G43" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H43" s="97">
+      <c r="H43" s="73">
         <v>44881</v>
       </c>
-      <c r="I43" s="97">
+      <c r="I43" s="73">
         <v>44882</v>
       </c>
-      <c r="J43" s="96" t="s">
+      <c r="J43" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K43" s="96"/>
+      <c r="K43" s="72"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
@@ -3708,13 +3708,13 @@
       <c r="F44" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H44" s="93">
+      <c r="G44" s="98" t="s">
+        <v>381</v>
+      </c>
+      <c r="H44" s="69">
         <v>44882</v>
       </c>
-      <c r="I44" s="93">
+      <c r="I44" s="69">
         <v>44882</v>
       </c>
       <c r="J44" s="4" t="s">
@@ -3740,13 +3740,13 @@
       <c r="F45" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H45" s="93">
+      <c r="G45" s="98" t="s">
+        <v>381</v>
+      </c>
+      <c r="H45" s="69">
         <v>44882</v>
       </c>
-      <c r="I45" s="93">
+      <c r="I45" s="69">
         <v>44882</v>
       </c>
       <c r="J45" s="4" t="s">
@@ -3773,12 +3773,12 @@
         <v>152</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H46" s="88">
+        <v>166</v>
+      </c>
+      <c r="H46" s="64">
         <v>44880</v>
       </c>
-      <c r="I46" s="88">
+      <c r="I46" s="64">
         <v>44883</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -3805,10 +3805,10 @@
       <c r="G47" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H47" s="88">
+      <c r="H47" s="64">
         <v>44880</v>
       </c>
-      <c r="I47" s="88">
+      <c r="I47" s="64">
         <v>44883</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -3833,12 +3833,12 @@
         <v>152</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H48" s="88">
+        <v>166</v>
+      </c>
+      <c r="H48" s="64">
         <v>44881</v>
       </c>
-      <c r="I48" s="88">
+      <c r="I48" s="64">
         <v>44883</v>
       </c>
       <c r="J48" s="1" t="s">
@@ -3847,34 +3847,34 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="96">
+      <c r="B49" s="72">
         <v>51</v>
       </c>
-      <c r="C49" s="96" t="s">
+      <c r="C49" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="96" t="s">
+      <c r="D49" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="96" t="s">
+      <c r="E49" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="F49" s="96" t="s">
+      <c r="F49" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G49" s="96" t="s">
+      <c r="G49" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H49" s="97">
+      <c r="H49" s="73">
         <v>44883</v>
       </c>
-      <c r="I49" s="97">
+      <c r="I49" s="73">
         <v>44883</v>
       </c>
-      <c r="J49" s="96" t="s">
+      <c r="J49" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K49" s="96"/>
+      <c r="K49" s="72"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
@@ -3895,10 +3895,10 @@
       <c r="G50" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H50" s="88">
+      <c r="H50" s="64">
         <v>44881</v>
       </c>
-      <c r="I50" s="88">
+      <c r="I50" s="64">
         <v>44883</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -3907,34 +3907,34 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="96">
+      <c r="B51" s="72">
         <v>53</v>
       </c>
-      <c r="C51" s="96" t="s">
+      <c r="C51" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="96" t="s">
+      <c r="D51" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="96" t="s">
+      <c r="E51" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="F51" s="96" t="s">
+      <c r="F51" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G51" s="96" t="s">
+      <c r="G51" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H51" s="97">
+      <c r="H51" s="73">
         <v>44883</v>
       </c>
-      <c r="I51" s="97">
+      <c r="I51" s="73">
         <v>44883</v>
       </c>
-      <c r="J51" s="96" t="s">
+      <c r="J51" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K51" s="96"/>
+      <c r="K51" s="72"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
@@ -3953,12 +3953,12 @@
         <v>152</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H52" s="88">
+        <v>166</v>
+      </c>
+      <c r="H52" s="64">
         <v>44882</v>
       </c>
-      <c r="I52" s="88">
+      <c r="I52" s="64">
         <v>44886</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -3983,12 +3983,12 @@
         <v>161</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H53" s="88">
+        <v>381</v>
+      </c>
+      <c r="H53" s="64">
         <v>44886</v>
       </c>
-      <c r="I53" s="88">
+      <c r="I53" s="64">
         <v>44886</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -4015,10 +4015,10 @@
       <c r="G54" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H54" s="88">
+      <c r="H54" s="64">
         <v>44882</v>
       </c>
-      <c r="I54" s="88">
+      <c r="I54" s="64">
         <v>44886</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -4027,34 +4027,34 @@
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="96">
+      <c r="B55" s="72">
         <v>57</v>
       </c>
-      <c r="C55" s="96" t="s">
+      <c r="C55" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="96" t="s">
+      <c r="D55" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="96" t="s">
+      <c r="E55" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="F55" s="96" t="s">
+      <c r="F55" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G55" s="96" t="s">
+      <c r="G55" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H55" s="97">
+      <c r="H55" s="73">
         <v>44886</v>
       </c>
-      <c r="I55" s="97">
+      <c r="I55" s="73">
         <v>44886</v>
       </c>
-      <c r="J55" s="96" t="s">
+      <c r="J55" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K55" s="96"/>
+      <c r="K55" s="72"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
@@ -4075,10 +4075,10 @@
       <c r="G56" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H56" s="88">
+      <c r="H56" s="64">
         <v>44883</v>
       </c>
-      <c r="I56" s="88">
+      <c r="I56" s="64">
         <v>44886</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -4105,10 +4105,10 @@
       <c r="G57" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H57" s="88">
+      <c r="H57" s="64">
         <v>44883</v>
       </c>
-      <c r="I57" s="88">
+      <c r="I57" s="64">
         <v>44886</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -4133,10 +4133,10 @@
       <c r="G58" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H58" s="88">
+      <c r="H58" s="64">
         <v>44886</v>
       </c>
-      <c r="I58" s="88">
+      <c r="I58" s="64">
         <v>44886</v>
       </c>
       <c r="J58" s="1" t="s">
@@ -4161,10 +4161,10 @@
       <c r="G59" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H59" s="88">
+      <c r="H59" s="64">
         <v>44886</v>
       </c>
-      <c r="I59" s="88">
+      <c r="I59" s="64">
         <v>44886</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -4189,10 +4189,10 @@
       <c r="G60" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H60" s="88">
+      <c r="H60" s="64">
         <v>44886</v>
       </c>
-      <c r="I60" s="88">
+      <c r="I60" s="64">
         <v>44886</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -4201,34 +4201,34 @@
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="96">
+      <c r="B61" s="72">
         <v>59</v>
       </c>
-      <c r="C61" s="96" t="s">
+      <c r="C61" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="96" t="s">
+      <c r="D61" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="96" t="s">
+      <c r="E61" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="F61" s="96" t="s">
+      <c r="F61" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G61" s="96" t="s">
+      <c r="G61" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="H61" s="97">
+      <c r="H61" s="73">
         <v>44887</v>
       </c>
-      <c r="I61" s="97">
+      <c r="I61" s="73">
         <v>44887</v>
       </c>
-      <c r="J61" s="96" t="s">
+      <c r="J61" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K61" s="96"/>
+      <c r="K61" s="72"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
@@ -4247,12 +4247,12 @@
         <v>161</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H62" s="93">
+        <v>381</v>
+      </c>
+      <c r="H62" s="69">
         <v>44887</v>
       </c>
-      <c r="I62" s="93">
+      <c r="I62" s="69">
         <v>44887</v>
       </c>
       <c r="J62" s="4" t="s">
@@ -4277,10 +4277,10 @@
       <c r="G63" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H63" s="88">
+      <c r="H63" s="64">
         <v>44887</v>
       </c>
-      <c r="I63" s="88">
+      <c r="I63" s="64">
         <v>44887</v>
       </c>
       <c r="J63" s="1" t="s">
@@ -4305,10 +4305,10 @@
       <c r="G64" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H64" s="88">
+      <c r="H64" s="64">
         <v>44887</v>
       </c>
-      <c r="I64" s="88">
+      <c r="I64" s="64">
         <v>44887</v>
       </c>
       <c r="J64" s="1" t="s">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>63</v>
       </c>
@@ -4335,10 +4335,10 @@
       <c r="G65" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H65" s="93">
+      <c r="H65" s="69">
         <v>44888</v>
       </c>
-      <c r="I65" s="93">
+      <c r="I65" s="69">
         <v>44888</v>
       </c>
       <c r="J65" s="4" t="s">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>65</v>
       </c>
@@ -4363,10 +4363,10 @@
       <c r="G66" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H66" s="88">
+      <c r="H66" s="64">
         <v>44888</v>
       </c>
-      <c r="I66" s="88">
+      <c r="I66" s="64">
         <v>44888</v>
       </c>
       <c r="J66" s="1" t="s">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>72</v>
       </c>
@@ -4391,10 +4391,10 @@
       <c r="G67" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H67" s="88">
+      <c r="H67" s="64">
         <v>44888</v>
       </c>
-      <c r="I67" s="88">
+      <c r="I67" s="64">
         <v>44888</v>
       </c>
       <c r="J67" s="1" t="s">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>74</v>
       </c>
@@ -4419,10 +4419,10 @@
       <c r="G68" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H68" s="88">
+      <c r="H68" s="64">
         <v>44888</v>
       </c>
-      <c r="I68" s="88">
+      <c r="I68" s="64">
         <v>44888</v>
       </c>
       <c r="J68" s="1" t="s">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -4447,10 +4447,10 @@
       <c r="G69" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H69" s="88">
+      <c r="H69" s="64">
         <v>44889</v>
       </c>
-      <c r="I69" s="88">
+      <c r="I69" s="64">
         <v>44889</v>
       </c>
       <c r="J69" s="1" t="s">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>69</v>
       </c>
@@ -4475,10 +4475,10 @@
       <c r="G70" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H70" s="88">
+      <c r="H70" s="64">
         <v>44889</v>
       </c>
-      <c r="I70" s="88">
+      <c r="I70" s="64">
         <v>44889</v>
       </c>
       <c r="J70" s="1" t="s">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>76</v>
       </c>
@@ -4503,10 +4503,10 @@
       <c r="G71" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H71" s="88">
+      <c r="H71" s="64">
         <v>44889</v>
       </c>
-      <c r="I71" s="88">
+      <c r="I71" s="64">
         <v>44889</v>
       </c>
       <c r="J71" s="1" t="s">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>78</v>
       </c>
@@ -4531,10 +4531,10 @@
       <c r="G72" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H72" s="88">
+      <c r="H72" s="64">
         <v>44889</v>
       </c>
-      <c r="I72" s="88">
+      <c r="I72" s="64">
         <v>44889</v>
       </c>
       <c r="J72" s="1" t="s">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -4559,10 +4559,10 @@
       <c r="G73" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H73" s="88">
+      <c r="H73" s="64">
         <v>44890</v>
       </c>
-      <c r="I73" s="88">
+      <c r="I73" s="64">
         <v>44890</v>
       </c>
       <c r="J73" s="1" t="s">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>73</v>
       </c>
@@ -4587,10 +4587,10 @@
       <c r="G74" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H74" s="88">
+      <c r="H74" s="64">
         <v>44890</v>
       </c>
-      <c r="I74" s="88">
+      <c r="I74" s="64">
         <v>44890</v>
       </c>
       <c r="J74" s="1" t="s">
@@ -4615,10 +4615,10 @@
       <c r="G75" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H75" s="88">
+      <c r="H75" s="64">
         <v>44893</v>
       </c>
-      <c r="I75" s="88">
+      <c r="I75" s="64">
         <v>44893</v>
       </c>
       <c r="J75" s="1" t="s">
@@ -4643,10 +4643,10 @@
       <c r="G76" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H76" s="88">
+      <c r="H76" s="64">
         <v>44893</v>
       </c>
-      <c r="I76" s="88">
+      <c r="I76" s="64">
         <v>44893</v>
       </c>
       <c r="J76" s="1" t="s">
@@ -4671,10 +4671,10 @@
       <c r="G77" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H77" s="88">
+      <c r="H77" s="64">
         <v>44893</v>
       </c>
-      <c r="I77" s="88">
+      <c r="I77" s="64">
         <v>44893</v>
       </c>
       <c r="J77" s="1" t="s">
@@ -4699,10 +4699,10 @@
       <c r="G78" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H78" s="88">
+      <c r="H78" s="64">
         <v>44893</v>
       </c>
-      <c r="I78" s="88">
+      <c r="I78" s="64">
         <v>44893</v>
       </c>
       <c r="J78" s="1" t="s">
@@ -4727,10 +4727,10 @@
       <c r="G79" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H79" s="88">
+      <c r="H79" s="64">
         <v>44894</v>
       </c>
-      <c r="I79" s="88">
+      <c r="I79" s="64">
         <v>44894</v>
       </c>
       <c r="J79" s="1" t="s">
@@ -4755,10 +4755,10 @@
       <c r="G80" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H80" s="88">
+      <c r="H80" s="64">
         <v>44894</v>
       </c>
-      <c r="I80" s="88">
+      <c r="I80" s="64">
         <v>44894</v>
       </c>
       <c r="J80" s="1" t="s">
@@ -4783,10 +4783,10 @@
       <c r="G81" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H81" s="88">
+      <c r="H81" s="64">
         <v>44894</v>
       </c>
-      <c r="I81" s="88">
+      <c r="I81" s="64">
         <v>44894</v>
       </c>
       <c r="J81" s="1" t="s">
@@ -4811,10 +4811,10 @@
       <c r="G82" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H82" s="88">
+      <c r="H82" s="64">
         <v>44894</v>
       </c>
-      <c r="I82" s="88">
+      <c r="I82" s="64">
         <v>44894</v>
       </c>
       <c r="J82" s="1" t="s">
@@ -4839,10 +4839,10 @@
       <c r="G83" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H83" s="88">
+      <c r="H83" s="64">
         <v>44895</v>
       </c>
-      <c r="I83" s="88">
+      <c r="I83" s="64">
         <v>44895</v>
       </c>
       <c r="J83" s="1" t="s">
@@ -4867,10 +4867,10 @@
       <c r="G84" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H84" s="88">
+      <c r="H84" s="64">
         <v>44895</v>
       </c>
-      <c r="I84" s="88">
+      <c r="I84" s="64">
         <v>44895</v>
       </c>
       <c r="J84" s="1" t="s">
@@ -4895,10 +4895,10 @@
       <c r="G85" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H85" s="88">
+      <c r="H85" s="64">
         <v>44895</v>
       </c>
-      <c r="I85" s="88">
+      <c r="I85" s="64">
         <v>44895</v>
       </c>
       <c r="J85" s="1" t="s">
@@ -4923,10 +4923,10 @@
       <c r="G86" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H86" s="88">
+      <c r="H86" s="64">
         <v>44895</v>
       </c>
-      <c r="I86" s="88">
+      <c r="I86" s="64">
         <v>44895</v>
       </c>
       <c r="J86" s="1" t="s">
@@ -4951,10 +4951,10 @@
       <c r="G87" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H87" s="88">
+      <c r="H87" s="64">
         <v>44896</v>
       </c>
-      <c r="I87" s="88">
+      <c r="I87" s="64">
         <v>44896</v>
       </c>
       <c r="J87" s="1" t="s">
@@ -4979,10 +4979,10 @@
       <c r="G88" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H88" s="88">
+      <c r="H88" s="64">
         <v>44896</v>
       </c>
-      <c r="I88" s="88">
+      <c r="I88" s="64">
         <v>44896</v>
       </c>
       <c r="J88" s="1" t="s">
@@ -5007,10 +5007,10 @@
       <c r="G89" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H89" s="88">
+      <c r="H89" s="64">
         <v>44896</v>
       </c>
-      <c r="I89" s="88">
+      <c r="I89" s="64">
         <v>44896</v>
       </c>
       <c r="J89" s="1" t="s">
@@ -5035,10 +5035,10 @@
       <c r="G90" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H90" s="88">
+      <c r="H90" s="64">
         <v>44896</v>
       </c>
-      <c r="I90" s="88">
+      <c r="I90" s="64">
         <v>44896</v>
       </c>
       <c r="J90" s="1" t="s">
@@ -5063,10 +5063,10 @@
       <c r="G91" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H91" s="88">
+      <c r="H91" s="64">
         <v>44897</v>
       </c>
-      <c r="I91" s="88">
+      <c r="I91" s="64">
         <v>44897</v>
       </c>
       <c r="J91" s="1" t="s">
@@ -5091,10 +5091,10 @@
       <c r="G92" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H92" s="88">
+      <c r="H92" s="64">
         <v>44897</v>
       </c>
-      <c r="I92" s="88">
+      <c r="I92" s="64">
         <v>44897</v>
       </c>
       <c r="J92" s="1" t="s">
@@ -5119,10 +5119,10 @@
       <c r="G93" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H93" s="88">
+      <c r="H93" s="64">
         <v>44897</v>
       </c>
-      <c r="I93" s="88">
+      <c r="I93" s="64">
         <v>44897</v>
       </c>
       <c r="J93" s="1" t="s">
@@ -5147,10 +5147,10 @@
       <c r="G94" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H94" s="88">
+      <c r="H94" s="64">
         <v>44897</v>
       </c>
-      <c r="I94" s="88">
+      <c r="I94" s="64">
         <v>44897</v>
       </c>
       <c r="J94" s="1" t="s">
@@ -5175,10 +5175,10 @@
       <c r="G95" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H95" s="88">
+      <c r="H95" s="64">
         <v>44900</v>
       </c>
-      <c r="I95" s="88">
+      <c r="I95" s="64">
         <v>44900</v>
       </c>
       <c r="J95" s="1" t="s">
@@ -5203,10 +5203,10 @@
       <c r="G96" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H96" s="88">
+      <c r="H96" s="64">
         <v>44900</v>
       </c>
-      <c r="I96" s="88">
+      <c r="I96" s="64">
         <v>44900</v>
       </c>
       <c r="J96" s="1" t="s">
@@ -5231,10 +5231,10 @@
       <c r="G97" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H97" s="88">
+      <c r="H97" s="64">
         <v>44900</v>
       </c>
-      <c r="I97" s="88">
+      <c r="I97" s="64">
         <v>44900</v>
       </c>
       <c r="J97" s="1" t="s">
@@ -5259,10 +5259,10 @@
       <c r="G98" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H98" s="88">
+      <c r="H98" s="64">
         <v>44900</v>
       </c>
-      <c r="I98" s="88">
+      <c r="I98" s="64">
         <v>44900</v>
       </c>
       <c r="J98" s="1" t="s">
@@ -5287,10 +5287,10 @@
       <c r="G99" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H99" s="88">
+      <c r="H99" s="64">
         <v>44901</v>
       </c>
-      <c r="I99" s="88">
+      <c r="I99" s="64">
         <v>44901</v>
       </c>
       <c r="J99" s="1" t="s">
@@ -5315,10 +5315,10 @@
       <c r="G100" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H100" s="88">
+      <c r="H100" s="64">
         <v>44901</v>
       </c>
-      <c r="I100" s="88">
+      <c r="I100" s="64">
         <v>44901</v>
       </c>
       <c r="J100" s="1" t="s">
@@ -5343,10 +5343,10 @@
       <c r="G101" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H101" s="88">
+      <c r="H101" s="64">
         <v>44901</v>
       </c>
-      <c r="I101" s="88">
+      <c r="I101" s="64">
         <v>44901</v>
       </c>
       <c r="J101" s="1" t="s">
@@ -5371,10 +5371,10 @@
       <c r="G102" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H102" s="88">
+      <c r="H102" s="64">
         <v>44901</v>
       </c>
-      <c r="I102" s="88">
+      <c r="I102" s="64">
         <v>44901</v>
       </c>
       <c r="J102" s="1" t="s">
@@ -5399,10 +5399,10 @@
       <c r="G103" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H103" s="88">
+      <c r="H103" s="64">
         <v>44902</v>
       </c>
-      <c r="I103" s="88">
+      <c r="I103" s="64">
         <v>44902</v>
       </c>
       <c r="J103" s="1" t="s">
@@ -5427,10 +5427,10 @@
       <c r="G104" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H104" s="88">
+      <c r="H104" s="64">
         <v>44902</v>
       </c>
-      <c r="I104" s="88">
+      <c r="I104" s="64">
         <v>44902</v>
       </c>
       <c r="J104" s="1" t="s">
@@ -5455,10 +5455,10 @@
       <c r="G105" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H105" s="88">
+      <c r="H105" s="64">
         <v>44902</v>
       </c>
-      <c r="I105" s="88">
+      <c r="I105" s="64">
         <v>44902</v>
       </c>
       <c r="J105" s="1" t="s">
@@ -5483,10 +5483,10 @@
       <c r="G106" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H106" s="88">
+      <c r="H106" s="64">
         <v>44902</v>
       </c>
-      <c r="I106" s="88">
+      <c r="I106" s="64">
         <v>44902</v>
       </c>
       <c r="J106" s="1" t="s">
@@ -5511,10 +5511,10 @@
       <c r="G107" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H107" s="88">
+      <c r="H107" s="64">
         <v>44903</v>
       </c>
-      <c r="I107" s="88">
+      <c r="I107" s="64">
         <v>44903</v>
       </c>
       <c r="J107" s="1" t="s">
@@ -5539,10 +5539,10 @@
       <c r="G108" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H108" s="88">
+      <c r="H108" s="64">
         <v>44903</v>
       </c>
-      <c r="I108" s="88">
+      <c r="I108" s="64">
         <v>44903</v>
       </c>
       <c r="J108" s="1" t="s">
@@ -5567,10 +5567,10 @@
       <c r="G109" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H109" s="88">
+      <c r="H109" s="64">
         <v>44903</v>
       </c>
-      <c r="I109" s="88">
+      <c r="I109" s="64">
         <v>44903</v>
       </c>
       <c r="J109" s="1" t="s">
@@ -5595,10 +5595,10 @@
       <c r="G110" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H110" s="88">
+      <c r="H110" s="64">
         <v>44903</v>
       </c>
-      <c r="I110" s="88">
+      <c r="I110" s="64">
         <v>44903</v>
       </c>
       <c r="J110" s="1" t="s">
@@ -5623,10 +5623,10 @@
       <c r="G111" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H111" s="88">
+      <c r="H111" s="64">
         <v>44904</v>
       </c>
-      <c r="I111" s="88">
+      <c r="I111" s="64">
         <v>44904</v>
       </c>
       <c r="J111" s="1" t="s">
@@ -5651,10 +5651,10 @@
       <c r="G112" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H112" s="88">
+      <c r="H112" s="64">
         <v>44904</v>
       </c>
-      <c r="I112" s="88">
+      <c r="I112" s="64">
         <v>44904</v>
       </c>
       <c r="J112" s="1" t="s">
@@ -5679,10 +5679,10 @@
       <c r="G113" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H113" s="88">
+      <c r="H113" s="64">
         <v>44904</v>
       </c>
-      <c r="I113" s="88">
+      <c r="I113" s="64">
         <v>44904</v>
       </c>
       <c r="J113" s="1" t="s">
@@ -5707,10 +5707,10 @@
       <c r="G114" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H114" s="88">
+      <c r="H114" s="64">
         <v>44907</v>
       </c>
-      <c r="I114" s="88">
+      <c r="I114" s="64">
         <v>44907</v>
       </c>
       <c r="J114" s="1" t="s">
@@ -5735,10 +5735,10 @@
       <c r="G115" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H115" s="88">
+      <c r="H115" s="64">
         <v>44907</v>
       </c>
-      <c r="I115" s="88">
+      <c r="I115" s="64">
         <v>44907</v>
       </c>
       <c r="J115" s="1" t="s">
@@ -5763,10 +5763,10 @@
       <c r="G116" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H116" s="88">
+      <c r="H116" s="64">
         <v>44907</v>
       </c>
-      <c r="I116" s="88">
+      <c r="I116" s="64">
         <v>44907</v>
       </c>
       <c r="J116" s="1" t="s">
@@ -5791,10 +5791,10 @@
       <c r="G117" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H117" s="88">
+      <c r="H117" s="64">
         <v>44907</v>
       </c>
-      <c r="I117" s="88">
+      <c r="I117" s="64">
         <v>44907</v>
       </c>
       <c r="J117" s="1" t="s">
@@ -5819,10 +5819,10 @@
       <c r="G118" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H118" s="88">
+      <c r="H118" s="64">
         <v>44908</v>
       </c>
-      <c r="I118" s="88">
+      <c r="I118" s="64">
         <v>44908</v>
       </c>
       <c r="J118" s="1" t="s">
@@ -5847,10 +5847,10 @@
       <c r="G119" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H119" s="88">
+      <c r="H119" s="64">
         <v>44908</v>
       </c>
-      <c r="I119" s="88">
+      <c r="I119" s="64">
         <v>44908</v>
       </c>
       <c r="J119" s="1" t="s">
@@ -5875,10 +5875,10 @@
       <c r="G120" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H120" s="88">
+      <c r="H120" s="64">
         <v>44908</v>
       </c>
-      <c r="I120" s="88">
+      <c r="I120" s="64">
         <v>44908</v>
       </c>
       <c r="J120" s="1" t="s">
@@ -5903,10 +5903,10 @@
       <c r="G121" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H121" s="88">
+      <c r="H121" s="64">
         <v>44909</v>
       </c>
-      <c r="I121" s="88">
+      <c r="I121" s="64">
         <v>44909</v>
       </c>
       <c r="J121" s="1" t="s">
@@ -5931,10 +5931,10 @@
       <c r="G122" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H122" s="88">
+      <c r="H122" s="64">
         <v>44909</v>
       </c>
-      <c r="I122" s="88">
+      <c r="I122" s="64">
         <v>44909</v>
       </c>
       <c r="J122" s="1" t="s">
@@ -5959,10 +5959,10 @@
       <c r="G123" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H123" s="88">
+      <c r="H123" s="64">
         <v>44911</v>
       </c>
-      <c r="I123" s="88">
+      <c r="I123" s="64">
         <v>44911</v>
       </c>
       <c r="J123" s="1" t="s">
@@ -5987,10 +5987,10 @@
       <c r="G124" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H124" s="88">
+      <c r="H124" s="64">
         <v>44911</v>
       </c>
-      <c r="I124" s="88">
+      <c r="I124" s="64">
         <v>44911</v>
       </c>
       <c r="J124" s="1" t="s">
@@ -6015,10 +6015,10 @@
       <c r="G125" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H125" s="88">
+      <c r="H125" s="64">
         <v>44914</v>
       </c>
-      <c r="I125" s="88">
+      <c r="I125" s="64">
         <v>44914</v>
       </c>
       <c r="J125" s="1" t="s">
@@ -6043,10 +6043,10 @@
       <c r="G126" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H126" s="88">
+      <c r="H126" s="64">
         <v>44914</v>
       </c>
-      <c r="I126" s="88">
+      <c r="I126" s="64">
         <v>44914</v>
       </c>
       <c r="J126" s="1" t="s">
@@ -6071,10 +6071,10 @@
       <c r="G127" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H127" s="88">
+      <c r="H127" s="64">
         <v>44914</v>
       </c>
-      <c r="I127" s="88">
+      <c r="I127" s="64">
         <v>44914</v>
       </c>
       <c r="J127" s="1" t="s">
@@ -6099,10 +6099,10 @@
       <c r="G128" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H128" s="88">
+      <c r="H128" s="64">
         <v>44914</v>
       </c>
-      <c r="I128" s="88">
+      <c r="I128" s="64">
         <v>44914</v>
       </c>
       <c r="J128" s="1" t="s">
@@ -6127,10 +6127,10 @@
       <c r="G129" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H129" s="88">
+      <c r="H129" s="64">
         <v>44915</v>
       </c>
-      <c r="I129" s="88">
+      <c r="I129" s="64">
         <v>44915</v>
       </c>
       <c r="J129" s="1" t="s">
@@ -6155,10 +6155,10 @@
       <c r="G130" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H130" s="88">
+      <c r="H130" s="64">
         <v>44915</v>
       </c>
-      <c r="I130" s="88">
+      <c r="I130" s="64">
         <v>44915</v>
       </c>
       <c r="J130" s="1" t="s">
@@ -6183,10 +6183,10 @@
       <c r="G131" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H131" s="88">
+      <c r="H131" s="64">
         <v>44915</v>
       </c>
-      <c r="I131" s="88">
+      <c r="I131" s="64">
         <v>44915</v>
       </c>
       <c r="J131" s="1" t="s">
@@ -6211,10 +6211,10 @@
       <c r="G132" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H132" s="88">
+      <c r="H132" s="64">
         <v>44915</v>
       </c>
-      <c r="I132" s="88">
+      <c r="I132" s="64">
         <v>44915</v>
       </c>
       <c r="J132" s="1" t="s">
@@ -6239,10 +6239,10 @@
       <c r="G133" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H133" s="88">
+      <c r="H133" s="64">
         <v>44916</v>
       </c>
-      <c r="I133" s="88">
+      <c r="I133" s="64">
         <v>44916</v>
       </c>
       <c r="J133" s="1" t="s">
@@ -6267,10 +6267,10 @@
       <c r="G134" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H134" s="88">
+      <c r="H134" s="64">
         <v>44916</v>
       </c>
-      <c r="I134" s="88">
+      <c r="I134" s="64">
         <v>44916</v>
       </c>
       <c r="J134" s="1" t="s">
@@ -6279,60 +6279,60 @@
       <c r="K134" s="1"/>
     </row>
     <row r="135" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="94">
+      <c r="B135" s="70">
         <v>20</v>
       </c>
-      <c r="C135" s="94" t="s">
+      <c r="C135" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D135" s="94" t="s">
+      <c r="D135" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="94"/>
-      <c r="F135" s="94" t="s">
+      <c r="E135" s="70"/>
+      <c r="F135" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="G135" s="94" t="s">
-        <v>383</v>
-      </c>
-      <c r="H135" s="95">
+      <c r="G135" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="H135" s="71">
         <v>44916</v>
       </c>
-      <c r="I135" s="95">
+      <c r="I135" s="71">
         <v>44916</v>
       </c>
-      <c r="J135" s="94" t="s">
+      <c r="J135" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="K135" s="94"/>
+      <c r="K135" s="70"/>
     </row>
     <row r="136" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="94">
+      <c r="B136" s="70">
         <v>21</v>
       </c>
-      <c r="C136" s="94" t="s">
+      <c r="C136" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D136" s="94" t="s">
+      <c r="D136" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E136" s="94"/>
-      <c r="F136" s="94" t="s">
+      <c r="E136" s="70"/>
+      <c r="F136" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="G136" s="94" t="s">
-        <v>383</v>
-      </c>
-      <c r="H136" s="95">
+      <c r="G136" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="H136" s="71">
         <v>44916</v>
       </c>
-      <c r="I136" s="95">
+      <c r="I136" s="71">
         <v>44916</v>
       </c>
-      <c r="J136" s="94" t="s">
+      <c r="J136" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="K136" s="94"/>
+      <c r="K136" s="70"/>
     </row>
     <row r="137" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
@@ -6351,10 +6351,10 @@
       <c r="G137" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H137" s="88">
+      <c r="H137" s="64">
         <v>44916</v>
       </c>
-      <c r="I137" s="88">
+      <c r="I137" s="64">
         <v>44916</v>
       </c>
       <c r="J137" s="1" t="s">
@@ -6379,10 +6379,10 @@
       <c r="G138" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H138" s="88">
+      <c r="H138" s="64">
         <v>44916</v>
       </c>
-      <c r="I138" s="88">
+      <c r="I138" s="64">
         <v>44916</v>
       </c>
       <c r="J138" s="1" t="s">
@@ -6407,10 +6407,10 @@
       <c r="G139" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H139" s="88">
+      <c r="H139" s="64">
         <v>44917</v>
       </c>
-      <c r="I139" s="88">
+      <c r="I139" s="64">
         <v>44917</v>
       </c>
       <c r="J139" s="1" t="s">
@@ -6435,10 +6435,10 @@
       <c r="G140" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H140" s="88">
+      <c r="H140" s="64">
         <v>44917</v>
       </c>
-      <c r="I140" s="88">
+      <c r="I140" s="64">
         <v>44917</v>
       </c>
       <c r="J140" s="1" t="s">
@@ -6463,10 +6463,10 @@
       <c r="G141" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H141" s="88">
+      <c r="H141" s="64">
         <v>44917</v>
       </c>
-      <c r="I141" s="88">
+      <c r="I141" s="64">
         <v>44917</v>
       </c>
       <c r="J141" s="1" t="s">
@@ -6491,10 +6491,10 @@
       <c r="G142" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H142" s="88">
+      <c r="H142" s="64">
         <v>44917</v>
       </c>
-      <c r="I142" s="88">
+      <c r="I142" s="64">
         <v>44917</v>
       </c>
       <c r="J142" s="1" t="s">
@@ -6519,10 +6519,10 @@
       <c r="G143" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H143" s="88">
+      <c r="H143" s="64">
         <v>44918</v>
       </c>
-      <c r="I143" s="88">
+      <c r="I143" s="64">
         <v>44918</v>
       </c>
       <c r="J143" s="1" t="s">
@@ -6547,10 +6547,10 @@
       <c r="G144" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H144" s="88">
+      <c r="H144" s="64">
         <v>44918</v>
       </c>
-      <c r="I144" s="88">
+      <c r="I144" s="64">
         <v>44918</v>
       </c>
       <c r="J144" s="1" t="s">
@@ -6575,10 +6575,10 @@
       <c r="G145" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H145" s="88">
+      <c r="H145" s="64">
         <v>44918</v>
       </c>
-      <c r="I145" s="88">
+      <c r="I145" s="64">
         <v>44918</v>
       </c>
       <c r="J145" s="1" t="s">
@@ -6603,10 +6603,10 @@
       <c r="G146" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H146" s="88">
+      <c r="H146" s="64">
         <v>44918</v>
       </c>
-      <c r="I146" s="88">
+      <c r="I146" s="64">
         <v>44918</v>
       </c>
       <c r="J146" s="1" t="s">
@@ -6631,10 +6631,10 @@
       <c r="G147" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H147" s="88">
+      <c r="H147" s="64">
         <v>44921</v>
       </c>
-      <c r="I147" s="88">
+      <c r="I147" s="64">
         <v>44921</v>
       </c>
       <c r="J147" s="1" t="s">
@@ -6659,10 +6659,10 @@
       <c r="G148" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H148" s="88">
+      <c r="H148" s="64">
         <v>44921</v>
       </c>
-      <c r="I148" s="88">
+      <c r="I148" s="64">
         <v>44921</v>
       </c>
       <c r="J148" s="1" t="s">
@@ -6687,10 +6687,10 @@
       <c r="G149" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H149" s="88">
+      <c r="H149" s="64">
         <v>44921</v>
       </c>
-      <c r="I149" s="88">
+      <c r="I149" s="64">
         <v>44921</v>
       </c>
       <c r="J149" s="1" t="s">
@@ -6715,10 +6715,10 @@
       <c r="G150" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H150" s="88">
+      <c r="H150" s="64">
         <v>44921</v>
       </c>
-      <c r="I150" s="88">
+      <c r="I150" s="64">
         <v>44921</v>
       </c>
       <c r="J150" s="1" t="s">
@@ -6743,10 +6743,10 @@
       <c r="G151" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H151" s="88">
+      <c r="H151" s="64">
         <v>44922</v>
       </c>
-      <c r="I151" s="88">
+      <c r="I151" s="64">
         <v>44922</v>
       </c>
       <c r="J151" s="1" t="s">
@@ -6771,10 +6771,10 @@
       <c r="G152" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H152" s="88">
+      <c r="H152" s="64">
         <v>44922</v>
       </c>
-      <c r="I152" s="88">
+      <c r="I152" s="64">
         <v>44922</v>
       </c>
       <c r="J152" s="1" t="s">
@@ -6799,10 +6799,10 @@
       <c r="G153" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H153" s="88">
+      <c r="H153" s="64">
         <v>44922</v>
       </c>
-      <c r="I153" s="88">
+      <c r="I153" s="64">
         <v>44922</v>
       </c>
       <c r="J153" s="1" t="s">
@@ -6827,10 +6827,10 @@
       <c r="G154" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H154" s="88">
+      <c r="H154" s="64">
         <v>44922</v>
       </c>
-      <c r="I154" s="88">
+      <c r="I154" s="64">
         <v>44922</v>
       </c>
       <c r="J154" s="1" t="s">
@@ -6855,10 +6855,10 @@
       <c r="G155" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H155" s="88">
+      <c r="H155" s="64">
         <v>44923</v>
       </c>
-      <c r="I155" s="88">
+      <c r="I155" s="64">
         <v>44923</v>
       </c>
       <c r="J155" s="1" t="s">
@@ -6883,10 +6883,10 @@
       <c r="G156" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H156" s="88">
+      <c r="H156" s="64">
         <v>44923</v>
       </c>
-      <c r="I156" s="88">
+      <c r="I156" s="64">
         <v>44923</v>
       </c>
       <c r="J156" s="1" t="s">
@@ -6911,10 +6911,10 @@
       <c r="G157" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H157" s="88">
+      <c r="H157" s="64">
         <v>44923</v>
       </c>
-      <c r="I157" s="88">
+      <c r="I157" s="64">
         <v>44923</v>
       </c>
       <c r="J157" s="1" t="s">
@@ -6939,10 +6939,10 @@
       <c r="G158" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H158" s="88">
+      <c r="H158" s="64">
         <v>44924</v>
       </c>
-      <c r="I158" s="88">
+      <c r="I158" s="64">
         <v>44924</v>
       </c>
       <c r="J158" s="1" t="s">
@@ -6967,10 +6967,10 @@
       <c r="G159" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H159" s="88">
+      <c r="H159" s="64">
         <v>44928</v>
       </c>
-      <c r="I159" s="88">
+      <c r="I159" s="64">
         <v>44928</v>
       </c>
       <c r="J159" s="1" t="s">
@@ -6995,10 +6995,10 @@
       <c r="G160" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H160" s="88">
+      <c r="H160" s="64">
         <v>44928</v>
       </c>
-      <c r="I160" s="88">
+      <c r="I160" s="64">
         <v>44928</v>
       </c>
       <c r="J160" s="1" t="s">
@@ -7023,10 +7023,10 @@
       <c r="G161" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H161" s="88">
+      <c r="H161" s="64">
         <v>44929</v>
       </c>
-      <c r="I161" s="88">
+      <c r="I161" s="64">
         <v>44929</v>
       </c>
       <c r="J161" s="1" t="s">
@@ -7051,10 +7051,10 @@
       <c r="G162" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H162" s="88">
+      <c r="H162" s="64">
         <v>44929</v>
       </c>
-      <c r="I162" s="88">
+      <c r="I162" s="64">
         <v>44929</v>
       </c>
       <c r="J162" s="1" t="s">
@@ -7079,10 +7079,10 @@
       <c r="G163" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H163" s="88">
+      <c r="H163" s="64">
         <v>44929</v>
       </c>
-      <c r="I163" s="88">
+      <c r="I163" s="64">
         <v>44929</v>
       </c>
       <c r="J163" s="1" t="s">
@@ -7107,10 +7107,10 @@
       <c r="G164" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H164" s="88">
+      <c r="H164" s="64">
         <v>44929</v>
       </c>
-      <c r="I164" s="88">
+      <c r="I164" s="64">
         <v>44929</v>
       </c>
       <c r="J164" s="1" t="s">
@@ -7135,10 +7135,10 @@
       <c r="G165" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H165" s="88">
+      <c r="H165" s="64">
         <v>44930</v>
       </c>
-      <c r="I165" s="88">
+      <c r="I165" s="64">
         <v>44930</v>
       </c>
       <c r="J165" s="1" t="s">
@@ -7163,10 +7163,10 @@
       <c r="G166" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H166" s="88">
+      <c r="H166" s="64">
         <v>44930</v>
       </c>
-      <c r="I166" s="88">
+      <c r="I166" s="64">
         <v>44930</v>
       </c>
       <c r="J166" s="1" t="s">
@@ -7191,10 +7191,10 @@
       <c r="G167" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H167" s="88">
+      <c r="H167" s="64">
         <v>44930</v>
       </c>
-      <c r="I167" s="88">
+      <c r="I167" s="64">
         <v>44930</v>
       </c>
       <c r="J167" s="1" t="s">
@@ -7219,10 +7219,10 @@
       <c r="G168" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H168" s="88">
+      <c r="H168" s="64">
         <v>44930</v>
       </c>
-      <c r="I168" s="88">
+      <c r="I168" s="64">
         <v>44930</v>
       </c>
       <c r="J168" s="1" t="s">
@@ -7247,10 +7247,10 @@
       <c r="G169" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H169" s="88">
+      <c r="H169" s="64">
         <v>44931</v>
       </c>
-      <c r="I169" s="88">
+      <c r="I169" s="64">
         <v>44931</v>
       </c>
       <c r="J169" s="1" t="s">
@@ -7275,10 +7275,10 @@
       <c r="G170" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H170" s="88">
+      <c r="H170" s="64">
         <v>44931</v>
       </c>
-      <c r="I170" s="88">
+      <c r="I170" s="64">
         <v>44931</v>
       </c>
       <c r="J170" s="1" t="s">
@@ -7303,10 +7303,10 @@
       <c r="G171" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H171" s="88">
+      <c r="H171" s="64">
         <v>44931</v>
       </c>
-      <c r="I171" s="88">
+      <c r="I171" s="64">
         <v>44931</v>
       </c>
       <c r="J171" s="1" t="s">
@@ -7331,10 +7331,10 @@
       <c r="G172" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H172" s="88">
+      <c r="H172" s="64">
         <v>44931</v>
       </c>
-      <c r="I172" s="88">
+      <c r="I172" s="64">
         <v>44931</v>
       </c>
       <c r="J172" s="1" t="s">
@@ -7359,10 +7359,10 @@
       <c r="G173" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H173" s="88">
+      <c r="H173" s="64">
         <v>44932</v>
       </c>
-      <c r="I173" s="88">
+      <c r="I173" s="64">
         <v>44932</v>
       </c>
       <c r="J173" s="1" t="s">
@@ -7387,10 +7387,10 @@
       <c r="G174" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H174" s="88">
+      <c r="H174" s="64">
         <v>44932</v>
       </c>
-      <c r="I174" s="88">
+      <c r="I174" s="64">
         <v>44932</v>
       </c>
       <c r="J174" s="1" t="s">
@@ -7415,10 +7415,10 @@
       <c r="G175" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H175" s="88">
+      <c r="H175" s="64">
         <v>44932</v>
       </c>
-      <c r="I175" s="88">
+      <c r="I175" s="64">
         <v>44932</v>
       </c>
       <c r="J175" s="1" t="s">
@@ -7443,10 +7443,10 @@
       <c r="G176" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H176" s="88">
+      <c r="H176" s="64">
         <v>44932</v>
       </c>
-      <c r="I176" s="88">
+      <c r="I176" s="64">
         <v>44932</v>
       </c>
       <c r="J176" s="1" t="s">
@@ -7471,10 +7471,10 @@
       <c r="G177" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H177" s="88">
+      <c r="H177" s="64">
         <v>44935</v>
       </c>
-      <c r="I177" s="88">
+      <c r="I177" s="64">
         <v>44935</v>
       </c>
       <c r="J177" s="1" t="s">
@@ -7499,10 +7499,10 @@
       <c r="G178" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H178" s="88">
+      <c r="H178" s="64">
         <v>44935</v>
       </c>
-      <c r="I178" s="88">
+      <c r="I178" s="64">
         <v>44935</v>
       </c>
       <c r="J178" s="1" t="s">
@@ -7527,10 +7527,10 @@
       <c r="G179" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H179" s="88">
+      <c r="H179" s="64">
         <v>44935</v>
       </c>
-      <c r="I179" s="88">
+      <c r="I179" s="64">
         <v>44935</v>
       </c>
       <c r="J179" s="1" t="s">
@@ -7555,10 +7555,10 @@
       <c r="G180" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H180" s="88">
+      <c r="H180" s="64">
         <v>44935</v>
       </c>
-      <c r="I180" s="88">
+      <c r="I180" s="64">
         <v>44935</v>
       </c>
       <c r="J180" s="1" t="s">
@@ -7583,10 +7583,10 @@
       <c r="G181" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H181" s="88">
+      <c r="H181" s="64">
         <v>44936</v>
       </c>
-      <c r="I181" s="88">
+      <c r="I181" s="64">
         <v>44936</v>
       </c>
       <c r="J181" s="1" t="s">
@@ -7611,10 +7611,10 @@
       <c r="G182" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H182" s="88">
+      <c r="H182" s="64">
         <v>44936</v>
       </c>
-      <c r="I182" s="88">
+      <c r="I182" s="64">
         <v>44936</v>
       </c>
       <c r="J182" s="1" t="s">
@@ -7639,10 +7639,10 @@
       <c r="G183" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H183" s="88">
+      <c r="H183" s="64">
         <v>44936</v>
       </c>
-      <c r="I183" s="88">
+      <c r="I183" s="64">
         <v>44936</v>
       </c>
       <c r="J183" s="1" t="s">
@@ -7667,10 +7667,10 @@
       <c r="G184" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H184" s="88">
+      <c r="H184" s="64">
         <v>44936</v>
       </c>
-      <c r="I184" s="88">
+      <c r="I184" s="64">
         <v>44936</v>
       </c>
       <c r="J184" s="1" t="s">
@@ -7695,10 +7695,10 @@
       <c r="G185" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H185" s="88">
+      <c r="H185" s="64">
         <v>44937</v>
       </c>
-      <c r="I185" s="88">
+      <c r="I185" s="64">
         <v>44937</v>
       </c>
       <c r="J185" s="1" t="s">
@@ -7723,10 +7723,10 @@
       <c r="G186" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H186" s="88">
+      <c r="H186" s="64">
         <v>44937</v>
       </c>
-      <c r="I186" s="88">
+      <c r="I186" s="64">
         <v>44937</v>
       </c>
       <c r="J186" s="1" t="s">
@@ -7751,10 +7751,10 @@
       <c r="G187" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H187" s="88">
+      <c r="H187" s="64">
         <v>44937</v>
       </c>
-      <c r="I187" s="88">
+      <c r="I187" s="64">
         <v>44937</v>
       </c>
       <c r="J187" s="1" t="s">
@@ -7779,10 +7779,10 @@
       <c r="G188" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H188" s="88">
+      <c r="H188" s="64">
         <v>44937</v>
       </c>
-      <c r="I188" s="88">
+      <c r="I188" s="64">
         <v>44937</v>
       </c>
       <c r="J188" s="1" t="s">
@@ -7807,10 +7807,10 @@
       <c r="G189" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H189" s="88">
+      <c r="H189" s="64">
         <v>44938</v>
       </c>
-      <c r="I189" s="88">
+      <c r="I189" s="64">
         <v>44938</v>
       </c>
       <c r="J189" s="1" t="s">
@@ -7835,10 +7835,10 @@
       <c r="G190" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H190" s="88">
+      <c r="H190" s="64">
         <v>44938</v>
       </c>
-      <c r="I190" s="88">
+      <c r="I190" s="64">
         <v>44938</v>
       </c>
       <c r="J190" s="1" t="s">
@@ -7863,10 +7863,10 @@
       <c r="G191" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H191" s="88">
+      <c r="H191" s="64">
         <v>44938</v>
       </c>
-      <c r="I191" s="88">
+      <c r="I191" s="64">
         <v>44938</v>
       </c>
       <c r="J191" s="1" t="s">
@@ -7891,10 +7891,10 @@
       <c r="G192" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H192" s="88">
+      <c r="H192" s="64">
         <v>44938</v>
       </c>
-      <c r="I192" s="88">
+      <c r="I192" s="64">
         <v>44938</v>
       </c>
       <c r="J192" s="1" t="s">
@@ -7919,10 +7919,10 @@
       <c r="G193" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H193" s="88">
+      <c r="H193" s="64">
         <v>44939</v>
       </c>
-      <c r="I193" s="88">
+      <c r="I193" s="64">
         <v>44939</v>
       </c>
       <c r="J193" s="1" t="s">
@@ -7947,10 +7947,10 @@
       <c r="G194" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H194" s="88">
+      <c r="H194" s="64">
         <v>44939</v>
       </c>
-      <c r="I194" s="88">
+      <c r="I194" s="64">
         <v>44939</v>
       </c>
       <c r="J194" s="1" t="s">
@@ -7975,10 +7975,10 @@
       <c r="G195" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H195" s="88">
+      <c r="H195" s="64">
         <v>44939</v>
       </c>
-      <c r="I195" s="88">
+      <c r="I195" s="64">
         <v>44939</v>
       </c>
       <c r="J195" s="1" t="s">
@@ -8003,10 +8003,10 @@
       <c r="G196" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H196" s="88">
+      <c r="H196" s="64">
         <v>44942</v>
       </c>
-      <c r="I196" s="88">
+      <c r="I196" s="64">
         <v>44942</v>
       </c>
       <c r="J196" s="1" t="s">
@@ -8031,10 +8031,10 @@
       <c r="G197" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H197" s="88">
+      <c r="H197" s="64">
         <v>44942</v>
       </c>
-      <c r="I197" s="88">
+      <c r="I197" s="64">
         <v>44942</v>
       </c>
       <c r="J197" s="1" t="s">
@@ -8059,10 +8059,10 @@
       <c r="G198" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H198" s="88">
+      <c r="H198" s="64">
         <v>44943</v>
       </c>
-      <c r="I198" s="88">
+      <c r="I198" s="64">
         <v>44943</v>
       </c>
       <c r="J198" s="1" t="s">
@@ -8087,10 +8087,10 @@
       <c r="G199" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H199" s="88">
+      <c r="H199" s="64">
         <v>44943</v>
       </c>
-      <c r="I199" s="88">
+      <c r="I199" s="64">
         <v>44943</v>
       </c>
       <c r="J199" s="1" t="s">
@@ -8115,10 +8115,10 @@
       <c r="G200" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H200" s="88">
+      <c r="H200" s="64">
         <v>44943</v>
       </c>
-      <c r="I200" s="88">
+      <c r="I200" s="64">
         <v>44943</v>
       </c>
       <c r="J200" s="1" t="s">
@@ -8143,10 +8143,10 @@
       <c r="G201" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H201" s="88">
+      <c r="H201" s="64">
         <v>44943</v>
       </c>
-      <c r="I201" s="88">
+      <c r="I201" s="64">
         <v>44943</v>
       </c>
       <c r="J201" s="1" t="s">
@@ -8171,10 +8171,10 @@
       <c r="G202" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H202" s="88">
+      <c r="H202" s="64">
         <v>44944</v>
       </c>
-      <c r="I202" s="88">
+      <c r="I202" s="64">
         <v>44944</v>
       </c>
       <c r="J202" s="1" t="s">
@@ -8199,10 +8199,10 @@
       <c r="G203" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H203" s="88">
+      <c r="H203" s="64">
         <v>44944</v>
       </c>
-      <c r="I203" s="88">
+      <c r="I203" s="64">
         <v>44944</v>
       </c>
       <c r="J203" s="1" t="s">
@@ -8227,10 +8227,10 @@
       <c r="G204" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H204" s="88">
+      <c r="H204" s="64">
         <v>44944</v>
       </c>
-      <c r="I204" s="88">
+      <c r="I204" s="64">
         <v>44944</v>
       </c>
       <c r="J204" s="1" t="s">
@@ -8255,10 +8255,10 @@
       <c r="G205" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H205" s="88">
+      <c r="H205" s="64">
         <v>44944</v>
       </c>
-      <c r="I205" s="88">
+      <c r="I205" s="64">
         <v>44944</v>
       </c>
       <c r="J205" s="1" t="s">
@@ -8283,10 +8283,10 @@
       <c r="G206" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H206" s="88">
+      <c r="H206" s="64">
         <v>44945</v>
       </c>
-      <c r="I206" s="88">
+      <c r="I206" s="64">
         <v>44945</v>
       </c>
       <c r="J206" s="1" t="s">
@@ -8311,10 +8311,10 @@
       <c r="G207" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H207" s="88">
+      <c r="H207" s="64">
         <v>44945</v>
       </c>
-      <c r="I207" s="88">
+      <c r="I207" s="64">
         <v>44945</v>
       </c>
       <c r="J207" s="1" t="s">
@@ -8339,10 +8339,10 @@
       <c r="G208" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H208" s="88">
+      <c r="H208" s="64">
         <v>44945</v>
       </c>
-      <c r="I208" s="88">
+      <c r="I208" s="64">
         <v>44945</v>
       </c>
       <c r="J208" s="1" t="s">
@@ -8367,10 +8367,10 @@
       <c r="G209" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H209" s="88">
+      <c r="H209" s="64">
         <v>44945</v>
       </c>
-      <c r="I209" s="88">
+      <c r="I209" s="64">
         <v>44945</v>
       </c>
       <c r="J209" s="1" t="s">
@@ -8395,10 +8395,10 @@
       <c r="G210" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H210" s="88">
+      <c r="H210" s="64">
         <v>44946</v>
       </c>
-      <c r="I210" s="88">
+      <c r="I210" s="64">
         <v>44946</v>
       </c>
       <c r="J210" s="1" t="s">
@@ -8423,10 +8423,10 @@
       <c r="G211" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H211" s="88">
+      <c r="H211" s="64">
         <v>44946</v>
       </c>
-      <c r="I211" s="88">
+      <c r="I211" s="64">
         <v>44946</v>
       </c>
       <c r="J211" s="1" t="s">
@@ -8451,10 +8451,10 @@
       <c r="G212" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H212" s="88">
+      <c r="H212" s="64">
         <v>44946</v>
       </c>
-      <c r="I212" s="88">
+      <c r="I212" s="64">
         <v>44946</v>
       </c>
       <c r="J212" s="1" t="s">
@@ -8479,10 +8479,10 @@
       <c r="G213" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H213" s="88">
+      <c r="H213" s="64">
         <v>44946</v>
       </c>
-      <c r="I213" s="88">
+      <c r="I213" s="64">
         <v>44946</v>
       </c>
       <c r="J213" s="1" t="s">
@@ -8507,10 +8507,10 @@
       <c r="G214" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H214" s="88">
+      <c r="H214" s="64">
         <v>44949</v>
       </c>
-      <c r="I214" s="88">
+      <c r="I214" s="64">
         <v>44949</v>
       </c>
       <c r="J214" s="1" t="s">
@@ -8535,10 +8535,10 @@
       <c r="G215" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H215" s="88">
+      <c r="H215" s="64">
         <v>44949</v>
       </c>
-      <c r="I215" s="88">
+      <c r="I215" s="64">
         <v>44949</v>
       </c>
       <c r="J215" s="1" t="s">
@@ -8563,10 +8563,10 @@
       <c r="G216" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H216" s="88">
+      <c r="H216" s="64">
         <v>44949</v>
       </c>
-      <c r="I216" s="88">
+      <c r="I216" s="64">
         <v>44949</v>
       </c>
       <c r="J216" s="1" t="s">
@@ -8591,10 +8591,10 @@
       <c r="G217" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H217" s="88">
+      <c r="H217" s="64">
         <v>44949</v>
       </c>
-      <c r="I217" s="88">
+      <c r="I217" s="64">
         <v>44949</v>
       </c>
       <c r="J217" s="1" t="s">
@@ -8619,10 +8619,10 @@
       <c r="G218" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H218" s="88">
+      <c r="H218" s="64">
         <v>44950</v>
       </c>
-      <c r="I218" s="88">
+      <c r="I218" s="64">
         <v>44950</v>
       </c>
       <c r="J218" s="1" t="s">
@@ -8647,10 +8647,10 @@
       <c r="G219" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H219" s="88">
+      <c r="H219" s="64">
         <v>44950</v>
       </c>
-      <c r="I219" s="88">
+      <c r="I219" s="64">
         <v>44950</v>
       </c>
       <c r="J219" s="1" t="s">
@@ -8675,10 +8675,10 @@
       <c r="G220" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H220" s="88">
+      <c r="H220" s="64">
         <v>44950</v>
       </c>
-      <c r="I220" s="88">
+      <c r="I220" s="64">
         <v>44950</v>
       </c>
       <c r="J220" s="1" t="s">
@@ -8703,10 +8703,10 @@
       <c r="G221" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H221" s="88">
+      <c r="H221" s="64">
         <v>44950</v>
       </c>
-      <c r="I221" s="88">
+      <c r="I221" s="64">
         <v>44950</v>
       </c>
       <c r="J221" s="1" t="s">
@@ -8731,10 +8731,10 @@
       <c r="G222" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H222" s="88">
+      <c r="H222" s="64">
         <v>44951</v>
       </c>
-      <c r="I222" s="88">
+      <c r="I222" s="64">
         <v>44951</v>
       </c>
       <c r="J222" s="1" t="s">
@@ -8759,10 +8759,10 @@
       <c r="G223" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H223" s="88">
+      <c r="H223" s="64">
         <v>44951</v>
       </c>
-      <c r="I223" s="88">
+      <c r="I223" s="64">
         <v>44951</v>
       </c>
       <c r="J223" s="1" t="s">
@@ -8787,10 +8787,10 @@
       <c r="G224" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H224" s="88">
+      <c r="H224" s="64">
         <v>44951</v>
       </c>
-      <c r="I224" s="88">
+      <c r="I224" s="64">
         <v>44951</v>
       </c>
       <c r="J224" s="1" t="s">
@@ -8815,10 +8815,10 @@
       <c r="G225" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H225" s="88">
+      <c r="H225" s="64">
         <v>44951</v>
       </c>
-      <c r="I225" s="88">
+      <c r="I225" s="64">
         <v>44951</v>
       </c>
       <c r="J225" s="1" t="s">
@@ -8843,10 +8843,10 @@
       <c r="G226" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H226" s="88">
+      <c r="H226" s="64">
         <v>44953</v>
       </c>
-      <c r="I226" s="88">
+      <c r="I226" s="64">
         <v>44953</v>
       </c>
       <c r="J226" s="1" t="s">
@@ -8871,10 +8871,10 @@
       <c r="G227" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H227" s="88">
+      <c r="H227" s="64">
         <v>44953</v>
       </c>
-      <c r="I227" s="88">
+      <c r="I227" s="64">
         <v>44953</v>
       </c>
       <c r="J227" s="1" t="s">
@@ -8899,10 +8899,10 @@
       <c r="G228" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H228" s="88">
+      <c r="H228" s="64">
         <v>44953</v>
       </c>
-      <c r="I228" s="88">
+      <c r="I228" s="64">
         <v>44953</v>
       </c>
       <c r="J228" s="1" t="s">
@@ -8927,10 +8927,10 @@
       <c r="G229" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H229" s="88">
+      <c r="H229" s="64">
         <v>44953</v>
       </c>
-      <c r="I229" s="88">
+      <c r="I229" s="64">
         <v>44953</v>
       </c>
       <c r="J229" s="1" t="s">
@@ -8955,10 +8955,10 @@
       <c r="G230" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H230" s="88">
+      <c r="H230" s="64">
         <v>44956</v>
       </c>
-      <c r="I230" s="88">
+      <c r="I230" s="64">
         <v>44956</v>
       </c>
       <c r="J230" s="1" t="s">
@@ -8983,10 +8983,10 @@
       <c r="G231" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H231" s="88">
+      <c r="H231" s="64">
         <v>44956</v>
       </c>
-      <c r="I231" s="88">
+      <c r="I231" s="64">
         <v>44956</v>
       </c>
       <c r="J231" s="1" t="s">
@@ -9011,10 +9011,10 @@
       <c r="G232" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H232" s="88">
+      <c r="H232" s="64">
         <v>44956</v>
       </c>
-      <c r="I232" s="88">
+      <c r="I232" s="64">
         <v>44956</v>
       </c>
       <c r="J232" s="1" t="s">
@@ -9039,10 +9039,10 @@
       <c r="G233" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H233" s="88">
+      <c r="H233" s="64">
         <v>44956</v>
       </c>
-      <c r="I233" s="88">
+      <c r="I233" s="64">
         <v>44956</v>
       </c>
       <c r="J233" s="1" t="s">
@@ -9067,10 +9067,10 @@
       <c r="G234" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H234" s="88">
+      <c r="H234" s="64">
         <v>44957</v>
       </c>
-      <c r="I234" s="88">
+      <c r="I234" s="64">
         <v>44957</v>
       </c>
       <c r="J234" s="1" t="s">
@@ -9095,10 +9095,10 @@
       <c r="G235" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H235" s="88">
+      <c r="H235" s="64">
         <v>44957</v>
       </c>
-      <c r="I235" s="88">
+      <c r="I235" s="64">
         <v>44957</v>
       </c>
       <c r="J235" s="1" t="s">
@@ -9123,10 +9123,10 @@
       <c r="G236" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H236" s="88">
+      <c r="H236" s="64">
         <v>44957</v>
       </c>
-      <c r="I236" s="88">
+      <c r="I236" s="64">
         <v>44957</v>
       </c>
       <c r="J236" s="1" t="s">
@@ -9151,10 +9151,10 @@
       <c r="G237" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H237" s="88">
+      <c r="H237" s="64">
         <v>44957</v>
       </c>
-      <c r="I237" s="88">
+      <c r="I237" s="64">
         <v>44957</v>
       </c>
       <c r="J237" s="1" t="s">
@@ -9179,10 +9179,10 @@
       <c r="G238" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H238" s="88">
+      <c r="H238" s="64">
         <v>44958</v>
       </c>
-      <c r="I238" s="88">
+      <c r="I238" s="64">
         <v>44958</v>
       </c>
       <c r="J238" s="1" t="s">
@@ -9207,10 +9207,10 @@
       <c r="G239" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H239" s="88">
+      <c r="H239" s="64">
         <v>44958</v>
       </c>
-      <c r="I239" s="88">
+      <c r="I239" s="64">
         <v>44958</v>
       </c>
       <c r="J239" s="1" t="s">
@@ -9235,10 +9235,10 @@
       <c r="G240" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H240" s="88">
+      <c r="H240" s="64">
         <v>44958</v>
       </c>
-      <c r="I240" s="88">
+      <c r="I240" s="64">
         <v>44958</v>
       </c>
       <c r="J240" s="1" t="s">
@@ -9263,10 +9263,10 @@
       <c r="G241" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H241" s="88">
+      <c r="H241" s="64">
         <v>44958</v>
       </c>
-      <c r="I241" s="88">
+      <c r="I241" s="64">
         <v>44958</v>
       </c>
       <c r="J241" s="1" t="s">
@@ -9291,10 +9291,10 @@
       <c r="G242" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H242" s="88">
+      <c r="H242" s="64">
         <v>44959</v>
       </c>
-      <c r="I242" s="88">
+      <c r="I242" s="64">
         <v>44959</v>
       </c>
       <c r="J242" s="1" t="s">
@@ -9319,10 +9319,10 @@
       <c r="G243" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H243" s="88">
+      <c r="H243" s="64">
         <v>44959</v>
       </c>
-      <c r="I243" s="88">
+      <c r="I243" s="64">
         <v>44959</v>
       </c>
       <c r="J243" s="1" t="s">
@@ -9347,10 +9347,10 @@
       <c r="G244" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H244" s="88">
+      <c r="H244" s="64">
         <v>44959</v>
       </c>
-      <c r="I244" s="88">
+      <c r="I244" s="64">
         <v>44959</v>
       </c>
       <c r="J244" s="1" t="s">
@@ -9375,10 +9375,10 @@
       <c r="G245" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H245" s="88">
+      <c r="H245" s="64">
         <v>44959</v>
       </c>
-      <c r="I245" s="88">
+      <c r="I245" s="64">
         <v>44959</v>
       </c>
       <c r="J245" s="1" t="s">
@@ -9403,10 +9403,10 @@
       <c r="G246" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H246" s="88">
+      <c r="H246" s="64">
         <v>44960</v>
       </c>
-      <c r="I246" s="88">
+      <c r="I246" s="64">
         <v>44960</v>
       </c>
       <c r="J246" s="1" t="s">
@@ -9431,10 +9431,10 @@
       <c r="G247" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H247" s="88">
+      <c r="H247" s="64">
         <v>44960</v>
       </c>
-      <c r="I247" s="88">
+      <c r="I247" s="64">
         <v>44960</v>
       </c>
       <c r="J247" s="1" t="s">
@@ -9459,10 +9459,10 @@
       <c r="G248" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H248" s="88">
+      <c r="H248" s="64">
         <v>44960</v>
       </c>
-      <c r="I248" s="88">
+      <c r="I248" s="64">
         <v>44960</v>
       </c>
       <c r="J248" s="1" t="s">
@@ -9487,10 +9487,10 @@
       <c r="G249" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H249" s="88">
+      <c r="H249" s="64">
         <v>44963</v>
       </c>
-      <c r="I249" s="88">
+      <c r="I249" s="64">
         <v>44963</v>
       </c>
       <c r="J249" s="1" t="s">
@@ -9515,10 +9515,10 @@
       <c r="G250" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H250" s="88">
+      <c r="H250" s="64">
         <v>44963</v>
       </c>
-      <c r="I250" s="88">
+      <c r="I250" s="64">
         <v>44963</v>
       </c>
       <c r="J250" s="1" t="s">
@@ -9543,10 +9543,10 @@
       <c r="G251" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H251" s="88">
+      <c r="H251" s="64">
         <v>44963</v>
       </c>
-      <c r="I251" s="88">
+      <c r="I251" s="64">
         <v>44963</v>
       </c>
       <c r="J251" s="1" t="s">
@@ -9571,10 +9571,10 @@
       <c r="G252" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H252" s="88">
+      <c r="H252" s="64">
         <v>44963</v>
       </c>
-      <c r="I252" s="88">
+      <c r="I252" s="64">
         <v>44963</v>
       </c>
       <c r="J252" s="1" t="s">
@@ -9599,10 +9599,10 @@
       <c r="G253" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H253" s="88">
+      <c r="H253" s="64">
         <v>44964</v>
       </c>
-      <c r="I253" s="88">
+      <c r="I253" s="64">
         <v>44964</v>
       </c>
       <c r="J253" s="1" t="s">
@@ -9627,10 +9627,10 @@
       <c r="G254" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H254" s="88">
+      <c r="H254" s="64">
         <v>44964</v>
       </c>
-      <c r="I254" s="88">
+      <c r="I254" s="64">
         <v>44964</v>
       </c>
       <c r="J254" s="1" t="s">
@@ -9655,10 +9655,10 @@
       <c r="G255" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H255" s="88">
+      <c r="H255" s="64">
         <v>44964</v>
       </c>
-      <c r="I255" s="88">
+      <c r="I255" s="64">
         <v>44964</v>
       </c>
       <c r="J255" s="1" t="s">
@@ -9683,10 +9683,10 @@
       <c r="G256" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H256" s="88">
+      <c r="H256" s="64">
         <v>44964</v>
       </c>
-      <c r="I256" s="88">
+      <c r="I256" s="64">
         <v>44964</v>
       </c>
       <c r="J256" s="1" t="s">
@@ -9711,10 +9711,10 @@
       <c r="G257" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H257" s="88">
+      <c r="H257" s="64">
         <v>44964</v>
       </c>
-      <c r="I257" s="88">
+      <c r="I257" s="64">
         <v>44964</v>
       </c>
       <c r="J257" s="1" t="s">
@@ -9739,10 +9739,10 @@
       <c r="G258" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H258" s="88">
+      <c r="H258" s="64">
         <v>44965</v>
       </c>
-      <c r="I258" s="88">
+      <c r="I258" s="64">
         <v>44965</v>
       </c>
       <c r="J258" s="1" t="s">
@@ -9767,10 +9767,10 @@
       <c r="G259" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H259" s="88">
+      <c r="H259" s="64">
         <v>44965</v>
       </c>
-      <c r="I259" s="88">
+      <c r="I259" s="64">
         <v>44965</v>
       </c>
       <c r="J259" s="1" t="s">
@@ -9795,10 +9795,10 @@
       <c r="G260" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H260" s="88">
+      <c r="H260" s="64">
         <v>44965</v>
       </c>
-      <c r="I260" s="88">
+      <c r="I260" s="64">
         <v>44965</v>
       </c>
       <c r="J260" s="1" t="s">
@@ -9823,10 +9823,10 @@
       <c r="G261" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H261" s="88">
+      <c r="H261" s="64">
         <v>44965</v>
       </c>
-      <c r="I261" s="88">
+      <c r="I261" s="64">
         <v>44965</v>
       </c>
       <c r="J261" s="1" t="s">
@@ -9851,10 +9851,10 @@
       <c r="G262" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H262" s="88">
+      <c r="H262" s="64">
         <v>44966</v>
       </c>
-      <c r="I262" s="88">
+      <c r="I262" s="64">
         <v>44966</v>
       </c>
       <c r="J262" s="1" t="s">
@@ -9879,10 +9879,10 @@
       <c r="G263" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H263" s="88">
+      <c r="H263" s="64">
         <v>44966</v>
       </c>
-      <c r="I263" s="88">
+      <c r="I263" s="64">
         <v>44966</v>
       </c>
       <c r="J263" s="1" t="s">
@@ -9907,10 +9907,10 @@
       <c r="G264" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H264" s="88">
+      <c r="H264" s="64">
         <v>44966</v>
       </c>
-      <c r="I264" s="88">
+      <c r="I264" s="64">
         <v>44966</v>
       </c>
       <c r="J264" s="1" t="s">
@@ -9935,10 +9935,10 @@
       <c r="G265" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H265" s="88">
+      <c r="H265" s="64">
         <v>44966</v>
       </c>
-      <c r="I265" s="88">
+      <c r="I265" s="64">
         <v>44966</v>
       </c>
       <c r="J265" s="1" t="s">
@@ -9963,10 +9963,10 @@
       <c r="G266" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H266" s="88">
+      <c r="H266" s="64">
         <v>44967</v>
       </c>
-      <c r="I266" s="88">
+      <c r="I266" s="64">
         <v>44967</v>
       </c>
       <c r="J266" s="1" t="s">
@@ -9991,10 +9991,10 @@
       <c r="G267" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H267" s="88">
+      <c r="H267" s="64">
         <v>44967</v>
       </c>
-      <c r="I267" s="88">
+      <c r="I267" s="64">
         <v>44967</v>
       </c>
       <c r="J267" s="1" t="s">
@@ -10019,10 +10019,10 @@
       <c r="G268" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H268" s="88">
+      <c r="H268" s="64">
         <v>44967</v>
       </c>
-      <c r="I268" s="88">
+      <c r="I268" s="64">
         <v>44967</v>
       </c>
       <c r="J268" s="1" t="s">
@@ -10047,10 +10047,10 @@
       <c r="G269" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H269" s="88">
+      <c r="H269" s="64">
         <v>44967</v>
       </c>
-      <c r="I269" s="88">
+      <c r="I269" s="64">
         <v>44967</v>
       </c>
       <c r="J269" s="1" t="s">
@@ -10075,10 +10075,10 @@
       <c r="G270" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H270" s="88">
+      <c r="H270" s="64">
         <v>44970</v>
       </c>
-      <c r="I270" s="88">
+      <c r="I270" s="64">
         <v>44970</v>
       </c>
       <c r="J270" s="1" t="s">
@@ -10103,10 +10103,10 @@
       <c r="G271" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H271" s="88">
+      <c r="H271" s="64">
         <v>44970</v>
       </c>
-      <c r="I271" s="88">
+      <c r="I271" s="64">
         <v>44970</v>
       </c>
       <c r="J271" s="1" t="s">
@@ -10131,10 +10131,10 @@
       <c r="G272" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H272" s="88">
+      <c r="H272" s="64">
         <v>44971</v>
       </c>
-      <c r="I272" s="88">
+      <c r="I272" s="64">
         <v>44971</v>
       </c>
       <c r="J272" s="1" t="s">
@@ -10159,10 +10159,10 @@
       <c r="G273" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H273" s="88">
+      <c r="H273" s="64">
         <v>44971</v>
       </c>
-      <c r="I273" s="88">
+      <c r="I273" s="64">
         <v>44971</v>
       </c>
       <c r="J273" s="1" t="s">
@@ -10187,10 +10187,10 @@
       <c r="G274" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H274" s="88">
+      <c r="H274" s="64">
         <v>44972</v>
       </c>
-      <c r="I274" s="88">
+      <c r="I274" s="64">
         <v>44972</v>
       </c>
       <c r="J274" s="1" t="s">
@@ -10215,10 +10215,10 @@
       <c r="G275" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H275" s="88">
+      <c r="H275" s="64">
         <v>44972</v>
       </c>
-      <c r="I275" s="88">
+      <c r="I275" s="64">
         <v>44972</v>
       </c>
       <c r="J275" s="1" t="s">
@@ -10243,10 +10243,10 @@
       <c r="G276" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H276" s="88">
+      <c r="H276" s="64">
         <v>44972</v>
       </c>
-      <c r="I276" s="88">
+      <c r="I276" s="64">
         <v>44972</v>
       </c>
       <c r="J276" s="1" t="s">
@@ -10271,10 +10271,10 @@
       <c r="G277" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H277" s="88">
+      <c r="H277" s="64">
         <v>44972</v>
       </c>
-      <c r="I277" s="88">
+      <c r="I277" s="64">
         <v>44972</v>
       </c>
       <c r="J277" s="1" t="s">
@@ -10299,10 +10299,10 @@
       <c r="G278" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H278" s="88">
+      <c r="H278" s="64">
         <v>44973</v>
       </c>
-      <c r="I278" s="88">
+      <c r="I278" s="64">
         <v>44973</v>
       </c>
       <c r="J278" s="1" t="s">
@@ -10327,10 +10327,10 @@
       <c r="G279" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H279" s="88">
+      <c r="H279" s="64">
         <v>44973</v>
       </c>
-      <c r="I279" s="88">
+      <c r="I279" s="64">
         <v>44973</v>
       </c>
       <c r="J279" s="1" t="s">
@@ -10355,10 +10355,10 @@
       <c r="G280" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H280" s="88">
+      <c r="H280" s="64">
         <v>44973</v>
       </c>
-      <c r="I280" s="88">
+      <c r="I280" s="64">
         <v>44973</v>
       </c>
       <c r="J280" s="1" t="s">
@@ -10383,10 +10383,10 @@
       <c r="G281" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H281" s="88">
+      <c r="H281" s="64">
         <v>44973</v>
       </c>
-      <c r="I281" s="88">
+      <c r="I281" s="64">
         <v>44973</v>
       </c>
       <c r="J281" s="1" t="s">
@@ -10411,10 +10411,10 @@
       <c r="G282" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H282" s="88">
+      <c r="H282" s="64">
         <v>44974</v>
       </c>
-      <c r="I282" s="88">
+      <c r="I282" s="64">
         <v>44974</v>
       </c>
       <c r="J282" s="1" t="s">
@@ -10439,10 +10439,10 @@
       <c r="G283" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H283" s="88">
+      <c r="H283" s="64">
         <v>44974</v>
       </c>
-      <c r="I283" s="88">
+      <c r="I283" s="64">
         <v>44974</v>
       </c>
       <c r="J283" s="1" t="s">
@@ -10467,10 +10467,10 @@
       <c r="G284" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H284" s="88">
+      <c r="H284" s="64">
         <v>44977</v>
       </c>
-      <c r="I284" s="88">
+      <c r="I284" s="64">
         <v>44977</v>
       </c>
       <c r="J284" s="1" t="s">
@@ -10495,10 +10495,10 @@
       <c r="G285" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H285" s="88">
+      <c r="H285" s="64">
         <v>44977</v>
       </c>
-      <c r="I285" s="88">
+      <c r="I285" s="64">
         <v>44977</v>
       </c>
       <c r="J285" s="1" t="s">
@@ -10523,10 +10523,10 @@
       <c r="G286" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H286" s="88">
+      <c r="H286" s="64">
         <v>44978</v>
       </c>
-      <c r="I286" s="88">
+      <c r="I286" s="64">
         <v>44978</v>
       </c>
       <c r="J286" s="1" t="s">
@@ -10551,10 +10551,10 @@
       <c r="G287" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H287" s="88">
+      <c r="H287" s="64">
         <v>44978</v>
       </c>
-      <c r="I287" s="88">
+      <c r="I287" s="64">
         <v>44978</v>
       </c>
       <c r="J287" s="1" t="s">
@@ -10579,10 +10579,10 @@
       <c r="G288" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H288" s="88">
+      <c r="H288" s="64">
         <v>44978</v>
       </c>
-      <c r="I288" s="88">
+      <c r="I288" s="64">
         <v>44978</v>
       </c>
       <c r="J288" s="1" t="s">
@@ -10607,10 +10607,10 @@
       <c r="G289" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H289" s="88">
+      <c r="H289" s="64">
         <v>44978</v>
       </c>
-      <c r="I289" s="88">
+      <c r="I289" s="64">
         <v>44978</v>
       </c>
       <c r="J289" s="1" t="s">
@@ -10635,10 +10635,10 @@
       <c r="G290" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H290" s="88">
+      <c r="H290" s="64">
         <v>44979</v>
       </c>
-      <c r="I290" s="88">
+      <c r="I290" s="64">
         <v>44979</v>
       </c>
       <c r="J290" s="1" t="s">
@@ -10663,10 +10663,10 @@
       <c r="G291" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H291" s="88">
+      <c r="H291" s="64">
         <v>44979</v>
       </c>
-      <c r="I291" s="88">
+      <c r="I291" s="64">
         <v>44979</v>
       </c>
       <c r="J291" s="1" t="s">
@@ -10691,10 +10691,10 @@
       <c r="G292" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H292" s="88">
+      <c r="H292" s="64">
         <v>44979</v>
       </c>
-      <c r="I292" s="88">
+      <c r="I292" s="64">
         <v>44979</v>
       </c>
       <c r="J292" s="1" t="s">
@@ -10719,10 +10719,10 @@
       <c r="G293" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H293" s="88">
+      <c r="H293" s="64">
         <v>44979</v>
       </c>
-      <c r="I293" s="88">
+      <c r="I293" s="64">
         <v>44979</v>
       </c>
       <c r="J293" s="1" t="s">
@@ -10747,10 +10747,10 @@
       <c r="G294" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H294" s="88">
+      <c r="H294" s="64">
         <v>44981</v>
       </c>
-      <c r="I294" s="88">
+      <c r="I294" s="64">
         <v>44981</v>
       </c>
       <c r="J294" s="1" t="s">
@@ -10775,10 +10775,10 @@
       <c r="G295" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H295" s="88">
+      <c r="H295" s="64">
         <v>44981</v>
       </c>
-      <c r="I295" s="88">
+      <c r="I295" s="64">
         <v>44981</v>
       </c>
       <c r="J295" s="1" t="s">
@@ -10803,10 +10803,10 @@
       <c r="G296" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H296" s="88">
+      <c r="H296" s="64">
         <v>44981</v>
       </c>
-      <c r="I296" s="88">
+      <c r="I296" s="64">
         <v>44981</v>
       </c>
       <c r="J296" s="1" t="s">
@@ -10831,10 +10831,10 @@
       <c r="G297" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H297" s="88">
+      <c r="H297" s="64">
         <v>44981</v>
       </c>
-      <c r="I297" s="88">
+      <c r="I297" s="64">
         <v>44981</v>
       </c>
       <c r="J297" s="1" t="s">
@@ -10859,10 +10859,10 @@
       <c r="G298" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H298" s="88">
+      <c r="H298" s="64">
         <v>44984</v>
       </c>
-      <c r="I298" s="88">
+      <c r="I298" s="64">
         <v>44984</v>
       </c>
       <c r="J298" s="1" t="s">
@@ -10887,10 +10887,10 @@
       <c r="G299" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H299" s="88">
+      <c r="H299" s="64">
         <v>44984</v>
       </c>
-      <c r="I299" s="88">
+      <c r="I299" s="64">
         <v>44984</v>
       </c>
       <c r="J299" s="1" t="s">
@@ -10915,10 +10915,10 @@
       <c r="G300" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H300" s="88">
+      <c r="H300" s="64">
         <v>44984</v>
       </c>
-      <c r="I300" s="88">
+      <c r="I300" s="64">
         <v>44984</v>
       </c>
       <c r="J300" s="1" t="s">
@@ -10943,10 +10943,10 @@
       <c r="G301" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H301" s="88">
+      <c r="H301" s="64">
         <v>44984</v>
       </c>
-      <c r="I301" s="88">
+      <c r="I301" s="64">
         <v>44984</v>
       </c>
       <c r="J301" s="1" t="s">
@@ -10971,10 +10971,10 @@
       <c r="G302" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H302" s="88">
+      <c r="H302" s="64">
         <v>44985</v>
       </c>
-      <c r="I302" s="88">
+      <c r="I302" s="64">
         <v>44985</v>
       </c>
       <c r="J302" s="1" t="s">
@@ -10999,10 +10999,10 @@
       <c r="G303" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H303" s="88">
+      <c r="H303" s="64">
         <v>44985</v>
       </c>
-      <c r="I303" s="88">
+      <c r="I303" s="64">
         <v>44985</v>
       </c>
       <c r="J303" s="1" t="s">
@@ -11027,10 +11027,10 @@
       <c r="G304" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H304" s="88">
+      <c r="H304" s="64">
         <v>44985</v>
       </c>
-      <c r="I304" s="88">
+      <c r="I304" s="64">
         <v>44985</v>
       </c>
       <c r="J304" s="1" t="s">
@@ -11055,10 +11055,10 @@
       <c r="G305" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H305" s="88">
+      <c r="H305" s="64">
         <v>44985</v>
       </c>
-      <c r="I305" s="88">
+      <c r="I305" s="64">
         <v>44985</v>
       </c>
       <c r="J305" s="1" t="s">
@@ -11083,10 +11083,10 @@
       <c r="G306" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H306" s="88">
+      <c r="H306" s="64">
         <v>44986</v>
       </c>
-      <c r="I306" s="88">
+      <c r="I306" s="64">
         <v>44986</v>
       </c>
       <c r="J306" s="1" t="s">
@@ -11111,10 +11111,10 @@
       <c r="G307" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H307" s="88">
+      <c r="H307" s="64">
         <v>44986</v>
       </c>
-      <c r="I307" s="88">
+      <c r="I307" s="64">
         <v>44986</v>
       </c>
       <c r="J307" s="1" t="s">
@@ -11139,10 +11139,10 @@
       <c r="G308" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H308" s="88">
+      <c r="H308" s="64">
         <v>44986</v>
       </c>
-      <c r="I308" s="88">
+      <c r="I308" s="64">
         <v>44986</v>
       </c>
       <c r="J308" s="1" t="s">
@@ -11167,10 +11167,10 @@
       <c r="G309" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H309" s="88">
+      <c r="H309" s="64">
         <v>44986</v>
       </c>
-      <c r="I309" s="88">
+      <c r="I309" s="64">
         <v>44986</v>
       </c>
       <c r="J309" s="1" t="s">
@@ -11195,10 +11195,10 @@
       <c r="G310" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H310" s="88">
+      <c r="H310" s="64">
         <v>44987</v>
       </c>
-      <c r="I310" s="88">
+      <c r="I310" s="64">
         <v>44987</v>
       </c>
       <c r="J310" s="1" t="s">
@@ -11223,10 +11223,10 @@
       <c r="G311" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H311" s="88">
+      <c r="H311" s="64">
         <v>44987</v>
       </c>
-      <c r="I311" s="88">
+      <c r="I311" s="64">
         <v>44987</v>
       </c>
       <c r="J311" s="1" t="s">
@@ -11251,10 +11251,10 @@
       <c r="G312" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H312" s="88">
+      <c r="H312" s="64">
         <v>44987</v>
       </c>
-      <c r="I312" s="88">
+      <c r="I312" s="64">
         <v>44987</v>
       </c>
       <c r="J312" s="1" t="s">
@@ -11279,10 +11279,10 @@
       <c r="G313" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H313" s="88">
+      <c r="H313" s="64">
         <v>44987</v>
       </c>
-      <c r="I313" s="88">
+      <c r="I313" s="64">
         <v>44987</v>
       </c>
       <c r="J313" s="1" t="s">
@@ -11307,10 +11307,10 @@
       <c r="G314" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H314" s="88">
+      <c r="H314" s="64">
         <v>44988</v>
       </c>
-      <c r="I314" s="88">
+      <c r="I314" s="64">
         <v>44988</v>
       </c>
       <c r="J314" s="1" t="s">
@@ -11335,10 +11335,10 @@
       <c r="G315" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H315" s="88">
+      <c r="H315" s="64">
         <v>44988</v>
       </c>
-      <c r="I315" s="88">
+      <c r="I315" s="64">
         <v>44988</v>
       </c>
       <c r="J315" s="1" t="s">
@@ -11363,10 +11363,10 @@
       <c r="G316" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H316" s="88">
+      <c r="H316" s="64">
         <v>44988</v>
       </c>
-      <c r="I316" s="88">
+      <c r="I316" s="64">
         <v>44988</v>
       </c>
       <c r="J316" s="1" t="s">
@@ -11391,10 +11391,10 @@
       <c r="G317" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H317" s="88">
+      <c r="H317" s="64">
         <v>44988</v>
       </c>
-      <c r="I317" s="88">
+      <c r="I317" s="64">
         <v>44988</v>
       </c>
       <c r="J317" s="1" t="s">
@@ -11419,10 +11419,10 @@
       <c r="G318" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H318" s="88">
+      <c r="H318" s="64">
         <v>44991</v>
       </c>
-      <c r="I318" s="88">
+      <c r="I318" s="64">
         <v>44991</v>
       </c>
       <c r="J318" s="1" t="s">
@@ -11447,10 +11447,10 @@
       <c r="G319" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H319" s="88">
+      <c r="H319" s="64">
         <v>44991</v>
       </c>
-      <c r="I319" s="88">
+      <c r="I319" s="64">
         <v>44991</v>
       </c>
       <c r="J319" s="1" t="s">
@@ -11475,10 +11475,10 @@
       <c r="G320" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H320" s="88">
+      <c r="H320" s="64">
         <v>44991</v>
       </c>
-      <c r="I320" s="88">
+      <c r="I320" s="64">
         <v>44991</v>
       </c>
       <c r="J320" s="1" t="s">
@@ -11503,10 +11503,10 @@
       <c r="G321" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H321" s="88">
+      <c r="H321" s="64">
         <v>44991</v>
       </c>
-      <c r="I321" s="88">
+      <c r="I321" s="64">
         <v>44991</v>
       </c>
       <c r="J321" s="1" t="s">
@@ -11531,10 +11531,10 @@
       <c r="G322" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H322" s="88">
+      <c r="H322" s="64">
         <v>44992</v>
       </c>
-      <c r="I322" s="88">
+      <c r="I322" s="64">
         <v>44992</v>
       </c>
       <c r="J322" s="1" t="s">
@@ -11559,10 +11559,10 @@
       <c r="G323" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H323" s="88">
+      <c r="H323" s="64">
         <v>44992</v>
       </c>
-      <c r="I323" s="88">
+      <c r="I323" s="64">
         <v>44992</v>
       </c>
       <c r="J323" s="1" t="s">
@@ -11587,10 +11587,10 @@
       <c r="G324" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H324" s="88">
+      <c r="H324" s="64">
         <v>44992</v>
       </c>
-      <c r="I324" s="88">
+      <c r="I324" s="64">
         <v>44992</v>
       </c>
       <c r="J324" s="1" t="s">
@@ -11615,10 +11615,10 @@
       <c r="G325" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H325" s="88">
+      <c r="H325" s="64">
         <v>44992</v>
       </c>
-      <c r="I325" s="88">
+      <c r="I325" s="64">
         <v>44992</v>
       </c>
       <c r="J325" s="1" t="s">
@@ -11643,10 +11643,10 @@
       <c r="G326" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H326" s="88">
+      <c r="H326" s="64">
         <v>44993</v>
       </c>
-      <c r="I326" s="88">
+      <c r="I326" s="64">
         <v>44993</v>
       </c>
       <c r="J326" s="1" t="s">
@@ -11671,10 +11671,10 @@
       <c r="G327" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H327" s="88">
+      <c r="H327" s="64">
         <v>44993</v>
       </c>
-      <c r="I327" s="88">
+      <c r="I327" s="64">
         <v>44993</v>
       </c>
       <c r="J327" s="1" t="s">
@@ -11699,10 +11699,10 @@
       <c r="G328" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H328" s="88">
+      <c r="H328" s="64">
         <v>44993</v>
       </c>
-      <c r="I328" s="88">
+      <c r="I328" s="64">
         <v>44993</v>
       </c>
       <c r="J328" s="1" t="s">
@@ -11727,10 +11727,10 @@
       <c r="G329" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H329" s="88">
+      <c r="H329" s="64">
         <v>44993</v>
       </c>
-      <c r="I329" s="88">
+      <c r="I329" s="64">
         <v>44993</v>
       </c>
       <c r="J329" s="1" t="s">
@@ -11755,10 +11755,10 @@
       <c r="G330" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H330" s="88">
+      <c r="H330" s="64">
         <v>44994</v>
       </c>
-      <c r="I330" s="88">
+      <c r="I330" s="64">
         <v>44994</v>
       </c>
       <c r="J330" s="1" t="s">
@@ -11783,10 +11783,10 @@
       <c r="G331" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H331" s="88">
+      <c r="H331" s="64">
         <v>44994</v>
       </c>
-      <c r="I331" s="88">
+      <c r="I331" s="64">
         <v>44994</v>
       </c>
       <c r="J331" s="1" t="s">
@@ -11811,10 +11811,10 @@
       <c r="G332" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H332" s="88">
+      <c r="H332" s="64">
         <v>44994</v>
       </c>
-      <c r="I332" s="88">
+      <c r="I332" s="64">
         <v>44994</v>
       </c>
       <c r="J332" s="1" t="s">
@@ -11839,10 +11839,10 @@
       <c r="G333" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H333" s="88">
+      <c r="H333" s="64">
         <v>44994</v>
       </c>
-      <c r="I333" s="88">
+      <c r="I333" s="64">
         <v>44994</v>
       </c>
       <c r="J333" s="1" t="s">
@@ -11867,10 +11867,10 @@
       <c r="G334" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H334" s="88">
+      <c r="H334" s="64">
         <v>44995</v>
       </c>
-      <c r="I334" s="88">
+      <c r="I334" s="64">
         <v>44995</v>
       </c>
       <c r="J334" s="1" t="s">
@@ -11895,10 +11895,10 @@
       <c r="G335" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H335" s="88">
+      <c r="H335" s="64">
         <v>44995</v>
       </c>
-      <c r="I335" s="88">
+      <c r="I335" s="64">
         <v>44995</v>
       </c>
       <c r="J335" s="1" t="s">
@@ -11923,10 +11923,10 @@
       <c r="G336" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H336" s="88">
+      <c r="H336" s="64">
         <v>44995</v>
       </c>
-      <c r="I336" s="88">
+      <c r="I336" s="64">
         <v>44995</v>
       </c>
       <c r="J336" s="1" t="s">
@@ -11951,10 +11951,10 @@
       <c r="G337" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H337" s="88">
+      <c r="H337" s="64">
         <v>44995</v>
       </c>
-      <c r="I337" s="88">
+      <c r="I337" s="64">
         <v>44995</v>
       </c>
       <c r="J337" s="1" t="s">
@@ -11979,10 +11979,10 @@
       <c r="G338" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H338" s="88">
+      <c r="H338" s="64">
         <v>44998</v>
       </c>
-      <c r="I338" s="88">
+      <c r="I338" s="64">
         <v>44998</v>
       </c>
       <c r="J338" s="1" t="s">
@@ -12007,10 +12007,10 @@
       <c r="G339" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H339" s="88">
+      <c r="H339" s="64">
         <v>44998</v>
       </c>
-      <c r="I339" s="88">
+      <c r="I339" s="64">
         <v>44998</v>
       </c>
       <c r="J339" s="1" t="s">
@@ -12035,10 +12035,10 @@
       <c r="G340" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H340" s="88">
+      <c r="H340" s="64">
         <v>44998</v>
       </c>
-      <c r="I340" s="88">
+      <c r="I340" s="64">
         <v>44998</v>
       </c>
       <c r="J340" s="1" t="s">
@@ -12063,10 +12063,10 @@
       <c r="G341" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H341" s="88">
+      <c r="H341" s="64">
         <v>44998</v>
       </c>
-      <c r="I341" s="88">
+      <c r="I341" s="64">
         <v>44998</v>
       </c>
       <c r="J341" s="1" t="s">
@@ -12091,10 +12091,10 @@
       <c r="G342" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H342" s="88">
+      <c r="H342" s="64">
         <v>44999</v>
       </c>
-      <c r="I342" s="88">
+      <c r="I342" s="64">
         <v>44999</v>
       </c>
       <c r="J342" s="1" t="s">
@@ -12119,10 +12119,10 @@
       <c r="G343" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H343" s="88">
+      <c r="H343" s="64">
         <v>44999</v>
       </c>
-      <c r="I343" s="88">
+      <c r="I343" s="64">
         <v>44999</v>
       </c>
       <c r="J343" s="1" t="s">
@@ -12130,59 +12130,59 @@
       </c>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="87">
+    <row r="344" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B344" s="63">
         <v>18</v>
       </c>
-      <c r="C344" s="87" t="s">
+      <c r="C344" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D344" s="87" t="s">
+      <c r="D344" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E344" s="87" t="s">
+      <c r="E344" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="F344" s="87" t="s">
+      <c r="F344" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G344" s="87" t="s">
+      <c r="G344" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="H344" s="90"/>
-      <c r="I344" s="90"/>
-      <c r="J344" s="87" t="s">
+      <c r="H344" s="66"/>
+      <c r="I344" s="66"/>
+      <c r="J344" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="K344" s="87"/>
-    </row>
-    <row r="345" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="87">
+      <c r="K344" s="63"/>
+    </row>
+    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B345" s="63">
         <v>19</v>
       </c>
-      <c r="C345" s="87" t="s">
+      <c r="C345" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D345" s="87" t="s">
+      <c r="D345" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E345" s="87" t="s">
+      <c r="E345" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="F345" s="87" t="s">
+      <c r="F345" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="G345" s="87" t="s">
+      <c r="G345" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="H345" s="90"/>
-      <c r="I345" s="90"/>
-      <c r="J345" s="87" t="s">
+      <c r="H345" s="66"/>
+      <c r="I345" s="66"/>
+      <c r="J345" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="K345" s="87"/>
-    </row>
-    <row r="346" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K345" s="63"/>
+    </row>
+    <row r="346" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>343</v>
       </c>
@@ -12197,12 +12197,12 @@
       <c r="G346" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H346" s="88"/>
-      <c r="I346" s="88"/>
+      <c r="H346" s="64"/>
+      <c r="I346" s="64"/>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>344</v>
       </c>
@@ -12217,12 +12217,12 @@
       <c r="G347" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H347" s="88"/>
-      <c r="I347" s="88"/>
+      <c r="H347" s="64"/>
+      <c r="I347" s="64"/>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>345</v>
       </c>
@@ -12237,12 +12237,12 @@
       <c r="G348" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H348" s="88"/>
-      <c r="I348" s="88"/>
+      <c r="H348" s="64"/>
+      <c r="I348" s="64"/>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>346</v>
       </c>
@@ -12257,15 +12257,15 @@
       <c r="G349" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H349" s="88"/>
-      <c r="I349" s="88"/>
+      <c r="H349" s="64"/>
+      <c r="I349" s="64"/>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K349">
+  <autoFilter ref="B2:K349" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="6">
-      <filters>
+      <filters blank="1">
         <dateGroupItem year="2022" month="10" dateTimeGrouping="month"/>
         <dateGroupItem year="2022" month="11" day="1" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="2" dateTimeGrouping="day"/>
@@ -12282,13 +12282,10 @@
         <dateGroupItem year="2022" month="11" day="18" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="21" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="22" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="23" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="24" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="25" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B3:K349">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K349">
     <sortCondition ref="I2"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12304,7 +12301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q320"/>
   <sheetViews>
     <sheetView topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
@@ -12320,15 +12317,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
@@ -12396,14 +12393,14 @@
       <c r="H4" s="44">
         <v>55</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="71"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="39">
@@ -12520,15 +12517,15 @@
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
@@ -12680,14 +12677,14 @@
       <c r="H19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="75" t="s">
+      <c r="J19" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="77"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="80"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
@@ -12822,15 +12819,15 @@
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="s">
@@ -12919,14 +12916,14 @@
       <c r="H30" s="3">
         <v>255</v>
       </c>
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="77"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="80"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
@@ -12990,14 +12987,14 @@
       <c r="H33" s="3">
         <v>10</v>
       </c>
-      <c r="J33" s="75" t="s">
+      <c r="J33" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="77"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
@@ -13126,15 +13123,15 @@
     </row>
     <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="82"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="97"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="27" t="s">
@@ -13304,15 +13301,15 @@
     </row>
     <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="74"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="87"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="22" t="s">
@@ -13477,15 +13474,15 @@
     </row>
     <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="85" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="74"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="87"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="27" t="s">
@@ -13568,15 +13565,15 @@
         <v>188</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="J69" s="75" t="s">
+      <c r="J69" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="K69" s="78"/>
-      <c r="L69" s="78"/>
-      <c r="M69" s="78"/>
-      <c r="N69" s="78"/>
-      <c r="O69" s="78"/>
-      <c r="P69" s="79"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="83"/>
+      <c r="M69" s="83"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="84"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="34"/>
@@ -13691,15 +13688,15 @@
     </row>
     <row r="75" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="75" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="67"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="77"/>
     </row>
     <row r="77" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="22" t="s">
@@ -13915,15 +13912,15 @@
     </row>
     <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="62" t="s">
+      <c r="B90" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="63"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="64"/>
+      <c r="C90" s="89"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="90"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="31" t="s">
@@ -14179,15 +14176,15 @@
     </row>
     <row r="105" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="65" t="s">
+      <c r="B106" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="67"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="77"/>
     </row>
     <row r="107" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="49" t="s">
@@ -14449,15 +14446,15 @@
     </row>
     <row r="119" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="65" t="s">
+      <c r="B120" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="C120" s="66"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="66"/>
-      <c r="G120" s="66"/>
-      <c r="H120" s="67"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="77"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="27" t="s">
@@ -14637,15 +14634,15 @@
     </row>
     <row r="132" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="65" t="s">
+      <c r="B133" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="C133" s="66"/>
-      <c r="D133" s="66"/>
-      <c r="E133" s="66"/>
-      <c r="F133" s="66"/>
-      <c r="G133" s="66"/>
-      <c r="H133" s="67"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="76"/>
+      <c r="F133" s="76"/>
+      <c r="G133" s="76"/>
+      <c r="H133" s="77"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="32" t="s">
@@ -14817,15 +14814,15 @@
     </row>
     <row r="143" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="144" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="65" t="s">
+      <c r="B144" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="C144" s="66"/>
-      <c r="D144" s="66"/>
-      <c r="E144" s="66"/>
-      <c r="F144" s="66"/>
-      <c r="G144" s="66"/>
-      <c r="H144" s="67"/>
+      <c r="C144" s="76"/>
+      <c r="D144" s="76"/>
+      <c r="E144" s="76"/>
+      <c r="F144" s="76"/>
+      <c r="G144" s="76"/>
+      <c r="H144" s="77"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="27" t="s">
@@ -14996,15 +14993,15 @@
     </row>
     <row r="154" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="155" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="65" t="s">
+      <c r="B155" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="C155" s="66"/>
-      <c r="D155" s="66"/>
-      <c r="E155" s="66"/>
-      <c r="F155" s="66"/>
-      <c r="G155" s="66"/>
-      <c r="H155" s="67"/>
+      <c r="C155" s="76"/>
+      <c r="D155" s="76"/>
+      <c r="E155" s="76"/>
+      <c r="F155" s="76"/>
+      <c r="G155" s="76"/>
+      <c r="H155" s="77"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="22" t="s">
@@ -15175,15 +15172,15 @@
       </c>
     </row>
     <row r="166" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="84" t="s">
+      <c r="B166" s="81" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="84"/>
-      <c r="D166" s="84"/>
-      <c r="E166" s="84"/>
-      <c r="F166" s="84"/>
-      <c r="G166" s="84"/>
-      <c r="H166" s="84"/>
+      <c r="C166" s="81"/>
+      <c r="D166" s="81"/>
+      <c r="E166" s="81"/>
+      <c r="F166" s="81"/>
+      <c r="G166" s="81"/>
+      <c r="H166" s="81"/>
     </row>
     <row r="167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B167" s="22" t="s">
@@ -15251,16 +15248,16 @@
       <c r="H169" s="3">
         <v>155</v>
       </c>
-      <c r="J169" s="75" t="s">
+      <c r="J169" s="82" t="s">
         <v>275</v>
       </c>
-      <c r="K169" s="78"/>
-      <c r="L169" s="78"/>
-      <c r="M169" s="78"/>
-      <c r="N169" s="78"/>
-      <c r="O169" s="78"/>
-      <c r="P169" s="78"/>
-      <c r="Q169" s="79"/>
+      <c r="K169" s="83"/>
+      <c r="L169" s="83"/>
+      <c r="M169" s="83"/>
+      <c r="N169" s="83"/>
+      <c r="O169" s="83"/>
+      <c r="P169" s="83"/>
+      <c r="Q169" s="84"/>
     </row>
     <row r="170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
@@ -15365,15 +15362,15 @@
     </row>
     <row r="175" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="72" t="s">
+      <c r="B176" s="85" t="s">
         <v>276</v>
       </c>
-      <c r="C176" s="73"/>
-      <c r="D176" s="73"/>
-      <c r="E176" s="73"/>
-      <c r="F176" s="73"/>
-      <c r="G176" s="73"/>
-      <c r="H176" s="74"/>
+      <c r="C176" s="86"/>
+      <c r="D176" s="86"/>
+      <c r="E176" s="86"/>
+      <c r="F176" s="86"/>
+      <c r="G176" s="86"/>
+      <c r="H176" s="87"/>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177" s="22" t="s">
@@ -15433,16 +15430,16 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="J179" s="75" t="s">
+      <c r="J179" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="K179" s="78"/>
-      <c r="L179" s="78"/>
-      <c r="M179" s="78"/>
-      <c r="N179" s="78"/>
-      <c r="O179" s="78"/>
-      <c r="P179" s="78"/>
-      <c r="Q179" s="79"/>
+      <c r="K179" s="83"/>
+      <c r="L179" s="83"/>
+      <c r="M179" s="83"/>
+      <c r="N179" s="83"/>
+      <c r="O179" s="83"/>
+      <c r="P179" s="83"/>
+      <c r="Q179" s="84"/>
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
@@ -15547,15 +15544,15 @@
     </row>
     <row r="186" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="187" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="65" t="s">
+      <c r="B187" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="C187" s="66"/>
-      <c r="D187" s="66"/>
-      <c r="E187" s="66"/>
-      <c r="F187" s="66"/>
-      <c r="G187" s="66"/>
-      <c r="H187" s="67"/>
+      <c r="C187" s="76"/>
+      <c r="D187" s="76"/>
+      <c r="E187" s="76"/>
+      <c r="F187" s="76"/>
+      <c r="G187" s="76"/>
+      <c r="H187" s="77"/>
     </row>
     <row r="188" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="22" t="s">
@@ -15759,15 +15756,15 @@
     </row>
     <row r="199" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="200" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="65" t="s">
+      <c r="B200" s="75" t="s">
         <v>294</v>
       </c>
-      <c r="C200" s="66"/>
-      <c r="D200" s="66"/>
-      <c r="E200" s="66"/>
-      <c r="F200" s="66"/>
-      <c r="G200" s="66"/>
-      <c r="H200" s="67"/>
+      <c r="C200" s="76"/>
+      <c r="D200" s="76"/>
+      <c r="E200" s="76"/>
+      <c r="F200" s="76"/>
+      <c r="G200" s="76"/>
+      <c r="H200" s="77"/>
     </row>
     <row r="201" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="22" t="s">
@@ -16023,15 +16020,15 @@
     </row>
     <row r="214" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="215" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="65" t="s">
+      <c r="B215" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="C215" s="66"/>
-      <c r="D215" s="66"/>
-      <c r="E215" s="66"/>
-      <c r="F215" s="66"/>
-      <c r="G215" s="66"/>
-      <c r="H215" s="67"/>
+      <c r="C215" s="76"/>
+      <c r="D215" s="76"/>
+      <c r="E215" s="76"/>
+      <c r="F215" s="76"/>
+      <c r="G215" s="76"/>
+      <c r="H215" s="77"/>
     </row>
     <row r="216" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="22" t="s">
@@ -16269,15 +16266,15 @@
     </row>
     <row r="229" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="230" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="65" t="s">
+      <c r="B230" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="C230" s="66"/>
-      <c r="D230" s="66"/>
-      <c r="E230" s="66"/>
-      <c r="F230" s="66"/>
-      <c r="G230" s="66"/>
-      <c r="H230" s="67"/>
+      <c r="C230" s="76"/>
+      <c r="D230" s="76"/>
+      <c r="E230" s="76"/>
+      <c r="F230" s="76"/>
+      <c r="G230" s="76"/>
+      <c r="H230" s="77"/>
     </row>
     <row r="231" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="22" t="s">
@@ -16466,15 +16463,15 @@
     </row>
     <row r="241" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="242" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="65" t="s">
+      <c r="B242" s="75" t="s">
         <v>310</v>
       </c>
-      <c r="C242" s="66"/>
-      <c r="D242" s="66"/>
-      <c r="E242" s="66"/>
-      <c r="F242" s="66"/>
-      <c r="G242" s="66"/>
-      <c r="H242" s="67"/>
+      <c r="C242" s="76"/>
+      <c r="D242" s="76"/>
+      <c r="E242" s="76"/>
+      <c r="F242" s="76"/>
+      <c r="G242" s="76"/>
+      <c r="H242" s="77"/>
     </row>
     <row r="243" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="22" t="s">
@@ -16795,15 +16792,15 @@
     </row>
     <row r="259" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="65" t="s">
+      <c r="B260" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="C260" s="66"/>
-      <c r="D260" s="66"/>
-      <c r="E260" s="66"/>
-      <c r="F260" s="66"/>
-      <c r="G260" s="66"/>
-      <c r="H260" s="67"/>
+      <c r="C260" s="76"/>
+      <c r="D260" s="76"/>
+      <c r="E260" s="76"/>
+      <c r="F260" s="76"/>
+      <c r="G260" s="76"/>
+      <c r="H260" s="77"/>
     </row>
     <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B261" s="22" t="s">
@@ -17028,15 +17025,15 @@
     </row>
     <row r="273" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="274" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="65" t="s">
+      <c r="B274" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="66"/>
-      <c r="D274" s="66"/>
-      <c r="E274" s="66"/>
-      <c r="F274" s="66"/>
-      <c r="G274" s="66"/>
-      <c r="H274" s="67"/>
+      <c r="C274" s="76"/>
+      <c r="D274" s="76"/>
+      <c r="E274" s="76"/>
+      <c r="F274" s="76"/>
+      <c r="G274" s="76"/>
+      <c r="H274" s="77"/>
     </row>
     <row r="275" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B275" s="22" t="s">
@@ -17102,15 +17099,15 @@
         <v>184</v>
       </c>
       <c r="H277" s="35"/>
-      <c r="J277" s="83" t="s">
+      <c r="J277" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="K277" s="76"/>
-      <c r="L277" s="76"/>
-      <c r="M277" s="76"/>
-      <c r="N277" s="76"/>
-      <c r="O277" s="76"/>
-      <c r="P277" s="77"/>
+      <c r="K277" s="79"/>
+      <c r="L277" s="79"/>
+      <c r="M277" s="79"/>
+      <c r="N277" s="79"/>
+      <c r="O277" s="79"/>
+      <c r="P277" s="80"/>
     </row>
     <row r="278" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B278" s="34">
@@ -17215,15 +17212,15 @@
     </row>
     <row r="284" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="285" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="65" t="s">
+      <c r="B285" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="C285" s="66"/>
-      <c r="D285" s="66"/>
-      <c r="E285" s="66"/>
-      <c r="F285" s="66"/>
-      <c r="G285" s="66"/>
-      <c r="H285" s="67"/>
+      <c r="C285" s="76"/>
+      <c r="D285" s="76"/>
+      <c r="E285" s="76"/>
+      <c r="F285" s="76"/>
+      <c r="G285" s="76"/>
+      <c r="H285" s="77"/>
     </row>
     <row r="286" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B286" s="22" t="s">
@@ -17449,14 +17446,14 @@
       </c>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B299" s="85" t="s">
+      <c r="B299" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C299" s="85"/>
-      <c r="D299" s="85"/>
-      <c r="E299" s="85"/>
-      <c r="F299" s="85"/>
-      <c r="G299" s="85"/>
+      <c r="C299" s="74"/>
+      <c r="D299" s="74"/>
+      <c r="E299" s="74"/>
+      <c r="F299" s="74"/>
+      <c r="G299" s="74"/>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="11" t="s">
@@ -17621,15 +17618,15 @@
     </row>
     <row r="309" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="310" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="65" t="s">
+      <c r="B310" s="75" t="s">
         <v>333</v>
       </c>
-      <c r="C310" s="66"/>
-      <c r="D310" s="66"/>
-      <c r="E310" s="66"/>
-      <c r="F310" s="66"/>
-      <c r="G310" s="66"/>
-      <c r="H310" s="67"/>
+      <c r="C310" s="76"/>
+      <c r="D310" s="76"/>
+      <c r="E310" s="76"/>
+      <c r="F310" s="76"/>
+      <c r="G310" s="76"/>
+      <c r="H310" s="77"/>
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="22" t="s">
@@ -17827,24 +17824,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B299:G299"/>
-    <mergeCell ref="B310:H310"/>
-    <mergeCell ref="B285:H285"/>
-    <mergeCell ref="B230:H230"/>
-    <mergeCell ref="B242:H242"/>
-    <mergeCell ref="B260:H260"/>
-    <mergeCell ref="B274:H274"/>
-    <mergeCell ref="J277:P277"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="J169:Q169"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="J179:Q179"/>
     <mergeCell ref="B90:H90"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B120:H120"/>
@@ -17860,6 +17839,24 @@
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="B65:H65"/>
+    <mergeCell ref="J277:P277"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="J169:Q169"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="J179:Q179"/>
+    <mergeCell ref="B299:G299"/>
+    <mergeCell ref="B310:H310"/>
+    <mergeCell ref="B285:H285"/>
+    <mergeCell ref="B230:H230"/>
+    <mergeCell ref="B242:H242"/>
+    <mergeCell ref="B260:H260"/>
+    <mergeCell ref="B274:H274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Traditional Yoga Updated Document.xlsx
+++ b/Traditional Yoga Updated Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Traditional Yoga\TY Excelsheet\yoga_excelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F764C4-04A0-4EE0-82AE-3FE0C01EE6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976E99C3-65DF-4EA8-900B-27FAEC0F19AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="392">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -1182,6 +1182,30 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Add and edit is completed delete peneding</t>
+  </si>
+  <si>
+    <t>Praneeth/Ajith K</t>
+  </si>
+  <si>
+    <t>Praneeth/karthik</t>
+  </si>
+  <si>
+    <t>Sumukesh/karthik</t>
+  </si>
+  <si>
+    <t>Praneeth/Karthik</t>
+  </si>
+  <si>
+    <t>Sumukesh/Ajith R</t>
+  </si>
+  <si>
+    <t>Praneeth/Ajith R</t>
+  </si>
+  <si>
+    <t>Sumukesh/Ajith K</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1290,6 +1314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,7 +1808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1962,6 +1992,17 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2411,8 +2452,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:K349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,7 +2462,7 @@
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
@@ -2582,7 +2623,7 @@
       </c>
       <c r="K6" s="62"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="72">
         <v>3</v>
       </c>
@@ -2612,7 +2653,7 @@
       </c>
       <c r="K7" s="72"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="72">
         <v>5</v>
       </c>
@@ -2702,7 +2743,7 @@
       </c>
       <c r="K10" s="72"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="72">
         <v>7</v>
       </c>
@@ -2732,7 +2773,7 @@
       </c>
       <c r="K11" s="72"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="72">
         <v>9</v>
       </c>
@@ -2822,7 +2863,7 @@
       </c>
       <c r="K14" s="72"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="72">
         <v>11</v>
       </c>
@@ -2852,7 +2893,7 @@
       </c>
       <c r="K15" s="72"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="72">
         <v>13</v>
       </c>
@@ -2882,7 +2923,7 @@
       </c>
       <c r="K16" s="72"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="72">
         <v>15</v>
       </c>
@@ -2912,7 +2953,7 @@
       </c>
       <c r="K17" s="72"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72">
         <v>17</v>
       </c>
@@ -2942,127 +2983,127 @@
       </c>
       <c r="K18" s="72"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
+    <row r="19" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="99">
         <v>22</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="99" t="s">
         <v>374</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H19" s="69">
+      <c r="G19" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="H19" s="100">
         <v>44881</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="100">
         <v>44872</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
+      <c r="K19" s="99"/>
+    </row>
+    <row r="20" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="99">
         <v>24</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="99" t="s">
         <v>374</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H20" s="69">
+      <c r="G20" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="H20" s="100">
         <v>44881</v>
       </c>
-      <c r="I20" s="69">
+      <c r="I20" s="100">
         <v>44872</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
+      <c r="K20" s="99"/>
+    </row>
+    <row r="21" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="99">
         <v>26</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="99" t="s">
         <v>375</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H21" s="69">
+      <c r="G21" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="H21" s="100">
         <v>44881</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="100">
         <v>44873</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="K21" s="99"/>
+    </row>
+    <row r="22" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="99">
         <v>28</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="99" t="s">
         <v>375</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H22" s="69">
+      <c r="G22" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="H22" s="100">
         <v>44881</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="100">
         <v>44873</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="99"/>
+    </row>
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="72">
         <v>23</v>
       </c>
@@ -3092,65 +3133,65 @@
       </c>
       <c r="K23" s="72"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+    <row r="24" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="99">
         <v>30</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="99" t="s">
         <v>374</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="H24" s="69">
+      <c r="H24" s="100">
         <v>44881</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="100">
         <v>44874</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
+      <c r="K24" s="99"/>
+    </row>
+    <row r="25" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="99">
         <v>32</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="99" t="s">
         <v>374</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" s="69">
+      <c r="G25" s="99" t="s">
+        <v>381</v>
+      </c>
+      <c r="H25" s="100">
         <v>44881</v>
       </c>
-      <c r="I25" s="69">
+      <c r="I25" s="100">
         <v>44874</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="99"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="63">
@@ -3176,7 +3217,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="72">
         <v>27</v>
       </c>
@@ -3206,7 +3247,7 @@
       </c>
       <c r="K27" s="72"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="72">
         <v>29</v>
       </c>
@@ -3236,67 +3277,67 @@
       </c>
       <c r="K28" s="72"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
+    <row r="29" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="99">
         <v>34</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="99" t="s">
         <v>375</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="100">
         <v>44881</v>
       </c>
-      <c r="I29" s="69">
+      <c r="I29" s="100">
         <v>44875</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+      <c r="K29" s="99"/>
+    </row>
+    <row r="30" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="99">
         <v>36</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="99" t="s">
         <v>374</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="H30" s="69">
+      <c r="H30" s="100">
         <v>44881</v>
       </c>
-      <c r="I30" s="69">
+      <c r="I30" s="100">
         <v>44875</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="99"/>
+    </row>
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>37</v>
       </c>
@@ -3328,7 +3369,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>25</v>
       </c>
@@ -3345,7 +3386,7 @@
         <v>161</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H32" s="69">
         <v>44874</v>
@@ -3358,7 +3399,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="72">
         <v>31</v>
       </c>
@@ -3388,7 +3429,7 @@
       </c>
       <c r="K33" s="72"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="72">
         <v>33</v>
       </c>
@@ -3418,7 +3459,7 @@
       </c>
       <c r="K34" s="72"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="72">
         <v>35</v>
       </c>
@@ -3448,78 +3489,78 @@
       </c>
       <c r="K35" s="72"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+    <row r="36" spans="2:11" s="101" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="99">
         <v>39</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="99" t="s">
         <v>371</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="G36" s="98" t="s">
+      <c r="G36" s="99" t="s">
         <v>381</v>
       </c>
-      <c r="H36" s="69">
+      <c r="H36" s="100">
         <v>44880</v>
       </c>
-      <c r="I36" s="69">
+      <c r="I36" s="100">
         <v>44881</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="99" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
+    <row r="37" spans="2:11" s="101" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="99">
         <v>41</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="99" t="s">
         <v>371</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="98" t="s">
+      <c r="G37" s="99" t="s">
         <v>381</v>
       </c>
-      <c r="H37" s="69">
+      <c r="H37" s="100">
         <v>44880</v>
       </c>
-      <c r="I37" s="69">
+      <c r="I37" s="100">
         <v>44881</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J37" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="99" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="72">
         <v>43</v>
       </c>
       <c r="C38" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="103" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="72" t="s">
@@ -3528,7 +3569,7 @@
       <c r="F38" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G38" s="72" t="s">
+      <c r="G38" s="98" t="s">
         <v>381</v>
       </c>
       <c r="H38" s="73">
@@ -3549,17 +3590,17 @@
       <c r="C39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="102" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H39" s="64">
         <v>44876</v>
@@ -3609,11 +3650,11 @@
       <c r="C41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="102" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>152</v>
@@ -3639,11 +3680,11 @@
       <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="102" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>152</v>
@@ -3662,7 +3703,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="72">
         <v>45</v>
       </c>
@@ -3692,82 +3733,82 @@
       </c>
       <c r="K43" s="72"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="4">
+    <row r="44" spans="2:11" s="101" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="99">
         <v>47</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="99" t="s">
         <v>371</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="98" t="s">
+      <c r="G44" s="99" t="s">
         <v>381</v>
       </c>
-      <c r="H44" s="69">
+      <c r="H44" s="100">
         <v>44882</v>
       </c>
-      <c r="I44" s="69">
+      <c r="I44" s="100">
         <v>44882</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="99" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="4">
+    <row r="45" spans="2:11" s="101" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="99">
         <v>49</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="99" t="s">
         <v>371</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="G45" s="98" t="s">
+      <c r="G45" s="99" t="s">
         <v>381</v>
       </c>
-      <c r="H45" s="69">
+      <c r="H45" s="100">
         <v>44882</v>
       </c>
-      <c r="I45" s="69">
+      <c r="I45" s="100">
         <v>44882</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="99" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="102" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>152</v>
@@ -3784,7 +3825,9 @@
       <c r="J46" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
@@ -3793,11 +3836,11 @@
       <c r="C47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="102" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>152</v>
@@ -3823,11 +3866,11 @@
       <c r="C48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="102" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>152</v>
@@ -3846,7 +3889,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="72">
         <v>51</v>
       </c>
@@ -3883,11 +3926,11 @@
       <c r="C50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="102" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>152</v>
@@ -3906,7 +3949,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="72">
         <v>53</v>
       </c>
@@ -3943,11 +3986,11 @@
       <c r="C52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="102" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>152</v>
@@ -3966,7 +4009,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>55</v>
       </c>
@@ -4003,17 +4046,17 @@
       <c r="C54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="102" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H54" s="64">
         <v>44882</v>
@@ -4026,7 +4069,7 @@
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="72">
         <v>57</v>
       </c>
@@ -4200,7 +4243,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="72">
         <v>59</v>
       </c>
@@ -4230,7 +4273,7 @@
       </c>
       <c r="K61" s="72"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>61</v>
       </c>
@@ -12156,7 +12199,7 @@
       </c>
       <c r="K344" s="63"/>
     </row>
-    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B345" s="63">
         <v>19</v>
       </c>
@@ -12264,6 +12307,11 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:K349" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="API"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6">
       <filters blank="1">
         <dateGroupItem year="2022" month="10" dateTimeGrouping="month"/>

--- a/Traditional Yoga Updated Document.xlsx
+++ b/Traditional Yoga Updated Document.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Traditional Yoga\TY Excelsheet\yoga_excelsheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976E99C3-65DF-4EA8-900B-27FAEC0F19AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="392">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -1211,7 +1205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1917,7 +1911,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1927,45 +1941,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1980,6 +1955,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1989,20 +1988,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2330,14 +2324,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2448,12 +2442,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:K349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:E50"/>
+    <sheetView tabSelected="1" topLeftCell="B51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,7 +2617,7 @@
       </c>
       <c r="K6" s="62"/>
     </row>
-    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="72">
         <v>3</v>
       </c>
@@ -2653,7 +2647,7 @@
       </c>
       <c r="K7" s="72"/>
     </row>
-    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="72">
         <v>5</v>
       </c>
@@ -2743,7 +2737,7 @@
       </c>
       <c r="K10" s="72"/>
     </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="72">
         <v>7</v>
       </c>
@@ -2773,7 +2767,7 @@
       </c>
       <c r="K11" s="72"/>
     </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="72">
         <v>9</v>
       </c>
@@ -2863,7 +2857,7 @@
       </c>
       <c r="K14" s="72"/>
     </row>
-    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="72">
         <v>11</v>
       </c>
@@ -2893,7 +2887,7 @@
       </c>
       <c r="K15" s="72"/>
     </row>
-    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="72">
         <v>13</v>
       </c>
@@ -2923,7 +2917,7 @@
       </c>
       <c r="K16" s="72"/>
     </row>
-    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="72">
         <v>15</v>
       </c>
@@ -2953,7 +2947,7 @@
       </c>
       <c r="K17" s="72"/>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="72">
         <v>17</v>
       </c>
@@ -2983,127 +2977,127 @@
       </c>
       <c r="K18" s="72"/>
     </row>
-    <row r="19" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="99">
+    <row r="19" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="75">
         <v>22</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="F19" s="99" t="s">
+      <c r="F19" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="99" t="s">
+      <c r="G19" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="H19" s="100">
+      <c r="H19" s="76">
         <v>44881</v>
       </c>
-      <c r="I19" s="100">
+      <c r="I19" s="76">
         <v>44872</v>
       </c>
-      <c r="J19" s="99" t="s">
+      <c r="J19" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="K19" s="99"/>
-    </row>
-    <row r="20" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="99">
+      <c r="K19" s="75"/>
+    </row>
+    <row r="20" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="75">
         <v>24</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="F20" s="99" t="s">
+      <c r="F20" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="H20" s="100">
+      <c r="H20" s="76">
         <v>44881</v>
       </c>
-      <c r="I20" s="100">
+      <c r="I20" s="76">
         <v>44872</v>
       </c>
-      <c r="J20" s="99" t="s">
+      <c r="J20" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="99"/>
-    </row>
-    <row r="21" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="99">
+      <c r="K20" s="75"/>
+    </row>
+    <row r="21" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="75">
         <v>26</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="99" t="s">
+      <c r="G21" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="H21" s="100">
+      <c r="H21" s="76">
         <v>44881</v>
       </c>
-      <c r="I21" s="100">
+      <c r="I21" s="76">
         <v>44873</v>
       </c>
-      <c r="J21" s="99" t="s">
+      <c r="J21" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="99"/>
-    </row>
-    <row r="22" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="99">
+      <c r="K21" s="75"/>
+    </row>
+    <row r="22" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="75">
         <v>28</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="99" t="s">
+      <c r="E22" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="F22" s="99" t="s">
+      <c r="F22" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="99" t="s">
+      <c r="G22" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="H22" s="100">
+      <c r="H22" s="76">
         <v>44881</v>
       </c>
-      <c r="I22" s="100">
+      <c r="I22" s="76">
         <v>44873</v>
       </c>
-      <c r="J22" s="99" t="s">
+      <c r="J22" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="99"/>
-    </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="75"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="72">
         <v>23</v>
       </c>
@@ -3133,65 +3127,65 @@
       </c>
       <c r="K23" s="72"/>
     </row>
-    <row r="24" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="99">
+    <row r="24" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="75">
         <v>30</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="F24" s="99" t="s">
+      <c r="F24" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="G24" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="H24" s="100">
+      <c r="G24" s="75" t="s">
+        <v>381</v>
+      </c>
+      <c r="H24" s="76">
         <v>44881</v>
       </c>
-      <c r="I24" s="100">
+      <c r="I24" s="76">
         <v>44874</v>
       </c>
-      <c r="J24" s="99" t="s">
+      <c r="J24" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="99"/>
-    </row>
-    <row r="25" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="99">
+      <c r="K24" s="75"/>
+    </row>
+    <row r="25" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="75">
         <v>32</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="F25" s="99" t="s">
+      <c r="F25" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="99" t="s">
+      <c r="G25" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="H25" s="100">
+      <c r="H25" s="76">
         <v>44881</v>
       </c>
-      <c r="I25" s="100">
+      <c r="I25" s="76">
         <v>44874</v>
       </c>
-      <c r="J25" s="99" t="s">
+      <c r="J25" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="99"/>
+      <c r="K25" s="75"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="63">
@@ -3217,7 +3211,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="72">
         <v>27</v>
       </c>
@@ -3247,7 +3241,7 @@
       </c>
       <c r="K27" s="72"/>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="72">
         <v>29</v>
       </c>
@@ -3277,67 +3271,67 @@
       </c>
       <c r="K28" s="72"/>
     </row>
-    <row r="29" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="99">
+    <row r="29" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="75">
         <v>34</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="99" t="s">
+      <c r="E29" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="F29" s="99" t="s">
+      <c r="F29" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="99" t="s">
+      <c r="G29" s="75" t="s">
+        <v>381</v>
+      </c>
+      <c r="H29" s="76">
+        <v>44881</v>
+      </c>
+      <c r="I29" s="76">
+        <v>44875</v>
+      </c>
+      <c r="J29" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="75"/>
+    </row>
+    <row r="30" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="75">
+        <v>36</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="F30" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="100">
+      <c r="H30" s="76">
         <v>44881</v>
       </c>
-      <c r="I29" s="100">
+      <c r="I30" s="76">
         <v>44875</v>
       </c>
-      <c r="J29" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="K29" s="99"/>
-    </row>
-    <row r="30" spans="2:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="99">
-        <v>36</v>
-      </c>
-      <c r="C30" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="99" t="s">
-        <v>374</v>
-      </c>
-      <c r="F30" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="H30" s="100">
-        <v>44881</v>
-      </c>
-      <c r="I30" s="100">
-        <v>44875</v>
-      </c>
-      <c r="J30" s="99" t="s">
+      <c r="J30" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="99"/>
-    </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="75"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>37</v>
       </c>
@@ -3353,7 +3347,7 @@
       <c r="F31" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="98" t="s">
+      <c r="G31" s="74" t="s">
         <v>381</v>
       </c>
       <c r="H31" s="69">
@@ -3369,7 +3363,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>25</v>
       </c>
@@ -3399,7 +3393,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="72">
         <v>31</v>
       </c>
@@ -3429,7 +3423,7 @@
       </c>
       <c r="K33" s="72"/>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="72">
         <v>33</v>
       </c>
@@ -3459,7 +3453,7 @@
       </c>
       <c r="K34" s="72"/>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="72">
         <v>35</v>
       </c>
@@ -3489,78 +3483,78 @@
       </c>
       <c r="K35" s="72"/>
     </row>
-    <row r="36" spans="2:11" s="101" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="99">
+    <row r="36" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="75">
         <v>39</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="99" t="s">
+      <c r="E36" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="F36" s="99" t="s">
+      <c r="F36" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G36" s="99" t="s">
+      <c r="G36" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="H36" s="100">
+      <c r="H36" s="76">
         <v>44880</v>
       </c>
-      <c r="I36" s="100">
+      <c r="I36" s="76">
         <v>44881</v>
       </c>
-      <c r="J36" s="99" t="s">
+      <c r="J36" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="K36" s="99" t="s">
+      <c r="K36" s="75" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="2:11" s="101" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="99">
+    <row r="37" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="75">
         <v>41</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="99" t="s">
+      <c r="D37" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="99" t="s">
+      <c r="E37" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="F37" s="99" t="s">
+      <c r="F37" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="99" t="s">
+      <c r="G37" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="H37" s="100">
+      <c r="H37" s="76">
         <v>44880</v>
       </c>
-      <c r="I37" s="100">
+      <c r="I37" s="76">
         <v>44881</v>
       </c>
-      <c r="J37" s="99" t="s">
+      <c r="J37" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="K37" s="99" t="s">
+      <c r="K37" s="75" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="72">
         <v>43</v>
       </c>
       <c r="C38" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="103" t="s">
+      <c r="D38" s="79" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="72" t="s">
@@ -3569,7 +3563,7 @@
       <c r="F38" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G38" s="98" t="s">
+      <c r="G38" s="74" t="s">
         <v>381</v>
       </c>
       <c r="H38" s="73">
@@ -3590,7 +3584,7 @@
       <c r="C39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="102" t="s">
+      <c r="D39" s="78" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3650,7 +3644,7 @@
       <c r="C41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="102" t="s">
+      <c r="D41" s="78" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3660,7 +3654,7 @@
         <v>152</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H41" s="64">
         <v>44879</v>
@@ -3680,7 +3674,7 @@
       <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="102" t="s">
+      <c r="D42" s="78" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3690,7 +3684,7 @@
         <v>152</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H42" s="64">
         <v>44879</v>
@@ -3703,7 +3697,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="72">
         <v>45</v>
       </c>
@@ -3733,67 +3727,67 @@
       </c>
       <c r="K43" s="72"/>
     </row>
-    <row r="44" spans="2:11" s="101" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="99">
+    <row r="44" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="75">
         <v>47</v>
       </c>
-      <c r="C44" s="99" t="s">
+      <c r="C44" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="99" t="s">
+      <c r="D44" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="99" t="s">
+      <c r="E44" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="F44" s="99" t="s">
+      <c r="F44" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="99" t="s">
+      <c r="G44" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="H44" s="100">
+      <c r="H44" s="76">
         <v>44882</v>
       </c>
-      <c r="I44" s="100">
+      <c r="I44" s="76">
         <v>44882</v>
       </c>
-      <c r="J44" s="99" t="s">
+      <c r="J44" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="K44" s="99" t="s">
+      <c r="K44" s="75" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="2:11" s="101" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="99">
+    <row r="45" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="75">
         <v>49</v>
       </c>
-      <c r="C45" s="99" t="s">
+      <c r="C45" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="99" t="s">
+      <c r="D45" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="99" t="s">
+      <c r="E45" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="F45" s="99" t="s">
+      <c r="F45" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="G45" s="99" t="s">
+      <c r="G45" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="H45" s="100">
+      <c r="H45" s="76">
         <v>44882</v>
       </c>
-      <c r="I45" s="100">
+      <c r="I45" s="76">
         <v>44882</v>
       </c>
-      <c r="J45" s="99" t="s">
+      <c r="J45" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="K45" s="99" t="s">
+      <c r="K45" s="75" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3804,7 +3798,7 @@
       <c r="C46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="102" t="s">
+      <c r="D46" s="78" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3814,7 +3808,7 @@
         <v>152</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H46" s="64">
         <v>44880</v>
@@ -3836,7 +3830,7 @@
       <c r="C47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="102" t="s">
+      <c r="D47" s="78" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3866,7 +3860,7 @@
       <c r="C48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="102" t="s">
+      <c r="D48" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3889,7 +3883,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="72">
         <v>51</v>
       </c>
@@ -3926,7 +3920,7 @@
       <c r="C50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="78" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3949,7 +3943,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="72">
         <v>53</v>
       </c>
@@ -3986,7 +3980,7 @@
       <c r="C52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="102" t="s">
+      <c r="D52" s="78" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4009,7 +4003,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>55</v>
       </c>
@@ -4046,7 +4040,7 @@
       <c r="C54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="102" t="s">
+      <c r="D54" s="78" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4069,7 +4063,7 @@
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="72">
         <v>57</v>
       </c>
@@ -4243,7 +4237,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="72">
         <v>59</v>
       </c>
@@ -4273,7 +4267,7 @@
       </c>
       <c r="K61" s="72"/>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>61</v>
       </c>
@@ -4359,7 +4353,7 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>63</v>
       </c>
@@ -4389,7 +4383,7 @@
       </c>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>65</v>
       </c>
@@ -4399,12 +4393,14 @@
       <c r="D66" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="F66" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H66" s="64">
         <v>44888</v>
@@ -4417,7 +4413,7 @@
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>72</v>
       </c>
@@ -4445,7 +4441,7 @@
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>74</v>
       </c>
@@ -4473,7 +4469,7 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -4483,12 +4479,14 @@
       <c r="D69" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="F69" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H69" s="64">
         <v>44889</v>
@@ -4501,7 +4499,7 @@
       </c>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>69</v>
       </c>
@@ -4511,12 +4509,14 @@
       <c r="D70" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H70" s="64">
         <v>44889</v>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>76</v>
       </c>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>78</v>
       </c>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B344" s="63">
         <v>18</v>
       </c>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="K345" s="63"/>
     </row>
-    <row r="346" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>343</v>
       </c>
@@ -12245,7 +12245,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>344</v>
       </c>
@@ -12265,7 +12265,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>345</v>
       </c>
@@ -12285,7 +12285,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>346</v>
       </c>
@@ -12306,34 +12306,30 @@
       <c r="K349" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K349" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="API"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters blank="1">
+  <autoFilter ref="B2:K349">
+    <filterColumn colId="7">
+      <filters>
         <dateGroupItem year="2022" month="10" dateTimeGrouping="month"/>
         <dateGroupItem year="2022" month="11" day="1" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="2" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="3" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="4" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="7" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="8" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="9" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="10" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="11" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="14" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="15" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="16" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="17" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="18" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="21" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="22" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="23" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="24" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K349">
+  <sortState ref="B3:K349">
     <sortCondition ref="I2"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12349,7 +12345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q320"/>
   <sheetViews>
     <sheetView topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
@@ -12365,15 +12361,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
@@ -12441,14 +12437,14 @@
       <c r="H4" s="44">
         <v>55</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="39">
@@ -12565,15 +12561,15 @@
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
@@ -12725,14 +12721,14 @@
       <c r="H19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="82" t="s">
+      <c r="J19" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="80"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="95"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
@@ -12867,15 +12863,15 @@
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="s">
@@ -12964,14 +12960,14 @@
       <c r="H30" s="3">
         <v>255</v>
       </c>
-      <c r="J30" s="82" t="s">
+      <c r="J30" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="80"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="95"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
@@ -13035,14 +13031,14 @@
       <c r="H33" s="3">
         <v>10</v>
       </c>
-      <c r="J33" s="82" t="s">
+      <c r="J33" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="95"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
@@ -13171,15 +13167,15 @@
     </row>
     <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="97"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="100"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="27" t="s">
@@ -13349,15 +13345,15 @@
     </row>
     <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="85" t="s">
+      <c r="B53" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="87"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="92"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="22" t="s">
@@ -13522,15 +13518,15 @@
     </row>
     <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="85" t="s">
+      <c r="B65" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="86"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="87"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="92"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="27" t="s">
@@ -13613,15 +13609,15 @@
         <v>188</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="J69" s="82" t="s">
+      <c r="J69" s="93" t="s">
         <v>237</v>
       </c>
-      <c r="K69" s="83"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="83"/>
-      <c r="N69" s="83"/>
-      <c r="O69" s="83"/>
-      <c r="P69" s="84"/>
+      <c r="K69" s="96"/>
+      <c r="L69" s="96"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="96"/>
+      <c r="O69" s="96"/>
+      <c r="P69" s="97"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="34"/>
@@ -13736,15 +13732,15 @@
     </row>
     <row r="75" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="77"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84"/>
+      <c r="H76" s="85"/>
     </row>
     <row r="77" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="22" t="s">
@@ -13960,15 +13956,15 @@
     </row>
     <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="88" t="s">
+      <c r="B90" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="89"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="90"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="82"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="31" t="s">
@@ -14224,15 +14220,15 @@
     </row>
     <row r="105" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="75" t="s">
+      <c r="B106" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="76"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="76"/>
-      <c r="H106" s="77"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="84"/>
+      <c r="G106" s="84"/>
+      <c r="H106" s="85"/>
     </row>
     <row r="107" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="49" t="s">
@@ -14494,15 +14490,15 @@
     </row>
     <row r="119" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="75" t="s">
+      <c r="B120" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="C120" s="76"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="76"/>
-      <c r="F120" s="76"/>
-      <c r="G120" s="76"/>
-      <c r="H120" s="77"/>
+      <c r="C120" s="84"/>
+      <c r="D120" s="84"/>
+      <c r="E120" s="84"/>
+      <c r="F120" s="84"/>
+      <c r="G120" s="84"/>
+      <c r="H120" s="85"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="27" t="s">
@@ -14682,15 +14678,15 @@
     </row>
     <row r="132" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="75" t="s">
+      <c r="B133" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="C133" s="76"/>
-      <c r="D133" s="76"/>
-      <c r="E133" s="76"/>
-      <c r="F133" s="76"/>
-      <c r="G133" s="76"/>
-      <c r="H133" s="77"/>
+      <c r="C133" s="84"/>
+      <c r="D133" s="84"/>
+      <c r="E133" s="84"/>
+      <c r="F133" s="84"/>
+      <c r="G133" s="84"/>
+      <c r="H133" s="85"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="32" t="s">
@@ -14862,15 +14858,15 @@
     </row>
     <row r="143" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="144" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="75" t="s">
+      <c r="B144" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="C144" s="76"/>
-      <c r="D144" s="76"/>
-      <c r="E144" s="76"/>
-      <c r="F144" s="76"/>
-      <c r="G144" s="76"/>
-      <c r="H144" s="77"/>
+      <c r="C144" s="84"/>
+      <c r="D144" s="84"/>
+      <c r="E144" s="84"/>
+      <c r="F144" s="84"/>
+      <c r="G144" s="84"/>
+      <c r="H144" s="85"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="27" t="s">
@@ -15041,15 +15037,15 @@
     </row>
     <row r="154" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="155" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="75" t="s">
+      <c r="B155" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="C155" s="76"/>
-      <c r="D155" s="76"/>
-      <c r="E155" s="76"/>
-      <c r="F155" s="76"/>
-      <c r="G155" s="76"/>
-      <c r="H155" s="77"/>
+      <c r="C155" s="84"/>
+      <c r="D155" s="84"/>
+      <c r="E155" s="84"/>
+      <c r="F155" s="84"/>
+      <c r="G155" s="84"/>
+      <c r="H155" s="85"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="22" t="s">
@@ -15220,15 +15216,15 @@
       </c>
     </row>
     <row r="166" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="81" t="s">
+      <c r="B166" s="102" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="81"/>
-      <c r="D166" s="81"/>
-      <c r="E166" s="81"/>
-      <c r="F166" s="81"/>
-      <c r="G166" s="81"/>
-      <c r="H166" s="81"/>
+      <c r="C166" s="102"/>
+      <c r="D166" s="102"/>
+      <c r="E166" s="102"/>
+      <c r="F166" s="102"/>
+      <c r="G166" s="102"/>
+      <c r="H166" s="102"/>
     </row>
     <row r="167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B167" s="22" t="s">
@@ -15296,16 +15292,16 @@
       <c r="H169" s="3">
         <v>155</v>
       </c>
-      <c r="J169" s="82" t="s">
+      <c r="J169" s="93" t="s">
         <v>275</v>
       </c>
-      <c r="K169" s="83"/>
-      <c r="L169" s="83"/>
-      <c r="M169" s="83"/>
-      <c r="N169" s="83"/>
-      <c r="O169" s="83"/>
-      <c r="P169" s="83"/>
-      <c r="Q169" s="84"/>
+      <c r="K169" s="96"/>
+      <c r="L169" s="96"/>
+      <c r="M169" s="96"/>
+      <c r="N169" s="96"/>
+      <c r="O169" s="96"/>
+      <c r="P169" s="96"/>
+      <c r="Q169" s="97"/>
     </row>
     <row r="170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
@@ -15410,15 +15406,15 @@
     </row>
     <row r="175" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="85" t="s">
+      <c r="B176" s="90" t="s">
         <v>276</v>
       </c>
-      <c r="C176" s="86"/>
-      <c r="D176" s="86"/>
-      <c r="E176" s="86"/>
-      <c r="F176" s="86"/>
-      <c r="G176" s="86"/>
-      <c r="H176" s="87"/>
+      <c r="C176" s="91"/>
+      <c r="D176" s="91"/>
+      <c r="E176" s="91"/>
+      <c r="F176" s="91"/>
+      <c r="G176" s="91"/>
+      <c r="H176" s="92"/>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177" s="22" t="s">
@@ -15478,16 +15474,16 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="J179" s="82" t="s">
+      <c r="J179" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="K179" s="83"/>
-      <c r="L179" s="83"/>
-      <c r="M179" s="83"/>
-      <c r="N179" s="83"/>
-      <c r="O179" s="83"/>
-      <c r="P179" s="83"/>
-      <c r="Q179" s="84"/>
+      <c r="K179" s="96"/>
+      <c r="L179" s="96"/>
+      <c r="M179" s="96"/>
+      <c r="N179" s="96"/>
+      <c r="O179" s="96"/>
+      <c r="P179" s="96"/>
+      <c r="Q179" s="97"/>
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
@@ -15592,15 +15588,15 @@
     </row>
     <row r="186" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="187" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="75" t="s">
+      <c r="B187" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="C187" s="76"/>
-      <c r="D187" s="76"/>
-      <c r="E187" s="76"/>
-      <c r="F187" s="76"/>
-      <c r="G187" s="76"/>
-      <c r="H187" s="77"/>
+      <c r="C187" s="84"/>
+      <c r="D187" s="84"/>
+      <c r="E187" s="84"/>
+      <c r="F187" s="84"/>
+      <c r="G187" s="84"/>
+      <c r="H187" s="85"/>
     </row>
     <row r="188" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="22" t="s">
@@ -15804,15 +15800,15 @@
     </row>
     <row r="199" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="200" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="75" t="s">
+      <c r="B200" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="C200" s="76"/>
-      <c r="D200" s="76"/>
-      <c r="E200" s="76"/>
-      <c r="F200" s="76"/>
-      <c r="G200" s="76"/>
-      <c r="H200" s="77"/>
+      <c r="C200" s="84"/>
+      <c r="D200" s="84"/>
+      <c r="E200" s="84"/>
+      <c r="F200" s="84"/>
+      <c r="G200" s="84"/>
+      <c r="H200" s="85"/>
     </row>
     <row r="201" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="22" t="s">
@@ -16068,15 +16064,15 @@
     </row>
     <row r="214" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="215" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="75" t="s">
+      <c r="B215" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="C215" s="76"/>
-      <c r="D215" s="76"/>
-      <c r="E215" s="76"/>
-      <c r="F215" s="76"/>
-      <c r="G215" s="76"/>
-      <c r="H215" s="77"/>
+      <c r="C215" s="84"/>
+      <c r="D215" s="84"/>
+      <c r="E215" s="84"/>
+      <c r="F215" s="84"/>
+      <c r="G215" s="84"/>
+      <c r="H215" s="85"/>
     </row>
     <row r="216" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="22" t="s">
@@ -16314,15 +16310,15 @@
     </row>
     <row r="229" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="230" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="75" t="s">
+      <c r="B230" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="C230" s="76"/>
-      <c r="D230" s="76"/>
-      <c r="E230" s="76"/>
-      <c r="F230" s="76"/>
-      <c r="G230" s="76"/>
-      <c r="H230" s="77"/>
+      <c r="C230" s="84"/>
+      <c r="D230" s="84"/>
+      <c r="E230" s="84"/>
+      <c r="F230" s="84"/>
+      <c r="G230" s="84"/>
+      <c r="H230" s="85"/>
     </row>
     <row r="231" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="22" t="s">
@@ -16511,15 +16507,15 @@
     </row>
     <row r="241" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="242" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="75" t="s">
+      <c r="B242" s="83" t="s">
         <v>310</v>
       </c>
-      <c r="C242" s="76"/>
-      <c r="D242" s="76"/>
-      <c r="E242" s="76"/>
-      <c r="F242" s="76"/>
-      <c r="G242" s="76"/>
-      <c r="H242" s="77"/>
+      <c r="C242" s="84"/>
+      <c r="D242" s="84"/>
+      <c r="E242" s="84"/>
+      <c r="F242" s="84"/>
+      <c r="G242" s="84"/>
+      <c r="H242" s="85"/>
     </row>
     <row r="243" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="22" t="s">
@@ -16840,15 +16836,15 @@
     </row>
     <row r="259" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="75" t="s">
+      <c r="B260" s="83" t="s">
         <v>319</v>
       </c>
-      <c r="C260" s="76"/>
-      <c r="D260" s="76"/>
-      <c r="E260" s="76"/>
-      <c r="F260" s="76"/>
-      <c r="G260" s="76"/>
-      <c r="H260" s="77"/>
+      <c r="C260" s="84"/>
+      <c r="D260" s="84"/>
+      <c r="E260" s="84"/>
+      <c r="F260" s="84"/>
+      <c r="G260" s="84"/>
+      <c r="H260" s="85"/>
     </row>
     <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B261" s="22" t="s">
@@ -17073,15 +17069,15 @@
     </row>
     <row r="273" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="274" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="75" t="s">
+      <c r="B274" s="83" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="76"/>
-      <c r="D274" s="76"/>
-      <c r="E274" s="76"/>
-      <c r="F274" s="76"/>
-      <c r="G274" s="76"/>
-      <c r="H274" s="77"/>
+      <c r="C274" s="84"/>
+      <c r="D274" s="84"/>
+      <c r="E274" s="84"/>
+      <c r="F274" s="84"/>
+      <c r="G274" s="84"/>
+      <c r="H274" s="85"/>
     </row>
     <row r="275" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B275" s="22" t="s">
@@ -17147,15 +17143,15 @@
         <v>184</v>
       </c>
       <c r="H277" s="35"/>
-      <c r="J277" s="78" t="s">
+      <c r="J277" s="101" t="s">
         <v>327</v>
       </c>
-      <c r="K277" s="79"/>
-      <c r="L277" s="79"/>
-      <c r="M277" s="79"/>
-      <c r="N277" s="79"/>
-      <c r="O277" s="79"/>
-      <c r="P277" s="80"/>
+      <c r="K277" s="94"/>
+      <c r="L277" s="94"/>
+      <c r="M277" s="94"/>
+      <c r="N277" s="94"/>
+      <c r="O277" s="94"/>
+      <c r="P277" s="95"/>
     </row>
     <row r="278" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B278" s="34">
@@ -17260,15 +17256,15 @@
     </row>
     <row r="284" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="285" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="75" t="s">
+      <c r="B285" s="83" t="s">
         <v>329</v>
       </c>
-      <c r="C285" s="76"/>
-      <c r="D285" s="76"/>
-      <c r="E285" s="76"/>
-      <c r="F285" s="76"/>
-      <c r="G285" s="76"/>
-      <c r="H285" s="77"/>
+      <c r="C285" s="84"/>
+      <c r="D285" s="84"/>
+      <c r="E285" s="84"/>
+      <c r="F285" s="84"/>
+      <c r="G285" s="84"/>
+      <c r="H285" s="85"/>
     </row>
     <row r="286" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B286" s="22" t="s">
@@ -17494,14 +17490,14 @@
       </c>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B299" s="74" t="s">
+      <c r="B299" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="C299" s="74"/>
-      <c r="D299" s="74"/>
-      <c r="E299" s="74"/>
-      <c r="F299" s="74"/>
-      <c r="G299" s="74"/>
+      <c r="C299" s="103"/>
+      <c r="D299" s="103"/>
+      <c r="E299" s="103"/>
+      <c r="F299" s="103"/>
+      <c r="G299" s="103"/>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="11" t="s">
@@ -17666,15 +17662,15 @@
     </row>
     <row r="309" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="310" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="75" t="s">
+      <c r="B310" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="C310" s="76"/>
-      <c r="D310" s="76"/>
-      <c r="E310" s="76"/>
-      <c r="F310" s="76"/>
-      <c r="G310" s="76"/>
-      <c r="H310" s="77"/>
+      <c r="C310" s="84"/>
+      <c r="D310" s="84"/>
+      <c r="E310" s="84"/>
+      <c r="F310" s="84"/>
+      <c r="G310" s="84"/>
+      <c r="H310" s="85"/>
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="22" t="s">
@@ -17872,6 +17868,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B299:G299"/>
+    <mergeCell ref="B310:H310"/>
+    <mergeCell ref="B285:H285"/>
+    <mergeCell ref="B230:H230"/>
+    <mergeCell ref="B242:H242"/>
+    <mergeCell ref="B260:H260"/>
+    <mergeCell ref="B274:H274"/>
+    <mergeCell ref="J277:P277"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="J169:Q169"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="J179:Q179"/>
     <mergeCell ref="B90:H90"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B120:H120"/>
@@ -17887,24 +17901,6 @@
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="B65:H65"/>
-    <mergeCell ref="J277:P277"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="J169:Q169"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="J179:Q179"/>
-    <mergeCell ref="B299:G299"/>
-    <mergeCell ref="B310:H310"/>
-    <mergeCell ref="B285:H285"/>
-    <mergeCell ref="B230:H230"/>
-    <mergeCell ref="B242:H242"/>
-    <mergeCell ref="B260:H260"/>
-    <mergeCell ref="B274:H274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Traditional Yoga Updated Document.xlsx
+++ b/Traditional Yoga Updated Document.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\yoga_excelsheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F002787-665F-4AA3-87F7-D0A2DA4B328F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="393">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -1200,12 +1206,15 @@
   </si>
   <si>
     <t>Sumukesh/Ajith K</t>
+  </si>
+  <si>
+    <t>karthik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1802,7 +1811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1925,13 +1934,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1941,6 +1944,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1955,30 +1997,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1988,15 +2006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2324,29 +2334,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>173</v>
       </c>
@@ -2369,7 +2379,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>174</v>
       </c>
@@ -2380,7 +2390,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>175</v>
       </c>
@@ -2391,7 +2401,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>168</v>
       </c>
@@ -2402,7 +2412,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>176</v>
       </c>
@@ -2413,7 +2423,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>177</v>
       </c>
@@ -2424,7 +2434,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>178</v>
       </c>
@@ -2442,30 +2452,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:K349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="67" t="s">
         <v>164</v>
       </c>
@@ -2497,7 +2507,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="72">
         <v>2</v>
       </c>
@@ -2527,7 +2537,7 @@
       </c>
       <c r="K3" s="72"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="72">
         <v>4</v>
       </c>
@@ -2557,7 +2567,7 @@
       </c>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="62">
         <v>6</v>
       </c>
@@ -2587,7 +2597,7 @@
       </c>
       <c r="K5" s="62"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="62">
         <v>8</v>
       </c>
@@ -2617,7 +2627,7 @@
       </c>
       <c r="K6" s="62"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="72">
         <v>3</v>
       </c>
@@ -2647,7 +2657,7 @@
       </c>
       <c r="K7" s="72"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="72">
         <v>5</v>
       </c>
@@ -2677,7 +2687,7 @@
       </c>
       <c r="K8" s="72"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="62">
         <v>10</v>
       </c>
@@ -2707,7 +2717,7 @@
       </c>
       <c r="K9" s="62"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="72">
         <v>12</v>
       </c>
@@ -2737,7 +2747,7 @@
       </c>
       <c r="K10" s="72"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="72">
         <v>7</v>
       </c>
@@ -2767,7 +2777,7 @@
       </c>
       <c r="K11" s="72"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="72">
         <v>9</v>
       </c>
@@ -2797,7 +2807,7 @@
       </c>
       <c r="K12" s="72"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="72">
         <v>14</v>
       </c>
@@ -2827,7 +2837,7 @@
       </c>
       <c r="K13" s="72"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="72">
         <v>16</v>
       </c>
@@ -2857,7 +2867,7 @@
       </c>
       <c r="K14" s="72"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="72">
         <v>11</v>
       </c>
@@ -2887,7 +2897,7 @@
       </c>
       <c r="K15" s="72"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="72">
         <v>13</v>
       </c>
@@ -2917,7 +2927,7 @@
       </c>
       <c r="K16" s="72"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="72">
         <v>15</v>
       </c>
@@ -2947,7 +2957,7 @@
       </c>
       <c r="K17" s="72"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="72">
         <v>17</v>
       </c>
@@ -2977,7 +2987,7 @@
       </c>
       <c r="K18" s="72"/>
     </row>
-    <row r="19" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="75">
         <v>22</v>
       </c>
@@ -3007,7 +3017,7 @@
       </c>
       <c r="K19" s="75"/>
     </row>
-    <row r="20" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="75">
         <v>24</v>
       </c>
@@ -3037,7 +3047,7 @@
       </c>
       <c r="K20" s="75"/>
     </row>
-    <row r="21" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="75">
         <v>26</v>
       </c>
@@ -3067,7 +3077,7 @@
       </c>
       <c r="K21" s="75"/>
     </row>
-    <row r="22" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="75">
         <v>28</v>
       </c>
@@ -3097,7 +3107,7 @@
       </c>
       <c r="K22" s="75"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="72">
         <v>23</v>
       </c>
@@ -3127,7 +3137,7 @@
       </c>
       <c r="K23" s="72"/>
     </row>
-    <row r="24" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="75">
         <v>30</v>
       </c>
@@ -3157,7 +3167,7 @@
       </c>
       <c r="K24" s="75"/>
     </row>
-    <row r="25" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="75">
         <v>32</v>
       </c>
@@ -3187,7 +3197,7 @@
       </c>
       <c r="K25" s="75"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="63">
         <v>1</v>
       </c>
@@ -3211,7 +3221,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="72">
         <v>27</v>
       </c>
@@ -3241,7 +3251,7 @@
       </c>
       <c r="K27" s="72"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="72">
         <v>29</v>
       </c>
@@ -3271,7 +3281,7 @@
       </c>
       <c r="K28" s="72"/>
     </row>
-    <row r="29" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="75">
         <v>34</v>
       </c>
@@ -3301,7 +3311,7 @@
       </c>
       <c r="K29" s="75"/>
     </row>
-    <row r="30" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="75">
         <v>36</v>
       </c>
@@ -3331,7 +3341,7 @@
       </c>
       <c r="K30" s="75"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>37</v>
       </c>
@@ -3363,7 +3373,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>25</v>
       </c>
@@ -3393,7 +3403,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="72">
         <v>31</v>
       </c>
@@ -3423,7 +3433,7 @@
       </c>
       <c r="K33" s="72"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="72">
         <v>33</v>
       </c>
@@ -3453,7 +3463,7 @@
       </c>
       <c r="K34" s="72"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="72">
         <v>35</v>
       </c>
@@ -3483,7 +3493,7 @@
       </c>
       <c r="K35" s="72"/>
     </row>
-    <row r="36" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="75">
         <v>39</v>
       </c>
@@ -3515,7 +3525,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="75">
         <v>41</v>
       </c>
@@ -3547,7 +3557,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="72">
         <v>43</v>
       </c>
@@ -3577,7 +3587,7 @@
       </c>
       <c r="K38" s="72"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -3607,7 +3617,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>40</v>
       </c>
@@ -3637,7 +3647,7 @@
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>42</v>
       </c>
@@ -3667,7 +3677,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>44</v>
       </c>
@@ -3697,7 +3707,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="72">
         <v>45</v>
       </c>
@@ -3727,7 +3737,7 @@
       </c>
       <c r="K43" s="72"/>
     </row>
-    <row r="44" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="75">
         <v>47</v>
       </c>
@@ -3759,7 +3769,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="75">
         <v>49</v>
       </c>
@@ -3791,7 +3801,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>46</v>
       </c>
@@ -3823,7 +3833,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>48</v>
       </c>
@@ -3853,7 +3863,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>50</v>
       </c>
@@ -3883,7 +3893,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="72">
         <v>51</v>
       </c>
@@ -3913,7 +3923,7 @@
       </c>
       <c r="K49" s="72"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>52</v>
       </c>
@@ -3943,7 +3953,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="72">
         <v>53</v>
       </c>
@@ -3973,7 +3983,7 @@
       </c>
       <c r="K51" s="72"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>54</v>
       </c>
@@ -4003,7 +4013,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>55</v>
       </c>
@@ -4033,7 +4043,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>56</v>
       </c>
@@ -4063,7 +4073,7 @@
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="72">
         <v>57</v>
       </c>
@@ -4093,7 +4103,7 @@
       </c>
       <c r="K55" s="72"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>58</v>
       </c>
@@ -4123,7 +4133,7 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>60</v>
       </c>
@@ -4153,7 +4163,7 @@
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>62</v>
       </c>
@@ -4181,7 +4191,7 @@
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>64</v>
       </c>
@@ -4209,7 +4219,7 @@
       </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>66</v>
       </c>
@@ -4237,7 +4247,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="72">
         <v>59</v>
       </c>
@@ -4267,7 +4277,7 @@
       </c>
       <c r="K61" s="72"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <v>61</v>
       </c>
@@ -4297,7 +4307,7 @@
       </c>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>68</v>
       </c>
@@ -4325,7 +4335,7 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>70</v>
       </c>
@@ -4353,7 +4363,7 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>63</v>
       </c>
@@ -4383,37 +4393,37 @@
       </c>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="1">
+    <row r="66" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="4">
         <v>65</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H66" s="64">
+      <c r="H66" s="69">
         <v>44888</v>
       </c>
-      <c r="I66" s="64">
+      <c r="I66" s="69">
         <v>44888</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>72</v>
       </c>
@@ -4441,7 +4451,7 @@
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>74</v>
       </c>
@@ -4469,67 +4479,67 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="1">
+    <row r="69" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="4">
         <v>67</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H69" s="64">
+      <c r="H69" s="69">
         <v>44889</v>
       </c>
-      <c r="I69" s="64">
+      <c r="I69" s="69">
         <v>44889</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="1">
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="4">
         <v>69</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H70" s="64">
+      <c r="H70" s="69">
         <v>44889</v>
       </c>
-      <c r="I70" s="64">
+      <c r="I70" s="69">
         <v>44889</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>76</v>
       </c>
@@ -4557,7 +4567,7 @@
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>78</v>
       </c>
@@ -4585,119 +4595,127 @@
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1">
+    <row r="73" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="4">
         <v>71</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1" t="s">
+      <c r="E73" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H73" s="64">
+      <c r="G73" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H73" s="69">
         <v>44890</v>
       </c>
-      <c r="I73" s="64">
+      <c r="I73" s="69">
         <v>44890</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="1">
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="4">
         <v>73</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
+      <c r="E74" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H74" s="64">
+      <c r="G74" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H74" s="69">
         <v>44890</v>
       </c>
-      <c r="I74" s="64">
+      <c r="I74" s="69">
         <v>44890</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1">
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="4">
         <v>75</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1" t="s">
+      <c r="E75" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H75" s="64">
+      <c r="G75" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H75" s="69">
         <v>44893</v>
       </c>
-      <c r="I75" s="64">
+      <c r="I75" s="69">
         <v>44893</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1">
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="4">
         <v>77</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
+      <c r="E76" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H76" s="64">
+      <c r="G76" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H76" s="69">
         <v>44893</v>
       </c>
-      <c r="I76" s="64">
+      <c r="I76" s="69">
         <v>44893</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>80</v>
       </c>
@@ -4725,7 +4743,7 @@
       </c>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>82</v>
       </c>
@@ -4753,7 +4771,7 @@
       </c>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>79</v>
       </c>
@@ -4781,7 +4799,7 @@
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>81</v>
       </c>
@@ -4809,7 +4827,7 @@
       </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="1">
         <v>84</v>
       </c>
@@ -4837,7 +4855,7 @@
       </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="1">
         <v>86</v>
       </c>
@@ -4865,7 +4883,7 @@
       </c>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
         <v>83</v>
       </c>
@@ -4893,7 +4911,7 @@
       </c>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
         <v>85</v>
       </c>
@@ -4921,7 +4939,7 @@
       </c>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>88</v>
       </c>
@@ -4949,7 +4967,7 @@
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="1">
         <v>90</v>
       </c>
@@ -4977,7 +4995,7 @@
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="1">
         <v>87</v>
       </c>
@@ -5005,7 +5023,7 @@
       </c>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
         <v>89</v>
       </c>
@@ -5033,7 +5051,7 @@
       </c>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1">
         <v>92</v>
       </c>
@@ -5061,7 +5079,7 @@
       </c>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1">
         <v>94</v>
       </c>
@@ -5089,7 +5107,7 @@
       </c>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1">
         <v>91</v>
       </c>
@@ -5117,7 +5135,7 @@
       </c>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
         <v>93</v>
       </c>
@@ -5145,7 +5163,7 @@
       </c>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
         <v>96</v>
       </c>
@@ -5173,7 +5191,7 @@
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1">
         <v>98</v>
       </c>
@@ -5201,7 +5219,7 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="1">
         <v>95</v>
       </c>
@@ -5229,7 +5247,7 @@
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1">
         <v>97</v>
       </c>
@@ -5257,7 +5275,7 @@
       </c>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1">
         <v>100</v>
       </c>
@@ -5285,7 +5303,7 @@
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1">
         <v>102</v>
       </c>
@@ -5313,7 +5331,7 @@
       </c>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1">
         <v>99</v>
       </c>
@@ -5341,7 +5359,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1">
         <v>101</v>
       </c>
@@ -5369,7 +5387,7 @@
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1">
         <v>104</v>
       </c>
@@ -5397,7 +5415,7 @@
       </c>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1">
         <v>106</v>
       </c>
@@ -5425,7 +5443,7 @@
       </c>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="1">
         <v>103</v>
       </c>
@@ -5453,7 +5471,7 @@
       </c>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="1">
         <v>105</v>
       </c>
@@ -5481,7 +5499,7 @@
       </c>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="1">
         <v>108</v>
       </c>
@@ -5509,7 +5527,7 @@
       </c>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="1">
         <v>110</v>
       </c>
@@ -5537,7 +5555,7 @@
       </c>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="1">
         <v>107</v>
       </c>
@@ -5565,7 +5583,7 @@
       </c>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="1">
         <v>109</v>
       </c>
@@ -5593,7 +5611,7 @@
       </c>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1">
         <v>112</v>
       </c>
@@ -5621,7 +5639,7 @@
       </c>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="1">
         <v>114</v>
       </c>
@@ -5649,7 +5667,7 @@
       </c>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="1">
         <v>111</v>
       </c>
@@ -5677,7 +5695,7 @@
       </c>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="1">
         <v>116</v>
       </c>
@@ -5705,7 +5723,7 @@
       </c>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="1">
         <v>118</v>
       </c>
@@ -5733,7 +5751,7 @@
       </c>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="1">
         <v>113</v>
       </c>
@@ -5761,7 +5779,7 @@
       </c>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="1">
         <v>115</v>
       </c>
@@ -5789,7 +5807,7 @@
       </c>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="1">
         <v>120</v>
       </c>
@@ -5817,7 +5835,7 @@
       </c>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="1">
         <v>122</v>
       </c>
@@ -5845,7 +5863,7 @@
       </c>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="1">
         <v>117</v>
       </c>
@@ -5873,7 +5891,7 @@
       </c>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="1">
         <v>119</v>
       </c>
@@ -5901,7 +5919,7 @@
       </c>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="1">
         <v>124</v>
       </c>
@@ -5929,7 +5947,7 @@
       </c>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="1">
         <v>121</v>
       </c>
@@ -5957,7 +5975,7 @@
       </c>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="1">
         <v>123</v>
       </c>
@@ -5985,7 +6003,7 @@
       </c>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="1">
         <v>125</v>
       </c>
@@ -6013,7 +6031,7 @@
       </c>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="1">
         <v>127</v>
       </c>
@@ -6041,7 +6059,7 @@
       </c>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="1">
         <v>126</v>
       </c>
@@ -6069,7 +6087,7 @@
       </c>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="1">
         <v>128</v>
       </c>
@@ -6097,7 +6115,7 @@
       </c>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="1">
         <v>129</v>
       </c>
@@ -6125,7 +6143,7 @@
       </c>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="1">
         <v>131</v>
       </c>
@@ -6153,7 +6171,7 @@
       </c>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="1">
         <v>130</v>
       </c>
@@ -6181,7 +6199,7 @@
       </c>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="1">
         <v>132</v>
       </c>
@@ -6209,7 +6227,7 @@
       </c>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1">
         <v>133</v>
       </c>
@@ -6237,7 +6255,7 @@
       </c>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="1">
         <v>135</v>
       </c>
@@ -6265,7 +6283,7 @@
       </c>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="2:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="1">
         <v>134</v>
       </c>
@@ -6293,7 +6311,7 @@
       </c>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="1">
         <v>136</v>
       </c>
@@ -6321,7 +6339,7 @@
       </c>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="70">
         <v>20</v>
       </c>
@@ -6349,7 +6367,7 @@
       </c>
       <c r="K135" s="70"/>
     </row>
-    <row r="136" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="70">
         <v>21</v>
       </c>
@@ -6377,7 +6395,7 @@
       </c>
       <c r="K136" s="70"/>
     </row>
-    <row r="137" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="1">
         <v>137</v>
       </c>
@@ -6405,7 +6423,7 @@
       </c>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="1">
         <v>139</v>
       </c>
@@ -6433,7 +6451,7 @@
       </c>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="1">
         <v>138</v>
       </c>
@@ -6461,7 +6479,7 @@
       </c>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="1">
         <v>140</v>
       </c>
@@ -6489,7 +6507,7 @@
       </c>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="1">
         <v>141</v>
       </c>
@@ -6517,7 +6535,7 @@
       </c>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="1">
         <v>143</v>
       </c>
@@ -6545,7 +6563,7 @@
       </c>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1">
         <v>142</v>
       </c>
@@ -6573,7 +6591,7 @@
       </c>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="1">
         <v>144</v>
       </c>
@@ -6601,7 +6619,7 @@
       </c>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="1">
         <v>145</v>
       </c>
@@ -6629,7 +6647,7 @@
       </c>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="1">
         <v>147</v>
       </c>
@@ -6657,7 +6675,7 @@
       </c>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="1">
         <v>146</v>
       </c>
@@ -6685,7 +6703,7 @@
       </c>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="1">
         <v>148</v>
       </c>
@@ -6713,7 +6731,7 @@
       </c>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="1">
         <v>149</v>
       </c>
@@ -6741,7 +6759,7 @@
       </c>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="1">
         <v>151</v>
       </c>
@@ -6769,7 +6787,7 @@
       </c>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="1">
         <v>150</v>
       </c>
@@ -6797,7 +6815,7 @@
       </c>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="1">
         <v>152</v>
       </c>
@@ -6825,7 +6843,7 @@
       </c>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="1">
         <v>153</v>
       </c>
@@ -6853,7 +6871,7 @@
       </c>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="1">
         <v>155</v>
       </c>
@@ -6881,7 +6899,7 @@
       </c>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="1">
         <v>154</v>
       </c>
@@ -6909,7 +6927,7 @@
       </c>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="1">
         <v>156</v>
       </c>
@@ -6937,7 +6955,7 @@
       </c>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="1">
         <v>157</v>
       </c>
@@ -6965,7 +6983,7 @@
       </c>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="1">
         <v>158</v>
       </c>
@@ -6993,7 +7011,7 @@
       </c>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="1">
         <v>159</v>
       </c>
@@ -7021,7 +7039,7 @@
       </c>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="1">
         <v>161</v>
       </c>
@@ -7049,7 +7067,7 @@
       </c>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="1">
         <v>160</v>
       </c>
@@ -7077,7 +7095,7 @@
       </c>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="1">
         <v>162</v>
       </c>
@@ -7105,7 +7123,7 @@
       </c>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="1">
         <v>163</v>
       </c>
@@ -7133,7 +7151,7 @@
       </c>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="1">
         <v>165</v>
       </c>
@@ -7161,7 +7179,7 @@
       </c>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="1">
         <v>164</v>
       </c>
@@ -7189,7 +7207,7 @@
       </c>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="1">
         <v>166</v>
       </c>
@@ -7217,7 +7235,7 @@
       </c>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" s="1">
         <v>167</v>
       </c>
@@ -7245,7 +7263,7 @@
       </c>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="1">
         <v>169</v>
       </c>
@@ -7273,7 +7291,7 @@
       </c>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="1">
         <v>168</v>
       </c>
@@ -7301,7 +7319,7 @@
       </c>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="1">
         <v>170</v>
       </c>
@@ -7329,7 +7347,7 @@
       </c>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="1">
         <v>171</v>
       </c>
@@ -7357,7 +7375,7 @@
       </c>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="1">
         <v>173</v>
       </c>
@@ -7385,7 +7403,7 @@
       </c>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="1">
         <v>172</v>
       </c>
@@ -7413,7 +7431,7 @@
       </c>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="1">
         <v>174</v>
       </c>
@@ -7441,7 +7459,7 @@
       </c>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="1">
         <v>175</v>
       </c>
@@ -7469,7 +7487,7 @@
       </c>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="1">
         <v>177</v>
       </c>
@@ -7497,7 +7515,7 @@
       </c>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="1">
         <v>176</v>
       </c>
@@ -7525,7 +7543,7 @@
       </c>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="1">
         <v>178</v>
       </c>
@@ -7553,7 +7571,7 @@
       </c>
       <c r="K178" s="1"/>
     </row>
-    <row r="179" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" s="1">
         <v>179</v>
       </c>
@@ -7581,7 +7599,7 @@
       </c>
       <c r="K179" s="1"/>
     </row>
-    <row r="180" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" s="1">
         <v>181</v>
       </c>
@@ -7609,7 +7627,7 @@
       </c>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" s="1">
         <v>180</v>
       </c>
@@ -7637,7 +7655,7 @@
       </c>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" s="1">
         <v>182</v>
       </c>
@@ -7665,7 +7683,7 @@
       </c>
       <c r="K182" s="1"/>
     </row>
-    <row r="183" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" s="1">
         <v>183</v>
       </c>
@@ -7693,7 +7711,7 @@
       </c>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" s="1">
         <v>185</v>
       </c>
@@ -7721,7 +7739,7 @@
       </c>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185" s="1">
         <v>184</v>
       </c>
@@ -7749,7 +7767,7 @@
       </c>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" s="1">
         <v>186</v>
       </c>
@@ -7777,7 +7795,7 @@
       </c>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" s="1">
         <v>187</v>
       </c>
@@ -7805,7 +7823,7 @@
       </c>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" s="1">
         <v>189</v>
       </c>
@@ -7833,7 +7851,7 @@
       </c>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189" s="1">
         <v>188</v>
       </c>
@@ -7861,7 +7879,7 @@
       </c>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" s="1">
         <v>190</v>
       </c>
@@ -7889,7 +7907,7 @@
       </c>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191" s="1">
         <v>191</v>
       </c>
@@ -7917,7 +7935,7 @@
       </c>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" s="1">
         <v>193</v>
       </c>
@@ -7945,7 +7963,7 @@
       </c>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="1">
         <v>192</v>
       </c>
@@ -7973,7 +7991,7 @@
       </c>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" s="1">
         <v>194</v>
       </c>
@@ -8001,7 +8019,7 @@
       </c>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" s="1">
         <v>195</v>
       </c>
@@ -8029,7 +8047,7 @@
       </c>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" s="1">
         <v>196</v>
       </c>
@@ -8057,7 +8075,7 @@
       </c>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" s="1">
         <v>198</v>
       </c>
@@ -8085,7 +8103,7 @@
       </c>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" s="1">
         <v>197</v>
       </c>
@@ -8113,7 +8131,7 @@
       </c>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" s="1">
         <v>199</v>
       </c>
@@ -8141,7 +8159,7 @@
       </c>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" s="1">
         <v>200</v>
       </c>
@@ -8169,7 +8187,7 @@
       </c>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="1">
         <v>202</v>
       </c>
@@ -8197,7 +8215,7 @@
       </c>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" s="1">
         <v>201</v>
       </c>
@@ -8225,7 +8243,7 @@
       </c>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" s="1">
         <v>203</v>
       </c>
@@ -8253,7 +8271,7 @@
       </c>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" s="1">
         <v>204</v>
       </c>
@@ -8281,7 +8299,7 @@
       </c>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" s="1">
         <v>206</v>
       </c>
@@ -8309,7 +8327,7 @@
       </c>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" s="1">
         <v>205</v>
       </c>
@@ -8337,7 +8355,7 @@
       </c>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" s="1">
         <v>207</v>
       </c>
@@ -8365,7 +8383,7 @@
       </c>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" s="1">
         <v>208</v>
       </c>
@@ -8393,7 +8411,7 @@
       </c>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" s="1">
         <v>210</v>
       </c>
@@ -8421,7 +8439,7 @@
       </c>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" s="1">
         <v>209</v>
       </c>
@@ -8449,7 +8467,7 @@
       </c>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" s="1">
         <v>211</v>
       </c>
@@ -8477,7 +8495,7 @@
       </c>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" s="1">
         <v>212</v>
       </c>
@@ -8505,7 +8523,7 @@
       </c>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" s="1">
         <v>214</v>
       </c>
@@ -8533,7 +8551,7 @@
       </c>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="1">
         <v>213</v>
       </c>
@@ -8561,7 +8579,7 @@
       </c>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="1">
         <v>215</v>
       </c>
@@ -8589,7 +8607,7 @@
       </c>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" s="1">
         <v>216</v>
       </c>
@@ -8617,7 +8635,7 @@
       </c>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" s="1">
         <v>218</v>
       </c>
@@ -8645,7 +8663,7 @@
       </c>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" s="1">
         <v>217</v>
       </c>
@@ -8673,7 +8691,7 @@
       </c>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="1">
         <v>219</v>
       </c>
@@ -8701,7 +8719,7 @@
       </c>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="1">
         <v>220</v>
       </c>
@@ -8729,7 +8747,7 @@
       </c>
       <c r="K220" s="1"/>
     </row>
-    <row r="221" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" s="1">
         <v>222</v>
       </c>
@@ -8757,7 +8775,7 @@
       </c>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" s="1">
         <v>221</v>
       </c>
@@ -8785,7 +8803,7 @@
       </c>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" s="1">
         <v>223</v>
       </c>
@@ -8813,7 +8831,7 @@
       </c>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="1">
         <v>224</v>
       </c>
@@ -8841,7 +8859,7 @@
       </c>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" s="1">
         <v>226</v>
       </c>
@@ -8869,7 +8887,7 @@
       </c>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226" s="1">
         <v>225</v>
       </c>
@@ -8897,7 +8915,7 @@
       </c>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="1">
         <v>227</v>
       </c>
@@ -8925,7 +8943,7 @@
       </c>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="1">
         <v>228</v>
       </c>
@@ -8953,7 +8971,7 @@
       </c>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="1">
         <v>230</v>
       </c>
@@ -8981,7 +8999,7 @@
       </c>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="1">
         <v>229</v>
       </c>
@@ -9009,7 +9027,7 @@
       </c>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="1">
         <v>231</v>
       </c>
@@ -9037,7 +9055,7 @@
       </c>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="1">
         <v>232</v>
       </c>
@@ -9065,7 +9083,7 @@
       </c>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="1">
         <v>234</v>
       </c>
@@ -9093,7 +9111,7 @@
       </c>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234" s="1">
         <v>233</v>
       </c>
@@ -9121,7 +9139,7 @@
       </c>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" s="1">
         <v>235</v>
       </c>
@@ -9149,7 +9167,7 @@
       </c>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" s="1">
         <v>236</v>
       </c>
@@ -9177,7 +9195,7 @@
       </c>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" s="1">
         <v>238</v>
       </c>
@@ -9205,7 +9223,7 @@
       </c>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="1">
         <v>237</v>
       </c>
@@ -9233,7 +9251,7 @@
       </c>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" s="1">
         <v>239</v>
       </c>
@@ -9261,7 +9279,7 @@
       </c>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" s="1">
         <v>240</v>
       </c>
@@ -9289,7 +9307,7 @@
       </c>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B241" s="1">
         <v>242</v>
       </c>
@@ -9317,7 +9335,7 @@
       </c>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B242" s="1">
         <v>241</v>
       </c>
@@ -9345,7 +9363,7 @@
       </c>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B243" s="1">
         <v>243</v>
       </c>
@@ -9373,7 +9391,7 @@
       </c>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B244" s="1">
         <v>244</v>
       </c>
@@ -9401,7 +9419,7 @@
       </c>
       <c r="K244" s="1"/>
     </row>
-    <row r="245" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B245" s="1">
         <v>246</v>
       </c>
@@ -9429,7 +9447,7 @@
       </c>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B246" s="1">
         <v>245</v>
       </c>
@@ -9457,7 +9475,7 @@
       </c>
       <c r="K246" s="1"/>
     </row>
-    <row r="247" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B247" s="1">
         <v>248</v>
       </c>
@@ -9485,7 +9503,7 @@
       </c>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B248" s="1">
         <v>250</v>
       </c>
@@ -9513,7 +9531,7 @@
       </c>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B249" s="1">
         <v>247</v>
       </c>
@@ -9541,7 +9559,7 @@
       </c>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B250" s="1">
         <v>249</v>
       </c>
@@ -9569,7 +9587,7 @@
       </c>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" s="1">
         <v>252</v>
       </c>
@@ -9597,7 +9615,7 @@
       </c>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" s="1">
         <v>254</v>
       </c>
@@ -9625,7 +9643,7 @@
       </c>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" s="1">
         <v>251</v>
       </c>
@@ -9653,7 +9671,7 @@
       </c>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" s="1">
         <v>253</v>
       </c>
@@ -9681,7 +9699,7 @@
       </c>
       <c r="K254" s="1"/>
     </row>
-    <row r="255" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B255" s="1">
         <v>255</v>
       </c>
@@ -9709,7 +9727,7 @@
       </c>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B256" s="1">
         <v>256</v>
       </c>
@@ -9737,7 +9755,7 @@
       </c>
       <c r="K256" s="1"/>
     </row>
-    <row r="257" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B257" s="1">
         <v>258</v>
       </c>
@@ -9765,7 +9783,7 @@
       </c>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B258" s="1">
         <v>257</v>
       </c>
@@ -9793,7 +9811,7 @@
       </c>
       <c r="K258" s="1"/>
     </row>
-    <row r="259" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B259" s="1">
         <v>259</v>
       </c>
@@ -9821,7 +9839,7 @@
       </c>
       <c r="K259" s="1"/>
     </row>
-    <row r="260" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B260" s="1">
         <v>260</v>
       </c>
@@ -9849,7 +9867,7 @@
       </c>
       <c r="K260" s="1"/>
     </row>
-    <row r="261" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B261" s="1">
         <v>262</v>
       </c>
@@ -9877,7 +9895,7 @@
       </c>
       <c r="K261" s="1"/>
     </row>
-    <row r="262" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B262" s="1">
         <v>261</v>
       </c>
@@ -9905,7 +9923,7 @@
       </c>
       <c r="K262" s="1"/>
     </row>
-    <row r="263" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B263" s="1">
         <v>263</v>
       </c>
@@ -9933,7 +9951,7 @@
       </c>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B264" s="1">
         <v>264</v>
       </c>
@@ -9961,7 +9979,7 @@
       </c>
       <c r="K264" s="1"/>
     </row>
-    <row r="265" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B265" s="1">
         <v>266</v>
       </c>
@@ -9989,7 +10007,7 @@
       </c>
       <c r="K265" s="1"/>
     </row>
-    <row r="266" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B266" s="1">
         <v>265</v>
       </c>
@@ -10017,7 +10035,7 @@
       </c>
       <c r="K266" s="1"/>
     </row>
-    <row r="267" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B267" s="1">
         <v>267</v>
       </c>
@@ -10045,7 +10063,7 @@
       </c>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B268" s="1">
         <v>268</v>
       </c>
@@ -10073,7 +10091,7 @@
       </c>
       <c r="K268" s="1"/>
     </row>
-    <row r="269" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B269" s="1">
         <v>270</v>
       </c>
@@ -10101,7 +10119,7 @@
       </c>
       <c r="K269" s="1"/>
     </row>
-    <row r="270" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B270" s="1">
         <v>269</v>
       </c>
@@ -10129,7 +10147,7 @@
       </c>
       <c r="K270" s="1"/>
     </row>
-    <row r="271" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B271" s="1">
         <v>271</v>
       </c>
@@ -10157,7 +10175,7 @@
       </c>
       <c r="K271" s="1"/>
     </row>
-    <row r="272" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B272" s="1">
         <v>272</v>
       </c>
@@ -10185,7 +10203,7 @@
       </c>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B273" s="1">
         <v>274</v>
       </c>
@@ -10213,7 +10231,7 @@
       </c>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B274" s="1">
         <v>273</v>
       </c>
@@ -10241,7 +10259,7 @@
       </c>
       <c r="K274" s="1"/>
     </row>
-    <row r="275" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B275" s="1">
         <v>275</v>
       </c>
@@ -10269,7 +10287,7 @@
       </c>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B276" s="1">
         <v>276</v>
       </c>
@@ -10297,7 +10315,7 @@
       </c>
       <c r="K276" s="1"/>
     </row>
-    <row r="277" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B277" s="1">
         <v>278</v>
       </c>
@@ -10325,7 +10343,7 @@
       </c>
       <c r="K277" s="1"/>
     </row>
-    <row r="278" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B278" s="1">
         <v>277</v>
       </c>
@@ -10353,7 +10371,7 @@
       </c>
       <c r="K278" s="1"/>
     </row>
-    <row r="279" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B279" s="1">
         <v>279</v>
       </c>
@@ -10381,7 +10399,7 @@
       </c>
       <c r="K279" s="1"/>
     </row>
-    <row r="280" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B280" s="1">
         <v>280</v>
       </c>
@@ -10409,7 +10427,7 @@
       </c>
       <c r="K280" s="1"/>
     </row>
-    <row r="281" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B281" s="1">
         <v>281</v>
       </c>
@@ -10437,7 +10455,7 @@
       </c>
       <c r="K281" s="1"/>
     </row>
-    <row r="282" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B282" s="1">
         <v>281</v>
       </c>
@@ -10465,7 +10483,7 @@
       </c>
       <c r="K282" s="1"/>
     </row>
-    <row r="283" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B283" s="1">
         <v>282</v>
       </c>
@@ -10493,7 +10511,7 @@
       </c>
       <c r="K283" s="1"/>
     </row>
-    <row r="284" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B284" s="1">
         <v>283</v>
       </c>
@@ -10521,7 +10539,7 @@
       </c>
       <c r="K284" s="1"/>
     </row>
-    <row r="285" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B285" s="1">
         <v>285</v>
       </c>
@@ -10549,7 +10567,7 @@
       </c>
       <c r="K285" s="1"/>
     </row>
-    <row r="286" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B286" s="1">
         <v>284</v>
       </c>
@@ -10577,7 +10595,7 @@
       </c>
       <c r="K286" s="1"/>
     </row>
-    <row r="287" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B287" s="1">
         <v>286</v>
       </c>
@@ -10605,7 +10623,7 @@
       </c>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B288" s="1">
         <v>287</v>
       </c>
@@ -10633,7 +10651,7 @@
       </c>
       <c r="K288" s="1"/>
     </row>
-    <row r="289" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B289" s="1">
         <v>289</v>
       </c>
@@ -10661,7 +10679,7 @@
       </c>
       <c r="K289" s="1"/>
     </row>
-    <row r="290" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B290" s="1">
         <v>288</v>
       </c>
@@ -10689,7 +10707,7 @@
       </c>
       <c r="K290" s="1"/>
     </row>
-    <row r="291" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B291" s="1">
         <v>290</v>
       </c>
@@ -10717,7 +10735,7 @@
       </c>
       <c r="K291" s="1"/>
     </row>
-    <row r="292" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B292" s="1">
         <v>291</v>
       </c>
@@ -10745,7 +10763,7 @@
       </c>
       <c r="K292" s="1"/>
     </row>
-    <row r="293" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B293" s="1">
         <v>293</v>
       </c>
@@ -10773,7 +10791,7 @@
       </c>
       <c r="K293" s="1"/>
     </row>
-    <row r="294" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B294" s="1">
         <v>292</v>
       </c>
@@ -10801,7 +10819,7 @@
       </c>
       <c r="K294" s="1"/>
     </row>
-    <row r="295" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B295" s="1">
         <v>294</v>
       </c>
@@ -10829,7 +10847,7 @@
       </c>
       <c r="K295" s="1"/>
     </row>
-    <row r="296" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B296" s="1">
         <v>295</v>
       </c>
@@ -10857,7 +10875,7 @@
       </c>
       <c r="K296" s="1"/>
     </row>
-    <row r="297" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B297" s="1">
         <v>297</v>
       </c>
@@ -10885,7 +10903,7 @@
       </c>
       <c r="K297" s="1"/>
     </row>
-    <row r="298" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B298" s="1">
         <v>296</v>
       </c>
@@ -10913,7 +10931,7 @@
       </c>
       <c r="K298" s="1"/>
     </row>
-    <row r="299" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B299" s="1">
         <v>298</v>
       </c>
@@ -10941,7 +10959,7 @@
       </c>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B300" s="1">
         <v>299</v>
       </c>
@@ -10969,7 +10987,7 @@
       </c>
       <c r="K300" s="1"/>
     </row>
-    <row r="301" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B301" s="1">
         <v>301</v>
       </c>
@@ -10997,7 +11015,7 @@
       </c>
       <c r="K301" s="1"/>
     </row>
-    <row r="302" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B302" s="1">
         <v>300</v>
       </c>
@@ -11025,7 +11043,7 @@
       </c>
       <c r="K302" s="1"/>
     </row>
-    <row r="303" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B303" s="1">
         <v>302</v>
       </c>
@@ -11053,7 +11071,7 @@
       </c>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B304" s="1">
         <v>303</v>
       </c>
@@ -11081,7 +11099,7 @@
       </c>
       <c r="K304" s="1"/>
     </row>
-    <row r="305" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B305" s="1">
         <v>305</v>
       </c>
@@ -11109,7 +11127,7 @@
       </c>
       <c r="K305" s="1"/>
     </row>
-    <row r="306" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B306" s="1">
         <v>304</v>
       </c>
@@ -11137,7 +11155,7 @@
       </c>
       <c r="K306" s="1"/>
     </row>
-    <row r="307" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B307" s="1">
         <v>306</v>
       </c>
@@ -11165,7 +11183,7 @@
       </c>
       <c r="K307" s="1"/>
     </row>
-    <row r="308" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B308" s="1">
         <v>307</v>
       </c>
@@ -11193,7 +11211,7 @@
       </c>
       <c r="K308" s="1"/>
     </row>
-    <row r="309" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B309" s="1">
         <v>309</v>
       </c>
@@ -11221,7 +11239,7 @@
       </c>
       <c r="K309" s="1"/>
     </row>
-    <row r="310" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B310" s="1">
         <v>308</v>
       </c>
@@ -11249,7 +11267,7 @@
       </c>
       <c r="K310" s="1"/>
     </row>
-    <row r="311" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B311" s="1">
         <v>310</v>
       </c>
@@ -11277,7 +11295,7 @@
       </c>
       <c r="K311" s="1"/>
     </row>
-    <row r="312" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B312" s="1">
         <v>311</v>
       </c>
@@ -11305,7 +11323,7 @@
       </c>
       <c r="K312" s="1"/>
     </row>
-    <row r="313" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B313" s="1">
         <v>313</v>
       </c>
@@ -11333,7 +11351,7 @@
       </c>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B314" s="1">
         <v>312</v>
       </c>
@@ -11361,7 +11379,7 @@
       </c>
       <c r="K314" s="1"/>
     </row>
-    <row r="315" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B315" s="1">
         <v>314</v>
       </c>
@@ -11389,7 +11407,7 @@
       </c>
       <c r="K315" s="1"/>
     </row>
-    <row r="316" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B316" s="1">
         <v>315</v>
       </c>
@@ -11417,7 +11435,7 @@
       </c>
       <c r="K316" s="1"/>
     </row>
-    <row r="317" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B317" s="1">
         <v>317</v>
       </c>
@@ -11445,7 +11463,7 @@
       </c>
       <c r="K317" s="1"/>
     </row>
-    <row r="318" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B318" s="1">
         <v>316</v>
       </c>
@@ -11473,7 +11491,7 @@
       </c>
       <c r="K318" s="1"/>
     </row>
-    <row r="319" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B319" s="1">
         <v>318</v>
       </c>
@@ -11501,7 +11519,7 @@
       </c>
       <c r="K319" s="1"/>
     </row>
-    <row r="320" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B320" s="1">
         <v>319</v>
       </c>
@@ -11529,7 +11547,7 @@
       </c>
       <c r="K320" s="1"/>
     </row>
-    <row r="321" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B321" s="1">
         <v>321</v>
       </c>
@@ -11557,7 +11575,7 @@
       </c>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B322" s="1">
         <v>320</v>
       </c>
@@ -11585,7 +11603,7 @@
       </c>
       <c r="K322" s="1"/>
     </row>
-    <row r="323" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B323" s="1">
         <v>322</v>
       </c>
@@ -11613,7 +11631,7 @@
       </c>
       <c r="K323" s="1"/>
     </row>
-    <row r="324" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B324" s="1">
         <v>323</v>
       </c>
@@ -11641,7 +11659,7 @@
       </c>
       <c r="K324" s="1"/>
     </row>
-    <row r="325" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B325" s="1">
         <v>325</v>
       </c>
@@ -11669,7 +11687,7 @@
       </c>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B326" s="1">
         <v>324</v>
       </c>
@@ -11697,7 +11715,7 @@
       </c>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B327" s="1">
         <v>326</v>
       </c>
@@ -11725,7 +11743,7 @@
       </c>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B328" s="1">
         <v>327</v>
       </c>
@@ -11753,7 +11771,7 @@
       </c>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B329" s="1">
         <v>329</v>
       </c>
@@ -11781,7 +11799,7 @@
       </c>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B330" s="1">
         <v>328</v>
       </c>
@@ -11809,7 +11827,7 @@
       </c>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B331" s="1">
         <v>330</v>
       </c>
@@ -11837,7 +11855,7 @@
       </c>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B332" s="1">
         <v>331</v>
       </c>
@@ -11865,7 +11883,7 @@
       </c>
       <c r="K332" s="1"/>
     </row>
-    <row r="333" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B333" s="1">
         <v>333</v>
       </c>
@@ -11893,7 +11911,7 @@
       </c>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B334" s="1">
         <v>332</v>
       </c>
@@ -11921,7 +11939,7 @@
       </c>
       <c r="K334" s="1"/>
     </row>
-    <row r="335" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B335" s="1">
         <v>334</v>
       </c>
@@ -11949,7 +11967,7 @@
       </c>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B336" s="1">
         <v>335</v>
       </c>
@@ -11977,7 +11995,7 @@
       </c>
       <c r="K336" s="1"/>
     </row>
-    <row r="337" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B337" s="1">
         <v>337</v>
       </c>
@@ -12005,7 +12023,7 @@
       </c>
       <c r="K337" s="1"/>
     </row>
-    <row r="338" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B338" s="1">
         <v>336</v>
       </c>
@@ -12033,7 +12051,7 @@
       </c>
       <c r="K338" s="1"/>
     </row>
-    <row r="339" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B339" s="1">
         <v>338</v>
       </c>
@@ -12061,7 +12079,7 @@
       </c>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B340" s="1">
         <v>339</v>
       </c>
@@ -12089,7 +12107,7 @@
       </c>
       <c r="K340" s="1"/>
     </row>
-    <row r="341" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B341" s="1">
         <v>341</v>
       </c>
@@ -12117,7 +12135,7 @@
       </c>
       <c r="K341" s="1"/>
     </row>
-    <row r="342" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B342" s="1">
         <v>340</v>
       </c>
@@ -12145,7 +12163,7 @@
       </c>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B343" s="1">
         <v>342</v>
       </c>
@@ -12173,7 +12191,7 @@
       </c>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B344" s="63">
         <v>18</v>
       </c>
@@ -12199,7 +12217,7 @@
       </c>
       <c r="K344" s="63"/>
     </row>
-    <row r="345" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B345" s="63">
         <v>19</v>
       </c>
@@ -12225,7 +12243,7 @@
       </c>
       <c r="K345" s="63"/>
     </row>
-    <row r="346" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B346" s="1">
         <v>343</v>
       </c>
@@ -12245,7 +12263,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B347" s="1">
         <v>344</v>
       </c>
@@ -12265,7 +12283,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B348" s="1">
         <v>345</v>
       </c>
@@ -12285,7 +12303,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B349" s="1">
         <v>346</v>
       </c>
@@ -12306,30 +12324,14 @@
       <c r="K349" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K349">
-    <filterColumn colId="7">
+  <autoFilter ref="B2:K349" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="6">
       <filters>
-        <dateGroupItem year="2022" month="10" dateTimeGrouping="month"/>
-        <dateGroupItem year="2022" month="11" day="1" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="2" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="3" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="4" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="7" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="8" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="9" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="10" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="14" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="16" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="17" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="18" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="21" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="22" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="23" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="24" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B3:K349">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K349">
     <sortCondition ref="I2"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12345,33 +12347,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q320"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D317" sqref="D317"/>
+    <sheetView topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D328" sqref="D328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="86" t="s">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-    </row>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+    </row>
+    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>164</v>
       </c>
@@ -12394,7 +12396,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -12417,7 +12419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18">
         <v>2</v>
       </c>
@@ -12437,16 +12439,16 @@
       <c r="H4" s="44">
         <v>55</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="39">
         <v>3</v>
       </c>
@@ -12471,7 +12473,7 @@
       <c r="N5" s="56"/>
       <c r="O5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="40">
         <v>4</v>
       </c>
@@ -12498,7 +12500,7 @@
       <c r="N6" s="56"/>
       <c r="O6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="39">
         <v>5</v>
       </c>
@@ -12517,7 +12519,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="40">
         <v>6</v>
       </c>
@@ -12538,7 +12540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="39">
         <v>7</v>
       </c>
@@ -12559,19 +12561,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="90" t="s">
+    <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
         <v>164</v>
       </c>
@@ -12594,7 +12596,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -12617,7 +12619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -12638,7 +12640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>3</v>
       </c>
@@ -12659,7 +12661,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>4</v>
       </c>
@@ -12680,7 +12682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>5</v>
       </c>
@@ -12701,7 +12703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>6</v>
       </c>
@@ -12721,16 +12723,16 @@
       <c r="H19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="93" t="s">
+      <c r="J19" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="95"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="86"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>7</v>
       </c>
@@ -12755,7 +12757,7 @@
       <c r="N20" s="56"/>
       <c r="O20" s="56"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>8</v>
       </c>
@@ -12782,7 +12784,7 @@
       <c r="N21" s="56"/>
       <c r="O21" s="56"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>9</v>
       </c>
@@ -12807,7 +12809,7 @@
       <c r="N22" s="56"/>
       <c r="O22" s="56"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>10</v>
       </c>
@@ -12834,7 +12836,7 @@
       <c r="N23" s="56"/>
       <c r="O23" s="56"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>11</v>
       </c>
@@ -12861,19 +12863,19 @@
       <c r="N24" s="56"/>
       <c r="O24" s="56"/>
     </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="90" t="s">
+    <row r="25" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
         <v>164</v>
       </c>
@@ -12896,7 +12898,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="26">
         <v>1</v>
       </c>
@@ -12919,7 +12921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -12940,7 +12942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>3</v>
       </c>
@@ -12960,16 +12962,16 @@
       <c r="H30" s="3">
         <v>255</v>
       </c>
-      <c r="J30" s="93" t="s">
+      <c r="J30" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="95"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="86"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>4</v>
       </c>
@@ -12990,7 +12992,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -13011,7 +13013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>6</v>
       </c>
@@ -13031,16 +13033,16 @@
       <c r="H33" s="3">
         <v>10</v>
       </c>
-      <c r="J33" s="93" t="s">
+      <c r="J33" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="95"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="86"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>7</v>
       </c>
@@ -13065,7 +13067,7 @@
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>8</v>
       </c>
@@ -13092,7 +13094,7 @@
       <c r="N35" s="56"/>
       <c r="O35" s="56"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>9</v>
       </c>
@@ -13117,7 +13119,7 @@
       <c r="N36" s="56"/>
       <c r="O36" s="56"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>10</v>
       </c>
@@ -13144,7 +13146,7 @@
       <c r="N37" s="56"/>
       <c r="O37" s="56"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>11</v>
       </c>
@@ -13165,19 +13167,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="98" t="s">
+    <row r="41" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="100"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="103"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="27" t="s">
         <v>164</v>
       </c>
@@ -13200,7 +13202,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -13223,7 +13225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -13242,7 +13244,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>3</v>
       </c>
@@ -13261,7 +13263,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>4</v>
       </c>
@@ -13282,7 +13284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>5</v>
       </c>
@@ -13301,7 +13303,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>6</v>
       </c>
@@ -13322,7 +13324,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>7</v>
       </c>
@@ -13343,19 +13345,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="90" t="s">
+    <row r="52" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="92"/>
-    </row>
-    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="93"/>
+    </row>
+    <row r="54" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="22" t="s">
         <v>164</v>
       </c>
@@ -13378,7 +13380,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="15">
         <v>1</v>
       </c>
@@ -13401,7 +13403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="34">
         <v>2</v>
       </c>
@@ -13424,7 +13426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="34">
         <v>3</v>
       </c>
@@ -13445,7 +13447,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -13458,7 +13460,7 @@
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -13473,7 +13475,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -13486,7 +13488,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -13501,7 +13503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -13516,19 +13518,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="90" t="s">
+    <row r="64" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="91"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="91"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="92"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="93"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" s="27" t="s">
         <v>164</v>
       </c>
@@ -13551,7 +13553,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" s="34">
         <v>1</v>
       </c>
@@ -13574,7 +13576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="34">
         <v>2</v>
       </c>
@@ -13593,7 +13595,7 @@
       </c>
       <c r="H68" s="35"/>
     </row>
-    <row r="69" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="34"/>
       <c r="C69" s="3" t="s">
         <v>204</v>
@@ -13609,17 +13611,17 @@
         <v>188</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="J69" s="93" t="s">
+      <c r="J69" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="K69" s="96"/>
-      <c r="L69" s="96"/>
-      <c r="M69" s="96"/>
-      <c r="N69" s="96"/>
-      <c r="O69" s="96"/>
-      <c r="P69" s="97"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K69" s="89"/>
+      <c r="L69" s="89"/>
+      <c r="M69" s="89"/>
+      <c r="N69" s="89"/>
+      <c r="O69" s="89"/>
+      <c r="P69" s="90"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="34"/>
       <c r="C70" s="3" t="s">
         <v>204</v>
@@ -13645,7 +13647,7 @@
       <c r="O70" s="55"/>
       <c r="P70" s="55"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="34"/>
       <c r="C71" s="3" t="s">
         <v>204</v>
@@ -13669,7 +13671,7 @@
       <c r="O71" s="55"/>
       <c r="P71" s="55"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="34"/>
       <c r="C72" s="3" t="s">
         <v>204</v>
@@ -13695,7 +13697,7 @@
       <c r="O72" s="55"/>
       <c r="P72" s="55"/>
     </row>
-    <row r="73" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="18"/>
       <c r="C73" s="3" t="s">
         <v>204</v>
@@ -13721,7 +13723,7 @@
       <c r="O73" s="55"/>
       <c r="P73" s="55"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J74" s="55"/>
       <c r="K74" s="55"/>
       <c r="L74" s="55"/>
@@ -13730,19 +13732,19 @@
       <c r="O74" s="55"/>
       <c r="P74" s="55"/>
     </row>
-    <row r="75" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="83" t="s">
+    <row r="75" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="85"/>
-    </row>
-    <row r="77" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="83"/>
+    </row>
+    <row r="77" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="22" t="s">
         <v>164</v>
       </c>
@@ -13765,7 +13767,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="15">
         <v>1</v>
       </c>
@@ -13788,7 +13790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="34">
         <v>2</v>
       </c>
@@ -13809,7 +13811,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="34">
         <v>3</v>
       </c>
@@ -13832,7 +13834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="45">
         <v>4</v>
       </c>
@@ -13853,7 +13855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="34">
         <v>5</v>
       </c>
@@ -13872,7 +13874,7 @@
       </c>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="45">
         <v>6</v>
       </c>
@@ -13893,7 +13895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="34">
         <v>7</v>
       </c>
@@ -13912,7 +13914,7 @@
       </c>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="45">
         <v>8</v>
       </c>
@@ -13933,7 +13935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="34">
         <v>9</v>
       </c>
@@ -13954,19 +13956,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="80" t="s">
+    <row r="89" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="81"/>
-      <c r="D90" s="81"/>
-      <c r="E90" s="81"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="81"/>
-      <c r="H90" s="82"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
+      <c r="E90" s="95"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="95"/>
+      <c r="H90" s="96"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="31" t="s">
         <v>164</v>
       </c>
@@ -13989,7 +13991,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="34">
         <v>1</v>
       </c>
@@ -14012,7 +14014,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="34">
         <v>2</v>
       </c>
@@ -14033,7 +14035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="34">
         <v>3</v>
       </c>
@@ -14054,7 +14056,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="34">
         <v>4</v>
       </c>
@@ -14075,7 +14077,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="34">
         <v>5</v>
       </c>
@@ -14096,7 +14098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="45">
         <v>6</v>
       </c>
@@ -14117,7 +14119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="34">
         <v>7</v>
       </c>
@@ -14136,7 +14138,7 @@
       </c>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="34">
         <v>8</v>
       </c>
@@ -14157,7 +14159,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="45">
         <v>9</v>
       </c>
@@ -14176,7 +14178,7 @@
       </c>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="34">
         <v>10</v>
       </c>
@@ -14197,7 +14199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="34">
         <v>11</v>
       </c>
@@ -14218,19 +14220,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="83" t="s">
+    <row r="105" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="84"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
-      <c r="F106" s="84"/>
-      <c r="G106" s="84"/>
-      <c r="H106" s="85"/>
-    </row>
-    <row r="107" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="82"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="82"/>
+      <c r="H106" s="83"/>
+    </row>
+    <row r="107" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="49" t="s">
         <v>164</v>
       </c>
@@ -14253,7 +14255,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" s="15">
         <v>1</v>
       </c>
@@ -14276,7 +14278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="34">
         <v>2</v>
       </c>
@@ -14297,7 +14299,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="34">
         <v>3</v>
       </c>
@@ -14318,7 +14320,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="34">
         <v>4</v>
       </c>
@@ -14341,7 +14343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="34">
         <v>5</v>
       </c>
@@ -14364,7 +14366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="34">
         <v>6</v>
       </c>
@@ -14387,7 +14389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="34">
         <v>7</v>
       </c>
@@ -14406,7 +14408,7 @@
       </c>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" s="34">
         <v>8</v>
       </c>
@@ -14427,7 +14429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" s="34">
         <v>9</v>
       </c>
@@ -14446,7 +14448,7 @@
       </c>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" s="34">
         <v>10</v>
       </c>
@@ -14467,7 +14469,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="34">
         <v>11</v>
       </c>
@@ -14488,19 +14490,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="83" t="s">
+    <row r="119" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="81" t="s">
         <v>259</v>
       </c>
-      <c r="C120" s="84"/>
-      <c r="D120" s="84"/>
-      <c r="E120" s="84"/>
-      <c r="F120" s="84"/>
-      <c r="G120" s="84"/>
-      <c r="H120" s="85"/>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C120" s="82"/>
+      <c r="D120" s="82"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="82"/>
+      <c r="H120" s="83"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" s="27" t="s">
         <v>164</v>
       </c>
@@ -14523,7 +14525,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="34">
         <v>1</v>
       </c>
@@ -14543,7 +14545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" s="45">
         <v>2</v>
       </c>
@@ -14566,7 +14568,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" s="34">
         <v>3</v>
       </c>
@@ -14585,7 +14587,7 @@
       </c>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B125" s="45">
         <v>4</v>
       </c>
@@ -14606,7 +14608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B126" s="34">
         <v>5</v>
       </c>
@@ -14625,7 +14627,7 @@
       </c>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B127" s="45">
         <v>6</v>
       </c>
@@ -14646,7 +14648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="34">
         <v>7</v>
       </c>
@@ -14667,28 +14669,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F129" s="47"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F130" s="38"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="83" t="s">
+    <row r="132" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="133" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="81" t="s">
         <v>261</v>
       </c>
-      <c r="C133" s="84"/>
-      <c r="D133" s="84"/>
-      <c r="E133" s="84"/>
-      <c r="F133" s="84"/>
-      <c r="G133" s="84"/>
-      <c r="H133" s="85"/>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C133" s="82"/>
+      <c r="D133" s="82"/>
+      <c r="E133" s="82"/>
+      <c r="F133" s="82"/>
+      <c r="G133" s="82"/>
+      <c r="H133" s="83"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" s="32" t="s">
         <v>164</v>
       </c>
@@ -14711,7 +14713,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B135" s="3">
         <v>1</v>
       </c>
@@ -14732,7 +14734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B136" s="3">
         <v>2</v>
       </c>
@@ -14755,7 +14757,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B137" s="3">
         <v>3</v>
       </c>
@@ -14774,7 +14776,7 @@
       </c>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" s="3">
         <v>4</v>
       </c>
@@ -14795,7 +14797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" s="3">
         <v>5</v>
       </c>
@@ -14814,7 +14816,7 @@
       </c>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="3">
         <v>6</v>
       </c>
@@ -14835,7 +14837,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" s="3">
         <v>7</v>
       </c>
@@ -14856,19 +14858,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="83" t="s">
+    <row r="143" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="C144" s="84"/>
-      <c r="D144" s="84"/>
-      <c r="E144" s="84"/>
-      <c r="F144" s="84"/>
-      <c r="G144" s="84"/>
-      <c r="H144" s="85"/>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C144" s="82"/>
+      <c r="D144" s="82"/>
+      <c r="E144" s="82"/>
+      <c r="F144" s="82"/>
+      <c r="G144" s="82"/>
+      <c r="H144" s="83"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" s="27" t="s">
         <v>164</v>
       </c>
@@ -14891,7 +14893,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" s="34">
         <v>1</v>
       </c>
@@ -14911,7 +14913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" s="45">
         <v>2</v>
       </c>
@@ -14934,7 +14936,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B148" s="34">
         <v>3</v>
       </c>
@@ -14953,7 +14955,7 @@
       </c>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B149" s="45">
         <v>4</v>
       </c>
@@ -14974,7 +14976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B150" s="34">
         <v>5</v>
       </c>
@@ -14993,7 +14995,7 @@
       </c>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B151" s="45">
         <v>6</v>
       </c>
@@ -15014,7 +15016,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B152" s="34">
         <v>7</v>
       </c>
@@ -15035,19 +15037,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="83" t="s">
+    <row r="154" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="155" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="C155" s="84"/>
-      <c r="D155" s="84"/>
-      <c r="E155" s="84"/>
-      <c r="F155" s="84"/>
-      <c r="G155" s="84"/>
-      <c r="H155" s="85"/>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C155" s="82"/>
+      <c r="D155" s="82"/>
+      <c r="E155" s="82"/>
+      <c r="F155" s="82"/>
+      <c r="G155" s="82"/>
+      <c r="H155" s="83"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" s="22" t="s">
         <v>164</v>
       </c>
@@ -15070,7 +15072,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" s="3">
         <v>1</v>
       </c>
@@ -15093,7 +15095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" s="3">
         <v>2</v>
       </c>
@@ -15114,7 +15116,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" s="3">
         <v>3</v>
       </c>
@@ -15133,7 +15135,7 @@
       </c>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" s="3">
         <v>4</v>
       </c>
@@ -15154,7 +15156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B161" s="3">
         <v>5</v>
       </c>
@@ -15173,7 +15175,7 @@
       </c>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B162" s="3">
         <v>6</v>
       </c>
@@ -15194,7 +15196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B163" s="3">
         <v>7</v>
       </c>
@@ -15215,18 +15217,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="102" t="s">
+    <row r="166" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B166" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="102"/>
-      <c r="D166" s="102"/>
-      <c r="E166" s="102"/>
-      <c r="F166" s="102"/>
-      <c r="G166" s="102"/>
-      <c r="H166" s="102"/>
-    </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C166" s="87"/>
+      <c r="D166" s="87"/>
+      <c r="E166" s="87"/>
+      <c r="F166" s="87"/>
+      <c r="G166" s="87"/>
+      <c r="H166" s="87"/>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B167" s="22" t="s">
         <v>164</v>
       </c>
@@ -15249,7 +15251,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B168" s="3">
         <v>1</v>
       </c>
@@ -15272,7 +15274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B169" s="3">
         <v>2</v>
       </c>
@@ -15292,18 +15294,18 @@
       <c r="H169" s="3">
         <v>155</v>
       </c>
-      <c r="J169" s="93" t="s">
+      <c r="J169" s="88" t="s">
         <v>275</v>
       </c>
-      <c r="K169" s="96"/>
-      <c r="L169" s="96"/>
-      <c r="M169" s="96"/>
-      <c r="N169" s="96"/>
-      <c r="O169" s="96"/>
-      <c r="P169" s="96"/>
-      <c r="Q169" s="97"/>
-    </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K169" s="89"/>
+      <c r="L169" s="89"/>
+      <c r="M169" s="89"/>
+      <c r="N169" s="89"/>
+      <c r="O169" s="89"/>
+      <c r="P169" s="89"/>
+      <c r="Q169" s="90"/>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B170" s="3">
         <v>3</v>
       </c>
@@ -15322,7 +15324,7 @@
       </c>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B171" s="3">
         <v>4</v>
       </c>
@@ -15343,7 +15345,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B172" s="3">
         <v>5</v>
       </c>
@@ -15362,7 +15364,7 @@
       </c>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B173" s="3">
         <v>6</v>
       </c>
@@ -15383,7 +15385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B174" s="3">
         <v>7</v>
       </c>
@@ -15404,19 +15406,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="90" t="s">
+    <row r="175" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="176" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B176" s="91" t="s">
         <v>276</v>
       </c>
-      <c r="C176" s="91"/>
-      <c r="D176" s="91"/>
-      <c r="E176" s="91"/>
-      <c r="F176" s="91"/>
-      <c r="G176" s="91"/>
-      <c r="H176" s="92"/>
-    </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C176" s="92"/>
+      <c r="D176" s="92"/>
+      <c r="E176" s="92"/>
+      <c r="F176" s="92"/>
+      <c r="G176" s="92"/>
+      <c r="H176" s="93"/>
+    </row>
+    <row r="177" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B177" s="22" t="s">
         <v>164</v>
       </c>
@@ -15439,7 +15441,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B178" s="3">
         <v>1</v>
       </c>
@@ -15458,7 +15460,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B179" s="3">
         <v>2</v>
       </c>
@@ -15474,18 +15476,18 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="J179" s="93" t="s">
+      <c r="J179" s="88" t="s">
         <v>280</v>
       </c>
-      <c r="K179" s="96"/>
-      <c r="L179" s="96"/>
-      <c r="M179" s="96"/>
-      <c r="N179" s="96"/>
-      <c r="O179" s="96"/>
-      <c r="P179" s="96"/>
-      <c r="Q179" s="97"/>
-    </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K179" s="89"/>
+      <c r="L179" s="89"/>
+      <c r="M179" s="89"/>
+      <c r="N179" s="89"/>
+      <c r="O179" s="89"/>
+      <c r="P179" s="89"/>
+      <c r="Q179" s="90"/>
+    </row>
+    <row r="180" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B180" s="3">
         <v>3</v>
       </c>
@@ -15504,7 +15506,7 @@
       </c>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B181" s="3">
         <v>4</v>
       </c>
@@ -15525,7 +15527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B182" s="3">
         <v>5</v>
       </c>
@@ -15544,7 +15546,7 @@
       </c>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B183" s="3">
         <v>6</v>
       </c>
@@ -15565,7 +15567,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B184" s="3">
         <v>7</v>
       </c>
@@ -15586,19 +15588,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="187" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="83" t="s">
+    <row r="186" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="187" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B187" s="81" t="s">
         <v>287</v>
       </c>
-      <c r="C187" s="84"/>
-      <c r="D187" s="84"/>
-      <c r="E187" s="84"/>
-      <c r="F187" s="84"/>
-      <c r="G187" s="84"/>
-      <c r="H187" s="85"/>
-    </row>
-    <row r="188" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="82"/>
+      <c r="D187" s="82"/>
+      <c r="E187" s="82"/>
+      <c r="F187" s="82"/>
+      <c r="G187" s="82"/>
+      <c r="H187" s="83"/>
+    </row>
+    <row r="188" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B188" s="22" t="s">
         <v>164</v>
       </c>
@@ -15621,7 +15623,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B189" s="15">
         <v>1</v>
       </c>
@@ -15640,7 +15642,7 @@
       <c r="G189" s="16"/>
       <c r="H189" s="17"/>
     </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B190" s="34">
         <v>2</v>
       </c>
@@ -15659,7 +15661,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="35"/>
     </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B191" s="34">
         <v>3</v>
       </c>
@@ -15678,7 +15680,7 @@
       <c r="G191" s="50"/>
       <c r="H191" s="44"/>
     </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B192" s="34">
         <v>4</v>
       </c>
@@ -15697,7 +15699,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="35"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B193" s="34">
         <v>3</v>
       </c>
@@ -15716,7 +15718,7 @@
       </c>
       <c r="H193" s="35"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B194" s="34">
         <v>4</v>
       </c>
@@ -15737,7 +15739,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B195" s="34">
         <v>5</v>
       </c>
@@ -15756,7 +15758,7 @@
       </c>
       <c r="H195" s="35"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B196" s="34">
         <v>6</v>
       </c>
@@ -15777,7 +15779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B197" s="18">
         <v>7</v>
       </c>
@@ -15798,19 +15800,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="200" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="83" t="s">
+    <row r="199" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="200" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B200" s="81" t="s">
         <v>294</v>
       </c>
-      <c r="C200" s="84"/>
-      <c r="D200" s="84"/>
-      <c r="E200" s="84"/>
-      <c r="F200" s="84"/>
-      <c r="G200" s="84"/>
-      <c r="H200" s="85"/>
-    </row>
-    <row r="201" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="82"/>
+      <c r="D200" s="82"/>
+      <c r="E200" s="82"/>
+      <c r="F200" s="82"/>
+      <c r="G200" s="82"/>
+      <c r="H200" s="83"/>
+    </row>
+    <row r="201" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B201" s="22" t="s">
         <v>164</v>
       </c>
@@ -15833,7 +15835,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B202" s="15">
         <v>1</v>
       </c>
@@ -15856,7 +15858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B203" s="34">
         <v>2</v>
       </c>
@@ -15879,7 +15881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B204" s="34">
         <v>3</v>
       </c>
@@ -15902,7 +15904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B205" s="34">
         <v>4</v>
       </c>
@@ -15921,7 +15923,7 @@
       </c>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B206" s="34">
         <v>3</v>
       </c>
@@ -15940,7 +15942,7 @@
       </c>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B207" s="34">
         <v>4</v>
       </c>
@@ -15961,7 +15963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B208" s="34">
         <v>5</v>
       </c>
@@ -15980,7 +15982,7 @@
       </c>
       <c r="H208" s="35"/>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B209" s="34">
         <v>6</v>
       </c>
@@ -16001,7 +16003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B210" s="18">
         <v>7</v>
       </c>
@@ -16020,7 +16022,7 @@
       </c>
       <c r="H210" s="35"/>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B211" s="34">
         <v>8</v>
       </c>
@@ -16041,7 +16043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B212" s="18">
         <v>9</v>
       </c>
@@ -16062,19 +16064,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="215" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="83" t="s">
+    <row r="214" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="215" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B215" s="81" t="s">
         <v>299</v>
       </c>
-      <c r="C215" s="84"/>
-      <c r="D215" s="84"/>
-      <c r="E215" s="84"/>
-      <c r="F215" s="84"/>
-      <c r="G215" s="84"/>
-      <c r="H215" s="85"/>
-    </row>
-    <row r="216" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="82"/>
+      <c r="D215" s="82"/>
+      <c r="E215" s="82"/>
+      <c r="F215" s="82"/>
+      <c r="G215" s="82"/>
+      <c r="H215" s="83"/>
+    </row>
+    <row r="216" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B216" s="22" t="s">
         <v>164</v>
       </c>
@@ -16097,7 +16099,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B217" s="15">
         <v>1</v>
       </c>
@@ -16120,7 +16122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B218" s="34">
         <v>2</v>
       </c>
@@ -16139,7 +16141,7 @@
       <c r="G218" s="3"/>
       <c r="H218" s="35"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B219" s="34">
         <v>3</v>
       </c>
@@ -16156,7 +16158,7 @@
       <c r="G219" s="3"/>
       <c r="H219" s="35"/>
     </row>
-    <row r="220" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B220" s="34">
         <v>4</v>
       </c>
@@ -16173,7 +16175,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="35"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B221" s="15">
         <v>5</v>
       </c>
@@ -16190,7 +16192,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="35"/>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B222" s="34">
         <v>6</v>
       </c>
@@ -16207,7 +16209,7 @@
       <c r="G222" s="3"/>
       <c r="H222" s="35"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B223" s="34">
         <v>7</v>
       </c>
@@ -16226,7 +16228,7 @@
       </c>
       <c r="H223" s="35"/>
     </row>
-    <row r="224" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B224" s="34">
         <v>8</v>
       </c>
@@ -16247,7 +16249,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B225" s="15">
         <v>9</v>
       </c>
@@ -16266,7 +16268,7 @@
       </c>
       <c r="H225" s="35"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B226" s="34">
         <v>10</v>
       </c>
@@ -16287,7 +16289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B227" s="18">
         <v>11</v>
       </c>
@@ -16308,19 +16310,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="230" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="83" t="s">
+    <row r="229" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="230" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B230" s="81" t="s">
         <v>307</v>
       </c>
-      <c r="C230" s="84"/>
-      <c r="D230" s="84"/>
-      <c r="E230" s="84"/>
-      <c r="F230" s="84"/>
-      <c r="G230" s="84"/>
-      <c r="H230" s="85"/>
-    </row>
-    <row r="231" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="82"/>
+      <c r="D230" s="82"/>
+      <c r="E230" s="82"/>
+      <c r="F230" s="82"/>
+      <c r="G230" s="82"/>
+      <c r="H230" s="83"/>
+    </row>
+    <row r="231" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B231" s="22" t="s">
         <v>164</v>
       </c>
@@ -16343,7 +16345,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B232" s="15">
         <v>1</v>
       </c>
@@ -16366,7 +16368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B233" s="34">
         <v>2</v>
       </c>
@@ -16385,7 +16387,7 @@
       </c>
       <c r="H233" s="35"/>
     </row>
-    <row r="234" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B234" s="15">
         <v>3</v>
       </c>
@@ -16404,7 +16406,7 @@
       </c>
       <c r="H234" s="35"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B235" s="15">
         <v>4</v>
       </c>
@@ -16423,7 +16425,7 @@
       </c>
       <c r="H235" s="35"/>
     </row>
-    <row r="236" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B236" s="34">
         <v>5</v>
       </c>
@@ -16444,7 +16446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B237" s="15">
         <v>6</v>
       </c>
@@ -16463,7 +16465,7 @@
       </c>
       <c r="H237" s="35"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B238" s="15">
         <v>7</v>
       </c>
@@ -16484,7 +16486,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B239" s="34">
         <v>8</v>
       </c>
@@ -16505,19 +16507,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="242" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="83" t="s">
+    <row r="241" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="242" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B242" s="81" t="s">
         <v>310</v>
       </c>
-      <c r="C242" s="84"/>
-      <c r="D242" s="84"/>
-      <c r="E242" s="84"/>
-      <c r="F242" s="84"/>
-      <c r="G242" s="84"/>
-      <c r="H242" s="85"/>
-    </row>
-    <row r="243" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C242" s="82"/>
+      <c r="D242" s="82"/>
+      <c r="E242" s="82"/>
+      <c r="F242" s="82"/>
+      <c r="G242" s="82"/>
+      <c r="H242" s="83"/>
+    </row>
+    <row r="243" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B243" s="22" t="s">
         <v>164</v>
       </c>
@@ -16540,7 +16542,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B244" s="15">
         <v>1</v>
       </c>
@@ -16563,7 +16565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B245" s="34">
         <v>2</v>
       </c>
@@ -16586,7 +16588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B246" s="34">
         <v>3</v>
       </c>
@@ -16607,7 +16609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B247" s="34">
         <v>4</v>
       </c>
@@ -16628,7 +16630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B248" s="34">
         <v>5</v>
       </c>
@@ -16649,7 +16651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B249" s="34">
         <v>6</v>
       </c>
@@ -16670,7 +16672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B250" s="34">
         <v>7</v>
       </c>
@@ -16691,7 +16693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B251" s="34">
         <v>8</v>
       </c>
@@ -16712,7 +16714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B252" s="34">
         <v>9</v>
       </c>
@@ -16733,7 +16735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B253" s="34">
         <v>10</v>
       </c>
@@ -16752,7 +16754,7 @@
       </c>
       <c r="H253" s="35"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B254" s="34">
         <v>11</v>
       </c>
@@ -16773,7 +16775,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B255" s="34">
         <v>12</v>
       </c>
@@ -16792,7 +16794,7 @@
       </c>
       <c r="H255" s="35"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B256" s="34">
         <v>13</v>
       </c>
@@ -16813,7 +16815,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B257" s="18">
         <v>14</v>
       </c>
@@ -16834,19 +16836,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="83" t="s">
+    <row r="259" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="260" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B260" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="C260" s="84"/>
-      <c r="D260" s="84"/>
-      <c r="E260" s="84"/>
-      <c r="F260" s="84"/>
-      <c r="G260" s="84"/>
-      <c r="H260" s="85"/>
-    </row>
-    <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C260" s="82"/>
+      <c r="D260" s="82"/>
+      <c r="E260" s="82"/>
+      <c r="F260" s="82"/>
+      <c r="G260" s="82"/>
+      <c r="H260" s="83"/>
+    </row>
+    <row r="261" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B261" s="22" t="s">
         <v>164</v>
       </c>
@@ -16869,7 +16871,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B262" s="15">
         <v>1</v>
       </c>
@@ -16890,7 +16892,7 @@
       </c>
       <c r="H262" s="17"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B263" s="34">
         <v>2</v>
       </c>
@@ -16909,7 +16911,7 @@
       </c>
       <c r="H263" s="35"/>
     </row>
-    <row r="264" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B264" s="34">
         <v>3</v>
       </c>
@@ -16928,7 +16930,7 @@
       </c>
       <c r="H264" s="35"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B265" s="15">
         <v>4</v>
       </c>
@@ -16947,7 +16949,7 @@
       </c>
       <c r="H265" s="35"/>
     </row>
-    <row r="266" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B266" s="34">
         <v>5</v>
       </c>
@@ -16966,7 +16968,7 @@
       </c>
       <c r="H266" s="35"/>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B267" s="15">
         <v>6</v>
       </c>
@@ -16985,7 +16987,7 @@
       </c>
       <c r="H267" s="54"/>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B268" s="34">
         <v>7</v>
       </c>
@@ -17006,7 +17008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="269" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B269" s="34">
         <v>8</v>
       </c>
@@ -17025,7 +17027,7 @@
       </c>
       <c r="H269" s="35"/>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B270" s="15">
         <v>9</v>
       </c>
@@ -17046,7 +17048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="271" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B271" s="18">
         <v>10</v>
       </c>
@@ -17067,19 +17069,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="274" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="83" t="s">
+    <row r="273" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="274" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B274" s="81" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="84"/>
-      <c r="D274" s="84"/>
-      <c r="E274" s="84"/>
-      <c r="F274" s="84"/>
-      <c r="G274" s="84"/>
-      <c r="H274" s="85"/>
-    </row>
-    <row r="275" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C274" s="82"/>
+      <c r="D274" s="82"/>
+      <c r="E274" s="82"/>
+      <c r="F274" s="82"/>
+      <c r="G274" s="82"/>
+      <c r="H274" s="83"/>
+    </row>
+    <row r="275" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B275" s="22" t="s">
         <v>164</v>
       </c>
@@ -17102,7 +17104,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="276" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B276" s="15">
         <v>1</v>
       </c>
@@ -17123,7 +17125,7 @@
       </c>
       <c r="H276" s="17"/>
     </row>
-    <row r="277" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B277" s="34">
         <v>2</v>
       </c>
@@ -17143,17 +17145,17 @@
         <v>184</v>
       </c>
       <c r="H277" s="35"/>
-      <c r="J277" s="101" t="s">
+      <c r="J277" s="84" t="s">
         <v>327</v>
       </c>
-      <c r="K277" s="94"/>
-      <c r="L277" s="94"/>
-      <c r="M277" s="94"/>
-      <c r="N277" s="94"/>
-      <c r="O277" s="94"/>
-      <c r="P277" s="95"/>
-    </row>
-    <row r="278" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K277" s="85"/>
+      <c r="L277" s="85"/>
+      <c r="M277" s="85"/>
+      <c r="N277" s="85"/>
+      <c r="O277" s="85"/>
+      <c r="P277" s="86"/>
+    </row>
+    <row r="278" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B278" s="34">
         <v>3</v>
       </c>
@@ -17172,7 +17174,7 @@
       </c>
       <c r="H278" s="54"/>
     </row>
-    <row r="279" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B279" s="15">
         <v>4</v>
       </c>
@@ -17193,7 +17195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B280" s="34">
         <v>5</v>
       </c>
@@ -17212,7 +17214,7 @@
       </c>
       <c r="H280" s="35"/>
     </row>
-    <row r="281" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B281" s="34">
         <v>6</v>
       </c>
@@ -17233,7 +17235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B282" s="42">
         <v>7</v>
       </c>
@@ -17254,19 +17256,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="285" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="83" t="s">
+    <row r="284" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="285" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B285" s="81" t="s">
         <v>329</v>
       </c>
-      <c r="C285" s="84"/>
-      <c r="D285" s="84"/>
-      <c r="E285" s="84"/>
-      <c r="F285" s="84"/>
-      <c r="G285" s="84"/>
-      <c r="H285" s="85"/>
-    </row>
-    <row r="286" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C285" s="82"/>
+      <c r="D285" s="82"/>
+      <c r="E285" s="82"/>
+      <c r="F285" s="82"/>
+      <c r="G285" s="82"/>
+      <c r="H285" s="83"/>
+    </row>
+    <row r="286" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B286" s="22" t="s">
         <v>164</v>
       </c>
@@ -17289,7 +17291,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="287" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B287" s="15">
         <v>1</v>
       </c>
@@ -17310,7 +17312,7 @@
       </c>
       <c r="H287" s="17"/>
     </row>
-    <row r="288" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B288" s="34">
         <v>2</v>
       </c>
@@ -17331,7 +17333,7 @@
       </c>
       <c r="H288" s="35"/>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B289" s="15">
         <v>3</v>
       </c>
@@ -17350,7 +17352,7 @@
       </c>
       <c r="H289" s="35"/>
     </row>
-    <row r="290" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B290" s="34">
         <v>4</v>
       </c>
@@ -17369,7 +17371,7 @@
       </c>
       <c r="H290" s="35"/>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B291" s="15">
         <v>5</v>
       </c>
@@ -17388,7 +17390,7 @@
       </c>
       <c r="H291" s="35"/>
     </row>
-    <row r="292" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B292" s="34">
         <v>6</v>
       </c>
@@ -17407,7 +17409,7 @@
       </c>
       <c r="H292" s="35"/>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B293" s="15">
         <v>7</v>
       </c>
@@ -17428,7 +17430,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B294" s="34">
         <v>8</v>
       </c>
@@ -17447,7 +17449,7 @@
       </c>
       <c r="H294" s="35"/>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B295" s="15">
         <v>9</v>
       </c>
@@ -17468,7 +17470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B296" s="18">
         <v>10</v>
       </c>
@@ -17489,17 +17491,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B299" s="103" t="s">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B299" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="C299" s="103"/>
-      <c r="D299" s="103"/>
-      <c r="E299" s="103"/>
-      <c r="F299" s="103"/>
-      <c r="G299" s="103"/>
-    </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C299" s="80"/>
+      <c r="D299" s="80"/>
+      <c r="E299" s="80"/>
+      <c r="F299" s="80"/>
+      <c r="G299" s="80"/>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B300" s="11" t="s">
         <v>179</v>
       </c>
@@ -17519,7 +17521,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B301" s="3">
         <v>1</v>
       </c>
@@ -17539,7 +17541,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B302" s="3">
         <v>2</v>
       </c>
@@ -17559,7 +17561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B303" s="34">
         <v>6</v>
       </c>
@@ -17578,7 +17580,7 @@
       </c>
       <c r="H303" s="35"/>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B304" s="15">
         <v>7</v>
       </c>
@@ -17599,7 +17601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="305" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B305" s="34">
         <v>8</v>
       </c>
@@ -17618,7 +17620,7 @@
       </c>
       <c r="H305" s="35"/>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B306" s="15">
         <v>9</v>
       </c>
@@ -17639,7 +17641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B307" s="18">
         <v>10</v>
       </c>
@@ -17660,19 +17662,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="310" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="83" t="s">
+    <row r="309" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="310" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B310" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="C310" s="84"/>
-      <c r="D310" s="84"/>
-      <c r="E310" s="84"/>
-      <c r="F310" s="84"/>
-      <c r="G310" s="84"/>
-      <c r="H310" s="85"/>
-    </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C310" s="82"/>
+      <c r="D310" s="82"/>
+      <c r="E310" s="82"/>
+      <c r="F310" s="82"/>
+      <c r="G310" s="82"/>
+      <c r="H310" s="83"/>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B311" s="22" t="s">
         <v>164</v>
       </c>
@@ -17695,7 +17697,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B312" s="3">
         <v>1</v>
       </c>
@@ -17712,7 +17714,7 @@
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B313" s="3">
         <v>2</v>
       </c>
@@ -17731,7 +17733,7 @@
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B314" s="3">
         <v>3</v>
       </c>
@@ -17748,7 +17750,7 @@
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B315" s="3">
         <v>4</v>
       </c>
@@ -17765,7 +17767,7 @@
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B316" s="3">
         <v>5</v>
       </c>
@@ -17784,7 +17786,7 @@
       </c>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B317" s="3">
         <v>6</v>
       </c>
@@ -17805,7 +17807,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B318" s="3">
         <v>7</v>
       </c>
@@ -17824,7 +17826,7 @@
       </c>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B319" s="3">
         <v>8</v>
       </c>
@@ -17845,7 +17847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B320" s="3">
         <v>9</v>
       </c>
@@ -17868,24 +17870,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B299:G299"/>
-    <mergeCell ref="B310:H310"/>
-    <mergeCell ref="B285:H285"/>
-    <mergeCell ref="B230:H230"/>
-    <mergeCell ref="B242:H242"/>
-    <mergeCell ref="B260:H260"/>
-    <mergeCell ref="B274:H274"/>
-    <mergeCell ref="J277:P277"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="J169:Q169"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="J179:Q179"/>
     <mergeCell ref="B90:H90"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B120:H120"/>
@@ -17901,6 +17885,24 @@
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="B65:H65"/>
+    <mergeCell ref="J277:P277"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="J169:Q169"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="J179:Q179"/>
+    <mergeCell ref="B299:G299"/>
+    <mergeCell ref="B310:H310"/>
+    <mergeCell ref="B285:H285"/>
+    <mergeCell ref="B230:H230"/>
+    <mergeCell ref="B242:H242"/>
+    <mergeCell ref="B260:H260"/>
+    <mergeCell ref="B274:H274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Traditional Yoga Updated Document.xlsx
+++ b/Traditional Yoga Updated Document.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\yoga_excelsheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F002787-665F-4AA3-87F7-D0A2DA4B328F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="392">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -1182,9 +1176,6 @@
   </si>
   <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>Add and edit is completed delete peneding</t>
   </si>
   <si>
     <t>Praneeth/Ajith K</t>
@@ -1214,7 +1205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1322,7 +1313,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,12 +1920,14 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1944,45 +1937,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1997,6 +1951,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2006,7 +1984,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2334,29 +2325,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>173</v>
       </c>
@@ -2379,7 +2370,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>174</v>
       </c>
@@ -2390,7 +2381,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>175</v>
       </c>
@@ -2401,7 +2392,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>168</v>
       </c>
@@ -2412,7 +2403,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>176</v>
       </c>
@@ -2423,7 +2414,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>177</v>
       </c>
@@ -2434,7 +2425,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>178</v>
       </c>
@@ -2452,30 +2443,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:K349"/>
+  <dimension ref="A1:K349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="102" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="102"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+    </row>
+    <row r="2" spans="1:11" s="103" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
       <c r="B2" s="67" t="s">
         <v>164</v>
       </c>
@@ -2507,7 +2503,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="72">
         <v>2</v>
       </c>
@@ -2537,7 +2533,7 @@
       </c>
       <c r="K3" s="72"/>
     </row>
-    <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="72">
         <v>4</v>
       </c>
@@ -2567,7 +2563,7 @@
       </c>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="62">
         <v>6</v>
       </c>
@@ -2597,7 +2593,7 @@
       </c>
       <c r="K5" s="62"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="62">
         <v>8</v>
       </c>
@@ -2627,7 +2623,7 @@
       </c>
       <c r="K6" s="62"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="72">
         <v>3</v>
       </c>
@@ -2657,7 +2653,7 @@
       </c>
       <c r="K7" s="72"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="72">
         <v>5</v>
       </c>
@@ -2687,7 +2683,7 @@
       </c>
       <c r="K8" s="72"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="62">
         <v>10</v>
       </c>
@@ -2717,7 +2713,7 @@
       </c>
       <c r="K9" s="62"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="72">
         <v>12</v>
       </c>
@@ -2747,7 +2743,7 @@
       </c>
       <c r="K10" s="72"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="72">
         <v>7</v>
       </c>
@@ -2777,7 +2773,7 @@
       </c>
       <c r="K11" s="72"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="72">
         <v>9</v>
       </c>
@@ -2807,7 +2803,7 @@
       </c>
       <c r="K12" s="72"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="72">
         <v>14</v>
       </c>
@@ -2837,7 +2833,7 @@
       </c>
       <c r="K13" s="72"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="72">
         <v>16</v>
       </c>
@@ -2867,7 +2863,7 @@
       </c>
       <c r="K14" s="72"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="72">
         <v>11</v>
       </c>
@@ -2897,7 +2893,7 @@
       </c>
       <c r="K15" s="72"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="72">
         <v>13</v>
       </c>
@@ -2927,7 +2923,7 @@
       </c>
       <c r="K16" s="72"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="72">
         <v>15</v>
       </c>
@@ -2957,7 +2953,7 @@
       </c>
       <c r="K17" s="72"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72">
         <v>17</v>
       </c>
@@ -2987,7 +2983,7 @@
       </c>
       <c r="K18" s="72"/>
     </row>
-    <row r="19" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="75">
         <v>22</v>
       </c>
@@ -3017,7 +3013,7 @@
       </c>
       <c r="K19" s="75"/>
     </row>
-    <row r="20" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="75">
         <v>24</v>
       </c>
@@ -3047,7 +3043,7 @@
       </c>
       <c r="K20" s="75"/>
     </row>
-    <row r="21" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="75">
         <v>26</v>
       </c>
@@ -3077,7 +3073,7 @@
       </c>
       <c r="K21" s="75"/>
     </row>
-    <row r="22" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="75">
         <v>28</v>
       </c>
@@ -3107,7 +3103,7 @@
       </c>
       <c r="K22" s="75"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="72">
         <v>23</v>
       </c>
@@ -3137,14 +3133,14 @@
       </c>
       <c r="K23" s="72"/>
     </row>
-    <row r="24" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="75">
         <v>30</v>
       </c>
       <c r="C24" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="70" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="75" t="s">
@@ -3167,7 +3163,7 @@
       </c>
       <c r="K24" s="75"/>
     </row>
-    <row r="25" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="75">
         <v>32</v>
       </c>
@@ -3197,7 +3193,7 @@
       </c>
       <c r="K25" s="75"/>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="63">
         <v>1</v>
       </c>
@@ -3221,7 +3217,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="72">
         <v>27</v>
       </c>
@@ -3251,7 +3247,7 @@
       </c>
       <c r="K27" s="72"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="72">
         <v>29</v>
       </c>
@@ -3281,14 +3277,14 @@
       </c>
       <c r="K28" s="72"/>
     </row>
-    <row r="29" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="75">
         <v>34</v>
       </c>
       <c r="C29" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="70" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="75" t="s">
@@ -3311,14 +3307,14 @@
       </c>
       <c r="K29" s="75"/>
     </row>
-    <row r="30" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="75">
         <v>36</v>
       </c>
       <c r="C30" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="75" t="s">
@@ -3341,7 +3337,7 @@
       </c>
       <c r="K30" s="75"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>37</v>
       </c>
@@ -3373,7 +3369,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>25</v>
       </c>
@@ -3403,7 +3399,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="72">
         <v>31</v>
       </c>
@@ -3433,7 +3429,7 @@
       </c>
       <c r="K33" s="72"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="72">
         <v>33</v>
       </c>
@@ -3463,7 +3459,7 @@
       </c>
       <c r="K34" s="72"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="72">
         <v>35</v>
       </c>
@@ -3493,7 +3489,7 @@
       </c>
       <c r="K35" s="72"/>
     </row>
-    <row r="36" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="75">
         <v>39</v>
       </c>
@@ -3525,7 +3521,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="75">
         <v>41</v>
       </c>
@@ -3557,14 +3553,14 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="72">
         <v>43</v>
       </c>
       <c r="C38" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="77" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="72" t="s">
@@ -3587,23 +3583,23 @@
       </c>
       <c r="K38" s="72"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="70" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="70" t="s">
         <v>381</v>
       </c>
       <c r="H39" s="64">
@@ -3617,14 +3613,14 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3634,7 +3630,7 @@
         <v>152</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H40" s="64">
         <v>44876</v>
@@ -3647,23 +3643,23 @@
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="70" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="70" t="s">
         <v>381</v>
       </c>
       <c r="H41" s="64">
@@ -3677,18 +3673,18 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="D42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>152</v>
@@ -3707,7 +3703,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="72">
         <v>45</v>
       </c>
@@ -3737,7 +3733,7 @@
       </c>
       <c r="K43" s="72"/>
     </row>
-    <row r="44" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="75">
         <v>47</v>
       </c>
@@ -3769,7 +3765,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="2:11" s="77" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="75">
         <v>49</v>
       </c>
@@ -3801,18 +3797,18 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="78" t="s">
+      <c r="D46" s="70" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>152</v>
@@ -3829,28 +3825,26 @@
       <c r="J46" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>48</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="78" t="s">
+      <c r="D47" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H47" s="64">
         <v>44880</v>
@@ -3863,18 +3857,18 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>152</v>
@@ -3893,7 +3887,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="72">
         <v>51</v>
       </c>
@@ -3923,24 +3917,24 @@
       </c>
       <c r="K49" s="72"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>52</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="78" t="s">
+      <c r="D50" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H50" s="64">
         <v>44881</v>
@@ -3953,7 +3947,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="72">
         <v>53</v>
       </c>
@@ -3983,18 +3977,18 @@
       </c>
       <c r="K51" s="72"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="78" t="s">
+      <c r="D52" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>152</v>
@@ -4013,7 +4007,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>55</v>
       </c>
@@ -4043,18 +4037,18 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="78" t="s">
+      <c r="D54" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>152</v>
@@ -4073,7 +4067,7 @@
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="72">
         <v>57</v>
       </c>
@@ -4103,14 +4097,14 @@
       </c>
       <c r="K55" s="72"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>58</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="104" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4133,14 +4127,14 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>60</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="104" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4163,14 +4157,14 @@
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="104" t="s">
         <v>25</v>
       </c>
       <c r="E58" s="1"/>
@@ -4191,14 +4185,14 @@
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>64</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="104" t="s">
         <v>26</v>
       </c>
       <c r="E59" s="1"/>
@@ -4219,14 +4213,14 @@
       </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>66</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="104" t="s">
         <v>27</v>
       </c>
       <c r="E60" s="1"/>
@@ -4247,7 +4241,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="72">
         <v>59</v>
       </c>
@@ -4277,44 +4271,44 @@
       </c>
       <c r="K61" s="72"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="4">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="70">
         <v>61</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="70" t="s">
         <v>381</v>
       </c>
-      <c r="H62" s="69">
+      <c r="H62" s="71">
         <v>44887</v>
       </c>
-      <c r="I62" s="69">
+      <c r="I62" s="71">
         <v>44887</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J62" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K62" s="70"/>
+    </row>
+    <row r="63" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="104" t="s">
         <v>28</v>
       </c>
       <c r="E63" s="1"/>
@@ -4335,14 +4329,14 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>70</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="104" t="s">
         <v>29</v>
       </c>
       <c r="E64" s="1"/>
@@ -4363,74 +4357,74 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="4">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="70">
         <v>63</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="70" t="s">
         <v>63</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="H65" s="69">
+      <c r="H65" s="71">
         <v>44888</v>
       </c>
-      <c r="I65" s="69">
+      <c r="I65" s="71">
         <v>44888</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="J65" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="4">
+      <c r="K65" s="70"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="70">
         <v>65</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="70" t="s">
         <v>63</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="H66" s="69">
+      <c r="H66" s="71">
         <v>44888</v>
       </c>
-      <c r="I66" s="69">
+      <c r="I66" s="71">
         <v>44888</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="J66" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K66" s="70"/>
+    </row>
+    <row r="67" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>72</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="104" t="s">
         <v>30</v>
       </c>
       <c r="E67" s="1"/>
@@ -4451,14 +4445,14 @@
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>74</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="104" t="s">
         <v>31</v>
       </c>
       <c r="E68" s="1"/>
@@ -4479,74 +4473,74 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="4">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="70">
         <v>67</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="70" t="s">
         <v>63</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="H69" s="69">
+      <c r="H69" s="71">
         <v>44889</v>
       </c>
-      <c r="I69" s="69">
+      <c r="I69" s="71">
         <v>44889</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J69" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="4">
+      <c r="K69" s="70"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="70">
         <v>69</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="70" t="s">
         <v>63</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="H70" s="69">
+      <c r="H70" s="71">
         <v>44889</v>
       </c>
-      <c r="I70" s="69">
+      <c r="I70" s="71">
         <v>44889</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="70"/>
+    </row>
+    <row r="71" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="104" t="s">
         <v>32</v>
       </c>
       <c r="E71" s="1"/>
@@ -4567,14 +4561,14 @@
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>78</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="104" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="1"/>
@@ -4595,7 +4589,7 @@
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>71</v>
       </c>
@@ -4606,7 +4600,7 @@
         <v>30</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>161</v>
@@ -4625,7 +4619,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <v>73</v>
       </c>
@@ -4655,74 +4649,74 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="4">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="70">
         <v>75</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H75" s="69">
+      <c r="G75" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="H75" s="71">
         <v>44893</v>
       </c>
-      <c r="I75" s="69">
+      <c r="I75" s="71">
         <v>44893</v>
       </c>
-      <c r="J75" s="4" t="s">
+      <c r="J75" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="K75" s="4"/>
-    </row>
-    <row r="76" spans="2:11" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="4">
+      <c r="K75" s="70"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="70">
         <v>77</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F76" s="4" t="s">
+      <c r="E76" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="F76" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H76" s="69">
+      <c r="G76" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="H76" s="71">
         <v>44893</v>
       </c>
-      <c r="I76" s="69">
+      <c r="I76" s="71">
         <v>44893</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J76" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="K76" s="4"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="70"/>
+    </row>
+    <row r="77" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>80</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="104" t="s">
         <v>34</v>
       </c>
       <c r="E77" s="1"/>
@@ -4743,14 +4737,14 @@
       </c>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>82</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="104" t="s">
         <v>35</v>
       </c>
       <c r="E78" s="1"/>
@@ -4771,7 +4765,7 @@
       </c>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>79</v>
       </c>
@@ -4799,7 +4793,7 @@
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>81</v>
       </c>
@@ -4827,7 +4821,7 @@
       </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1">
         <v>84</v>
       </c>
@@ -4855,7 +4849,7 @@
       </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="1">
         <v>86</v>
       </c>
@@ -4883,7 +4877,7 @@
       </c>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
         <v>83</v>
       </c>
@@ -4911,7 +4905,7 @@
       </c>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
         <v>85</v>
       </c>
@@ -4939,7 +4933,7 @@
       </c>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>88</v>
       </c>
@@ -4967,7 +4961,7 @@
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1">
         <v>90</v>
       </c>
@@ -4995,7 +4989,7 @@
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="1">
         <v>87</v>
       </c>
@@ -5023,7 +5017,7 @@
       </c>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
         <v>89</v>
       </c>
@@ -5051,7 +5045,7 @@
       </c>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1">
         <v>92</v>
       </c>
@@ -5079,7 +5073,7 @@
       </c>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1">
         <v>94</v>
       </c>
@@ -5107,7 +5101,7 @@
       </c>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1">
         <v>91</v>
       </c>
@@ -5135,7 +5129,7 @@
       </c>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
         <v>93</v>
       </c>
@@ -5163,7 +5157,7 @@
       </c>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
         <v>96</v>
       </c>
@@ -5191,7 +5185,7 @@
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1">
         <v>98</v>
       </c>
@@ -5219,7 +5213,7 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="1">
         <v>95</v>
       </c>
@@ -5247,7 +5241,7 @@
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1">
         <v>97</v>
       </c>
@@ -5275,7 +5269,7 @@
       </c>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1">
         <v>100</v>
       </c>
@@ -5303,7 +5297,7 @@
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1">
         <v>102</v>
       </c>
@@ -5331,7 +5325,7 @@
       </c>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1">
         <v>99</v>
       </c>
@@ -5359,7 +5353,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1">
         <v>101</v>
       </c>
@@ -5387,7 +5381,7 @@
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1">
         <v>104</v>
       </c>
@@ -5415,7 +5409,7 @@
       </c>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1">
         <v>106</v>
       </c>
@@ -5443,7 +5437,7 @@
       </c>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="1">
         <v>103</v>
       </c>
@@ -5471,7 +5465,7 @@
       </c>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="1">
         <v>105</v>
       </c>
@@ -5499,7 +5493,7 @@
       </c>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="1">
         <v>108</v>
       </c>
@@ -5527,7 +5521,7 @@
       </c>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="1">
         <v>110</v>
       </c>
@@ -5555,7 +5549,7 @@
       </c>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="1">
         <v>107</v>
       </c>
@@ -5583,7 +5577,7 @@
       </c>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="1">
         <v>109</v>
       </c>
@@ -5611,7 +5605,7 @@
       </c>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1">
         <v>112</v>
       </c>
@@ -5639,7 +5633,7 @@
       </c>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="1">
         <v>114</v>
       </c>
@@ -5667,7 +5661,7 @@
       </c>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="1">
         <v>111</v>
       </c>
@@ -5695,7 +5689,7 @@
       </c>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="1">
         <v>116</v>
       </c>
@@ -5723,7 +5717,7 @@
       </c>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="1">
         <v>118</v>
       </c>
@@ -5751,7 +5745,7 @@
       </c>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="1">
         <v>113</v>
       </c>
@@ -5779,7 +5773,7 @@
       </c>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="1">
         <v>115</v>
       </c>
@@ -5807,7 +5801,7 @@
       </c>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="1">
         <v>120</v>
       </c>
@@ -5835,7 +5829,7 @@
       </c>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="1">
         <v>122</v>
       </c>
@@ -5863,7 +5857,7 @@
       </c>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="1">
         <v>117</v>
       </c>
@@ -5891,7 +5885,7 @@
       </c>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="1">
         <v>119</v>
       </c>
@@ -5919,7 +5913,7 @@
       </c>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="1">
         <v>124</v>
       </c>
@@ -5947,7 +5941,7 @@
       </c>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="1">
         <v>121</v>
       </c>
@@ -5975,7 +5969,7 @@
       </c>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="1">
         <v>123</v>
       </c>
@@ -6003,7 +5997,7 @@
       </c>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="1">
         <v>125</v>
       </c>
@@ -6031,7 +6025,7 @@
       </c>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="1">
         <v>127</v>
       </c>
@@ -6059,7 +6053,7 @@
       </c>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="1">
         <v>126</v>
       </c>
@@ -6087,7 +6081,7 @@
       </c>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="1">
         <v>128</v>
       </c>
@@ -6115,7 +6109,7 @@
       </c>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="1">
         <v>129</v>
       </c>
@@ -6143,7 +6137,7 @@
       </c>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="1">
         <v>131</v>
       </c>
@@ -6171,7 +6165,7 @@
       </c>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="1">
         <v>130</v>
       </c>
@@ -6199,7 +6193,7 @@
       </c>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="1">
         <v>132</v>
       </c>
@@ -6227,7 +6221,7 @@
       </c>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1">
         <v>133</v>
       </c>
@@ -6255,7 +6249,7 @@
       </c>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="1">
         <v>135</v>
       </c>
@@ -6283,7 +6277,7 @@
       </c>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="1">
         <v>134</v>
       </c>
@@ -6311,7 +6305,7 @@
       </c>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="1">
         <v>136</v>
       </c>
@@ -6339,7 +6333,7 @@
       </c>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="70">
         <v>20</v>
       </c>
@@ -6367,7 +6361,7 @@
       </c>
       <c r="K135" s="70"/>
     </row>
-    <row r="136" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="70">
         <v>21</v>
       </c>
@@ -6395,7 +6389,7 @@
       </c>
       <c r="K136" s="70"/>
     </row>
-    <row r="137" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="1">
         <v>137</v>
       </c>
@@ -6423,7 +6417,7 @@
       </c>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="1">
         <v>139</v>
       </c>
@@ -6451,7 +6445,7 @@
       </c>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="1">
         <v>138</v>
       </c>
@@ -6479,7 +6473,7 @@
       </c>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="1">
         <v>140</v>
       </c>
@@ -6507,7 +6501,7 @@
       </c>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="1">
         <v>141</v>
       </c>
@@ -6535,7 +6529,7 @@
       </c>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="1">
         <v>143</v>
       </c>
@@ -6563,7 +6557,7 @@
       </c>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1">
         <v>142</v>
       </c>
@@ -6591,7 +6585,7 @@
       </c>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="1">
         <v>144</v>
       </c>
@@ -6619,7 +6613,7 @@
       </c>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="1">
         <v>145</v>
       </c>
@@ -6647,7 +6641,7 @@
       </c>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="1">
         <v>147</v>
       </c>
@@ -6675,7 +6669,7 @@
       </c>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="1">
         <v>146</v>
       </c>
@@ -6703,7 +6697,7 @@
       </c>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="1">
         <v>148</v>
       </c>
@@ -6731,7 +6725,7 @@
       </c>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="1">
         <v>149</v>
       </c>
@@ -6759,7 +6753,7 @@
       </c>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="1">
         <v>151</v>
       </c>
@@ -6787,7 +6781,7 @@
       </c>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="1">
         <v>150</v>
       </c>
@@ -6815,7 +6809,7 @@
       </c>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="1">
         <v>152</v>
       </c>
@@ -6843,7 +6837,7 @@
       </c>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="1">
         <v>153</v>
       </c>
@@ -6871,7 +6865,7 @@
       </c>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="1">
         <v>155</v>
       </c>
@@ -6899,7 +6893,7 @@
       </c>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="1">
         <v>154</v>
       </c>
@@ -6927,7 +6921,7 @@
       </c>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="1">
         <v>156</v>
       </c>
@@ -6955,7 +6949,7 @@
       </c>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="1">
         <v>157</v>
       </c>
@@ -6983,7 +6977,7 @@
       </c>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="1">
         <v>158</v>
       </c>
@@ -7011,7 +7005,7 @@
       </c>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="1">
         <v>159</v>
       </c>
@@ -7039,7 +7033,7 @@
       </c>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="1">
         <v>161</v>
       </c>
@@ -7067,7 +7061,7 @@
       </c>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="1">
         <v>160</v>
       </c>
@@ -7095,7 +7089,7 @@
       </c>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="1">
         <v>162</v>
       </c>
@@ -7123,7 +7117,7 @@
       </c>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="1">
         <v>163</v>
       </c>
@@ -7151,7 +7145,7 @@
       </c>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="1">
         <v>165</v>
       </c>
@@ -7179,7 +7173,7 @@
       </c>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="1">
         <v>164</v>
       </c>
@@ -7207,7 +7201,7 @@
       </c>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="1">
         <v>166</v>
       </c>
@@ -7235,7 +7229,7 @@
       </c>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" s="1">
         <v>167</v>
       </c>
@@ -7263,7 +7257,7 @@
       </c>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="1">
         <v>169</v>
       </c>
@@ -7291,7 +7285,7 @@
       </c>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="1">
         <v>168</v>
       </c>
@@ -7319,7 +7313,7 @@
       </c>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="1">
         <v>170</v>
       </c>
@@ -7347,7 +7341,7 @@
       </c>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="1">
         <v>171</v>
       </c>
@@ -7375,7 +7369,7 @@
       </c>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="1">
         <v>173</v>
       </c>
@@ -7403,7 +7397,7 @@
       </c>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="1">
         <v>172</v>
       </c>
@@ -7431,7 +7425,7 @@
       </c>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="1">
         <v>174</v>
       </c>
@@ -7459,7 +7453,7 @@
       </c>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="1">
         <v>175</v>
       </c>
@@ -7487,7 +7481,7 @@
       </c>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="1">
         <v>177</v>
       </c>
@@ -7515,7 +7509,7 @@
       </c>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="1">
         <v>176</v>
       </c>
@@ -7543,7 +7537,7 @@
       </c>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="1">
         <v>178</v>
       </c>
@@ -7571,7 +7565,7 @@
       </c>
       <c r="K178" s="1"/>
     </row>
-    <row r="179" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" s="1">
         <v>179</v>
       </c>
@@ -7599,7 +7593,7 @@
       </c>
       <c r="K179" s="1"/>
     </row>
-    <row r="180" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" s="1">
         <v>181</v>
       </c>
@@ -7627,7 +7621,7 @@
       </c>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" s="1">
         <v>180</v>
       </c>
@@ -7655,7 +7649,7 @@
       </c>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" s="1">
         <v>182</v>
       </c>
@@ -7683,7 +7677,7 @@
       </c>
       <c r="K182" s="1"/>
     </row>
-    <row r="183" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" s="1">
         <v>183</v>
       </c>
@@ -7711,7 +7705,7 @@
       </c>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" s="1">
         <v>185</v>
       </c>
@@ -7739,7 +7733,7 @@
       </c>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185" s="1">
         <v>184</v>
       </c>
@@ -7767,7 +7761,7 @@
       </c>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" s="1">
         <v>186</v>
       </c>
@@ -7795,7 +7789,7 @@
       </c>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" s="1">
         <v>187</v>
       </c>
@@ -7823,7 +7817,7 @@
       </c>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" s="1">
         <v>189</v>
       </c>
@@ -7851,7 +7845,7 @@
       </c>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189" s="1">
         <v>188</v>
       </c>
@@ -7879,7 +7873,7 @@
       </c>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" s="1">
         <v>190</v>
       </c>
@@ -7907,7 +7901,7 @@
       </c>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191" s="1">
         <v>191</v>
       </c>
@@ -7935,7 +7929,7 @@
       </c>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" s="1">
         <v>193</v>
       </c>
@@ -7963,7 +7957,7 @@
       </c>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="1">
         <v>192</v>
       </c>
@@ -7991,7 +7985,7 @@
       </c>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" s="1">
         <v>194</v>
       </c>
@@ -8019,7 +8013,7 @@
       </c>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" s="1">
         <v>195</v>
       </c>
@@ -8047,7 +8041,7 @@
       </c>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" s="1">
         <v>196</v>
       </c>
@@ -8075,7 +8069,7 @@
       </c>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" s="1">
         <v>198</v>
       </c>
@@ -8103,7 +8097,7 @@
       </c>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" s="1">
         <v>197</v>
       </c>
@@ -8131,7 +8125,7 @@
       </c>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" s="1">
         <v>199</v>
       </c>
@@ -8159,7 +8153,7 @@
       </c>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" s="1">
         <v>200</v>
       </c>
@@ -8187,7 +8181,7 @@
       </c>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="1">
         <v>202</v>
       </c>
@@ -8215,7 +8209,7 @@
       </c>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" s="1">
         <v>201</v>
       </c>
@@ -8243,7 +8237,7 @@
       </c>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" s="1">
         <v>203</v>
       </c>
@@ -8271,7 +8265,7 @@
       </c>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" s="1">
         <v>204</v>
       </c>
@@ -8299,7 +8293,7 @@
       </c>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" s="1">
         <v>206</v>
       </c>
@@ -8327,7 +8321,7 @@
       </c>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" s="1">
         <v>205</v>
       </c>
@@ -8355,7 +8349,7 @@
       </c>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" s="1">
         <v>207</v>
       </c>
@@ -8383,7 +8377,7 @@
       </c>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" s="1">
         <v>208</v>
       </c>
@@ -8411,7 +8405,7 @@
       </c>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" s="1">
         <v>210</v>
       </c>
@@ -8439,7 +8433,7 @@
       </c>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" s="1">
         <v>209</v>
       </c>
@@ -8467,7 +8461,7 @@
       </c>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" s="1">
         <v>211</v>
       </c>
@@ -8495,7 +8489,7 @@
       </c>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" s="1">
         <v>212</v>
       </c>
@@ -8523,7 +8517,7 @@
       </c>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" s="1">
         <v>214</v>
       </c>
@@ -8551,7 +8545,7 @@
       </c>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="1">
         <v>213</v>
       </c>
@@ -8579,7 +8573,7 @@
       </c>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="1">
         <v>215</v>
       </c>
@@ -8607,7 +8601,7 @@
       </c>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" s="1">
         <v>216</v>
       </c>
@@ -8635,7 +8629,7 @@
       </c>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" s="1">
         <v>218</v>
       </c>
@@ -8663,7 +8657,7 @@
       </c>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" s="1">
         <v>217</v>
       </c>
@@ -8691,7 +8685,7 @@
       </c>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="1">
         <v>219</v>
       </c>
@@ -8719,7 +8713,7 @@
       </c>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="1">
         <v>220</v>
       </c>
@@ -8747,7 +8741,7 @@
       </c>
       <c r="K220" s="1"/>
     </row>
-    <row r="221" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" s="1">
         <v>222</v>
       </c>
@@ -8775,7 +8769,7 @@
       </c>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" s="1">
         <v>221</v>
       </c>
@@ -8803,7 +8797,7 @@
       </c>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" s="1">
         <v>223</v>
       </c>
@@ -8831,7 +8825,7 @@
       </c>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="1">
         <v>224</v>
       </c>
@@ -8859,7 +8853,7 @@
       </c>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" s="1">
         <v>226</v>
       </c>
@@ -8887,7 +8881,7 @@
       </c>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226" s="1">
         <v>225</v>
       </c>
@@ -8915,7 +8909,7 @@
       </c>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="1">
         <v>227</v>
       </c>
@@ -8943,7 +8937,7 @@
       </c>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="1">
         <v>228</v>
       </c>
@@ -8971,7 +8965,7 @@
       </c>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="1">
         <v>230</v>
       </c>
@@ -8999,7 +8993,7 @@
       </c>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="1">
         <v>229</v>
       </c>
@@ -9027,7 +9021,7 @@
       </c>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="1">
         <v>231</v>
       </c>
@@ -9055,7 +9049,7 @@
       </c>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="1">
         <v>232</v>
       </c>
@@ -9083,7 +9077,7 @@
       </c>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="1">
         <v>234</v>
       </c>
@@ -9111,7 +9105,7 @@
       </c>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234" s="1">
         <v>233</v>
       </c>
@@ -9139,7 +9133,7 @@
       </c>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" s="1">
         <v>235</v>
       </c>
@@ -9167,7 +9161,7 @@
       </c>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" s="1">
         <v>236</v>
       </c>
@@ -9195,7 +9189,7 @@
       </c>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" s="1">
         <v>238</v>
       </c>
@@ -9223,7 +9217,7 @@
       </c>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="1">
         <v>237</v>
       </c>
@@ -9251,7 +9245,7 @@
       </c>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" s="1">
         <v>239</v>
       </c>
@@ -9279,7 +9273,7 @@
       </c>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" s="1">
         <v>240</v>
       </c>
@@ -9307,7 +9301,7 @@
       </c>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B241" s="1">
         <v>242</v>
       </c>
@@ -9335,7 +9329,7 @@
       </c>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B242" s="1">
         <v>241</v>
       </c>
@@ -9363,7 +9357,7 @@
       </c>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B243" s="1">
         <v>243</v>
       </c>
@@ -9391,7 +9385,7 @@
       </c>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B244" s="1">
         <v>244</v>
       </c>
@@ -9419,7 +9413,7 @@
       </c>
       <c r="K244" s="1"/>
     </row>
-    <row r="245" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B245" s="1">
         <v>246</v>
       </c>
@@ -9447,7 +9441,7 @@
       </c>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B246" s="1">
         <v>245</v>
       </c>
@@ -9475,7 +9469,7 @@
       </c>
       <c r="K246" s="1"/>
     </row>
-    <row r="247" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B247" s="1">
         <v>248</v>
       </c>
@@ -9503,7 +9497,7 @@
       </c>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B248" s="1">
         <v>250</v>
       </c>
@@ -9531,7 +9525,7 @@
       </c>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B249" s="1">
         <v>247</v>
       </c>
@@ -9559,7 +9553,7 @@
       </c>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B250" s="1">
         <v>249</v>
       </c>
@@ -9587,7 +9581,7 @@
       </c>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" s="1">
         <v>252</v>
       </c>
@@ -9615,7 +9609,7 @@
       </c>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" s="1">
         <v>254</v>
       </c>
@@ -9643,7 +9637,7 @@
       </c>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" s="1">
         <v>251</v>
       </c>
@@ -9671,7 +9665,7 @@
       </c>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" s="1">
         <v>253</v>
       </c>
@@ -9699,7 +9693,7 @@
       </c>
       <c r="K254" s="1"/>
     </row>
-    <row r="255" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B255" s="1">
         <v>255</v>
       </c>
@@ -9727,7 +9721,7 @@
       </c>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B256" s="1">
         <v>256</v>
       </c>
@@ -9755,7 +9749,7 @@
       </c>
       <c r="K256" s="1"/>
     </row>
-    <row r="257" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B257" s="1">
         <v>258</v>
       </c>
@@ -9783,7 +9777,7 @@
       </c>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B258" s="1">
         <v>257</v>
       </c>
@@ -9811,7 +9805,7 @@
       </c>
       <c r="K258" s="1"/>
     </row>
-    <row r="259" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B259" s="1">
         <v>259</v>
       </c>
@@ -9839,7 +9833,7 @@
       </c>
       <c r="K259" s="1"/>
     </row>
-    <row r="260" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B260" s="1">
         <v>260</v>
       </c>
@@ -9867,7 +9861,7 @@
       </c>
       <c r="K260" s="1"/>
     </row>
-    <row r="261" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B261" s="1">
         <v>262</v>
       </c>
@@ -9895,7 +9889,7 @@
       </c>
       <c r="K261" s="1"/>
     </row>
-    <row r="262" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B262" s="1">
         <v>261</v>
       </c>
@@ -9923,7 +9917,7 @@
       </c>
       <c r="K262" s="1"/>
     </row>
-    <row r="263" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B263" s="1">
         <v>263</v>
       </c>
@@ -9951,7 +9945,7 @@
       </c>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B264" s="1">
         <v>264</v>
       </c>
@@ -9979,7 +9973,7 @@
       </c>
       <c r="K264" s="1"/>
     </row>
-    <row r="265" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B265" s="1">
         <v>266</v>
       </c>
@@ -10007,7 +10001,7 @@
       </c>
       <c r="K265" s="1"/>
     </row>
-    <row r="266" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B266" s="1">
         <v>265</v>
       </c>
@@ -10035,7 +10029,7 @@
       </c>
       <c r="K266" s="1"/>
     </row>
-    <row r="267" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B267" s="1">
         <v>267</v>
       </c>
@@ -10063,7 +10057,7 @@
       </c>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B268" s="1">
         <v>268</v>
       </c>
@@ -10091,7 +10085,7 @@
       </c>
       <c r="K268" s="1"/>
     </row>
-    <row r="269" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B269" s="1">
         <v>270</v>
       </c>
@@ -10119,7 +10113,7 @@
       </c>
       <c r="K269" s="1"/>
     </row>
-    <row r="270" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B270" s="1">
         <v>269</v>
       </c>
@@ -10147,7 +10141,7 @@
       </c>
       <c r="K270" s="1"/>
     </row>
-    <row r="271" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B271" s="1">
         <v>271</v>
       </c>
@@ -10175,7 +10169,7 @@
       </c>
       <c r="K271" s="1"/>
     </row>
-    <row r="272" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B272" s="1">
         <v>272</v>
       </c>
@@ -10203,7 +10197,7 @@
       </c>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B273" s="1">
         <v>274</v>
       </c>
@@ -10231,7 +10225,7 @@
       </c>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B274" s="1">
         <v>273</v>
       </c>
@@ -10259,7 +10253,7 @@
       </c>
       <c r="K274" s="1"/>
     </row>
-    <row r="275" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B275" s="1">
         <v>275</v>
       </c>
@@ -10287,7 +10281,7 @@
       </c>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B276" s="1">
         <v>276</v>
       </c>
@@ -10315,7 +10309,7 @@
       </c>
       <c r="K276" s="1"/>
     </row>
-    <row r="277" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B277" s="1">
         <v>278</v>
       </c>
@@ -10343,7 +10337,7 @@
       </c>
       <c r="K277" s="1"/>
     </row>
-    <row r="278" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B278" s="1">
         <v>277</v>
       </c>
@@ -10371,7 +10365,7 @@
       </c>
       <c r="K278" s="1"/>
     </row>
-    <row r="279" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B279" s="1">
         <v>279</v>
       </c>
@@ -10399,7 +10393,7 @@
       </c>
       <c r="K279" s="1"/>
     </row>
-    <row r="280" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B280" s="1">
         <v>280</v>
       </c>
@@ -10427,7 +10421,7 @@
       </c>
       <c r="K280" s="1"/>
     </row>
-    <row r="281" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B281" s="1">
         <v>281</v>
       </c>
@@ -10455,7 +10449,7 @@
       </c>
       <c r="K281" s="1"/>
     </row>
-    <row r="282" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B282" s="1">
         <v>281</v>
       </c>
@@ -10483,7 +10477,7 @@
       </c>
       <c r="K282" s="1"/>
     </row>
-    <row r="283" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B283" s="1">
         <v>282</v>
       </c>
@@ -10511,7 +10505,7 @@
       </c>
       <c r="K283" s="1"/>
     </row>
-    <row r="284" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B284" s="1">
         <v>283</v>
       </c>
@@ -10539,7 +10533,7 @@
       </c>
       <c r="K284" s="1"/>
     </row>
-    <row r="285" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B285" s="1">
         <v>285</v>
       </c>
@@ -10567,7 +10561,7 @@
       </c>
       <c r="K285" s="1"/>
     </row>
-    <row r="286" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B286" s="1">
         <v>284</v>
       </c>
@@ -10595,7 +10589,7 @@
       </c>
       <c r="K286" s="1"/>
     </row>
-    <row r="287" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B287" s="1">
         <v>286</v>
       </c>
@@ -10623,7 +10617,7 @@
       </c>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B288" s="1">
         <v>287</v>
       </c>
@@ -10651,7 +10645,7 @@
       </c>
       <c r="K288" s="1"/>
     </row>
-    <row r="289" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B289" s="1">
         <v>289</v>
       </c>
@@ -10679,7 +10673,7 @@
       </c>
       <c r="K289" s="1"/>
     </row>
-    <row r="290" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B290" s="1">
         <v>288</v>
       </c>
@@ -10707,7 +10701,7 @@
       </c>
       <c r="K290" s="1"/>
     </row>
-    <row r="291" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B291" s="1">
         <v>290</v>
       </c>
@@ -10735,7 +10729,7 @@
       </c>
       <c r="K291" s="1"/>
     </row>
-    <row r="292" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B292" s="1">
         <v>291</v>
       </c>
@@ -10763,7 +10757,7 @@
       </c>
       <c r="K292" s="1"/>
     </row>
-    <row r="293" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B293" s="1">
         <v>293</v>
       </c>
@@ -10791,7 +10785,7 @@
       </c>
       <c r="K293" s="1"/>
     </row>
-    <row r="294" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B294" s="1">
         <v>292</v>
       </c>
@@ -10819,7 +10813,7 @@
       </c>
       <c r="K294" s="1"/>
     </row>
-    <row r="295" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B295" s="1">
         <v>294</v>
       </c>
@@ -10847,7 +10841,7 @@
       </c>
       <c r="K295" s="1"/>
     </row>
-    <row r="296" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B296" s="1">
         <v>295</v>
       </c>
@@ -10875,7 +10869,7 @@
       </c>
       <c r="K296" s="1"/>
     </row>
-    <row r="297" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B297" s="1">
         <v>297</v>
       </c>
@@ -10903,7 +10897,7 @@
       </c>
       <c r="K297" s="1"/>
     </row>
-    <row r="298" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B298" s="1">
         <v>296</v>
       </c>
@@ -10931,7 +10925,7 @@
       </c>
       <c r="K298" s="1"/>
     </row>
-    <row r="299" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B299" s="1">
         <v>298</v>
       </c>
@@ -10959,7 +10953,7 @@
       </c>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B300" s="1">
         <v>299</v>
       </c>
@@ -10987,7 +10981,7 @@
       </c>
       <c r="K300" s="1"/>
     </row>
-    <row r="301" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B301" s="1">
         <v>301</v>
       </c>
@@ -11015,7 +11009,7 @@
       </c>
       <c r="K301" s="1"/>
     </row>
-    <row r="302" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B302" s="1">
         <v>300</v>
       </c>
@@ -11043,7 +11037,7 @@
       </c>
       <c r="K302" s="1"/>
     </row>
-    <row r="303" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B303" s="1">
         <v>302</v>
       </c>
@@ -11071,7 +11065,7 @@
       </c>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B304" s="1">
         <v>303</v>
       </c>
@@ -11099,7 +11093,7 @@
       </c>
       <c r="K304" s="1"/>
     </row>
-    <row r="305" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B305" s="1">
         <v>305</v>
       </c>
@@ -11127,7 +11121,7 @@
       </c>
       <c r="K305" s="1"/>
     </row>
-    <row r="306" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B306" s="1">
         <v>304</v>
       </c>
@@ -11155,7 +11149,7 @@
       </c>
       <c r="K306" s="1"/>
     </row>
-    <row r="307" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B307" s="1">
         <v>306</v>
       </c>
@@ -11183,7 +11177,7 @@
       </c>
       <c r="K307" s="1"/>
     </row>
-    <row r="308" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B308" s="1">
         <v>307</v>
       </c>
@@ -11211,7 +11205,7 @@
       </c>
       <c r="K308" s="1"/>
     </row>
-    <row r="309" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B309" s="1">
         <v>309</v>
       </c>
@@ -11239,7 +11233,7 @@
       </c>
       <c r="K309" s="1"/>
     </row>
-    <row r="310" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B310" s="1">
         <v>308</v>
       </c>
@@ -11267,7 +11261,7 @@
       </c>
       <c r="K310" s="1"/>
     </row>
-    <row r="311" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B311" s="1">
         <v>310</v>
       </c>
@@ -11295,7 +11289,7 @@
       </c>
       <c r="K311" s="1"/>
     </row>
-    <row r="312" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B312" s="1">
         <v>311</v>
       </c>
@@ -11323,7 +11317,7 @@
       </c>
       <c r="K312" s="1"/>
     </row>
-    <row r="313" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B313" s="1">
         <v>313</v>
       </c>
@@ -11351,7 +11345,7 @@
       </c>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B314" s="1">
         <v>312</v>
       </c>
@@ -11379,7 +11373,7 @@
       </c>
       <c r="K314" s="1"/>
     </row>
-    <row r="315" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B315" s="1">
         <v>314</v>
       </c>
@@ -11407,7 +11401,7 @@
       </c>
       <c r="K315" s="1"/>
     </row>
-    <row r="316" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B316" s="1">
         <v>315</v>
       </c>
@@ -11435,7 +11429,7 @@
       </c>
       <c r="K316" s="1"/>
     </row>
-    <row r="317" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B317" s="1">
         <v>317</v>
       </c>
@@ -11463,7 +11457,7 @@
       </c>
       <c r="K317" s="1"/>
     </row>
-    <row r="318" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B318" s="1">
         <v>316</v>
       </c>
@@ -11491,7 +11485,7 @@
       </c>
       <c r="K318" s="1"/>
     </row>
-    <row r="319" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B319" s="1">
         <v>318</v>
       </c>
@@ -11519,7 +11513,7 @@
       </c>
       <c r="K319" s="1"/>
     </row>
-    <row r="320" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B320" s="1">
         <v>319</v>
       </c>
@@ -11547,7 +11541,7 @@
       </c>
       <c r="K320" s="1"/>
     </row>
-    <row r="321" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B321" s="1">
         <v>321</v>
       </c>
@@ -11575,7 +11569,7 @@
       </c>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B322" s="1">
         <v>320</v>
       </c>
@@ -11603,7 +11597,7 @@
       </c>
       <c r="K322" s="1"/>
     </row>
-    <row r="323" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B323" s="1">
         <v>322</v>
       </c>
@@ -11631,7 +11625,7 @@
       </c>
       <c r="K323" s="1"/>
     </row>
-    <row r="324" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B324" s="1">
         <v>323</v>
       </c>
@@ -11659,7 +11653,7 @@
       </c>
       <c r="K324" s="1"/>
     </row>
-    <row r="325" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B325" s="1">
         <v>325</v>
       </c>
@@ -11687,7 +11681,7 @@
       </c>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B326" s="1">
         <v>324</v>
       </c>
@@ -11715,7 +11709,7 @@
       </c>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B327" s="1">
         <v>326</v>
       </c>
@@ -11743,7 +11737,7 @@
       </c>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B328" s="1">
         <v>327</v>
       </c>
@@ -11771,7 +11765,7 @@
       </c>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B329" s="1">
         <v>329</v>
       </c>
@@ -11799,7 +11793,7 @@
       </c>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B330" s="1">
         <v>328</v>
       </c>
@@ -11827,7 +11821,7 @@
       </c>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B331" s="1">
         <v>330</v>
       </c>
@@ -11855,7 +11849,7 @@
       </c>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B332" s="1">
         <v>331</v>
       </c>
@@ -11883,7 +11877,7 @@
       </c>
       <c r="K332" s="1"/>
     </row>
-    <row r="333" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B333" s="1">
         <v>333</v>
       </c>
@@ -11911,7 +11905,7 @@
       </c>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B334" s="1">
         <v>332</v>
       </c>
@@ -11939,7 +11933,7 @@
       </c>
       <c r="K334" s="1"/>
     </row>
-    <row r="335" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B335" s="1">
         <v>334</v>
       </c>
@@ -11967,7 +11961,7 @@
       </c>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B336" s="1">
         <v>335</v>
       </c>
@@ -11995,7 +11989,7 @@
       </c>
       <c r="K336" s="1"/>
     </row>
-    <row r="337" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B337" s="1">
         <v>337</v>
       </c>
@@ -12023,7 +12017,7 @@
       </c>
       <c r="K337" s="1"/>
     </row>
-    <row r="338" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B338" s="1">
         <v>336</v>
       </c>
@@ -12051,7 +12045,7 @@
       </c>
       <c r="K338" s="1"/>
     </row>
-    <row r="339" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B339" s="1">
         <v>338</v>
       </c>
@@ -12079,7 +12073,7 @@
       </c>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B340" s="1">
         <v>339</v>
       </c>
@@ -12107,7 +12101,7 @@
       </c>
       <c r="K340" s="1"/>
     </row>
-    <row r="341" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B341" s="1">
         <v>341</v>
       </c>
@@ -12135,7 +12129,7 @@
       </c>
       <c r="K341" s="1"/>
     </row>
-    <row r="342" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B342" s="1">
         <v>340</v>
       </c>
@@ -12163,7 +12157,7 @@
       </c>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B343" s="1">
         <v>342</v>
       </c>
@@ -12191,7 +12185,7 @@
       </c>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B344" s="63">
         <v>18</v>
       </c>
@@ -12217,7 +12211,7 @@
       </c>
       <c r="K344" s="63"/>
     </row>
-    <row r="345" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B345" s="63">
         <v>19</v>
       </c>
@@ -12243,7 +12237,7 @@
       </c>
       <c r="K345" s="63"/>
     </row>
-    <row r="346" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B346" s="1">
         <v>343</v>
       </c>
@@ -12263,7 +12257,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B347" s="1">
         <v>344</v>
       </c>
@@ -12283,7 +12277,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B348" s="1">
         <v>345</v>
       </c>
@@ -12303,7 +12297,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B349" s="1">
         <v>346</v>
       </c>
@@ -12324,14 +12318,39 @@
       <c r="K349" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K349" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="6">
+  <autoFilter ref="B2:K349">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="5">
       <filters>
-        <dateGroupItem year="2022" month="11" dateTimeGrouping="month"/>
+        <filter val="In Progress"/>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters blank="1">
+        <dateGroupItem year="2022" month="10" dateTimeGrouping="month"/>
+        <dateGroupItem year="2022" month="11" day="1" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="2" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="3" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="7" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="8" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="9" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="10" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="17" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="18" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="21" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="22" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="23" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="24" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="28" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K349">
+  <sortState ref="B3:K349">
     <sortCondition ref="I2"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12347,33 +12366,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q320"/>
   <sheetViews>
     <sheetView topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D328" sqref="D328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="97" t="s">
+    <row r="1" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-    </row>
-    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+    </row>
+    <row r="2" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>164</v>
       </c>
@@ -12396,7 +12415,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -12419,7 +12438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18">
         <v>2</v>
       </c>
@@ -12439,16 +12458,16 @@
       <c r="H4" s="44">
         <v>55</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="100"/>
-    </row>
-    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+    </row>
+    <row r="5" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="39">
         <v>3</v>
       </c>
@@ -12473,7 +12492,7 @@
       <c r="N5" s="56"/>
       <c r="O5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="40">
         <v>4</v>
       </c>
@@ -12500,7 +12519,7 @@
       <c r="N6" s="56"/>
       <c r="O6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="39">
         <v>5</v>
       </c>
@@ -12519,7 +12538,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="40">
         <v>6</v>
       </c>
@@ -12540,7 +12559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="39">
         <v>7</v>
       </c>
@@ -12561,19 +12580,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="91" t="s">
+    <row r="11" spans="2:15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
+    </row>
+    <row r="13" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
         <v>164</v>
       </c>
@@ -12596,7 +12615,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -12619,7 +12638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -12640,7 +12659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>3</v>
       </c>
@@ -12661,7 +12680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>4</v>
       </c>
@@ -12682,7 +12701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>5</v>
       </c>
@@ -12703,7 +12722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>6</v>
       </c>
@@ -12723,16 +12742,16 @@
       <c r="H19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="88" t="s">
+      <c r="J19" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="86"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="93"/>
+    </row>
+    <row r="20" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>7</v>
       </c>
@@ -12757,7 +12776,7 @@
       <c r="N20" s="56"/>
       <c r="O20" s="56"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>8</v>
       </c>
@@ -12784,7 +12803,7 @@
       <c r="N21" s="56"/>
       <c r="O21" s="56"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>9</v>
       </c>
@@ -12809,7 +12828,7 @@
       <c r="N22" s="56"/>
       <c r="O22" s="56"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>10</v>
       </c>
@@ -12836,7 +12855,7 @@
       <c r="N23" s="56"/>
       <c r="O23" s="56"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>11</v>
       </c>
@@ -12863,19 +12882,19 @@
       <c r="N24" s="56"/>
       <c r="O24" s="56"/>
     </row>
-    <row r="25" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="91" t="s">
+    <row r="25" spans="2:15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="88" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="90"/>
+    </row>
+    <row r="27" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
         <v>164</v>
       </c>
@@ -12898,7 +12917,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="26">
         <v>1</v>
       </c>
@@ -12921,7 +12940,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -12942,7 +12961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>3</v>
       </c>
@@ -12962,16 +12981,16 @@
       <c r="H30" s="3">
         <v>255</v>
       </c>
-      <c r="J30" s="88" t="s">
+      <c r="J30" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="86"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="93"/>
+    </row>
+    <row r="31" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>4</v>
       </c>
@@ -12992,7 +13011,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -13013,7 +13032,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>6</v>
       </c>
@@ -13033,16 +13052,16 @@
       <c r="H33" s="3">
         <v>10</v>
       </c>
-      <c r="J33" s="88" t="s">
+      <c r="J33" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="86"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="93"/>
+    </row>
+    <row r="34" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>7</v>
       </c>
@@ -13067,7 +13086,7 @@
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>8</v>
       </c>
@@ -13094,7 +13113,7 @@
       <c r="N35" s="56"/>
       <c r="O35" s="56"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>9</v>
       </c>
@@ -13119,7 +13138,7 @@
       <c r="N36" s="56"/>
       <c r="O36" s="56"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>10</v>
       </c>
@@ -13146,7 +13165,7 @@
       <c r="N37" s="56"/>
       <c r="O37" s="56"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>11</v>
       </c>
@@ -13167,19 +13186,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="101" t="s">
+    <row r="41" spans="2:15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="96" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="103"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="98"/>
+    </row>
+    <row r="43" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B43" s="27" t="s">
         <v>164</v>
       </c>
@@ -13202,7 +13221,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -13225,7 +13244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -13244,7 +13263,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>3</v>
       </c>
@@ -13263,7 +13282,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>4</v>
       </c>
@@ -13284,7 +13303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>5</v>
       </c>
@@ -13303,7 +13322,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>6</v>
       </c>
@@ -13324,7 +13343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>7</v>
       </c>
@@ -13345,19 +13364,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="91" t="s">
+    <row r="52" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="93"/>
-    </row>
-    <row r="54" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="90"/>
+    </row>
+    <row r="54" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="22" t="s">
         <v>164</v>
       </c>
@@ -13380,7 +13399,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" s="15">
         <v>1</v>
       </c>
@@ -13403,7 +13422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" s="34">
         <v>2</v>
       </c>
@@ -13426,7 +13445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B57" s="34">
         <v>3</v>
       </c>
@@ -13447,7 +13466,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -13460,7 +13479,7 @@
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -13475,7 +13494,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -13488,7 +13507,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -13503,7 +13522,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -13518,19 +13537,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="91" t="s">
+    <row r="64" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="92"/>
-      <c r="H65" s="93"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="90"/>
+    </row>
+    <row r="66" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B66" s="27" t="s">
         <v>164</v>
       </c>
@@ -13553,7 +13572,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B67" s="34">
         <v>1</v>
       </c>
@@ -13576,7 +13595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="34">
         <v>2</v>
       </c>
@@ -13595,7 +13614,7 @@
       </c>
       <c r="H68" s="35"/>
     </row>
-    <row r="69" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="34"/>
       <c r="C69" s="3" t="s">
         <v>204</v>
@@ -13611,17 +13630,17 @@
         <v>188</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="J69" s="88" t="s">
+      <c r="J69" s="91" t="s">
         <v>237</v>
       </c>
-      <c r="K69" s="89"/>
-      <c r="L69" s="89"/>
-      <c r="M69" s="89"/>
-      <c r="N69" s="89"/>
-      <c r="O69" s="89"/>
-      <c r="P69" s="90"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K69" s="94"/>
+      <c r="L69" s="94"/>
+      <c r="M69" s="94"/>
+      <c r="N69" s="94"/>
+      <c r="O69" s="94"/>
+      <c r="P69" s="95"/>
+    </row>
+    <row r="70" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B70" s="34"/>
       <c r="C70" s="3" t="s">
         <v>204</v>
@@ -13647,7 +13666,7 @@
       <c r="O70" s="55"/>
       <c r="P70" s="55"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B71" s="34"/>
       <c r="C71" s="3" t="s">
         <v>204</v>
@@ -13671,7 +13690,7 @@
       <c r="O71" s="55"/>
       <c r="P71" s="55"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B72" s="34"/>
       <c r="C72" s="3" t="s">
         <v>204</v>
@@ -13697,7 +13716,7 @@
       <c r="O72" s="55"/>
       <c r="P72" s="55"/>
     </row>
-    <row r="73" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="18"/>
       <c r="C73" s="3" t="s">
         <v>204</v>
@@ -13723,7 +13742,7 @@
       <c r="O73" s="55"/>
       <c r="P73" s="55"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J74" s="55"/>
       <c r="K74" s="55"/>
       <c r="L74" s="55"/>
@@ -13732,8 +13751,8 @@
       <c r="O74" s="55"/>
       <c r="P74" s="55"/>
     </row>
-    <row r="75" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:16" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="81" t="s">
         <v>238</v>
       </c>
@@ -13744,7 +13763,7 @@
       <c r="G76" s="82"/>
       <c r="H76" s="83"/>
     </row>
-    <row r="77" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="22" t="s">
         <v>164</v>
       </c>
@@ -13767,7 +13786,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B78" s="15">
         <v>1</v>
       </c>
@@ -13790,7 +13809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B79" s="34">
         <v>2</v>
       </c>
@@ -13811,7 +13830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B80" s="34">
         <v>3</v>
       </c>
@@ -13834,7 +13853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B81" s="45">
         <v>4</v>
       </c>
@@ -13855,7 +13874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B82" s="34">
         <v>5</v>
       </c>
@@ -13874,7 +13893,7 @@
       </c>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B83" s="45">
         <v>6</v>
       </c>
@@ -13895,7 +13914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B84" s="34">
         <v>7</v>
       </c>
@@ -13914,7 +13933,7 @@
       </c>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B85" s="45">
         <v>8</v>
       </c>
@@ -13935,7 +13954,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B86" s="34">
         <v>9</v>
       </c>
@@ -13956,19 +13975,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="94" t="s">
+    <row r="89" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="95"/>
-      <c r="D90" s="95"/>
-      <c r="E90" s="95"/>
-      <c r="F90" s="95"/>
-      <c r="G90" s="95"/>
-      <c r="H90" s="96"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="79"/>
+      <c r="H90" s="80"/>
+    </row>
+    <row r="91" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B91" s="31" t="s">
         <v>164</v>
       </c>
@@ -13991,7 +14010,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B92" s="34">
         <v>1</v>
       </c>
@@ -14014,7 +14033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B93" s="34">
         <v>2</v>
       </c>
@@ -14035,7 +14054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B94" s="34">
         <v>3</v>
       </c>
@@ -14056,7 +14075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B95" s="34">
         <v>4</v>
       </c>
@@ -14077,7 +14096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B96" s="34">
         <v>5</v>
       </c>
@@ -14098,7 +14117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B97" s="45">
         <v>6</v>
       </c>
@@ -14119,7 +14138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B98" s="34">
         <v>7</v>
       </c>
@@ -14138,7 +14157,7 @@
       </c>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B99" s="34">
         <v>8</v>
       </c>
@@ -14159,7 +14178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B100" s="45">
         <v>9</v>
       </c>
@@ -14178,7 +14197,7 @@
       </c>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B101" s="34">
         <v>10</v>
       </c>
@@ -14199,7 +14218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B102" s="34">
         <v>11</v>
       </c>
@@ -14220,8 +14239,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B106" s="81" t="s">
         <v>247</v>
       </c>
@@ -14232,7 +14251,7 @@
       <c r="G106" s="82"/>
       <c r="H106" s="83"/>
     </row>
-    <row r="107" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="49" t="s">
         <v>164</v>
       </c>
@@ -14255,7 +14274,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B108" s="15">
         <v>1</v>
       </c>
@@ -14278,7 +14297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B109" s="34">
         <v>2</v>
       </c>
@@ -14299,7 +14318,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B110" s="34">
         <v>3</v>
       </c>
@@ -14320,7 +14339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B111" s="34">
         <v>4</v>
       </c>
@@ -14343,7 +14362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B112" s="34">
         <v>5</v>
       </c>
@@ -14366,7 +14385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B113" s="34">
         <v>6</v>
       </c>
@@ -14389,7 +14408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B114" s="34">
         <v>7</v>
       </c>
@@ -14408,7 +14427,7 @@
       </c>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B115" s="34">
         <v>8</v>
       </c>
@@ -14429,7 +14448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B116" s="34">
         <v>9</v>
       </c>
@@ -14448,7 +14467,7 @@
       </c>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B117" s="34">
         <v>10</v>
       </c>
@@ -14469,7 +14488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="34">
         <v>11</v>
       </c>
@@ -14490,8 +14509,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B120" s="81" t="s">
         <v>259</v>
       </c>
@@ -14502,7 +14521,7 @@
       <c r="G120" s="82"/>
       <c r="H120" s="83"/>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B121" s="27" t="s">
         <v>164</v>
       </c>
@@ -14525,7 +14544,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B122" s="34">
         <v>1</v>
       </c>
@@ -14545,7 +14564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B123" s="45">
         <v>2</v>
       </c>
@@ -14568,7 +14587,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B124" s="34">
         <v>3</v>
       </c>
@@ -14587,7 +14606,7 @@
       </c>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B125" s="45">
         <v>4</v>
       </c>
@@ -14608,7 +14627,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B126" s="34">
         <v>5</v>
       </c>
@@ -14627,7 +14646,7 @@
       </c>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B127" s="45">
         <v>6</v>
       </c>
@@ -14648,7 +14667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="34">
         <v>7</v>
       </c>
@@ -14669,17 +14688,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F129" s="47"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F130" s="38"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="133" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="133" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B133" s="81" t="s">
         <v>261</v>
       </c>
@@ -14690,7 +14709,7 @@
       <c r="G133" s="82"/>
       <c r="H133" s="83"/>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B134" s="32" t="s">
         <v>164</v>
       </c>
@@ -14713,7 +14732,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B135" s="3">
         <v>1</v>
       </c>
@@ -14734,7 +14753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B136" s="3">
         <v>2</v>
       </c>
@@ -14757,7 +14776,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B137" s="3">
         <v>3</v>
       </c>
@@ -14776,7 +14795,7 @@
       </c>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B138" s="3">
         <v>4</v>
       </c>
@@ -14797,7 +14816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B139" s="3">
         <v>5</v>
       </c>
@@ -14816,7 +14835,7 @@
       </c>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B140" s="3">
         <v>6</v>
       </c>
@@ -14837,7 +14856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B141" s="3">
         <v>7</v>
       </c>
@@ -14858,8 +14877,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="144" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B144" s="81" t="s">
         <v>264</v>
       </c>
@@ -14870,7 +14889,7 @@
       <c r="G144" s="82"/>
       <c r="H144" s="83"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B145" s="27" t="s">
         <v>164</v>
       </c>
@@ -14893,7 +14912,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B146" s="34">
         <v>1</v>
       </c>
@@ -14913,7 +14932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B147" s="45">
         <v>2</v>
       </c>
@@ -14936,7 +14955,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B148" s="34">
         <v>3</v>
       </c>
@@ -14955,7 +14974,7 @@
       </c>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B149" s="45">
         <v>4</v>
       </c>
@@ -14976,7 +14995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B150" s="34">
         <v>5</v>
       </c>
@@ -14995,7 +15014,7 @@
       </c>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B151" s="45">
         <v>6</v>
       </c>
@@ -15016,7 +15035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B152" s="34">
         <v>7</v>
       </c>
@@ -15037,8 +15056,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="155" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="155" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B155" s="81" t="s">
         <v>268</v>
       </c>
@@ -15049,7 +15068,7 @@
       <c r="G155" s="82"/>
       <c r="H155" s="83"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B156" s="22" t="s">
         <v>164</v>
       </c>
@@ -15072,7 +15091,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B157" s="3">
         <v>1</v>
       </c>
@@ -15095,7 +15114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B158" s="3">
         <v>2</v>
       </c>
@@ -15116,7 +15135,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B159" s="3">
         <v>3</v>
       </c>
@@ -15135,7 +15154,7 @@
       </c>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B160" s="3">
         <v>4</v>
       </c>
@@ -15156,7 +15175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B161" s="3">
         <v>5</v>
       </c>
@@ -15175,7 +15194,7 @@
       </c>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B162" s="3">
         <v>6</v>
       </c>
@@ -15196,7 +15215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B163" s="3">
         <v>7</v>
       </c>
@@ -15217,18 +15236,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="87" t="s">
+    <row r="166" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B166" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="87"/>
-      <c r="D166" s="87"/>
-      <c r="E166" s="87"/>
-      <c r="F166" s="87"/>
-      <c r="G166" s="87"/>
-      <c r="H166" s="87"/>
-    </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C166" s="100"/>
+      <c r="D166" s="100"/>
+      <c r="E166" s="100"/>
+      <c r="F166" s="100"/>
+      <c r="G166" s="100"/>
+      <c r="H166" s="100"/>
+    </row>
+    <row r="167" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B167" s="22" t="s">
         <v>164</v>
       </c>
@@ -15251,7 +15270,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B168" s="3">
         <v>1</v>
       </c>
@@ -15274,7 +15293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B169" s="3">
         <v>2</v>
       </c>
@@ -15294,18 +15313,18 @@
       <c r="H169" s="3">
         <v>155</v>
       </c>
-      <c r="J169" s="88" t="s">
+      <c r="J169" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="K169" s="89"/>
-      <c r="L169" s="89"/>
-      <c r="M169" s="89"/>
-      <c r="N169" s="89"/>
-      <c r="O169" s="89"/>
-      <c r="P169" s="89"/>
-      <c r="Q169" s="90"/>
-    </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K169" s="94"/>
+      <c r="L169" s="94"/>
+      <c r="M169" s="94"/>
+      <c r="N169" s="94"/>
+      <c r="O169" s="94"/>
+      <c r="P169" s="94"/>
+      <c r="Q169" s="95"/>
+    </row>
+    <row r="170" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B170" s="3">
         <v>3</v>
       </c>
@@ -15324,7 +15343,7 @@
       </c>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B171" s="3">
         <v>4</v>
       </c>
@@ -15345,7 +15364,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B172" s="3">
         <v>5</v>
       </c>
@@ -15364,7 +15383,7 @@
       </c>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B173" s="3">
         <v>6</v>
       </c>
@@ -15385,7 +15404,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B174" s="3">
         <v>7</v>
       </c>
@@ -15406,19 +15425,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="176" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="91" t="s">
+    <row r="175" spans="2:17" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="176" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B176" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="C176" s="92"/>
-      <c r="D176" s="92"/>
-      <c r="E176" s="92"/>
-      <c r="F176" s="92"/>
-      <c r="G176" s="92"/>
-      <c r="H176" s="93"/>
-    </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C176" s="89"/>
+      <c r="D176" s="89"/>
+      <c r="E176" s="89"/>
+      <c r="F176" s="89"/>
+      <c r="G176" s="89"/>
+      <c r="H176" s="90"/>
+    </row>
+    <row r="177" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B177" s="22" t="s">
         <v>164</v>
       </c>
@@ -15441,7 +15460,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B178" s="3">
         <v>1</v>
       </c>
@@ -15460,7 +15479,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B179" s="3">
         <v>2</v>
       </c>
@@ -15476,18 +15495,18 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="J179" s="88" t="s">
+      <c r="J179" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="K179" s="89"/>
-      <c r="L179" s="89"/>
-      <c r="M179" s="89"/>
-      <c r="N179" s="89"/>
-      <c r="O179" s="89"/>
-      <c r="P179" s="89"/>
-      <c r="Q179" s="90"/>
-    </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K179" s="94"/>
+      <c r="L179" s="94"/>
+      <c r="M179" s="94"/>
+      <c r="N179" s="94"/>
+      <c r="O179" s="94"/>
+      <c r="P179" s="94"/>
+      <c r="Q179" s="95"/>
+    </row>
+    <row r="180" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B180" s="3">
         <v>3</v>
       </c>
@@ -15506,7 +15525,7 @@
       </c>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B181" s="3">
         <v>4</v>
       </c>
@@ -15527,7 +15546,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B182" s="3">
         <v>5</v>
       </c>
@@ -15546,7 +15565,7 @@
       </c>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B183" s="3">
         <v>6</v>
       </c>
@@ -15567,7 +15586,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B184" s="3">
         <v>7</v>
       </c>
@@ -15588,8 +15607,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="187" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:17" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="187" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B187" s="81" t="s">
         <v>287</v>
       </c>
@@ -15600,7 +15619,7 @@
       <c r="G187" s="82"/>
       <c r="H187" s="83"/>
     </row>
-    <row r="188" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B188" s="22" t="s">
         <v>164</v>
       </c>
@@ -15623,7 +15642,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B189" s="15">
         <v>1</v>
       </c>
@@ -15642,7 +15661,7 @@
       <c r="G189" s="16"/>
       <c r="H189" s="17"/>
     </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B190" s="34">
         <v>2</v>
       </c>
@@ -15661,7 +15680,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="35"/>
     </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B191" s="34">
         <v>3</v>
       </c>
@@ -15680,7 +15699,7 @@
       <c r="G191" s="50"/>
       <c r="H191" s="44"/>
     </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B192" s="34">
         <v>4</v>
       </c>
@@ -15699,7 +15718,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="35"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B193" s="34">
         <v>3</v>
       </c>
@@ -15718,7 +15737,7 @@
       </c>
       <c r="H193" s="35"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B194" s="34">
         <v>4</v>
       </c>
@@ -15739,7 +15758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B195" s="34">
         <v>5</v>
       </c>
@@ -15758,7 +15777,7 @@
       </c>
       <c r="H195" s="35"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B196" s="34">
         <v>6</v>
       </c>
@@ -15779,7 +15798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B197" s="18">
         <v>7</v>
       </c>
@@ -15800,8 +15819,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="200" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="200" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B200" s="81" t="s">
         <v>294</v>
       </c>
@@ -15812,7 +15831,7 @@
       <c r="G200" s="82"/>
       <c r="H200" s="83"/>
     </row>
-    <row r="201" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B201" s="22" t="s">
         <v>164</v>
       </c>
@@ -15835,7 +15854,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B202" s="15">
         <v>1</v>
       </c>
@@ -15858,7 +15877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B203" s="34">
         <v>2</v>
       </c>
@@ -15881,7 +15900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B204" s="34">
         <v>3</v>
       </c>
@@ -15904,7 +15923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B205" s="34">
         <v>4</v>
       </c>
@@ -15923,7 +15942,7 @@
       </c>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B206" s="34">
         <v>3</v>
       </c>
@@ -15942,7 +15961,7 @@
       </c>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B207" s="34">
         <v>4</v>
       </c>
@@ -15963,7 +15982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B208" s="34">
         <v>5</v>
       </c>
@@ -15982,7 +16001,7 @@
       </c>
       <c r="H208" s="35"/>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B209" s="34">
         <v>6</v>
       </c>
@@ -16003,7 +16022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B210" s="18">
         <v>7</v>
       </c>
@@ -16022,7 +16041,7 @@
       </c>
       <c r="H210" s="35"/>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B211" s="34">
         <v>8</v>
       </c>
@@ -16043,7 +16062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B212" s="18">
         <v>9</v>
       </c>
@@ -16064,8 +16083,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="215" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="215" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B215" s="81" t="s">
         <v>299</v>
       </c>
@@ -16076,7 +16095,7 @@
       <c r="G215" s="82"/>
       <c r="H215" s="83"/>
     </row>
-    <row r="216" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B216" s="22" t="s">
         <v>164</v>
       </c>
@@ -16099,7 +16118,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B217" s="15">
         <v>1</v>
       </c>
@@ -16122,7 +16141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B218" s="34">
         <v>2</v>
       </c>
@@ -16141,7 +16160,7 @@
       <c r="G218" s="3"/>
       <c r="H218" s="35"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B219" s="34">
         <v>3</v>
       </c>
@@ -16158,7 +16177,7 @@
       <c r="G219" s="3"/>
       <c r="H219" s="35"/>
     </row>
-    <row r="220" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B220" s="34">
         <v>4</v>
       </c>
@@ -16175,7 +16194,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="35"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B221" s="15">
         <v>5</v>
       </c>
@@ -16192,7 +16211,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="35"/>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B222" s="34">
         <v>6</v>
       </c>
@@ -16209,7 +16228,7 @@
       <c r="G222" s="3"/>
       <c r="H222" s="35"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B223" s="34">
         <v>7</v>
       </c>
@@ -16228,7 +16247,7 @@
       </c>
       <c r="H223" s="35"/>
     </row>
-    <row r="224" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B224" s="34">
         <v>8</v>
       </c>
@@ -16249,7 +16268,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B225" s="15">
         <v>9</v>
       </c>
@@ -16268,7 +16287,7 @@
       </c>
       <c r="H225" s="35"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B226" s="34">
         <v>10</v>
       </c>
@@ -16289,7 +16308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B227" s="18">
         <v>11</v>
       </c>
@@ -16310,8 +16329,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="230" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="230" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B230" s="81" t="s">
         <v>307</v>
       </c>
@@ -16322,7 +16341,7 @@
       <c r="G230" s="82"/>
       <c r="H230" s="83"/>
     </row>
-    <row r="231" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B231" s="22" t="s">
         <v>164</v>
       </c>
@@ -16345,7 +16364,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B232" s="15">
         <v>1</v>
       </c>
@@ -16368,7 +16387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B233" s="34">
         <v>2</v>
       </c>
@@ -16387,7 +16406,7 @@
       </c>
       <c r="H233" s="35"/>
     </row>
-    <row r="234" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B234" s="15">
         <v>3</v>
       </c>
@@ -16406,7 +16425,7 @@
       </c>
       <c r="H234" s="35"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B235" s="15">
         <v>4</v>
       </c>
@@ -16425,7 +16444,7 @@
       </c>
       <c r="H235" s="35"/>
     </row>
-    <row r="236" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B236" s="34">
         <v>5</v>
       </c>
@@ -16446,7 +16465,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B237" s="15">
         <v>6</v>
       </c>
@@ -16465,7 +16484,7 @@
       </c>
       <c r="H237" s="35"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B238" s="15">
         <v>7</v>
       </c>
@@ -16486,7 +16505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B239" s="34">
         <v>8</v>
       </c>
@@ -16507,8 +16526,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="242" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="242" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B242" s="81" t="s">
         <v>310</v>
       </c>
@@ -16519,7 +16538,7 @@
       <c r="G242" s="82"/>
       <c r="H242" s="83"/>
     </row>
-    <row r="243" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B243" s="22" t="s">
         <v>164</v>
       </c>
@@ -16542,7 +16561,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B244" s="15">
         <v>1</v>
       </c>
@@ -16565,7 +16584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B245" s="34">
         <v>2</v>
       </c>
@@ -16588,7 +16607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B246" s="34">
         <v>3</v>
       </c>
@@ -16609,7 +16628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B247" s="34">
         <v>4</v>
       </c>
@@ -16630,7 +16649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B248" s="34">
         <v>5</v>
       </c>
@@ -16651,7 +16670,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B249" s="34">
         <v>6</v>
       </c>
@@ -16672,7 +16691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B250" s="34">
         <v>7</v>
       </c>
@@ -16693,7 +16712,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B251" s="34">
         <v>8</v>
       </c>
@@ -16714,7 +16733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B252" s="34">
         <v>9</v>
       </c>
@@ -16735,7 +16754,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B253" s="34">
         <v>10</v>
       </c>
@@ -16754,7 +16773,7 @@
       </c>
       <c r="H253" s="35"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B254" s="34">
         <v>11</v>
       </c>
@@ -16775,7 +16794,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B255" s="34">
         <v>12</v>
       </c>
@@ -16794,7 +16813,7 @@
       </c>
       <c r="H255" s="35"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B256" s="34">
         <v>13</v>
       </c>
@@ -16815,7 +16834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B257" s="18">
         <v>14</v>
       </c>
@@ -16836,8 +16855,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="260" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="260" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B260" s="81" t="s">
         <v>319</v>
       </c>
@@ -16848,7 +16867,7 @@
       <c r="G260" s="82"/>
       <c r="H260" s="83"/>
     </row>
-    <row r="261" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B261" s="22" t="s">
         <v>164</v>
       </c>
@@ -16871,7 +16890,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B262" s="15">
         <v>1</v>
       </c>
@@ -16892,7 +16911,7 @@
       </c>
       <c r="H262" s="17"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B263" s="34">
         <v>2</v>
       </c>
@@ -16911,7 +16930,7 @@
       </c>
       <c r="H263" s="35"/>
     </row>
-    <row r="264" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B264" s="34">
         <v>3</v>
       </c>
@@ -16930,7 +16949,7 @@
       </c>
       <c r="H264" s="35"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B265" s="15">
         <v>4</v>
       </c>
@@ -16949,7 +16968,7 @@
       </c>
       <c r="H265" s="35"/>
     </row>
-    <row r="266" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B266" s="34">
         <v>5</v>
       </c>
@@ -16968,7 +16987,7 @@
       </c>
       <c r="H266" s="35"/>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B267" s="15">
         <v>6</v>
       </c>
@@ -16987,7 +17006,7 @@
       </c>
       <c r="H267" s="54"/>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B268" s="34">
         <v>7</v>
       </c>
@@ -17008,7 +17027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="269" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B269" s="34">
         <v>8</v>
       </c>
@@ -17027,7 +17046,7 @@
       </c>
       <c r="H269" s="35"/>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B270" s="15">
         <v>9</v>
       </c>
@@ -17048,7 +17067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="271" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B271" s="18">
         <v>10</v>
       </c>
@@ -17069,8 +17088,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="274" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:16" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="274" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B274" s="81" t="s">
         <v>323</v>
       </c>
@@ -17081,7 +17100,7 @@
       <c r="G274" s="82"/>
       <c r="H274" s="83"/>
     </row>
-    <row r="275" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B275" s="22" t="s">
         <v>164</v>
       </c>
@@ -17104,7 +17123,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="276" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B276" s="15">
         <v>1</v>
       </c>
@@ -17125,7 +17144,7 @@
       </c>
       <c r="H276" s="17"/>
     </row>
-    <row r="277" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B277" s="34">
         <v>2</v>
       </c>
@@ -17145,17 +17164,17 @@
         <v>184</v>
       </c>
       <c r="H277" s="35"/>
-      <c r="J277" s="84" t="s">
+      <c r="J277" s="99" t="s">
         <v>327</v>
       </c>
-      <c r="K277" s="85"/>
-      <c r="L277" s="85"/>
-      <c r="M277" s="85"/>
-      <c r="N277" s="85"/>
-      <c r="O277" s="85"/>
-      <c r="P277" s="86"/>
-    </row>
-    <row r="278" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K277" s="92"/>
+      <c r="L277" s="92"/>
+      <c r="M277" s="92"/>
+      <c r="N277" s="92"/>
+      <c r="O277" s="92"/>
+      <c r="P277" s="93"/>
+    </row>
+    <row r="278" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B278" s="34">
         <v>3</v>
       </c>
@@ -17174,7 +17193,7 @@
       </c>
       <c r="H278" s="54"/>
     </row>
-    <row r="279" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B279" s="15">
         <v>4</v>
       </c>
@@ -17195,7 +17214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B280" s="34">
         <v>5</v>
       </c>
@@ -17214,7 +17233,7 @@
       </c>
       <c r="H280" s="35"/>
     </row>
-    <row r="281" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B281" s="34">
         <v>6</v>
       </c>
@@ -17235,7 +17254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B282" s="42">
         <v>7</v>
       </c>
@@ -17256,8 +17275,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="285" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:16" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="285" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B285" s="81" t="s">
         <v>329</v>
       </c>
@@ -17268,7 +17287,7 @@
       <c r="G285" s="82"/>
       <c r="H285" s="83"/>
     </row>
-    <row r="286" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B286" s="22" t="s">
         <v>164</v>
       </c>
@@ -17291,7 +17310,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="287" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B287" s="15">
         <v>1</v>
       </c>
@@ -17312,7 +17331,7 @@
       </c>
       <c r="H287" s="17"/>
     </row>
-    <row r="288" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B288" s="34">
         <v>2</v>
       </c>
@@ -17333,7 +17352,7 @@
       </c>
       <c r="H288" s="35"/>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B289" s="15">
         <v>3</v>
       </c>
@@ -17352,7 +17371,7 @@
       </c>
       <c r="H289" s="35"/>
     </row>
-    <row r="290" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B290" s="34">
         <v>4</v>
       </c>
@@ -17371,7 +17390,7 @@
       </c>
       <c r="H290" s="35"/>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B291" s="15">
         <v>5</v>
       </c>
@@ -17390,7 +17409,7 @@
       </c>
       <c r="H291" s="35"/>
     </row>
-    <row r="292" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B292" s="34">
         <v>6</v>
       </c>
@@ -17409,7 +17428,7 @@
       </c>
       <c r="H292" s="35"/>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B293" s="15">
         <v>7</v>
       </c>
@@ -17430,7 +17449,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B294" s="34">
         <v>8</v>
       </c>
@@ -17449,7 +17468,7 @@
       </c>
       <c r="H294" s="35"/>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B295" s="15">
         <v>9</v>
       </c>
@@ -17470,7 +17489,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B296" s="18">
         <v>10</v>
       </c>
@@ -17491,17 +17510,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B299" s="80" t="s">
+    <row r="299" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B299" s="101" t="s">
         <v>194</v>
       </c>
-      <c r="C299" s="80"/>
-      <c r="D299" s="80"/>
-      <c r="E299" s="80"/>
-      <c r="F299" s="80"/>
-      <c r="G299" s="80"/>
-    </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C299" s="101"/>
+      <c r="D299" s="101"/>
+      <c r="E299" s="101"/>
+      <c r="F299" s="101"/>
+      <c r="G299" s="101"/>
+    </row>
+    <row r="300" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B300" s="11" t="s">
         <v>179</v>
       </c>
@@ -17521,7 +17540,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B301" s="3">
         <v>1</v>
       </c>
@@ -17541,7 +17560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B302" s="3">
         <v>2</v>
       </c>
@@ -17561,7 +17580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B303" s="34">
         <v>6</v>
       </c>
@@ -17580,7 +17599,7 @@
       </c>
       <c r="H303" s="35"/>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B304" s="15">
         <v>7</v>
       </c>
@@ -17601,7 +17620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="305" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B305" s="34">
         <v>8</v>
       </c>
@@ -17620,7 +17639,7 @@
       </c>
       <c r="H305" s="35"/>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B306" s="15">
         <v>9</v>
       </c>
@@ -17641,7 +17660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B307" s="18">
         <v>10</v>
       </c>
@@ -17662,8 +17681,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="310" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="310" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B310" s="81" t="s">
         <v>333</v>
       </c>
@@ -17674,7 +17693,7 @@
       <c r="G310" s="82"/>
       <c r="H310" s="83"/>
     </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B311" s="22" t="s">
         <v>164</v>
       </c>
@@ -17697,7 +17716,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B312" s="3">
         <v>1</v>
       </c>
@@ -17714,7 +17733,7 @@
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B313" s="3">
         <v>2</v>
       </c>
@@ -17733,7 +17752,7 @@
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B314" s="3">
         <v>3</v>
       </c>
@@ -17750,7 +17769,7 @@
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B315" s="3">
         <v>4</v>
       </c>
@@ -17767,7 +17786,7 @@
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B316" s="3">
         <v>5</v>
       </c>
@@ -17786,7 +17805,7 @@
       </c>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B317" s="3">
         <v>6</v>
       </c>
@@ -17807,7 +17826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B318" s="3">
         <v>7</v>
       </c>
@@ -17826,7 +17845,7 @@
       </c>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B319" s="3">
         <v>8</v>
       </c>
@@ -17847,7 +17866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B320" s="3">
         <v>9</v>
       </c>
@@ -17870,6 +17889,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B299:G299"/>
+    <mergeCell ref="B310:H310"/>
+    <mergeCell ref="B285:H285"/>
+    <mergeCell ref="B230:H230"/>
+    <mergeCell ref="B242:H242"/>
+    <mergeCell ref="B260:H260"/>
+    <mergeCell ref="B274:H274"/>
+    <mergeCell ref="J277:P277"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="J169:Q169"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="J179:Q179"/>
     <mergeCell ref="B90:H90"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B120:H120"/>
@@ -17885,24 +17922,6 @@
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="B65:H65"/>
-    <mergeCell ref="J277:P277"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="J169:Q169"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="J179:Q179"/>
-    <mergeCell ref="B299:G299"/>
-    <mergeCell ref="B310:H310"/>
-    <mergeCell ref="B285:H285"/>
-    <mergeCell ref="B230:H230"/>
-    <mergeCell ref="B242:H242"/>
-    <mergeCell ref="B260:H260"/>
-    <mergeCell ref="B274:H274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Traditional Yoga Updated Document.xlsx
+++ b/Traditional Yoga Updated Document.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="395">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -1200,13 +1200,22 @@
   </si>
   <si>
     <t>karthik</t>
+  </si>
+  <si>
+    <t>Pending Angular Binding</t>
+  </si>
+  <si>
+    <t>Only Upload</t>
+  </si>
+  <si>
+    <t>Clarification Needed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,6 +1248,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1802,7 +1819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1921,6 +1938,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1992,11 +2023,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2447,13 +2473,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="102" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="78" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.28515625" customWidth="1"/>
@@ -2464,13 +2490,13 @@
     <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="102"/>
+    <col min="12" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:11" s="103" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="79" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="67" t="s">
         <v>164</v>
@@ -3314,7 +3340,7 @@
       <c r="C30" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="81" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="75" t="s">
@@ -3620,7 +3646,7 @@
       <c r="C40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="81" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3641,7 +3667,9 @@
       <c r="J40" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="41" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
@@ -3673,14 +3701,14 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="81" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3701,7 +3729,9 @@
       <c r="J42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="43" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="72">
@@ -3834,7 +3864,7 @@
       <c r="C47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="83" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3844,7 +3874,7 @@
         <v>152</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H47" s="64">
         <v>44880</v>
@@ -3855,7 +3885,9 @@
       <c r="J47" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
@@ -3864,7 +3896,7 @@
       <c r="C48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="83" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3874,7 +3906,7 @@
         <v>152</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H48" s="64">
         <v>44881</v>
@@ -3977,14 +4009,14 @@
       </c>
       <c r="K51" s="72"/>
     </row>
-    <row r="52" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="83" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -3994,7 +4026,7 @@
         <v>152</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H52" s="64">
         <v>44882</v>
@@ -4005,7 +4037,9 @@
       <c r="J52" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="53" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
@@ -4037,14 +4071,14 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="83" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4054,7 +4088,7 @@
         <v>152</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H54" s="64">
         <v>44882</v>
@@ -4065,7 +4099,9 @@
       <c r="J54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="55" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="72">
@@ -4097,14 +4133,14 @@
       </c>
       <c r="K55" s="72"/>
     </row>
-    <row r="56" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>58</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="104" t="s">
+      <c r="D56" s="80" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4127,14 +4163,14 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>60</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="104" t="s">
+      <c r="D57" s="80" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4157,14 +4193,14 @@
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="104" t="s">
+      <c r="D58" s="82" t="s">
         <v>25</v>
       </c>
       <c r="E58" s="1"/>
@@ -4183,24 +4219,28 @@
       <c r="J58" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K58" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>64</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="104" t="s">
+      <c r="D59" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="F59" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H59" s="64">
         <v>44886</v>
@@ -4211,24 +4251,28 @@
       <c r="J59" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K59" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>66</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="104" t="s">
+      <c r="D60" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="F60" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H60" s="64">
         <v>44886</v>
@@ -4239,7 +4283,9 @@
       <c r="J60" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="61" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="72">
@@ -4308,7 +4354,7 @@
       <c r="C63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="104" t="s">
+      <c r="D63" s="80" t="s">
         <v>28</v>
       </c>
       <c r="E63" s="1"/>
@@ -4336,7 +4382,7 @@
       <c r="C64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="104" t="s">
+      <c r="D64" s="80" t="s">
         <v>29</v>
       </c>
       <c r="E64" s="1"/>
@@ -4357,7 +4403,7 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="70">
         <v>63</v>
       </c>
@@ -4387,7 +4433,7 @@
       </c>
       <c r="K65" s="70"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="70">
         <v>65</v>
       </c>
@@ -4424,7 +4470,7 @@
       <c r="C67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="104" t="s">
+      <c r="D67" s="80" t="s">
         <v>30</v>
       </c>
       <c r="E67" s="1"/>
@@ -4452,7 +4498,7 @@
       <c r="C68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="104" t="s">
+      <c r="D68" s="80" t="s">
         <v>31</v>
       </c>
       <c r="E68" s="1"/>
@@ -4473,7 +4519,7 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="70">
         <v>67</v>
       </c>
@@ -4503,7 +4549,7 @@
       </c>
       <c r="K69" s="70"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="70">
         <v>69</v>
       </c>
@@ -4540,7 +4586,7 @@
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="104" t="s">
+      <c r="D71" s="80" t="s">
         <v>32</v>
       </c>
       <c r="E71" s="1"/>
@@ -4568,7 +4614,7 @@
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="104" t="s">
+      <c r="D72" s="80" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="1"/>
@@ -4649,14 +4695,14 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="70">
         <v>75</v>
       </c>
       <c r="C75" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="104" t="s">
+      <c r="D75" s="80" t="s">
         <v>32</v>
       </c>
       <c r="E75" s="70" t="s">
@@ -4679,14 +4725,14 @@
       </c>
       <c r="K75" s="70"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="70">
         <v>77</v>
       </c>
       <c r="C76" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D76" s="104" t="s">
+      <c r="D76" s="80" t="s">
         <v>33</v>
       </c>
       <c r="E76" s="70" t="s">
@@ -4709,14 +4755,14 @@
       </c>
       <c r="K76" s="70"/>
     </row>
-    <row r="77" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>80</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="104" t="s">
+      <c r="D77" s="80" t="s">
         <v>34</v>
       </c>
       <c r="E77" s="1"/>
@@ -4744,7 +4790,7 @@
       <c r="C78" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="104" t="s">
+      <c r="D78" s="80" t="s">
         <v>35</v>
       </c>
       <c r="E78" s="1"/>
@@ -12320,9 +12366,9 @@
   </sheetData>
   <autoFilter ref="B2:K349">
     <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+      <filters>
+        <filter val="API"/>
+      </filters>
     </filterColumn>
     <filterColumn colId="5">
       <filters>
@@ -12382,15 +12428,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
@@ -12458,14 +12504,14 @@
       <c r="H4" s="44">
         <v>55</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
     </row>
     <row r="5" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="39">
@@ -12582,15 +12628,15 @@
     </row>
     <row r="11" spans="2:15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
     </row>
     <row r="13" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
@@ -12742,14 +12788,14 @@
       <c r="H19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="91" t="s">
+      <c r="J19" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="93"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="99"/>
     </row>
     <row r="20" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
@@ -12884,15 +12930,15 @@
     </row>
     <row r="25" spans="2:15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="96"/>
     </row>
     <row r="27" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
@@ -12981,14 +13027,14 @@
       <c r="H30" s="3">
         <v>255</v>
       </c>
-      <c r="J30" s="91" t="s">
+      <c r="J30" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="93"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="99"/>
     </row>
     <row r="31" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
@@ -13052,14 +13098,14 @@
       <c r="H33" s="3">
         <v>10</v>
       </c>
-      <c r="J33" s="91" t="s">
+      <c r="J33" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="93"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="99"/>
     </row>
     <row r="34" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
@@ -13188,15 +13234,15 @@
     </row>
     <row r="41" spans="2:15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="98"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="104"/>
     </row>
     <row r="43" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B43" s="27" t="s">
@@ -13366,15 +13412,15 @@
     </row>
     <row r="52" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="88" t="s">
+      <c r="B53" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="90"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="96"/>
     </row>
     <row r="54" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="22" t="s">
@@ -13539,15 +13585,15 @@
     </row>
     <row r="64" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="88" t="s">
+      <c r="B65" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="90"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="96"/>
     </row>
     <row r="66" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B66" s="27" t="s">
@@ -13630,15 +13676,15 @@
         <v>188</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="J69" s="91" t="s">
+      <c r="J69" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="K69" s="94"/>
-      <c r="L69" s="94"/>
-      <c r="M69" s="94"/>
-      <c r="N69" s="94"/>
-      <c r="O69" s="94"/>
-      <c r="P69" s="95"/>
+      <c r="K69" s="100"/>
+      <c r="L69" s="100"/>
+      <c r="M69" s="100"/>
+      <c r="N69" s="100"/>
+      <c r="O69" s="100"/>
+      <c r="P69" s="101"/>
     </row>
     <row r="70" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B70" s="34"/>
@@ -13753,15 +13799,15 @@
     </row>
     <row r="75" spans="2:16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="76" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="81" t="s">
+      <c r="B76" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="83"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="88"/>
+      <c r="H76" s="89"/>
     </row>
     <row r="77" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="22" t="s">
@@ -13977,15 +14023,15 @@
     </row>
     <row r="89" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="78" t="s">
+      <c r="B90" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="79"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="79"/>
-      <c r="F90" s="79"/>
-      <c r="G90" s="79"/>
-      <c r="H90" s="80"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="86"/>
     </row>
     <row r="91" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B91" s="31" t="s">
@@ -14241,15 +14287,15 @@
     </row>
     <row r="105" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="81" t="s">
+      <c r="B106" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="82"/>
-      <c r="H106" s="83"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
+      <c r="H106" s="89"/>
     </row>
     <row r="107" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="49" t="s">
@@ -14511,15 +14557,15 @@
     </row>
     <row r="119" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="120" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="C120" s="82"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="82"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="83"/>
+      <c r="C120" s="88"/>
+      <c r="D120" s="88"/>
+      <c r="E120" s="88"/>
+      <c r="F120" s="88"/>
+      <c r="G120" s="88"/>
+      <c r="H120" s="89"/>
     </row>
     <row r="121" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B121" s="27" t="s">
@@ -14699,15 +14745,15 @@
     </row>
     <row r="132" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="133" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="81" t="s">
+      <c r="B133" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="C133" s="82"/>
-      <c r="D133" s="82"/>
-      <c r="E133" s="82"/>
-      <c r="F133" s="82"/>
-      <c r="G133" s="82"/>
-      <c r="H133" s="83"/>
+      <c r="C133" s="88"/>
+      <c r="D133" s="88"/>
+      <c r="E133" s="88"/>
+      <c r="F133" s="88"/>
+      <c r="G133" s="88"/>
+      <c r="H133" s="89"/>
     </row>
     <row r="134" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B134" s="32" t="s">
@@ -14879,15 +14925,15 @@
     </row>
     <row r="143" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="81" t="s">
+      <c r="B144" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="C144" s="82"/>
-      <c r="D144" s="82"/>
-      <c r="E144" s="82"/>
-      <c r="F144" s="82"/>
-      <c r="G144" s="82"/>
-      <c r="H144" s="83"/>
+      <c r="C144" s="88"/>
+      <c r="D144" s="88"/>
+      <c r="E144" s="88"/>
+      <c r="F144" s="88"/>
+      <c r="G144" s="88"/>
+      <c r="H144" s="89"/>
     </row>
     <row r="145" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B145" s="27" t="s">
@@ -15058,15 +15104,15 @@
     </row>
     <row r="154" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="155" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="81" t="s">
+      <c r="B155" s="87" t="s">
         <v>268</v>
       </c>
-      <c r="C155" s="82"/>
-      <c r="D155" s="82"/>
-      <c r="E155" s="82"/>
-      <c r="F155" s="82"/>
-      <c r="G155" s="82"/>
-      <c r="H155" s="83"/>
+      <c r="C155" s="88"/>
+      <c r="D155" s="88"/>
+      <c r="E155" s="88"/>
+      <c r="F155" s="88"/>
+      <c r="G155" s="88"/>
+      <c r="H155" s="89"/>
     </row>
     <row r="156" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B156" s="22" t="s">
@@ -15237,15 +15283,15 @@
       </c>
     </row>
     <row r="166" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="100" t="s">
+      <c r="B166" s="106" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="100"/>
-      <c r="D166" s="100"/>
-      <c r="E166" s="100"/>
-      <c r="F166" s="100"/>
-      <c r="G166" s="100"/>
-      <c r="H166" s="100"/>
+      <c r="C166" s="106"/>
+      <c r="D166" s="106"/>
+      <c r="E166" s="106"/>
+      <c r="F166" s="106"/>
+      <c r="G166" s="106"/>
+      <c r="H166" s="106"/>
     </row>
     <row r="167" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B167" s="22" t="s">
@@ -15313,16 +15359,16 @@
       <c r="H169" s="3">
         <v>155</v>
       </c>
-      <c r="J169" s="91" t="s">
+      <c r="J169" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="K169" s="94"/>
-      <c r="L169" s="94"/>
-      <c r="M169" s="94"/>
-      <c r="N169" s="94"/>
-      <c r="O169" s="94"/>
-      <c r="P169" s="94"/>
-      <c r="Q169" s="95"/>
+      <c r="K169" s="100"/>
+      <c r="L169" s="100"/>
+      <c r="M169" s="100"/>
+      <c r="N169" s="100"/>
+      <c r="O169" s="100"/>
+      <c r="P169" s="100"/>
+      <c r="Q169" s="101"/>
     </row>
     <row r="170" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B170" s="3">
@@ -15427,15 +15473,15 @@
     </row>
     <row r="175" spans="2:17" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="176" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="88" t="s">
+      <c r="B176" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="C176" s="89"/>
-      <c r="D176" s="89"/>
-      <c r="E176" s="89"/>
-      <c r="F176" s="89"/>
-      <c r="G176" s="89"/>
-      <c r="H176" s="90"/>
+      <c r="C176" s="95"/>
+      <c r="D176" s="95"/>
+      <c r="E176" s="95"/>
+      <c r="F176" s="95"/>
+      <c r="G176" s="95"/>
+      <c r="H176" s="96"/>
     </row>
     <row r="177" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B177" s="22" t="s">
@@ -15495,16 +15541,16 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="J179" s="91" t="s">
+      <c r="J179" s="97" t="s">
         <v>280</v>
       </c>
-      <c r="K179" s="94"/>
-      <c r="L179" s="94"/>
-      <c r="M179" s="94"/>
-      <c r="N179" s="94"/>
-      <c r="O179" s="94"/>
-      <c r="P179" s="94"/>
-      <c r="Q179" s="95"/>
+      <c r="K179" s="100"/>
+      <c r="L179" s="100"/>
+      <c r="M179" s="100"/>
+      <c r="N179" s="100"/>
+      <c r="O179" s="100"/>
+      <c r="P179" s="100"/>
+      <c r="Q179" s="101"/>
     </row>
     <row r="180" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B180" s="3">
@@ -15609,15 +15655,15 @@
     </row>
     <row r="186" spans="2:17" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="187" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="81" t="s">
+      <c r="B187" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="C187" s="82"/>
-      <c r="D187" s="82"/>
-      <c r="E187" s="82"/>
-      <c r="F187" s="82"/>
-      <c r="G187" s="82"/>
-      <c r="H187" s="83"/>
+      <c r="C187" s="88"/>
+      <c r="D187" s="88"/>
+      <c r="E187" s="88"/>
+      <c r="F187" s="88"/>
+      <c r="G187" s="88"/>
+      <c r="H187" s="89"/>
     </row>
     <row r="188" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B188" s="22" t="s">
@@ -15821,15 +15867,15 @@
     </row>
     <row r="199" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="200" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="81" t="s">
+      <c r="B200" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="C200" s="82"/>
-      <c r="D200" s="82"/>
-      <c r="E200" s="82"/>
-      <c r="F200" s="82"/>
-      <c r="G200" s="82"/>
-      <c r="H200" s="83"/>
+      <c r="C200" s="88"/>
+      <c r="D200" s="88"/>
+      <c r="E200" s="88"/>
+      <c r="F200" s="88"/>
+      <c r="G200" s="88"/>
+      <c r="H200" s="89"/>
     </row>
     <row r="201" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B201" s="22" t="s">
@@ -16085,15 +16131,15 @@
     </row>
     <row r="214" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="215" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="81" t="s">
+      <c r="B215" s="87" t="s">
         <v>299</v>
       </c>
-      <c r="C215" s="82"/>
-      <c r="D215" s="82"/>
-      <c r="E215" s="82"/>
-      <c r="F215" s="82"/>
-      <c r="G215" s="82"/>
-      <c r="H215" s="83"/>
+      <c r="C215" s="88"/>
+      <c r="D215" s="88"/>
+      <c r="E215" s="88"/>
+      <c r="F215" s="88"/>
+      <c r="G215" s="88"/>
+      <c r="H215" s="89"/>
     </row>
     <row r="216" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B216" s="22" t="s">
@@ -16331,15 +16377,15 @@
     </row>
     <row r="229" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="230" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="81" t="s">
+      <c r="B230" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="C230" s="82"/>
-      <c r="D230" s="82"/>
-      <c r="E230" s="82"/>
-      <c r="F230" s="82"/>
-      <c r="G230" s="82"/>
-      <c r="H230" s="83"/>
+      <c r="C230" s="88"/>
+      <c r="D230" s="88"/>
+      <c r="E230" s="88"/>
+      <c r="F230" s="88"/>
+      <c r="G230" s="88"/>
+      <c r="H230" s="89"/>
     </row>
     <row r="231" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B231" s="22" t="s">
@@ -16528,15 +16574,15 @@
     </row>
     <row r="241" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="242" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="81" t="s">
+      <c r="B242" s="87" t="s">
         <v>310</v>
       </c>
-      <c r="C242" s="82"/>
-      <c r="D242" s="82"/>
-      <c r="E242" s="82"/>
-      <c r="F242" s="82"/>
-      <c r="G242" s="82"/>
-      <c r="H242" s="83"/>
+      <c r="C242" s="88"/>
+      <c r="D242" s="88"/>
+      <c r="E242" s="88"/>
+      <c r="F242" s="88"/>
+      <c r="G242" s="88"/>
+      <c r="H242" s="89"/>
     </row>
     <row r="243" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B243" s="22" t="s">
@@ -16857,15 +16903,15 @@
     </row>
     <row r="259" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="260" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="81" t="s">
+      <c r="B260" s="87" t="s">
         <v>319</v>
       </c>
-      <c r="C260" s="82"/>
-      <c r="D260" s="82"/>
-      <c r="E260" s="82"/>
-      <c r="F260" s="82"/>
-      <c r="G260" s="82"/>
-      <c r="H260" s="83"/>
+      <c r="C260" s="88"/>
+      <c r="D260" s="88"/>
+      <c r="E260" s="88"/>
+      <c r="F260" s="88"/>
+      <c r="G260" s="88"/>
+      <c r="H260" s="89"/>
     </row>
     <row r="261" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B261" s="22" t="s">
@@ -17090,15 +17136,15 @@
     </row>
     <row r="273" spans="2:16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="274" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="81" t="s">
+      <c r="B274" s="87" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="82"/>
-      <c r="D274" s="82"/>
-      <c r="E274" s="82"/>
-      <c r="F274" s="82"/>
-      <c r="G274" s="82"/>
-      <c r="H274" s="83"/>
+      <c r="C274" s="88"/>
+      <c r="D274" s="88"/>
+      <c r="E274" s="88"/>
+      <c r="F274" s="88"/>
+      <c r="G274" s="88"/>
+      <c r="H274" s="89"/>
     </row>
     <row r="275" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B275" s="22" t="s">
@@ -17164,15 +17210,15 @@
         <v>184</v>
       </c>
       <c r="H277" s="35"/>
-      <c r="J277" s="99" t="s">
+      <c r="J277" s="105" t="s">
         <v>327</v>
       </c>
-      <c r="K277" s="92"/>
-      <c r="L277" s="92"/>
-      <c r="M277" s="92"/>
-      <c r="N277" s="92"/>
-      <c r="O277" s="92"/>
-      <c r="P277" s="93"/>
+      <c r="K277" s="98"/>
+      <c r="L277" s="98"/>
+      <c r="M277" s="98"/>
+      <c r="N277" s="98"/>
+      <c r="O277" s="98"/>
+      <c r="P277" s="99"/>
     </row>
     <row r="278" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B278" s="34">
@@ -17277,15 +17323,15 @@
     </row>
     <row r="284" spans="2:16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="285" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="81" t="s">
+      <c r="B285" s="87" t="s">
         <v>329</v>
       </c>
-      <c r="C285" s="82"/>
-      <c r="D285" s="82"/>
-      <c r="E285" s="82"/>
-      <c r="F285" s="82"/>
-      <c r="G285" s="82"/>
-      <c r="H285" s="83"/>
+      <c r="C285" s="88"/>
+      <c r="D285" s="88"/>
+      <c r="E285" s="88"/>
+      <c r="F285" s="88"/>
+      <c r="G285" s="88"/>
+      <c r="H285" s="89"/>
     </row>
     <row r="286" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B286" s="22" t="s">
@@ -17511,14 +17557,14 @@
       </c>
     </row>
     <row r="299" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B299" s="101" t="s">
+      <c r="B299" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="C299" s="101"/>
-      <c r="D299" s="101"/>
-      <c r="E299" s="101"/>
-      <c r="F299" s="101"/>
-      <c r="G299" s="101"/>
+      <c r="C299" s="107"/>
+      <c r="D299" s="107"/>
+      <c r="E299" s="107"/>
+      <c r="F299" s="107"/>
+      <c r="G299" s="107"/>
     </row>
     <row r="300" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B300" s="11" t="s">
@@ -17683,15 +17729,15 @@
     </row>
     <row r="309" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="310" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B310" s="81" t="s">
+      <c r="B310" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="C310" s="82"/>
-      <c r="D310" s="82"/>
-      <c r="E310" s="82"/>
-      <c r="F310" s="82"/>
-      <c r="G310" s="82"/>
-      <c r="H310" s="83"/>
+      <c r="C310" s="88"/>
+      <c r="D310" s="88"/>
+      <c r="E310" s="88"/>
+      <c r="F310" s="88"/>
+      <c r="G310" s="88"/>
+      <c r="H310" s="89"/>
     </row>
     <row r="311" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B311" s="22" t="s">

--- a/Traditional Yoga Updated Document.xlsx
+++ b/Traditional Yoga Updated Document.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
-    <sheet name="Detailed Plan" sheetId="1" r:id="rId2"/>
-    <sheet name="admin all tables" sheetId="10" r:id="rId3"/>
+    <sheet name="API List" sheetId="11" r:id="rId2"/>
+    <sheet name="Detailed Plan" sheetId="1" r:id="rId3"/>
+    <sheet name="admin all tables" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Detailed Plan'!$B$2:$K$349</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Detailed Plan'!$B$2:$K$349</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="469">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -1209,6 +1211,228 @@
   </si>
   <si>
     <t>Clarification Needed</t>
+  </si>
+  <si>
+    <t>S No</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>API Status</t>
+  </si>
+  <si>
+    <t>Angular Status</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/webSite/getAll?operation=alert</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/webSite/alerts?operation=add</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>/getAll?operation=users</t>
+  </si>
+  <si>
+    <t>/getAll?operation=menus</t>
+  </si>
+  <si>
+    <t>/getAll?operation=subMenus</t>
+  </si>
+  <si>
+    <t>/getAll?operation=roles</t>
+  </si>
+  <si>
+    <t>/getAll?operation=pemissions</t>
+  </si>
+  <si>
+    <t>/user?operation=add</t>
+  </si>
+  <si>
+    <t>/user?operation=save</t>
+  </si>
+  <si>
+    <t>/user?operation=active</t>
+  </si>
+  <si>
+    <t>/user?operation=delete</t>
+  </si>
+  <si>
+    <t>/menus?operation=add</t>
+  </si>
+  <si>
+    <t>/menus?operation=save</t>
+  </si>
+  <si>
+    <t>/menus?operation=active</t>
+  </si>
+  <si>
+    <t>/menus?operation=delete</t>
+  </si>
+  <si>
+    <t>/role?operation=add</t>
+  </si>
+  <si>
+    <t>/role?operation=save</t>
+  </si>
+  <si>
+    <t>/role?operation=active</t>
+  </si>
+  <si>
+    <t>/role?operation=delete</t>
+  </si>
+  <si>
+    <t>/subMenu?operation=add</t>
+  </si>
+  <si>
+    <t>/subMenu?operation=save</t>
+  </si>
+  <si>
+    <t>/subMenu?operation=active</t>
+  </si>
+  <si>
+    <t>/subMenu?operation=delete</t>
+  </si>
+  <si>
+    <t>/rolePermissions?roleId=</t>
+  </si>
+  <si>
+    <t>/saveRolePermission</t>
+  </si>
+  <si>
+    <t>/saveDefaultRolePermission</t>
+  </si>
+  <si>
+    <t>/student/getAll?operation=student</t>
+  </si>
+  <si>
+    <t>/student/getAll?operation=course</t>
+  </si>
+  <si>
+    <t>/student/getAll?operation=donation</t>
+  </si>
+  <si>
+    <t>/student/getAll?operation=ePurchase</t>
+  </si>
+  <si>
+    <t>/student/profile</t>
+  </si>
+  <si>
+    <t>/student/donation</t>
+  </si>
+  <si>
+    <t>/student/purchase</t>
+  </si>
+  <si>
+    <t>/student/volunteer</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>/logout</t>
+  </si>
+  <si>
+    <t>/changePassword</t>
+  </si>
+  <si>
+    <t>Black List</t>
+  </si>
+  <si>
+    <t>/student/getAll?operation=blackListUser</t>
+  </si>
+  <si>
+    <t>/student/blockListUsers?operation=add</t>
+  </si>
+  <si>
+    <t>/student/blockListUsers?operation=delete</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>/webSite/getAll?operation=banner</t>
+  </si>
+  <si>
+    <t>/webSite/banner?operation=add</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Primary Key Missing</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>/student/donationView</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>/course/getAll?operation=courseCategory</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>/course/addCourse</t>
+  </si>
+  <si>
+    <t>Class Media</t>
+  </si>
+  <si>
+    <t>/course/getAll?operation=classMedia</t>
+  </si>
+  <si>
+    <t>Course Media</t>
+  </si>
+  <si>
+    <t>/course/getAll?operation=courseMediaCategory</t>
+  </si>
+  <si>
+    <t>/course/addCourseMedia?type=video</t>
+  </si>
+  <si>
+    <t>/course/addCourseMedia?type=shortVideo</t>
+  </si>
+  <si>
+    <t>/course/addCourseMedia?type=glimpses</t>
+  </si>
+  <si>
+    <t>Sumukesh/ Ajith K</t>
+  </si>
+  <si>
+    <t>Sumukesh / Karthik</t>
+  </si>
+  <si>
+    <t>Praneeth/ karthik</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1334,8 +1558,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1815,11 +2045,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1946,12 +2198,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2024,11 +2270,219 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="13">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2060,6 +2514,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H102" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="B2:H102"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="S No" dataDxfId="6"/>
+    <tableColumn id="2" name="Page" dataDxfId="5"/>
+    <tableColumn id="3" name="Method" dataDxfId="4"/>
+    <tableColumn id="4" name="API" dataDxfId="3"/>
+    <tableColumn id="12" name="API Status" dataDxfId="2"/>
+    <tableColumn id="13" name="Angular Status" dataDxfId="1"/>
+    <tableColumn id="11" name="Remark" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2372,8 +2842,8 @@
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>173</v>
       </c>
@@ -2396,7 +2866,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>174</v>
       </c>
@@ -2407,7 +2877,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="2:8" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>175</v>
       </c>
@@ -2418,7 +2888,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>168</v>
       </c>
@@ -2429,7 +2899,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>176</v>
       </c>
@@ -2440,7 +2910,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>177</v>
       </c>
@@ -2451,7 +2921,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>178</v>
       </c>
@@ -2470,11 +2940,1689 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="106" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>398</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G4" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F5" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G5" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F6" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G6" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F7" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F8" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G8" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F9" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F10" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G10" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G11" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G12" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G13" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G15" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F16" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G16" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F18" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G18" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F19" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G19" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F20" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G20" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F21" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G21" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F22" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G22" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F23" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G23" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F24" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G24" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F25" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G25" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F26" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G26" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F27" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G27" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F28" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G28" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F29" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G29" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F30" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G30" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F31" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G31" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F32" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G32" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F33" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G33" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F34" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G34" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F35" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G35" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F36" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G36" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F37" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G37" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F38" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G38" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F39" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G39" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="D40" s="108" t="s">
+        <v>402</v>
+      </c>
+      <c r="E40" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="F40" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G40" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>39</v>
+      </c>
+      <c r="C41" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="D41" s="108" t="s">
+        <v>404</v>
+      </c>
+      <c r="E41" s="108" t="s">
+        <v>445</v>
+      </c>
+      <c r="F41" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G41" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>40</v>
+      </c>
+      <c r="C42" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="D42" s="108" t="s">
+        <v>404</v>
+      </c>
+      <c r="E42" s="108" t="s">
+        <v>446</v>
+      </c>
+      <c r="F42" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G42" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>41</v>
+      </c>
+      <c r="C43" s="108" t="s">
+        <v>447</v>
+      </c>
+      <c r="D43" s="108" t="s">
+        <v>402</v>
+      </c>
+      <c r="E43" s="108" t="s">
+        <v>448</v>
+      </c>
+      <c r="F43" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G43" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
+        <v>42</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="F44" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="G44" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F45" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G45" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F46" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="G46" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G47" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G48" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>47</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G49" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>48</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G50" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>49</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G51" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>50</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G52" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <v>51</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G53" s="110" t="s">
+        <v>450</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>52</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="3">
+        <v>53</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
+        <v>54</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>55</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>56</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="3">
+        <v>57</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>58</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>59</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>60</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>61</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>62</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>63</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>64</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="3">
+        <v>65</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <v>66</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="3">
+        <v>67</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <v>68</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>69</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>70</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="3">
+        <v>71</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>72</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>73</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>74</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="3">
+        <v>75</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>76</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>77</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="3">
+        <v>78</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="3">
+        <v>79</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="3">
+        <v>80</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>81</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="3">
+        <v>82</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="3">
+        <v>83</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>84</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>85</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="3">
+        <v>86</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="3">
+        <v>87</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="3">
+        <v>88</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
+        <v>89</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="3">
+        <v>90</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="3">
+        <v>91</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="3">
+        <v>92</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="3">
+        <v>93</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>94</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="3">
+        <v>95</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="3">
+        <v>96</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="3">
+        <v>97</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="3">
+        <v>98</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="3">
+        <v>99</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="3">
+        <v>100</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,7 +4644,7 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:11" s="79" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="67" t="s">
         <v>164</v>
@@ -2529,7 +4677,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="72">
         <v>2</v>
       </c>
@@ -2559,7 +4707,7 @@
       </c>
       <c r="K3" s="72"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="72">
         <v>4</v>
       </c>
@@ -2589,7 +4737,7 @@
       </c>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="62">
         <v>6</v>
       </c>
@@ -2619,7 +4767,7 @@
       </c>
       <c r="K5" s="62"/>
     </row>
-    <row r="6" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="62">
         <v>8</v>
       </c>
@@ -2649,7 +4797,7 @@
       </c>
       <c r="K6" s="62"/>
     </row>
-    <row r="7" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="72">
         <v>3</v>
       </c>
@@ -2679,7 +4827,7 @@
       </c>
       <c r="K7" s="72"/>
     </row>
-    <row r="8" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="72">
         <v>5</v>
       </c>
@@ -2709,7 +4857,7 @@
       </c>
       <c r="K8" s="72"/>
     </row>
-    <row r="9" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="62">
         <v>10</v>
       </c>
@@ -2739,7 +4887,7 @@
       </c>
       <c r="K9" s="62"/>
     </row>
-    <row r="10" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72">
         <v>12</v>
       </c>
@@ -2769,7 +4917,7 @@
       </c>
       <c r="K10" s="72"/>
     </row>
-    <row r="11" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="72">
         <v>7</v>
       </c>
@@ -2799,7 +4947,7 @@
       </c>
       <c r="K11" s="72"/>
     </row>
-    <row r="12" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="72">
         <v>9</v>
       </c>
@@ -2829,7 +4977,7 @@
       </c>
       <c r="K12" s="72"/>
     </row>
-    <row r="13" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="72">
         <v>14</v>
       </c>
@@ -2859,7 +5007,7 @@
       </c>
       <c r="K13" s="72"/>
     </row>
-    <row r="14" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="72">
         <v>16</v>
       </c>
@@ -2889,7 +5037,7 @@
       </c>
       <c r="K14" s="72"/>
     </row>
-    <row r="15" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="72">
         <v>11</v>
       </c>
@@ -2919,7 +5067,7 @@
       </c>
       <c r="K15" s="72"/>
     </row>
-    <row r="16" spans="1:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="72">
         <v>13</v>
       </c>
@@ -2949,7 +5097,7 @@
       </c>
       <c r="K16" s="72"/>
     </row>
-    <row r="17" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="72">
         <v>15</v>
       </c>
@@ -2979,7 +5127,7 @@
       </c>
       <c r="K17" s="72"/>
     </row>
-    <row r="18" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72">
         <v>17</v>
       </c>
@@ -3009,7 +5157,7 @@
       </c>
       <c r="K18" s="72"/>
     </row>
-    <row r="19" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="75">
         <v>22</v>
       </c>
@@ -3039,7 +5187,7 @@
       </c>
       <c r="K19" s="75"/>
     </row>
-    <row r="20" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="75">
         <v>24</v>
       </c>
@@ -3069,7 +5217,7 @@
       </c>
       <c r="K20" s="75"/>
     </row>
-    <row r="21" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="75">
         <v>26</v>
       </c>
@@ -3099,7 +5247,7 @@
       </c>
       <c r="K21" s="75"/>
     </row>
-    <row r="22" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="75">
         <v>28</v>
       </c>
@@ -3129,7 +5277,7 @@
       </c>
       <c r="K22" s="75"/>
     </row>
-    <row r="23" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="72">
         <v>23</v>
       </c>
@@ -3159,7 +5307,7 @@
       </c>
       <c r="K23" s="72"/>
     </row>
-    <row r="24" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="75">
         <v>30</v>
       </c>
@@ -3189,7 +5337,7 @@
       </c>
       <c r="K24" s="75"/>
     </row>
-    <row r="25" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="75">
         <v>32</v>
       </c>
@@ -3219,7 +5367,7 @@
       </c>
       <c r="K25" s="75"/>
     </row>
-    <row r="26" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="63">
         <v>1</v>
       </c>
@@ -3243,7 +5391,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="72">
         <v>27</v>
       </c>
@@ -3273,7 +5421,7 @@
       </c>
       <c r="K27" s="72"/>
     </row>
-    <row r="28" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="72">
         <v>29</v>
       </c>
@@ -3303,7 +5451,7 @@
       </c>
       <c r="K28" s="72"/>
     </row>
-    <row r="29" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="75">
         <v>34</v>
       </c>
@@ -3363,7 +5511,7 @@
       </c>
       <c r="K30" s="75"/>
     </row>
-    <row r="31" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>37</v>
       </c>
@@ -3395,7 +5543,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>25</v>
       </c>
@@ -3425,7 +5573,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="72">
         <v>31</v>
       </c>
@@ -3455,7 +5603,7 @@
       </c>
       <c r="K33" s="72"/>
     </row>
-    <row r="34" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="72">
         <v>33</v>
       </c>
@@ -3485,7 +5633,7 @@
       </c>
       <c r="K34" s="72"/>
     </row>
-    <row r="35" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="72">
         <v>35</v>
       </c>
@@ -3515,7 +5663,7 @@
       </c>
       <c r="K35" s="72"/>
     </row>
-    <row r="36" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="75">
         <v>39</v>
       </c>
@@ -3547,7 +5695,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="75">
         <v>41</v>
       </c>
@@ -3579,7 +5727,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="72">
         <v>43</v>
       </c>
@@ -3671,7 +5819,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>42</v>
       </c>
@@ -3733,7 +5881,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="72">
         <v>45</v>
       </c>
@@ -3763,7 +5911,7 @@
       </c>
       <c r="K43" s="72"/>
     </row>
-    <row r="44" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="75">
         <v>47</v>
       </c>
@@ -3795,7 +5943,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="75">
         <v>49</v>
       </c>
@@ -3857,14 +6005,14 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>48</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="83" t="s">
+      <c r="D47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3889,18 +6037,18 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="83" t="s">
+      <c r="D48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>152</v>
@@ -3917,9 +6065,11 @@
       <c r="J48" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K48" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="72">
         <v>51</v>
       </c>
@@ -3979,7 +6129,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="72">
         <v>53</v>
       </c>
@@ -4009,14 +6159,14 @@
       </c>
       <c r="K51" s="72"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4041,7 +6191,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>55</v>
       </c>
@@ -4071,14 +6221,14 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="83" t="s">
+      <c r="D54" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4103,7 +6253,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="72">
         <v>57</v>
       </c>
@@ -4200,15 +6350,17 @@
       <c r="C58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="82" t="s">
+      <c r="D58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="F58" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H58" s="64">
         <v>44886</v>
@@ -4223,18 +6375,18 @@
         <v>394</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>64</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="83" t="s">
+      <c r="D59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>374</v>
+        <v>466</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>152</v>
@@ -4255,18 +6407,18 @@
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>66</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="83" t="s">
+      <c r="D60" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>374</v>
+        <v>467</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>152</v>
@@ -4287,7 +6439,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="72">
         <v>59</v>
       </c>
@@ -4347,7 +6499,7 @@
       </c>
       <c r="K62" s="70"/>
     </row>
-    <row r="63" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>68</v>
       </c>
@@ -4375,7 +6527,7 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>70</v>
       </c>
@@ -4463,7 +6615,7 @@
       </c>
       <c r="K66" s="70"/>
     </row>
-    <row r="67" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>72</v>
       </c>
@@ -4491,7 +6643,7 @@
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>74</v>
       </c>
@@ -4579,7 +6731,7 @@
       </c>
       <c r="K70" s="70"/>
     </row>
-    <row r="71" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>76</v>
       </c>
@@ -4607,7 +6759,7 @@
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>78</v>
       </c>
@@ -4635,7 +6787,7 @@
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>71</v>
       </c>
@@ -4665,7 +6817,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>73</v>
       </c>
@@ -4811,7 +6963,7 @@
       </c>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>79</v>
       </c>
@@ -4839,7 +6991,7 @@
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>81</v>
       </c>
@@ -4867,7 +7019,7 @@
       </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>84</v>
       </c>
@@ -4895,7 +7047,7 @@
       </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>86</v>
       </c>
@@ -4923,7 +7075,7 @@
       </c>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>83</v>
       </c>
@@ -4951,7 +7103,7 @@
       </c>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>85</v>
       </c>
@@ -4979,7 +7131,7 @@
       </c>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>88</v>
       </c>
@@ -5007,7 +7159,7 @@
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="2:11" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>90</v>
       </c>
@@ -5035,7 +7187,7 @@
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>87</v>
       </c>
@@ -5063,7 +7215,7 @@
       </c>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>89</v>
       </c>
@@ -5091,7 +7243,7 @@
       </c>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>92</v>
       </c>
@@ -5119,7 +7271,7 @@
       </c>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>94</v>
       </c>
@@ -5147,7 +7299,7 @@
       </c>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>91</v>
       </c>
@@ -5175,7 +7327,7 @@
       </c>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>93</v>
       </c>
@@ -5203,7 +7355,7 @@
       </c>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>96</v>
       </c>
@@ -5231,7 +7383,7 @@
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>98</v>
       </c>
@@ -5259,7 +7411,7 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>95</v>
       </c>
@@ -5287,7 +7439,7 @@
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>97</v>
       </c>
@@ -5315,7 +7467,7 @@
       </c>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>100</v>
       </c>
@@ -5343,7 +7495,7 @@
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>102</v>
       </c>
@@ -5371,7 +7523,7 @@
       </c>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>99</v>
       </c>
@@ -5399,7 +7551,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>101</v>
       </c>
@@ -5427,7 +7579,7 @@
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>104</v>
       </c>
@@ -5455,7 +7607,7 @@
       </c>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>106</v>
       </c>
@@ -5483,7 +7635,7 @@
       </c>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>103</v>
       </c>
@@ -5511,7 +7663,7 @@
       </c>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>105</v>
       </c>
@@ -5539,7 +7691,7 @@
       </c>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>108</v>
       </c>
@@ -5567,7 +7719,7 @@
       </c>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>110</v>
       </c>
@@ -5595,7 +7747,7 @@
       </c>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>107</v>
       </c>
@@ -5623,7 +7775,7 @@
       </c>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>109</v>
       </c>
@@ -5651,7 +7803,7 @@
       </c>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>112</v>
       </c>
@@ -5679,7 +7831,7 @@
       </c>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>114</v>
       </c>
@@ -5707,7 +7859,7 @@
       </c>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>111</v>
       </c>
@@ -5735,7 +7887,7 @@
       </c>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>116</v>
       </c>
@@ -5763,7 +7915,7 @@
       </c>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>118</v>
       </c>
@@ -5791,7 +7943,7 @@
       </c>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>113</v>
       </c>
@@ -5819,7 +7971,7 @@
       </c>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>115</v>
       </c>
@@ -5847,7 +7999,7 @@
       </c>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>120</v>
       </c>
@@ -5875,7 +8027,7 @@
       </c>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>122</v>
       </c>
@@ -5903,7 +8055,7 @@
       </c>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>117</v>
       </c>
@@ -5931,7 +8083,7 @@
       </c>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>119</v>
       </c>
@@ -5959,7 +8111,7 @@
       </c>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>124</v>
       </c>
@@ -5987,7 +8139,7 @@
       </c>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>121</v>
       </c>
@@ -6015,7 +8167,7 @@
       </c>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>123</v>
       </c>
@@ -6043,7 +8195,7 @@
       </c>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>125</v>
       </c>
@@ -6071,7 +8223,7 @@
       </c>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>127</v>
       </c>
@@ -6099,7 +8251,7 @@
       </c>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>126</v>
       </c>
@@ -6127,7 +8279,7 @@
       </c>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>128</v>
       </c>
@@ -6155,7 +8307,7 @@
       </c>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>129</v>
       </c>
@@ -6183,7 +8335,7 @@
       </c>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>131</v>
       </c>
@@ -6211,7 +8363,7 @@
       </c>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>130</v>
       </c>
@@ -6239,7 +8391,7 @@
       </c>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>132</v>
       </c>
@@ -6267,7 +8419,7 @@
       </c>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>133</v>
       </c>
@@ -6295,7 +8447,7 @@
       </c>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>135</v>
       </c>
@@ -6323,7 +8475,7 @@
       </c>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="2:11" customFormat="1" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>134</v>
       </c>
@@ -6351,7 +8503,7 @@
       </c>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>136</v>
       </c>
@@ -6379,7 +8531,7 @@
       </c>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="70">
         <v>20</v>
       </c>
@@ -6407,7 +8559,7 @@
       </c>
       <c r="K135" s="70"/>
     </row>
-    <row r="136" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="70">
         <v>21</v>
       </c>
@@ -6435,7 +8587,7 @@
       </c>
       <c r="K136" s="70"/>
     </row>
-    <row r="137" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>137</v>
       </c>
@@ -6463,7 +8615,7 @@
       </c>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>139</v>
       </c>
@@ -6491,7 +8643,7 @@
       </c>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>138</v>
       </c>
@@ -6519,7 +8671,7 @@
       </c>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>140</v>
       </c>
@@ -6547,7 +8699,7 @@
       </c>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>141</v>
       </c>
@@ -6575,7 +8727,7 @@
       </c>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>143</v>
       </c>
@@ -6603,7 +8755,7 @@
       </c>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>142</v>
       </c>
@@ -6631,7 +8783,7 @@
       </c>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>144</v>
       </c>
@@ -6659,7 +8811,7 @@
       </c>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>145</v>
       </c>
@@ -6687,7 +8839,7 @@
       </c>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>147</v>
       </c>
@@ -6715,7 +8867,7 @@
       </c>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>146</v>
       </c>
@@ -6743,7 +8895,7 @@
       </c>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>148</v>
       </c>
@@ -6771,7 +8923,7 @@
       </c>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>149</v>
       </c>
@@ -6799,7 +8951,7 @@
       </c>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>151</v>
       </c>
@@ -6827,7 +8979,7 @@
       </c>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>150</v>
       </c>
@@ -6855,7 +9007,7 @@
       </c>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>152</v>
       </c>
@@ -6883,7 +9035,7 @@
       </c>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>153</v>
       </c>
@@ -6911,7 +9063,7 @@
       </c>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>155</v>
       </c>
@@ -6939,7 +9091,7 @@
       </c>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>154</v>
       </c>
@@ -6967,7 +9119,7 @@
       </c>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>156</v>
       </c>
@@ -6995,7 +9147,7 @@
       </c>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>157</v>
       </c>
@@ -7023,7 +9175,7 @@
       </c>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>158</v>
       </c>
@@ -7051,7 +9203,7 @@
       </c>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>159</v>
       </c>
@@ -7079,7 +9231,7 @@
       </c>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>161</v>
       </c>
@@ -7107,7 +9259,7 @@
       </c>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>160</v>
       </c>
@@ -7135,7 +9287,7 @@
       </c>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>162</v>
       </c>
@@ -7163,7 +9315,7 @@
       </c>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>163</v>
       </c>
@@ -7191,7 +9343,7 @@
       </c>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>165</v>
       </c>
@@ -7219,7 +9371,7 @@
       </c>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>164</v>
       </c>
@@ -7247,7 +9399,7 @@
       </c>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>166</v>
       </c>
@@ -7275,7 +9427,7 @@
       </c>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>167</v>
       </c>
@@ -7303,7 +9455,7 @@
       </c>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>169</v>
       </c>
@@ -7331,7 +9483,7 @@
       </c>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>168</v>
       </c>
@@ -7359,7 +9511,7 @@
       </c>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>170</v>
       </c>
@@ -7387,7 +9539,7 @@
       </c>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>171</v>
       </c>
@@ -7415,7 +9567,7 @@
       </c>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>173</v>
       </c>
@@ -7443,7 +9595,7 @@
       </c>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>172</v>
       </c>
@@ -7471,7 +9623,7 @@
       </c>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>174</v>
       </c>
@@ -7499,7 +9651,7 @@
       </c>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>175</v>
       </c>
@@ -7527,7 +9679,7 @@
       </c>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>177</v>
       </c>
@@ -7555,7 +9707,7 @@
       </c>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>176</v>
       </c>
@@ -7583,7 +9735,7 @@
       </c>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>178</v>
       </c>
@@ -7611,7 +9763,7 @@
       </c>
       <c r="K178" s="1"/>
     </row>
-    <row r="179" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>179</v>
       </c>
@@ -7639,7 +9791,7 @@
       </c>
       <c r="K179" s="1"/>
     </row>
-    <row r="180" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>181</v>
       </c>
@@ -7667,7 +9819,7 @@
       </c>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>180</v>
       </c>
@@ -7695,7 +9847,7 @@
       </c>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>182</v>
       </c>
@@ -7723,7 +9875,7 @@
       </c>
       <c r="K182" s="1"/>
     </row>
-    <row r="183" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>183</v>
       </c>
@@ -7751,7 +9903,7 @@
       </c>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>185</v>
       </c>
@@ -7779,7 +9931,7 @@
       </c>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>184</v>
       </c>
@@ -7807,7 +9959,7 @@
       </c>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>186</v>
       </c>
@@ -7835,7 +9987,7 @@
       </c>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>187</v>
       </c>
@@ -7863,7 +10015,7 @@
       </c>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>189</v>
       </c>
@@ -7891,7 +10043,7 @@
       </c>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>188</v>
       </c>
@@ -7919,7 +10071,7 @@
       </c>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>190</v>
       </c>
@@ -7947,7 +10099,7 @@
       </c>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>191</v>
       </c>
@@ -7975,7 +10127,7 @@
       </c>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>193</v>
       </c>
@@ -8003,7 +10155,7 @@
       </c>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>192</v>
       </c>
@@ -8031,7 +10183,7 @@
       </c>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>194</v>
       </c>
@@ -8059,7 +10211,7 @@
       </c>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>195</v>
       </c>
@@ -8087,7 +10239,7 @@
       </c>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>196</v>
       </c>
@@ -8115,7 +10267,7 @@
       </c>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>198</v>
       </c>
@@ -8143,7 +10295,7 @@
       </c>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>197</v>
       </c>
@@ -8171,7 +10323,7 @@
       </c>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>199</v>
       </c>
@@ -8199,7 +10351,7 @@
       </c>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>200</v>
       </c>
@@ -8227,7 +10379,7 @@
       </c>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>202</v>
       </c>
@@ -8255,7 +10407,7 @@
       </c>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>201</v>
       </c>
@@ -8283,7 +10435,7 @@
       </c>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>203</v>
       </c>
@@ -8311,7 +10463,7 @@
       </c>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>204</v>
       </c>
@@ -8339,7 +10491,7 @@
       </c>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>206</v>
       </c>
@@ -8367,7 +10519,7 @@
       </c>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>205</v>
       </c>
@@ -8395,7 +10547,7 @@
       </c>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>207</v>
       </c>
@@ -8423,7 +10575,7 @@
       </c>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>208</v>
       </c>
@@ -8451,7 +10603,7 @@
       </c>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>210</v>
       </c>
@@ -8479,7 +10631,7 @@
       </c>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>209</v>
       </c>
@@ -8507,7 +10659,7 @@
       </c>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>211</v>
       </c>
@@ -8535,7 +10687,7 @@
       </c>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>212</v>
       </c>
@@ -8563,7 +10715,7 @@
       </c>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>214</v>
       </c>
@@ -8591,7 +10743,7 @@
       </c>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>213</v>
       </c>
@@ -8619,7 +10771,7 @@
       </c>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>215</v>
       </c>
@@ -8647,7 +10799,7 @@
       </c>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>216</v>
       </c>
@@ -8675,7 +10827,7 @@
       </c>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>218</v>
       </c>
@@ -8703,7 +10855,7 @@
       </c>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>217</v>
       </c>
@@ -8731,7 +10883,7 @@
       </c>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>219</v>
       </c>
@@ -8759,7 +10911,7 @@
       </c>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>220</v>
       </c>
@@ -8787,7 +10939,7 @@
       </c>
       <c r="K220" s="1"/>
     </row>
-    <row r="221" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>222</v>
       </c>
@@ -8815,7 +10967,7 @@
       </c>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>221</v>
       </c>
@@ -8843,7 +10995,7 @@
       </c>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>223</v>
       </c>
@@ -8871,7 +11023,7 @@
       </c>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>224</v>
       </c>
@@ -8899,7 +11051,7 @@
       </c>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>226</v>
       </c>
@@ -8927,7 +11079,7 @@
       </c>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>225</v>
       </c>
@@ -8955,7 +11107,7 @@
       </c>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>227</v>
       </c>
@@ -8983,7 +11135,7 @@
       </c>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>228</v>
       </c>
@@ -9011,7 +11163,7 @@
       </c>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>230</v>
       </c>
@@ -9039,7 +11191,7 @@
       </c>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>229</v>
       </c>
@@ -9067,7 +11219,7 @@
       </c>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>231</v>
       </c>
@@ -9095,7 +11247,7 @@
       </c>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>232</v>
       </c>
@@ -9123,7 +11275,7 @@
       </c>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>234</v>
       </c>
@@ -9151,7 +11303,7 @@
       </c>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>233</v>
       </c>
@@ -9179,7 +11331,7 @@
       </c>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>235</v>
       </c>
@@ -9207,7 +11359,7 @@
       </c>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>236</v>
       </c>
@@ -9235,7 +11387,7 @@
       </c>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>238</v>
       </c>
@@ -9263,7 +11415,7 @@
       </c>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>237</v>
       </c>
@@ -9291,7 +11443,7 @@
       </c>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>239</v>
       </c>
@@ -9319,7 +11471,7 @@
       </c>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>240</v>
       </c>
@@ -9347,7 +11499,7 @@
       </c>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>242</v>
       </c>
@@ -9375,7 +11527,7 @@
       </c>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>241</v>
       </c>
@@ -9403,7 +11555,7 @@
       </c>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>243</v>
       </c>
@@ -9431,7 +11583,7 @@
       </c>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>244</v>
       </c>
@@ -9459,7 +11611,7 @@
       </c>
       <c r="K244" s="1"/>
     </row>
-    <row r="245" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>246</v>
       </c>
@@ -9487,7 +11639,7 @@
       </c>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>245</v>
       </c>
@@ -9515,7 +11667,7 @@
       </c>
       <c r="K246" s="1"/>
     </row>
-    <row r="247" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>248</v>
       </c>
@@ -9543,7 +11695,7 @@
       </c>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>250</v>
       </c>
@@ -9571,7 +11723,7 @@
       </c>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>247</v>
       </c>
@@ -9599,7 +11751,7 @@
       </c>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>249</v>
       </c>
@@ -9627,7 +11779,7 @@
       </c>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>252</v>
       </c>
@@ -9655,7 +11807,7 @@
       </c>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>254</v>
       </c>
@@ -9683,7 +11835,7 @@
       </c>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>251</v>
       </c>
@@ -9711,7 +11863,7 @@
       </c>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>253</v>
       </c>
@@ -9739,7 +11891,7 @@
       </c>
       <c r="K254" s="1"/>
     </row>
-    <row r="255" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>255</v>
       </c>
@@ -9767,7 +11919,7 @@
       </c>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>256</v>
       </c>
@@ -9795,7 +11947,7 @@
       </c>
       <c r="K256" s="1"/>
     </row>
-    <row r="257" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>258</v>
       </c>
@@ -9823,7 +11975,7 @@
       </c>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>257</v>
       </c>
@@ -9851,7 +12003,7 @@
       </c>
       <c r="K258" s="1"/>
     </row>
-    <row r="259" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>259</v>
       </c>
@@ -9879,7 +12031,7 @@
       </c>
       <c r="K259" s="1"/>
     </row>
-    <row r="260" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>260</v>
       </c>
@@ -9907,7 +12059,7 @@
       </c>
       <c r="K260" s="1"/>
     </row>
-    <row r="261" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>262</v>
       </c>
@@ -9935,7 +12087,7 @@
       </c>
       <c r="K261" s="1"/>
     </row>
-    <row r="262" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>261</v>
       </c>
@@ -9963,7 +12115,7 @@
       </c>
       <c r="K262" s="1"/>
     </row>
-    <row r="263" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>263</v>
       </c>
@@ -9991,7 +12143,7 @@
       </c>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>264</v>
       </c>
@@ -10019,7 +12171,7 @@
       </c>
       <c r="K264" s="1"/>
     </row>
-    <row r="265" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>266</v>
       </c>
@@ -10047,7 +12199,7 @@
       </c>
       <c r="K265" s="1"/>
     </row>
-    <row r="266" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>265</v>
       </c>
@@ -10075,7 +12227,7 @@
       </c>
       <c r="K266" s="1"/>
     </row>
-    <row r="267" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>267</v>
       </c>
@@ -10103,7 +12255,7 @@
       </c>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>268</v>
       </c>
@@ -10131,7 +12283,7 @@
       </c>
       <c r="K268" s="1"/>
     </row>
-    <row r="269" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>270</v>
       </c>
@@ -10159,7 +12311,7 @@
       </c>
       <c r="K269" s="1"/>
     </row>
-    <row r="270" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>269</v>
       </c>
@@ -10187,7 +12339,7 @@
       </c>
       <c r="K270" s="1"/>
     </row>
-    <row r="271" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>271</v>
       </c>
@@ -10215,7 +12367,7 @@
       </c>
       <c r="K271" s="1"/>
     </row>
-    <row r="272" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>272</v>
       </c>
@@ -10243,7 +12395,7 @@
       </c>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>274</v>
       </c>
@@ -10271,7 +12423,7 @@
       </c>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>273</v>
       </c>
@@ -10299,7 +12451,7 @@
       </c>
       <c r="K274" s="1"/>
     </row>
-    <row r="275" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>275</v>
       </c>
@@ -10327,7 +12479,7 @@
       </c>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>276</v>
       </c>
@@ -10355,7 +12507,7 @@
       </c>
       <c r="K276" s="1"/>
     </row>
-    <row r="277" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>278</v>
       </c>
@@ -10383,7 +12535,7 @@
       </c>
       <c r="K277" s="1"/>
     </row>
-    <row r="278" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>277</v>
       </c>
@@ -10411,7 +12563,7 @@
       </c>
       <c r="K278" s="1"/>
     </row>
-    <row r="279" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>279</v>
       </c>
@@ -10439,7 +12591,7 @@
       </c>
       <c r="K279" s="1"/>
     </row>
-    <row r="280" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>280</v>
       </c>
@@ -10467,7 +12619,7 @@
       </c>
       <c r="K280" s="1"/>
     </row>
-    <row r="281" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>281</v>
       </c>
@@ -10495,7 +12647,7 @@
       </c>
       <c r="K281" s="1"/>
     </row>
-    <row r="282" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <v>281</v>
       </c>
@@ -10523,7 +12675,7 @@
       </c>
       <c r="K282" s="1"/>
     </row>
-    <row r="283" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <v>282</v>
       </c>
@@ -10551,7 +12703,7 @@
       </c>
       <c r="K283" s="1"/>
     </row>
-    <row r="284" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <v>283</v>
       </c>
@@ -10579,7 +12731,7 @@
       </c>
       <c r="K284" s="1"/>
     </row>
-    <row r="285" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <v>285</v>
       </c>
@@ -10607,7 +12759,7 @@
       </c>
       <c r="K285" s="1"/>
     </row>
-    <row r="286" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>284</v>
       </c>
@@ -10635,7 +12787,7 @@
       </c>
       <c r="K286" s="1"/>
     </row>
-    <row r="287" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>286</v>
       </c>
@@ -10663,7 +12815,7 @@
       </c>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <v>287</v>
       </c>
@@ -10691,7 +12843,7 @@
       </c>
       <c r="K288" s="1"/>
     </row>
-    <row r="289" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B289" s="1">
         <v>289</v>
       </c>
@@ -10719,7 +12871,7 @@
       </c>
       <c r="K289" s="1"/>
     </row>
-    <row r="290" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <v>288</v>
       </c>
@@ -10747,7 +12899,7 @@
       </c>
       <c r="K290" s="1"/>
     </row>
-    <row r="291" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <v>290</v>
       </c>
@@ -10775,7 +12927,7 @@
       </c>
       <c r="K291" s="1"/>
     </row>
-    <row r="292" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <v>291</v>
       </c>
@@ -10803,7 +12955,7 @@
       </c>
       <c r="K292" s="1"/>
     </row>
-    <row r="293" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <v>293</v>
       </c>
@@ -10831,7 +12983,7 @@
       </c>
       <c r="K293" s="1"/>
     </row>
-    <row r="294" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <v>292</v>
       </c>
@@ -10859,7 +13011,7 @@
       </c>
       <c r="K294" s="1"/>
     </row>
-    <row r="295" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <v>294</v>
       </c>
@@ -10887,7 +13039,7 @@
       </c>
       <c r="K295" s="1"/>
     </row>
-    <row r="296" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <v>295</v>
       </c>
@@ -10915,7 +13067,7 @@
       </c>
       <c r="K296" s="1"/>
     </row>
-    <row r="297" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <v>297</v>
       </c>
@@ -10943,7 +13095,7 @@
       </c>
       <c r="K297" s="1"/>
     </row>
-    <row r="298" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>296</v>
       </c>
@@ -10971,7 +13123,7 @@
       </c>
       <c r="K298" s="1"/>
     </row>
-    <row r="299" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <v>298</v>
       </c>
@@ -10999,7 +13151,7 @@
       </c>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <v>299</v>
       </c>
@@ -11027,7 +13179,7 @@
       </c>
       <c r="K300" s="1"/>
     </row>
-    <row r="301" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <v>301</v>
       </c>
@@ -11055,7 +13207,7 @@
       </c>
       <c r="K301" s="1"/>
     </row>
-    <row r="302" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <v>300</v>
       </c>
@@ -11083,7 +13235,7 @@
       </c>
       <c r="K302" s="1"/>
     </row>
-    <row r="303" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <v>302</v>
       </c>
@@ -11111,7 +13263,7 @@
       </c>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <v>303</v>
       </c>
@@ -11139,7 +13291,7 @@
       </c>
       <c r="K304" s="1"/>
     </row>
-    <row r="305" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>305</v>
       </c>
@@ -11167,7 +13319,7 @@
       </c>
       <c r="K305" s="1"/>
     </row>
-    <row r="306" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>304</v>
       </c>
@@ -11195,7 +13347,7 @@
       </c>
       <c r="K306" s="1"/>
     </row>
-    <row r="307" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>306</v>
       </c>
@@ -11223,7 +13375,7 @@
       </c>
       <c r="K307" s="1"/>
     </row>
-    <row r="308" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>307</v>
       </c>
@@ -11251,7 +13403,7 @@
       </c>
       <c r="K308" s="1"/>
     </row>
-    <row r="309" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>309</v>
       </c>
@@ -11279,7 +13431,7 @@
       </c>
       <c r="K309" s="1"/>
     </row>
-    <row r="310" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>308</v>
       </c>
@@ -11307,7 +13459,7 @@
       </c>
       <c r="K310" s="1"/>
     </row>
-    <row r="311" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>310</v>
       </c>
@@ -11335,7 +13487,7 @@
       </c>
       <c r="K311" s="1"/>
     </row>
-    <row r="312" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>311</v>
       </c>
@@ -11363,7 +13515,7 @@
       </c>
       <c r="K312" s="1"/>
     </row>
-    <row r="313" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>313</v>
       </c>
@@ -11391,7 +13543,7 @@
       </c>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>312</v>
       </c>
@@ -11419,7 +13571,7 @@
       </c>
       <c r="K314" s="1"/>
     </row>
-    <row r="315" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>314</v>
       </c>
@@ -11447,7 +13599,7 @@
       </c>
       <c r="K315" s="1"/>
     </row>
-    <row r="316" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>315</v>
       </c>
@@ -11475,7 +13627,7 @@
       </c>
       <c r="K316" s="1"/>
     </row>
-    <row r="317" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>317</v>
       </c>
@@ -11503,7 +13655,7 @@
       </c>
       <c r="K317" s="1"/>
     </row>
-    <row r="318" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>316</v>
       </c>
@@ -11531,7 +13683,7 @@
       </c>
       <c r="K318" s="1"/>
     </row>
-    <row r="319" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>318</v>
       </c>
@@ -11559,7 +13711,7 @@
       </c>
       <c r="K319" s="1"/>
     </row>
-    <row r="320" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>319</v>
       </c>
@@ -11587,7 +13739,7 @@
       </c>
       <c r="K320" s="1"/>
     </row>
-    <row r="321" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>321</v>
       </c>
@@ -11615,7 +13767,7 @@
       </c>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>320</v>
       </c>
@@ -11643,7 +13795,7 @@
       </c>
       <c r="K322" s="1"/>
     </row>
-    <row r="323" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>322</v>
       </c>
@@ -11671,7 +13823,7 @@
       </c>
       <c r="K323" s="1"/>
     </row>
-    <row r="324" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>323</v>
       </c>
@@ -11699,7 +13851,7 @@
       </c>
       <c r="K324" s="1"/>
     </row>
-    <row r="325" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>325</v>
       </c>
@@ -11727,7 +13879,7 @@
       </c>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>324</v>
       </c>
@@ -11755,7 +13907,7 @@
       </c>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>326</v>
       </c>
@@ -11783,7 +13935,7 @@
       </c>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>327</v>
       </c>
@@ -11811,7 +13963,7 @@
       </c>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>329</v>
       </c>
@@ -11839,7 +13991,7 @@
       </c>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>328</v>
       </c>
@@ -11867,7 +14019,7 @@
       </c>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <v>330</v>
       </c>
@@ -11895,7 +14047,7 @@
       </c>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <v>331</v>
       </c>
@@ -11923,7 +14075,7 @@
       </c>
       <c r="K332" s="1"/>
     </row>
-    <row r="333" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>333</v>
       </c>
@@ -11951,7 +14103,7 @@
       </c>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>332</v>
       </c>
@@ -11979,7 +14131,7 @@
       </c>
       <c r="K334" s="1"/>
     </row>
-    <row r="335" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>334</v>
       </c>
@@ -12007,7 +14159,7 @@
       </c>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>335</v>
       </c>
@@ -12035,7 +14187,7 @@
       </c>
       <c r="K336" s="1"/>
     </row>
-    <row r="337" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>337</v>
       </c>
@@ -12063,7 +14215,7 @@
       </c>
       <c r="K337" s="1"/>
     </row>
-    <row r="338" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>336</v>
       </c>
@@ -12091,7 +14243,7 @@
       </c>
       <c r="K338" s="1"/>
     </row>
-    <row r="339" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>338</v>
       </c>
@@ -12119,7 +14271,7 @@
       </c>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>339</v>
       </c>
@@ -12147,7 +14299,7 @@
       </c>
       <c r="K340" s="1"/>
     </row>
-    <row r="341" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>341</v>
       </c>
@@ -12175,7 +14327,7 @@
       </c>
       <c r="K341" s="1"/>
     </row>
-    <row r="342" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>340</v>
       </c>
@@ -12203,7 +14355,7 @@
       </c>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>342</v>
       </c>
@@ -12231,7 +14383,7 @@
       </c>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B344" s="63">
         <v>18</v>
       </c>
@@ -12257,7 +14409,7 @@
       </c>
       <c r="K344" s="63"/>
     </row>
-    <row r="345" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B345" s="63">
         <v>19</v>
       </c>
@@ -12283,7 +14435,7 @@
       </c>
       <c r="K345" s="63"/>
     </row>
-    <row r="346" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>343</v>
       </c>
@@ -12303,7 +14455,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>344</v>
       </c>
@@ -12323,7 +14475,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>345</v>
       </c>
@@ -12343,7 +14495,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="2:11" customFormat="1" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>346</v>
       </c>
@@ -12377,14 +14529,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="7">
-      <filters blank="1">
-        <dateGroupItem year="2022" month="10" dateTimeGrouping="month"/>
-        <dateGroupItem year="2022" month="11" day="1" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="2" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="3" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="7" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="8" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="9" dateTimeGrouping="day"/>
+      <filters>
         <dateGroupItem year="2022" month="11" day="10" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="17" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="18" dateTimeGrouping="day"/>
@@ -12393,6 +14538,7 @@
         <dateGroupItem year="2022" month="11" day="23" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="24" dateTimeGrouping="day"/>
         <dateGroupItem year="2022" month="11" day="28" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" day="29" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -12401,17 +14547,17 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C68:E68">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:E67">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q320"/>
   <sheetViews>
@@ -12427,18 +14573,18 @@
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-    </row>
-    <row r="2" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+    </row>
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>164</v>
       </c>
@@ -12461,7 +14607,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -12484,7 +14630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18">
         <v>2</v>
       </c>
@@ -12504,16 +14650,16 @@
       <c r="H4" s="44">
         <v>55</v>
       </c>
-      <c r="J4" s="91" t="s">
+      <c r="J4" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-    </row>
-    <row r="5" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+    </row>
+    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="39">
         <v>3</v>
       </c>
@@ -12538,7 +14684,7 @@
       <c r="N5" s="56"/>
       <c r="O5" s="56"/>
     </row>
-    <row r="6" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40">
         <v>4</v>
       </c>
@@ -12565,7 +14711,7 @@
       <c r="N6" s="56"/>
       <c r="O6" s="56"/>
     </row>
-    <row r="7" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="39">
         <v>5</v>
       </c>
@@ -12584,7 +14730,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40">
         <v>6</v>
       </c>
@@ -12605,7 +14751,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="39">
         <v>7</v>
       </c>
@@ -12626,19 +14772,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="94" t="s">
+    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="96"/>
-    </row>
-    <row r="13" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>164</v>
       </c>
@@ -12661,7 +14807,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -12684,7 +14830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -12705,7 +14851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>3</v>
       </c>
@@ -12726,7 +14872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>4</v>
       </c>
@@ -12747,7 +14893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>5</v>
       </c>
@@ -12768,7 +14914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>6</v>
       </c>
@@ -12788,16 +14934,16 @@
       <c r="H19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="97" t="s">
+      <c r="J19" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="99"/>
-    </row>
-    <row r="20" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="97"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>7</v>
       </c>
@@ -12822,7 +14968,7 @@
       <c r="N20" s="56"/>
       <c r="O20" s="56"/>
     </row>
-    <row r="21" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>8</v>
       </c>
@@ -12849,7 +14995,7 @@
       <c r="N21" s="56"/>
       <c r="O21" s="56"/>
     </row>
-    <row r="22" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>9</v>
       </c>
@@ -12874,7 +15020,7 @@
       <c r="N22" s="56"/>
       <c r="O22" s="56"/>
     </row>
-    <row r="23" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>10</v>
       </c>
@@ -12901,7 +15047,7 @@
       <c r="N23" s="56"/>
       <c r="O23" s="56"/>
     </row>
-    <row r="24" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>11</v>
       </c>
@@ -12928,19 +15074,19 @@
       <c r="N24" s="56"/>
       <c r="O24" s="56"/>
     </row>
-    <row r="25" spans="2:15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="94" t="s">
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
-    </row>
-    <row r="27" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="s">
         <v>164</v>
       </c>
@@ -12963,7 +15109,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="26">
         <v>1</v>
       </c>
@@ -12986,7 +15132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -13007,7 +15153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>3</v>
       </c>
@@ -13027,16 +15173,16 @@
       <c r="H30" s="3">
         <v>255</v>
       </c>
-      <c r="J30" s="97" t="s">
+      <c r="J30" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="99"/>
-    </row>
-    <row r="31" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="97"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>4</v>
       </c>
@@ -13057,7 +15203,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -13078,7 +15224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>6</v>
       </c>
@@ -13098,16 +15244,16 @@
       <c r="H33" s="3">
         <v>10</v>
       </c>
-      <c r="J33" s="97" t="s">
+      <c r="J33" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="99"/>
-    </row>
-    <row r="34" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="97"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>7</v>
       </c>
@@ -13132,7 +15278,7 @@
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
     </row>
-    <row r="35" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>8</v>
       </c>
@@ -13159,7 +15305,7 @@
       <c r="N35" s="56"/>
       <c r="O35" s="56"/>
     </row>
-    <row r="36" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>9</v>
       </c>
@@ -13184,7 +15330,7 @@
       <c r="N36" s="56"/>
       <c r="O36" s="56"/>
     </row>
-    <row r="37" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>10</v>
       </c>
@@ -13211,7 +15357,7 @@
       <c r="N37" s="56"/>
       <c r="O37" s="56"/>
     </row>
-    <row r="38" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>11</v>
       </c>
@@ -13232,19 +15378,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="102" t="s">
+    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="100" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="104"/>
-    </row>
-    <row r="43" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="102"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="27" t="s">
         <v>164</v>
       </c>
@@ -13267,7 +15413,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -13290,7 +15436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -13309,7 +15455,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>3</v>
       </c>
@@ -13328,7 +15474,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>4</v>
       </c>
@@ -13349,7 +15495,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>5</v>
       </c>
@@ -13368,7 +15514,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>6</v>
       </c>
@@ -13389,7 +15535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>7</v>
       </c>
@@ -13410,19 +15556,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="94" t="s">
+    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="96"/>
-    </row>
-    <row r="54" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="94"/>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="22" t="s">
         <v>164</v>
       </c>
@@ -13445,7 +15591,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="15">
         <v>1</v>
       </c>
@@ -13468,7 +15614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="34">
         <v>2</v>
       </c>
@@ -13491,7 +15637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="34">
         <v>3</v>
       </c>
@@ -13512,7 +15658,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -13525,7 +15671,7 @@
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -13540,7 +15686,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -13553,7 +15699,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -13568,7 +15714,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -13583,19 +15729,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="65" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="94" t="s">
+    <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="92" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="95"/>
-      <c r="D65" s="95"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="96"/>
-    </row>
-    <row r="66" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="94"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="27" t="s">
         <v>164</v>
       </c>
@@ -13618,7 +15764,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="34">
         <v>1</v>
       </c>
@@ -13641,7 +15787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="34">
         <v>2</v>
       </c>
@@ -13660,7 +15806,7 @@
       </c>
       <c r="H68" s="35"/>
     </row>
-    <row r="69" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="34"/>
       <c r="C69" s="3" t="s">
         <v>204</v>
@@ -13676,17 +15822,17 @@
         <v>188</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="J69" s="97" t="s">
+      <c r="J69" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="K69" s="100"/>
-      <c r="L69" s="100"/>
-      <c r="M69" s="100"/>
-      <c r="N69" s="100"/>
-      <c r="O69" s="100"/>
-      <c r="P69" s="101"/>
-    </row>
-    <row r="70" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K69" s="98"/>
+      <c r="L69" s="98"/>
+      <c r="M69" s="98"/>
+      <c r="N69" s="98"/>
+      <c r="O69" s="98"/>
+      <c r="P69" s="99"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="34"/>
       <c r="C70" s="3" t="s">
         <v>204</v>
@@ -13712,7 +15858,7 @@
       <c r="O70" s="55"/>
       <c r="P70" s="55"/>
     </row>
-    <row r="71" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="34"/>
       <c r="C71" s="3" t="s">
         <v>204</v>
@@ -13736,7 +15882,7 @@
       <c r="O71" s="55"/>
       <c r="P71" s="55"/>
     </row>
-    <row r="72" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="34"/>
       <c r="C72" s="3" t="s">
         <v>204</v>
@@ -13762,7 +15908,7 @@
       <c r="O72" s="55"/>
       <c r="P72" s="55"/>
     </row>
-    <row r="73" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="18"/>
       <c r="C73" s="3" t="s">
         <v>204</v>
@@ -13788,7 +15934,7 @@
       <c r="O73" s="55"/>
       <c r="P73" s="55"/>
     </row>
-    <row r="74" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J74" s="55"/>
       <c r="K74" s="55"/>
       <c r="L74" s="55"/>
@@ -13797,19 +15943,19 @@
       <c r="O74" s="55"/>
       <c r="P74" s="55"/>
     </row>
-    <row r="75" spans="2:16" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="87" t="s">
+    <row r="75" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="88"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="88"/>
-      <c r="G76" s="88"/>
-      <c r="H76" s="89"/>
-    </row>
-    <row r="77" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="87"/>
+    </row>
+    <row r="77" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="22" t="s">
         <v>164</v>
       </c>
@@ -13832,7 +15978,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="15">
         <v>1</v>
       </c>
@@ -13855,7 +16001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="34">
         <v>2</v>
       </c>
@@ -13876,7 +16022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="34">
         <v>3</v>
       </c>
@@ -13899,7 +16045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="45">
         <v>4</v>
       </c>
@@ -13920,7 +16066,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="34">
         <v>5</v>
       </c>
@@ -13939,7 +16085,7 @@
       </c>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="45">
         <v>6</v>
       </c>
@@ -13960,7 +16106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="34">
         <v>7</v>
       </c>
@@ -13979,7 +16125,7 @@
       </c>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="45">
         <v>8</v>
       </c>
@@ -14000,7 +16146,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="34">
         <v>9</v>
       </c>
@@ -14021,19 +16167,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="90" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="84" t="s">
+    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="86"/>
-    </row>
-    <row r="91" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="84"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="31" t="s">
         <v>164</v>
       </c>
@@ -14056,7 +16202,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="34">
         <v>1</v>
       </c>
@@ -14079,7 +16225,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="34">
         <v>2</v>
       </c>
@@ -14100,7 +16246,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="34">
         <v>3</v>
       </c>
@@ -14121,7 +16267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="34">
         <v>4</v>
       </c>
@@ -14142,7 +16288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="34">
         <v>5</v>
       </c>
@@ -14163,7 +16309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="45">
         <v>6</v>
       </c>
@@ -14184,7 +16330,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="34">
         <v>7</v>
       </c>
@@ -14203,7 +16349,7 @@
       </c>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="34">
         <v>8</v>
       </c>
@@ -14224,7 +16370,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="45">
         <v>9</v>
       </c>
@@ -14243,7 +16389,7 @@
       </c>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="34">
         <v>10</v>
       </c>
@@ -14264,7 +16410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="34">
         <v>11</v>
       </c>
@@ -14285,19 +16431,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="87" t="s">
+    <row r="105" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="85" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
-      <c r="H106" s="89"/>
-    </row>
-    <row r="107" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C106" s="86"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="86"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="86"/>
+      <c r="H106" s="87"/>
+    </row>
+    <row r="107" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="49" t="s">
         <v>164</v>
       </c>
@@ -14320,7 +16466,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="15">
         <v>1</v>
       </c>
@@ -14343,7 +16489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="34">
         <v>2</v>
       </c>
@@ -14364,7 +16510,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="34">
         <v>3</v>
       </c>
@@ -14385,7 +16531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="34">
         <v>4</v>
       </c>
@@ -14408,7 +16554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="34">
         <v>5</v>
       </c>
@@ -14431,7 +16577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="34">
         <v>6</v>
       </c>
@@ -14454,7 +16600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="34">
         <v>7</v>
       </c>
@@ -14473,7 +16619,7 @@
       </c>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="34">
         <v>8</v>
       </c>
@@ -14494,7 +16640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="34">
         <v>9</v>
       </c>
@@ -14513,7 +16659,7 @@
       </c>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="34">
         <v>10</v>
       </c>
@@ -14534,7 +16680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="34">
         <v>11</v>
       </c>
@@ -14555,19 +16701,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="87" t="s">
+    <row r="119" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="C120" s="88"/>
-      <c r="D120" s="88"/>
-      <c r="E120" s="88"/>
-      <c r="F120" s="88"/>
-      <c r="G120" s="88"/>
-      <c r="H120" s="89"/>
-    </row>
-    <row r="121" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C120" s="86"/>
+      <c r="D120" s="86"/>
+      <c r="E120" s="86"/>
+      <c r="F120" s="86"/>
+      <c r="G120" s="86"/>
+      <c r="H120" s="87"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="27" t="s">
         <v>164</v>
       </c>
@@ -14590,7 +16736,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="34">
         <v>1</v>
       </c>
@@ -14610,7 +16756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="45">
         <v>2</v>
       </c>
@@ -14633,7 +16779,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="34">
         <v>3</v>
       </c>
@@ -14652,7 +16798,7 @@
       </c>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="45">
         <v>4</v>
       </c>
@@ -14673,7 +16819,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="34">
         <v>5</v>
       </c>
@@ -14692,7 +16838,7 @@
       </c>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="45">
         <v>6</v>
       </c>
@@ -14713,7 +16859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="34">
         <v>7</v>
       </c>
@@ -14734,28 +16880,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F129" s="47"/>
     </row>
-    <row r="130" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F130" s="38"/>
     </row>
-    <row r="131" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="133" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="87" t="s">
+    <row r="132" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="C133" s="88"/>
-      <c r="D133" s="88"/>
-      <c r="E133" s="88"/>
-      <c r="F133" s="88"/>
-      <c r="G133" s="88"/>
-      <c r="H133" s="89"/>
-    </row>
-    <row r="134" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C133" s="86"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
+      <c r="F133" s="86"/>
+      <c r="G133" s="86"/>
+      <c r="H133" s="87"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="32" t="s">
         <v>164</v>
       </c>
@@ -14778,7 +16924,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="3">
         <v>1</v>
       </c>
@@ -14799,7 +16945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
         <v>2</v>
       </c>
@@ -14822,7 +16968,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
         <v>3</v>
       </c>
@@ -14841,7 +16987,7 @@
       </c>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="3">
         <v>4</v>
       </c>
@@ -14862,7 +17008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <v>5</v>
       </c>
@@ -14881,7 +17027,7 @@
       </c>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="3">
         <v>6</v>
       </c>
@@ -14902,7 +17048,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <v>7</v>
       </c>
@@ -14923,19 +17069,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="144" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="87" t="s">
+    <row r="143" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="C144" s="88"/>
-      <c r="D144" s="88"/>
-      <c r="E144" s="88"/>
-      <c r="F144" s="88"/>
-      <c r="G144" s="88"/>
-      <c r="H144" s="89"/>
-    </row>
-    <row r="145" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C144" s="86"/>
+      <c r="D144" s="86"/>
+      <c r="E144" s="86"/>
+      <c r="F144" s="86"/>
+      <c r="G144" s="86"/>
+      <c r="H144" s="87"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="27" t="s">
         <v>164</v>
       </c>
@@ -14958,7 +17104,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="146" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="34">
         <v>1</v>
       </c>
@@ -14978,7 +17124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="45">
         <v>2</v>
       </c>
@@ -15001,7 +17147,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="148" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="34">
         <v>3</v>
       </c>
@@ -15020,7 +17166,7 @@
       </c>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="45">
         <v>4</v>
       </c>
@@ -15041,7 +17187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="34">
         <v>5</v>
       </c>
@@ -15060,7 +17206,7 @@
       </c>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="45">
         <v>6</v>
       </c>
@@ -15081,7 +17227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="34">
         <v>7</v>
       </c>
@@ -15102,19 +17248,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="155" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="87" t="s">
+    <row r="154" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="C155" s="88"/>
-      <c r="D155" s="88"/>
-      <c r="E155" s="88"/>
-      <c r="F155" s="88"/>
-      <c r="G155" s="88"/>
-      <c r="H155" s="89"/>
-    </row>
-    <row r="156" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C155" s="86"/>
+      <c r="D155" s="86"/>
+      <c r="E155" s="86"/>
+      <c r="F155" s="86"/>
+      <c r="G155" s="86"/>
+      <c r="H155" s="87"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="22" t="s">
         <v>164</v>
       </c>
@@ -15137,7 +17283,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="3">
         <v>1</v>
       </c>
@@ -15160,7 +17306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="3">
         <v>2</v>
       </c>
@@ -15181,7 +17327,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="3">
         <v>3</v>
       </c>
@@ -15200,7 +17346,7 @@
       </c>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="3">
         <v>4</v>
       </c>
@@ -15221,7 +17367,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B161" s="3">
         <v>5</v>
       </c>
@@ -15240,7 +17386,7 @@
       </c>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B162" s="3">
         <v>6</v>
       </c>
@@ -15261,7 +17407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B163" s="3">
         <v>7</v>
       </c>
@@ -15282,18 +17428,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="106" t="s">
+    <row r="166" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="104" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="106"/>
-      <c r="D166" s="106"/>
-      <c r="E166" s="106"/>
-      <c r="F166" s="106"/>
-      <c r="G166" s="106"/>
-      <c r="H166" s="106"/>
-    </row>
-    <row r="167" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C166" s="104"/>
+      <c r="D166" s="104"/>
+      <c r="E166" s="104"/>
+      <c r="F166" s="104"/>
+      <c r="G166" s="104"/>
+      <c r="H166" s="104"/>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B167" s="22" t="s">
         <v>164</v>
       </c>
@@ -15316,7 +17462,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B168" s="3">
         <v>1</v>
       </c>
@@ -15339,7 +17485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="3">
         <v>2</v>
       </c>
@@ -15359,18 +17505,18 @@
       <c r="H169" s="3">
         <v>155</v>
       </c>
-      <c r="J169" s="97" t="s">
+      <c r="J169" s="95" t="s">
         <v>275</v>
       </c>
-      <c r="K169" s="100"/>
-      <c r="L169" s="100"/>
-      <c r="M169" s="100"/>
-      <c r="N169" s="100"/>
-      <c r="O169" s="100"/>
-      <c r="P169" s="100"/>
-      <c r="Q169" s="101"/>
-    </row>
-    <row r="170" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K169" s="98"/>
+      <c r="L169" s="98"/>
+      <c r="M169" s="98"/>
+      <c r="N169" s="98"/>
+      <c r="O169" s="98"/>
+      <c r="P169" s="98"/>
+      <c r="Q169" s="99"/>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
         <v>3</v>
       </c>
@@ -15389,7 +17535,7 @@
       </c>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B171" s="3">
         <v>4</v>
       </c>
@@ -15410,7 +17556,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B172" s="3">
         <v>5</v>
       </c>
@@ -15429,7 +17575,7 @@
       </c>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B173" s="3">
         <v>6</v>
       </c>
@@ -15450,7 +17596,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B174" s="3">
         <v>7</v>
       </c>
@@ -15471,19 +17617,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="2:17" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="176" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="94" t="s">
+    <row r="175" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="176" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="C176" s="95"/>
-      <c r="D176" s="95"/>
-      <c r="E176" s="95"/>
-      <c r="F176" s="95"/>
-      <c r="G176" s="95"/>
-      <c r="H176" s="96"/>
-    </row>
-    <row r="177" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C176" s="93"/>
+      <c r="D176" s="93"/>
+      <c r="E176" s="93"/>
+      <c r="F176" s="93"/>
+      <c r="G176" s="93"/>
+      <c r="H176" s="94"/>
+    </row>
+    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177" s="22" t="s">
         <v>164</v>
       </c>
@@ -15506,7 +17652,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B178" s="3">
         <v>1</v>
       </c>
@@ -15525,7 +17671,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="3">
         <v>2</v>
       </c>
@@ -15541,18 +17687,18 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="J179" s="97" t="s">
+      <c r="J179" s="95" t="s">
         <v>280</v>
       </c>
-      <c r="K179" s="100"/>
-      <c r="L179" s="100"/>
-      <c r="M179" s="100"/>
-      <c r="N179" s="100"/>
-      <c r="O179" s="100"/>
-      <c r="P179" s="100"/>
-      <c r="Q179" s="101"/>
-    </row>
-    <row r="180" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K179" s="98"/>
+      <c r="L179" s="98"/>
+      <c r="M179" s="98"/>
+      <c r="N179" s="98"/>
+      <c r="O179" s="98"/>
+      <c r="P179" s="98"/>
+      <c r="Q179" s="99"/>
+    </row>
+    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
         <v>3</v>
       </c>
@@ -15571,7 +17717,7 @@
       </c>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B181" s="3">
         <v>4</v>
       </c>
@@ -15592,7 +17738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B182" s="3">
         <v>5</v>
       </c>
@@ -15611,7 +17757,7 @@
       </c>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B183" s="3">
         <v>6</v>
       </c>
@@ -15632,7 +17778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B184" s="3">
         <v>7</v>
       </c>
@@ -15653,19 +17799,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="2:17" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="187" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="87" t="s">
+    <row r="186" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="187" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="C187" s="88"/>
-      <c r="D187" s="88"/>
-      <c r="E187" s="88"/>
-      <c r="F187" s="88"/>
-      <c r="G187" s="88"/>
-      <c r="H187" s="89"/>
-    </row>
-    <row r="188" spans="2:17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C187" s="86"/>
+      <c r="D187" s="86"/>
+      <c r="E187" s="86"/>
+      <c r="F187" s="86"/>
+      <c r="G187" s="86"/>
+      <c r="H187" s="87"/>
+    </row>
+    <row r="188" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="22" t="s">
         <v>164</v>
       </c>
@@ -15688,7 +17834,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="189" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B189" s="15">
         <v>1</v>
       </c>
@@ -15707,7 +17853,7 @@
       <c r="G189" s="16"/>
       <c r="H189" s="17"/>
     </row>
-    <row r="190" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B190" s="34">
         <v>2</v>
       </c>
@@ -15726,7 +17872,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="35"/>
     </row>
-    <row r="191" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B191" s="34">
         <v>3</v>
       </c>
@@ -15745,7 +17891,7 @@
       <c r="G191" s="50"/>
       <c r="H191" s="44"/>
     </row>
-    <row r="192" spans="2:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B192" s="34">
         <v>4</v>
       </c>
@@ -15764,7 +17910,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="35"/>
     </row>
-    <row r="193" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" s="34">
         <v>3</v>
       </c>
@@ -15783,7 +17929,7 @@
       </c>
       <c r="H193" s="35"/>
     </row>
-    <row r="194" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" s="34">
         <v>4</v>
       </c>
@@ -15804,7 +17950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" s="34">
         <v>5</v>
       </c>
@@ -15823,7 +17969,7 @@
       </c>
       <c r="H195" s="35"/>
     </row>
-    <row r="196" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" s="34">
         <v>6</v>
       </c>
@@ -15844,7 +17990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B197" s="18">
         <v>7</v>
       </c>
@@ -15865,19 +18011,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="200" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="87" t="s">
+    <row r="199" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="200" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="C200" s="88"/>
-      <c r="D200" s="88"/>
-      <c r="E200" s="88"/>
-      <c r="F200" s="88"/>
-      <c r="G200" s="88"/>
-      <c r="H200" s="89"/>
-    </row>
-    <row r="201" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C200" s="86"/>
+      <c r="D200" s="86"/>
+      <c r="E200" s="86"/>
+      <c r="F200" s="86"/>
+      <c r="G200" s="86"/>
+      <c r="H200" s="87"/>
+    </row>
+    <row r="201" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="22" t="s">
         <v>164</v>
       </c>
@@ -15900,7 +18046,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" s="15">
         <v>1</v>
       </c>
@@ -15923,7 +18069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" s="34">
         <v>2</v>
       </c>
@@ -15946,7 +18092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" s="34">
         <v>3</v>
       </c>
@@ -15969,7 +18115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" s="34">
         <v>4</v>
       </c>
@@ -15988,7 +18134,7 @@
       </c>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" s="34">
         <v>3</v>
       </c>
@@ -16007,7 +18153,7 @@
       </c>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" s="34">
         <v>4</v>
       </c>
@@ -16028,7 +18174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" s="34">
         <v>5</v>
       </c>
@@ -16047,7 +18193,7 @@
       </c>
       <c r="H208" s="35"/>
     </row>
-    <row r="209" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" s="34">
         <v>6</v>
       </c>
@@ -16068,7 +18214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="210" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B210" s="18">
         <v>7</v>
       </c>
@@ -16087,7 +18233,7 @@
       </c>
       <c r="H210" s="35"/>
     </row>
-    <row r="211" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" s="34">
         <v>8</v>
       </c>
@@ -16108,7 +18254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B212" s="18">
         <v>9</v>
       </c>
@@ -16129,19 +18275,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="215" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="87" t="s">
+    <row r="214" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="215" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="C215" s="88"/>
-      <c r="D215" s="88"/>
-      <c r="E215" s="88"/>
-      <c r="F215" s="88"/>
-      <c r="G215" s="88"/>
-      <c r="H215" s="89"/>
-    </row>
-    <row r="216" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C215" s="86"/>
+      <c r="D215" s="86"/>
+      <c r="E215" s="86"/>
+      <c r="F215" s="86"/>
+      <c r="G215" s="86"/>
+      <c r="H215" s="87"/>
+    </row>
+    <row r="216" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="22" t="s">
         <v>164</v>
       </c>
@@ -16164,7 +18310,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="217" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" s="15">
         <v>1</v>
       </c>
@@ -16187,7 +18333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" s="34">
         <v>2</v>
       </c>
@@ -16206,7 +18352,7 @@
       <c r="G218" s="3"/>
       <c r="H218" s="35"/>
     </row>
-    <row r="219" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" s="34">
         <v>3</v>
       </c>
@@ -16223,7 +18369,7 @@
       <c r="G219" s="3"/>
       <c r="H219" s="35"/>
     </row>
-    <row r="220" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B220" s="34">
         <v>4</v>
       </c>
@@ -16240,7 +18386,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="35"/>
     </row>
-    <row r="221" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" s="15">
         <v>5</v>
       </c>
@@ -16257,7 +18403,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="35"/>
     </row>
-    <row r="222" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" s="34">
         <v>6</v>
       </c>
@@ -16274,7 +18420,7 @@
       <c r="G222" s="3"/>
       <c r="H222" s="35"/>
     </row>
-    <row r="223" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" s="34">
         <v>7</v>
       </c>
@@ -16293,7 +18439,7 @@
       </c>
       <c r="H223" s="35"/>
     </row>
-    <row r="224" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B224" s="34">
         <v>8</v>
       </c>
@@ -16314,7 +18460,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="225" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="15">
         <v>9</v>
       </c>
@@ -16333,7 +18479,7 @@
       </c>
       <c r="H225" s="35"/>
     </row>
-    <row r="226" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="34">
         <v>10</v>
       </c>
@@ -16354,7 +18500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B227" s="18">
         <v>11</v>
       </c>
@@ -16375,19 +18521,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="230" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="87" t="s">
+    <row r="229" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="85" t="s">
         <v>307</v>
       </c>
-      <c r="C230" s="88"/>
-      <c r="D230" s="88"/>
-      <c r="E230" s="88"/>
-      <c r="F230" s="88"/>
-      <c r="G230" s="88"/>
-      <c r="H230" s="89"/>
-    </row>
-    <row r="231" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C230" s="86"/>
+      <c r="D230" s="86"/>
+      <c r="E230" s="86"/>
+      <c r="F230" s="86"/>
+      <c r="G230" s="86"/>
+      <c r="H230" s="87"/>
+    </row>
+    <row r="231" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="22" t="s">
         <v>164</v>
       </c>
@@ -16410,7 +18556,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="232" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" s="15">
         <v>1</v>
       </c>
@@ -16433,7 +18579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B233" s="34">
         <v>2</v>
       </c>
@@ -16452,7 +18598,7 @@
       </c>
       <c r="H233" s="35"/>
     </row>
-    <row r="234" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B234" s="15">
         <v>3</v>
       </c>
@@ -16471,7 +18617,7 @@
       </c>
       <c r="H234" s="35"/>
     </row>
-    <row r="235" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" s="15">
         <v>4</v>
       </c>
@@ -16490,7 +18636,7 @@
       </c>
       <c r="H235" s="35"/>
     </row>
-    <row r="236" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B236" s="34">
         <v>5</v>
       </c>
@@ -16511,7 +18657,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B237" s="15">
         <v>6</v>
       </c>
@@ -16530,7 +18676,7 @@
       </c>
       <c r="H237" s="35"/>
     </row>
-    <row r="238" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" s="15">
         <v>7</v>
       </c>
@@ -16551,7 +18697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B239" s="34">
         <v>8</v>
       </c>
@@ -16572,19 +18718,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="242" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="87" t="s">
+    <row r="241" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="242" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="85" t="s">
         <v>310</v>
       </c>
-      <c r="C242" s="88"/>
-      <c r="D242" s="88"/>
-      <c r="E242" s="88"/>
-      <c r="F242" s="88"/>
-      <c r="G242" s="88"/>
-      <c r="H242" s="89"/>
-    </row>
-    <row r="243" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C242" s="86"/>
+      <c r="D242" s="86"/>
+      <c r="E242" s="86"/>
+      <c r="F242" s="86"/>
+      <c r="G242" s="86"/>
+      <c r="H242" s="87"/>
+    </row>
+    <row r="243" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="22" t="s">
         <v>164</v>
       </c>
@@ -16607,7 +18753,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="244" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" s="15">
         <v>1</v>
       </c>
@@ -16630,7 +18776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" s="34">
         <v>2</v>
       </c>
@@ -16653,7 +18799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" s="34">
         <v>3</v>
       </c>
@@ -16674,7 +18820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" s="34">
         <v>4</v>
       </c>
@@ -16695,7 +18841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" s="34">
         <v>5</v>
       </c>
@@ -16716,7 +18862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" s="34">
         <v>6</v>
       </c>
@@ -16737,7 +18883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" s="34">
         <v>7</v>
       </c>
@@ -16758,7 +18904,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" s="34">
         <v>8</v>
       </c>
@@ -16779,7 +18925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" s="34">
         <v>9</v>
       </c>
@@ -16800,7 +18946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" s="34">
         <v>10</v>
       </c>
@@ -16819,7 +18965,7 @@
       </c>
       <c r="H253" s="35"/>
     </row>
-    <row r="254" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" s="34">
         <v>11</v>
       </c>
@@ -16840,7 +18986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" s="34">
         <v>12</v>
       </c>
@@ -16859,7 +19005,7 @@
       </c>
       <c r="H255" s="35"/>
     </row>
-    <row r="256" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" s="34">
         <v>13</v>
       </c>
@@ -16880,7 +19026,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B257" s="18">
         <v>14</v>
       </c>
@@ -16901,19 +19047,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="260" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="87" t="s">
+    <row r="259" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="C260" s="88"/>
-      <c r="D260" s="88"/>
-      <c r="E260" s="88"/>
-      <c r="F260" s="88"/>
-      <c r="G260" s="88"/>
-      <c r="H260" s="89"/>
-    </row>
-    <row r="261" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C260" s="86"/>
+      <c r="D260" s="86"/>
+      <c r="E260" s="86"/>
+      <c r="F260" s="86"/>
+      <c r="G260" s="86"/>
+      <c r="H260" s="87"/>
+    </row>
+    <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B261" s="22" t="s">
         <v>164</v>
       </c>
@@ -16936,7 +19082,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="262" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" s="15">
         <v>1</v>
       </c>
@@ -16957,7 +19103,7 @@
       </c>
       <c r="H262" s="17"/>
     </row>
-    <row r="263" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" s="34">
         <v>2</v>
       </c>
@@ -16976,7 +19122,7 @@
       </c>
       <c r="H263" s="35"/>
     </row>
-    <row r="264" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B264" s="34">
         <v>3</v>
       </c>
@@ -16995,7 +19141,7 @@
       </c>
       <c r="H264" s="35"/>
     </row>
-    <row r="265" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" s="15">
         <v>4</v>
       </c>
@@ -17014,7 +19160,7 @@
       </c>
       <c r="H265" s="35"/>
     </row>
-    <row r="266" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B266" s="34">
         <v>5</v>
       </c>
@@ -17033,7 +19179,7 @@
       </c>
       <c r="H266" s="35"/>
     </row>
-    <row r="267" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" s="15">
         <v>6</v>
       </c>
@@ -17052,7 +19198,7 @@
       </c>
       <c r="H267" s="54"/>
     </row>
-    <row r="268" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" s="34">
         <v>7</v>
       </c>
@@ -17073,7 +19219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="269" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B269" s="34">
         <v>8</v>
       </c>
@@ -17092,7 +19238,7 @@
       </c>
       <c r="H269" s="35"/>
     </row>
-    <row r="270" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" s="15">
         <v>9</v>
       </c>
@@ -17113,7 +19259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="271" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B271" s="18">
         <v>10</v>
       </c>
@@ -17134,19 +19280,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="2:16" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="274" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="87" t="s">
+    <row r="273" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="274" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="85" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="88"/>
-      <c r="D274" s="88"/>
-      <c r="E274" s="88"/>
-      <c r="F274" s="88"/>
-      <c r="G274" s="88"/>
-      <c r="H274" s="89"/>
-    </row>
-    <row r="275" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C274" s="86"/>
+      <c r="D274" s="86"/>
+      <c r="E274" s="86"/>
+      <c r="F274" s="86"/>
+      <c r="G274" s="86"/>
+      <c r="H274" s="87"/>
+    </row>
+    <row r="275" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B275" s="22" t="s">
         <v>164</v>
       </c>
@@ -17169,7 +19315,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="276" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B276" s="15">
         <v>1</v>
       </c>
@@ -17190,7 +19336,7 @@
       </c>
       <c r="H276" s="17"/>
     </row>
-    <row r="277" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B277" s="34">
         <v>2</v>
       </c>
@@ -17210,17 +19356,17 @@
         <v>184</v>
       </c>
       <c r="H277" s="35"/>
-      <c r="J277" s="105" t="s">
+      <c r="J277" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="K277" s="98"/>
-      <c r="L277" s="98"/>
-      <c r="M277" s="98"/>
-      <c r="N277" s="98"/>
-      <c r="O277" s="98"/>
-      <c r="P277" s="99"/>
-    </row>
-    <row r="278" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K277" s="96"/>
+      <c r="L277" s="96"/>
+      <c r="M277" s="96"/>
+      <c r="N277" s="96"/>
+      <c r="O277" s="96"/>
+      <c r="P277" s="97"/>
+    </row>
+    <row r="278" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B278" s="34">
         <v>3</v>
       </c>
@@ -17239,7 +19385,7 @@
       </c>
       <c r="H278" s="54"/>
     </row>
-    <row r="279" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B279" s="15">
         <v>4</v>
       </c>
@@ -17260,7 +19406,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B280" s="34">
         <v>5</v>
       </c>
@@ -17279,7 +19425,7 @@
       </c>
       <c r="H280" s="35"/>
     </row>
-    <row r="281" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B281" s="34">
         <v>6</v>
       </c>
@@ -17300,7 +19446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B282" s="42">
         <v>7</v>
       </c>
@@ -17321,19 +19467,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="2:16" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="285" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="87" t="s">
+    <row r="284" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="285" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="85" t="s">
         <v>329</v>
       </c>
-      <c r="C285" s="88"/>
-      <c r="D285" s="88"/>
-      <c r="E285" s="88"/>
-      <c r="F285" s="88"/>
-      <c r="G285" s="88"/>
-      <c r="H285" s="89"/>
-    </row>
-    <row r="286" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C285" s="86"/>
+      <c r="D285" s="86"/>
+      <c r="E285" s="86"/>
+      <c r="F285" s="86"/>
+      <c r="G285" s="86"/>
+      <c r="H285" s="87"/>
+    </row>
+    <row r="286" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B286" s="22" t="s">
         <v>164</v>
       </c>
@@ -17356,7 +19502,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="287" spans="2:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B287" s="15">
         <v>1</v>
       </c>
@@ -17377,7 +19523,7 @@
       </c>
       <c r="H287" s="17"/>
     </row>
-    <row r="288" spans="2:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B288" s="34">
         <v>2</v>
       </c>
@@ -17398,7 +19544,7 @@
       </c>
       <c r="H288" s="35"/>
     </row>
-    <row r="289" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="15">
         <v>3</v>
       </c>
@@ -17417,7 +19563,7 @@
       </c>
       <c r="H289" s="35"/>
     </row>
-    <row r="290" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B290" s="34">
         <v>4</v>
       </c>
@@ -17436,7 +19582,7 @@
       </c>
       <c r="H290" s="35"/>
     </row>
-    <row r="291" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="15">
         <v>5</v>
       </c>
@@ -17455,7 +19601,7 @@
       </c>
       <c r="H291" s="35"/>
     </row>
-    <row r="292" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B292" s="34">
         <v>6</v>
       </c>
@@ -17474,7 +19620,7 @@
       </c>
       <c r="H292" s="35"/>
     </row>
-    <row r="293" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="15">
         <v>7</v>
       </c>
@@ -17495,7 +19641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B294" s="34">
         <v>8</v>
       </c>
@@ -17514,7 +19660,7 @@
       </c>
       <c r="H294" s="35"/>
     </row>
-    <row r="295" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" s="15">
         <v>9</v>
       </c>
@@ -17535,7 +19681,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B296" s="18">
         <v>10</v>
       </c>
@@ -17556,17 +19702,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B299" s="107" t="s">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B299" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="C299" s="107"/>
-      <c r="D299" s="107"/>
-      <c r="E299" s="107"/>
-      <c r="F299" s="107"/>
-      <c r="G299" s="107"/>
-    </row>
-    <row r="300" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C299" s="105"/>
+      <c r="D299" s="105"/>
+      <c r="E299" s="105"/>
+      <c r="F299" s="105"/>
+      <c r="G299" s="105"/>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="11" t="s">
         <v>179</v>
       </c>
@@ -17586,7 +19732,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="301" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" s="3">
         <v>1</v>
       </c>
@@ -17606,7 +19752,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" s="3">
         <v>2</v>
       </c>
@@ -17626,7 +19772,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B303" s="34">
         <v>6</v>
       </c>
@@ -17645,7 +19791,7 @@
       </c>
       <c r="H303" s="35"/>
     </row>
-    <row r="304" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" s="15">
         <v>7</v>
       </c>
@@ -17666,7 +19812,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="305" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B305" s="34">
         <v>8</v>
       </c>
@@ -17685,7 +19831,7 @@
       </c>
       <c r="H305" s="35"/>
     </row>
-    <row r="306" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B306" s="15">
         <v>9</v>
       </c>
@@ -17706,7 +19852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B307" s="18">
         <v>10</v>
       </c>
@@ -17727,19 +19873,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="310" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B310" s="87" t="s">
+    <row r="309" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="310" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="C310" s="88"/>
-      <c r="D310" s="88"/>
-      <c r="E310" s="88"/>
-      <c r="F310" s="88"/>
-      <c r="G310" s="88"/>
-      <c r="H310" s="89"/>
-    </row>
-    <row r="311" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="C310" s="86"/>
+      <c r="D310" s="86"/>
+      <c r="E310" s="86"/>
+      <c r="F310" s="86"/>
+      <c r="G310" s="86"/>
+      <c r="H310" s="87"/>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="22" t="s">
         <v>164</v>
       </c>
@@ -17762,7 +19908,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="312" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B312" s="3">
         <v>1</v>
       </c>
@@ -17779,7 +19925,7 @@
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B313" s="3">
         <v>2</v>
       </c>
@@ -17798,7 +19944,7 @@
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B314" s="3">
         <v>3</v>
       </c>
@@ -17815,7 +19961,7 @@
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B315" s="3">
         <v>4</v>
       </c>
@@ -17832,7 +19978,7 @@
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B316" s="3">
         <v>5</v>
       </c>
@@ -17851,7 +19997,7 @@
       </c>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B317" s="3">
         <v>6</v>
       </c>
@@ -17872,7 +20018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B318" s="3">
         <v>7</v>
       </c>
@@ -17891,7 +20037,7 @@
       </c>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B319" s="3">
         <v>8</v>
       </c>
@@ -17912,7 +20058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B320" s="3">
         <v>9</v>
       </c>

--- a/Traditional Yoga Updated Document.xlsx
+++ b/Traditional Yoga Updated Document.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
     <sheet name="API List" sheetId="11" r:id="rId2"/>
     <sheet name="Detailed Plan" sheetId="1" r:id="rId3"/>
     <sheet name="admin all tables" sheetId="10" r:id="rId4"/>
+    <sheet name="Issue Tracker" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Detailed Plan'!$B$2:$K$349</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="493">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -1381,9 +1381,6 @@
     <t>In progress</t>
   </si>
   <si>
-    <t>Primary Key Missing</t>
-  </si>
-  <si>
     <t>Donation</t>
   </si>
   <si>
@@ -1433,6 +1430,81 @@
   </si>
   <si>
     <t>Praneeth/ karthik</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>Menu Order : follow the order as provided by them</t>
+  </si>
+  <si>
+    <t>Dashbord corses name change</t>
+  </si>
+  <si>
+    <t>Courese dropdown</t>
+  </si>
+  <si>
+    <t>top space</t>
+  </si>
+  <si>
+    <t>student profile foreign key relation</t>
+  </si>
+  <si>
+    <t>Donation space</t>
+  </si>
+  <si>
+    <t>Add Volunteer : select course, date , save change, mandatry</t>
+  </si>
+  <si>
+    <t>performance : select course in top</t>
+  </si>
+  <si>
+    <t>Dashbord serperate Menu</t>
+  </si>
+  <si>
+    <t>Admin Management need to add</t>
+  </si>
+  <si>
+    <t>Alerts: upload file is missing in UI</t>
+  </si>
+  <si>
+    <t>Banner: table name is incorrect, checkbox, icons, search</t>
+  </si>
+  <si>
+    <t>Blacklist Users : update title name, Button text, Action cloumn only icons tooltip "remove blacklist"</t>
+  </si>
+  <si>
+    <t>User Enrollment need to work</t>
+  </si>
+  <si>
+    <t>Role is not working</t>
+  </si>
+  <si>
+    <t>Role permission is not working</t>
+  </si>
+  <si>
+    <t>select course not working</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>checkbox, search</t>
+  </si>
+  <si>
+    <t>No Issue encountered</t>
+  </si>
+  <si>
+    <t>Ajith K</t>
+  </si>
+  <si>
+    <t>Alert Category</t>
+  </si>
+  <si>
+    <t>/webSite/getAll?operation=alertCategory</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1562,6 +1634,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2071,7 +2149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2198,13 +2276,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2214,6 +2297,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2228,30 +2350,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2261,25 +2359,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2435,13 +2557,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2451,6 +2566,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2483,26 +2605,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2517,16 +2619,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H102" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="B2:H102"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="S No" dataDxfId="6"/>
-    <tableColumn id="2" name="Page" dataDxfId="5"/>
-    <tableColumn id="3" name="Method" dataDxfId="4"/>
-    <tableColumn id="4" name="API" dataDxfId="3"/>
-    <tableColumn id="12" name="API Status" dataDxfId="2"/>
-    <tableColumn id="13" name="Angular Status" dataDxfId="1"/>
-    <tableColumn id="11" name="Remark" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:I102" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B2:I102"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="S No" dataDxfId="9"/>
+    <tableColumn id="2" name="Page" dataDxfId="8"/>
+    <tableColumn id="3" name="Method" dataDxfId="7"/>
+    <tableColumn id="4" name="API" dataDxfId="6"/>
+    <tableColumn id="12" name="API Status" dataDxfId="5"/>
+    <tableColumn id="5" name="Resource" dataDxfId="0"/>
+    <tableColumn id="13" name="Angular Status" dataDxfId="4"/>
+    <tableColumn id="11" name="Remark" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2821,7 +2924,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2940,23 +3043,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H102"/>
+  <dimension ref="B2:I102"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="106" t="s">
+    <row r="2" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="82" t="s">
         <v>395</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -2965,62 +3071,67 @@
       <c r="D2" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="83" t="s">
         <v>398</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="I2" s="32" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="84" t="s">
         <v>401</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="84"/>
+      <c r="H3" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="84" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -3033,15 +3144,16 @@
       <c r="E5" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="84"/>
+      <c r="H5" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -3054,15 +3166,16 @@
       <c r="E6" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G6" s="108" t="s">
+      <c r="G6" s="84"/>
+      <c r="H6" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -3075,15 +3188,16 @@
       <c r="E7" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="F7" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="84"/>
+      <c r="H7" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -3096,15 +3210,16 @@
       <c r="E8" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="F8" s="108" t="s">
+      <c r="F8" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G8" s="108" t="s">
+      <c r="G8" s="84"/>
+      <c r="H8" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -3117,15 +3232,16 @@
       <c r="E9" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="84"/>
+      <c r="H9" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -3138,15 +3254,16 @@
       <c r="E10" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="F10" s="108" t="s">
+      <c r="F10" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="84"/>
+      <c r="H10" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -3159,15 +3276,16 @@
       <c r="E11" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="F11" s="108" t="s">
+      <c r="F11" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G11" s="108" t="s">
+      <c r="G11" s="84"/>
+      <c r="H11" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -3180,15 +3298,16 @@
       <c r="E12" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F12" s="108" t="s">
+      <c r="F12" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G12" s="108" t="s">
+      <c r="G12" s="84"/>
+      <c r="H12" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -3201,15 +3320,16 @@
       <c r="E13" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G13" s="108" t="s">
+      <c r="G13" s="84"/>
+      <c r="H13" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -3222,15 +3342,16 @@
       <c r="E14" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="84"/>
+      <c r="H14" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -3243,15 +3364,16 @@
       <c r="E15" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="84"/>
+      <c r="H15" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -3264,15 +3386,16 @@
       <c r="E16" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G16" s="108" t="s">
+      <c r="G16" s="84"/>
+      <c r="H16" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -3285,15 +3408,16 @@
       <c r="E17" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G17" s="108" t="s">
+      <c r="G17" s="84"/>
+      <c r="H17" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -3306,15 +3430,16 @@
       <c r="E18" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F18" s="108" t="s">
+      <c r="F18" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G18" s="108" t="s">
+      <c r="G18" s="84"/>
+      <c r="H18" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -3327,15 +3452,16 @@
       <c r="E19" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="F19" s="108" t="s">
+      <c r="F19" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G19" s="108" t="s">
+      <c r="G19" s="84"/>
+      <c r="H19" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -3348,15 +3474,16 @@
       <c r="E20" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F20" s="108" t="s">
+      <c r="F20" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G20" s="108" t="s">
+      <c r="G20" s="84"/>
+      <c r="H20" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -3369,15 +3496,16 @@
       <c r="E21" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="F21" s="108" t="s">
+      <c r="F21" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G21" s="108" t="s">
+      <c r="G21" s="84"/>
+      <c r="H21" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -3390,15 +3518,16 @@
       <c r="E22" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F22" s="108" t="s">
+      <c r="F22" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G22" s="108" t="s">
+      <c r="G22" s="84"/>
+      <c r="H22" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -3411,15 +3540,16 @@
       <c r="E23" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F23" s="108" t="s">
+      <c r="F23" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G23" s="108" t="s">
+      <c r="G23" s="84"/>
+      <c r="H23" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -3432,15 +3562,16 @@
       <c r="E24" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="F24" s="108" t="s">
+      <c r="F24" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G24" s="108" t="s">
+      <c r="G24" s="84"/>
+      <c r="H24" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -3453,15 +3584,16 @@
       <c r="E25" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F25" s="108" t="s">
+      <c r="F25" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G25" s="108" t="s">
+      <c r="G25" s="84"/>
+      <c r="H25" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>24</v>
       </c>
@@ -3474,15 +3606,16 @@
       <c r="E26" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="F26" s="108" t="s">
+      <c r="F26" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G26" s="108" t="s">
+      <c r="G26" s="84"/>
+      <c r="H26" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>25</v>
       </c>
@@ -3495,15 +3628,16 @@
       <c r="E27" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F27" s="108" t="s">
+      <c r="F27" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G27" s="108" t="s">
+      <c r="G27" s="84"/>
+      <c r="H27" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>26</v>
       </c>
@@ -3516,15 +3650,16 @@
       <c r="E28" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="F28" s="108" t="s">
+      <c r="F28" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G28" s="108" t="s">
+      <c r="G28" s="84"/>
+      <c r="H28" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>27</v>
       </c>
@@ -3537,15 +3672,16 @@
       <c r="E29" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="F29" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="84"/>
+      <c r="H29" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>28</v>
       </c>
@@ -3558,15 +3694,16 @@
       <c r="E30" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F30" s="108" t="s">
+      <c r="F30" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G30" s="108" t="s">
+      <c r="G30" s="84"/>
+      <c r="H30" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>29</v>
       </c>
@@ -3579,15 +3716,16 @@
       <c r="E31" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F31" s="108" t="s">
+      <c r="F31" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G31" s="108" t="s">
+      <c r="G31" s="84"/>
+      <c r="H31" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>30</v>
       </c>
@@ -3600,15 +3738,16 @@
       <c r="E32" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F32" s="108" t="s">
+      <c r="F32" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G32" s="108" t="s">
+      <c r="G32" s="84"/>
+      <c r="H32" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>31</v>
       </c>
@@ -3621,15 +3760,16 @@
       <c r="E33" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F33" s="108" t="s">
+      <c r="F33" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G33" s="108" t="s">
+      <c r="G33" s="84"/>
+      <c r="H33" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>32</v>
       </c>
@@ -3642,15 +3782,16 @@
       <c r="E34" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="F34" s="108" t="s">
+      <c r="F34" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G34" s="108" t="s">
+      <c r="G34" s="84"/>
+      <c r="H34" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>33</v>
       </c>
@@ -3663,15 +3804,16 @@
       <c r="E35" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F35" s="108" t="s">
+      <c r="F35" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="84"/>
+      <c r="H35" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>34</v>
       </c>
@@ -3684,15 +3826,16 @@
       <c r="E36" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F36" s="108" t="s">
+      <c r="F36" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G36" s="108" t="s">
+      <c r="G36" s="84"/>
+      <c r="H36" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>35</v>
       </c>
@@ -3705,15 +3848,16 @@
       <c r="E37" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F37" s="108" t="s">
+      <c r="F37" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G37" s="108" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>36</v>
       </c>
@@ -3726,15 +3870,16 @@
       <c r="E38" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="F38" s="108" t="s">
+      <c r="F38" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G38" s="108" t="s">
+      <c r="G38" s="84"/>
+      <c r="H38" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>37</v>
       </c>
@@ -3747,99 +3892,104 @@
       <c r="E39" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F39" s="108" t="s">
+      <c r="F39" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G39" s="108" t="s">
+      <c r="G39" s="84"/>
+      <c r="H39" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="84" t="s">
         <v>443</v>
       </c>
-      <c r="D40" s="108" t="s">
+      <c r="D40" s="84" t="s">
         <v>402</v>
       </c>
-      <c r="E40" s="108" t="s">
+      <c r="E40" s="84" t="s">
         <v>444</v>
       </c>
-      <c r="F40" s="108" t="s">
+      <c r="F40" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G40" s="108" t="s">
+      <c r="G40" s="84"/>
+      <c r="H40" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="108" t="s">
+      <c r="C41" s="84" t="s">
         <v>443</v>
       </c>
-      <c r="D41" s="108" t="s">
+      <c r="D41" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="E41" s="108" t="s">
+      <c r="E41" s="84" t="s">
         <v>445</v>
       </c>
-      <c r="F41" s="108" t="s">
+      <c r="F41" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G41" s="108" t="s">
+      <c r="G41" s="84"/>
+      <c r="H41" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="108" t="s">
+      <c r="C42" s="84" t="s">
         <v>443</v>
       </c>
-      <c r="D42" s="108" t="s">
+      <c r="D42" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="E42" s="108" t="s">
+      <c r="E42" s="84" t="s">
         <v>446</v>
       </c>
-      <c r="F42" s="108" t="s">
+      <c r="F42" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G42" s="108" t="s">
+      <c r="G42" s="84"/>
+      <c r="H42" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="108" t="s">
+      <c r="C43" s="84" t="s">
         <v>447</v>
       </c>
-      <c r="D43" s="108" t="s">
+      <c r="D43" s="84" t="s">
         <v>402</v>
       </c>
-      <c r="E43" s="108" t="s">
+      <c r="E43" s="84" t="s">
         <v>448</v>
       </c>
-      <c r="F43" s="108" t="s">
+      <c r="F43" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G43" s="108" t="s">
+      <c r="G43" s="84"/>
+      <c r="H43" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>42</v>
       </c>
@@ -3852,22 +4002,21 @@
       <c r="E44" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="F44" s="110" t="s">
+      <c r="F44" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="G44" s="110" t="s">
+      <c r="G44" s="84"/>
+      <c r="H44" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>402</v>
@@ -3875,212 +4024,254 @@
       <c r="E45" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F45" s="108" t="s">
+      <c r="F45" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G45" s="110" t="s">
+      <c r="G45" s="84" t="s">
+        <v>490</v>
+      </c>
+      <c r="H45" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>404</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F46" s="108" t="s">
+        <v>453</v>
+      </c>
+      <c r="F46" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G46" s="110" t="s">
+      <c r="G46" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="H46" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>402</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G47" s="110" t="s">
-        <v>450</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="H47" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>404</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G48" s="110" t="s">
+      <c r="G48" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H48" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>402</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G49" s="110" t="s">
+      <c r="G49" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="H49" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>402</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G50" s="110" t="s">
-        <v>450</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H50" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>404</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G51" s="110" t="s">
-        <v>450</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H51" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>404</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G52" s="110" t="s">
-        <v>450</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H52" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>404</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G53" s="110" t="s">
-        <v>450</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H53" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>52</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H54" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>53</v>
       </c>
@@ -4090,8 +4281,9 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>54</v>
       </c>
@@ -4101,8 +4293,9 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>55</v>
       </c>
@@ -4112,8 +4305,9 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>56</v>
       </c>
@@ -4123,8 +4317,9 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>57</v>
       </c>
@@ -4134,8 +4329,9 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>58</v>
       </c>
@@ -4145,8 +4341,9 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>59</v>
       </c>
@@ -4156,8 +4353,9 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>60</v>
       </c>
@@ -4167,8 +4365,9 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>61</v>
       </c>
@@ -4178,8 +4377,9 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>62</v>
       </c>
@@ -4189,8 +4389,9 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>63</v>
       </c>
@@ -4200,8 +4401,9 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>64</v>
       </c>
@@ -4211,8 +4413,9 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>65</v>
       </c>
@@ -4222,8 +4425,9 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>66</v>
       </c>
@@ -4233,8 +4437,9 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>67</v>
       </c>
@@ -4244,8 +4449,9 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>68</v>
       </c>
@@ -4255,8 +4461,9 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>69</v>
       </c>
@@ -4266,8 +4473,9 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>70</v>
       </c>
@@ -4277,8 +4485,9 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>71</v>
       </c>
@@ -4288,8 +4497,9 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>72</v>
       </c>
@@ -4299,8 +4509,9 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>73</v>
       </c>
@@ -4310,8 +4521,9 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>74</v>
       </c>
@@ -4321,8 +4533,9 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>75</v>
       </c>
@@ -4332,8 +4545,9 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>76</v>
       </c>
@@ -4343,8 +4557,9 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>77</v>
       </c>
@@ -4354,8 +4569,9 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>78</v>
       </c>
@@ -4365,8 +4581,9 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>79</v>
       </c>
@@ -4376,8 +4593,9 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>80</v>
       </c>
@@ -4387,8 +4605,9 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>81</v>
       </c>
@@ -4398,8 +4617,9 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>82</v>
       </c>
@@ -4409,8 +4629,9 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>83</v>
       </c>
@@ -4420,8 +4641,9 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>84</v>
       </c>
@@ -4431,8 +4653,9 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>85</v>
       </c>
@@ -4442,8 +4665,9 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>86</v>
       </c>
@@ -4453,8 +4677,9 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>87</v>
       </c>
@@ -4464,8 +4689,9 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>88</v>
       </c>
@@ -4475,8 +4701,9 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>89</v>
       </c>
@@ -4486,8 +4713,9 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <v>90</v>
       </c>
@@ -4497,8 +4725,9 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <v>91</v>
       </c>
@@ -4508,8 +4737,9 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <v>92</v>
       </c>
@@ -4519,8 +4749,9 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <v>93</v>
       </c>
@@ -4530,8 +4761,9 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <v>94</v>
       </c>
@@ -4541,8 +4773,9 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>95</v>
       </c>
@@ -4552,8 +4785,9 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>96</v>
       </c>
@@ -4563,8 +4797,9 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>97</v>
       </c>
@@ -4574,8 +4809,9 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>98</v>
       </c>
@@ -4585,8 +4821,9 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>99</v>
       </c>
@@ -4596,8 +4833,9 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>100</v>
       </c>
@@ -4607,6 +4845,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4621,8 +4860,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4737,7 +4976,7 @@
       </c>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="62">
         <v>6</v>
       </c>
@@ -4767,7 +5006,7 @@
       </c>
       <c r="K5" s="62"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="62">
         <v>8</v>
       </c>
@@ -4797,7 +5036,7 @@
       </c>
       <c r="K6" s="62"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="72">
         <v>3</v>
       </c>
@@ -4827,7 +5066,7 @@
       </c>
       <c r="K7" s="72"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="72">
         <v>5</v>
       </c>
@@ -4857,7 +5096,7 @@
       </c>
       <c r="K8" s="72"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="62">
         <v>10</v>
       </c>
@@ -4887,7 +5126,7 @@
       </c>
       <c r="K9" s="62"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="72">
         <v>12</v>
       </c>
@@ -4917,7 +5156,7 @@
       </c>
       <c r="K10" s="72"/>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="72">
         <v>7</v>
       </c>
@@ -4947,7 +5186,7 @@
       </c>
       <c r="K11" s="72"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="72">
         <v>9</v>
       </c>
@@ -4977,7 +5216,7 @@
       </c>
       <c r="K12" s="72"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="72">
         <v>14</v>
       </c>
@@ -5007,7 +5246,7 @@
       </c>
       <c r="K13" s="72"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="72">
         <v>16</v>
       </c>
@@ -5037,7 +5276,7 @@
       </c>
       <c r="K14" s="72"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="72">
         <v>11</v>
       </c>
@@ -5067,7 +5306,7 @@
       </c>
       <c r="K15" s="72"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="72">
         <v>13</v>
       </c>
@@ -5097,7 +5336,7 @@
       </c>
       <c r="K16" s="72"/>
     </row>
-    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="72">
         <v>15</v>
       </c>
@@ -5127,7 +5366,7 @@
       </c>
       <c r="K17" s="72"/>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="72">
         <v>17</v>
       </c>
@@ -5157,7 +5396,7 @@
       </c>
       <c r="K18" s="72"/>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="75">
         <v>22</v>
       </c>
@@ -5187,7 +5426,7 @@
       </c>
       <c r="K19" s="75"/>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="75">
         <v>24</v>
       </c>
@@ -5217,7 +5456,7 @@
       </c>
       <c r="K20" s="75"/>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="75">
         <v>26</v>
       </c>
@@ -5247,7 +5486,7 @@
       </c>
       <c r="K21" s="75"/>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="75">
         <v>28</v>
       </c>
@@ -5277,7 +5516,7 @@
       </c>
       <c r="K22" s="75"/>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="72">
         <v>23</v>
       </c>
@@ -5307,7 +5546,7 @@
       </c>
       <c r="K23" s="72"/>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="75">
         <v>30</v>
       </c>
@@ -5337,7 +5576,7 @@
       </c>
       <c r="K24" s="75"/>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="75">
         <v>32</v>
       </c>
@@ -5367,7 +5606,7 @@
       </c>
       <c r="K25" s="75"/>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="63">
         <v>1</v>
       </c>
@@ -5391,7 +5630,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="72">
         <v>27</v>
       </c>
@@ -5421,7 +5660,7 @@
       </c>
       <c r="K27" s="72"/>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="72">
         <v>29</v>
       </c>
@@ -5451,7 +5690,7 @@
       </c>
       <c r="K28" s="72"/>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="75">
         <v>34</v>
       </c>
@@ -5511,7 +5750,7 @@
       </c>
       <c r="K30" s="75"/>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>37</v>
       </c>
@@ -5543,7 +5782,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>25</v>
       </c>
@@ -5573,7 +5812,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="72">
         <v>31</v>
       </c>
@@ -5603,7 +5842,7 @@
       </c>
       <c r="K33" s="72"/>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="72">
         <v>33</v>
       </c>
@@ -5633,7 +5872,7 @@
       </c>
       <c r="K34" s="72"/>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="72">
         <v>35</v>
       </c>
@@ -5663,7 +5902,7 @@
       </c>
       <c r="K35" s="72"/>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="75">
         <v>39</v>
       </c>
@@ -5695,7 +5934,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="75">
         <v>41</v>
       </c>
@@ -5727,7 +5966,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="72">
         <v>43</v>
       </c>
@@ -5757,7 +5996,7 @@
       </c>
       <c r="K38" s="72"/>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -5819,7 +6058,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>42</v>
       </c>
@@ -5881,7 +6120,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="72">
         <v>45</v>
       </c>
@@ -5911,7 +6150,7 @@
       </c>
       <c r="K43" s="72"/>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="75">
         <v>47</v>
       </c>
@@ -5943,7 +6182,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="75">
         <v>49</v>
       </c>
@@ -5975,7 +6214,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>46</v>
       </c>
@@ -6005,7 +6244,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>48</v>
       </c>
@@ -6037,7 +6276,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>50</v>
       </c>
@@ -6048,7 +6287,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>152</v>
@@ -6069,7 +6308,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="72">
         <v>51</v>
       </c>
@@ -6129,7 +6368,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="72">
         <v>53</v>
       </c>
@@ -6159,7 +6398,7 @@
       </c>
       <c r="K51" s="72"/>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>54</v>
       </c>
@@ -6191,7 +6430,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>55</v>
       </c>
@@ -6221,7 +6460,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>56</v>
       </c>
@@ -6253,7 +6492,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="72">
         <v>57</v>
       </c>
@@ -6375,7 +6614,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>64</v>
       </c>
@@ -6386,7 +6625,7 @@
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>152</v>
@@ -6407,7 +6646,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>66</v>
       </c>
@@ -6418,7 +6657,7 @@
         <v>27</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>152</v>
@@ -6439,7 +6678,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="72">
         <v>59</v>
       </c>
@@ -6469,7 +6708,7 @@
       </c>
       <c r="K61" s="72"/>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="70">
         <v>61</v>
       </c>
@@ -6555,14 +6794,14 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="70">
         <v>63</v>
       </c>
       <c r="C65" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="81" t="s">
         <v>26</v>
       </c>
       <c r="E65" s="70" t="s">
@@ -6585,7 +6824,7 @@
       </c>
       <c r="K65" s="70"/>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="70">
         <v>65</v>
       </c>
@@ -6602,7 +6841,7 @@
         <v>161</v>
       </c>
       <c r="G66" s="70" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H66" s="71">
         <v>44888</v>
@@ -6671,7 +6910,7 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="70">
         <v>67</v>
       </c>
@@ -6688,7 +6927,7 @@
         <v>161</v>
       </c>
       <c r="G69" s="70" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H69" s="71">
         <v>44889</v>
@@ -6701,7 +6940,7 @@
       </c>
       <c r="K69" s="70"/>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="70">
         <v>69</v>
       </c>
@@ -6718,7 +6957,7 @@
         <v>161</v>
       </c>
       <c r="G70" s="70" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H70" s="71">
         <v>44889</v>
@@ -6787,7 +7026,7 @@
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>71</v>
       </c>
@@ -6804,7 +7043,7 @@
         <v>161</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H73" s="69">
         <v>44890</v>
@@ -6817,7 +7056,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>73</v>
       </c>
@@ -6834,7 +7073,7 @@
         <v>161</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H74" s="69">
         <v>44890</v>
@@ -6847,7 +7086,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="70">
         <v>75</v>
       </c>
@@ -6864,7 +7103,7 @@
         <v>161</v>
       </c>
       <c r="G75" s="70" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H75" s="71">
         <v>44893</v>
@@ -6877,7 +7116,7 @@
       </c>
       <c r="K75" s="70"/>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="70">
         <v>77</v>
       </c>
@@ -6894,7 +7133,7 @@
         <v>161</v>
       </c>
       <c r="G76" s="70" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H76" s="71">
         <v>44893</v>
@@ -6963,7 +7202,7 @@
       </c>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>79</v>
       </c>
@@ -6973,12 +7212,14 @@
       <c r="D79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="F79" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H79" s="64">
         <v>44894</v>
@@ -6991,7 +7232,7 @@
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>81</v>
       </c>
@@ -7001,12 +7242,14 @@
       <c r="D80" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="F80" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H80" s="64">
         <v>44894</v>
@@ -7075,7 +7318,7 @@
       </c>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>83</v>
       </c>
@@ -7085,12 +7328,14 @@
       <c r="D83" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="F83" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H83" s="64">
         <v>44895</v>
@@ -7103,7 +7348,7 @@
       </c>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>85</v>
       </c>
@@ -7113,12 +7358,14 @@
       <c r="D84" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H84" s="64">
         <v>44895</v>
@@ -7131,7 +7378,7 @@
       </c>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>88</v>
       </c>
@@ -7159,7 +7406,7 @@
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>90</v>
       </c>
@@ -14517,28 +14764,9 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:K349">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="API"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="In Progress"/>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="7">
       <filters>
-        <dateGroupItem year="2022" month="11" day="10" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="17" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="18" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="21" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="22" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="23" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="24" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="28" dateTimeGrouping="day"/>
-        <dateGroupItem year="2022" month="11" day="29" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="11" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -14547,10 +14775,10 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C68:E68">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:E67">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14562,7 +14790,7 @@
   <dimension ref="B1:Q320"/>
   <sheetViews>
     <sheetView topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D328" sqref="D328"/>
+      <selection activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14574,15 +14802,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
     </row>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
@@ -14650,14 +14878,14 @@
       <c r="H4" s="44">
         <v>55</v>
       </c>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="111" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="113"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="39">
@@ -14774,15 +15002,15 @@
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
@@ -14934,14 +15162,14 @@
       <c r="H19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="95" t="s">
+      <c r="J19" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="97"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="99"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
@@ -15076,15 +15304,15 @@
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="s">
@@ -15173,14 +15401,14 @@
       <c r="H30" s="3">
         <v>255</v>
       </c>
-      <c r="J30" s="95" t="s">
+      <c r="J30" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="97"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="99"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
@@ -15244,14 +15472,14 @@
       <c r="H33" s="3">
         <v>10</v>
       </c>
-      <c r="J33" s="95" t="s">
+      <c r="J33" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="97"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="99"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
@@ -15380,15 +15608,15 @@
     </row>
     <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="102"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="116"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="27" t="s">
@@ -15558,15 +15786,15 @@
     </row>
     <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="94"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="106"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="22" t="s">
@@ -15731,15 +15959,15 @@
     </row>
     <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="93"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="94"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="106"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="27" t="s">
@@ -15822,15 +16050,15 @@
         <v>188</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="J69" s="95" t="s">
+      <c r="J69" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="K69" s="98"/>
-      <c r="L69" s="98"/>
-      <c r="M69" s="98"/>
-      <c r="N69" s="98"/>
-      <c r="O69" s="98"/>
-      <c r="P69" s="99"/>
+      <c r="K69" s="102"/>
+      <c r="L69" s="102"/>
+      <c r="M69" s="102"/>
+      <c r="N69" s="102"/>
+      <c r="O69" s="102"/>
+      <c r="P69" s="103"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="34"/>
@@ -15945,15 +16173,15 @@
     </row>
     <row r="75" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="85" t="s">
+      <c r="B76" s="94" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="86"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="86"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86"/>
-      <c r="H76" s="87"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="95"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="96"/>
     </row>
     <row r="77" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="22" t="s">
@@ -16169,15 +16397,15 @@
     </row>
     <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="82" t="s">
+      <c r="B90" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="84"/>
+      <c r="C90" s="108"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="108"/>
+      <c r="G90" s="108"/>
+      <c r="H90" s="109"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="31" t="s">
@@ -16433,15 +16661,15 @@
     </row>
     <row r="105" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="85" t="s">
+      <c r="B106" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="86"/>
-      <c r="D106" s="86"/>
-      <c r="E106" s="86"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="87"/>
+      <c r="C106" s="95"/>
+      <c r="D106" s="95"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="95"/>
+      <c r="G106" s="95"/>
+      <c r="H106" s="96"/>
     </row>
     <row r="107" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="49" t="s">
@@ -16703,15 +16931,15 @@
     </row>
     <row r="119" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="85" t="s">
+      <c r="B120" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="C120" s="86"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="87"/>
+      <c r="C120" s="95"/>
+      <c r="D120" s="95"/>
+      <c r="E120" s="95"/>
+      <c r="F120" s="95"/>
+      <c r="G120" s="95"/>
+      <c r="H120" s="96"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="27" t="s">
@@ -16891,15 +17119,15 @@
     </row>
     <row r="132" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="85" t="s">
+      <c r="B133" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="C133" s="86"/>
-      <c r="D133" s="86"/>
-      <c r="E133" s="86"/>
-      <c r="F133" s="86"/>
-      <c r="G133" s="86"/>
-      <c r="H133" s="87"/>
+      <c r="C133" s="95"/>
+      <c r="D133" s="95"/>
+      <c r="E133" s="95"/>
+      <c r="F133" s="95"/>
+      <c r="G133" s="95"/>
+      <c r="H133" s="96"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="32" t="s">
@@ -17071,15 +17299,15 @@
     </row>
     <row r="143" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="144" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="85" t="s">
+      <c r="B144" s="94" t="s">
         <v>264</v>
       </c>
-      <c r="C144" s="86"/>
-      <c r="D144" s="86"/>
-      <c r="E144" s="86"/>
-      <c r="F144" s="86"/>
-      <c r="G144" s="86"/>
-      <c r="H144" s="87"/>
+      <c r="C144" s="95"/>
+      <c r="D144" s="95"/>
+      <c r="E144" s="95"/>
+      <c r="F144" s="95"/>
+      <c r="G144" s="95"/>
+      <c r="H144" s="96"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="27" t="s">
@@ -17250,15 +17478,15 @@
     </row>
     <row r="154" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="155" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="85" t="s">
+      <c r="B155" s="94" t="s">
         <v>268</v>
       </c>
-      <c r="C155" s="86"/>
-      <c r="D155" s="86"/>
-      <c r="E155" s="86"/>
-      <c r="F155" s="86"/>
-      <c r="G155" s="86"/>
-      <c r="H155" s="87"/>
+      <c r="C155" s="95"/>
+      <c r="D155" s="95"/>
+      <c r="E155" s="95"/>
+      <c r="F155" s="95"/>
+      <c r="G155" s="95"/>
+      <c r="H155" s="96"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="22" t="s">
@@ -17429,15 +17657,15 @@
       </c>
     </row>
     <row r="166" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="104" t="s">
+      <c r="B166" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="104"/>
-      <c r="D166" s="104"/>
-      <c r="E166" s="104"/>
-      <c r="F166" s="104"/>
-      <c r="G166" s="104"/>
-      <c r="H166" s="104"/>
+      <c r="C166" s="100"/>
+      <c r="D166" s="100"/>
+      <c r="E166" s="100"/>
+      <c r="F166" s="100"/>
+      <c r="G166" s="100"/>
+      <c r="H166" s="100"/>
     </row>
     <row r="167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B167" s="22" t="s">
@@ -17505,16 +17733,16 @@
       <c r="H169" s="3">
         <v>155</v>
       </c>
-      <c r="J169" s="95" t="s">
+      <c r="J169" s="101" t="s">
         <v>275</v>
       </c>
-      <c r="K169" s="98"/>
-      <c r="L169" s="98"/>
-      <c r="M169" s="98"/>
-      <c r="N169" s="98"/>
-      <c r="O169" s="98"/>
-      <c r="P169" s="98"/>
-      <c r="Q169" s="99"/>
+      <c r="K169" s="102"/>
+      <c r="L169" s="102"/>
+      <c r="M169" s="102"/>
+      <c r="N169" s="102"/>
+      <c r="O169" s="102"/>
+      <c r="P169" s="102"/>
+      <c r="Q169" s="103"/>
     </row>
     <row r="170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
@@ -17619,15 +17847,15 @@
     </row>
     <row r="175" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="92" t="s">
+      <c r="B176" s="104" t="s">
         <v>276</v>
       </c>
-      <c r="C176" s="93"/>
-      <c r="D176" s="93"/>
-      <c r="E176" s="93"/>
-      <c r="F176" s="93"/>
-      <c r="G176" s="93"/>
-      <c r="H176" s="94"/>
+      <c r="C176" s="105"/>
+      <c r="D176" s="105"/>
+      <c r="E176" s="105"/>
+      <c r="F176" s="105"/>
+      <c r="G176" s="105"/>
+      <c r="H176" s="106"/>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177" s="22" t="s">
@@ -17687,16 +17915,16 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="J179" s="95" t="s">
+      <c r="J179" s="101" t="s">
         <v>280</v>
       </c>
-      <c r="K179" s="98"/>
-      <c r="L179" s="98"/>
-      <c r="M179" s="98"/>
-      <c r="N179" s="98"/>
-      <c r="O179" s="98"/>
-      <c r="P179" s="98"/>
-      <c r="Q179" s="99"/>
+      <c r="K179" s="102"/>
+      <c r="L179" s="102"/>
+      <c r="M179" s="102"/>
+      <c r="N179" s="102"/>
+      <c r="O179" s="102"/>
+      <c r="P179" s="102"/>
+      <c r="Q179" s="103"/>
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
@@ -17801,15 +18029,15 @@
     </row>
     <row r="186" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="187" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="85" t="s">
+      <c r="B187" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="C187" s="86"/>
-      <c r="D187" s="86"/>
-      <c r="E187" s="86"/>
-      <c r="F187" s="86"/>
-      <c r="G187" s="86"/>
-      <c r="H187" s="87"/>
+      <c r="C187" s="95"/>
+      <c r="D187" s="95"/>
+      <c r="E187" s="95"/>
+      <c r="F187" s="95"/>
+      <c r="G187" s="95"/>
+      <c r="H187" s="96"/>
     </row>
     <row r="188" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="22" t="s">
@@ -18013,15 +18241,15 @@
     </row>
     <row r="199" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="200" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="85" t="s">
+      <c r="B200" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="C200" s="86"/>
-      <c r="D200" s="86"/>
-      <c r="E200" s="86"/>
-      <c r="F200" s="86"/>
-      <c r="G200" s="86"/>
-      <c r="H200" s="87"/>
+      <c r="C200" s="95"/>
+      <c r="D200" s="95"/>
+      <c r="E200" s="95"/>
+      <c r="F200" s="95"/>
+      <c r="G200" s="95"/>
+      <c r="H200" s="96"/>
     </row>
     <row r="201" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="22" t="s">
@@ -18277,15 +18505,15 @@
     </row>
     <row r="214" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="215" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="85" t="s">
+      <c r="B215" s="94" t="s">
         <v>299</v>
       </c>
-      <c r="C215" s="86"/>
-      <c r="D215" s="86"/>
-      <c r="E215" s="86"/>
-      <c r="F215" s="86"/>
-      <c r="G215" s="86"/>
-      <c r="H215" s="87"/>
+      <c r="C215" s="95"/>
+      <c r="D215" s="95"/>
+      <c r="E215" s="95"/>
+      <c r="F215" s="95"/>
+      <c r="G215" s="95"/>
+      <c r="H215" s="96"/>
     </row>
     <row r="216" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="22" t="s">
@@ -18523,15 +18751,15 @@
     </row>
     <row r="229" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="230" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="85" t="s">
+      <c r="B230" s="94" t="s">
         <v>307</v>
       </c>
-      <c r="C230" s="86"/>
-      <c r="D230" s="86"/>
-      <c r="E230" s="86"/>
-      <c r="F230" s="86"/>
-      <c r="G230" s="86"/>
-      <c r="H230" s="87"/>
+      <c r="C230" s="95"/>
+      <c r="D230" s="95"/>
+      <c r="E230" s="95"/>
+      <c r="F230" s="95"/>
+      <c r="G230" s="95"/>
+      <c r="H230" s="96"/>
     </row>
     <row r="231" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="22" t="s">
@@ -18720,15 +18948,15 @@
     </row>
     <row r="241" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="242" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="85" t="s">
+      <c r="B242" s="94" t="s">
         <v>310</v>
       </c>
-      <c r="C242" s="86"/>
-      <c r="D242" s="86"/>
-      <c r="E242" s="86"/>
-      <c r="F242" s="86"/>
-      <c r="G242" s="86"/>
-      <c r="H242" s="87"/>
+      <c r="C242" s="95"/>
+      <c r="D242" s="95"/>
+      <c r="E242" s="95"/>
+      <c r="F242" s="95"/>
+      <c r="G242" s="95"/>
+      <c r="H242" s="96"/>
     </row>
     <row r="243" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="22" t="s">
@@ -19049,15 +19277,15 @@
     </row>
     <row r="259" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="85" t="s">
+      <c r="B260" s="94" t="s">
         <v>319</v>
       </c>
-      <c r="C260" s="86"/>
-      <c r="D260" s="86"/>
-      <c r="E260" s="86"/>
-      <c r="F260" s="86"/>
-      <c r="G260" s="86"/>
-      <c r="H260" s="87"/>
+      <c r="C260" s="95"/>
+      <c r="D260" s="95"/>
+      <c r="E260" s="95"/>
+      <c r="F260" s="95"/>
+      <c r="G260" s="95"/>
+      <c r="H260" s="96"/>
     </row>
     <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B261" s="22" t="s">
@@ -19282,15 +19510,15 @@
     </row>
     <row r="273" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="274" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="85" t="s">
+      <c r="B274" s="94" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="86"/>
-      <c r="D274" s="86"/>
-      <c r="E274" s="86"/>
-      <c r="F274" s="86"/>
-      <c r="G274" s="86"/>
-      <c r="H274" s="87"/>
+      <c r="C274" s="95"/>
+      <c r="D274" s="95"/>
+      <c r="E274" s="95"/>
+      <c r="F274" s="95"/>
+      <c r="G274" s="95"/>
+      <c r="H274" s="96"/>
     </row>
     <row r="275" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B275" s="22" t="s">
@@ -19356,15 +19584,15 @@
         <v>184</v>
       </c>
       <c r="H277" s="35"/>
-      <c r="J277" s="103" t="s">
+      <c r="J277" s="97" t="s">
         <v>327</v>
       </c>
-      <c r="K277" s="96"/>
-      <c r="L277" s="96"/>
-      <c r="M277" s="96"/>
-      <c r="N277" s="96"/>
-      <c r="O277" s="96"/>
-      <c r="P277" s="97"/>
+      <c r="K277" s="98"/>
+      <c r="L277" s="98"/>
+      <c r="M277" s="98"/>
+      <c r="N277" s="98"/>
+      <c r="O277" s="98"/>
+      <c r="P277" s="99"/>
     </row>
     <row r="278" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B278" s="34">
@@ -19469,15 +19697,15 @@
     </row>
     <row r="284" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="285" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="85" t="s">
+      <c r="B285" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="C285" s="86"/>
-      <c r="D285" s="86"/>
-      <c r="E285" s="86"/>
-      <c r="F285" s="86"/>
-      <c r="G285" s="86"/>
-      <c r="H285" s="87"/>
+      <c r="C285" s="95"/>
+      <c r="D285" s="95"/>
+      <c r="E285" s="95"/>
+      <c r="F285" s="95"/>
+      <c r="G285" s="95"/>
+      <c r="H285" s="96"/>
     </row>
     <row r="286" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B286" s="22" t="s">
@@ -19703,14 +19931,14 @@
       </c>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B299" s="105" t="s">
+      <c r="B299" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="C299" s="105"/>
-      <c r="D299" s="105"/>
-      <c r="E299" s="105"/>
-      <c r="F299" s="105"/>
-      <c r="G299" s="105"/>
+      <c r="C299" s="93"/>
+      <c r="D299" s="93"/>
+      <c r="E299" s="93"/>
+      <c r="F299" s="93"/>
+      <c r="G299" s="93"/>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="11" t="s">
@@ -19875,15 +20103,15 @@
     </row>
     <row r="309" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="310" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="85" t="s">
+      <c r="B310" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="C310" s="86"/>
-      <c r="D310" s="86"/>
-      <c r="E310" s="86"/>
-      <c r="F310" s="86"/>
-      <c r="G310" s="86"/>
-      <c r="H310" s="87"/>
+      <c r="C310" s="95"/>
+      <c r="D310" s="95"/>
+      <c r="E310" s="95"/>
+      <c r="F310" s="95"/>
+      <c r="G310" s="95"/>
+      <c r="H310" s="96"/>
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="22" t="s">
@@ -20081,24 +20309,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B299:G299"/>
-    <mergeCell ref="B310:H310"/>
-    <mergeCell ref="B285:H285"/>
-    <mergeCell ref="B230:H230"/>
-    <mergeCell ref="B242:H242"/>
-    <mergeCell ref="B260:H260"/>
-    <mergeCell ref="B274:H274"/>
-    <mergeCell ref="J277:P277"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="J169:Q169"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="J179:Q179"/>
     <mergeCell ref="B90:H90"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B120:H120"/>
@@ -20114,8 +20324,616 @@
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="B65:H65"/>
+    <mergeCell ref="J277:P277"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="J169:Q169"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="J179:Q179"/>
+    <mergeCell ref="B299:G299"/>
+    <mergeCell ref="B310:H310"/>
+    <mergeCell ref="B285:H285"/>
+    <mergeCell ref="B230:H230"/>
+    <mergeCell ref="B242:H242"/>
+    <mergeCell ref="B260:H260"/>
+    <mergeCell ref="B274:H274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="87">
+        <v>44894</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="87">
+        <v>44894</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="87">
+        <v>44894</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="87">
+        <v>44894</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="90">
+        <v>5</v>
+      </c>
+      <c r="C7" s="91">
+        <v>44894</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>474</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>487</v>
+      </c>
+      <c r="F7" s="92"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="87">
+        <v>44894</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="88">
+        <v>7</v>
+      </c>
+      <c r="C9" s="89">
+        <v>44894</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="87">
+        <v>44894</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="87">
+        <v>44894</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="87">
+        <v>44894</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="87">
+        <v>44894</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="88">
+        <v>12</v>
+      </c>
+      <c r="C14" s="89">
+        <v>44894</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>481</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>450</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="87">
+        <v>44894</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="90">
+        <v>14</v>
+      </c>
+      <c r="C16" s="91">
+        <v>44894</v>
+      </c>
+      <c r="D16" s="90" t="s">
+        <v>483</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>487</v>
+      </c>
+      <c r="F16" s="90"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="87">
+        <v>44894</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="87">
+        <v>44894</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>40</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>47</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>48</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>49</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>50</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Traditional Yoga Updated Document.xlsx
+++ b/Traditional Yoga Updated Document.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="496">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -1505,6 +1505,15 @@
   </si>
   <si>
     <t>/webSite/getAll?operation=alertCategory</t>
+  </si>
+  <si>
+    <t>Course Practice</t>
+  </si>
+  <si>
+    <t>/course/getAll?operation=courseMediaPractice</t>
+  </si>
+  <si>
+    <t>/course/addCourseMediaPractice</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2287,6 +2296,9 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2363,7 +2375,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2422,6 +2434,24 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2619,15 +2649,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:I102" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="B2:I102"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="S No" dataDxfId="9"/>
-    <tableColumn id="2" name="Page" dataDxfId="8"/>
-    <tableColumn id="3" name="Method" dataDxfId="7"/>
-    <tableColumn id="4" name="API" dataDxfId="6"/>
-    <tableColumn id="12" name="API Status" dataDxfId="5"/>
-    <tableColumn id="5" name="Resource" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:J102" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="B2:J102"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="S No" dataDxfId="10"/>
+    <tableColumn id="2" name="Page" dataDxfId="9"/>
+    <tableColumn id="3" name="Method" dataDxfId="8"/>
+    <tableColumn id="4" name="API" dataDxfId="7"/>
+    <tableColumn id="6" name="Date" dataDxfId="0"/>
+    <tableColumn id="12" name="API Status" dataDxfId="6"/>
+    <tableColumn id="5" name="Resource" dataDxfId="5"/>
     <tableColumn id="13" name="Angular Status" dataDxfId="4"/>
     <tableColumn id="11" name="Remark" dataDxfId="3"/>
   </tableColumns>
@@ -3043,25 +3074,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I102"/>
+  <dimension ref="B2:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="82" t="s">
         <v>395</v>
       </c>
@@ -3075,19 +3106,22 @@
         <v>152</v>
       </c>
       <c r="F2" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="83" t="s">
         <v>398</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="I2" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="J2" s="32" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -3100,16 +3134,17 @@
       <c r="E3" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="84"/>
+      <c r="I3" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -3122,16 +3157,17 @@
       <c r="E4" s="84" t="s">
         <v>405</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -3144,16 +3180,17 @@
       <c r="E5" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="84"/>
+      <c r="I5" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -3166,16 +3203,17 @@
       <c r="E6" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="84"/>
+      <c r="I6" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -3188,16 +3226,17 @@
       <c r="E7" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="84"/>
+      <c r="I7" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -3210,16 +3249,17 @@
       <c r="E8" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="84"/>
+      <c r="I8" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -3232,16 +3272,17 @@
       <c r="E9" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="84"/>
+      <c r="I9" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -3254,16 +3295,17 @@
       <c r="E10" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84" t="s">
+      <c r="H10" s="84"/>
+      <c r="I10" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -3276,16 +3318,17 @@
       <c r="E11" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84" t="s">
+      <c r="H11" s="84"/>
+      <c r="I11" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -3298,16 +3341,17 @@
       <c r="E12" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="84"/>
+      <c r="I12" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -3320,16 +3364,17 @@
       <c r="E13" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84" t="s">
+      <c r="H13" s="84"/>
+      <c r="I13" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -3342,16 +3387,17 @@
       <c r="E14" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="84"/>
+      <c r="I14" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -3364,16 +3410,17 @@
       <c r="E15" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="84"/>
+      <c r="I15" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -3386,16 +3433,17 @@
       <c r="E16" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84" t="s">
+      <c r="H16" s="84"/>
+      <c r="I16" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -3408,16 +3456,17 @@
       <c r="E17" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="84"/>
+      <c r="I17" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -3430,16 +3479,17 @@
       <c r="E18" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84" t="s">
+      <c r="H18" s="84"/>
+      <c r="I18" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -3452,16 +3502,17 @@
       <c r="E19" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="F19" s="84" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84" t="s">
+      <c r="H19" s="84"/>
+      <c r="I19" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -3474,16 +3525,17 @@
       <c r="E20" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F20" s="84" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84" t="s">
+      <c r="H20" s="84"/>
+      <c r="I20" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -3496,16 +3548,17 @@
       <c r="E21" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="F21" s="84" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84" t="s">
+      <c r="H21" s="84"/>
+      <c r="I21" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -3518,16 +3571,17 @@
       <c r="E22" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F22" s="84" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84" t="s">
+      <c r="H22" s="84"/>
+      <c r="I22" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -3540,16 +3594,17 @@
       <c r="E23" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84" t="s">
+      <c r="H23" s="84"/>
+      <c r="I23" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -3562,16 +3617,17 @@
       <c r="E24" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="F24" s="84" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84" t="s">
+      <c r="H24" s="84"/>
+      <c r="I24" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -3584,16 +3640,17 @@
       <c r="E25" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="84"/>
+      <c r="I25" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>24</v>
       </c>
@@ -3606,16 +3663,17 @@
       <c r="E26" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="F26" s="84" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84" t="s">
+      <c r="H26" s="84"/>
+      <c r="I26" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>25</v>
       </c>
@@ -3628,16 +3686,17 @@
       <c r="E27" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F27" s="84" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84" t="s">
+      <c r="H27" s="84"/>
+      <c r="I27" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>26</v>
       </c>
@@ -3650,16 +3709,17 @@
       <c r="E28" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="F28" s="84" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84" t="s">
+      <c r="H28" s="84"/>
+      <c r="I28" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>27</v>
       </c>
@@ -3672,16 +3732,17 @@
       <c r="E29" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F29" s="84" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84" t="s">
+      <c r="H29" s="84"/>
+      <c r="I29" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>28</v>
       </c>
@@ -3694,16 +3755,17 @@
       <c r="E30" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F30" s="84" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84" t="s">
+      <c r="H30" s="84"/>
+      <c r="I30" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>29</v>
       </c>
@@ -3716,16 +3778,17 @@
       <c r="E31" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F31" s="84" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84" t="s">
+      <c r="H31" s="84"/>
+      <c r="I31" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>30</v>
       </c>
@@ -3738,16 +3801,17 @@
       <c r="E32" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F32" s="84" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84" t="s">
+      <c r="H32" s="84"/>
+      <c r="I32" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>31</v>
       </c>
@@ -3760,16 +3824,17 @@
       <c r="E33" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F33" s="84" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="84"/>
+      <c r="I33" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>32</v>
       </c>
@@ -3782,16 +3847,17 @@
       <c r="E34" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="F34" s="84" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84" t="s">
+      <c r="H34" s="84"/>
+      <c r="I34" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>33</v>
       </c>
@@ -3804,16 +3870,17 @@
       <c r="E35" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F35" s="84" t="s">
+      <c r="F35" s="3"/>
+      <c r="G35" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84" t="s">
+      <c r="H35" s="84"/>
+      <c r="I35" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>34</v>
       </c>
@@ -3826,16 +3893,17 @@
       <c r="E36" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="F36" s="84" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="84"/>
+      <c r="I36" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>35</v>
       </c>
@@ -3848,16 +3916,17 @@
       <c r="E37" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F37" s="84" t="s">
+      <c r="F37" s="3"/>
+      <c r="G37" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84" t="s">
+      <c r="H37" s="84"/>
+      <c r="I37" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>36</v>
       </c>
@@ -3870,16 +3939,17 @@
       <c r="E38" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="F38" s="84" t="s">
+      <c r="F38" s="3"/>
+      <c r="G38" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84" t="s">
+      <c r="H38" s="84"/>
+      <c r="I38" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>37</v>
       </c>
@@ -3892,16 +3962,17 @@
       <c r="E39" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F39" s="84" t="s">
+      <c r="F39" s="3"/>
+      <c r="G39" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84" t="s">
+      <c r="H39" s="84"/>
+      <c r="I39" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>38</v>
       </c>
@@ -3914,16 +3985,17 @@
       <c r="E40" s="84" t="s">
         <v>444</v>
       </c>
-      <c r="F40" s="84" t="s">
+      <c r="F40" s="84"/>
+      <c r="G40" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84" t="s">
+      <c r="H40" s="84"/>
+      <c r="I40" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>39</v>
       </c>
@@ -3936,16 +4008,17 @@
       <c r="E41" s="84" t="s">
         <v>445</v>
       </c>
-      <c r="F41" s="84" t="s">
+      <c r="F41" s="84"/>
+      <c r="G41" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84" t="s">
+      <c r="H41" s="84"/>
+      <c r="I41" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>40</v>
       </c>
@@ -3958,16 +4031,17 @@
       <c r="E42" s="84" t="s">
         <v>446</v>
       </c>
-      <c r="F42" s="84" t="s">
+      <c r="F42" s="84"/>
+      <c r="G42" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84" t="s">
+      <c r="H42" s="84"/>
+      <c r="I42" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>41</v>
       </c>
@@ -3980,16 +4054,17 @@
       <c r="E43" s="84" t="s">
         <v>448</v>
       </c>
-      <c r="F43" s="84" t="s">
+      <c r="F43" s="84"/>
+      <c r="G43" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84" t="s">
+      <c r="H43" s="84"/>
+      <c r="I43" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>42</v>
       </c>
@@ -4002,16 +4077,17 @@
       <c r="E44" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="F44" s="86" t="s">
+      <c r="F44" s="11"/>
+      <c r="G44" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="G44" s="84"/>
-      <c r="H44" s="86" t="s">
+      <c r="H44" s="84"/>
+      <c r="I44" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>43</v>
       </c>
@@ -4024,20 +4100,21 @@
       <c r="E45" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F45" s="84" t="s">
+      <c r="F45" s="3"/>
+      <c r="G45" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G45" s="84" t="s">
+      <c r="H45" s="84" t="s">
         <v>490</v>
       </c>
-      <c r="H45" s="86" t="s">
+      <c r="I45" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>44</v>
       </c>
@@ -4050,20 +4127,21 @@
       <c r="E46" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F46" s="84" t="s">
+      <c r="F46" s="3"/>
+      <c r="G46" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="G46" s="84" t="s">
+      <c r="H46" s="84" t="s">
         <v>377</v>
       </c>
-      <c r="H46" s="86" t="s">
+      <c r="I46" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>45</v>
       </c>
@@ -4076,20 +4154,21 @@
       <c r="E47" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G47" s="84" t="s">
+      <c r="H47" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="H47" s="84" t="s">
+      <c r="I47" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>46</v>
       </c>
@@ -4102,20 +4181,21 @@
       <c r="E48" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H48" s="86" t="s">
+      <c r="I48" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>47</v>
       </c>
@@ -4128,20 +4208,21 @@
       <c r="E49" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="H49" s="86" t="s">
+      <c r="I49" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>48</v>
       </c>
@@ -4154,20 +4235,21 @@
       <c r="E50" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="H50" s="84" t="s">
+      <c r="I50" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>49</v>
       </c>
@@ -4180,20 +4262,21 @@
       <c r="E51" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="H51" s="84" t="s">
+      <c r="I51" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>50</v>
       </c>
@@ -4206,20 +4289,21 @@
       <c r="E52" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="H52" s="84" t="s">
+      <c r="I52" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>51</v>
       </c>
@@ -4232,20 +4316,21 @@
       <c r="E53" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="H53" s="84" t="s">
+      <c r="I53" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>52</v>
       </c>
@@ -4258,44 +4343,79 @@
       <c r="E54" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H54" s="86" t="s">
+      <c r="I54" s="86" t="s">
         <v>450</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>53</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F55" s="87">
+        <v>44895</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I55" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="J55" s="87" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>54</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F56" s="87">
+        <v>44895</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="I56" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="J56" s="87" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>55</v>
       </c>
@@ -4306,8 +4426,9 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>56</v>
       </c>
@@ -4318,8 +4439,9 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>57</v>
       </c>
@@ -4330,8 +4452,9 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>58</v>
       </c>
@@ -4342,8 +4465,9 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>59</v>
       </c>
@@ -4354,8 +4478,9 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>60</v>
       </c>
@@ -4366,8 +4491,9 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>61</v>
       </c>
@@ -4378,8 +4504,9 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>62</v>
       </c>
@@ -4390,8 +4517,9 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>63</v>
       </c>
@@ -4402,8 +4530,9 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>64</v>
       </c>
@@ -4414,8 +4543,9 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>65</v>
       </c>
@@ -4426,8 +4556,9 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>66</v>
       </c>
@@ -4438,8 +4569,9 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>67</v>
       </c>
@@ -4450,8 +4582,9 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>68</v>
       </c>
@@ -4462,8 +4595,9 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>69</v>
       </c>
@@ -4474,8 +4608,9 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>70</v>
       </c>
@@ -4486,8 +4621,9 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>71</v>
       </c>
@@ -4498,8 +4634,9 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>72</v>
       </c>
@@ -4510,8 +4647,9 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>73</v>
       </c>
@@ -4522,8 +4660,9 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>74</v>
       </c>
@@ -4534,8 +4673,9 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>75</v>
       </c>
@@ -4546,8 +4686,9 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>76</v>
       </c>
@@ -4558,8 +4699,9 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>77</v>
       </c>
@@ -4570,8 +4712,9 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>78</v>
       </c>
@@ -4582,8 +4725,9 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>79</v>
       </c>
@@ -4594,8 +4738,9 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>80</v>
       </c>
@@ -4606,8 +4751,9 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>81</v>
       </c>
@@ -4618,8 +4764,9 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>82</v>
       </c>
@@ -4630,8 +4777,9 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>83</v>
       </c>
@@ -4642,8 +4790,9 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>84</v>
       </c>
@@ -4654,8 +4803,9 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>85</v>
       </c>
@@ -4666,8 +4816,9 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>86</v>
       </c>
@@ -4678,8 +4829,9 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>87</v>
       </c>
@@ -4690,8 +4842,9 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>88</v>
       </c>
@@ -4702,8 +4855,9 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>89</v>
       </c>
@@ -4714,8 +4868,9 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <v>90</v>
       </c>
@@ -4726,8 +4881,9 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <v>91</v>
       </c>
@@ -4738,8 +4894,9 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <v>92</v>
       </c>
@@ -4750,8 +4907,9 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <v>93</v>
       </c>
@@ -4762,8 +4920,9 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <v>94</v>
       </c>
@@ -4774,8 +4933,9 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>95</v>
       </c>
@@ -4786,8 +4946,9 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>96</v>
       </c>
@@ -4798,8 +4959,9 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>97</v>
       </c>
@@ -4810,8 +4972,9 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>98</v>
       </c>
@@ -4822,8 +4985,9 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>99</v>
       </c>
@@ -4834,8 +4998,9 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>100</v>
       </c>
@@ -4846,6 +5011,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4860,8 +5026,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K349"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:H31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4976,7 +5142,7 @@
       </c>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="62">
         <v>6</v>
       </c>
@@ -5006,7 +5172,7 @@
       </c>
       <c r="K5" s="62"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="62">
         <v>8</v>
       </c>
@@ -5036,7 +5202,7 @@
       </c>
       <c r="K6" s="62"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="72">
         <v>3</v>
       </c>
@@ -5066,7 +5232,7 @@
       </c>
       <c r="K7" s="72"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="72">
         <v>5</v>
       </c>
@@ -5096,7 +5262,7 @@
       </c>
       <c r="K8" s="72"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="62">
         <v>10</v>
       </c>
@@ -5126,7 +5292,7 @@
       </c>
       <c r="K9" s="62"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72">
         <v>12</v>
       </c>
@@ -5156,7 +5322,7 @@
       </c>
       <c r="K10" s="72"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="72">
         <v>7</v>
       </c>
@@ -5186,7 +5352,7 @@
       </c>
       <c r="K11" s="72"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="72">
         <v>9</v>
       </c>
@@ -5216,7 +5382,7 @@
       </c>
       <c r="K12" s="72"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="72">
         <v>14</v>
       </c>
@@ -5246,7 +5412,7 @@
       </c>
       <c r="K13" s="72"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="72">
         <v>16</v>
       </c>
@@ -5276,7 +5442,7 @@
       </c>
       <c r="K14" s="72"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="72">
         <v>11</v>
       </c>
@@ -5306,7 +5472,7 @@
       </c>
       <c r="K15" s="72"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="72">
         <v>13</v>
       </c>
@@ -5336,7 +5502,7 @@
       </c>
       <c r="K16" s="72"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="72">
         <v>15</v>
       </c>
@@ -5366,7 +5532,7 @@
       </c>
       <c r="K17" s="72"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72">
         <v>17</v>
       </c>
@@ -5396,7 +5562,7 @@
       </c>
       <c r="K18" s="72"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="75">
         <v>22</v>
       </c>
@@ -5426,7 +5592,7 @@
       </c>
       <c r="K19" s="75"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="75">
         <v>24</v>
       </c>
@@ -5456,7 +5622,7 @@
       </c>
       <c r="K20" s="75"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="75">
         <v>26</v>
       </c>
@@ -5486,7 +5652,7 @@
       </c>
       <c r="K21" s="75"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="75">
         <v>28</v>
       </c>
@@ -5516,7 +5682,7 @@
       </c>
       <c r="K22" s="75"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="72">
         <v>23</v>
       </c>
@@ -5546,7 +5712,7 @@
       </c>
       <c r="K23" s="72"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="75">
         <v>30</v>
       </c>
@@ -5576,7 +5742,7 @@
       </c>
       <c r="K24" s="75"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="75">
         <v>32</v>
       </c>
@@ -5606,7 +5772,7 @@
       </c>
       <c r="K25" s="75"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="63">
         <v>1</v>
       </c>
@@ -5630,7 +5796,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="72">
         <v>27</v>
       </c>
@@ -5660,7 +5826,7 @@
       </c>
       <c r="K27" s="72"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="72">
         <v>29</v>
       </c>
@@ -5690,7 +5856,7 @@
       </c>
       <c r="K28" s="72"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="75">
         <v>34</v>
       </c>
@@ -5720,7 +5886,7 @@
       </c>
       <c r="K29" s="75"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="75">
         <v>36</v>
       </c>
@@ -5750,7 +5916,7 @@
       </c>
       <c r="K30" s="75"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>37</v>
       </c>
@@ -5782,7 +5948,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>25</v>
       </c>
@@ -5812,7 +5978,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="72">
         <v>31</v>
       </c>
@@ -5842,7 +6008,7 @@
       </c>
       <c r="K33" s="72"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="72">
         <v>33</v>
       </c>
@@ -5872,7 +6038,7 @@
       </c>
       <c r="K34" s="72"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="72">
         <v>35</v>
       </c>
@@ -5902,7 +6068,7 @@
       </c>
       <c r="K35" s="72"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="75">
         <v>39</v>
       </c>
@@ -5934,7 +6100,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="75">
         <v>41</v>
       </c>
@@ -5966,7 +6132,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="72">
         <v>43</v>
       </c>
@@ -5996,7 +6162,7 @@
       </c>
       <c r="K38" s="72"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -6026,7 +6192,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>40</v>
       </c>
@@ -6058,7 +6224,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>42</v>
       </c>
@@ -6088,7 +6254,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>44</v>
       </c>
@@ -6120,7 +6286,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="72">
         <v>45</v>
       </c>
@@ -6150,7 +6316,7 @@
       </c>
       <c r="K43" s="72"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="75">
         <v>47</v>
       </c>
@@ -6182,7 +6348,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="75">
         <v>49</v>
       </c>
@@ -6214,7 +6380,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>46</v>
       </c>
@@ -6244,7 +6410,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>48</v>
       </c>
@@ -6276,7 +6442,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>50</v>
       </c>
@@ -6308,7 +6474,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="72">
         <v>51</v>
       </c>
@@ -6338,14 +6504,14 @@
       </c>
       <c r="K49" s="72"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>52</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="93" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -6355,7 +6521,7 @@
         <v>152</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H50" s="64">
         <v>44881</v>
@@ -6368,7 +6534,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="72">
         <v>53</v>
       </c>
@@ -6398,7 +6564,7 @@
       </c>
       <c r="K51" s="72"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>54</v>
       </c>
@@ -6430,7 +6596,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>55</v>
       </c>
@@ -6460,7 +6626,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>56</v>
       </c>
@@ -6492,7 +6658,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="72">
         <v>57</v>
       </c>
@@ -6522,14 +6688,14 @@
       </c>
       <c r="K55" s="72"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>58</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="80" t="s">
+      <c r="D56" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -6539,7 +6705,7 @@
         <v>152</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H56" s="64">
         <v>44883</v>
@@ -6552,24 +6718,24 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>60</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="80" t="s">
+      <c r="D57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H57" s="64">
         <v>44883</v>
@@ -6582,14 +6748,14 @@
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="93" t="s">
         <v>25</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -6599,7 +6765,7 @@
         <v>152</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H58" s="64">
         <v>44886</v>
@@ -6611,10 +6777,10 @@
         <v>157</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>64</v>
       </c>
@@ -6646,7 +6812,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>66</v>
       </c>
@@ -6678,7 +6844,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="72">
         <v>59</v>
       </c>
@@ -6708,7 +6874,7 @@
       </c>
       <c r="K61" s="72"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="70">
         <v>61</v>
       </c>
@@ -6738,7 +6904,7 @@
       </c>
       <c r="K62" s="70"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>68</v>
       </c>
@@ -6766,22 +6932,24 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>70</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="80" t="s">
+      <c r="D64" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="E64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="F64" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H64" s="64">
         <v>44887</v>
@@ -6824,7 +6992,7 @@
       </c>
       <c r="K65" s="70"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="70">
         <v>65</v>
       </c>
@@ -6854,7 +7022,7 @@
       </c>
       <c r="K66" s="70"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>72</v>
       </c>
@@ -6882,7 +7050,7 @@
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>74</v>
       </c>
@@ -6910,7 +7078,7 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="70">
         <v>67</v>
       </c>
@@ -6940,7 +7108,7 @@
       </c>
       <c r="K69" s="70"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="70">
         <v>69</v>
       </c>
@@ -6970,7 +7138,7 @@
       </c>
       <c r="K70" s="70"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>76</v>
       </c>
@@ -6998,22 +7166,24 @@
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>78</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="80" t="s">
+      <c r="D72" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="F72" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H72" s="64">
         <v>44889</v>
@@ -7024,9 +7194,11 @@
       <c r="J72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>71</v>
       </c>
@@ -7056,7 +7228,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>73</v>
       </c>
@@ -7086,7 +7258,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="70">
         <v>75</v>
       </c>
@@ -7116,7 +7288,7 @@
       </c>
       <c r="K75" s="70"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="70">
         <v>77</v>
       </c>
@@ -7146,22 +7318,24 @@
       </c>
       <c r="K76" s="70"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>80</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="80" t="s">
+      <c r="D77" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="F77" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H77" s="64">
         <v>44893</v>
@@ -7174,14 +7348,14 @@
       </c>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>82</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="80" t="s">
+      <c r="D78" s="93" t="s">
         <v>35</v>
       </c>
       <c r="E78" s="1"/>
@@ -7189,7 +7363,7 @@
         <v>152</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H78" s="64">
         <v>44893</v>
@@ -7200,9 +7374,11 @@
       <c r="J78" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>79</v>
       </c>
@@ -7219,7 +7395,7 @@
         <v>161</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H79" s="64">
         <v>44894</v>
@@ -7249,7 +7425,7 @@
         <v>161</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H80" s="64">
         <v>44894</v>
@@ -7262,14 +7438,14 @@
       </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>84</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="93" t="s">
         <v>36</v>
       </c>
       <c r="E81" s="1"/>
@@ -7277,7 +7453,7 @@
         <v>152</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H81" s="64">
         <v>44894</v>
@@ -7288,16 +7464,18 @@
       <c r="J81" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>86</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="80" t="s">
         <v>37</v>
       </c>
       <c r="E82" s="1"/>
@@ -7335,7 +7513,7 @@
         <v>161</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H83" s="64">
         <v>44895</v>
@@ -7348,7 +7526,7 @@
       </c>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>85</v>
       </c>
@@ -7365,7 +7543,7 @@
         <v>161</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="H84" s="64">
         <v>44895</v>
@@ -7378,7 +7556,7 @@
       </c>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>88</v>
       </c>
@@ -7404,9 +7582,11 @@
       <c r="J85" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>90</v>
       </c>
@@ -7434,7 +7614,7 @@
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>87</v>
       </c>
@@ -7444,7 +7624,9 @@
       <c r="D87" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="F87" s="1" t="s">
         <v>161</v>
       </c>
@@ -7462,7 +7644,7 @@
       </c>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>89</v>
       </c>
@@ -7472,7 +7654,9 @@
       <c r="D88" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="F88" s="1" t="s">
         <v>161</v>
       </c>
@@ -14764,9 +14948,21 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:K349">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Frontend"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="In Progress"/>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7">
       <filters>
         <dateGroupItem year="2022" month="11" dateTimeGrouping="month"/>
+        <dateGroupItem year="2022" month="12" day="1" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -14802,15 +14998,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
     </row>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
@@ -14878,14 +15074,14 @@
       <c r="H4" s="44">
         <v>55</v>
       </c>
-      <c r="J4" s="111" t="s">
+      <c r="J4" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="114"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="39">
@@ -15002,15 +15198,15 @@
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
@@ -15162,14 +15358,14 @@
       <c r="H19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="101" t="s">
+      <c r="J19" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="100"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
@@ -15304,15 +15500,15 @@
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="107"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="s">
@@ -15401,14 +15597,14 @@
       <c r="H30" s="3">
         <v>255</v>
       </c>
-      <c r="J30" s="101" t="s">
+      <c r="J30" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="100"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
@@ -15472,14 +15668,14 @@
       <c r="H33" s="3">
         <v>10</v>
       </c>
-      <c r="J33" s="101" t="s">
+      <c r="J33" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="100"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
@@ -15608,15 +15804,15 @@
     </row>
     <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="115" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="117"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="27" t="s">
@@ -15786,15 +15982,15 @@
     </row>
     <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="107"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="22" t="s">
@@ -15959,15 +16155,15 @@
     </row>
     <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="65" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="104" t="s">
+      <c r="B65" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="105"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="107"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="27" t="s">
@@ -16050,15 +16246,15 @@
         <v>188</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="J69" s="101" t="s">
+      <c r="J69" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="K69" s="102"/>
-      <c r="L69" s="102"/>
-      <c r="M69" s="102"/>
-      <c r="N69" s="102"/>
-      <c r="O69" s="102"/>
-      <c r="P69" s="103"/>
+      <c r="K69" s="103"/>
+      <c r="L69" s="103"/>
+      <c r="M69" s="103"/>
+      <c r="N69" s="103"/>
+      <c r="O69" s="103"/>
+      <c r="P69" s="104"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="34"/>
@@ -16173,15 +16369,15 @@
     </row>
     <row r="75" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="94" t="s">
+      <c r="B76" s="95" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="95"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="96"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="96"/>
+      <c r="H76" s="97"/>
     </row>
     <row r="77" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="22" t="s">
@@ -16397,15 +16593,15 @@
     </row>
     <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="107" t="s">
+      <c r="B90" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="108"/>
-      <c r="D90" s="108"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="108"/>
-      <c r="G90" s="108"/>
-      <c r="H90" s="109"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="109"/>
+      <c r="F90" s="109"/>
+      <c r="G90" s="109"/>
+      <c r="H90" s="110"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="31" t="s">
@@ -16661,15 +16857,15 @@
     </row>
     <row r="105" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="94" t="s">
+      <c r="B106" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="95"/>
-      <c r="D106" s="95"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
-      <c r="G106" s="95"/>
-      <c r="H106" s="96"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="96"/>
+      <c r="F106" s="96"/>
+      <c r="G106" s="96"/>
+      <c r="H106" s="97"/>
     </row>
     <row r="107" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="49" t="s">
@@ -16931,15 +17127,15 @@
     </row>
     <row r="119" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="94" t="s">
+      <c r="B120" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="C120" s="95"/>
-      <c r="D120" s="95"/>
-      <c r="E120" s="95"/>
-      <c r="F120" s="95"/>
-      <c r="G120" s="95"/>
-      <c r="H120" s="96"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="96"/>
+      <c r="F120" s="96"/>
+      <c r="G120" s="96"/>
+      <c r="H120" s="97"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="27" t="s">
@@ -17119,15 +17315,15 @@
     </row>
     <row r="132" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="94" t="s">
+      <c r="B133" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="C133" s="95"/>
-      <c r="D133" s="95"/>
-      <c r="E133" s="95"/>
-      <c r="F133" s="95"/>
-      <c r="G133" s="95"/>
-      <c r="H133" s="96"/>
+      <c r="C133" s="96"/>
+      <c r="D133" s="96"/>
+      <c r="E133" s="96"/>
+      <c r="F133" s="96"/>
+      <c r="G133" s="96"/>
+      <c r="H133" s="97"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="32" t="s">
@@ -17299,15 +17495,15 @@
     </row>
     <row r="143" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="144" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="94" t="s">
+      <c r="B144" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="C144" s="95"/>
-      <c r="D144" s="95"/>
-      <c r="E144" s="95"/>
-      <c r="F144" s="95"/>
-      <c r="G144" s="95"/>
-      <c r="H144" s="96"/>
+      <c r="C144" s="96"/>
+      <c r="D144" s="96"/>
+      <c r="E144" s="96"/>
+      <c r="F144" s="96"/>
+      <c r="G144" s="96"/>
+      <c r="H144" s="97"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="27" t="s">
@@ -17478,15 +17674,15 @@
     </row>
     <row r="154" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="155" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="94" t="s">
+      <c r="B155" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="C155" s="95"/>
-      <c r="D155" s="95"/>
-      <c r="E155" s="95"/>
-      <c r="F155" s="95"/>
-      <c r="G155" s="95"/>
-      <c r="H155" s="96"/>
+      <c r="C155" s="96"/>
+      <c r="D155" s="96"/>
+      <c r="E155" s="96"/>
+      <c r="F155" s="96"/>
+      <c r="G155" s="96"/>
+      <c r="H155" s="97"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="22" t="s">
@@ -17657,15 +17853,15 @@
       </c>
     </row>
     <row r="166" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="100" t="s">
+      <c r="B166" s="101" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="100"/>
-      <c r="D166" s="100"/>
-      <c r="E166" s="100"/>
-      <c r="F166" s="100"/>
-      <c r="G166" s="100"/>
-      <c r="H166" s="100"/>
+      <c r="C166" s="101"/>
+      <c r="D166" s="101"/>
+      <c r="E166" s="101"/>
+      <c r="F166" s="101"/>
+      <c r="G166" s="101"/>
+      <c r="H166" s="101"/>
     </row>
     <row r="167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B167" s="22" t="s">
@@ -17733,16 +17929,16 @@
       <c r="H169" s="3">
         <v>155</v>
       </c>
-      <c r="J169" s="101" t="s">
+      <c r="J169" s="102" t="s">
         <v>275</v>
       </c>
-      <c r="K169" s="102"/>
-      <c r="L169" s="102"/>
-      <c r="M169" s="102"/>
-      <c r="N169" s="102"/>
-      <c r="O169" s="102"/>
-      <c r="P169" s="102"/>
-      <c r="Q169" s="103"/>
+      <c r="K169" s="103"/>
+      <c r="L169" s="103"/>
+      <c r="M169" s="103"/>
+      <c r="N169" s="103"/>
+      <c r="O169" s="103"/>
+      <c r="P169" s="103"/>
+      <c r="Q169" s="104"/>
     </row>
     <row r="170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
@@ -17847,15 +18043,15 @@
     </row>
     <row r="175" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="104" t="s">
+      <c r="B176" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="C176" s="105"/>
-      <c r="D176" s="105"/>
-      <c r="E176" s="105"/>
-      <c r="F176" s="105"/>
-      <c r="G176" s="105"/>
-      <c r="H176" s="106"/>
+      <c r="C176" s="106"/>
+      <c r="D176" s="106"/>
+      <c r="E176" s="106"/>
+      <c r="F176" s="106"/>
+      <c r="G176" s="106"/>
+      <c r="H176" s="107"/>
     </row>
     <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177" s="22" t="s">
@@ -17915,16 +18111,16 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="J179" s="101" t="s">
+      <c r="J179" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="K179" s="102"/>
-      <c r="L179" s="102"/>
-      <c r="M179" s="102"/>
-      <c r="N179" s="102"/>
-      <c r="O179" s="102"/>
-      <c r="P179" s="102"/>
-      <c r="Q179" s="103"/>
+      <c r="K179" s="103"/>
+      <c r="L179" s="103"/>
+      <c r="M179" s="103"/>
+      <c r="N179" s="103"/>
+      <c r="O179" s="103"/>
+      <c r="P179" s="103"/>
+      <c r="Q179" s="104"/>
     </row>
     <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
@@ -18029,15 +18225,15 @@
     </row>
     <row r="186" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="187" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="94" t="s">
+      <c r="B187" s="95" t="s">
         <v>287</v>
       </c>
-      <c r="C187" s="95"/>
-      <c r="D187" s="95"/>
-      <c r="E187" s="95"/>
-      <c r="F187" s="95"/>
-      <c r="G187" s="95"/>
-      <c r="H187" s="96"/>
+      <c r="C187" s="96"/>
+      <c r="D187" s="96"/>
+      <c r="E187" s="96"/>
+      <c r="F187" s="96"/>
+      <c r="G187" s="96"/>
+      <c r="H187" s="97"/>
     </row>
     <row r="188" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="22" t="s">
@@ -18241,15 +18437,15 @@
     </row>
     <row r="199" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="200" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="94" t="s">
+      <c r="B200" s="95" t="s">
         <v>294</v>
       </c>
-      <c r="C200" s="95"/>
-      <c r="D200" s="95"/>
-      <c r="E200" s="95"/>
-      <c r="F200" s="95"/>
-      <c r="G200" s="95"/>
-      <c r="H200" s="96"/>
+      <c r="C200" s="96"/>
+      <c r="D200" s="96"/>
+      <c r="E200" s="96"/>
+      <c r="F200" s="96"/>
+      <c r="G200" s="96"/>
+      <c r="H200" s="97"/>
     </row>
     <row r="201" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="22" t="s">
@@ -18505,15 +18701,15 @@
     </row>
     <row r="214" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="215" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="94" t="s">
+      <c r="B215" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="C215" s="95"/>
-      <c r="D215" s="95"/>
-      <c r="E215" s="95"/>
-      <c r="F215" s="95"/>
-      <c r="G215" s="95"/>
-      <c r="H215" s="96"/>
+      <c r="C215" s="96"/>
+      <c r="D215" s="96"/>
+      <c r="E215" s="96"/>
+      <c r="F215" s="96"/>
+      <c r="G215" s="96"/>
+      <c r="H215" s="97"/>
     </row>
     <row r="216" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="22" t="s">
@@ -18751,15 +18947,15 @@
     </row>
     <row r="229" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="230" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="94" t="s">
+      <c r="B230" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="C230" s="95"/>
-      <c r="D230" s="95"/>
-      <c r="E230" s="95"/>
-      <c r="F230" s="95"/>
-      <c r="G230" s="95"/>
-      <c r="H230" s="96"/>
+      <c r="C230" s="96"/>
+      <c r="D230" s="96"/>
+      <c r="E230" s="96"/>
+      <c r="F230" s="96"/>
+      <c r="G230" s="96"/>
+      <c r="H230" s="97"/>
     </row>
     <row r="231" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="22" t="s">
@@ -18948,15 +19144,15 @@
     </row>
     <row r="241" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="242" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="94" t="s">
+      <c r="B242" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="C242" s="95"/>
-      <c r="D242" s="95"/>
-      <c r="E242" s="95"/>
-      <c r="F242" s="95"/>
-      <c r="G242" s="95"/>
-      <c r="H242" s="96"/>
+      <c r="C242" s="96"/>
+      <c r="D242" s="96"/>
+      <c r="E242" s="96"/>
+      <c r="F242" s="96"/>
+      <c r="G242" s="96"/>
+      <c r="H242" s="97"/>
     </row>
     <row r="243" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="22" t="s">
@@ -19277,15 +19473,15 @@
     </row>
     <row r="259" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="94" t="s">
+      <c r="B260" s="95" t="s">
         <v>319</v>
       </c>
-      <c r="C260" s="95"/>
-      <c r="D260" s="95"/>
-      <c r="E260" s="95"/>
-      <c r="F260" s="95"/>
-      <c r="G260" s="95"/>
-      <c r="H260" s="96"/>
+      <c r="C260" s="96"/>
+      <c r="D260" s="96"/>
+      <c r="E260" s="96"/>
+      <c r="F260" s="96"/>
+      <c r="G260" s="96"/>
+      <c r="H260" s="97"/>
     </row>
     <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B261" s="22" t="s">
@@ -19510,15 +19706,15 @@
     </row>
     <row r="273" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="274" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="94" t="s">
+      <c r="B274" s="95" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="95"/>
-      <c r="D274" s="95"/>
-      <c r="E274" s="95"/>
-      <c r="F274" s="95"/>
-      <c r="G274" s="95"/>
-      <c r="H274" s="96"/>
+      <c r="C274" s="96"/>
+      <c r="D274" s="96"/>
+      <c r="E274" s="96"/>
+      <c r="F274" s="96"/>
+      <c r="G274" s="96"/>
+      <c r="H274" s="97"/>
     </row>
     <row r="275" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B275" s="22" t="s">
@@ -19584,15 +19780,15 @@
         <v>184</v>
       </c>
       <c r="H277" s="35"/>
-      <c r="J277" s="97" t="s">
+      <c r="J277" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="K277" s="98"/>
-      <c r="L277" s="98"/>
-      <c r="M277" s="98"/>
-      <c r="N277" s="98"/>
-      <c r="O277" s="98"/>
-      <c r="P277" s="99"/>
+      <c r="K277" s="99"/>
+      <c r="L277" s="99"/>
+      <c r="M277" s="99"/>
+      <c r="N277" s="99"/>
+      <c r="O277" s="99"/>
+      <c r="P277" s="100"/>
     </row>
     <row r="278" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B278" s="34">
@@ -19697,15 +19893,15 @@
     </row>
     <row r="284" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="285" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="94" t="s">
+      <c r="B285" s="95" t="s">
         <v>329</v>
       </c>
-      <c r="C285" s="95"/>
-      <c r="D285" s="95"/>
-      <c r="E285" s="95"/>
-      <c r="F285" s="95"/>
-      <c r="G285" s="95"/>
-      <c r="H285" s="96"/>
+      <c r="C285" s="96"/>
+      <c r="D285" s="96"/>
+      <c r="E285" s="96"/>
+      <c r="F285" s="96"/>
+      <c r="G285" s="96"/>
+      <c r="H285" s="97"/>
     </row>
     <row r="286" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B286" s="22" t="s">
@@ -19931,14 +20127,14 @@
       </c>
     </row>
     <row r="299" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B299" s="93" t="s">
+      <c r="B299" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="C299" s="93"/>
-      <c r="D299" s="93"/>
-      <c r="E299" s="93"/>
-      <c r="F299" s="93"/>
-      <c r="G299" s="93"/>
+      <c r="C299" s="94"/>
+      <c r="D299" s="94"/>
+      <c r="E299" s="94"/>
+      <c r="F299" s="94"/>
+      <c r="G299" s="94"/>
     </row>
     <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" s="11" t="s">
@@ -20103,15 +20299,15 @@
     </row>
     <row r="309" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="310" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="94" t="s">
+      <c r="B310" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="C310" s="95"/>
-      <c r="D310" s="95"/>
-      <c r="E310" s="95"/>
-      <c r="F310" s="95"/>
-      <c r="G310" s="95"/>
-      <c r="H310" s="96"/>
+      <c r="C310" s="96"/>
+      <c r="D310" s="96"/>
+      <c r="E310" s="96"/>
+      <c r="F310" s="96"/>
+      <c r="G310" s="96"/>
+      <c r="H310" s="97"/>
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B311" s="22" t="s">

--- a/Traditional Yoga Updated Document.xlsx
+++ b/Traditional Yoga Updated Document.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Detailed Plan'!$B$2:$K$349</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="501">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -1514,13 +1514,28 @@
   </si>
   <si>
     <t>/course/addCourseMediaPractice</t>
+  </si>
+  <si>
+    <t>pratice Library</t>
+  </si>
+  <si>
+    <t>/libary/getAllLibary?operation=praticelibary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /libary/praticeLibary?operation=recordsession</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /libary/praticeLibary?operation=shortvideo</t>
+  </si>
+  <si>
+    <t>/libary/praticeLibary?operation=glimpses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2299,7 +2314,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2309,45 +2330,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2362,6 +2344,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2369,6 +2375,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2390,8 +2405,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2428,12 +2447,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2649,18 +2664,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:J102" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="B2:J102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:J99" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="B2:J99"/>
   <tableColumns count="9">
     <tableColumn id="1" name="S No" dataDxfId="10"/>
     <tableColumn id="2" name="Page" dataDxfId="9"/>
     <tableColumn id="3" name="Method" dataDxfId="8"/>
     <tableColumn id="4" name="API" dataDxfId="7"/>
-    <tableColumn id="6" name="Date" dataDxfId="0"/>
-    <tableColumn id="12" name="API Status" dataDxfId="6"/>
-    <tableColumn id="5" name="Resource" dataDxfId="5"/>
-    <tableColumn id="13" name="Angular Status" dataDxfId="4"/>
-    <tableColumn id="11" name="Remark" dataDxfId="3"/>
+    <tableColumn id="6" name="Date" dataDxfId="6"/>
+    <tableColumn id="12" name="API Status" dataDxfId="5"/>
+    <tableColumn id="5" name="Resource" dataDxfId="4"/>
+    <tableColumn id="13" name="Angular Status" dataDxfId="3"/>
+    <tableColumn id="11" name="Remark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2709,7 +2724,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2761,7 +2776,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2955,29 +2970,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" thickBot="1"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1">
       <c r="B2" s="6" t="s">
         <v>173</v>
       </c>
@@ -3000,7 +3015,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="29.4" thickBot="1">
       <c r="B3" s="8" t="s">
         <v>174</v>
       </c>
@@ -3011,7 +3026,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="29.4" thickBot="1">
       <c r="B4" s="8" t="s">
         <v>175</v>
       </c>
@@ -3022,7 +3037,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1">
       <c r="B5" s="8" t="s">
         <v>168</v>
       </c>
@@ -3033,7 +3048,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15" thickBot="1">
       <c r="B6" s="8" t="s">
         <v>176</v>
       </c>
@@ -3044,7 +3059,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="15" thickBot="1">
       <c r="B7" s="8" t="s">
         <v>177</v>
       </c>
@@ -3055,7 +3070,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15" thickBot="1">
       <c r="B8" s="8" t="s">
         <v>178</v>
       </c>
@@ -3073,26 +3088,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" s="5" customFormat="1">
       <c r="B2" s="82" t="s">
         <v>395</v>
       </c>
@@ -3121,7 +3136,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -3144,7 +3159,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -3167,7 +3182,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -3190,7 +3205,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -3213,7 +3228,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -3236,7 +3251,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -3259,7 +3274,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -3282,7 +3297,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -3305,7 +3320,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -3328,7 +3343,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -3351,7 +3366,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -3374,7 +3389,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -3397,7 +3412,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -3420,7 +3435,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -3443,7 +3458,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -3466,7 +3481,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -3489,7 +3504,7 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -3512,7 +3527,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -3535,7 +3550,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -3558,7 +3573,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -3581,7 +3596,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -3604,7 +3619,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -3627,7 +3642,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -3650,7 +3665,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10">
       <c r="B26" s="3">
         <v>24</v>
       </c>
@@ -3673,7 +3688,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10">
       <c r="B27" s="3">
         <v>25</v>
       </c>
@@ -3696,7 +3711,7 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10">
       <c r="B28" s="3">
         <v>26</v>
       </c>
@@ -3719,7 +3734,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10">
       <c r="B29" s="3">
         <v>27</v>
       </c>
@@ -3742,7 +3757,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10">
       <c r="B30" s="3">
         <v>28</v>
       </c>
@@ -3765,7 +3780,7 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10">
       <c r="B31" s="3">
         <v>29</v>
       </c>
@@ -3788,7 +3803,7 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10">
       <c r="B32" s="3">
         <v>30</v>
       </c>
@@ -3811,7 +3826,7 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10">
       <c r="B33" s="3">
         <v>31</v>
       </c>
@@ -3834,7 +3849,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10">
       <c r="B34" s="3">
         <v>32</v>
       </c>
@@ -3857,7 +3872,7 @@
       </c>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10">
       <c r="B35" s="3">
         <v>33</v>
       </c>
@@ -3880,7 +3895,7 @@
       </c>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10">
       <c r="B36" s="3">
         <v>34</v>
       </c>
@@ -3903,7 +3918,7 @@
       </c>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10">
       <c r="B37" s="3">
         <v>35</v>
       </c>
@@ -3926,7 +3941,7 @@
       </c>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10">
       <c r="B38" s="3">
         <v>36</v>
       </c>
@@ -3949,7 +3964,7 @@
       </c>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10">
       <c r="B39" s="3">
         <v>37</v>
       </c>
@@ -3972,7 +3987,7 @@
       </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10">
       <c r="B40" s="3">
         <v>38</v>
       </c>
@@ -3995,7 +4010,7 @@
       </c>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10">
       <c r="B41" s="3">
         <v>39</v>
       </c>
@@ -4018,7 +4033,7 @@
       </c>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10">
       <c r="B42" s="3">
         <v>40</v>
       </c>
@@ -4041,7 +4056,7 @@
       </c>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10">
       <c r="B43" s="3">
         <v>41</v>
       </c>
@@ -4064,7 +4079,7 @@
       </c>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10">
       <c r="B44" s="11">
         <v>42</v>
       </c>
@@ -4087,7 +4102,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10">
       <c r="B45" s="3">
         <v>43</v>
       </c>
@@ -4114,7 +4129,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10">
       <c r="B46" s="3">
         <v>44</v>
       </c>
@@ -4141,7 +4156,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10">
       <c r="B47" s="3">
         <v>45</v>
       </c>
@@ -4168,7 +4183,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10">
       <c r="B48" s="3">
         <v>46</v>
       </c>
@@ -4195,7 +4210,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10">
       <c r="B49" s="3">
         <v>47</v>
       </c>
@@ -4222,7 +4237,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10">
       <c r="B50" s="3">
         <v>48</v>
       </c>
@@ -4249,7 +4264,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10">
       <c r="B51" s="3">
         <v>49</v>
       </c>
@@ -4276,7 +4291,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10">
       <c r="B52" s="3">
         <v>50</v>
       </c>
@@ -4303,7 +4318,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10">
       <c r="B53" s="3">
         <v>51</v>
       </c>
@@ -4330,7 +4345,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10">
       <c r="B54" s="3">
         <v>52</v>
       </c>
@@ -4357,7 +4372,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10">
       <c r="B55" s="3">
         <v>53</v>
       </c>
@@ -4386,7 +4401,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10">
       <c r="B56" s="3">
         <v>54</v>
       </c>
@@ -4415,61 +4430,117 @@
         <v>456</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10">
       <c r="B57" s="3">
         <v>55</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F57" s="87">
+        <v>44896</v>
+      </c>
+      <c r="G57" s="86" t="s">
+        <v>450</v>
+      </c>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I57" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
       <c r="B58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="F58" s="87">
+        <v>44896</v>
+      </c>
+      <c r="G58" s="86" t="s">
+        <v>450</v>
+      </c>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I58" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
       <c r="B59" s="3">
         <v>57</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F59" s="87">
+        <v>44896</v>
+      </c>
+      <c r="G59" s="86" t="s">
+        <v>450</v>
+      </c>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I59" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
       <c r="B60" s="3">
         <v>58</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F60" s="87">
+        <v>44896</v>
+      </c>
+      <c r="G60" s="86" t="s">
+        <v>450</v>
+      </c>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I60" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
       <c r="B61" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -4480,9 +4551,9 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10">
       <c r="B62" s="3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -4493,9 +4564,9 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10">
       <c r="B63" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -4506,9 +4577,9 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10">
       <c r="B64" s="3">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -4519,9 +4590,9 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10">
       <c r="B65" s="3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4532,9 +4603,9 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10">
       <c r="B66" s="3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -4545,9 +4616,9 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10">
       <c r="B67" s="3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4558,9 +4629,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10">
       <c r="B68" s="3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4571,9 +4642,9 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10">
       <c r="B69" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -4584,9 +4655,9 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10">
       <c r="B70" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4597,9 +4668,9 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10">
       <c r="B71" s="3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -4610,9 +4681,9 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10">
       <c r="B72" s="3">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -4623,9 +4694,9 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10">
       <c r="B73" s="3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -4636,9 +4707,9 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10">
       <c r="B74" s="3">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -4649,9 +4720,9 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10">
       <c r="B75" s="3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4662,9 +4733,9 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10">
       <c r="B76" s="3">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4675,9 +4746,9 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10">
       <c r="B77" s="3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -4688,9 +4759,9 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:10">
       <c r="B78" s="3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4701,9 +4772,9 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10">
       <c r="B79" s="3">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -4714,9 +4785,9 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:10">
       <c r="B80" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -4727,9 +4798,9 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10">
       <c r="B81" s="3">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -4740,9 +4811,9 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10">
       <c r="B82" s="3">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -4753,9 +4824,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10">
       <c r="B83" s="3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -4766,9 +4837,9 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10">
       <c r="B84" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -4779,9 +4850,9 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10">
       <c r="B85" s="3">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -4792,9 +4863,9 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10">
       <c r="B86" s="3">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -4805,9 +4876,9 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10">
       <c r="B87" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -4818,9 +4889,9 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10">
       <c r="B88" s="3">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -4831,9 +4902,9 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10">
       <c r="B89" s="3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4844,9 +4915,9 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10">
       <c r="B90" s="3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -4857,9 +4928,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10">
       <c r="B91" s="3">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -4870,9 +4941,9 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:10">
       <c r="B92" s="3">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4883,9 +4954,9 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:10">
       <c r="B93" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -4896,9 +4967,9 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10">
       <c r="B94" s="3">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -4909,9 +4980,9 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10">
       <c r="B95" s="3">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -4922,9 +4993,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10">
       <c r="B96" s="3">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -4935,9 +5006,9 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10">
       <c r="B97" s="3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4948,9 +5019,9 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10">
       <c r="B98" s="3">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4961,9 +5032,9 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10">
       <c r="B99" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4973,45 +5044,6 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="3">
-        <v>98</v>
-      </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="3">
-        <v>99</v>
-      </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="3">
-        <v>100</v>
-      </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5022,34 +5054,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D359" sqref="D359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="78" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="78" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="78"/>
+    <col min="9" max="9" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:11" s="79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="79" customFormat="1">
       <c r="A2" s="5"/>
       <c r="B2" s="67" t="s">
         <v>164</v>
@@ -5082,7 +5114,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1">
       <c r="B3" s="72">
         <v>2</v>
       </c>
@@ -5112,7 +5144,7 @@
       </c>
       <c r="K3" s="72"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1">
       <c r="B4" s="72">
         <v>4</v>
       </c>
@@ -5142,7 +5174,7 @@
       </c>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1">
       <c r="B5" s="62">
         <v>6</v>
       </c>
@@ -5172,7 +5204,7 @@
       </c>
       <c r="K5" s="62"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1">
       <c r="B6" s="62">
         <v>8</v>
       </c>
@@ -5202,7 +5234,7 @@
       </c>
       <c r="K6" s="62"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1">
       <c r="B7" s="72">
         <v>3</v>
       </c>
@@ -5232,7 +5264,7 @@
       </c>
       <c r="K7" s="72"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1">
       <c r="B8" s="72">
         <v>5</v>
       </c>
@@ -5262,7 +5294,7 @@
       </c>
       <c r="K8" s="72"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1">
       <c r="B9" s="62">
         <v>10</v>
       </c>
@@ -5292,7 +5324,7 @@
       </c>
       <c r="K9" s="62"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1">
       <c r="B10" s="72">
         <v>12</v>
       </c>
@@ -5322,7 +5354,7 @@
       </c>
       <c r="K10" s="72"/>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1">
       <c r="B11" s="72">
         <v>7</v>
       </c>
@@ -5352,7 +5384,7 @@
       </c>
       <c r="K11" s="72"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1">
       <c r="B12" s="72">
         <v>9</v>
       </c>
@@ -5382,7 +5414,7 @@
       </c>
       <c r="K12" s="72"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1">
       <c r="B13" s="72">
         <v>14</v>
       </c>
@@ -5412,7 +5444,7 @@
       </c>
       <c r="K13" s="72"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1">
       <c r="B14" s="72">
         <v>16</v>
       </c>
@@ -5442,7 +5474,7 @@
       </c>
       <c r="K14" s="72"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1">
       <c r="B15" s="72">
         <v>11</v>
       </c>
@@ -5472,7 +5504,7 @@
       </c>
       <c r="K15" s="72"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1">
       <c r="B16" s="72">
         <v>13</v>
       </c>
@@ -5502,7 +5534,7 @@
       </c>
       <c r="K16" s="72"/>
     </row>
-    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" hidden="1">
       <c r="B17" s="72">
         <v>15</v>
       </c>
@@ -5532,7 +5564,7 @@
       </c>
       <c r="K17" s="72"/>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" hidden="1">
       <c r="B18" s="72">
         <v>17</v>
       </c>
@@ -5562,7 +5594,7 @@
       </c>
       <c r="K18" s="72"/>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" hidden="1">
       <c r="B19" s="75">
         <v>22</v>
       </c>
@@ -5592,7 +5624,7 @@
       </c>
       <c r="K19" s="75"/>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" hidden="1">
       <c r="B20" s="75">
         <v>24</v>
       </c>
@@ -5622,7 +5654,7 @@
       </c>
       <c r="K20" s="75"/>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" hidden="1">
       <c r="B21" s="75">
         <v>26</v>
       </c>
@@ -5652,7 +5684,7 @@
       </c>
       <c r="K21" s="75"/>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" hidden="1">
       <c r="B22" s="75">
         <v>28</v>
       </c>
@@ -5682,7 +5714,7 @@
       </c>
       <c r="K22" s="75"/>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" hidden="1">
       <c r="B23" s="72">
         <v>23</v>
       </c>
@@ -5712,7 +5744,7 @@
       </c>
       <c r="K23" s="72"/>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" hidden="1">
       <c r="B24" s="75">
         <v>30</v>
       </c>
@@ -5742,7 +5774,7 @@
       </c>
       <c r="K24" s="75"/>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" hidden="1">
       <c r="B25" s="75">
         <v>32</v>
       </c>
@@ -5772,7 +5804,7 @@
       </c>
       <c r="K25" s="75"/>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" hidden="1">
       <c r="B26" s="63">
         <v>1</v>
       </c>
@@ -5796,7 +5828,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="63"/>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" hidden="1">
       <c r="B27" s="72">
         <v>27</v>
       </c>
@@ -5826,7 +5858,7 @@
       </c>
       <c r="K27" s="72"/>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" hidden="1">
       <c r="B28" s="72">
         <v>29</v>
       </c>
@@ -5856,7 +5888,7 @@
       </c>
       <c r="K28" s="72"/>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" hidden="1">
       <c r="B29" s="75">
         <v>34</v>
       </c>
@@ -5886,7 +5918,7 @@
       </c>
       <c r="K29" s="75"/>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="75">
         <v>36</v>
       </c>
@@ -5916,7 +5948,7 @@
       </c>
       <c r="K30" s="75"/>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" hidden="1">
       <c r="B31" s="4">
         <v>37</v>
       </c>
@@ -5948,7 +5980,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" hidden="1">
       <c r="B32" s="4">
         <v>25</v>
       </c>
@@ -5978,7 +6010,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" hidden="1">
       <c r="B33" s="72">
         <v>31</v>
       </c>
@@ -6008,7 +6040,7 @@
       </c>
       <c r="K33" s="72"/>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" hidden="1">
       <c r="B34" s="72">
         <v>33</v>
       </c>
@@ -6038,7 +6070,7 @@
       </c>
       <c r="K34" s="72"/>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" hidden="1">
       <c r="B35" s="72">
         <v>35</v>
       </c>
@@ -6068,7 +6100,7 @@
       </c>
       <c r="K35" s="72"/>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" hidden="1">
       <c r="B36" s="75">
         <v>39</v>
       </c>
@@ -6100,7 +6132,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" hidden="1">
       <c r="B37" s="75">
         <v>41</v>
       </c>
@@ -6132,7 +6164,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" hidden="1">
       <c r="B38" s="72">
         <v>43</v>
       </c>
@@ -6162,7 +6194,7 @@
       </c>
       <c r="K38" s="72"/>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" hidden="1">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -6192,7 +6224,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11">
       <c r="B40" s="1">
         <v>40</v>
       </c>
@@ -6224,7 +6256,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" hidden="1">
       <c r="B41" s="1">
         <v>42</v>
       </c>
@@ -6254,7 +6286,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11">
       <c r="B42" s="1">
         <v>44</v>
       </c>
@@ -6286,7 +6318,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" hidden="1">
       <c r="B43" s="72">
         <v>45</v>
       </c>
@@ -6316,7 +6348,7 @@
       </c>
       <c r="K43" s="72"/>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" hidden="1">
       <c r="B44" s="75">
         <v>47</v>
       </c>
@@ -6348,7 +6380,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" hidden="1">
       <c r="B45" s="75">
         <v>49</v>
       </c>
@@ -6380,7 +6412,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" hidden="1">
       <c r="B46" s="1">
         <v>46</v>
       </c>
@@ -6410,7 +6442,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" hidden="1">
       <c r="B47" s="1">
         <v>48</v>
       </c>
@@ -6442,7 +6474,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" hidden="1">
       <c r="B48" s="1">
         <v>50</v>
       </c>
@@ -6474,7 +6506,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" hidden="1">
       <c r="B49" s="72">
         <v>51</v>
       </c>
@@ -6504,7 +6536,7 @@
       </c>
       <c r="K49" s="72"/>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" hidden="1">
       <c r="B50" s="1">
         <v>52</v>
       </c>
@@ -6534,7 +6566,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" hidden="1">
       <c r="B51" s="72">
         <v>53</v>
       </c>
@@ -6564,7 +6596,7 @@
       </c>
       <c r="K51" s="72"/>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" hidden="1">
       <c r="B52" s="1">
         <v>54</v>
       </c>
@@ -6596,7 +6628,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" hidden="1">
       <c r="B53" s="1">
         <v>55</v>
       </c>
@@ -6626,7 +6658,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" hidden="1">
       <c r="B54" s="1">
         <v>56</v>
       </c>
@@ -6658,7 +6690,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" hidden="1">
       <c r="B55" s="72">
         <v>57</v>
       </c>
@@ -6688,7 +6720,7 @@
       </c>
       <c r="K55" s="72"/>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11">
       <c r="B56" s="1">
         <v>58</v>
       </c>
@@ -6718,7 +6750,7 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11">
       <c r="B57" s="1">
         <v>60</v>
       </c>
@@ -6748,7 +6780,7 @@
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" hidden="1">
       <c r="B58" s="1">
         <v>62</v>
       </c>
@@ -6780,7 +6812,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" hidden="1">
       <c r="B59" s="1">
         <v>64</v>
       </c>
@@ -6812,7 +6844,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" hidden="1">
       <c r="B60" s="1">
         <v>66</v>
       </c>
@@ -6844,7 +6876,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" hidden="1">
       <c r="B61" s="72">
         <v>59</v>
       </c>
@@ -6874,7 +6906,7 @@
       </c>
       <c r="K61" s="72"/>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" hidden="1">
       <c r="B62" s="70">
         <v>61</v>
       </c>
@@ -6904,7 +6936,7 @@
       </c>
       <c r="K62" s="70"/>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11">
       <c r="B63" s="1">
         <v>68</v>
       </c>
@@ -6932,7 +6964,7 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" hidden="1">
       <c r="B64" s="1">
         <v>70</v>
       </c>
@@ -6962,7 +6994,7 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" hidden="1">
       <c r="B65" s="70">
         <v>63</v>
       </c>
@@ -6992,7 +7024,7 @@
       </c>
       <c r="K65" s="70"/>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" hidden="1">
       <c r="B66" s="70">
         <v>65</v>
       </c>
@@ -7022,7 +7054,7 @@
       </c>
       <c r="K66" s="70"/>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11">
       <c r="B67" s="1">
         <v>72</v>
       </c>
@@ -7050,7 +7082,7 @@
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11">
       <c r="B68" s="1">
         <v>74</v>
       </c>
@@ -7078,7 +7110,7 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" hidden="1">
       <c r="B69" s="70">
         <v>67</v>
       </c>
@@ -7108,7 +7140,7 @@
       </c>
       <c r="K69" s="70"/>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" hidden="1">
       <c r="B70" s="70">
         <v>69</v>
       </c>
@@ -7138,7 +7170,7 @@
       </c>
       <c r="K70" s="70"/>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11">
       <c r="B71" s="1">
         <v>76</v>
       </c>
@@ -7166,7 +7198,7 @@
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" hidden="1">
       <c r="B72" s="1">
         <v>78</v>
       </c>
@@ -7198,7 +7230,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" hidden="1">
       <c r="B73" s="4">
         <v>71</v>
       </c>
@@ -7228,7 +7260,7 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" hidden="1">
       <c r="B74" s="4">
         <v>73</v>
       </c>
@@ -7258,7 +7290,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" hidden="1">
       <c r="B75" s="70">
         <v>75</v>
       </c>
@@ -7288,7 +7320,7 @@
       </c>
       <c r="K75" s="70"/>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" hidden="1">
       <c r="B76" s="70">
         <v>77</v>
       </c>
@@ -7318,7 +7350,7 @@
       </c>
       <c r="K76" s="70"/>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11">
       <c r="B77" s="1">
         <v>80</v>
       </c>
@@ -7348,7 +7380,7 @@
       </c>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" hidden="1">
       <c r="B78" s="1">
         <v>82</v>
       </c>
@@ -7378,7 +7410,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" hidden="1">
       <c r="B79" s="1">
         <v>79</v>
       </c>
@@ -7408,7 +7440,7 @@
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" hidden="1">
       <c r="B80" s="1">
         <v>81</v>
       </c>
@@ -7438,7 +7470,7 @@
       </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" hidden="1">
       <c r="B81" s="1">
         <v>84</v>
       </c>
@@ -7468,7 +7500,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11">
       <c r="B82" s="1">
         <v>86</v>
       </c>
@@ -7496,7 +7528,7 @@
       </c>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" hidden="1">
       <c r="B83" s="1">
         <v>83</v>
       </c>
@@ -7526,7 +7558,7 @@
       </c>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" hidden="1">
       <c r="B84" s="1">
         <v>85</v>
       </c>
@@ -7556,7 +7588,7 @@
       </c>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11">
       <c r="B85" s="1">
         <v>88</v>
       </c>
@@ -7586,7 +7618,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11">
       <c r="B86" s="1">
         <v>90</v>
       </c>
@@ -7614,7 +7646,7 @@
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" customFormat="1" hidden="1">
       <c r="B87" s="1">
         <v>87</v>
       </c>
@@ -7644,7 +7676,7 @@
       </c>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="2:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" customFormat="1" hidden="1">
       <c r="B88" s="1">
         <v>89</v>
       </c>
@@ -7674,7 +7706,7 @@
       </c>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" customFormat="1">
       <c r="B89" s="1">
         <v>92</v>
       </c>
@@ -7702,7 +7734,7 @@
       </c>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" customFormat="1">
       <c r="B90" s="1">
         <v>94</v>
       </c>
@@ -7730,7 +7762,7 @@
       </c>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" customFormat="1" hidden="1">
       <c r="B91" s="1">
         <v>91</v>
       </c>
@@ -7758,7 +7790,7 @@
       </c>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" customFormat="1" hidden="1">
       <c r="B92" s="1">
         <v>93</v>
       </c>
@@ -7786,7 +7818,7 @@
       </c>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" customFormat="1" hidden="1">
       <c r="B93" s="1">
         <v>96</v>
       </c>
@@ -7814,7 +7846,7 @@
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" customFormat="1" hidden="1">
       <c r="B94" s="1">
         <v>98</v>
       </c>
@@ -7842,7 +7874,7 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" customFormat="1" hidden="1">
       <c r="B95" s="1">
         <v>95</v>
       </c>
@@ -7870,7 +7902,7 @@
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" customFormat="1" hidden="1">
       <c r="B96" s="1">
         <v>97</v>
       </c>
@@ -7898,7 +7930,7 @@
       </c>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" customFormat="1" hidden="1">
       <c r="B97" s="1">
         <v>100</v>
       </c>
@@ -7926,7 +7958,7 @@
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" customFormat="1" hidden="1">
       <c r="B98" s="1">
         <v>102</v>
       </c>
@@ -7954,7 +7986,7 @@
       </c>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" customFormat="1" hidden="1">
       <c r="B99" s="1">
         <v>99</v>
       </c>
@@ -7982,7 +8014,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" customFormat="1" hidden="1">
       <c r="B100" s="1">
         <v>101</v>
       </c>
@@ -8010,7 +8042,7 @@
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" customFormat="1" hidden="1">
       <c r="B101" s="1">
         <v>104</v>
       </c>
@@ -8038,7 +8070,7 @@
       </c>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" customFormat="1" hidden="1">
       <c r="B102" s="1">
         <v>106</v>
       </c>
@@ -8066,7 +8098,7 @@
       </c>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" customFormat="1" hidden="1">
       <c r="B103" s="1">
         <v>103</v>
       </c>
@@ -8094,7 +8126,7 @@
       </c>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" customFormat="1" hidden="1">
       <c r="B104" s="1">
         <v>105</v>
       </c>
@@ -8122,7 +8154,7 @@
       </c>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" customFormat="1" hidden="1">
       <c r="B105" s="1">
         <v>108</v>
       </c>
@@ -8150,7 +8182,7 @@
       </c>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" customFormat="1" hidden="1">
       <c r="B106" s="1">
         <v>110</v>
       </c>
@@ -8178,7 +8210,7 @@
       </c>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" customFormat="1" hidden="1">
       <c r="B107" s="1">
         <v>107</v>
       </c>
@@ -8206,7 +8238,7 @@
       </c>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" customFormat="1" hidden="1">
       <c r="B108" s="1">
         <v>109</v>
       </c>
@@ -8234,7 +8266,7 @@
       </c>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" customFormat="1" hidden="1">
       <c r="B109" s="1">
         <v>112</v>
       </c>
@@ -8262,7 +8294,7 @@
       </c>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" customFormat="1" hidden="1">
       <c r="B110" s="1">
         <v>114</v>
       </c>
@@ -8290,7 +8322,7 @@
       </c>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" customFormat="1" hidden="1">
       <c r="B111" s="1">
         <v>111</v>
       </c>
@@ -8318,7 +8350,7 @@
       </c>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" customFormat="1" hidden="1">
       <c r="B112" s="1">
         <v>116</v>
       </c>
@@ -8346,7 +8378,7 @@
       </c>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" customFormat="1" hidden="1">
       <c r="B113" s="1">
         <v>118</v>
       </c>
@@ -8374,7 +8406,7 @@
       </c>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" customFormat="1" hidden="1">
       <c r="B114" s="1">
         <v>113</v>
       </c>
@@ -8402,7 +8434,7 @@
       </c>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" customFormat="1" hidden="1">
       <c r="B115" s="1">
         <v>115</v>
       </c>
@@ -8430,7 +8462,7 @@
       </c>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" customFormat="1" hidden="1">
       <c r="B116" s="1">
         <v>120</v>
       </c>
@@ -8458,7 +8490,7 @@
       </c>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" customFormat="1" ht="28.8" hidden="1">
       <c r="B117" s="1">
         <v>122</v>
       </c>
@@ -8486,7 +8518,7 @@
       </c>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" customFormat="1" hidden="1">
       <c r="B118" s="1">
         <v>117</v>
       </c>
@@ -8514,7 +8546,7 @@
       </c>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" customFormat="1" hidden="1">
       <c r="B119" s="1">
         <v>119</v>
       </c>
@@ -8542,7 +8574,7 @@
       </c>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" customFormat="1" ht="28.8" hidden="1">
       <c r="B120" s="1">
         <v>124</v>
       </c>
@@ -8570,7 +8602,7 @@
       </c>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" customFormat="1" ht="28.8" hidden="1">
       <c r="B121" s="1">
         <v>121</v>
       </c>
@@ -8598,7 +8630,7 @@
       </c>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" customFormat="1" ht="28.8" hidden="1">
       <c r="B122" s="1">
         <v>123</v>
       </c>
@@ -8626,7 +8658,7 @@
       </c>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" customFormat="1" hidden="1">
       <c r="B123" s="1">
         <v>125</v>
       </c>
@@ -8654,7 +8686,7 @@
       </c>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" customFormat="1" ht="28.8" hidden="1">
       <c r="B124" s="1">
         <v>127</v>
       </c>
@@ -8682,7 +8714,7 @@
       </c>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" customFormat="1" hidden="1">
       <c r="B125" s="1">
         <v>126</v>
       </c>
@@ -8710,7 +8742,7 @@
       </c>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" customFormat="1" ht="28.8" hidden="1">
       <c r="B126" s="1">
         <v>128</v>
       </c>
@@ -8738,7 +8770,7 @@
       </c>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" customFormat="1" hidden="1">
       <c r="B127" s="1">
         <v>129</v>
       </c>
@@ -8766,7 +8798,7 @@
       </c>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" customFormat="1" hidden="1">
       <c r="B128" s="1">
         <v>131</v>
       </c>
@@ -8794,7 +8826,7 @@
       </c>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" customFormat="1" hidden="1">
       <c r="B129" s="1">
         <v>130</v>
       </c>
@@ -8822,7 +8854,7 @@
       </c>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" customFormat="1" hidden="1">
       <c r="B130" s="1">
         <v>132</v>
       </c>
@@ -8850,7 +8882,7 @@
       </c>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" customFormat="1" ht="28.8" hidden="1">
       <c r="B131" s="1">
         <v>133</v>
       </c>
@@ -8878,7 +8910,7 @@
       </c>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" customFormat="1" hidden="1">
       <c r="B132" s="1">
         <v>135</v>
       </c>
@@ -8906,7 +8938,7 @@
       </c>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="2:11" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" customFormat="1" ht="28.8" hidden="1">
       <c r="B133" s="1">
         <v>134</v>
       </c>
@@ -8934,7 +8966,7 @@
       </c>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" customFormat="1" hidden="1">
       <c r="B134" s="1">
         <v>136</v>
       </c>
@@ -8962,7 +8994,7 @@
       </c>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" customFormat="1" hidden="1">
       <c r="B135" s="70">
         <v>20</v>
       </c>
@@ -8990,7 +9022,7 @@
       </c>
       <c r="K135" s="70"/>
     </row>
-    <row r="136" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" customFormat="1" hidden="1">
       <c r="B136" s="70">
         <v>21</v>
       </c>
@@ -9018,7 +9050,7 @@
       </c>
       <c r="K136" s="70"/>
     </row>
-    <row r="137" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" customFormat="1" hidden="1">
       <c r="B137" s="1">
         <v>137</v>
       </c>
@@ -9046,7 +9078,7 @@
       </c>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" customFormat="1" hidden="1">
       <c r="B138" s="1">
         <v>139</v>
       </c>
@@ -9074,7 +9106,7 @@
       </c>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" customFormat="1" hidden="1">
       <c r="B139" s="1">
         <v>138</v>
       </c>
@@ -9102,7 +9134,7 @@
       </c>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" customFormat="1" hidden="1">
       <c r="B140" s="1">
         <v>140</v>
       </c>
@@ -9130,7 +9162,7 @@
       </c>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" customFormat="1" hidden="1">
       <c r="B141" s="1">
         <v>141</v>
       </c>
@@ -9158,7 +9190,7 @@
       </c>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" customFormat="1" hidden="1">
       <c r="B142" s="1">
         <v>143</v>
       </c>
@@ -9186,7 +9218,7 @@
       </c>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" customFormat="1" hidden="1">
       <c r="B143" s="1">
         <v>142</v>
       </c>
@@ -9214,7 +9246,7 @@
       </c>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" customFormat="1" hidden="1">
       <c r="B144" s="1">
         <v>144</v>
       </c>
@@ -9242,7 +9274,7 @@
       </c>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" customFormat="1" hidden="1">
       <c r="B145" s="1">
         <v>145</v>
       </c>
@@ -9270,7 +9302,7 @@
       </c>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" customFormat="1" hidden="1">
       <c r="B146" s="1">
         <v>147</v>
       </c>
@@ -9298,7 +9330,7 @@
       </c>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" customFormat="1" hidden="1">
       <c r="B147" s="1">
         <v>146</v>
       </c>
@@ -9326,7 +9358,7 @@
       </c>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" customFormat="1" hidden="1">
       <c r="B148" s="1">
         <v>148</v>
       </c>
@@ -9354,7 +9386,7 @@
       </c>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" customFormat="1" hidden="1">
       <c r="B149" s="1">
         <v>149</v>
       </c>
@@ -9382,7 +9414,7 @@
       </c>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" customFormat="1" hidden="1">
       <c r="B150" s="1">
         <v>151</v>
       </c>
@@ -9410,7 +9442,7 @@
       </c>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" customFormat="1" hidden="1">
       <c r="B151" s="1">
         <v>150</v>
       </c>
@@ -9438,7 +9470,7 @@
       </c>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" customFormat="1" hidden="1">
       <c r="B152" s="1">
         <v>152</v>
       </c>
@@ -9466,7 +9498,7 @@
       </c>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" customFormat="1" hidden="1">
       <c r="B153" s="1">
         <v>153</v>
       </c>
@@ -9494,7 +9526,7 @@
       </c>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" customFormat="1" hidden="1">
       <c r="B154" s="1">
         <v>155</v>
       </c>
@@ -9522,7 +9554,7 @@
       </c>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" customFormat="1" hidden="1">
       <c r="B155" s="1">
         <v>154</v>
       </c>
@@ -9550,7 +9582,7 @@
       </c>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" customFormat="1" hidden="1">
       <c r="B156" s="1">
         <v>156</v>
       </c>
@@ -9578,7 +9610,7 @@
       </c>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" customFormat="1" hidden="1">
       <c r="B157" s="1">
         <v>157</v>
       </c>
@@ -9606,7 +9638,7 @@
       </c>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" customFormat="1" hidden="1">
       <c r="B158" s="1">
         <v>158</v>
       </c>
@@ -9634,7 +9666,7 @@
       </c>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" customFormat="1" hidden="1">
       <c r="B159" s="1">
         <v>159</v>
       </c>
@@ -9662,7 +9694,7 @@
       </c>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" customFormat="1" hidden="1">
       <c r="B160" s="1">
         <v>161</v>
       </c>
@@ -9690,7 +9722,7 @@
       </c>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" customFormat="1" hidden="1">
       <c r="B161" s="1">
         <v>160</v>
       </c>
@@ -9718,7 +9750,7 @@
       </c>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" customFormat="1" hidden="1">
       <c r="B162" s="1">
         <v>162</v>
       </c>
@@ -9746,7 +9778,7 @@
       </c>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" customFormat="1" hidden="1">
       <c r="B163" s="1">
         <v>163</v>
       </c>
@@ -9774,7 +9806,7 @@
       </c>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" customFormat="1" hidden="1">
       <c r="B164" s="1">
         <v>165</v>
       </c>
@@ -9802,7 +9834,7 @@
       </c>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" customFormat="1" hidden="1">
       <c r="B165" s="1">
         <v>164</v>
       </c>
@@ -9830,7 +9862,7 @@
       </c>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" customFormat="1" hidden="1">
       <c r="B166" s="1">
         <v>166</v>
       </c>
@@ -9858,7 +9890,7 @@
       </c>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" customFormat="1" hidden="1">
       <c r="B167" s="1">
         <v>167</v>
       </c>
@@ -9886,7 +9918,7 @@
       </c>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" customFormat="1" hidden="1">
       <c r="B168" s="1">
         <v>169</v>
       </c>
@@ -9914,7 +9946,7 @@
       </c>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:11" customFormat="1" hidden="1">
       <c r="B169" s="1">
         <v>168</v>
       </c>
@@ -9942,7 +9974,7 @@
       </c>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:11" customFormat="1" hidden="1">
       <c r="B170" s="1">
         <v>170</v>
       </c>
@@ -9970,7 +10002,7 @@
       </c>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:11" customFormat="1" hidden="1">
       <c r="B171" s="1">
         <v>171</v>
       </c>
@@ -9998,7 +10030,7 @@
       </c>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" customFormat="1" hidden="1">
       <c r="B172" s="1">
         <v>173</v>
       </c>
@@ -10026,7 +10058,7 @@
       </c>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" customFormat="1" hidden="1">
       <c r="B173" s="1">
         <v>172</v>
       </c>
@@ -10054,7 +10086,7 @@
       </c>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:11" customFormat="1" hidden="1">
       <c r="B174" s="1">
         <v>174</v>
       </c>
@@ -10082,7 +10114,7 @@
       </c>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" customFormat="1" hidden="1">
       <c r="B175" s="1">
         <v>175</v>
       </c>
@@ -10110,7 +10142,7 @@
       </c>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:11" customFormat="1" hidden="1">
       <c r="B176" s="1">
         <v>177</v>
       </c>
@@ -10138,7 +10170,7 @@
       </c>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:11" customFormat="1" hidden="1">
       <c r="B177" s="1">
         <v>176</v>
       </c>
@@ -10166,7 +10198,7 @@
       </c>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:11" customFormat="1" hidden="1">
       <c r="B178" s="1">
         <v>178</v>
       </c>
@@ -10194,7 +10226,7 @@
       </c>
       <c r="K178" s="1"/>
     </row>
-    <row r="179" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:11" customFormat="1" hidden="1">
       <c r="B179" s="1">
         <v>179</v>
       </c>
@@ -10222,7 +10254,7 @@
       </c>
       <c r="K179" s="1"/>
     </row>
-    <row r="180" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:11" customFormat="1" hidden="1">
       <c r="B180" s="1">
         <v>181</v>
       </c>
@@ -10250,7 +10282,7 @@
       </c>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:11" customFormat="1" hidden="1">
       <c r="B181" s="1">
         <v>180</v>
       </c>
@@ -10278,7 +10310,7 @@
       </c>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:11" customFormat="1" hidden="1">
       <c r="B182" s="1">
         <v>182</v>
       </c>
@@ -10306,7 +10338,7 @@
       </c>
       <c r="K182" s="1"/>
     </row>
-    <row r="183" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:11" customFormat="1" hidden="1">
       <c r="B183" s="1">
         <v>183</v>
       </c>
@@ -10334,7 +10366,7 @@
       </c>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:11" customFormat="1" hidden="1">
       <c r="B184" s="1">
         <v>185</v>
       </c>
@@ -10362,7 +10394,7 @@
       </c>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:11" customFormat="1" hidden="1">
       <c r="B185" s="1">
         <v>184</v>
       </c>
@@ -10390,7 +10422,7 @@
       </c>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:11" customFormat="1" hidden="1">
       <c r="B186" s="1">
         <v>186</v>
       </c>
@@ -10418,7 +10450,7 @@
       </c>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:11" customFormat="1" hidden="1">
       <c r="B187" s="1">
         <v>187</v>
       </c>
@@ -10446,7 +10478,7 @@
       </c>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:11" customFormat="1" hidden="1">
       <c r="B188" s="1">
         <v>189</v>
       </c>
@@ -10474,7 +10506,7 @@
       </c>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:11" customFormat="1" hidden="1">
       <c r="B189" s="1">
         <v>188</v>
       </c>
@@ -10502,7 +10534,7 @@
       </c>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:11" customFormat="1" hidden="1">
       <c r="B190" s="1">
         <v>190</v>
       </c>
@@ -10530,7 +10562,7 @@
       </c>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:11" customFormat="1" hidden="1">
       <c r="B191" s="1">
         <v>191</v>
       </c>
@@ -10558,7 +10590,7 @@
       </c>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:11" customFormat="1" hidden="1">
       <c r="B192" s="1">
         <v>193</v>
       </c>
@@ -10586,7 +10618,7 @@
       </c>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:11" customFormat="1" hidden="1">
       <c r="B193" s="1">
         <v>192</v>
       </c>
@@ -10614,7 +10646,7 @@
       </c>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:11" customFormat="1" hidden="1">
       <c r="B194" s="1">
         <v>194</v>
       </c>
@@ -10642,7 +10674,7 @@
       </c>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:11" customFormat="1" hidden="1">
       <c r="B195" s="1">
         <v>195</v>
       </c>
@@ -10670,7 +10702,7 @@
       </c>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:11" customFormat="1" hidden="1">
       <c r="B196" s="1">
         <v>196</v>
       </c>
@@ -10698,7 +10730,7 @@
       </c>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:11" customFormat="1" hidden="1">
       <c r="B197" s="1">
         <v>198</v>
       </c>
@@ -10726,7 +10758,7 @@
       </c>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:11" customFormat="1" hidden="1">
       <c r="B198" s="1">
         <v>197</v>
       </c>
@@ -10754,7 +10786,7 @@
       </c>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:11" customFormat="1" hidden="1">
       <c r="B199" s="1">
         <v>199</v>
       </c>
@@ -10782,7 +10814,7 @@
       </c>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:11" customFormat="1" hidden="1">
       <c r="B200" s="1">
         <v>200</v>
       </c>
@@ -10810,7 +10842,7 @@
       </c>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:11" customFormat="1" hidden="1">
       <c r="B201" s="1">
         <v>202</v>
       </c>
@@ -10838,7 +10870,7 @@
       </c>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:11" customFormat="1" hidden="1">
       <c r="B202" s="1">
         <v>201</v>
       </c>
@@ -10866,7 +10898,7 @@
       </c>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:11" customFormat="1" hidden="1">
       <c r="B203" s="1">
         <v>203</v>
       </c>
@@ -10894,7 +10926,7 @@
       </c>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:11" customFormat="1" hidden="1">
       <c r="B204" s="1">
         <v>204</v>
       </c>
@@ -10922,7 +10954,7 @@
       </c>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:11" customFormat="1" hidden="1">
       <c r="B205" s="1">
         <v>206</v>
       </c>
@@ -10950,7 +10982,7 @@
       </c>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:11" customFormat="1" hidden="1">
       <c r="B206" s="1">
         <v>205</v>
       </c>
@@ -10978,7 +11010,7 @@
       </c>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:11" customFormat="1" hidden="1">
       <c r="B207" s="1">
         <v>207</v>
       </c>
@@ -11006,7 +11038,7 @@
       </c>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:11" customFormat="1" hidden="1">
       <c r="B208" s="1">
         <v>208</v>
       </c>
@@ -11034,7 +11066,7 @@
       </c>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:11" customFormat="1" hidden="1">
       <c r="B209" s="1">
         <v>210</v>
       </c>
@@ -11062,7 +11094,7 @@
       </c>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:11" customFormat="1" hidden="1">
       <c r="B210" s="1">
         <v>209</v>
       </c>
@@ -11090,7 +11122,7 @@
       </c>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:11" customFormat="1" hidden="1">
       <c r="B211" s="1">
         <v>211</v>
       </c>
@@ -11118,7 +11150,7 @@
       </c>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:11" customFormat="1" hidden="1">
       <c r="B212" s="1">
         <v>212</v>
       </c>
@@ -11146,7 +11178,7 @@
       </c>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:11" customFormat="1" hidden="1">
       <c r="B213" s="1">
         <v>214</v>
       </c>
@@ -11174,7 +11206,7 @@
       </c>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:11" customFormat="1" hidden="1">
       <c r="B214" s="1">
         <v>213</v>
       </c>
@@ -11202,7 +11234,7 @@
       </c>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:11" customFormat="1" hidden="1">
       <c r="B215" s="1">
         <v>215</v>
       </c>
@@ -11230,7 +11262,7 @@
       </c>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:11" customFormat="1" hidden="1">
       <c r="B216" s="1">
         <v>216</v>
       </c>
@@ -11258,7 +11290,7 @@
       </c>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:11" customFormat="1" hidden="1">
       <c r="B217" s="1">
         <v>218</v>
       </c>
@@ -11286,7 +11318,7 @@
       </c>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:11" customFormat="1" hidden="1">
       <c r="B218" s="1">
         <v>217</v>
       </c>
@@ -11314,7 +11346,7 @@
       </c>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:11" customFormat="1" hidden="1">
       <c r="B219" s="1">
         <v>219</v>
       </c>
@@ -11342,7 +11374,7 @@
       </c>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:11" customFormat="1" hidden="1">
       <c r="B220" s="1">
         <v>220</v>
       </c>
@@ -11370,7 +11402,7 @@
       </c>
       <c r="K220" s="1"/>
     </row>
-    <row r="221" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:11" customFormat="1" hidden="1">
       <c r="B221" s="1">
         <v>222</v>
       </c>
@@ -11398,7 +11430,7 @@
       </c>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:11" customFormat="1" hidden="1">
       <c r="B222" s="1">
         <v>221</v>
       </c>
@@ -11426,7 +11458,7 @@
       </c>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:11" customFormat="1" hidden="1">
       <c r="B223" s="1">
         <v>223</v>
       </c>
@@ -11454,7 +11486,7 @@
       </c>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:11" customFormat="1" hidden="1">
       <c r="B224" s="1">
         <v>224</v>
       </c>
@@ -11482,7 +11514,7 @@
       </c>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:11" customFormat="1" hidden="1">
       <c r="B225" s="1">
         <v>226</v>
       </c>
@@ -11510,7 +11542,7 @@
       </c>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:11" customFormat="1" hidden="1">
       <c r="B226" s="1">
         <v>225</v>
       </c>
@@ -11538,7 +11570,7 @@
       </c>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:11" customFormat="1" hidden="1">
       <c r="B227" s="1">
         <v>227</v>
       </c>
@@ -11566,7 +11598,7 @@
       </c>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:11" customFormat="1" hidden="1">
       <c r="B228" s="1">
         <v>228</v>
       </c>
@@ -11594,7 +11626,7 @@
       </c>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:11" customFormat="1" hidden="1">
       <c r="B229" s="1">
         <v>230</v>
       </c>
@@ -11622,7 +11654,7 @@
       </c>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:11" customFormat="1" hidden="1">
       <c r="B230" s="1">
         <v>229</v>
       </c>
@@ -11650,7 +11682,7 @@
       </c>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:11" customFormat="1" hidden="1">
       <c r="B231" s="1">
         <v>231</v>
       </c>
@@ -11678,7 +11710,7 @@
       </c>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:11" customFormat="1" hidden="1">
       <c r="B232" s="1">
         <v>232</v>
       </c>
@@ -11706,7 +11738,7 @@
       </c>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:11" customFormat="1" hidden="1">
       <c r="B233" s="1">
         <v>234</v>
       </c>
@@ -11734,7 +11766,7 @@
       </c>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:11" customFormat="1" hidden="1">
       <c r="B234" s="1">
         <v>233</v>
       </c>
@@ -11762,7 +11794,7 @@
       </c>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:11" customFormat="1" hidden="1">
       <c r="B235" s="1">
         <v>235</v>
       </c>
@@ -11790,7 +11822,7 @@
       </c>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:11" customFormat="1" hidden="1">
       <c r="B236" s="1">
         <v>236</v>
       </c>
@@ -11818,7 +11850,7 @@
       </c>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:11" customFormat="1" hidden="1">
       <c r="B237" s="1">
         <v>238</v>
       </c>
@@ -11846,7 +11878,7 @@
       </c>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:11" customFormat="1" hidden="1">
       <c r="B238" s="1">
         <v>237</v>
       </c>
@@ -11874,7 +11906,7 @@
       </c>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:11" customFormat="1" hidden="1">
       <c r="B239" s="1">
         <v>239</v>
       </c>
@@ -11902,7 +11934,7 @@
       </c>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:11" customFormat="1" hidden="1">
       <c r="B240" s="1">
         <v>240</v>
       </c>
@@ -11930,7 +11962,7 @@
       </c>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:11" customFormat="1" hidden="1">
       <c r="B241" s="1">
         <v>242</v>
       </c>
@@ -11958,7 +11990,7 @@
       </c>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:11" customFormat="1" hidden="1">
       <c r="B242" s="1">
         <v>241</v>
       </c>
@@ -11986,7 +12018,7 @@
       </c>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:11" customFormat="1" hidden="1">
       <c r="B243" s="1">
         <v>243</v>
       </c>
@@ -12014,7 +12046,7 @@
       </c>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:11" customFormat="1" hidden="1">
       <c r="B244" s="1">
         <v>244</v>
       </c>
@@ -12042,7 +12074,7 @@
       </c>
       <c r="K244" s="1"/>
     </row>
-    <row r="245" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:11" customFormat="1" hidden="1">
       <c r="B245" s="1">
         <v>246</v>
       </c>
@@ -12070,7 +12102,7 @@
       </c>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:11" customFormat="1" hidden="1">
       <c r="B246" s="1">
         <v>245</v>
       </c>
@@ -12098,7 +12130,7 @@
       </c>
       <c r="K246" s="1"/>
     </row>
-    <row r="247" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:11" customFormat="1" hidden="1">
       <c r="B247" s="1">
         <v>248</v>
       </c>
@@ -12126,7 +12158,7 @@
       </c>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:11" customFormat="1" hidden="1">
       <c r="B248" s="1">
         <v>250</v>
       </c>
@@ -12154,7 +12186,7 @@
       </c>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:11" customFormat="1" hidden="1">
       <c r="B249" s="1">
         <v>247</v>
       </c>
@@ -12182,7 +12214,7 @@
       </c>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:11" customFormat="1" hidden="1">
       <c r="B250" s="1">
         <v>249</v>
       </c>
@@ -12210,7 +12242,7 @@
       </c>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:11" customFormat="1" hidden="1">
       <c r="B251" s="1">
         <v>252</v>
       </c>
@@ -12238,7 +12270,7 @@
       </c>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:11" customFormat="1" hidden="1">
       <c r="B252" s="1">
         <v>254</v>
       </c>
@@ -12266,7 +12298,7 @@
       </c>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:11" customFormat="1" hidden="1">
       <c r="B253" s="1">
         <v>251</v>
       </c>
@@ -12294,7 +12326,7 @@
       </c>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:11" customFormat="1" hidden="1">
       <c r="B254" s="1">
         <v>253</v>
       </c>
@@ -12322,7 +12354,7 @@
       </c>
       <c r="K254" s="1"/>
     </row>
-    <row r="255" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:11" customFormat="1" hidden="1">
       <c r="B255" s="1">
         <v>255</v>
       </c>
@@ -12350,7 +12382,7 @@
       </c>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:11" customFormat="1" hidden="1">
       <c r="B256" s="1">
         <v>256</v>
       </c>
@@ -12378,7 +12410,7 @@
       </c>
       <c r="K256" s="1"/>
     </row>
-    <row r="257" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:11" customFormat="1" hidden="1">
       <c r="B257" s="1">
         <v>258</v>
       </c>
@@ -12406,7 +12438,7 @@
       </c>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:11" customFormat="1" hidden="1">
       <c r="B258" s="1">
         <v>257</v>
       </c>
@@ -12434,7 +12466,7 @@
       </c>
       <c r="K258" s="1"/>
     </row>
-    <row r="259" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:11" customFormat="1" hidden="1">
       <c r="B259" s="1">
         <v>259</v>
       </c>
@@ -12462,7 +12494,7 @@
       </c>
       <c r="K259" s="1"/>
     </row>
-    <row r="260" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:11" customFormat="1" hidden="1">
       <c r="B260" s="1">
         <v>260</v>
       </c>
@@ -12490,7 +12522,7 @@
       </c>
       <c r="K260" s="1"/>
     </row>
-    <row r="261" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:11" customFormat="1" hidden="1">
       <c r="B261" s="1">
         <v>262</v>
       </c>
@@ -12518,7 +12550,7 @@
       </c>
       <c r="K261" s="1"/>
     </row>
-    <row r="262" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:11" customFormat="1" hidden="1">
       <c r="B262" s="1">
         <v>261</v>
       </c>
@@ -12546,7 +12578,7 @@
       </c>
       <c r="K262" s="1"/>
     </row>
-    <row r="263" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:11" customFormat="1" hidden="1">
       <c r="B263" s="1">
         <v>263</v>
       </c>
@@ -12574,7 +12606,7 @@
       </c>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:11" customFormat="1" hidden="1">
       <c r="B264" s="1">
         <v>264</v>
       </c>
@@ -12602,7 +12634,7 @@
       </c>
       <c r="K264" s="1"/>
     </row>
-    <row r="265" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:11" customFormat="1" hidden="1">
       <c r="B265" s="1">
         <v>266</v>
       </c>
@@ -12630,7 +12662,7 @@
       </c>
       <c r="K265" s="1"/>
     </row>
-    <row r="266" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:11" customFormat="1" hidden="1">
       <c r="B266" s="1">
         <v>265</v>
       </c>
@@ -12658,7 +12690,7 @@
       </c>
       <c r="K266" s="1"/>
     </row>
-    <row r="267" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:11" customFormat="1" hidden="1">
       <c r="B267" s="1">
         <v>267</v>
       </c>
@@ -12686,7 +12718,7 @@
       </c>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:11" customFormat="1" hidden="1">
       <c r="B268" s="1">
         <v>268</v>
       </c>
@@ -12714,7 +12746,7 @@
       </c>
       <c r="K268" s="1"/>
     </row>
-    <row r="269" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:11" customFormat="1" hidden="1">
       <c r="B269" s="1">
         <v>270</v>
       </c>
@@ -12742,7 +12774,7 @@
       </c>
       <c r="K269" s="1"/>
     </row>
-    <row r="270" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:11" customFormat="1" hidden="1">
       <c r="B270" s="1">
         <v>269</v>
       </c>
@@ -12770,7 +12802,7 @@
       </c>
       <c r="K270" s="1"/>
     </row>
-    <row r="271" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:11" customFormat="1" hidden="1">
       <c r="B271" s="1">
         <v>271</v>
       </c>
@@ -12798,7 +12830,7 @@
       </c>
       <c r="K271" s="1"/>
     </row>
-    <row r="272" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:11" customFormat="1" hidden="1">
       <c r="B272" s="1">
         <v>272</v>
       </c>
@@ -12826,7 +12858,7 @@
       </c>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:11" customFormat="1" hidden="1">
       <c r="B273" s="1">
         <v>274</v>
       </c>
@@ -12854,7 +12886,7 @@
       </c>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:11" customFormat="1" hidden="1">
       <c r="B274" s="1">
         <v>273</v>
       </c>
@@ -12882,7 +12914,7 @@
       </c>
       <c r="K274" s="1"/>
     </row>
-    <row r="275" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:11" customFormat="1" hidden="1">
       <c r="B275" s="1">
         <v>275</v>
       </c>
@@ -12910,7 +12942,7 @@
       </c>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:11" customFormat="1" hidden="1">
       <c r="B276" s="1">
         <v>276</v>
       </c>
@@ -12938,7 +12970,7 @@
       </c>
       <c r="K276" s="1"/>
     </row>
-    <row r="277" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:11" customFormat="1" hidden="1">
       <c r="B277" s="1">
         <v>278</v>
       </c>
@@ -12966,7 +12998,7 @@
       </c>
       <c r="K277" s="1"/>
     </row>
-    <row r="278" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:11" customFormat="1" hidden="1">
       <c r="B278" s="1">
         <v>277</v>
       </c>
@@ -12994,7 +13026,7 @@
       </c>
       <c r="K278" s="1"/>
     </row>
-    <row r="279" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:11" customFormat="1" hidden="1">
       <c r="B279" s="1">
         <v>279</v>
       </c>
@@ -13022,7 +13054,7 @@
       </c>
       <c r="K279" s="1"/>
     </row>
-    <row r="280" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:11" customFormat="1" hidden="1">
       <c r="B280" s="1">
         <v>280</v>
       </c>
@@ -13050,7 +13082,7 @@
       </c>
       <c r="K280" s="1"/>
     </row>
-    <row r="281" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:11" customFormat="1" hidden="1">
       <c r="B281" s="1">
         <v>281</v>
       </c>
@@ -13078,7 +13110,7 @@
       </c>
       <c r="K281" s="1"/>
     </row>
-    <row r="282" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:11" customFormat="1" hidden="1">
       <c r="B282" s="1">
         <v>281</v>
       </c>
@@ -13106,7 +13138,7 @@
       </c>
       <c r="K282" s="1"/>
     </row>
-    <row r="283" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:11" customFormat="1" hidden="1">
       <c r="B283" s="1">
         <v>282</v>
       </c>
@@ -13134,7 +13166,7 @@
       </c>
       <c r="K283" s="1"/>
     </row>
-    <row r="284" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:11" customFormat="1" hidden="1">
       <c r="B284" s="1">
         <v>283</v>
       </c>
@@ -13162,7 +13194,7 @@
       </c>
       <c r="K284" s="1"/>
     </row>
-    <row r="285" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:11" customFormat="1" hidden="1">
       <c r="B285" s="1">
         <v>285</v>
       </c>
@@ -13190,7 +13222,7 @@
       </c>
       <c r="K285" s="1"/>
     </row>
-    <row r="286" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:11" customFormat="1" hidden="1">
       <c r="B286" s="1">
         <v>284</v>
       </c>
@@ -13218,7 +13250,7 @@
       </c>
       <c r="K286" s="1"/>
     </row>
-    <row r="287" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:11" customFormat="1" hidden="1">
       <c r="B287" s="1">
         <v>286</v>
       </c>
@@ -13246,7 +13278,7 @@
       </c>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:11" customFormat="1" hidden="1">
       <c r="B288" s="1">
         <v>287</v>
       </c>
@@ -13274,7 +13306,7 @@
       </c>
       <c r="K288" s="1"/>
     </row>
-    <row r="289" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:11" customFormat="1" hidden="1">
       <c r="B289" s="1">
         <v>289</v>
       </c>
@@ -13302,7 +13334,7 @@
       </c>
       <c r="K289" s="1"/>
     </row>
-    <row r="290" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:11" customFormat="1" hidden="1">
       <c r="B290" s="1">
         <v>288</v>
       </c>
@@ -13330,7 +13362,7 @@
       </c>
       <c r="K290" s="1"/>
     </row>
-    <row r="291" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:11" customFormat="1" hidden="1">
       <c r="B291" s="1">
         <v>290</v>
       </c>
@@ -13358,7 +13390,7 @@
       </c>
       <c r="K291" s="1"/>
     </row>
-    <row r="292" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:11" customFormat="1" hidden="1">
       <c r="B292" s="1">
         <v>291</v>
       </c>
@@ -13386,7 +13418,7 @@
       </c>
       <c r="K292" s="1"/>
     </row>
-    <row r="293" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:11" customFormat="1" hidden="1">
       <c r="B293" s="1">
         <v>293</v>
       </c>
@@ -13414,7 +13446,7 @@
       </c>
       <c r="K293" s="1"/>
     </row>
-    <row r="294" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:11" customFormat="1" hidden="1">
       <c r="B294" s="1">
         <v>292</v>
       </c>
@@ -13442,7 +13474,7 @@
       </c>
       <c r="K294" s="1"/>
     </row>
-    <row r="295" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:11" customFormat="1" hidden="1">
       <c r="B295" s="1">
         <v>294</v>
       </c>
@@ -13470,7 +13502,7 @@
       </c>
       <c r="K295" s="1"/>
     </row>
-    <row r="296" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:11" customFormat="1" hidden="1">
       <c r="B296" s="1">
         <v>295</v>
       </c>
@@ -13498,7 +13530,7 @@
       </c>
       <c r="K296" s="1"/>
     </row>
-    <row r="297" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:11" customFormat="1" hidden="1">
       <c r="B297" s="1">
         <v>297</v>
       </c>
@@ -13526,7 +13558,7 @@
       </c>
       <c r="K297" s="1"/>
     </row>
-    <row r="298" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:11" customFormat="1" hidden="1">
       <c r="B298" s="1">
         <v>296</v>
       </c>
@@ -13554,7 +13586,7 @@
       </c>
       <c r="K298" s="1"/>
     </row>
-    <row r="299" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:11" customFormat="1" hidden="1">
       <c r="B299" s="1">
         <v>298</v>
       </c>
@@ -13582,7 +13614,7 @@
       </c>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:11" customFormat="1" hidden="1">
       <c r="B300" s="1">
         <v>299</v>
       </c>
@@ -13610,7 +13642,7 @@
       </c>
       <c r="K300" s="1"/>
     </row>
-    <row r="301" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:11" customFormat="1" hidden="1">
       <c r="B301" s="1">
         <v>301</v>
       </c>
@@ -13638,7 +13670,7 @@
       </c>
       <c r="K301" s="1"/>
     </row>
-    <row r="302" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:11" customFormat="1" hidden="1">
       <c r="B302" s="1">
         <v>300</v>
       </c>
@@ -13666,7 +13698,7 @@
       </c>
       <c r="K302" s="1"/>
     </row>
-    <row r="303" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:11" customFormat="1" hidden="1">
       <c r="B303" s="1">
         <v>302</v>
       </c>
@@ -13694,7 +13726,7 @@
       </c>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:11" customFormat="1" hidden="1">
       <c r="B304" s="1">
         <v>303</v>
       </c>
@@ -13722,7 +13754,7 @@
       </c>
       <c r="K304" s="1"/>
     </row>
-    <row r="305" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:11" customFormat="1" hidden="1">
       <c r="B305" s="1">
         <v>305</v>
       </c>
@@ -13750,7 +13782,7 @@
       </c>
       <c r="K305" s="1"/>
     </row>
-    <row r="306" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:11" customFormat="1" hidden="1">
       <c r="B306" s="1">
         <v>304</v>
       </c>
@@ -13778,7 +13810,7 @@
       </c>
       <c r="K306" s="1"/>
     </row>
-    <row r="307" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:11" customFormat="1" hidden="1">
       <c r="B307" s="1">
         <v>306</v>
       </c>
@@ -13806,7 +13838,7 @@
       </c>
       <c r="K307" s="1"/>
     </row>
-    <row r="308" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:11" customFormat="1" hidden="1">
       <c r="B308" s="1">
         <v>307</v>
       </c>
@@ -13834,7 +13866,7 @@
       </c>
       <c r="K308" s="1"/>
     </row>
-    <row r="309" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:11" customFormat="1" hidden="1">
       <c r="B309" s="1">
         <v>309</v>
       </c>
@@ -13862,7 +13894,7 @@
       </c>
       <c r="K309" s="1"/>
     </row>
-    <row r="310" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:11" customFormat="1" hidden="1">
       <c r="B310" s="1">
         <v>308</v>
       </c>
@@ -13890,7 +13922,7 @@
       </c>
       <c r="K310" s="1"/>
     </row>
-    <row r="311" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:11" customFormat="1" hidden="1">
       <c r="B311" s="1">
         <v>310</v>
       </c>
@@ -13918,7 +13950,7 @@
       </c>
       <c r="K311" s="1"/>
     </row>
-    <row r="312" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:11" customFormat="1" hidden="1">
       <c r="B312" s="1">
         <v>311</v>
       </c>
@@ -13946,7 +13978,7 @@
       </c>
       <c r="K312" s="1"/>
     </row>
-    <row r="313" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:11" customFormat="1" hidden="1">
       <c r="B313" s="1">
         <v>313</v>
       </c>
@@ -13974,7 +14006,7 @@
       </c>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:11" customFormat="1" hidden="1">
       <c r="B314" s="1">
         <v>312</v>
       </c>
@@ -14002,7 +14034,7 @@
       </c>
       <c r="K314" s="1"/>
     </row>
-    <row r="315" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:11" customFormat="1" hidden="1">
       <c r="B315" s="1">
         <v>314</v>
       </c>
@@ -14030,7 +14062,7 @@
       </c>
       <c r="K315" s="1"/>
     </row>
-    <row r="316" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:11" customFormat="1" hidden="1">
       <c r="B316" s="1">
         <v>315</v>
       </c>
@@ -14058,7 +14090,7 @@
       </c>
       <c r="K316" s="1"/>
     </row>
-    <row r="317" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:11" customFormat="1" hidden="1">
       <c r="B317" s="1">
         <v>317</v>
       </c>
@@ -14086,7 +14118,7 @@
       </c>
       <c r="K317" s="1"/>
     </row>
-    <row r="318" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:11" customFormat="1" hidden="1">
       <c r="B318" s="1">
         <v>316</v>
       </c>
@@ -14114,7 +14146,7 @@
       </c>
       <c r="K318" s="1"/>
     </row>
-    <row r="319" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:11" customFormat="1" hidden="1">
       <c r="B319" s="1">
         <v>318</v>
       </c>
@@ -14142,7 +14174,7 @@
       </c>
       <c r="K319" s="1"/>
     </row>
-    <row r="320" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:11" customFormat="1" hidden="1">
       <c r="B320" s="1">
         <v>319</v>
       </c>
@@ -14170,7 +14202,7 @@
       </c>
       <c r="K320" s="1"/>
     </row>
-    <row r="321" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:11" customFormat="1" hidden="1">
       <c r="B321" s="1">
         <v>321</v>
       </c>
@@ -14198,7 +14230,7 @@
       </c>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:11" customFormat="1" hidden="1">
       <c r="B322" s="1">
         <v>320</v>
       </c>
@@ -14226,7 +14258,7 @@
       </c>
       <c r="K322" s="1"/>
     </row>
-    <row r="323" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:11" customFormat="1" hidden="1">
       <c r="B323" s="1">
         <v>322</v>
       </c>
@@ -14254,7 +14286,7 @@
       </c>
       <c r="K323" s="1"/>
     </row>
-    <row r="324" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:11" customFormat="1" hidden="1">
       <c r="B324" s="1">
         <v>323</v>
       </c>
@@ -14282,7 +14314,7 @@
       </c>
       <c r="K324" s="1"/>
     </row>
-    <row r="325" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:11" customFormat="1" hidden="1">
       <c r="B325" s="1">
         <v>325</v>
       </c>
@@ -14310,7 +14342,7 @@
       </c>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:11" customFormat="1" hidden="1">
       <c r="B326" s="1">
         <v>324</v>
       </c>
@@ -14338,7 +14370,7 @@
       </c>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:11" customFormat="1" hidden="1">
       <c r="B327" s="1">
         <v>326</v>
       </c>
@@ -14366,7 +14398,7 @@
       </c>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:11" customFormat="1" hidden="1">
       <c r="B328" s="1">
         <v>327</v>
       </c>
@@ -14394,7 +14426,7 @@
       </c>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:11" customFormat="1" hidden="1">
       <c r="B329" s="1">
         <v>329</v>
       </c>
@@ -14422,7 +14454,7 @@
       </c>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:11" customFormat="1" hidden="1">
       <c r="B330" s="1">
         <v>328</v>
       </c>
@@ -14450,7 +14482,7 @@
       </c>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:11" customFormat="1" hidden="1">
       <c r="B331" s="1">
         <v>330</v>
       </c>
@@ -14478,7 +14510,7 @@
       </c>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:11" customFormat="1" hidden="1">
       <c r="B332" s="1">
         <v>331</v>
       </c>
@@ -14506,7 +14538,7 @@
       </c>
       <c r="K332" s="1"/>
     </row>
-    <row r="333" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:11" customFormat="1" hidden="1">
       <c r="B333" s="1">
         <v>333</v>
       </c>
@@ -14534,7 +14566,7 @@
       </c>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:11" customFormat="1" hidden="1">
       <c r="B334" s="1">
         <v>332</v>
       </c>
@@ -14562,7 +14594,7 @@
       </c>
       <c r="K334" s="1"/>
     </row>
-    <row r="335" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:11" customFormat="1" hidden="1">
       <c r="B335" s="1">
         <v>334</v>
       </c>
@@ -14590,7 +14622,7 @@
       </c>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:11" customFormat="1" hidden="1">
       <c r="B336" s="1">
         <v>335</v>
       </c>
@@ -14618,7 +14650,7 @@
       </c>
       <c r="K336" s="1"/>
     </row>
-    <row r="337" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:11" customFormat="1" hidden="1">
       <c r="B337" s="1">
         <v>337</v>
       </c>
@@ -14646,7 +14678,7 @@
       </c>
       <c r="K337" s="1"/>
     </row>
-    <row r="338" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:11" customFormat="1" hidden="1">
       <c r="B338" s="1">
         <v>336</v>
       </c>
@@ -14674,7 +14706,7 @@
       </c>
       <c r="K338" s="1"/>
     </row>
-    <row r="339" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:11" customFormat="1" hidden="1">
       <c r="B339" s="1">
         <v>338</v>
       </c>
@@ -14702,7 +14734,7 @@
       </c>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:11" customFormat="1" hidden="1">
       <c r="B340" s="1">
         <v>339</v>
       </c>
@@ -14730,7 +14762,7 @@
       </c>
       <c r="K340" s="1"/>
     </row>
-    <row r="341" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:11" customFormat="1" hidden="1">
       <c r="B341" s="1">
         <v>341</v>
       </c>
@@ -14758,7 +14790,7 @@
       </c>
       <c r="K341" s="1"/>
     </row>
-    <row r="342" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:11" customFormat="1" hidden="1">
       <c r="B342" s="1">
         <v>340</v>
       </c>
@@ -14786,7 +14818,7 @@
       </c>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:11" customFormat="1" hidden="1">
       <c r="B343" s="1">
         <v>342</v>
       </c>
@@ -14814,7 +14846,7 @@
       </c>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:11" customFormat="1" hidden="1">
       <c r="B344" s="63">
         <v>18</v>
       </c>
@@ -14840,7 +14872,7 @@
       </c>
       <c r="K344" s="63"/>
     </row>
-    <row r="345" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:11" customFormat="1" hidden="1">
       <c r="B345" s="63">
         <v>19</v>
       </c>
@@ -14866,7 +14898,7 @@
       </c>
       <c r="K345" s="63"/>
     </row>
-    <row r="346" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:11" customFormat="1" hidden="1">
       <c r="B346" s="1">
         <v>343</v>
       </c>
@@ -14886,7 +14918,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:11" customFormat="1" hidden="1">
       <c r="B347" s="1">
         <v>344</v>
       </c>
@@ -14906,7 +14938,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:11" customFormat="1" hidden="1">
       <c r="B348" s="1">
         <v>345</v>
       </c>
@@ -14926,7 +14958,7 @@
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="2:11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:11" customFormat="1" hidden="1">
       <c r="B349" s="1">
         <v>346</v>
       </c>
@@ -14950,7 +14982,7 @@
   <autoFilter ref="B2:K349">
     <filterColumn colId="4">
       <filters>
-        <filter val="Frontend"/>
+        <filter val="API"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
@@ -14982,33 +15014,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q320"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A309" workbookViewId="0">
       <selection activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="111" t="s">
+    <row r="1" spans="2:15" ht="15" thickBot="1">
+      <c r="B1" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-    </row>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+    </row>
+    <row r="2" spans="2:15" ht="15" thickBot="1">
       <c r="B2" s="12" t="s">
         <v>164</v>
       </c>
@@ -15031,7 +15063,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15" thickBot="1">
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -15054,7 +15086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15" thickBot="1">
       <c r="B4" s="18">
         <v>2</v>
       </c>
@@ -15074,16 +15106,16 @@
       <c r="H4" s="44">
         <v>55</v>
       </c>
-      <c r="J4" s="112" t="s">
+      <c r="J4" s="101" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="114"/>
-    </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="103"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" thickBot="1">
       <c r="B5" s="39">
         <v>3</v>
       </c>
@@ -15108,7 +15140,7 @@
       <c r="N5" s="56"/>
       <c r="O5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="15" thickBot="1">
       <c r="B6" s="40">
         <v>4</v>
       </c>
@@ -15135,7 +15167,7 @@
       <c r="N6" s="56"/>
       <c r="O6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="15" thickBot="1">
       <c r="B7" s="39">
         <v>5</v>
       </c>
@@ -15154,7 +15186,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="15" thickBot="1">
       <c r="B8" s="40">
         <v>6</v>
       </c>
@@ -15175,7 +15207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="15" thickBot="1">
       <c r="B9" s="39">
         <v>7</v>
       </c>
@@ -15196,19 +15228,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="105" t="s">
+    <row r="11" spans="2:15" ht="15" thickBot="1"/>
+    <row r="12" spans="2:15" ht="15" thickBot="1">
+      <c r="B12" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="107"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="22" t="s">
         <v>164</v>
       </c>
@@ -15231,7 +15263,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -15254,7 +15286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -15275,7 +15307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="3">
         <v>3</v>
       </c>
@@ -15296,7 +15328,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="3">
         <v>4</v>
       </c>
@@ -15317,7 +15349,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="15" thickBot="1">
       <c r="B18" s="3">
         <v>5</v>
       </c>
@@ -15338,7 +15370,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="15" thickBot="1">
       <c r="B19" s="3">
         <v>6</v>
       </c>
@@ -15358,16 +15390,16 @@
       <c r="H19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="102" t="s">
+      <c r="J19" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="100"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="109"/>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20" s="3">
         <v>7</v>
       </c>
@@ -15392,7 +15424,7 @@
       <c r="N20" s="56"/>
       <c r="O20" s="56"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="B21" s="3">
         <v>8</v>
       </c>
@@ -15419,7 +15451,7 @@
       <c r="N21" s="56"/>
       <c r="O21" s="56"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="B22" s="3">
         <v>9</v>
       </c>
@@ -15444,7 +15476,7 @@
       <c r="N22" s="56"/>
       <c r="O22" s="56"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="B23" s="3">
         <v>10</v>
       </c>
@@ -15471,7 +15503,7 @@
       <c r="N23" s="56"/>
       <c r="O23" s="56"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="B24" s="3">
         <v>11</v>
       </c>
@@ -15498,19 +15530,19 @@
       <c r="N24" s="56"/>
       <c r="O24" s="56"/>
     </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="105" t="s">
+    <row r="25" spans="2:15" ht="15" thickBot="1"/>
+    <row r="26" spans="2:15" ht="15" thickBot="1">
+      <c r="B26" s="104" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="107"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
+    </row>
+    <row r="27" spans="2:15">
       <c r="B27" s="27" t="s">
         <v>164</v>
       </c>
@@ -15533,7 +15565,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="26">
         <v>1</v>
       </c>
@@ -15556,7 +15588,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" ht="15" thickBot="1">
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -15577,7 +15609,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="15" thickBot="1">
       <c r="B30" s="3">
         <v>3</v>
       </c>
@@ -15597,16 +15629,16 @@
       <c r="H30" s="3">
         <v>255</v>
       </c>
-      <c r="J30" s="102" t="s">
+      <c r="J30" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="100"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="109"/>
+    </row>
+    <row r="31" spans="2:15">
       <c r="B31" s="3">
         <v>4</v>
       </c>
@@ -15627,7 +15659,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" ht="15" thickBot="1">
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -15648,7 +15680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" ht="15" thickBot="1">
       <c r="B33" s="3">
         <v>6</v>
       </c>
@@ -15668,16 +15700,16 @@
       <c r="H33" s="3">
         <v>10</v>
       </c>
-      <c r="J33" s="102" t="s">
+      <c r="J33" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="100"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="109"/>
+    </row>
+    <row r="34" spans="2:15">
       <c r="B34" s="3">
         <v>7</v>
       </c>
@@ -15702,7 +15734,7 @@
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15">
       <c r="B35" s="3">
         <v>8</v>
       </c>
@@ -15729,7 +15761,7 @@
       <c r="N35" s="56"/>
       <c r="O35" s="56"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15">
       <c r="B36" s="3">
         <v>9</v>
       </c>
@@ -15754,7 +15786,7 @@
       <c r="N36" s="56"/>
       <c r="O36" s="56"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15">
       <c r="B37" s="3">
         <v>10</v>
       </c>
@@ -15781,7 +15813,7 @@
       <c r="N37" s="56"/>
       <c r="O37" s="56"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15">
       <c r="B38" s="3">
         <v>11</v>
       </c>
@@ -15802,19 +15834,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="115" t="s">
+    <row r="41" spans="2:15" ht="15" thickBot="1"/>
+    <row r="42" spans="2:15" ht="15" thickBot="1">
+      <c r="B42" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="117"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="114"/>
+    </row>
+    <row r="43" spans="2:15">
       <c r="B43" s="27" t="s">
         <v>164</v>
       </c>
@@ -15837,7 +15869,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -15860,7 +15892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15">
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -15879,7 +15911,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15">
       <c r="B46" s="3">
         <v>3</v>
       </c>
@@ -15898,7 +15930,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15">
       <c r="B47" s="3">
         <v>4</v>
       </c>
@@ -15919,7 +15951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15">
       <c r="B48" s="3">
         <v>5</v>
       </c>
@@ -15938,7 +15970,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="3">
         <v>6</v>
       </c>
@@ -15959,7 +15991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="3">
         <v>7</v>
       </c>
@@ -15980,19 +16012,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="105" t="s">
+    <row r="52" spans="2:8" ht="15" thickBot="1"/>
+    <row r="53" spans="2:8" ht="15" thickBot="1">
+      <c r="B53" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="107"/>
-    </row>
-    <row r="54" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="106"/>
+    </row>
+    <row r="54" spans="2:8" ht="15" thickBot="1">
       <c r="B54" s="22" t="s">
         <v>164</v>
       </c>
@@ -16015,7 +16047,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8">
       <c r="B55" s="15">
         <v>1</v>
       </c>
@@ -16038,7 +16070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8">
       <c r="B56" s="34">
         <v>2</v>
       </c>
@@ -16061,7 +16093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8">
       <c r="B57" s="34">
         <v>3</v>
       </c>
@@ -16082,7 +16114,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -16095,7 +16127,7 @@
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -16110,7 +16142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -16123,7 +16155,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -16138,7 +16170,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -16153,19 +16185,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="105" t="s">
+    <row r="64" spans="2:8" ht="15" thickBot="1"/>
+    <row r="65" spans="2:16" ht="15" thickBot="1">
+      <c r="B65" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
-      <c r="G65" s="106"/>
-      <c r="H65" s="107"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="106"/>
+    </row>
+    <row r="66" spans="2:16">
       <c r="B66" s="27" t="s">
         <v>164</v>
       </c>
@@ -16188,7 +16220,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16">
       <c r="B67" s="34">
         <v>1</v>
       </c>
@@ -16211,7 +16243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16" ht="15" thickBot="1">
       <c r="B68" s="34">
         <v>2</v>
       </c>
@@ -16230,7 +16262,7 @@
       </c>
       <c r="H68" s="35"/>
     </row>
-    <row r="69" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16" ht="15" thickBot="1">
       <c r="B69" s="34"/>
       <c r="C69" s="3" t="s">
         <v>204</v>
@@ -16246,17 +16278,17 @@
         <v>188</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="J69" s="102" t="s">
+      <c r="J69" s="107" t="s">
         <v>237</v>
       </c>
-      <c r="K69" s="103"/>
-      <c r="L69" s="103"/>
-      <c r="M69" s="103"/>
-      <c r="N69" s="103"/>
-      <c r="O69" s="103"/>
-      <c r="P69" s="104"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K69" s="110"/>
+      <c r="L69" s="110"/>
+      <c r="M69" s="110"/>
+      <c r="N69" s="110"/>
+      <c r="O69" s="110"/>
+      <c r="P69" s="111"/>
+    </row>
+    <row r="70" spans="2:16">
       <c r="B70" s="34"/>
       <c r="C70" s="3" t="s">
         <v>204</v>
@@ -16282,7 +16314,7 @@
       <c r="O70" s="55"/>
       <c r="P70" s="55"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16">
       <c r="B71" s="34"/>
       <c r="C71" s="3" t="s">
         <v>204</v>
@@ -16306,7 +16338,7 @@
       <c r="O71" s="55"/>
       <c r="P71" s="55"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16">
       <c r="B72" s="34"/>
       <c r="C72" s="3" t="s">
         <v>204</v>
@@ -16332,7 +16364,7 @@
       <c r="O72" s="55"/>
       <c r="P72" s="55"/>
     </row>
-    <row r="73" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" ht="15" thickBot="1">
       <c r="B73" s="18"/>
       <c r="C73" s="3" t="s">
         <v>204</v>
@@ -16358,7 +16390,7 @@
       <c r="O73" s="55"/>
       <c r="P73" s="55"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16">
       <c r="J74" s="55"/>
       <c r="K74" s="55"/>
       <c r="L74" s="55"/>
@@ -16367,19 +16399,19 @@
       <c r="O74" s="55"/>
       <c r="P74" s="55"/>
     </row>
-    <row r="75" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="95" t="s">
+    <row r="75" spans="2:16" ht="15" thickBot="1"/>
+    <row r="76" spans="2:16" ht="15" thickBot="1">
+      <c r="B76" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="96"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="96"/>
-      <c r="H76" s="97"/>
-    </row>
-    <row r="77" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="98"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="98"/>
+      <c r="H76" s="99"/>
+    </row>
+    <row r="77" spans="2:16" ht="15" thickBot="1">
       <c r="B77" s="22" t="s">
         <v>164</v>
       </c>
@@ -16402,7 +16434,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16">
       <c r="B78" s="15">
         <v>1</v>
       </c>
@@ -16425,7 +16457,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16">
       <c r="B79" s="34">
         <v>2</v>
       </c>
@@ -16446,7 +16478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16">
       <c r="B80" s="34">
         <v>3</v>
       </c>
@@ -16469,7 +16501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8">
       <c r="B81" s="45">
         <v>4</v>
       </c>
@@ -16490,7 +16522,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8">
       <c r="B82" s="34">
         <v>5</v>
       </c>
@@ -16509,7 +16541,7 @@
       </c>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8">
       <c r="B83" s="45">
         <v>6</v>
       </c>
@@ -16530,7 +16562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8">
       <c r="B84" s="34">
         <v>7</v>
       </c>
@@ -16549,7 +16581,7 @@
       </c>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8">
       <c r="B85" s="45">
         <v>8</v>
       </c>
@@ -16570,7 +16602,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8">
       <c r="B86" s="34">
         <v>9</v>
       </c>
@@ -16591,19 +16623,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="108" t="s">
+    <row r="89" spans="2:8" ht="15" thickBot="1"/>
+    <row r="90" spans="2:8" ht="15" thickBot="1">
+      <c r="B90" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="109"/>
-      <c r="F90" s="109"/>
-      <c r="G90" s="109"/>
-      <c r="H90" s="110"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
+      <c r="E90" s="95"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="95"/>
+      <c r="H90" s="96"/>
+    </row>
+    <row r="91" spans="2:8">
       <c r="B91" s="31" t="s">
         <v>164</v>
       </c>
@@ -16626,7 +16658,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8">
       <c r="B92" s="34">
         <v>1</v>
       </c>
@@ -16649,7 +16681,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8">
       <c r="B93" s="34">
         <v>2</v>
       </c>
@@ -16670,7 +16702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8">
       <c r="B94" s="34">
         <v>3</v>
       </c>
@@ -16691,7 +16723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8">
       <c r="B95" s="34">
         <v>4</v>
       </c>
@@ -16712,7 +16744,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8">
       <c r="B96" s="34">
         <v>5</v>
       </c>
@@ -16733,7 +16765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8">
       <c r="B97" s="45">
         <v>6</v>
       </c>
@@ -16754,7 +16786,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8">
       <c r="B98" s="34">
         <v>7</v>
       </c>
@@ -16773,7 +16805,7 @@
       </c>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8">
       <c r="B99" s="34">
         <v>8</v>
       </c>
@@ -16794,7 +16826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8">
       <c r="B100" s="45">
         <v>9</v>
       </c>
@@ -16813,7 +16845,7 @@
       </c>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8">
       <c r="B101" s="34">
         <v>10</v>
       </c>
@@ -16834,7 +16866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8">
       <c r="B102" s="34">
         <v>11</v>
       </c>
@@ -16855,19 +16887,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="95" t="s">
+    <row r="105" spans="2:8" ht="15" thickBot="1"/>
+    <row r="106" spans="2:8" ht="15" thickBot="1">
+      <c r="B106" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="96"/>
-      <c r="D106" s="96"/>
-      <c r="E106" s="96"/>
-      <c r="F106" s="96"/>
-      <c r="G106" s="96"/>
-      <c r="H106" s="97"/>
-    </row>
-    <row r="107" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="98"/>
+      <c r="D106" s="98"/>
+      <c r="E106" s="98"/>
+      <c r="F106" s="98"/>
+      <c r="G106" s="98"/>
+      <c r="H106" s="99"/>
+    </row>
+    <row r="107" spans="2:8" ht="15" thickBot="1">
       <c r="B107" s="49" t="s">
         <v>164</v>
       </c>
@@ -16890,7 +16922,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8">
       <c r="B108" s="15">
         <v>1</v>
       </c>
@@ -16913,7 +16945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8">
       <c r="B109" s="34">
         <v>2</v>
       </c>
@@ -16934,7 +16966,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8">
       <c r="B110" s="34">
         <v>3</v>
       </c>
@@ -16955,7 +16987,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8">
       <c r="B111" s="34">
         <v>4</v>
       </c>
@@ -16978,7 +17010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8">
       <c r="B112" s="34">
         <v>5</v>
       </c>
@@ -17001,7 +17033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8">
       <c r="B113" s="34">
         <v>6</v>
       </c>
@@ -17024,7 +17056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8">
       <c r="B114" s="34">
         <v>7</v>
       </c>
@@ -17043,7 +17075,7 @@
       </c>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8">
       <c r="B115" s="34">
         <v>8</v>
       </c>
@@ -17064,7 +17096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8">
       <c r="B116" s="34">
         <v>9</v>
       </c>
@@ -17083,7 +17115,7 @@
       </c>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8">
       <c r="B117" s="34">
         <v>10</v>
       </c>
@@ -17104,7 +17136,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8" ht="15" thickBot="1">
       <c r="B118" s="34">
         <v>11</v>
       </c>
@@ -17125,19 +17157,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="95" t="s">
+    <row r="119" spans="2:8" ht="15" thickBot="1"/>
+    <row r="120" spans="2:8" ht="15" thickBot="1">
+      <c r="B120" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="C120" s="96"/>
-      <c r="D120" s="96"/>
-      <c r="E120" s="96"/>
-      <c r="F120" s="96"/>
-      <c r="G120" s="96"/>
-      <c r="H120" s="97"/>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C120" s="98"/>
+      <c r="D120" s="98"/>
+      <c r="E120" s="98"/>
+      <c r="F120" s="98"/>
+      <c r="G120" s="98"/>
+      <c r="H120" s="99"/>
+    </row>
+    <row r="121" spans="2:8">
       <c r="B121" s="27" t="s">
         <v>164</v>
       </c>
@@ -17160,7 +17192,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8">
       <c r="B122" s="34">
         <v>1</v>
       </c>
@@ -17180,7 +17212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8">
       <c r="B123" s="45">
         <v>2</v>
       </c>
@@ -17203,7 +17235,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8">
       <c r="B124" s="34">
         <v>3</v>
       </c>
@@ -17222,7 +17254,7 @@
       </c>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8">
       <c r="B125" s="45">
         <v>4</v>
       </c>
@@ -17243,7 +17275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8">
       <c r="B126" s="34">
         <v>5</v>
       </c>
@@ -17262,7 +17294,7 @@
       </c>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8">
       <c r="B127" s="45">
         <v>6</v>
       </c>
@@ -17283,7 +17315,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" ht="15" thickBot="1">
       <c r="B128" s="34">
         <v>7</v>
       </c>
@@ -17304,28 +17336,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8">
       <c r="F129" s="47"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8">
       <c r="F130" s="38"/>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8">
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="95" t="s">
+    <row r="132" spans="2:8" ht="15" thickBot="1"/>
+    <row r="133" spans="2:8" ht="15" thickBot="1">
+      <c r="B133" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="C133" s="96"/>
-      <c r="D133" s="96"/>
-      <c r="E133" s="96"/>
-      <c r="F133" s="96"/>
-      <c r="G133" s="96"/>
-      <c r="H133" s="97"/>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C133" s="98"/>
+      <c r="D133" s="98"/>
+      <c r="E133" s="98"/>
+      <c r="F133" s="98"/>
+      <c r="G133" s="98"/>
+      <c r="H133" s="99"/>
+    </row>
+    <row r="134" spans="2:8">
       <c r="B134" s="32" t="s">
         <v>164</v>
       </c>
@@ -17348,7 +17380,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8">
       <c r="B135" s="3">
         <v>1</v>
       </c>
@@ -17369,7 +17401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8">
       <c r="B136" s="3">
         <v>2</v>
       </c>
@@ -17392,7 +17424,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8">
       <c r="B137" s="3">
         <v>3</v>
       </c>
@@ -17411,7 +17443,7 @@
       </c>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8">
       <c r="B138" s="3">
         <v>4</v>
       </c>
@@ -17432,7 +17464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8">
       <c r="B139" s="3">
         <v>5</v>
       </c>
@@ -17451,7 +17483,7 @@
       </c>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8">
       <c r="B140" s="3">
         <v>6</v>
       </c>
@@ -17472,7 +17504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8">
       <c r="B141" s="3">
         <v>7</v>
       </c>
@@ -17493,19 +17525,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="95" t="s">
+    <row r="143" spans="2:8" ht="15" thickBot="1"/>
+    <row r="144" spans="2:8" ht="15" thickBot="1">
+      <c r="B144" s="97" t="s">
         <v>264</v>
       </c>
-      <c r="C144" s="96"/>
-      <c r="D144" s="96"/>
-      <c r="E144" s="96"/>
-      <c r="F144" s="96"/>
-      <c r="G144" s="96"/>
-      <c r="H144" s="97"/>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C144" s="98"/>
+      <c r="D144" s="98"/>
+      <c r="E144" s="98"/>
+      <c r="F144" s="98"/>
+      <c r="G144" s="98"/>
+      <c r="H144" s="99"/>
+    </row>
+    <row r="145" spans="2:8">
       <c r="B145" s="27" t="s">
         <v>164</v>
       </c>
@@ -17528,7 +17560,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8">
       <c r="B146" s="34">
         <v>1</v>
       </c>
@@ -17548,7 +17580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8">
       <c r="B147" s="45">
         <v>2</v>
       </c>
@@ -17571,7 +17603,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8">
       <c r="B148" s="34">
         <v>3</v>
       </c>
@@ -17590,7 +17622,7 @@
       </c>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8">
       <c r="B149" s="45">
         <v>4</v>
       </c>
@@ -17611,7 +17643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8">
       <c r="B150" s="34">
         <v>5</v>
       </c>
@@ -17630,7 +17662,7 @@
       </c>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8">
       <c r="B151" s="45">
         <v>6</v>
       </c>
@@ -17651,7 +17683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8">
       <c r="B152" s="34">
         <v>7</v>
       </c>
@@ -17672,19 +17704,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="95" t="s">
+    <row r="154" spans="2:8" ht="15" thickBot="1"/>
+    <row r="155" spans="2:8" ht="15" thickBot="1">
+      <c r="B155" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="C155" s="96"/>
-      <c r="D155" s="96"/>
-      <c r="E155" s="96"/>
-      <c r="F155" s="96"/>
-      <c r="G155" s="96"/>
-      <c r="H155" s="97"/>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C155" s="98"/>
+      <c r="D155" s="98"/>
+      <c r="E155" s="98"/>
+      <c r="F155" s="98"/>
+      <c r="G155" s="98"/>
+      <c r="H155" s="99"/>
+    </row>
+    <row r="156" spans="2:8">
       <c r="B156" s="22" t="s">
         <v>164</v>
       </c>
@@ -17707,7 +17739,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8">
       <c r="B157" s="3">
         <v>1</v>
       </c>
@@ -17730,7 +17762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8">
       <c r="B158" s="3">
         <v>2</v>
       </c>
@@ -17751,7 +17783,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8">
       <c r="B159" s="3">
         <v>3</v>
       </c>
@@ -17770,7 +17802,7 @@
       </c>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8">
       <c r="B160" s="3">
         <v>4</v>
       </c>
@@ -17791,7 +17823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:17">
       <c r="B161" s="3">
         <v>5</v>
       </c>
@@ -17810,7 +17842,7 @@
       </c>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:17">
       <c r="B162" s="3">
         <v>6</v>
       </c>
@@ -17831,7 +17863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:17">
       <c r="B163" s="3">
         <v>7</v>
       </c>
@@ -17852,18 +17884,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="101" t="s">
+    <row r="166" spans="2:17" ht="15" thickBot="1">
+      <c r="B166" s="116" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="101"/>
-      <c r="D166" s="101"/>
-      <c r="E166" s="101"/>
-      <c r="F166" s="101"/>
-      <c r="G166" s="101"/>
-      <c r="H166" s="101"/>
-    </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C166" s="116"/>
+      <c r="D166" s="116"/>
+      <c r="E166" s="116"/>
+      <c r="F166" s="116"/>
+      <c r="G166" s="116"/>
+      <c r="H166" s="116"/>
+    </row>
+    <row r="167" spans="2:17">
       <c r="B167" s="22" t="s">
         <v>164</v>
       </c>
@@ -17886,7 +17918,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:17" ht="15" thickBot="1">
       <c r="B168" s="3">
         <v>1</v>
       </c>
@@ -17909,7 +17941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:17" ht="15" thickBot="1">
       <c r="B169" s="3">
         <v>2</v>
       </c>
@@ -17929,18 +17961,18 @@
       <c r="H169" s="3">
         <v>155</v>
       </c>
-      <c r="J169" s="102" t="s">
+      <c r="J169" s="107" t="s">
         <v>275</v>
       </c>
-      <c r="K169" s="103"/>
-      <c r="L169" s="103"/>
-      <c r="M169" s="103"/>
-      <c r="N169" s="103"/>
-      <c r="O169" s="103"/>
-      <c r="P169" s="103"/>
-      <c r="Q169" s="104"/>
-    </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K169" s="110"/>
+      <c r="L169" s="110"/>
+      <c r="M169" s="110"/>
+      <c r="N169" s="110"/>
+      <c r="O169" s="110"/>
+      <c r="P169" s="110"/>
+      <c r="Q169" s="111"/>
+    </row>
+    <row r="170" spans="2:17">
       <c r="B170" s="3">
         <v>3</v>
       </c>
@@ -17959,7 +17991,7 @@
       </c>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:17">
       <c r="B171" s="3">
         <v>4</v>
       </c>
@@ -17980,7 +18012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:17">
       <c r="B172" s="3">
         <v>5</v>
       </c>
@@ -17999,7 +18031,7 @@
       </c>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:17">
       <c r="B173" s="3">
         <v>6</v>
       </c>
@@ -18020,7 +18052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:17">
       <c r="B174" s="3">
         <v>7</v>
       </c>
@@ -18041,19 +18073,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="105" t="s">
+    <row r="175" spans="2:17" ht="15" thickBot="1"/>
+    <row r="176" spans="2:17" ht="15" thickBot="1">
+      <c r="B176" s="104" t="s">
         <v>276</v>
       </c>
-      <c r="C176" s="106"/>
-      <c r="D176" s="106"/>
-      <c r="E176" s="106"/>
-      <c r="F176" s="106"/>
-      <c r="G176" s="106"/>
-      <c r="H176" s="107"/>
-    </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C176" s="105"/>
+      <c r="D176" s="105"/>
+      <c r="E176" s="105"/>
+      <c r="F176" s="105"/>
+      <c r="G176" s="105"/>
+      <c r="H176" s="106"/>
+    </row>
+    <row r="177" spans="2:17">
       <c r="B177" s="22" t="s">
         <v>164</v>
       </c>
@@ -18076,7 +18108,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:17" ht="15" thickBot="1">
       <c r="B178" s="3">
         <v>1</v>
       </c>
@@ -18095,7 +18127,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:17" ht="15" thickBot="1">
       <c r="B179" s="3">
         <v>2</v>
       </c>
@@ -18111,18 +18143,18 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="J179" s="102" t="s">
+      <c r="J179" s="107" t="s">
         <v>280</v>
       </c>
-      <c r="K179" s="103"/>
-      <c r="L179" s="103"/>
-      <c r="M179" s="103"/>
-      <c r="N179" s="103"/>
-      <c r="O179" s="103"/>
-      <c r="P179" s="103"/>
-      <c r="Q179" s="104"/>
-    </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K179" s="110"/>
+      <c r="L179" s="110"/>
+      <c r="M179" s="110"/>
+      <c r="N179" s="110"/>
+      <c r="O179" s="110"/>
+      <c r="P179" s="110"/>
+      <c r="Q179" s="111"/>
+    </row>
+    <row r="180" spans="2:17">
       <c r="B180" s="3">
         <v>3</v>
       </c>
@@ -18141,7 +18173,7 @@
       </c>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:17">
       <c r="B181" s="3">
         <v>4</v>
       </c>
@@ -18162,7 +18194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:17">
       <c r="B182" s="3">
         <v>5</v>
       </c>
@@ -18181,7 +18213,7 @@
       </c>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:17">
       <c r="B183" s="3">
         <v>6</v>
       </c>
@@ -18202,7 +18234,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:17">
       <c r="B184" s="3">
         <v>7</v>
       </c>
@@ -18223,19 +18255,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="187" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="95" t="s">
+    <row r="186" spans="2:17" ht="15" thickBot="1"/>
+    <row r="187" spans="2:17" ht="15" thickBot="1">
+      <c r="B187" s="97" t="s">
         <v>287</v>
       </c>
-      <c r="C187" s="96"/>
-      <c r="D187" s="96"/>
-      <c r="E187" s="96"/>
-      <c r="F187" s="96"/>
-      <c r="G187" s="96"/>
-      <c r="H187" s="97"/>
-    </row>
-    <row r="188" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="98"/>
+      <c r="D187" s="98"/>
+      <c r="E187" s="98"/>
+      <c r="F187" s="98"/>
+      <c r="G187" s="98"/>
+      <c r="H187" s="99"/>
+    </row>
+    <row r="188" spans="2:17" ht="15" thickBot="1">
       <c r="B188" s="22" t="s">
         <v>164</v>
       </c>
@@ -18258,7 +18290,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:17">
       <c r="B189" s="15">
         <v>1</v>
       </c>
@@ -18277,7 +18309,7 @@
       <c r="G189" s="16"/>
       <c r="H189" s="17"/>
     </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:17">
       <c r="B190" s="34">
         <v>2</v>
       </c>
@@ -18296,7 +18328,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="35"/>
     </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:17">
       <c r="B191" s="34">
         <v>3</v>
       </c>
@@ -18315,7 +18347,7 @@
       <c r="G191" s="50"/>
       <c r="H191" s="44"/>
     </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:17">
       <c r="B192" s="34">
         <v>4</v>
       </c>
@@ -18334,7 +18366,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="35"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8">
       <c r="B193" s="34">
         <v>3</v>
       </c>
@@ -18353,7 +18385,7 @@
       </c>
       <c r="H193" s="35"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8">
       <c r="B194" s="34">
         <v>4</v>
       </c>
@@ -18374,7 +18406,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8">
       <c r="B195" s="34">
         <v>5</v>
       </c>
@@ -18393,7 +18425,7 @@
       </c>
       <c r="H195" s="35"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8">
       <c r="B196" s="34">
         <v>6</v>
       </c>
@@ -18414,7 +18446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:8" ht="15" thickBot="1">
       <c r="B197" s="18">
         <v>7</v>
       </c>
@@ -18435,19 +18467,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="200" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="95" t="s">
+    <row r="199" spans="2:8" ht="15" thickBot="1"/>
+    <row r="200" spans="2:8" ht="15" thickBot="1">
+      <c r="B200" s="97" t="s">
         <v>294</v>
       </c>
-      <c r="C200" s="96"/>
-      <c r="D200" s="96"/>
-      <c r="E200" s="96"/>
-      <c r="F200" s="96"/>
-      <c r="G200" s="96"/>
-      <c r="H200" s="97"/>
-    </row>
-    <row r="201" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="98"/>
+      <c r="D200" s="98"/>
+      <c r="E200" s="98"/>
+      <c r="F200" s="98"/>
+      <c r="G200" s="98"/>
+      <c r="H200" s="99"/>
+    </row>
+    <row r="201" spans="2:8" ht="15" thickBot="1">
       <c r="B201" s="22" t="s">
         <v>164</v>
       </c>
@@ -18470,7 +18502,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8">
       <c r="B202" s="15">
         <v>1</v>
       </c>
@@ -18493,7 +18525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8">
       <c r="B203" s="34">
         <v>2</v>
       </c>
@@ -18516,7 +18548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8">
       <c r="B204" s="34">
         <v>3</v>
       </c>
@@ -18539,7 +18571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8">
       <c r="B205" s="34">
         <v>4</v>
       </c>
@@ -18558,7 +18590,7 @@
       </c>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8">
       <c r="B206" s="34">
         <v>3</v>
       </c>
@@ -18577,7 +18609,7 @@
       </c>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8">
       <c r="B207" s="34">
         <v>4</v>
       </c>
@@ -18598,7 +18630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8">
       <c r="B208" s="34">
         <v>5</v>
       </c>
@@ -18617,7 +18649,7 @@
       </c>
       <c r="H208" s="35"/>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8">
       <c r="B209" s="34">
         <v>6</v>
       </c>
@@ -18638,7 +18670,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:8" ht="15" thickBot="1">
       <c r="B210" s="18">
         <v>7</v>
       </c>
@@ -18657,7 +18689,7 @@
       </c>
       <c r="H210" s="35"/>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8">
       <c r="B211" s="34">
         <v>8</v>
       </c>
@@ -18678,7 +18710,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:8" ht="15" thickBot="1">
       <c r="B212" s="18">
         <v>9</v>
       </c>
@@ -18699,19 +18731,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="215" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="95" t="s">
+    <row r="214" spans="2:8" ht="15" thickBot="1"/>
+    <row r="215" spans="2:8" ht="15" thickBot="1">
+      <c r="B215" s="97" t="s">
         <v>299</v>
       </c>
-      <c r="C215" s="96"/>
-      <c r="D215" s="96"/>
-      <c r="E215" s="96"/>
-      <c r="F215" s="96"/>
-      <c r="G215" s="96"/>
-      <c r="H215" s="97"/>
-    </row>
-    <row r="216" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="98"/>
+      <c r="D215" s="98"/>
+      <c r="E215" s="98"/>
+      <c r="F215" s="98"/>
+      <c r="G215" s="98"/>
+      <c r="H215" s="99"/>
+    </row>
+    <row r="216" spans="2:8" ht="15" thickBot="1">
       <c r="B216" s="22" t="s">
         <v>164</v>
       </c>
@@ -18734,7 +18766,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8">
       <c r="B217" s="15">
         <v>1</v>
       </c>
@@ -18757,7 +18789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8">
       <c r="B218" s="34">
         <v>2</v>
       </c>
@@ -18776,7 +18808,7 @@
       <c r="G218" s="3"/>
       <c r="H218" s="35"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8">
       <c r="B219" s="34">
         <v>3</v>
       </c>
@@ -18793,7 +18825,7 @@
       <c r="G219" s="3"/>
       <c r="H219" s="35"/>
     </row>
-    <row r="220" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:8" ht="15" thickBot="1">
       <c r="B220" s="34">
         <v>4</v>
       </c>
@@ -18810,7 +18842,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="35"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8">
       <c r="B221" s="15">
         <v>5</v>
       </c>
@@ -18827,7 +18859,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="35"/>
     </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8">
       <c r="B222" s="34">
         <v>6</v>
       </c>
@@ -18844,7 +18876,7 @@
       <c r="G222" s="3"/>
       <c r="H222" s="35"/>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8">
       <c r="B223" s="34">
         <v>7</v>
       </c>
@@ -18863,7 +18895,7 @@
       </c>
       <c r="H223" s="35"/>
     </row>
-    <row r="224" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:8" ht="15" thickBot="1">
       <c r="B224" s="34">
         <v>8</v>
       </c>
@@ -18884,7 +18916,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8">
       <c r="B225" s="15">
         <v>9</v>
       </c>
@@ -18903,7 +18935,7 @@
       </c>
       <c r="H225" s="35"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8">
       <c r="B226" s="34">
         <v>10</v>
       </c>
@@ -18924,7 +18956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:8" ht="15" thickBot="1">
       <c r="B227" s="18">
         <v>11</v>
       </c>
@@ -18945,19 +18977,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="230" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="95" t="s">
+    <row r="229" spans="2:8" ht="15" thickBot="1"/>
+    <row r="230" spans="2:8" ht="15" thickBot="1">
+      <c r="B230" s="97" t="s">
         <v>307</v>
       </c>
-      <c r="C230" s="96"/>
-      <c r="D230" s="96"/>
-      <c r="E230" s="96"/>
-      <c r="F230" s="96"/>
-      <c r="G230" s="96"/>
-      <c r="H230" s="97"/>
-    </row>
-    <row r="231" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="98"/>
+      <c r="D230" s="98"/>
+      <c r="E230" s="98"/>
+      <c r="F230" s="98"/>
+      <c r="G230" s="98"/>
+      <c r="H230" s="99"/>
+    </row>
+    <row r="231" spans="2:8" ht="15" thickBot="1">
       <c r="B231" s="22" t="s">
         <v>164</v>
       </c>
@@ -18980,7 +19012,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8">
       <c r="B232" s="15">
         <v>1</v>
       </c>
@@ -19003,7 +19035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:8" ht="15" thickBot="1">
       <c r="B233" s="34">
         <v>2</v>
       </c>
@@ -19022,7 +19054,7 @@
       </c>
       <c r="H233" s="35"/>
     </row>
-    <row r="234" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:8" ht="15" thickBot="1">
       <c r="B234" s="15">
         <v>3</v>
       </c>
@@ -19041,7 +19073,7 @@
       </c>
       <c r="H234" s="35"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:8">
       <c r="B235" s="15">
         <v>4</v>
       </c>
@@ -19060,7 +19092,7 @@
       </c>
       <c r="H235" s="35"/>
     </row>
-    <row r="236" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:8" ht="15" thickBot="1">
       <c r="B236" s="34">
         <v>5</v>
       </c>
@@ -19081,7 +19113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:8" ht="15" thickBot="1">
       <c r="B237" s="15">
         <v>6</v>
       </c>
@@ -19100,7 +19132,7 @@
       </c>
       <c r="H237" s="35"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:8">
       <c r="B238" s="15">
         <v>7</v>
       </c>
@@ -19121,7 +19153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:8" ht="15" thickBot="1">
       <c r="B239" s="34">
         <v>8</v>
       </c>
@@ -19142,19 +19174,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="242" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="95" t="s">
+    <row r="241" spans="2:8" ht="15" thickBot="1"/>
+    <row r="242" spans="2:8" ht="15" thickBot="1">
+      <c r="B242" s="97" t="s">
         <v>310</v>
       </c>
-      <c r="C242" s="96"/>
-      <c r="D242" s="96"/>
-      <c r="E242" s="96"/>
-      <c r="F242" s="96"/>
-      <c r="G242" s="96"/>
-      <c r="H242" s="97"/>
-    </row>
-    <row r="243" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C242" s="98"/>
+      <c r="D242" s="98"/>
+      <c r="E242" s="98"/>
+      <c r="F242" s="98"/>
+      <c r="G242" s="98"/>
+      <c r="H242" s="99"/>
+    </row>
+    <row r="243" spans="2:8" ht="15" thickBot="1">
       <c r="B243" s="22" t="s">
         <v>164</v>
       </c>
@@ -19177,7 +19209,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8">
       <c r="B244" s="15">
         <v>1</v>
       </c>
@@ -19200,7 +19232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8">
       <c r="B245" s="34">
         <v>2</v>
       </c>
@@ -19223,7 +19255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8">
       <c r="B246" s="34">
         <v>3</v>
       </c>
@@ -19244,7 +19276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8">
       <c r="B247" s="34">
         <v>4</v>
       </c>
@@ -19265,7 +19297,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8">
       <c r="B248" s="34">
         <v>5</v>
       </c>
@@ -19286,7 +19318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8">
       <c r="B249" s="34">
         <v>6</v>
       </c>
@@ -19307,7 +19339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8">
       <c r="B250" s="34">
         <v>7</v>
       </c>
@@ -19328,7 +19360,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8">
       <c r="B251" s="34">
         <v>8</v>
       </c>
@@ -19349,7 +19381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8">
       <c r="B252" s="34">
         <v>9</v>
       </c>
@@ -19370,7 +19402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8">
       <c r="B253" s="34">
         <v>10</v>
       </c>
@@ -19389,7 +19421,7 @@
       </c>
       <c r="H253" s="35"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8">
       <c r="B254" s="34">
         <v>11</v>
       </c>
@@ -19410,7 +19442,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8">
       <c r="B255" s="34">
         <v>12</v>
       </c>
@@ -19429,7 +19461,7 @@
       </c>
       <c r="H255" s="35"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8">
       <c r="B256" s="34">
         <v>13</v>
       </c>
@@ -19450,7 +19482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:8" ht="15" thickBot="1">
       <c r="B257" s="18">
         <v>14</v>
       </c>
@@ -19471,19 +19503,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="260" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="95" t="s">
+    <row r="259" spans="2:8" ht="15" thickBot="1"/>
+    <row r="260" spans="2:8" ht="15" thickBot="1">
+      <c r="B260" s="97" t="s">
         <v>319</v>
       </c>
-      <c r="C260" s="96"/>
-      <c r="D260" s="96"/>
-      <c r="E260" s="96"/>
-      <c r="F260" s="96"/>
-      <c r="G260" s="96"/>
-      <c r="H260" s="97"/>
-    </row>
-    <row r="261" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C260" s="98"/>
+      <c r="D260" s="98"/>
+      <c r="E260" s="98"/>
+      <c r="F260" s="98"/>
+      <c r="G260" s="98"/>
+      <c r="H260" s="99"/>
+    </row>
+    <row r="261" spans="2:8" ht="15" thickBot="1">
       <c r="B261" s="22" t="s">
         <v>164</v>
       </c>
@@ -19506,7 +19538,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8">
       <c r="B262" s="15">
         <v>1</v>
       </c>
@@ -19527,7 +19559,7 @@
       </c>
       <c r="H262" s="17"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8">
       <c r="B263" s="34">
         <v>2</v>
       </c>
@@ -19546,7 +19578,7 @@
       </c>
       <c r="H263" s="35"/>
     </row>
-    <row r="264" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:8" ht="15" thickBot="1">
       <c r="B264" s="34">
         <v>3</v>
       </c>
@@ -19565,7 +19597,7 @@
       </c>
       <c r="H264" s="35"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8">
       <c r="B265" s="15">
         <v>4</v>
       </c>
@@ -19584,7 +19616,7 @@
       </c>
       <c r="H265" s="35"/>
     </row>
-    <row r="266" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:8" ht="15" thickBot="1">
       <c r="B266" s="34">
         <v>5</v>
       </c>
@@ -19603,7 +19635,7 @@
       </c>
       <c r="H266" s="35"/>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8">
       <c r="B267" s="15">
         <v>6</v>
       </c>
@@ -19622,7 +19654,7 @@
       </c>
       <c r="H267" s="54"/>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8">
       <c r="B268" s="34">
         <v>7</v>
       </c>
@@ -19643,7 +19675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="269" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:8" ht="15" thickBot="1">
       <c r="B269" s="34">
         <v>8</v>
       </c>
@@ -19662,7 +19694,7 @@
       </c>
       <c r="H269" s="35"/>
     </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8">
       <c r="B270" s="15">
         <v>9</v>
       </c>
@@ -19683,7 +19715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="271" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:8" ht="15" thickBot="1">
       <c r="B271" s="18">
         <v>10</v>
       </c>
@@ -19704,19 +19736,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="274" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="95" t="s">
+    <row r="273" spans="2:16" ht="15" thickBot="1"/>
+    <row r="274" spans="2:16" ht="15" thickBot="1">
+      <c r="B274" s="97" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="96"/>
-      <c r="D274" s="96"/>
-      <c r="E274" s="96"/>
-      <c r="F274" s="96"/>
-      <c r="G274" s="96"/>
-      <c r="H274" s="97"/>
-    </row>
-    <row r="275" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C274" s="98"/>
+      <c r="D274" s="98"/>
+      <c r="E274" s="98"/>
+      <c r="F274" s="98"/>
+      <c r="G274" s="98"/>
+      <c r="H274" s="99"/>
+    </row>
+    <row r="275" spans="2:16" ht="15" thickBot="1">
       <c r="B275" s="22" t="s">
         <v>164</v>
       </c>
@@ -19739,7 +19771,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="276" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:16" ht="15" thickBot="1">
       <c r="B276" s="15">
         <v>1</v>
       </c>
@@ -19760,7 +19792,7 @@
       </c>
       <c r="H276" s="17"/>
     </row>
-    <row r="277" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:16" ht="15" thickBot="1">
       <c r="B277" s="34">
         <v>2</v>
       </c>
@@ -19780,17 +19812,17 @@
         <v>184</v>
       </c>
       <c r="H277" s="35"/>
-      <c r="J277" s="98" t="s">
+      <c r="J277" s="115" t="s">
         <v>327</v>
       </c>
-      <c r="K277" s="99"/>
-      <c r="L277" s="99"/>
-      <c r="M277" s="99"/>
-      <c r="N277" s="99"/>
-      <c r="O277" s="99"/>
-      <c r="P277" s="100"/>
-    </row>
-    <row r="278" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K277" s="108"/>
+      <c r="L277" s="108"/>
+      <c r="M277" s="108"/>
+      <c r="N277" s="108"/>
+      <c r="O277" s="108"/>
+      <c r="P277" s="109"/>
+    </row>
+    <row r="278" spans="2:16" ht="15" thickBot="1">
       <c r="B278" s="34">
         <v>3</v>
       </c>
@@ -19809,7 +19841,7 @@
       </c>
       <c r="H278" s="54"/>
     </row>
-    <row r="279" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:16">
       <c r="B279" s="15">
         <v>4</v>
       </c>
@@ -19830,7 +19862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:16">
       <c r="B280" s="34">
         <v>5</v>
       </c>
@@ -19849,7 +19881,7 @@
       </c>
       <c r="H280" s="35"/>
     </row>
-    <row r="281" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:16" ht="15" thickBot="1">
       <c r="B281" s="34">
         <v>6</v>
       </c>
@@ -19870,7 +19902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:16" ht="15" thickBot="1">
       <c r="B282" s="42">
         <v>7</v>
       </c>
@@ -19891,19 +19923,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="285" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="95" t="s">
+    <row r="284" spans="2:16" ht="15" thickBot="1"/>
+    <row r="285" spans="2:16" ht="15" thickBot="1">
+      <c r="B285" s="97" t="s">
         <v>329</v>
       </c>
-      <c r="C285" s="96"/>
-      <c r="D285" s="96"/>
-      <c r="E285" s="96"/>
-      <c r="F285" s="96"/>
-      <c r="G285" s="96"/>
-      <c r="H285" s="97"/>
-    </row>
-    <row r="286" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C285" s="98"/>
+      <c r="D285" s="98"/>
+      <c r="E285" s="98"/>
+      <c r="F285" s="98"/>
+      <c r="G285" s="98"/>
+      <c r="H285" s="99"/>
+    </row>
+    <row r="286" spans="2:16" ht="15" thickBot="1">
       <c r="B286" s="22" t="s">
         <v>164</v>
       </c>
@@ -19926,7 +19958,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="287" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:16">
       <c r="B287" s="15">
         <v>1</v>
       </c>
@@ -19947,7 +19979,7 @@
       </c>
       <c r="H287" s="17"/>
     </row>
-    <row r="288" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:16" ht="15" thickBot="1">
       <c r="B288" s="34">
         <v>2</v>
       </c>
@@ -19968,7 +20000,7 @@
       </c>
       <c r="H288" s="35"/>
     </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:8">
       <c r="B289" s="15">
         <v>3</v>
       </c>
@@ -19987,7 +20019,7 @@
       </c>
       <c r="H289" s="35"/>
     </row>
-    <row r="290" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:8" ht="15" thickBot="1">
       <c r="B290" s="34">
         <v>4</v>
       </c>
@@ -20006,7 +20038,7 @@
       </c>
       <c r="H290" s="35"/>
     </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8">
       <c r="B291" s="15">
         <v>5</v>
       </c>
@@ -20025,7 +20057,7 @@
       </c>
       <c r="H291" s="35"/>
     </row>
-    <row r="292" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:8" ht="15" thickBot="1">
       <c r="B292" s="34">
         <v>6</v>
       </c>
@@ -20044,7 +20076,7 @@
       </c>
       <c r="H292" s="35"/>
     </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:8">
       <c r="B293" s="15">
         <v>7</v>
       </c>
@@ -20065,7 +20097,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:8" ht="15" thickBot="1">
       <c r="B294" s="34">
         <v>8</v>
       </c>
@@ -20084,7 +20116,7 @@
       </c>
       <c r="H294" s="35"/>
     </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8">
       <c r="B295" s="15">
         <v>9</v>
       </c>
@@ -20105,7 +20137,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:8" ht="15" thickBot="1">
       <c r="B296" s="18">
         <v>10</v>
       </c>
@@ -20126,17 +20158,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B299" s="94" t="s">
+    <row r="299" spans="2:8">
+      <c r="B299" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="C299" s="94"/>
-      <c r="D299" s="94"/>
-      <c r="E299" s="94"/>
-      <c r="F299" s="94"/>
-      <c r="G299" s="94"/>
-    </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C299" s="117"/>
+      <c r="D299" s="117"/>
+      <c r="E299" s="117"/>
+      <c r="F299" s="117"/>
+      <c r="G299" s="117"/>
+    </row>
+    <row r="300" spans="2:8">
       <c r="B300" s="11" t="s">
         <v>179</v>
       </c>
@@ -20156,7 +20188,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:8">
       <c r="B301" s="3">
         <v>1</v>
       </c>
@@ -20176,7 +20208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:8">
       <c r="B302" s="3">
         <v>2</v>
       </c>
@@ -20196,7 +20228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:8" ht="15" thickBot="1">
       <c r="B303" s="34">
         <v>6</v>
       </c>
@@ -20215,7 +20247,7 @@
       </c>
       <c r="H303" s="35"/>
     </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:8">
       <c r="B304" s="15">
         <v>7</v>
       </c>
@@ -20236,7 +20268,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="305" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:8" ht="15" thickBot="1">
       <c r="B305" s="34">
         <v>8</v>
       </c>
@@ -20255,7 +20287,7 @@
       </c>
       <c r="H305" s="35"/>
     </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:8">
       <c r="B306" s="15">
         <v>9</v>
       </c>
@@ -20276,7 +20308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:8" ht="15" thickBot="1">
       <c r="B307" s="18">
         <v>10</v>
       </c>
@@ -20297,19 +20329,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="310" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="95" t="s">
+    <row r="309" spans="2:8" ht="15" thickBot="1"/>
+    <row r="310" spans="2:8" ht="15" thickBot="1">
+      <c r="B310" s="97" t="s">
         <v>333</v>
       </c>
-      <c r="C310" s="96"/>
-      <c r="D310" s="96"/>
-      <c r="E310" s="96"/>
-      <c r="F310" s="96"/>
-      <c r="G310" s="96"/>
-      <c r="H310" s="97"/>
-    </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C310" s="98"/>
+      <c r="D310" s="98"/>
+      <c r="E310" s="98"/>
+      <c r="F310" s="98"/>
+      <c r="G310" s="98"/>
+      <c r="H310" s="99"/>
+    </row>
+    <row r="311" spans="2:8">
       <c r="B311" s="22" t="s">
         <v>164</v>
       </c>
@@ -20332,7 +20364,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:8">
       <c r="B312" s="3">
         <v>1</v>
       </c>
@@ -20349,7 +20381,7 @@
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:8">
       <c r="B313" s="3">
         <v>2</v>
       </c>
@@ -20368,7 +20400,7 @@
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:8">
       <c r="B314" s="3">
         <v>3</v>
       </c>
@@ -20385,7 +20417,7 @@
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:8">
       <c r="B315" s="3">
         <v>4</v>
       </c>
@@ -20402,7 +20434,7 @@
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:8">
       <c r="B316" s="3">
         <v>5</v>
       </c>
@@ -20421,7 +20453,7 @@
       </c>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:8">
       <c r="B317" s="3">
         <v>6</v>
       </c>
@@ -20442,7 +20474,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:8">
       <c r="B318" s="3">
         <v>7</v>
       </c>
@@ -20461,7 +20493,7 @@
       </c>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:8">
       <c r="B319" s="3">
         <v>8</v>
       </c>
@@ -20482,7 +20514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:8">
       <c r="B320" s="3">
         <v>9</v>
       </c>
@@ -20505,6 +20537,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B299:G299"/>
+    <mergeCell ref="B310:H310"/>
+    <mergeCell ref="B285:H285"/>
+    <mergeCell ref="B230:H230"/>
+    <mergeCell ref="B242:H242"/>
+    <mergeCell ref="B260:H260"/>
+    <mergeCell ref="B274:H274"/>
+    <mergeCell ref="J277:P277"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="J169:Q169"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="J179:Q179"/>
     <mergeCell ref="B90:H90"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B120:H120"/>
@@ -20520,24 +20570,6 @@
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="B65:H65"/>
-    <mergeCell ref="J277:P277"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="J169:Q169"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="J179:Q179"/>
-    <mergeCell ref="B299:G299"/>
-    <mergeCell ref="B310:H310"/>
-    <mergeCell ref="B285:H285"/>
-    <mergeCell ref="B230:H230"/>
-    <mergeCell ref="B242:H242"/>
-    <mergeCell ref="B260:H260"/>
-    <mergeCell ref="B274:H274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20545,23 +20577,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" s="11" t="s">
         <v>395</v>
       </c>
@@ -20578,7 +20610,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -20593,7 +20625,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -20608,7 +20640,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -20623,7 +20655,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -20638,7 +20670,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7" s="90">
         <v>5</v>
       </c>
@@ -20653,7 +20685,7 @@
       </c>
       <c r="F7" s="92"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -20668,7 +20700,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9" s="88">
         <v>7</v>
       </c>
@@ -20685,7 +20717,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -20700,7 +20732,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -20715,7 +20747,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -20730,7 +20762,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -20745,7 +20777,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6">
       <c r="B14" s="88">
         <v>12</v>
       </c>
@@ -20762,7 +20794,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -20777,7 +20809,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6">
       <c r="B16" s="90">
         <v>14</v>
       </c>
@@ -20792,7 +20824,7 @@
       </c>
       <c r="F16" s="90"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -20807,7 +20839,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -20822,7 +20854,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -20831,7 +20863,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -20840,7 +20872,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -20849,7 +20881,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -20858,7 +20890,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -20867,7 +20899,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -20876,7 +20908,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -20885,7 +20917,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <v>24</v>
       </c>
@@ -20894,7 +20926,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <v>25</v>
       </c>
@@ -20903,7 +20935,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <v>26</v>
       </c>
@@ -20912,7 +20944,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <v>27</v>
       </c>
@@ -20921,7 +20953,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6">
       <c r="B30" s="3">
         <v>28</v>
       </c>
@@ -20930,7 +20962,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6">
       <c r="B31" s="3">
         <v>29</v>
       </c>
@@ -20939,7 +20971,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6">
       <c r="B32" s="3">
         <v>30</v>
       </c>
@@ -20948,7 +20980,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6">
       <c r="B33" s="3">
         <v>31</v>
       </c>
@@ -20957,7 +20989,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6">
       <c r="B34" s="3">
         <v>32</v>
       </c>
@@ -20966,7 +20998,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6">
       <c r="B35" s="3">
         <v>33</v>
       </c>
@@ -20975,7 +21007,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6">
       <c r="B36" s="3">
         <v>34</v>
       </c>
@@ -20984,7 +21016,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6">
       <c r="B37" s="3">
         <v>35</v>
       </c>
@@ -20993,7 +21025,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6">
       <c r="B38" s="3">
         <v>36</v>
       </c>
@@ -21002,7 +21034,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6">
       <c r="B39" s="3">
         <v>37</v>
       </c>
@@ -21011,7 +21043,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6">
       <c r="B40" s="3">
         <v>38</v>
       </c>
@@ -21020,7 +21052,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6">
       <c r="B41" s="3">
         <v>39</v>
       </c>
@@ -21029,7 +21061,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6">
       <c r="B42" s="3">
         <v>40</v>
       </c>
@@ -21038,7 +21070,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6">
       <c r="B43" s="3">
         <v>41</v>
       </c>
@@ -21047,7 +21079,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6">
       <c r="B44" s="3">
         <v>42</v>
       </c>
@@ -21056,7 +21088,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6">
       <c r="B45" s="3">
         <v>43</v>
       </c>
@@ -21065,7 +21097,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6">
       <c r="B46" s="3">
         <v>44</v>
       </c>
@@ -21074,7 +21106,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6">
       <c r="B47" s="3">
         <v>45</v>
       </c>
@@ -21083,7 +21115,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6">
       <c r="B48" s="3">
         <v>46</v>
       </c>
@@ -21092,7 +21124,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6">
       <c r="B49" s="3">
         <v>47</v>
       </c>
@@ -21101,7 +21133,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6">
       <c r="B50" s="3">
         <v>48</v>
       </c>
@@ -21110,7 +21142,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6">
       <c r="B51" s="3">
         <v>49</v>
       </c>
@@ -21119,7 +21151,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6">
       <c r="B52" s="3">
         <v>50</v>
       </c>

--- a/Traditional Yoga Updated Document.xlsx
+++ b/Traditional Yoga Updated Document.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Issue Tracker" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Detailed Plan'!$B$2:$K$349</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Detailed Plan'!$B$2:$L$349</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="508">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -1225,9 +1225,6 @@
     <t>API Status</t>
   </si>
   <si>
-    <t>Angular Status</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
@@ -1529,13 +1526,37 @@
   </si>
   <si>
     <t>/libary/praticeLibary?operation=glimpses</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Actual complet date</t>
+  </si>
+  <si>
+    <t>praneeth</t>
+  </si>
+  <si>
+    <t>not yet start</t>
+  </si>
+  <si>
+    <t>Integration Status</t>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completed </t>
+  </si>
+  <si>
+    <t>ajith R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1574,6 +1595,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -2173,7 +2201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2314,13 +2342,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2330,6 +2352,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2344,30 +2405,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2377,20 +2414,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2412,26 +2469,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2674,8 +2711,8 @@
     <tableColumn id="6" name="Date" dataDxfId="6"/>
     <tableColumn id="12" name="API Status" dataDxfId="5"/>
     <tableColumn id="5" name="Resource" dataDxfId="4"/>
-    <tableColumn id="13" name="Angular Status" dataDxfId="3"/>
-    <tableColumn id="11" name="Remark" dataDxfId="0"/>
+    <tableColumn id="13" name="Integration Status" dataDxfId="3"/>
+    <tableColumn id="11" name="Remark" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2970,7 +3007,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3092,7 +3129,7 @@
   <dimension ref="B2:J99"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3104,7 +3141,8 @@
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" s="5" customFormat="1">
@@ -3130,10 +3168,10 @@
         <v>155</v>
       </c>
       <c r="I2" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>399</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -3141,13 +3179,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="84" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="85" t="s">
         <v>401</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="E3" s="84" t="s">
         <v>402</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>403</v>
       </c>
       <c r="F3" s="84"/>
       <c r="G3" s="84" t="s">
@@ -3164,13 +3202,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D4" s="84" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" s="84" t="s">
         <v>404</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>405</v>
       </c>
       <c r="F4" s="84"/>
       <c r="G4" s="84" t="s">
@@ -3187,13 +3225,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="84" t="s">
@@ -3210,13 +3248,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="84" t="s">
@@ -3233,13 +3271,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="84" t="s">
@@ -3256,13 +3294,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="84" t="s">
@@ -3279,13 +3317,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="84" t="s">
@@ -3302,13 +3340,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="84" t="s">
@@ -3325,13 +3363,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="84" t="s">
@@ -3348,13 +3386,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="84" t="s">
@@ -3371,13 +3409,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="84" t="s">
@@ -3394,13 +3432,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="84" t="s">
@@ -3417,13 +3455,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="84" t="s">
@@ -3440,13 +3478,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="84" t="s">
@@ -3463,13 +3501,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="84" t="s">
@@ -3486,13 +3524,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="84" t="s">
@@ -3509,13 +3547,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="84" t="s">
@@ -3532,13 +3570,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="84" t="s">
@@ -3555,13 +3593,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="84" t="s">
@@ -3578,13 +3616,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="84" t="s">
@@ -3601,13 +3639,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="84" t="s">
@@ -3624,13 +3662,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="84" t="s">
@@ -3647,13 +3685,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="84" t="s">
@@ -3670,13 +3708,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="84" t="s">
@@ -3693,13 +3731,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="84" t="s">
@@ -3716,13 +3754,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="84" t="s">
@@ -3742,10 +3780,10 @@
         <v>151</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="84" t="s">
@@ -3765,10 +3803,10 @@
         <v>151</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="84" t="s">
@@ -3788,10 +3826,10 @@
         <v>151</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="84" t="s">
@@ -3811,10 +3849,10 @@
         <v>151</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="84" t="s">
@@ -3834,10 +3872,10 @@
         <v>151</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="84" t="s">
@@ -3857,10 +3895,10 @@
         <v>151</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="84" t="s">
@@ -3880,10 +3918,10 @@
         <v>151</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="84" t="s">
@@ -3903,10 +3941,10 @@
         <v>151</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="84" t="s">
@@ -3923,13 +3961,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="84" t="s">
@@ -3946,13 +3984,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="84" t="s">
@@ -3969,13 +4007,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="84" t="s">
@@ -3992,13 +4030,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="84" t="s">
+        <v>442</v>
+      </c>
+      <c r="D40" s="84" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" s="84" t="s">
         <v>443</v>
-      </c>
-      <c r="D40" s="84" t="s">
-        <v>402</v>
-      </c>
-      <c r="E40" s="84" t="s">
-        <v>444</v>
       </c>
       <c r="F40" s="84"/>
       <c r="G40" s="84" t="s">
@@ -4015,13 +4053,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D41" s="84" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E41" s="84" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F41" s="84"/>
       <c r="G41" s="84" t="s">
@@ -4038,13 +4076,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D42" s="84" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E42" s="84" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F42" s="84"/>
       <c r="G42" s="84" t="s">
@@ -4061,13 +4099,13 @@
         <v>41</v>
       </c>
       <c r="C43" s="84" t="s">
+        <v>446</v>
+      </c>
+      <c r="D43" s="84" t="s">
+        <v>401</v>
+      </c>
+      <c r="E43" s="84" t="s">
         <v>447</v>
-      </c>
-      <c r="D43" s="84" t="s">
-        <v>402</v>
-      </c>
-      <c r="E43" s="84" t="s">
-        <v>448</v>
       </c>
       <c r="F43" s="84"/>
       <c r="G43" s="84" t="s">
@@ -4084,21 +4122,21 @@
         <v>42</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H44" s="84"/>
       <c r="I44" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J44" s="11"/>
     </row>
@@ -4107,26 +4145,26 @@
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="84" t="s">
         <v>381</v>
       </c>
       <c r="H45" s="84" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I45" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="2:10">
@@ -4134,13 +4172,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="84" t="s">
@@ -4150,10 +4188,10 @@
         <v>377</v>
       </c>
       <c r="I46" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="2:10">
@@ -4161,13 +4199,13 @@
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
@@ -4180,7 +4218,7 @@
         <v>381</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="2:10">
@@ -4188,13 +4226,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
@@ -4204,10 +4242,10 @@
         <v>371</v>
       </c>
       <c r="I48" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="2:10">
@@ -4215,26 +4253,26 @@
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
         <v>381</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I49" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="2:10">
@@ -4242,13 +4280,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>461</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
@@ -4261,7 +4299,7 @@
         <v>381</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="2:10">
@@ -4269,13 +4307,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
@@ -4288,7 +4326,7 @@
         <v>381</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52" spans="2:10">
@@ -4296,13 +4334,13 @@
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
@@ -4315,7 +4353,7 @@
         <v>381</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="2:10">
@@ -4323,13 +4361,13 @@
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
@@ -4342,7 +4380,7 @@
         <v>381</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="2:10">
@@ -4350,13 +4388,13 @@
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
@@ -4366,10 +4404,10 @@
         <v>371</v>
       </c>
       <c r="I54" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="2:10">
@@ -4377,13 +4415,13 @@
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="F55" s="87">
         <v>44895</v>
@@ -4395,10 +4433,10 @@
         <v>377</v>
       </c>
       <c r="I55" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J55" s="87" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="2:10">
@@ -4406,13 +4444,13 @@
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F56" s="87">
         <v>44895</v>
@@ -4421,13 +4459,13 @@
         <v>381</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I56" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J56" s="87" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="2:10">
@@ -4435,26 +4473,28 @@
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="F57" s="87">
         <v>44896</v>
       </c>
-      <c r="G57" s="86" t="s">
-        <v>450</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="86" t="s">
-        <v>450</v>
+      <c r="G57" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I57" s="84" t="s">
+        <v>381</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="2:10">
@@ -4462,26 +4502,28 @@
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F58" s="87">
         <v>44896</v>
       </c>
-      <c r="G58" s="86" t="s">
-        <v>450</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="86" t="s">
-        <v>450</v>
+      <c r="G58" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I58" s="84" t="s">
+        <v>381</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="59" spans="2:10">
@@ -4489,26 +4531,28 @@
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F59" s="87">
         <v>44896</v>
       </c>
-      <c r="G59" s="86" t="s">
-        <v>450</v>
-      </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="86" t="s">
-        <v>450</v>
+      <c r="G59" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I59" s="84" t="s">
+        <v>381</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="2:10">
@@ -4516,38 +4560,44 @@
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F60" s="87">
         <v>44896</v>
       </c>
-      <c r="G60" s="86" t="s">
-        <v>450</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="86" t="s">
-        <v>450</v>
+      <c r="G60" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I60" s="84" t="s">
+        <v>381</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="3">
         <v>62</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>505</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>489</v>
+      </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
@@ -5056,10 +5106,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K349"/>
+  <dimension ref="A1:L349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D359" sqref="D359"/>
+      <selection activeCell="E352" sqref="E352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -5073,15 +5123,16 @@
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="78"/>
+    <col min="10" max="10" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:11" s="79" customFormat="1">
+    <row r="2" spans="1:12" s="79" customFormat="1">
       <c r="A2" s="5"/>
       <c r="B2" s="67" t="s">
         <v>164</v>
@@ -5107,14 +5158,17 @@
       <c r="I2" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="68" t="s">
+        <v>501</v>
+      </c>
+      <c r="K2" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="L2" s="67" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:12" hidden="1">
       <c r="B3" s="72">
         <v>2</v>
       </c>
@@ -5139,12 +5193,13 @@
       <c r="I3" s="73">
         <v>44865</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="73"/>
+      <c r="K3" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:11" hidden="1">
+      <c r="L3" s="72"/>
+    </row>
+    <row r="4" spans="1:12" hidden="1">
       <c r="B4" s="72">
         <v>4</v>
       </c>
@@ -5169,12 +5224,13 @@
       <c r="I4" s="73">
         <v>44865</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="73"/>
+      <c r="K4" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:11" hidden="1">
+      <c r="L4" s="72"/>
+    </row>
+    <row r="5" spans="1:12" hidden="1">
       <c r="B5" s="62">
         <v>6</v>
       </c>
@@ -5199,12 +5255,13 @@
       <c r="I5" s="65">
         <v>44866</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="65"/>
+      <c r="K5" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="62"/>
-    </row>
-    <row r="6" spans="1:11" hidden="1">
+      <c r="L5" s="62"/>
+    </row>
+    <row r="6" spans="1:12" hidden="1">
       <c r="B6" s="62">
         <v>8</v>
       </c>
@@ -5229,12 +5286,13 @@
       <c r="I6" s="65">
         <v>44866</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="65"/>
+      <c r="K6" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="62"/>
-    </row>
-    <row r="7" spans="1:11" hidden="1">
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" hidden="1">
       <c r="B7" s="72">
         <v>3</v>
       </c>
@@ -5259,12 +5317,13 @@
       <c r="I7" s="73">
         <v>44867</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="73"/>
+      <c r="K7" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" spans="1:11" hidden="1">
+      <c r="L7" s="72"/>
+    </row>
+    <row r="8" spans="1:12" hidden="1">
       <c r="B8" s="72">
         <v>5</v>
       </c>
@@ -5289,12 +5348,13 @@
       <c r="I8" s="73">
         <v>44867</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="73"/>
+      <c r="K8" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K8" s="72"/>
-    </row>
-    <row r="9" spans="1:11" hidden="1">
+      <c r="L8" s="72"/>
+    </row>
+    <row r="9" spans="1:12" hidden="1">
       <c r="B9" s="62">
         <v>10</v>
       </c>
@@ -5319,12 +5379,13 @@
       <c r="I9" s="65">
         <v>44867</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="65"/>
+      <c r="K9" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="62"/>
-    </row>
-    <row r="10" spans="1:11" hidden="1">
+      <c r="L9" s="62"/>
+    </row>
+    <row r="10" spans="1:12" hidden="1">
       <c r="B10" s="72">
         <v>12</v>
       </c>
@@ -5349,12 +5410,13 @@
       <c r="I10" s="73">
         <v>44867</v>
       </c>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="73"/>
+      <c r="K10" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="72"/>
-    </row>
-    <row r="11" spans="1:11" hidden="1">
+      <c r="L10" s="72"/>
+    </row>
+    <row r="11" spans="1:12" hidden="1">
       <c r="B11" s="72">
         <v>7</v>
       </c>
@@ -5379,12 +5441,13 @@
       <c r="I11" s="73">
         <v>44868</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="73"/>
+      <c r="K11" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K11" s="72"/>
-    </row>
-    <row r="12" spans="1:11" hidden="1">
+      <c r="L11" s="72"/>
+    </row>
+    <row r="12" spans="1:12" hidden="1">
       <c r="B12" s="72">
         <v>9</v>
       </c>
@@ -5409,12 +5472,13 @@
       <c r="I12" s="73">
         <v>44868</v>
       </c>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="73"/>
+      <c r="K12" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K12" s="72"/>
-    </row>
-    <row r="13" spans="1:11" hidden="1">
+      <c r="L12" s="72"/>
+    </row>
+    <row r="13" spans="1:12" hidden="1">
       <c r="B13" s="72">
         <v>14</v>
       </c>
@@ -5439,12 +5503,13 @@
       <c r="I13" s="73">
         <v>44868</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="73"/>
+      <c r="K13" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="K13" s="72"/>
-    </row>
-    <row r="14" spans="1:11" hidden="1">
+      <c r="L13" s="72"/>
+    </row>
+    <row r="14" spans="1:12" hidden="1">
       <c r="B14" s="72">
         <v>16</v>
       </c>
@@ -5469,12 +5534,13 @@
       <c r="I14" s="73">
         <v>44868</v>
       </c>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="73"/>
+      <c r="K14" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="72"/>
-    </row>
-    <row r="15" spans="1:11" hidden="1">
+      <c r="L14" s="72"/>
+    </row>
+    <row r="15" spans="1:12" hidden="1">
       <c r="B15" s="72">
         <v>11</v>
       </c>
@@ -5499,12 +5565,13 @@
       <c r="I15" s="73">
         <v>44869</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="73"/>
+      <c r="K15" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K15" s="72"/>
-    </row>
-    <row r="16" spans="1:11" hidden="1">
+      <c r="L15" s="72"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1">
       <c r="B16" s="72">
         <v>13</v>
       </c>
@@ -5529,12 +5596,13 @@
       <c r="I16" s="73">
         <v>44869</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="73"/>
+      <c r="K16" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K16" s="72"/>
-    </row>
-    <row r="17" spans="2:11" hidden="1">
+      <c r="L16" s="72"/>
+    </row>
+    <row r="17" spans="2:12" hidden="1">
       <c r="B17" s="72">
         <v>15</v>
       </c>
@@ -5559,12 +5627,13 @@
       <c r="I17" s="73">
         <v>44872</v>
       </c>
-      <c r="J17" s="72" t="s">
+      <c r="J17" s="73"/>
+      <c r="K17" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K17" s="72"/>
-    </row>
-    <row r="18" spans="2:11" hidden="1">
+      <c r="L17" s="72"/>
+    </row>
+    <row r="18" spans="2:12" hidden="1">
       <c r="B18" s="72">
         <v>17</v>
       </c>
@@ -5589,12 +5658,13 @@
       <c r="I18" s="73">
         <v>44872</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="73"/>
+      <c r="K18" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K18" s="72"/>
-    </row>
-    <row r="19" spans="2:11" hidden="1">
+      <c r="L18" s="72"/>
+    </row>
+    <row r="19" spans="2:12" hidden="1">
       <c r="B19" s="75">
         <v>22</v>
       </c>
@@ -5619,12 +5689,13 @@
       <c r="I19" s="76">
         <v>44872</v>
       </c>
-      <c r="J19" s="75" t="s">
+      <c r="J19" s="76"/>
+      <c r="K19" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="K19" s="75"/>
-    </row>
-    <row r="20" spans="2:11" hidden="1">
+      <c r="L19" s="75"/>
+    </row>
+    <row r="20" spans="2:12" hidden="1">
       <c r="B20" s="75">
         <v>24</v>
       </c>
@@ -5649,12 +5720,13 @@
       <c r="I20" s="76">
         <v>44872</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="76"/>
+      <c r="K20" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="75"/>
-    </row>
-    <row r="21" spans="2:11" hidden="1">
+      <c r="L20" s="75"/>
+    </row>
+    <row r="21" spans="2:12" hidden="1">
       <c r="B21" s="75">
         <v>26</v>
       </c>
@@ -5679,12 +5751,13 @@
       <c r="I21" s="76">
         <v>44873</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="76"/>
+      <c r="K21" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="75"/>
-    </row>
-    <row r="22" spans="2:11" hidden="1">
+      <c r="L21" s="75"/>
+    </row>
+    <row r="22" spans="2:12" hidden="1">
       <c r="B22" s="75">
         <v>28</v>
       </c>
@@ -5709,12 +5782,13 @@
       <c r="I22" s="76">
         <v>44873</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="76"/>
+      <c r="K22" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="75"/>
-    </row>
-    <row r="23" spans="2:11" hidden="1">
+      <c r="L22" s="75"/>
+    </row>
+    <row r="23" spans="2:12" hidden="1">
       <c r="B23" s="72">
         <v>23</v>
       </c>
@@ -5739,12 +5813,13 @@
       <c r="I23" s="73">
         <v>44874</v>
       </c>
-      <c r="J23" s="72" t="s">
+      <c r="J23" s="73"/>
+      <c r="K23" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K23" s="72"/>
-    </row>
-    <row r="24" spans="2:11" hidden="1">
+      <c r="L23" s="72"/>
+    </row>
+    <row r="24" spans="2:12" hidden="1">
       <c r="B24" s="75">
         <v>30</v>
       </c>
@@ -5769,12 +5844,13 @@
       <c r="I24" s="76">
         <v>44874</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="J24" s="76"/>
+      <c r="K24" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="75"/>
-    </row>
-    <row r="25" spans="2:11" hidden="1">
+      <c r="L24" s="75"/>
+    </row>
+    <row r="25" spans="2:12" hidden="1">
       <c r="B25" s="75">
         <v>32</v>
       </c>
@@ -5799,12 +5875,13 @@
       <c r="I25" s="76">
         <v>44874</v>
       </c>
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="76"/>
+      <c r="K25" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="75"/>
-    </row>
-    <row r="26" spans="2:11" hidden="1">
+      <c r="L25" s="75"/>
+    </row>
+    <row r="26" spans="2:12" hidden="1">
       <c r="B26" s="63">
         <v>1</v>
       </c>
@@ -5825,10 +5902,11 @@
       <c r="I26" s="66">
         <v>44875</v>
       </c>
-      <c r="J26" s="63"/>
+      <c r="J26" s="66"/>
       <c r="K26" s="63"/>
-    </row>
-    <row r="27" spans="2:11" hidden="1">
+      <c r="L26" s="63"/>
+    </row>
+    <row r="27" spans="2:12" hidden="1">
       <c r="B27" s="72">
         <v>27</v>
       </c>
@@ -5853,12 +5931,13 @@
       <c r="I27" s="73">
         <v>44875</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="73"/>
+      <c r="K27" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K27" s="72"/>
-    </row>
-    <row r="28" spans="2:11" hidden="1">
+      <c r="L27" s="72"/>
+    </row>
+    <row r="28" spans="2:12" hidden="1">
       <c r="B28" s="72">
         <v>29</v>
       </c>
@@ -5883,12 +5962,13 @@
       <c r="I28" s="73">
         <v>44875</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="73"/>
+      <c r="K28" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K28" s="72"/>
-    </row>
-    <row r="29" spans="2:11" hidden="1">
+      <c r="L28" s="72"/>
+    </row>
+    <row r="29" spans="2:12" hidden="1">
       <c r="B29" s="75">
         <v>34</v>
       </c>
@@ -5913,12 +5993,13 @@
       <c r="I29" s="76">
         <v>44875</v>
       </c>
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="76"/>
+      <c r="K29" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="K29" s="75"/>
-    </row>
-    <row r="30" spans="2:11">
+      <c r="L29" s="75"/>
+    </row>
+    <row r="30" spans="2:12">
       <c r="B30" s="75">
         <v>36</v>
       </c>
@@ -5943,12 +6024,13 @@
       <c r="I30" s="76">
         <v>44875</v>
       </c>
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="76"/>
+      <c r="K30" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="K30" s="75"/>
-    </row>
-    <row r="31" spans="2:11" hidden="1">
+      <c r="L30" s="75"/>
+    </row>
+    <row r="31" spans="2:12" hidden="1">
       <c r="B31" s="4">
         <v>37</v>
       </c>
@@ -5973,14 +6055,15 @@
       <c r="I31" s="69">
         <v>44879</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="69"/>
+      <c r="K31" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1">
+    <row r="32" spans="2:12" hidden="1">
       <c r="B32" s="4">
         <v>25</v>
       </c>
@@ -6005,12 +6088,13 @@
       <c r="I32" s="69">
         <v>44881</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="69"/>
+      <c r="K32" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="2:11" hidden="1">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="2:12" hidden="1">
       <c r="B33" s="72">
         <v>31</v>
       </c>
@@ -6035,12 +6119,13 @@
       <c r="I33" s="73">
         <v>44881</v>
       </c>
-      <c r="J33" s="72" t="s">
+      <c r="J33" s="73"/>
+      <c r="K33" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K33" s="72"/>
-    </row>
-    <row r="34" spans="2:11" hidden="1">
+      <c r="L33" s="72"/>
+    </row>
+    <row r="34" spans="2:12" hidden="1">
       <c r="B34" s="72">
         <v>33</v>
       </c>
@@ -6065,12 +6150,13 @@
       <c r="I34" s="73">
         <v>44881</v>
       </c>
-      <c r="J34" s="72" t="s">
+      <c r="J34" s="73"/>
+      <c r="K34" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K34" s="72"/>
-    </row>
-    <row r="35" spans="2:11" hidden="1">
+      <c r="L34" s="72"/>
+    </row>
+    <row r="35" spans="2:12" hidden="1">
       <c r="B35" s="72">
         <v>35</v>
       </c>
@@ -6095,12 +6181,13 @@
       <c r="I35" s="73">
         <v>44881</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="73"/>
+      <c r="K35" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K35" s="72"/>
-    </row>
-    <row r="36" spans="2:11" hidden="1">
+      <c r="L35" s="72"/>
+    </row>
+    <row r="36" spans="2:12" hidden="1">
       <c r="B36" s="75">
         <v>39</v>
       </c>
@@ -6125,14 +6212,15 @@
       <c r="I36" s="76">
         <v>44881</v>
       </c>
-      <c r="J36" s="75" t="s">
+      <c r="J36" s="76"/>
+      <c r="K36" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="K36" s="75" t="s">
+      <c r="L36" s="75" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
+    <row r="37" spans="2:12" hidden="1">
       <c r="B37" s="75">
         <v>41</v>
       </c>
@@ -6157,14 +6245,15 @@
       <c r="I37" s="76">
         <v>44881</v>
       </c>
-      <c r="J37" s="75" t="s">
+      <c r="J37" s="76"/>
+      <c r="K37" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="K37" s="75" t="s">
+      <c r="L37" s="75" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
+    <row r="38" spans="2:12" hidden="1">
       <c r="B38" s="72">
         <v>43</v>
       </c>
@@ -6189,12 +6278,13 @@
       <c r="I38" s="73">
         <v>44881</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="J38" s="73"/>
+      <c r="K38" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K38" s="72"/>
-    </row>
-    <row r="39" spans="2:11" hidden="1">
+      <c r="L38" s="72"/>
+    </row>
+    <row r="39" spans="2:12" hidden="1">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -6219,12 +6309,13 @@
       <c r="I39" s="64">
         <v>44882</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="64"/>
+      <c r="K39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="2:11">
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="2:12">
       <c r="B40" s="1">
         <v>40</v>
       </c>
@@ -6249,14 +6340,15 @@
       <c r="I40" s="64">
         <v>44882</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="64"/>
+      <c r="K40" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1">
+    <row r="41" spans="2:12" hidden="1">
       <c r="B41" s="1">
         <v>42</v>
       </c>
@@ -6281,12 +6373,13 @@
       <c r="I41" s="64">
         <v>44882</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="64"/>
+      <c r="K41" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="2:11">
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="2:12">
       <c r="B42" s="1">
         <v>44</v>
       </c>
@@ -6311,14 +6404,15 @@
       <c r="I42" s="64">
         <v>44882</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="64"/>
+      <c r="K42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1">
+    <row r="43" spans="2:12" hidden="1">
       <c r="B43" s="72">
         <v>45</v>
       </c>
@@ -6343,12 +6437,13 @@
       <c r="I43" s="73">
         <v>44882</v>
       </c>
-      <c r="J43" s="72" t="s">
+      <c r="J43" s="73"/>
+      <c r="K43" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K43" s="72"/>
-    </row>
-    <row r="44" spans="2:11" hidden="1">
+      <c r="L43" s="72"/>
+    </row>
+    <row r="44" spans="2:12" hidden="1">
       <c r="B44" s="75">
         <v>47</v>
       </c>
@@ -6373,14 +6468,15 @@
       <c r="I44" s="76">
         <v>44882</v>
       </c>
-      <c r="J44" s="75" t="s">
+      <c r="J44" s="76"/>
+      <c r="K44" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="K44" s="75" t="s">
+      <c r="L44" s="75" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1">
+    <row r="45" spans="2:12" hidden="1">
       <c r="B45" s="75">
         <v>49</v>
       </c>
@@ -6405,14 +6501,15 @@
       <c r="I45" s="76">
         <v>44882</v>
       </c>
-      <c r="J45" s="75" t="s">
+      <c r="J45" s="76"/>
+      <c r="K45" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="K45" s="75" t="s">
+      <c r="L45" s="75" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1">
+    <row r="46" spans="2:12" hidden="1">
       <c r="B46" s="1">
         <v>46</v>
       </c>
@@ -6437,12 +6534,13 @@
       <c r="I46" s="64">
         <v>44883</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="64"/>
+      <c r="K46" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="2:11" hidden="1">
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="2:12" hidden="1">
       <c r="B47" s="1">
         <v>48</v>
       </c>
@@ -6467,14 +6565,15 @@
       <c r="I47" s="64">
         <v>44883</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="64"/>
+      <c r="K47" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1">
+    <row r="48" spans="2:12" hidden="1">
       <c r="B48" s="1">
         <v>50</v>
       </c>
@@ -6485,7 +6584,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>152</v>
@@ -6499,14 +6598,15 @@
       <c r="I48" s="64">
         <v>44883</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="64"/>
+      <c r="K48" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1">
+    <row r="49" spans="2:12" hidden="1">
       <c r="B49" s="72">
         <v>51</v>
       </c>
@@ -6531,12 +6631,13 @@
       <c r="I49" s="73">
         <v>44883</v>
       </c>
-      <c r="J49" s="72" t="s">
+      <c r="J49" s="73"/>
+      <c r="K49" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K49" s="72"/>
-    </row>
-    <row r="50" spans="2:11" hidden="1">
+      <c r="L49" s="72"/>
+    </row>
+    <row r="50" spans="2:12" hidden="1">
       <c r="B50" s="1">
         <v>52</v>
       </c>
@@ -6561,12 +6662,13 @@
       <c r="I50" s="64">
         <v>44883</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="64"/>
+      <c r="K50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="2:11" hidden="1">
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="2:12" hidden="1">
       <c r="B51" s="72">
         <v>53</v>
       </c>
@@ -6591,12 +6693,13 @@
       <c r="I51" s="73">
         <v>44883</v>
       </c>
-      <c r="J51" s="72" t="s">
+      <c r="J51" s="73"/>
+      <c r="K51" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K51" s="72"/>
-    </row>
-    <row r="52" spans="2:11" hidden="1">
+      <c r="L51" s="72"/>
+    </row>
+    <row r="52" spans="2:12" hidden="1">
       <c r="B52" s="1">
         <v>54</v>
       </c>
@@ -6621,14 +6724,15 @@
       <c r="I52" s="64">
         <v>44886</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="64"/>
+      <c r="K52" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1">
+    <row r="53" spans="2:12" hidden="1">
       <c r="B53" s="1">
         <v>55</v>
       </c>
@@ -6653,12 +6757,13 @@
       <c r="I53" s="64">
         <v>44886</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="64"/>
+      <c r="K53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="2:11" hidden="1">
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="2:12" hidden="1">
       <c r="B54" s="1">
         <v>56</v>
       </c>
@@ -6683,14 +6788,15 @@
       <c r="I54" s="64">
         <v>44886</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="64"/>
+      <c r="K54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1">
+    <row r="55" spans="2:12" hidden="1">
       <c r="B55" s="72">
         <v>57</v>
       </c>
@@ -6715,29 +6821,30 @@
       <c r="I55" s="73">
         <v>44886</v>
       </c>
-      <c r="J55" s="72" t="s">
+      <c r="J55" s="73"/>
+      <c r="K55" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K55" s="72"/>
-    </row>
-    <row r="56" spans="2:11">
+      <c r="L55" s="72"/>
+    </row>
+    <row r="56" spans="2:12" hidden="1">
       <c r="B56" s="1">
         <v>58</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="75" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>166</v>
+        <v>500</v>
       </c>
       <c r="H56" s="64">
         <v>44883</v>
@@ -6745,29 +6852,32 @@
       <c r="I56" s="64">
         <v>44886</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="64">
+        <v>44896</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="2:11">
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="2:12" hidden="1">
       <c r="B57" s="1">
         <v>60</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="75" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>166</v>
+        <v>500</v>
       </c>
       <c r="H57" s="64">
         <v>44883</v>
@@ -6775,12 +6885,15 @@
       <c r="I57" s="64">
         <v>44886</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="64">
+        <v>44896</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="2:11" hidden="1">
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="2:12" hidden="1">
       <c r="B58" s="1">
         <v>62</v>
       </c>
@@ -6805,14 +6918,15 @@
       <c r="I58" s="64">
         <v>44886</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="64"/>
+      <c r="K58" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1">
+    <row r="59" spans="2:12" hidden="1">
       <c r="B59" s="1">
         <v>64</v>
       </c>
@@ -6823,7 +6937,7 @@
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>152</v>
@@ -6837,14 +6951,15 @@
       <c r="I59" s="64">
         <v>44886</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="64"/>
+      <c r="K59" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1">
+    <row r="60" spans="2:12" hidden="1">
       <c r="B60" s="1">
         <v>66</v>
       </c>
@@ -6855,7 +6970,7 @@
         <v>27</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>152</v>
@@ -6869,14 +6984,15 @@
       <c r="I60" s="64">
         <v>44886</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="64"/>
+      <c r="K60" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1">
+    <row r="61" spans="2:12" hidden="1">
       <c r="B61" s="72">
         <v>59</v>
       </c>
@@ -6901,12 +7017,13 @@
       <c r="I61" s="73">
         <v>44887</v>
       </c>
-      <c r="J61" s="72" t="s">
+      <c r="J61" s="73"/>
+      <c r="K61" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="K61" s="72"/>
-    </row>
-    <row r="62" spans="2:11" hidden="1">
+      <c r="L61" s="72"/>
+    </row>
+    <row r="62" spans="2:12" hidden="1">
       <c r="B62" s="70">
         <v>61</v>
       </c>
@@ -6931,40 +7048,46 @@
       <c r="I62" s="71">
         <v>44887</v>
       </c>
-      <c r="J62" s="70" t="s">
+      <c r="J62" s="71"/>
+      <c r="K62" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="K62" s="70"/>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63" s="1">
+      <c r="L62" s="70"/>
+    </row>
+    <row r="63" spans="2:12" ht="28.8" hidden="1">
+      <c r="B63" s="118">
         <v>68</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="80" t="s">
+      <c r="D63" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
+      <c r="E63" s="118" t="s">
+        <v>502</v>
+      </c>
+      <c r="F63" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H63" s="64">
+      <c r="G63" s="118" t="s">
+        <v>503</v>
+      </c>
+      <c r="H63" s="120">
         <v>44887</v>
       </c>
-      <c r="I63" s="64">
+      <c r="I63" s="120">
         <v>44887</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="120"/>
+      <c r="K63" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="2:11" hidden="1">
+      <c r="L63" s="118" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" hidden="1">
       <c r="B64" s="1">
         <v>70</v>
       </c>
@@ -6989,12 +7112,13 @@
       <c r="I64" s="64">
         <v>44887</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="64"/>
+      <c r="K64" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="2:11" hidden="1">
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="2:12">
       <c r="B65" s="70">
         <v>63</v>
       </c>
@@ -7019,12 +7143,13 @@
       <c r="I65" s="71">
         <v>44888</v>
       </c>
-      <c r="J65" s="70" t="s">
+      <c r="J65" s="71"/>
+      <c r="K65" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="K65" s="70"/>
-    </row>
-    <row r="66" spans="2:11" hidden="1">
+      <c r="L65" s="70"/>
+    </row>
+    <row r="66" spans="2:12" hidden="1">
       <c r="B66" s="70">
         <v>65</v>
       </c>
@@ -7049,27 +7174,30 @@
       <c r="I66" s="71">
         <v>44888</v>
       </c>
-      <c r="J66" s="70" t="s">
+      <c r="J66" s="71"/>
+      <c r="K66" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="K66" s="70"/>
-    </row>
-    <row r="67" spans="2:11">
+      <c r="L66" s="70"/>
+    </row>
+    <row r="67" spans="2:12" hidden="1">
       <c r="B67" s="1">
         <v>72</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="80" t="s">
+      <c r="D67" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="F67" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>383</v>
+        <v>500</v>
       </c>
       <c r="H67" s="64">
         <v>44888</v>
@@ -7077,12 +7205,15 @@
       <c r="I67" s="64">
         <v>44888</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="64">
+        <v>44896</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="2:11">
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="2:12">
       <c r="B68" s="1">
         <v>74</v>
       </c>
@@ -7092,12 +7223,14 @@
       <c r="D68" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="F68" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="H68" s="64">
         <v>44888</v>
@@ -7105,12 +7238,13 @@
       <c r="I68" s="64">
         <v>44888</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="64"/>
+      <c r="K68" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="2:11" hidden="1">
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="2:12" hidden="1">
       <c r="B69" s="70">
         <v>67</v>
       </c>
@@ -7135,12 +7269,13 @@
       <c r="I69" s="71">
         <v>44889</v>
       </c>
-      <c r="J69" s="70" t="s">
+      <c r="J69" s="71"/>
+      <c r="K69" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="K69" s="70"/>
-    </row>
-    <row r="70" spans="2:11" hidden="1">
+      <c r="L69" s="70"/>
+    </row>
+    <row r="70" spans="2:12" hidden="1">
       <c r="B70" s="70">
         <v>69</v>
       </c>
@@ -7165,12 +7300,13 @@
       <c r="I70" s="71">
         <v>44889</v>
       </c>
-      <c r="J70" s="70" t="s">
+      <c r="J70" s="71"/>
+      <c r="K70" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="K70" s="70"/>
-    </row>
-    <row r="71" spans="2:11">
+      <c r="L70" s="70"/>
+    </row>
+    <row r="71" spans="2:12">
       <c r="B71" s="1">
         <v>76</v>
       </c>
@@ -7180,7 +7316,9 @@
       <c r="D71" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>502</v>
+      </c>
       <c r="F71" s="1" t="s">
         <v>152</v>
       </c>
@@ -7193,12 +7331,13 @@
       <c r="I71" s="64">
         <v>44889</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="64"/>
+      <c r="K71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="2:11" hidden="1">
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="2:12" hidden="1">
       <c r="B72" s="1">
         <v>78</v>
       </c>
@@ -7223,14 +7362,15 @@
       <c r="I72" s="64">
         <v>44889</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="64"/>
+      <c r="K72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1">
+    <row r="73" spans="2:12" hidden="1">
       <c r="B73" s="4">
         <v>71</v>
       </c>
@@ -7255,12 +7395,13 @@
       <c r="I73" s="69">
         <v>44890</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="69"/>
+      <c r="K73" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="2:11" hidden="1">
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="2:12" hidden="1">
       <c r="B74" s="4">
         <v>73</v>
       </c>
@@ -7285,12 +7426,13 @@
       <c r="I74" s="69">
         <v>44890</v>
       </c>
-      <c r="J74" s="4" t="s">
+      <c r="J74" s="69"/>
+      <c r="K74" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K74" s="4"/>
-    </row>
-    <row r="75" spans="2:11" hidden="1">
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="2:12" hidden="1">
       <c r="B75" s="70">
         <v>75</v>
       </c>
@@ -7315,12 +7457,13 @@
       <c r="I75" s="71">
         <v>44893</v>
       </c>
-      <c r="J75" s="70" t="s">
+      <c r="J75" s="71"/>
+      <c r="K75" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="K75" s="70"/>
-    </row>
-    <row r="76" spans="2:11" hidden="1">
+      <c r="L75" s="70"/>
+    </row>
+    <row r="76" spans="2:12" hidden="1">
       <c r="B76" s="70">
         <v>77</v>
       </c>
@@ -7345,12 +7488,13 @@
       <c r="I76" s="71">
         <v>44893</v>
       </c>
-      <c r="J76" s="70" t="s">
+      <c r="J76" s="71"/>
+      <c r="K76" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="K76" s="70"/>
-    </row>
-    <row r="77" spans="2:11">
+      <c r="L76" s="70"/>
+    </row>
+    <row r="77" spans="2:12">
       <c r="B77" s="1">
         <v>80</v>
       </c>
@@ -7375,12 +7519,13 @@
       <c r="I77" s="64">
         <v>44893</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="64"/>
+      <c r="K77" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="2:11" hidden="1">
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="2:12" hidden="1">
       <c r="B78" s="1">
         <v>82</v>
       </c>
@@ -7403,14 +7548,15 @@
       <c r="I78" s="64">
         <v>44893</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" s="64"/>
+      <c r="K78" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1">
+    <row r="79" spans="2:12" hidden="1">
       <c r="B79" s="1">
         <v>79</v>
       </c>
@@ -7435,12 +7581,13 @@
       <c r="I79" s="64">
         <v>44894</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="64"/>
+      <c r="K79" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="2:11" hidden="1">
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="2:12" hidden="1">
       <c r="B80" s="1">
         <v>81</v>
       </c>
@@ -7465,12 +7612,13 @@
       <c r="I80" s="64">
         <v>44894</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="64"/>
+      <c r="K80" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="2:11" hidden="1">
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="2:12" hidden="1">
       <c r="B81" s="1">
         <v>84</v>
       </c>
@@ -7493,14 +7641,15 @@
       <c r="I81" s="64">
         <v>44894</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="64"/>
+      <c r="K81" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:12">
       <c r="B82" s="1">
         <v>86</v>
       </c>
@@ -7510,7 +7659,9 @@
       <c r="D82" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="F82" s="1" t="s">
         <v>152</v>
       </c>
@@ -7523,12 +7674,13 @@
       <c r="I82" s="64">
         <v>44894</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" s="64"/>
+      <c r="K82" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="2:11" hidden="1">
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="2:12" hidden="1">
       <c r="B83" s="1">
         <v>83</v>
       </c>
@@ -7553,12 +7705,13 @@
       <c r="I83" s="64">
         <v>44895</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="64"/>
+      <c r="K83" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="2:11" hidden="1">
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="2:12" hidden="1">
       <c r="B84" s="1">
         <v>85</v>
       </c>
@@ -7583,42 +7736,46 @@
       <c r="I84" s="64">
         <v>44895</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="64"/>
+      <c r="K84" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="2:11">
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="2:12">
       <c r="B85" s="1">
         <v>88</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
+      <c r="E85" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F85" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H85" s="64">
+      <c r="G85" s="118" t="s">
+        <v>383</v>
+      </c>
+      <c r="H85" s="120">
         <v>44895</v>
       </c>
-      <c r="I85" s="64">
+      <c r="I85" s="120">
         <v>44895</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="120"/>
+      <c r="K85" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="L85" s="118" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:12">
       <c r="B86" s="1">
         <v>90</v>
       </c>
@@ -7628,7 +7785,9 @@
       <c r="D86" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>152</v>
       </c>
@@ -7641,12 +7800,13 @@
       <c r="I86" s="64">
         <v>44895</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" s="64"/>
+      <c r="K86" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="2:11" customFormat="1" hidden="1">
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="2:12" customFormat="1" hidden="1">
       <c r="B87" s="1">
         <v>87</v>
       </c>
@@ -7663,7 +7823,7 @@
         <v>161</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>383</v>
+        <v>506</v>
       </c>
       <c r="H87" s="64">
         <v>44896</v>
@@ -7671,12 +7831,13 @@
       <c r="I87" s="64">
         <v>44896</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" s="64"/>
+      <c r="K87" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="2:11" customFormat="1" hidden="1">
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="2:12" customFormat="1" hidden="1">
       <c r="B88" s="1">
         <v>89</v>
       </c>
@@ -7693,7 +7854,7 @@
         <v>161</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>383</v>
+        <v>506</v>
       </c>
       <c r="H88" s="64">
         <v>44896</v>
@@ -7701,12 +7862,13 @@
       <c r="I88" s="64">
         <v>44896</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" s="64"/>
+      <c r="K88" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="2:11" customFormat="1">
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="2:12" customFormat="1">
       <c r="B89" s="1">
         <v>92</v>
       </c>
@@ -7716,7 +7878,9 @@
       <c r="D89" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="F89" s="1" t="s">
         <v>152</v>
       </c>
@@ -7729,12 +7893,13 @@
       <c r="I89" s="64">
         <v>44896</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" s="64"/>
+      <c r="K89" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="2:11" customFormat="1">
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="2:12" customFormat="1">
       <c r="B90" s="1">
         <v>94</v>
       </c>
@@ -7744,7 +7909,9 @@
       <c r="D90" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="F90" s="1" t="s">
         <v>152</v>
       </c>
@@ -7757,12 +7924,13 @@
       <c r="I90" s="64">
         <v>44896</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" s="64"/>
+      <c r="K90" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="2:11" customFormat="1" hidden="1">
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="2:12" customFormat="1">
       <c r="B91" s="1">
         <v>91</v>
       </c>
@@ -7772,7 +7940,9 @@
       <c r="D91" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="F91" s="1" t="s">
         <v>161</v>
       </c>
@@ -7785,12 +7955,13 @@
       <c r="I91" s="64">
         <v>44897</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="64"/>
+      <c r="K91" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="2:11" customFormat="1" hidden="1">
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="2:12" customFormat="1">
       <c r="B92" s="1">
         <v>93</v>
       </c>
@@ -7800,7 +7971,9 @@
       <c r="D92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="F92" s="1" t="s">
         <v>161</v>
       </c>
@@ -7813,12 +7986,13 @@
       <c r="I92" s="64">
         <v>44897</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="64"/>
+      <c r="K92" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="2:11" customFormat="1" hidden="1">
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="2:12" customFormat="1">
       <c r="B93" s="1">
         <v>96</v>
       </c>
@@ -7841,12 +8015,13 @@
       <c r="I93" s="64">
         <v>44897</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="64"/>
+      <c r="K93" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="2:11" customFormat="1" hidden="1">
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="2:12" customFormat="1">
       <c r="B94" s="1">
         <v>98</v>
       </c>
@@ -7869,12 +8044,13 @@
       <c r="I94" s="64">
         <v>44897</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J94" s="64"/>
+      <c r="K94" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="2:11" customFormat="1" hidden="1">
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="2:12" customFormat="1" hidden="1">
       <c r="B95" s="1">
         <v>95</v>
       </c>
@@ -7897,12 +8073,13 @@
       <c r="I95" s="64">
         <v>44900</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="64"/>
+      <c r="K95" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="2:11" customFormat="1" hidden="1">
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="2:12" customFormat="1" hidden="1">
       <c r="B96" s="1">
         <v>97</v>
       </c>
@@ -7925,12 +8102,13 @@
       <c r="I96" s="64">
         <v>44900</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" s="64"/>
+      <c r="K96" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="2:11" customFormat="1" hidden="1">
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="2:12" customFormat="1" hidden="1">
       <c r="B97" s="1">
         <v>100</v>
       </c>
@@ -7953,12 +8131,13 @@
       <c r="I97" s="64">
         <v>44900</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" s="64"/>
+      <c r="K97" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="2:11" customFormat="1" hidden="1">
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="2:12" customFormat="1" hidden="1">
       <c r="B98" s="1">
         <v>102</v>
       </c>
@@ -7981,12 +8160,13 @@
       <c r="I98" s="64">
         <v>44900</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" s="64"/>
+      <c r="K98" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="2:11" customFormat="1" hidden="1">
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="2:12" customFormat="1" hidden="1">
       <c r="B99" s="1">
         <v>99</v>
       </c>
@@ -8009,12 +8189,13 @@
       <c r="I99" s="64">
         <v>44901</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="J99" s="64"/>
+      <c r="K99" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="2:11" customFormat="1" hidden="1">
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="2:12" customFormat="1" hidden="1">
       <c r="B100" s="1">
         <v>101</v>
       </c>
@@ -8037,12 +8218,13 @@
       <c r="I100" s="64">
         <v>44901</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J100" s="64"/>
+      <c r="K100" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="2:11" customFormat="1" hidden="1">
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="2:12" customFormat="1" hidden="1">
       <c r="B101" s="1">
         <v>104</v>
       </c>
@@ -8065,12 +8247,13 @@
       <c r="I101" s="64">
         <v>44901</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="J101" s="64"/>
+      <c r="K101" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K101" s="1"/>
-    </row>
-    <row r="102" spans="2:11" customFormat="1" hidden="1">
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="2:12" customFormat="1" hidden="1">
       <c r="B102" s="1">
         <v>106</v>
       </c>
@@ -8093,12 +8276,13 @@
       <c r="I102" s="64">
         <v>44901</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="J102" s="64"/>
+      <c r="K102" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="2:11" customFormat="1" hidden="1">
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="2:12" customFormat="1" hidden="1">
       <c r="B103" s="1">
         <v>103</v>
       </c>
@@ -8121,12 +8305,13 @@
       <c r="I103" s="64">
         <v>44902</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="J103" s="64"/>
+      <c r="K103" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="2:11" customFormat="1" hidden="1">
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="2:12" customFormat="1" hidden="1">
       <c r="B104" s="1">
         <v>105</v>
       </c>
@@ -8149,12 +8334,13 @@
       <c r="I104" s="64">
         <v>44902</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="J104" s="64"/>
+      <c r="K104" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="2:11" customFormat="1" hidden="1">
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="2:12" customFormat="1" hidden="1">
       <c r="B105" s="1">
         <v>108</v>
       </c>
@@ -8177,12 +8363,13 @@
       <c r="I105" s="64">
         <v>44902</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="J105" s="64"/>
+      <c r="K105" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="2:11" customFormat="1" hidden="1">
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="2:12" customFormat="1" hidden="1">
       <c r="B106" s="1">
         <v>110</v>
       </c>
@@ -8205,12 +8392,13 @@
       <c r="I106" s="64">
         <v>44902</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="J106" s="64"/>
+      <c r="K106" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="2:11" customFormat="1" hidden="1">
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="2:12" customFormat="1" hidden="1">
       <c r="B107" s="1">
         <v>107</v>
       </c>
@@ -8233,12 +8421,13 @@
       <c r="I107" s="64">
         <v>44903</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="J107" s="64"/>
+      <c r="K107" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="2:11" customFormat="1" hidden="1">
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="2:12" customFormat="1" hidden="1">
       <c r="B108" s="1">
         <v>109</v>
       </c>
@@ -8261,12 +8450,13 @@
       <c r="I108" s="64">
         <v>44903</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="J108" s="64"/>
+      <c r="K108" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="2:11" customFormat="1" hidden="1">
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="2:12" customFormat="1" hidden="1">
       <c r="B109" s="1">
         <v>112</v>
       </c>
@@ -8289,12 +8479,13 @@
       <c r="I109" s="64">
         <v>44903</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="J109" s="64"/>
+      <c r="K109" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="2:11" customFormat="1" hidden="1">
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="2:12" customFormat="1" hidden="1">
       <c r="B110" s="1">
         <v>114</v>
       </c>
@@ -8317,12 +8508,13 @@
       <c r="I110" s="64">
         <v>44903</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="J110" s="64"/>
+      <c r="K110" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="2:11" customFormat="1" hidden="1">
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="2:12" customFormat="1" hidden="1">
       <c r="B111" s="1">
         <v>111</v>
       </c>
@@ -8345,12 +8537,13 @@
       <c r="I111" s="64">
         <v>44904</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="J111" s="64"/>
+      <c r="K111" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K111" s="1"/>
-    </row>
-    <row r="112" spans="2:11" customFormat="1" hidden="1">
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="2:12" customFormat="1" hidden="1">
       <c r="B112" s="1">
         <v>116</v>
       </c>
@@ -8373,12 +8566,13 @@
       <c r="I112" s="64">
         <v>44904</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="J112" s="64"/>
+      <c r="K112" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="2:11" customFormat="1" hidden="1">
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="2:12" customFormat="1" hidden="1">
       <c r="B113" s="1">
         <v>118</v>
       </c>
@@ -8401,12 +8595,13 @@
       <c r="I113" s="64">
         <v>44904</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="J113" s="64"/>
+      <c r="K113" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K113" s="1"/>
-    </row>
-    <row r="114" spans="2:11" customFormat="1" hidden="1">
+      <c r="L113" s="1"/>
+    </row>
+    <row r="114" spans="2:12" customFormat="1" hidden="1">
       <c r="B114" s="1">
         <v>113</v>
       </c>
@@ -8429,12 +8624,13 @@
       <c r="I114" s="64">
         <v>44907</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="J114" s="64"/>
+      <c r="K114" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K114" s="1"/>
-    </row>
-    <row r="115" spans="2:11" customFormat="1" hidden="1">
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="2:12" customFormat="1" hidden="1">
       <c r="B115" s="1">
         <v>115</v>
       </c>
@@ -8457,12 +8653,13 @@
       <c r="I115" s="64">
         <v>44907</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="J115" s="64"/>
+      <c r="K115" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="2:11" customFormat="1" hidden="1">
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="2:12" customFormat="1" hidden="1">
       <c r="B116" s="1">
         <v>120</v>
       </c>
@@ -8485,12 +8682,13 @@
       <c r="I116" s="64">
         <v>44907</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="J116" s="64"/>
+      <c r="K116" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="2:11" customFormat="1" ht="28.8" hidden="1">
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="2:12" customFormat="1" ht="28.8" hidden="1">
       <c r="B117" s="1">
         <v>122</v>
       </c>
@@ -8513,12 +8711,13 @@
       <c r="I117" s="64">
         <v>44907</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="J117" s="64"/>
+      <c r="K117" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="2:11" customFormat="1" hidden="1">
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="2:12" customFormat="1" hidden="1">
       <c r="B118" s="1">
         <v>117</v>
       </c>
@@ -8541,12 +8740,13 @@
       <c r="I118" s="64">
         <v>44908</v>
       </c>
-      <c r="J118" s="1" t="s">
+      <c r="J118" s="64"/>
+      <c r="K118" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K118" s="1"/>
-    </row>
-    <row r="119" spans="2:11" customFormat="1" hidden="1">
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="2:12" customFormat="1" hidden="1">
       <c r="B119" s="1">
         <v>119</v>
       </c>
@@ -8569,12 +8769,13 @@
       <c r="I119" s="64">
         <v>44908</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="J119" s="64"/>
+      <c r="K119" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="2:11" customFormat="1" ht="28.8" hidden="1">
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="2:12" customFormat="1" ht="28.8" hidden="1">
       <c r="B120" s="1">
         <v>124</v>
       </c>
@@ -8597,12 +8798,13 @@
       <c r="I120" s="64">
         <v>44908</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="J120" s="64"/>
+      <c r="K120" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="2:11" customFormat="1" ht="28.8" hidden="1">
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="2:12" customFormat="1" ht="28.8" hidden="1">
       <c r="B121" s="1">
         <v>121</v>
       </c>
@@ -8625,12 +8827,13 @@
       <c r="I121" s="64">
         <v>44909</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="J121" s="64"/>
+      <c r="K121" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="2:11" customFormat="1" ht="28.8" hidden="1">
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="2:12" customFormat="1" ht="28.8" hidden="1">
       <c r="B122" s="1">
         <v>123</v>
       </c>
@@ -8653,12 +8856,13 @@
       <c r="I122" s="64">
         <v>44909</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="J122" s="64"/>
+      <c r="K122" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K122" s="1"/>
-    </row>
-    <row r="123" spans="2:11" customFormat="1" hidden="1">
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="2:12" customFormat="1" hidden="1">
       <c r="B123" s="1">
         <v>125</v>
       </c>
@@ -8681,12 +8885,13 @@
       <c r="I123" s="64">
         <v>44911</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="J123" s="64"/>
+      <c r="K123" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K123" s="1"/>
-    </row>
-    <row r="124" spans="2:11" customFormat="1" ht="28.8" hidden="1">
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="2:12" customFormat="1" ht="28.8" hidden="1">
       <c r="B124" s="1">
         <v>127</v>
       </c>
@@ -8709,12 +8914,13 @@
       <c r="I124" s="64">
         <v>44911</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="J124" s="64"/>
+      <c r="K124" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K124" s="1"/>
-    </row>
-    <row r="125" spans="2:11" customFormat="1" hidden="1">
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="2:12" customFormat="1" hidden="1">
       <c r="B125" s="1">
         <v>126</v>
       </c>
@@ -8737,12 +8943,13 @@
       <c r="I125" s="64">
         <v>44914</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="J125" s="64"/>
+      <c r="K125" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="2:11" customFormat="1" ht="28.8" hidden="1">
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="2:12" customFormat="1" ht="28.8" hidden="1">
       <c r="B126" s="1">
         <v>128</v>
       </c>
@@ -8765,12 +8972,13 @@
       <c r="I126" s="64">
         <v>44914</v>
       </c>
-      <c r="J126" s="1" t="s">
+      <c r="J126" s="64"/>
+      <c r="K126" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K126" s="1"/>
-    </row>
-    <row r="127" spans="2:11" customFormat="1" hidden="1">
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="2:12" customFormat="1" hidden="1">
       <c r="B127" s="1">
         <v>129</v>
       </c>
@@ -8793,12 +9001,13 @@
       <c r="I127" s="64">
         <v>44914</v>
       </c>
-      <c r="J127" s="1" t="s">
+      <c r="J127" s="64"/>
+      <c r="K127" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K127" s="1"/>
-    </row>
-    <row r="128" spans="2:11" customFormat="1" hidden="1">
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="2:12" customFormat="1" hidden="1">
       <c r="B128" s="1">
         <v>131</v>
       </c>
@@ -8821,12 +9030,13 @@
       <c r="I128" s="64">
         <v>44914</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="J128" s="64"/>
+      <c r="K128" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K128" s="1"/>
-    </row>
-    <row r="129" spans="2:11" customFormat="1" hidden="1">
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="2:12" customFormat="1" hidden="1">
       <c r="B129" s="1">
         <v>130</v>
       </c>
@@ -8849,12 +9059,13 @@
       <c r="I129" s="64">
         <v>44915</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="J129" s="64"/>
+      <c r="K129" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K129" s="1"/>
-    </row>
-    <row r="130" spans="2:11" customFormat="1" hidden="1">
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="2:12" customFormat="1" hidden="1">
       <c r="B130" s="1">
         <v>132</v>
       </c>
@@ -8877,12 +9088,13 @@
       <c r="I130" s="64">
         <v>44915</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="J130" s="64"/>
+      <c r="K130" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K130" s="1"/>
-    </row>
-    <row r="131" spans="2:11" customFormat="1" ht="28.8" hidden="1">
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="2:12" customFormat="1" ht="28.8" hidden="1">
       <c r="B131" s="1">
         <v>133</v>
       </c>
@@ -8905,12 +9117,13 @@
       <c r="I131" s="64">
         <v>44915</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="J131" s="64"/>
+      <c r="K131" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K131" s="1"/>
-    </row>
-    <row r="132" spans="2:11" customFormat="1" hidden="1">
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="2:12" customFormat="1" hidden="1">
       <c r="B132" s="1">
         <v>135</v>
       </c>
@@ -8933,12 +9146,13 @@
       <c r="I132" s="64">
         <v>44915</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="J132" s="64"/>
+      <c r="K132" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K132" s="1"/>
-    </row>
-    <row r="133" spans="2:11" customFormat="1" ht="28.8" hidden="1">
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="2:12" customFormat="1" ht="28.8" hidden="1">
       <c r="B133" s="1">
         <v>134</v>
       </c>
@@ -8961,12 +9175,13 @@
       <c r="I133" s="64">
         <v>44916</v>
       </c>
-      <c r="J133" s="1" t="s">
+      <c r="J133" s="64"/>
+      <c r="K133" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K133" s="1"/>
-    </row>
-    <row r="134" spans="2:11" customFormat="1" hidden="1">
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="2:12" customFormat="1" hidden="1">
       <c r="B134" s="1">
         <v>136</v>
       </c>
@@ -8989,12 +9204,13 @@
       <c r="I134" s="64">
         <v>44916</v>
       </c>
-      <c r="J134" s="1" t="s">
+      <c r="J134" s="64"/>
+      <c r="K134" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K134" s="1"/>
-    </row>
-    <row r="135" spans="2:11" customFormat="1" hidden="1">
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="2:12" customFormat="1" hidden="1">
       <c r="B135" s="70">
         <v>20</v>
       </c>
@@ -9017,12 +9233,13 @@
       <c r="I135" s="71">
         <v>44916</v>
       </c>
-      <c r="J135" s="70" t="s">
+      <c r="J135" s="71"/>
+      <c r="K135" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="K135" s="70"/>
-    </row>
-    <row r="136" spans="2:11" customFormat="1" hidden="1">
+      <c r="L135" s="70"/>
+    </row>
+    <row r="136" spans="2:12" customFormat="1" hidden="1">
       <c r="B136" s="70">
         <v>21</v>
       </c>
@@ -9045,12 +9262,13 @@
       <c r="I136" s="71">
         <v>44916</v>
       </c>
-      <c r="J136" s="70" t="s">
+      <c r="J136" s="71"/>
+      <c r="K136" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="K136" s="70"/>
-    </row>
-    <row r="137" spans="2:11" customFormat="1" hidden="1">
+      <c r="L136" s="70"/>
+    </row>
+    <row r="137" spans="2:12" customFormat="1" hidden="1">
       <c r="B137" s="1">
         <v>137</v>
       </c>
@@ -9073,12 +9291,13 @@
       <c r="I137" s="64">
         <v>44916</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="J137" s="64"/>
+      <c r="K137" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K137" s="1"/>
-    </row>
-    <row r="138" spans="2:11" customFormat="1" hidden="1">
+      <c r="L137" s="1"/>
+    </row>
+    <row r="138" spans="2:12" customFormat="1" hidden="1">
       <c r="B138" s="1">
         <v>139</v>
       </c>
@@ -9101,12 +9320,13 @@
       <c r="I138" s="64">
         <v>44916</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="J138" s="64"/>
+      <c r="K138" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K138" s="1"/>
-    </row>
-    <row r="139" spans="2:11" customFormat="1" hidden="1">
+      <c r="L138" s="1"/>
+    </row>
+    <row r="139" spans="2:12" customFormat="1" hidden="1">
       <c r="B139" s="1">
         <v>138</v>
       </c>
@@ -9129,12 +9349,13 @@
       <c r="I139" s="64">
         <v>44917</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="J139" s="64"/>
+      <c r="K139" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K139" s="1"/>
-    </row>
-    <row r="140" spans="2:11" customFormat="1" hidden="1">
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="2:12" customFormat="1" hidden="1">
       <c r="B140" s="1">
         <v>140</v>
       </c>
@@ -9157,12 +9378,13 @@
       <c r="I140" s="64">
         <v>44917</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="J140" s="64"/>
+      <c r="K140" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K140" s="1"/>
-    </row>
-    <row r="141" spans="2:11" customFormat="1" hidden="1">
+      <c r="L140" s="1"/>
+    </row>
+    <row r="141" spans="2:12" customFormat="1" hidden="1">
       <c r="B141" s="1">
         <v>141</v>
       </c>
@@ -9185,12 +9407,13 @@
       <c r="I141" s="64">
         <v>44917</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="J141" s="64"/>
+      <c r="K141" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K141" s="1"/>
-    </row>
-    <row r="142" spans="2:11" customFormat="1" hidden="1">
+      <c r="L141" s="1"/>
+    </row>
+    <row r="142" spans="2:12" customFormat="1" hidden="1">
       <c r="B142" s="1">
         <v>143</v>
       </c>
@@ -9213,12 +9436,13 @@
       <c r="I142" s="64">
         <v>44917</v>
       </c>
-      <c r="J142" s="1" t="s">
+      <c r="J142" s="64"/>
+      <c r="K142" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K142" s="1"/>
-    </row>
-    <row r="143" spans="2:11" customFormat="1" hidden="1">
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="2:12" customFormat="1" hidden="1">
       <c r="B143" s="1">
         <v>142</v>
       </c>
@@ -9241,12 +9465,13 @@
       <c r="I143" s="64">
         <v>44918</v>
       </c>
-      <c r="J143" s="1" t="s">
+      <c r="J143" s="64"/>
+      <c r="K143" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K143" s="1"/>
-    </row>
-    <row r="144" spans="2:11" customFormat="1" hidden="1">
+      <c r="L143" s="1"/>
+    </row>
+    <row r="144" spans="2:12" customFormat="1" hidden="1">
       <c r="B144" s="1">
         <v>144</v>
       </c>
@@ -9269,12 +9494,13 @@
       <c r="I144" s="64">
         <v>44918</v>
       </c>
-      <c r="J144" s="1" t="s">
+      <c r="J144" s="64"/>
+      <c r="K144" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K144" s="1"/>
-    </row>
-    <row r="145" spans="2:11" customFormat="1" hidden="1">
+      <c r="L144" s="1"/>
+    </row>
+    <row r="145" spans="2:12" customFormat="1" hidden="1">
       <c r="B145" s="1">
         <v>145</v>
       </c>
@@ -9297,12 +9523,13 @@
       <c r="I145" s="64">
         <v>44918</v>
       </c>
-      <c r="J145" s="1" t="s">
+      <c r="J145" s="64"/>
+      <c r="K145" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K145" s="1"/>
-    </row>
-    <row r="146" spans="2:11" customFormat="1" hidden="1">
+      <c r="L145" s="1"/>
+    </row>
+    <row r="146" spans="2:12" customFormat="1" hidden="1">
       <c r="B146" s="1">
         <v>147</v>
       </c>
@@ -9325,12 +9552,13 @@
       <c r="I146" s="64">
         <v>44918</v>
       </c>
-      <c r="J146" s="1" t="s">
+      <c r="J146" s="64"/>
+      <c r="K146" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K146" s="1"/>
-    </row>
-    <row r="147" spans="2:11" customFormat="1" hidden="1">
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="2:12" customFormat="1" hidden="1">
       <c r="B147" s="1">
         <v>146</v>
       </c>
@@ -9353,12 +9581,13 @@
       <c r="I147" s="64">
         <v>44921</v>
       </c>
-      <c r="J147" s="1" t="s">
+      <c r="J147" s="64"/>
+      <c r="K147" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K147" s="1"/>
-    </row>
-    <row r="148" spans="2:11" customFormat="1" hidden="1">
+      <c r="L147" s="1"/>
+    </row>
+    <row r="148" spans="2:12" customFormat="1" hidden="1">
       <c r="B148" s="1">
         <v>148</v>
       </c>
@@ -9381,12 +9610,13 @@
       <c r="I148" s="64">
         <v>44921</v>
       </c>
-      <c r="J148" s="1" t="s">
+      <c r="J148" s="64"/>
+      <c r="K148" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K148" s="1"/>
-    </row>
-    <row r="149" spans="2:11" customFormat="1" hidden="1">
+      <c r="L148" s="1"/>
+    </row>
+    <row r="149" spans="2:12" customFormat="1" hidden="1">
       <c r="B149" s="1">
         <v>149</v>
       </c>
@@ -9409,12 +9639,13 @@
       <c r="I149" s="64">
         <v>44921</v>
       </c>
-      <c r="J149" s="1" t="s">
+      <c r="J149" s="64"/>
+      <c r="K149" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K149" s="1"/>
-    </row>
-    <row r="150" spans="2:11" customFormat="1" hidden="1">
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="2:12" customFormat="1" hidden="1">
       <c r="B150" s="1">
         <v>151</v>
       </c>
@@ -9437,12 +9668,13 @@
       <c r="I150" s="64">
         <v>44921</v>
       </c>
-      <c r="J150" s="1" t="s">
+      <c r="J150" s="64"/>
+      <c r="K150" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K150" s="1"/>
-    </row>
-    <row r="151" spans="2:11" customFormat="1" hidden="1">
+      <c r="L150" s="1"/>
+    </row>
+    <row r="151" spans="2:12" customFormat="1" hidden="1">
       <c r="B151" s="1">
         <v>150</v>
       </c>
@@ -9465,12 +9697,13 @@
       <c r="I151" s="64">
         <v>44922</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="J151" s="64"/>
+      <c r="K151" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K151" s="1"/>
-    </row>
-    <row r="152" spans="2:11" customFormat="1" hidden="1">
+      <c r="L151" s="1"/>
+    </row>
+    <row r="152" spans="2:12" customFormat="1" hidden="1">
       <c r="B152" s="1">
         <v>152</v>
       </c>
@@ -9493,12 +9726,13 @@
       <c r="I152" s="64">
         <v>44922</v>
       </c>
-      <c r="J152" s="1" t="s">
+      <c r="J152" s="64"/>
+      <c r="K152" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K152" s="1"/>
-    </row>
-    <row r="153" spans="2:11" customFormat="1" hidden="1">
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="2:12" customFormat="1" hidden="1">
       <c r="B153" s="1">
         <v>153</v>
       </c>
@@ -9521,12 +9755,13 @@
       <c r="I153" s="64">
         <v>44922</v>
       </c>
-      <c r="J153" s="1" t="s">
+      <c r="J153" s="64"/>
+      <c r="K153" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K153" s="1"/>
-    </row>
-    <row r="154" spans="2:11" customFormat="1" hidden="1">
+      <c r="L153" s="1"/>
+    </row>
+    <row r="154" spans="2:12" customFormat="1" hidden="1">
       <c r="B154" s="1">
         <v>155</v>
       </c>
@@ -9549,12 +9784,13 @@
       <c r="I154" s="64">
         <v>44922</v>
       </c>
-      <c r="J154" s="1" t="s">
+      <c r="J154" s="64"/>
+      <c r="K154" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K154" s="1"/>
-    </row>
-    <row r="155" spans="2:11" customFormat="1" hidden="1">
+      <c r="L154" s="1"/>
+    </row>
+    <row r="155" spans="2:12" customFormat="1" hidden="1">
       <c r="B155" s="1">
         <v>154</v>
       </c>
@@ -9577,12 +9813,13 @@
       <c r="I155" s="64">
         <v>44923</v>
       </c>
-      <c r="J155" s="1" t="s">
+      <c r="J155" s="64"/>
+      <c r="K155" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K155" s="1"/>
-    </row>
-    <row r="156" spans="2:11" customFormat="1" hidden="1">
+      <c r="L155" s="1"/>
+    </row>
+    <row r="156" spans="2:12" customFormat="1" hidden="1">
       <c r="B156" s="1">
         <v>156</v>
       </c>
@@ -9605,12 +9842,13 @@
       <c r="I156" s="64">
         <v>44923</v>
       </c>
-      <c r="J156" s="1" t="s">
+      <c r="J156" s="64"/>
+      <c r="K156" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K156" s="1"/>
-    </row>
-    <row r="157" spans="2:11" customFormat="1" hidden="1">
+      <c r="L156" s="1"/>
+    </row>
+    <row r="157" spans="2:12" customFormat="1" hidden="1">
       <c r="B157" s="1">
         <v>157</v>
       </c>
@@ -9633,12 +9871,13 @@
       <c r="I157" s="64">
         <v>44923</v>
       </c>
-      <c r="J157" s="1" t="s">
+      <c r="J157" s="64"/>
+      <c r="K157" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K157" s="1"/>
-    </row>
-    <row r="158" spans="2:11" customFormat="1" hidden="1">
+      <c r="L157" s="1"/>
+    </row>
+    <row r="158" spans="2:12" customFormat="1" hidden="1">
       <c r="B158" s="1">
         <v>158</v>
       </c>
@@ -9661,12 +9900,13 @@
       <c r="I158" s="64">
         <v>44924</v>
       </c>
-      <c r="J158" s="1" t="s">
+      <c r="J158" s="64"/>
+      <c r="K158" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K158" s="1"/>
-    </row>
-    <row r="159" spans="2:11" customFormat="1" hidden="1">
+      <c r="L158" s="1"/>
+    </row>
+    <row r="159" spans="2:12" customFormat="1" hidden="1">
       <c r="B159" s="1">
         <v>159</v>
       </c>
@@ -9689,12 +9929,13 @@
       <c r="I159" s="64">
         <v>44928</v>
       </c>
-      <c r="J159" s="1" t="s">
+      <c r="J159" s="64"/>
+      <c r="K159" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K159" s="1"/>
-    </row>
-    <row r="160" spans="2:11" customFormat="1" hidden="1">
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="2:12" customFormat="1" hidden="1">
       <c r="B160" s="1">
         <v>161</v>
       </c>
@@ -9717,12 +9958,13 @@
       <c r="I160" s="64">
         <v>44928</v>
       </c>
-      <c r="J160" s="1" t="s">
+      <c r="J160" s="64"/>
+      <c r="K160" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K160" s="1"/>
-    </row>
-    <row r="161" spans="2:11" customFormat="1" hidden="1">
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="2:12" customFormat="1" hidden="1">
       <c r="B161" s="1">
         <v>160</v>
       </c>
@@ -9745,12 +9987,13 @@
       <c r="I161" s="64">
         <v>44929</v>
       </c>
-      <c r="J161" s="1" t="s">
+      <c r="J161" s="64"/>
+      <c r="K161" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K161" s="1"/>
-    </row>
-    <row r="162" spans="2:11" customFormat="1" hidden="1">
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="2:12" customFormat="1" hidden="1">
       <c r="B162" s="1">
         <v>162</v>
       </c>
@@ -9773,12 +10016,13 @@
       <c r="I162" s="64">
         <v>44929</v>
       </c>
-      <c r="J162" s="1" t="s">
+      <c r="J162" s="64"/>
+      <c r="K162" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K162" s="1"/>
-    </row>
-    <row r="163" spans="2:11" customFormat="1" hidden="1">
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="2:12" customFormat="1" hidden="1">
       <c r="B163" s="1">
         <v>163</v>
       </c>
@@ -9801,12 +10045,13 @@
       <c r="I163" s="64">
         <v>44929</v>
       </c>
-      <c r="J163" s="1" t="s">
+      <c r="J163" s="64"/>
+      <c r="K163" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K163" s="1"/>
-    </row>
-    <row r="164" spans="2:11" customFormat="1" hidden="1">
+      <c r="L163" s="1"/>
+    </row>
+    <row r="164" spans="2:12" customFormat="1" hidden="1">
       <c r="B164" s="1">
         <v>165</v>
       </c>
@@ -9829,12 +10074,13 @@
       <c r="I164" s="64">
         <v>44929</v>
       </c>
-      <c r="J164" s="1" t="s">
+      <c r="J164" s="64"/>
+      <c r="K164" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K164" s="1"/>
-    </row>
-    <row r="165" spans="2:11" customFormat="1" hidden="1">
+      <c r="L164" s="1"/>
+    </row>
+    <row r="165" spans="2:12" customFormat="1" hidden="1">
       <c r="B165" s="1">
         <v>164</v>
       </c>
@@ -9857,12 +10103,13 @@
       <c r="I165" s="64">
         <v>44930</v>
       </c>
-      <c r="J165" s="1" t="s">
+      <c r="J165" s="64"/>
+      <c r="K165" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K165" s="1"/>
-    </row>
-    <row r="166" spans="2:11" customFormat="1" hidden="1">
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="2:12" customFormat="1" hidden="1">
       <c r="B166" s="1">
         <v>166</v>
       </c>
@@ -9885,12 +10132,13 @@
       <c r="I166" s="64">
         <v>44930</v>
       </c>
-      <c r="J166" s="1" t="s">
+      <c r="J166" s="64"/>
+      <c r="K166" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K166" s="1"/>
-    </row>
-    <row r="167" spans="2:11" customFormat="1" hidden="1">
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="2:12" customFormat="1" hidden="1">
       <c r="B167" s="1">
         <v>167</v>
       </c>
@@ -9913,12 +10161,13 @@
       <c r="I167" s="64">
         <v>44930</v>
       </c>
-      <c r="J167" s="1" t="s">
+      <c r="J167" s="64"/>
+      <c r="K167" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K167" s="1"/>
-    </row>
-    <row r="168" spans="2:11" customFormat="1" hidden="1">
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="2:12" customFormat="1" hidden="1">
       <c r="B168" s="1">
         <v>169</v>
       </c>
@@ -9941,12 +10190,13 @@
       <c r="I168" s="64">
         <v>44930</v>
       </c>
-      <c r="J168" s="1" t="s">
+      <c r="J168" s="64"/>
+      <c r="K168" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K168" s="1"/>
-    </row>
-    <row r="169" spans="2:11" customFormat="1" hidden="1">
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="2:12" customFormat="1" hidden="1">
       <c r="B169" s="1">
         <v>168</v>
       </c>
@@ -9969,12 +10219,13 @@
       <c r="I169" s="64">
         <v>44931</v>
       </c>
-      <c r="J169" s="1" t="s">
+      <c r="J169" s="64"/>
+      <c r="K169" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K169" s="1"/>
-    </row>
-    <row r="170" spans="2:11" customFormat="1" hidden="1">
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="2:12" customFormat="1" hidden="1">
       <c r="B170" s="1">
         <v>170</v>
       </c>
@@ -9997,12 +10248,13 @@
       <c r="I170" s="64">
         <v>44931</v>
       </c>
-      <c r="J170" s="1" t="s">
+      <c r="J170" s="64"/>
+      <c r="K170" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K170" s="1"/>
-    </row>
-    <row r="171" spans="2:11" customFormat="1" hidden="1">
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="2:12" customFormat="1" hidden="1">
       <c r="B171" s="1">
         <v>171</v>
       </c>
@@ -10025,12 +10277,13 @@
       <c r="I171" s="64">
         <v>44931</v>
       </c>
-      <c r="J171" s="1" t="s">
+      <c r="J171" s="64"/>
+      <c r="K171" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K171" s="1"/>
-    </row>
-    <row r="172" spans="2:11" customFormat="1" hidden="1">
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="2:12" customFormat="1" hidden="1">
       <c r="B172" s="1">
         <v>173</v>
       </c>
@@ -10053,12 +10306,13 @@
       <c r="I172" s="64">
         <v>44931</v>
       </c>
-      <c r="J172" s="1" t="s">
+      <c r="J172" s="64"/>
+      <c r="K172" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K172" s="1"/>
-    </row>
-    <row r="173" spans="2:11" customFormat="1" hidden="1">
+      <c r="L172" s="1"/>
+    </row>
+    <row r="173" spans="2:12" customFormat="1" hidden="1">
       <c r="B173" s="1">
         <v>172</v>
       </c>
@@ -10081,12 +10335,13 @@
       <c r="I173" s="64">
         <v>44932</v>
       </c>
-      <c r="J173" s="1" t="s">
+      <c r="J173" s="64"/>
+      <c r="K173" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K173" s="1"/>
-    </row>
-    <row r="174" spans="2:11" customFormat="1" hidden="1">
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="2:12" customFormat="1" hidden="1">
       <c r="B174" s="1">
         <v>174</v>
       </c>
@@ -10109,12 +10364,13 @@
       <c r="I174" s="64">
         <v>44932</v>
       </c>
-      <c r="J174" s="1" t="s">
+      <c r="J174" s="64"/>
+      <c r="K174" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K174" s="1"/>
-    </row>
-    <row r="175" spans="2:11" customFormat="1" hidden="1">
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="2:12" customFormat="1" hidden="1">
       <c r="B175" s="1">
         <v>175</v>
       </c>
@@ -10137,12 +10393,13 @@
       <c r="I175" s="64">
         <v>44932</v>
       </c>
-      <c r="J175" s="1" t="s">
+      <c r="J175" s="64"/>
+      <c r="K175" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K175" s="1"/>
-    </row>
-    <row r="176" spans="2:11" customFormat="1" hidden="1">
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="2:12" customFormat="1" hidden="1">
       <c r="B176" s="1">
         <v>177</v>
       </c>
@@ -10165,12 +10422,13 @@
       <c r="I176" s="64">
         <v>44932</v>
       </c>
-      <c r="J176" s="1" t="s">
+      <c r="J176" s="64"/>
+      <c r="K176" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K176" s="1"/>
-    </row>
-    <row r="177" spans="2:11" customFormat="1" hidden="1">
+      <c r="L176" s="1"/>
+    </row>
+    <row r="177" spans="2:12" customFormat="1" hidden="1">
       <c r="B177" s="1">
         <v>176</v>
       </c>
@@ -10193,12 +10451,13 @@
       <c r="I177" s="64">
         <v>44935</v>
       </c>
-      <c r="J177" s="1" t="s">
+      <c r="J177" s="64"/>
+      <c r="K177" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K177" s="1"/>
-    </row>
-    <row r="178" spans="2:11" customFormat="1" hidden="1">
+      <c r="L177" s="1"/>
+    </row>
+    <row r="178" spans="2:12" customFormat="1" hidden="1">
       <c r="B178" s="1">
         <v>178</v>
       </c>
@@ -10221,12 +10480,13 @@
       <c r="I178" s="64">
         <v>44935</v>
       </c>
-      <c r="J178" s="1" t="s">
+      <c r="J178" s="64"/>
+      <c r="K178" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K178" s="1"/>
-    </row>
-    <row r="179" spans="2:11" customFormat="1" hidden="1">
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="2:12" customFormat="1" hidden="1">
       <c r="B179" s="1">
         <v>179</v>
       </c>
@@ -10249,12 +10509,13 @@
       <c r="I179" s="64">
         <v>44935</v>
       </c>
-      <c r="J179" s="1" t="s">
+      <c r="J179" s="64"/>
+      <c r="K179" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K179" s="1"/>
-    </row>
-    <row r="180" spans="2:11" customFormat="1" hidden="1">
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="2:12" customFormat="1" hidden="1">
       <c r="B180" s="1">
         <v>181</v>
       </c>
@@ -10277,12 +10538,13 @@
       <c r="I180" s="64">
         <v>44935</v>
       </c>
-      <c r="J180" s="1" t="s">
+      <c r="J180" s="64"/>
+      <c r="K180" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K180" s="1"/>
-    </row>
-    <row r="181" spans="2:11" customFormat="1" hidden="1">
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="2:12" customFormat="1" hidden="1">
       <c r="B181" s="1">
         <v>180</v>
       </c>
@@ -10305,12 +10567,13 @@
       <c r="I181" s="64">
         <v>44936</v>
       </c>
-      <c r="J181" s="1" t="s">
+      <c r="J181" s="64"/>
+      <c r="K181" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K181" s="1"/>
-    </row>
-    <row r="182" spans="2:11" customFormat="1" hidden="1">
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="2:12" customFormat="1" hidden="1">
       <c r="B182" s="1">
         <v>182</v>
       </c>
@@ -10333,12 +10596,13 @@
       <c r="I182" s="64">
         <v>44936</v>
       </c>
-      <c r="J182" s="1" t="s">
+      <c r="J182" s="64"/>
+      <c r="K182" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K182" s="1"/>
-    </row>
-    <row r="183" spans="2:11" customFormat="1" hidden="1">
+      <c r="L182" s="1"/>
+    </row>
+    <row r="183" spans="2:12" customFormat="1" hidden="1">
       <c r="B183" s="1">
         <v>183</v>
       </c>
@@ -10361,12 +10625,13 @@
       <c r="I183" s="64">
         <v>44936</v>
       </c>
-      <c r="J183" s="1" t="s">
+      <c r="J183" s="64"/>
+      <c r="K183" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K183" s="1"/>
-    </row>
-    <row r="184" spans="2:11" customFormat="1" hidden="1">
+      <c r="L183" s="1"/>
+    </row>
+    <row r="184" spans="2:12" customFormat="1" hidden="1">
       <c r="B184" s="1">
         <v>185</v>
       </c>
@@ -10389,12 +10654,13 @@
       <c r="I184" s="64">
         <v>44936</v>
       </c>
-      <c r="J184" s="1" t="s">
+      <c r="J184" s="64"/>
+      <c r="K184" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K184" s="1"/>
-    </row>
-    <row r="185" spans="2:11" customFormat="1" hidden="1">
+      <c r="L184" s="1"/>
+    </row>
+    <row r="185" spans="2:12" customFormat="1" hidden="1">
       <c r="B185" s="1">
         <v>184</v>
       </c>
@@ -10417,12 +10683,13 @@
       <c r="I185" s="64">
         <v>44937</v>
       </c>
-      <c r="J185" s="1" t="s">
+      <c r="J185" s="64"/>
+      <c r="K185" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K185" s="1"/>
-    </row>
-    <row r="186" spans="2:11" customFormat="1" hidden="1">
+      <c r="L185" s="1"/>
+    </row>
+    <row r="186" spans="2:12" customFormat="1" hidden="1">
       <c r="B186" s="1">
         <v>186</v>
       </c>
@@ -10445,12 +10712,13 @@
       <c r="I186" s="64">
         <v>44937</v>
       </c>
-      <c r="J186" s="1" t="s">
+      <c r="J186" s="64"/>
+      <c r="K186" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K186" s="1"/>
-    </row>
-    <row r="187" spans="2:11" customFormat="1" hidden="1">
+      <c r="L186" s="1"/>
+    </row>
+    <row r="187" spans="2:12" customFormat="1" hidden="1">
       <c r="B187" s="1">
         <v>187</v>
       </c>
@@ -10473,12 +10741,13 @@
       <c r="I187" s="64">
         <v>44937</v>
       </c>
-      <c r="J187" s="1" t="s">
+      <c r="J187" s="64"/>
+      <c r="K187" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K187" s="1"/>
-    </row>
-    <row r="188" spans="2:11" customFormat="1" hidden="1">
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="2:12" customFormat="1" hidden="1">
       <c r="B188" s="1">
         <v>189</v>
       </c>
@@ -10501,12 +10770,13 @@
       <c r="I188" s="64">
         <v>44937</v>
       </c>
-      <c r="J188" s="1" t="s">
+      <c r="J188" s="64"/>
+      <c r="K188" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K188" s="1"/>
-    </row>
-    <row r="189" spans="2:11" customFormat="1" hidden="1">
+      <c r="L188" s="1"/>
+    </row>
+    <row r="189" spans="2:12" customFormat="1" hidden="1">
       <c r="B189" s="1">
         <v>188</v>
       </c>
@@ -10529,12 +10799,13 @@
       <c r="I189" s="64">
         <v>44938</v>
       </c>
-      <c r="J189" s="1" t="s">
+      <c r="J189" s="64"/>
+      <c r="K189" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K189" s="1"/>
-    </row>
-    <row r="190" spans="2:11" customFormat="1" hidden="1">
+      <c r="L189" s="1"/>
+    </row>
+    <row r="190" spans="2:12" customFormat="1" hidden="1">
       <c r="B190" s="1">
         <v>190</v>
       </c>
@@ -10557,12 +10828,13 @@
       <c r="I190" s="64">
         <v>44938</v>
       </c>
-      <c r="J190" s="1" t="s">
+      <c r="J190" s="64"/>
+      <c r="K190" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="2:11" customFormat="1" hidden="1">
+      <c r="L190" s="1"/>
+    </row>
+    <row r="191" spans="2:12" customFormat="1" hidden="1">
       <c r="B191" s="1">
         <v>191</v>
       </c>
@@ -10585,12 +10857,13 @@
       <c r="I191" s="64">
         <v>44938</v>
       </c>
-      <c r="J191" s="1" t="s">
+      <c r="J191" s="64"/>
+      <c r="K191" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K191" s="1"/>
-    </row>
-    <row r="192" spans="2:11" customFormat="1" hidden="1">
+      <c r="L191" s="1"/>
+    </row>
+    <row r="192" spans="2:12" customFormat="1" hidden="1">
       <c r="B192" s="1">
         <v>193</v>
       </c>
@@ -10613,12 +10886,13 @@
       <c r="I192" s="64">
         <v>44938</v>
       </c>
-      <c r="J192" s="1" t="s">
+      <c r="J192" s="64"/>
+      <c r="K192" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K192" s="1"/>
-    </row>
-    <row r="193" spans="2:11" customFormat="1" hidden="1">
+      <c r="L192" s="1"/>
+    </row>
+    <row r="193" spans="2:12" customFormat="1" hidden="1">
       <c r="B193" s="1">
         <v>192</v>
       </c>
@@ -10641,12 +10915,13 @@
       <c r="I193" s="64">
         <v>44939</v>
       </c>
-      <c r="J193" s="1" t="s">
+      <c r="J193" s="64"/>
+      <c r="K193" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K193" s="1"/>
-    </row>
-    <row r="194" spans="2:11" customFormat="1" hidden="1">
+      <c r="L193" s="1"/>
+    </row>
+    <row r="194" spans="2:12" customFormat="1" hidden="1">
       <c r="B194" s="1">
         <v>194</v>
       </c>
@@ -10669,12 +10944,13 @@
       <c r="I194" s="64">
         <v>44939</v>
       </c>
-      <c r="J194" s="1" t="s">
+      <c r="J194" s="64"/>
+      <c r="K194" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K194" s="1"/>
-    </row>
-    <row r="195" spans="2:11" customFormat="1" hidden="1">
+      <c r="L194" s="1"/>
+    </row>
+    <row r="195" spans="2:12" customFormat="1" hidden="1">
       <c r="B195" s="1">
         <v>195</v>
       </c>
@@ -10697,12 +10973,13 @@
       <c r="I195" s="64">
         <v>44939</v>
       </c>
-      <c r="J195" s="1" t="s">
+      <c r="J195" s="64"/>
+      <c r="K195" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K195" s="1"/>
-    </row>
-    <row r="196" spans="2:11" customFormat="1" hidden="1">
+      <c r="L195" s="1"/>
+    </row>
+    <row r="196" spans="2:12" customFormat="1" hidden="1">
       <c r="B196" s="1">
         <v>196</v>
       </c>
@@ -10725,12 +11002,13 @@
       <c r="I196" s="64">
         <v>44942</v>
       </c>
-      <c r="J196" s="1" t="s">
+      <c r="J196" s="64"/>
+      <c r="K196" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K196" s="1"/>
-    </row>
-    <row r="197" spans="2:11" customFormat="1" hidden="1">
+      <c r="L196" s="1"/>
+    </row>
+    <row r="197" spans="2:12" customFormat="1" hidden="1">
       <c r="B197" s="1">
         <v>198</v>
       </c>
@@ -10753,12 +11031,13 @@
       <c r="I197" s="64">
         <v>44942</v>
       </c>
-      <c r="J197" s="1" t="s">
+      <c r="J197" s="64"/>
+      <c r="K197" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K197" s="1"/>
-    </row>
-    <row r="198" spans="2:11" customFormat="1" hidden="1">
+      <c r="L197" s="1"/>
+    </row>
+    <row r="198" spans="2:12" customFormat="1" hidden="1">
       <c r="B198" s="1">
         <v>197</v>
       </c>
@@ -10781,12 +11060,13 @@
       <c r="I198" s="64">
         <v>44943</v>
       </c>
-      <c r="J198" s="1" t="s">
+      <c r="J198" s="64"/>
+      <c r="K198" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K198" s="1"/>
-    </row>
-    <row r="199" spans="2:11" customFormat="1" hidden="1">
+      <c r="L198" s="1"/>
+    </row>
+    <row r="199" spans="2:12" customFormat="1" hidden="1">
       <c r="B199" s="1">
         <v>199</v>
       </c>
@@ -10809,12 +11089,13 @@
       <c r="I199" s="64">
         <v>44943</v>
       </c>
-      <c r="J199" s="1" t="s">
+      <c r="J199" s="64"/>
+      <c r="K199" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K199" s="1"/>
-    </row>
-    <row r="200" spans="2:11" customFormat="1" hidden="1">
+      <c r="L199" s="1"/>
+    </row>
+    <row r="200" spans="2:12" customFormat="1" hidden="1">
       <c r="B200" s="1">
         <v>200</v>
       </c>
@@ -10837,12 +11118,13 @@
       <c r="I200" s="64">
         <v>44943</v>
       </c>
-      <c r="J200" s="1" t="s">
+      <c r="J200" s="64"/>
+      <c r="K200" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K200" s="1"/>
-    </row>
-    <row r="201" spans="2:11" customFormat="1" hidden="1">
+      <c r="L200" s="1"/>
+    </row>
+    <row r="201" spans="2:12" customFormat="1" hidden="1">
       <c r="B201" s="1">
         <v>202</v>
       </c>
@@ -10865,12 +11147,13 @@
       <c r="I201" s="64">
         <v>44943</v>
       </c>
-      <c r="J201" s="1" t="s">
+      <c r="J201" s="64"/>
+      <c r="K201" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K201" s="1"/>
-    </row>
-    <row r="202" spans="2:11" customFormat="1" hidden="1">
+      <c r="L201" s="1"/>
+    </row>
+    <row r="202" spans="2:12" customFormat="1" hidden="1">
       <c r="B202" s="1">
         <v>201</v>
       </c>
@@ -10893,12 +11176,13 @@
       <c r="I202" s="64">
         <v>44944</v>
       </c>
-      <c r="J202" s="1" t="s">
+      <c r="J202" s="64"/>
+      <c r="K202" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K202" s="1"/>
-    </row>
-    <row r="203" spans="2:11" customFormat="1" hidden="1">
+      <c r="L202" s="1"/>
+    </row>
+    <row r="203" spans="2:12" customFormat="1" hidden="1">
       <c r="B203" s="1">
         <v>203</v>
       </c>
@@ -10921,12 +11205,13 @@
       <c r="I203" s="64">
         <v>44944</v>
       </c>
-      <c r="J203" s="1" t="s">
+      <c r="J203" s="64"/>
+      <c r="K203" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K203" s="1"/>
-    </row>
-    <row r="204" spans="2:11" customFormat="1" hidden="1">
+      <c r="L203" s="1"/>
+    </row>
+    <row r="204" spans="2:12" customFormat="1" hidden="1">
       <c r="B204" s="1">
         <v>204</v>
       </c>
@@ -10949,12 +11234,13 @@
       <c r="I204" s="64">
         <v>44944</v>
       </c>
-      <c r="J204" s="1" t="s">
+      <c r="J204" s="64"/>
+      <c r="K204" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K204" s="1"/>
-    </row>
-    <row r="205" spans="2:11" customFormat="1" hidden="1">
+      <c r="L204" s="1"/>
+    </row>
+    <row r="205" spans="2:12" customFormat="1" hidden="1">
       <c r="B205" s="1">
         <v>206</v>
       </c>
@@ -10977,12 +11263,13 @@
       <c r="I205" s="64">
         <v>44944</v>
       </c>
-      <c r="J205" s="1" t="s">
+      <c r="J205" s="64"/>
+      <c r="K205" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K205" s="1"/>
-    </row>
-    <row r="206" spans="2:11" customFormat="1" hidden="1">
+      <c r="L205" s="1"/>
+    </row>
+    <row r="206" spans="2:12" customFormat="1" hidden="1">
       <c r="B206" s="1">
         <v>205</v>
       </c>
@@ -11005,12 +11292,13 @@
       <c r="I206" s="64">
         <v>44945</v>
       </c>
-      <c r="J206" s="1" t="s">
+      <c r="J206" s="64"/>
+      <c r="K206" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K206" s="1"/>
-    </row>
-    <row r="207" spans="2:11" customFormat="1" hidden="1">
+      <c r="L206" s="1"/>
+    </row>
+    <row r="207" spans="2:12" customFormat="1" hidden="1">
       <c r="B207" s="1">
         <v>207</v>
       </c>
@@ -11033,12 +11321,13 @@
       <c r="I207" s="64">
         <v>44945</v>
       </c>
-      <c r="J207" s="1" t="s">
+      <c r="J207" s="64"/>
+      <c r="K207" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K207" s="1"/>
-    </row>
-    <row r="208" spans="2:11" customFormat="1" hidden="1">
+      <c r="L207" s="1"/>
+    </row>
+    <row r="208" spans="2:12" customFormat="1" hidden="1">
       <c r="B208" s="1">
         <v>208</v>
       </c>
@@ -11061,12 +11350,13 @@
       <c r="I208" s="64">
         <v>44945</v>
       </c>
-      <c r="J208" s="1" t="s">
+      <c r="J208" s="64"/>
+      <c r="K208" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K208" s="1"/>
-    </row>
-    <row r="209" spans="2:11" customFormat="1" hidden="1">
+      <c r="L208" s="1"/>
+    </row>
+    <row r="209" spans="2:12" customFormat="1" hidden="1">
       <c r="B209" s="1">
         <v>210</v>
       </c>
@@ -11089,12 +11379,13 @@
       <c r="I209" s="64">
         <v>44945</v>
       </c>
-      <c r="J209" s="1" t="s">
+      <c r="J209" s="64"/>
+      <c r="K209" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K209" s="1"/>
-    </row>
-    <row r="210" spans="2:11" customFormat="1" hidden="1">
+      <c r="L209" s="1"/>
+    </row>
+    <row r="210" spans="2:12" customFormat="1" hidden="1">
       <c r="B210" s="1">
         <v>209</v>
       </c>
@@ -11117,12 +11408,13 @@
       <c r="I210" s="64">
         <v>44946</v>
       </c>
-      <c r="J210" s="1" t="s">
+      <c r="J210" s="64"/>
+      <c r="K210" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K210" s="1"/>
-    </row>
-    <row r="211" spans="2:11" customFormat="1" hidden="1">
+      <c r="L210" s="1"/>
+    </row>
+    <row r="211" spans="2:12" customFormat="1" hidden="1">
       <c r="B211" s="1">
         <v>211</v>
       </c>
@@ -11145,12 +11437,13 @@
       <c r="I211" s="64">
         <v>44946</v>
       </c>
-      <c r="J211" s="1" t="s">
+      <c r="J211" s="64"/>
+      <c r="K211" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K211" s="1"/>
-    </row>
-    <row r="212" spans="2:11" customFormat="1" hidden="1">
+      <c r="L211" s="1"/>
+    </row>
+    <row r="212" spans="2:12" customFormat="1" hidden="1">
       <c r="B212" s="1">
         <v>212</v>
       </c>
@@ -11173,12 +11466,13 @@
       <c r="I212" s="64">
         <v>44946</v>
       </c>
-      <c r="J212" s="1" t="s">
+      <c r="J212" s="64"/>
+      <c r="K212" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K212" s="1"/>
-    </row>
-    <row r="213" spans="2:11" customFormat="1" hidden="1">
+      <c r="L212" s="1"/>
+    </row>
+    <row r="213" spans="2:12" customFormat="1" hidden="1">
       <c r="B213" s="1">
         <v>214</v>
       </c>
@@ -11201,12 +11495,13 @@
       <c r="I213" s="64">
         <v>44946</v>
       </c>
-      <c r="J213" s="1" t="s">
+      <c r="J213" s="64"/>
+      <c r="K213" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K213" s="1"/>
-    </row>
-    <row r="214" spans="2:11" customFormat="1" hidden="1">
+      <c r="L213" s="1"/>
+    </row>
+    <row r="214" spans="2:12" customFormat="1" hidden="1">
       <c r="B214" s="1">
         <v>213</v>
       </c>
@@ -11229,12 +11524,13 @@
       <c r="I214" s="64">
         <v>44949</v>
       </c>
-      <c r="J214" s="1" t="s">
+      <c r="J214" s="64"/>
+      <c r="K214" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K214" s="1"/>
-    </row>
-    <row r="215" spans="2:11" customFormat="1" hidden="1">
+      <c r="L214" s="1"/>
+    </row>
+    <row r="215" spans="2:12" customFormat="1" hidden="1">
       <c r="B215" s="1">
         <v>215</v>
       </c>
@@ -11257,12 +11553,13 @@
       <c r="I215" s="64">
         <v>44949</v>
       </c>
-      <c r="J215" s="1" t="s">
+      <c r="J215" s="64"/>
+      <c r="K215" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K215" s="1"/>
-    </row>
-    <row r="216" spans="2:11" customFormat="1" hidden="1">
+      <c r="L215" s="1"/>
+    </row>
+    <row r="216" spans="2:12" customFormat="1" hidden="1">
       <c r="B216" s="1">
         <v>216</v>
       </c>
@@ -11285,12 +11582,13 @@
       <c r="I216" s="64">
         <v>44949</v>
       </c>
-      <c r="J216" s="1" t="s">
+      <c r="J216" s="64"/>
+      <c r="K216" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K216" s="1"/>
-    </row>
-    <row r="217" spans="2:11" customFormat="1" hidden="1">
+      <c r="L216" s="1"/>
+    </row>
+    <row r="217" spans="2:12" customFormat="1" hidden="1">
       <c r="B217" s="1">
         <v>218</v>
       </c>
@@ -11313,12 +11611,13 @@
       <c r="I217" s="64">
         <v>44949</v>
       </c>
-      <c r="J217" s="1" t="s">
+      <c r="J217" s="64"/>
+      <c r="K217" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K217" s="1"/>
-    </row>
-    <row r="218" spans="2:11" customFormat="1" hidden="1">
+      <c r="L217" s="1"/>
+    </row>
+    <row r="218" spans="2:12" customFormat="1" hidden="1">
       <c r="B218" s="1">
         <v>217</v>
       </c>
@@ -11341,12 +11640,13 @@
       <c r="I218" s="64">
         <v>44950</v>
       </c>
-      <c r="J218" s="1" t="s">
+      <c r="J218" s="64"/>
+      <c r="K218" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K218" s="1"/>
-    </row>
-    <row r="219" spans="2:11" customFormat="1" hidden="1">
+      <c r="L218" s="1"/>
+    </row>
+    <row r="219" spans="2:12" customFormat="1" hidden="1">
       <c r="B219" s="1">
         <v>219</v>
       </c>
@@ -11369,12 +11669,13 @@
       <c r="I219" s="64">
         <v>44950</v>
       </c>
-      <c r="J219" s="1" t="s">
+      <c r="J219" s="64"/>
+      <c r="K219" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K219" s="1"/>
-    </row>
-    <row r="220" spans="2:11" customFormat="1" hidden="1">
+      <c r="L219" s="1"/>
+    </row>
+    <row r="220" spans="2:12" customFormat="1" hidden="1">
       <c r="B220" s="1">
         <v>220</v>
       </c>
@@ -11397,12 +11698,13 @@
       <c r="I220" s="64">
         <v>44950</v>
       </c>
-      <c r="J220" s="1" t="s">
+      <c r="J220" s="64"/>
+      <c r="K220" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K220" s="1"/>
-    </row>
-    <row r="221" spans="2:11" customFormat="1" hidden="1">
+      <c r="L220" s="1"/>
+    </row>
+    <row r="221" spans="2:12" customFormat="1" hidden="1">
       <c r="B221" s="1">
         <v>222</v>
       </c>
@@ -11425,12 +11727,13 @@
       <c r="I221" s="64">
         <v>44950</v>
       </c>
-      <c r="J221" s="1" t="s">
+      <c r="J221" s="64"/>
+      <c r="K221" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K221" s="1"/>
-    </row>
-    <row r="222" spans="2:11" customFormat="1" hidden="1">
+      <c r="L221" s="1"/>
+    </row>
+    <row r="222" spans="2:12" customFormat="1" hidden="1">
       <c r="B222" s="1">
         <v>221</v>
       </c>
@@ -11453,12 +11756,13 @@
       <c r="I222" s="64">
         <v>44951</v>
       </c>
-      <c r="J222" s="1" t="s">
+      <c r="J222" s="64"/>
+      <c r="K222" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K222" s="1"/>
-    </row>
-    <row r="223" spans="2:11" customFormat="1" hidden="1">
+      <c r="L222" s="1"/>
+    </row>
+    <row r="223" spans="2:12" customFormat="1" hidden="1">
       <c r="B223" s="1">
         <v>223</v>
       </c>
@@ -11481,12 +11785,13 @@
       <c r="I223" s="64">
         <v>44951</v>
       </c>
-      <c r="J223" s="1" t="s">
+      <c r="J223" s="64"/>
+      <c r="K223" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K223" s="1"/>
-    </row>
-    <row r="224" spans="2:11" customFormat="1" hidden="1">
+      <c r="L223" s="1"/>
+    </row>
+    <row r="224" spans="2:12" customFormat="1" hidden="1">
       <c r="B224" s="1">
         <v>224</v>
       </c>
@@ -11509,12 +11814,13 @@
       <c r="I224" s="64">
         <v>44951</v>
       </c>
-      <c r="J224" s="1" t="s">
+      <c r="J224" s="64"/>
+      <c r="K224" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K224" s="1"/>
-    </row>
-    <row r="225" spans="2:11" customFormat="1" hidden="1">
+      <c r="L224" s="1"/>
+    </row>
+    <row r="225" spans="2:12" customFormat="1" hidden="1">
       <c r="B225" s="1">
         <v>226</v>
       </c>
@@ -11537,12 +11843,13 @@
       <c r="I225" s="64">
         <v>44951</v>
       </c>
-      <c r="J225" s="1" t="s">
+      <c r="J225" s="64"/>
+      <c r="K225" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K225" s="1"/>
-    </row>
-    <row r="226" spans="2:11" customFormat="1" hidden="1">
+      <c r="L225" s="1"/>
+    </row>
+    <row r="226" spans="2:12" customFormat="1" hidden="1">
       <c r="B226" s="1">
         <v>225</v>
       </c>
@@ -11565,12 +11872,13 @@
       <c r="I226" s="64">
         <v>44953</v>
       </c>
-      <c r="J226" s="1" t="s">
+      <c r="J226" s="64"/>
+      <c r="K226" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K226" s="1"/>
-    </row>
-    <row r="227" spans="2:11" customFormat="1" hidden="1">
+      <c r="L226" s="1"/>
+    </row>
+    <row r="227" spans="2:12" customFormat="1" hidden="1">
       <c r="B227" s="1">
         <v>227</v>
       </c>
@@ -11593,12 +11901,13 @@
       <c r="I227" s="64">
         <v>44953</v>
       </c>
-      <c r="J227" s="1" t="s">
+      <c r="J227" s="64"/>
+      <c r="K227" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K227" s="1"/>
-    </row>
-    <row r="228" spans="2:11" customFormat="1" hidden="1">
+      <c r="L227" s="1"/>
+    </row>
+    <row r="228" spans="2:12" customFormat="1" hidden="1">
       <c r="B228" s="1">
         <v>228</v>
       </c>
@@ -11621,12 +11930,13 @@
       <c r="I228" s="64">
         <v>44953</v>
       </c>
-      <c r="J228" s="1" t="s">
+      <c r="J228" s="64"/>
+      <c r="K228" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K228" s="1"/>
-    </row>
-    <row r="229" spans="2:11" customFormat="1" hidden="1">
+      <c r="L228" s="1"/>
+    </row>
+    <row r="229" spans="2:12" customFormat="1" hidden="1">
       <c r="B229" s="1">
         <v>230</v>
       </c>
@@ -11649,12 +11959,13 @@
       <c r="I229" s="64">
         <v>44953</v>
       </c>
-      <c r="J229" s="1" t="s">
+      <c r="J229" s="64"/>
+      <c r="K229" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K229" s="1"/>
-    </row>
-    <row r="230" spans="2:11" customFormat="1" hidden="1">
+      <c r="L229" s="1"/>
+    </row>
+    <row r="230" spans="2:12" customFormat="1" hidden="1">
       <c r="B230" s="1">
         <v>229</v>
       </c>
@@ -11677,12 +11988,13 @@
       <c r="I230" s="64">
         <v>44956</v>
       </c>
-      <c r="J230" s="1" t="s">
+      <c r="J230" s="64"/>
+      <c r="K230" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K230" s="1"/>
-    </row>
-    <row r="231" spans="2:11" customFormat="1" hidden="1">
+      <c r="L230" s="1"/>
+    </row>
+    <row r="231" spans="2:12" customFormat="1" hidden="1">
       <c r="B231" s="1">
         <v>231</v>
       </c>
@@ -11705,12 +12017,13 @@
       <c r="I231" s="64">
         <v>44956</v>
       </c>
-      <c r="J231" s="1" t="s">
+      <c r="J231" s="64"/>
+      <c r="K231" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K231" s="1"/>
-    </row>
-    <row r="232" spans="2:11" customFormat="1" hidden="1">
+      <c r="L231" s="1"/>
+    </row>
+    <row r="232" spans="2:12" customFormat="1" hidden="1">
       <c r="B232" s="1">
         <v>232</v>
       </c>
@@ -11733,12 +12046,13 @@
       <c r="I232" s="64">
         <v>44956</v>
       </c>
-      <c r="J232" s="1" t="s">
+      <c r="J232" s="64"/>
+      <c r="K232" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K232" s="1"/>
-    </row>
-    <row r="233" spans="2:11" customFormat="1" hidden="1">
+      <c r="L232" s="1"/>
+    </row>
+    <row r="233" spans="2:12" customFormat="1" hidden="1">
       <c r="B233" s="1">
         <v>234</v>
       </c>
@@ -11761,12 +12075,13 @@
       <c r="I233" s="64">
         <v>44956</v>
       </c>
-      <c r="J233" s="1" t="s">
+      <c r="J233" s="64"/>
+      <c r="K233" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K233" s="1"/>
-    </row>
-    <row r="234" spans="2:11" customFormat="1" hidden="1">
+      <c r="L233" s="1"/>
+    </row>
+    <row r="234" spans="2:12" customFormat="1" hidden="1">
       <c r="B234" s="1">
         <v>233</v>
       </c>
@@ -11789,12 +12104,13 @@
       <c r="I234" s="64">
         <v>44957</v>
       </c>
-      <c r="J234" s="1" t="s">
+      <c r="J234" s="64"/>
+      <c r="K234" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K234" s="1"/>
-    </row>
-    <row r="235" spans="2:11" customFormat="1" hidden="1">
+      <c r="L234" s="1"/>
+    </row>
+    <row r="235" spans="2:12" customFormat="1" hidden="1">
       <c r="B235" s="1">
         <v>235</v>
       </c>
@@ -11817,12 +12133,13 @@
       <c r="I235" s="64">
         <v>44957</v>
       </c>
-      <c r="J235" s="1" t="s">
+      <c r="J235" s="64"/>
+      <c r="K235" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K235" s="1"/>
-    </row>
-    <row r="236" spans="2:11" customFormat="1" hidden="1">
+      <c r="L235" s="1"/>
+    </row>
+    <row r="236" spans="2:12" customFormat="1" hidden="1">
       <c r="B236" s="1">
         <v>236</v>
       </c>
@@ -11845,12 +12162,13 @@
       <c r="I236" s="64">
         <v>44957</v>
       </c>
-      <c r="J236" s="1" t="s">
+      <c r="J236" s="64"/>
+      <c r="K236" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K236" s="1"/>
-    </row>
-    <row r="237" spans="2:11" customFormat="1" hidden="1">
+      <c r="L236" s="1"/>
+    </row>
+    <row r="237" spans="2:12" customFormat="1" hidden="1">
       <c r="B237" s="1">
         <v>238</v>
       </c>
@@ -11873,12 +12191,13 @@
       <c r="I237" s="64">
         <v>44957</v>
       </c>
-      <c r="J237" s="1" t="s">
+      <c r="J237" s="64"/>
+      <c r="K237" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K237" s="1"/>
-    </row>
-    <row r="238" spans="2:11" customFormat="1" hidden="1">
+      <c r="L237" s="1"/>
+    </row>
+    <row r="238" spans="2:12" customFormat="1" hidden="1">
       <c r="B238" s="1">
         <v>237</v>
       </c>
@@ -11901,12 +12220,13 @@
       <c r="I238" s="64">
         <v>44958</v>
       </c>
-      <c r="J238" s="1" t="s">
+      <c r="J238" s="64"/>
+      <c r="K238" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K238" s="1"/>
-    </row>
-    <row r="239" spans="2:11" customFormat="1" hidden="1">
+      <c r="L238" s="1"/>
+    </row>
+    <row r="239" spans="2:12" customFormat="1" hidden="1">
       <c r="B239" s="1">
         <v>239</v>
       </c>
@@ -11929,12 +12249,13 @@
       <c r="I239" s="64">
         <v>44958</v>
       </c>
-      <c r="J239" s="1" t="s">
+      <c r="J239" s="64"/>
+      <c r="K239" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K239" s="1"/>
-    </row>
-    <row r="240" spans="2:11" customFormat="1" hidden="1">
+      <c r="L239" s="1"/>
+    </row>
+    <row r="240" spans="2:12" customFormat="1" hidden="1">
       <c r="B240" s="1">
         <v>240</v>
       </c>
@@ -11957,12 +12278,13 @@
       <c r="I240" s="64">
         <v>44958</v>
       </c>
-      <c r="J240" s="1" t="s">
+      <c r="J240" s="64"/>
+      <c r="K240" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K240" s="1"/>
-    </row>
-    <row r="241" spans="2:11" customFormat="1" hidden="1">
+      <c r="L240" s="1"/>
+    </row>
+    <row r="241" spans="2:12" customFormat="1" hidden="1">
       <c r="B241" s="1">
         <v>242</v>
       </c>
@@ -11985,12 +12307,13 @@
       <c r="I241" s="64">
         <v>44958</v>
       </c>
-      <c r="J241" s="1" t="s">
+      <c r="J241" s="64"/>
+      <c r="K241" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K241" s="1"/>
-    </row>
-    <row r="242" spans="2:11" customFormat="1" hidden="1">
+      <c r="L241" s="1"/>
+    </row>
+    <row r="242" spans="2:12" customFormat="1" hidden="1">
       <c r="B242" s="1">
         <v>241</v>
       </c>
@@ -12013,12 +12336,13 @@
       <c r="I242" s="64">
         <v>44959</v>
       </c>
-      <c r="J242" s="1" t="s">
+      <c r="J242" s="64"/>
+      <c r="K242" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K242" s="1"/>
-    </row>
-    <row r="243" spans="2:11" customFormat="1" hidden="1">
+      <c r="L242" s="1"/>
+    </row>
+    <row r="243" spans="2:12" customFormat="1" hidden="1">
       <c r="B243" s="1">
         <v>243</v>
       </c>
@@ -12041,12 +12365,13 @@
       <c r="I243" s="64">
         <v>44959</v>
       </c>
-      <c r="J243" s="1" t="s">
+      <c r="J243" s="64"/>
+      <c r="K243" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K243" s="1"/>
-    </row>
-    <row r="244" spans="2:11" customFormat="1" hidden="1">
+      <c r="L243" s="1"/>
+    </row>
+    <row r="244" spans="2:12" customFormat="1" hidden="1">
       <c r="B244" s="1">
         <v>244</v>
       </c>
@@ -12069,12 +12394,13 @@
       <c r="I244" s="64">
         <v>44959</v>
       </c>
-      <c r="J244" s="1" t="s">
+      <c r="J244" s="64"/>
+      <c r="K244" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K244" s="1"/>
-    </row>
-    <row r="245" spans="2:11" customFormat="1" hidden="1">
+      <c r="L244" s="1"/>
+    </row>
+    <row r="245" spans="2:12" customFormat="1" hidden="1">
       <c r="B245" s="1">
         <v>246</v>
       </c>
@@ -12097,12 +12423,13 @@
       <c r="I245" s="64">
         <v>44959</v>
       </c>
-      <c r="J245" s="1" t="s">
+      <c r="J245" s="64"/>
+      <c r="K245" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K245" s="1"/>
-    </row>
-    <row r="246" spans="2:11" customFormat="1" hidden="1">
+      <c r="L245" s="1"/>
+    </row>
+    <row r="246" spans="2:12" customFormat="1" hidden="1">
       <c r="B246" s="1">
         <v>245</v>
       </c>
@@ -12125,12 +12452,13 @@
       <c r="I246" s="64">
         <v>44960</v>
       </c>
-      <c r="J246" s="1" t="s">
+      <c r="J246" s="64"/>
+      <c r="K246" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K246" s="1"/>
-    </row>
-    <row r="247" spans="2:11" customFormat="1" hidden="1">
+      <c r="L246" s="1"/>
+    </row>
+    <row r="247" spans="2:12" customFormat="1" hidden="1">
       <c r="B247" s="1">
         <v>248</v>
       </c>
@@ -12153,12 +12481,13 @@
       <c r="I247" s="64">
         <v>44960</v>
       </c>
-      <c r="J247" s="1" t="s">
+      <c r="J247" s="64"/>
+      <c r="K247" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K247" s="1"/>
-    </row>
-    <row r="248" spans="2:11" customFormat="1" hidden="1">
+      <c r="L247" s="1"/>
+    </row>
+    <row r="248" spans="2:12" customFormat="1" hidden="1">
       <c r="B248" s="1">
         <v>250</v>
       </c>
@@ -12181,12 +12510,13 @@
       <c r="I248" s="64">
         <v>44960</v>
       </c>
-      <c r="J248" s="1" t="s">
+      <c r="J248" s="64"/>
+      <c r="K248" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K248" s="1"/>
-    </row>
-    <row r="249" spans="2:11" customFormat="1" hidden="1">
+      <c r="L248" s="1"/>
+    </row>
+    <row r="249" spans="2:12" customFormat="1" hidden="1">
       <c r="B249" s="1">
         <v>247</v>
       </c>
@@ -12209,12 +12539,13 @@
       <c r="I249" s="64">
         <v>44963</v>
       </c>
-      <c r="J249" s="1" t="s">
+      <c r="J249" s="64"/>
+      <c r="K249" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K249" s="1"/>
-    </row>
-    <row r="250" spans="2:11" customFormat="1" hidden="1">
+      <c r="L249" s="1"/>
+    </row>
+    <row r="250" spans="2:12" customFormat="1" hidden="1">
       <c r="B250" s="1">
         <v>249</v>
       </c>
@@ -12237,12 +12568,13 @@
       <c r="I250" s="64">
         <v>44963</v>
       </c>
-      <c r="J250" s="1" t="s">
+      <c r="J250" s="64"/>
+      <c r="K250" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K250" s="1"/>
-    </row>
-    <row r="251" spans="2:11" customFormat="1" hidden="1">
+      <c r="L250" s="1"/>
+    </row>
+    <row r="251" spans="2:12" customFormat="1" hidden="1">
       <c r="B251" s="1">
         <v>252</v>
       </c>
@@ -12265,12 +12597,13 @@
       <c r="I251" s="64">
         <v>44963</v>
       </c>
-      <c r="J251" s="1" t="s">
+      <c r="J251" s="64"/>
+      <c r="K251" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K251" s="1"/>
-    </row>
-    <row r="252" spans="2:11" customFormat="1" hidden="1">
+      <c r="L251" s="1"/>
+    </row>
+    <row r="252" spans="2:12" customFormat="1" hidden="1">
       <c r="B252" s="1">
         <v>254</v>
       </c>
@@ -12293,12 +12626,13 @@
       <c r="I252" s="64">
         <v>44963</v>
       </c>
-      <c r="J252" s="1" t="s">
+      <c r="J252" s="64"/>
+      <c r="K252" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K252" s="1"/>
-    </row>
-    <row r="253" spans="2:11" customFormat="1" hidden="1">
+      <c r="L252" s="1"/>
+    </row>
+    <row r="253" spans="2:12" customFormat="1" hidden="1">
       <c r="B253" s="1">
         <v>251</v>
       </c>
@@ -12321,12 +12655,13 @@
       <c r="I253" s="64">
         <v>44964</v>
       </c>
-      <c r="J253" s="1" t="s">
+      <c r="J253" s="64"/>
+      <c r="K253" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K253" s="1"/>
-    </row>
-    <row r="254" spans="2:11" customFormat="1" hidden="1">
+      <c r="L253" s="1"/>
+    </row>
+    <row r="254" spans="2:12" customFormat="1" hidden="1">
       <c r="B254" s="1">
         <v>253</v>
       </c>
@@ -12349,12 +12684,13 @@
       <c r="I254" s="64">
         <v>44964</v>
       </c>
-      <c r="J254" s="1" t="s">
+      <c r="J254" s="64"/>
+      <c r="K254" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K254" s="1"/>
-    </row>
-    <row r="255" spans="2:11" customFormat="1" hidden="1">
+      <c r="L254" s="1"/>
+    </row>
+    <row r="255" spans="2:12" customFormat="1" hidden="1">
       <c r="B255" s="1">
         <v>255</v>
       </c>
@@ -12377,12 +12713,13 @@
       <c r="I255" s="64">
         <v>44964</v>
       </c>
-      <c r="J255" s="1" t="s">
+      <c r="J255" s="64"/>
+      <c r="K255" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K255" s="1"/>
-    </row>
-    <row r="256" spans="2:11" customFormat="1" hidden="1">
+      <c r="L255" s="1"/>
+    </row>
+    <row r="256" spans="2:12" customFormat="1" hidden="1">
       <c r="B256" s="1">
         <v>256</v>
       </c>
@@ -12405,12 +12742,13 @@
       <c r="I256" s="64">
         <v>44964</v>
       </c>
-      <c r="J256" s="1" t="s">
+      <c r="J256" s="64"/>
+      <c r="K256" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K256" s="1"/>
-    </row>
-    <row r="257" spans="2:11" customFormat="1" hidden="1">
+      <c r="L256" s="1"/>
+    </row>
+    <row r="257" spans="2:12" customFormat="1" hidden="1">
       <c r="B257" s="1">
         <v>258</v>
       </c>
@@ -12433,12 +12771,13 @@
       <c r="I257" s="64">
         <v>44964</v>
       </c>
-      <c r="J257" s="1" t="s">
+      <c r="J257" s="64"/>
+      <c r="K257" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K257" s="1"/>
-    </row>
-    <row r="258" spans="2:11" customFormat="1" hidden="1">
+      <c r="L257" s="1"/>
+    </row>
+    <row r="258" spans="2:12" customFormat="1" hidden="1">
       <c r="B258" s="1">
         <v>257</v>
       </c>
@@ -12461,12 +12800,13 @@
       <c r="I258" s="64">
         <v>44965</v>
       </c>
-      <c r="J258" s="1" t="s">
+      <c r="J258" s="64"/>
+      <c r="K258" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K258" s="1"/>
-    </row>
-    <row r="259" spans="2:11" customFormat="1" hidden="1">
+      <c r="L258" s="1"/>
+    </row>
+    <row r="259" spans="2:12" customFormat="1" hidden="1">
       <c r="B259" s="1">
         <v>259</v>
       </c>
@@ -12489,12 +12829,13 @@
       <c r="I259" s="64">
         <v>44965</v>
       </c>
-      <c r="J259" s="1" t="s">
+      <c r="J259" s="64"/>
+      <c r="K259" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K259" s="1"/>
-    </row>
-    <row r="260" spans="2:11" customFormat="1" hidden="1">
+      <c r="L259" s="1"/>
+    </row>
+    <row r="260" spans="2:12" customFormat="1" hidden="1">
       <c r="B260" s="1">
         <v>260</v>
       </c>
@@ -12517,12 +12858,13 @@
       <c r="I260" s="64">
         <v>44965</v>
       </c>
-      <c r="J260" s="1" t="s">
+      <c r="J260" s="64"/>
+      <c r="K260" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K260" s="1"/>
-    </row>
-    <row r="261" spans="2:11" customFormat="1" hidden="1">
+      <c r="L260" s="1"/>
+    </row>
+    <row r="261" spans="2:12" customFormat="1" hidden="1">
       <c r="B261" s="1">
         <v>262</v>
       </c>
@@ -12545,12 +12887,13 @@
       <c r="I261" s="64">
         <v>44965</v>
       </c>
-      <c r="J261" s="1" t="s">
+      <c r="J261" s="64"/>
+      <c r="K261" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K261" s="1"/>
-    </row>
-    <row r="262" spans="2:11" customFormat="1" hidden="1">
+      <c r="L261" s="1"/>
+    </row>
+    <row r="262" spans="2:12" customFormat="1" hidden="1">
       <c r="B262" s="1">
         <v>261</v>
       </c>
@@ -12573,12 +12916,13 @@
       <c r="I262" s="64">
         <v>44966</v>
       </c>
-      <c r="J262" s="1" t="s">
+      <c r="J262" s="64"/>
+      <c r="K262" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K262" s="1"/>
-    </row>
-    <row r="263" spans="2:11" customFormat="1" hidden="1">
+      <c r="L262" s="1"/>
+    </row>
+    <row r="263" spans="2:12" customFormat="1" hidden="1">
       <c r="B263" s="1">
         <v>263</v>
       </c>
@@ -12601,12 +12945,13 @@
       <c r="I263" s="64">
         <v>44966</v>
       </c>
-      <c r="J263" s="1" t="s">
+      <c r="J263" s="64"/>
+      <c r="K263" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K263" s="1"/>
-    </row>
-    <row r="264" spans="2:11" customFormat="1" hidden="1">
+      <c r="L263" s="1"/>
+    </row>
+    <row r="264" spans="2:12" customFormat="1" hidden="1">
       <c r="B264" s="1">
         <v>264</v>
       </c>
@@ -12629,12 +12974,13 @@
       <c r="I264" s="64">
         <v>44966</v>
       </c>
-      <c r="J264" s="1" t="s">
+      <c r="J264" s="64"/>
+      <c r="K264" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K264" s="1"/>
-    </row>
-    <row r="265" spans="2:11" customFormat="1" hidden="1">
+      <c r="L264" s="1"/>
+    </row>
+    <row r="265" spans="2:12" customFormat="1" hidden="1">
       <c r="B265" s="1">
         <v>266</v>
       </c>
@@ -12657,12 +13003,13 @@
       <c r="I265" s="64">
         <v>44966</v>
       </c>
-      <c r="J265" s="1" t="s">
+      <c r="J265" s="64"/>
+      <c r="K265" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K265" s="1"/>
-    </row>
-    <row r="266" spans="2:11" customFormat="1" hidden="1">
+      <c r="L265" s="1"/>
+    </row>
+    <row r="266" spans="2:12" customFormat="1" hidden="1">
       <c r="B266" s="1">
         <v>265</v>
       </c>
@@ -12685,12 +13032,13 @@
       <c r="I266" s="64">
         <v>44967</v>
       </c>
-      <c r="J266" s="1" t="s">
+      <c r="J266" s="64"/>
+      <c r="K266" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K266" s="1"/>
-    </row>
-    <row r="267" spans="2:11" customFormat="1" hidden="1">
+      <c r="L266" s="1"/>
+    </row>
+    <row r="267" spans="2:12" customFormat="1" hidden="1">
       <c r="B267" s="1">
         <v>267</v>
       </c>
@@ -12713,12 +13061,13 @@
       <c r="I267" s="64">
         <v>44967</v>
       </c>
-      <c r="J267" s="1" t="s">
+      <c r="J267" s="64"/>
+      <c r="K267" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K267" s="1"/>
-    </row>
-    <row r="268" spans="2:11" customFormat="1" hidden="1">
+      <c r="L267" s="1"/>
+    </row>
+    <row r="268" spans="2:12" customFormat="1" hidden="1">
       <c r="B268" s="1">
         <v>268</v>
       </c>
@@ -12741,12 +13090,13 @@
       <c r="I268" s="64">
         <v>44967</v>
       </c>
-      <c r="J268" s="1" t="s">
+      <c r="J268" s="64"/>
+      <c r="K268" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K268" s="1"/>
-    </row>
-    <row r="269" spans="2:11" customFormat="1" hidden="1">
+      <c r="L268" s="1"/>
+    </row>
+    <row r="269" spans="2:12" customFormat="1" hidden="1">
       <c r="B269" s="1">
         <v>270</v>
       </c>
@@ -12769,12 +13119,13 @@
       <c r="I269" s="64">
         <v>44967</v>
       </c>
-      <c r="J269" s="1" t="s">
+      <c r="J269" s="64"/>
+      <c r="K269" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K269" s="1"/>
-    </row>
-    <row r="270" spans="2:11" customFormat="1" hidden="1">
+      <c r="L269" s="1"/>
+    </row>
+    <row r="270" spans="2:12" customFormat="1" hidden="1">
       <c r="B270" s="1">
         <v>269</v>
       </c>
@@ -12797,12 +13148,13 @@
       <c r="I270" s="64">
         <v>44970</v>
       </c>
-      <c r="J270" s="1" t="s">
+      <c r="J270" s="64"/>
+      <c r="K270" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K270" s="1"/>
-    </row>
-    <row r="271" spans="2:11" customFormat="1" hidden="1">
+      <c r="L270" s="1"/>
+    </row>
+    <row r="271" spans="2:12" customFormat="1" hidden="1">
       <c r="B271" s="1">
         <v>271</v>
       </c>
@@ -12825,12 +13177,13 @@
       <c r="I271" s="64">
         <v>44970</v>
       </c>
-      <c r="J271" s="1" t="s">
+      <c r="J271" s="64"/>
+      <c r="K271" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K271" s="1"/>
-    </row>
-    <row r="272" spans="2:11" customFormat="1" hidden="1">
+      <c r="L271" s="1"/>
+    </row>
+    <row r="272" spans="2:12" customFormat="1" hidden="1">
       <c r="B272" s="1">
         <v>272</v>
       </c>
@@ -12853,12 +13206,13 @@
       <c r="I272" s="64">
         <v>44971</v>
       </c>
-      <c r="J272" s="1" t="s">
+      <c r="J272" s="64"/>
+      <c r="K272" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K272" s="1"/>
-    </row>
-    <row r="273" spans="2:11" customFormat="1" hidden="1">
+      <c r="L272" s="1"/>
+    </row>
+    <row r="273" spans="2:12" customFormat="1" hidden="1">
       <c r="B273" s="1">
         <v>274</v>
       </c>
@@ -12881,12 +13235,13 @@
       <c r="I273" s="64">
         <v>44971</v>
       </c>
-      <c r="J273" s="1" t="s">
+      <c r="J273" s="64"/>
+      <c r="K273" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K273" s="1"/>
-    </row>
-    <row r="274" spans="2:11" customFormat="1" hidden="1">
+      <c r="L273" s="1"/>
+    </row>
+    <row r="274" spans="2:12" customFormat="1" hidden="1">
       <c r="B274" s="1">
         <v>273</v>
       </c>
@@ -12909,12 +13264,13 @@
       <c r="I274" s="64">
         <v>44972</v>
       </c>
-      <c r="J274" s="1" t="s">
+      <c r="J274" s="64"/>
+      <c r="K274" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K274" s="1"/>
-    </row>
-    <row r="275" spans="2:11" customFormat="1" hidden="1">
+      <c r="L274" s="1"/>
+    </row>
+    <row r="275" spans="2:12" customFormat="1" hidden="1">
       <c r="B275" s="1">
         <v>275</v>
       </c>
@@ -12937,12 +13293,13 @@
       <c r="I275" s="64">
         <v>44972</v>
       </c>
-      <c r="J275" s="1" t="s">
+      <c r="J275" s="64"/>
+      <c r="K275" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K275" s="1"/>
-    </row>
-    <row r="276" spans="2:11" customFormat="1" hidden="1">
+      <c r="L275" s="1"/>
+    </row>
+    <row r="276" spans="2:12" customFormat="1" hidden="1">
       <c r="B276" s="1">
         <v>276</v>
       </c>
@@ -12965,12 +13322,13 @@
       <c r="I276" s="64">
         <v>44972</v>
       </c>
-      <c r="J276" s="1" t="s">
+      <c r="J276" s="64"/>
+      <c r="K276" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K276" s="1"/>
-    </row>
-    <row r="277" spans="2:11" customFormat="1" hidden="1">
+      <c r="L276" s="1"/>
+    </row>
+    <row r="277" spans="2:12" customFormat="1" hidden="1">
       <c r="B277" s="1">
         <v>278</v>
       </c>
@@ -12993,12 +13351,13 @@
       <c r="I277" s="64">
         <v>44972</v>
       </c>
-      <c r="J277" s="1" t="s">
+      <c r="J277" s="64"/>
+      <c r="K277" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K277" s="1"/>
-    </row>
-    <row r="278" spans="2:11" customFormat="1" hidden="1">
+      <c r="L277" s="1"/>
+    </row>
+    <row r="278" spans="2:12" customFormat="1" hidden="1">
       <c r="B278" s="1">
         <v>277</v>
       </c>
@@ -13021,12 +13380,13 @@
       <c r="I278" s="64">
         <v>44973</v>
       </c>
-      <c r="J278" s="1" t="s">
+      <c r="J278" s="64"/>
+      <c r="K278" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K278" s="1"/>
-    </row>
-    <row r="279" spans="2:11" customFormat="1" hidden="1">
+      <c r="L278" s="1"/>
+    </row>
+    <row r="279" spans="2:12" customFormat="1" hidden="1">
       <c r="B279" s="1">
         <v>279</v>
       </c>
@@ -13049,12 +13409,13 @@
       <c r="I279" s="64">
         <v>44973</v>
       </c>
-      <c r="J279" s="1" t="s">
+      <c r="J279" s="64"/>
+      <c r="K279" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K279" s="1"/>
-    </row>
-    <row r="280" spans="2:11" customFormat="1" hidden="1">
+      <c r="L279" s="1"/>
+    </row>
+    <row r="280" spans="2:12" customFormat="1" hidden="1">
       <c r="B280" s="1">
         <v>280</v>
       </c>
@@ -13077,12 +13438,13 @@
       <c r="I280" s="64">
         <v>44973</v>
       </c>
-      <c r="J280" s="1" t="s">
+      <c r="J280" s="64"/>
+      <c r="K280" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K280" s="1"/>
-    </row>
-    <row r="281" spans="2:11" customFormat="1" hidden="1">
+      <c r="L280" s="1"/>
+    </row>
+    <row r="281" spans="2:12" customFormat="1" hidden="1">
       <c r="B281" s="1">
         <v>281</v>
       </c>
@@ -13105,12 +13467,13 @@
       <c r="I281" s="64">
         <v>44973</v>
       </c>
-      <c r="J281" s="1" t="s">
+      <c r="J281" s="64"/>
+      <c r="K281" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K281" s="1"/>
-    </row>
-    <row r="282" spans="2:11" customFormat="1" hidden="1">
+      <c r="L281" s="1"/>
+    </row>
+    <row r="282" spans="2:12" customFormat="1" hidden="1">
       <c r="B282" s="1">
         <v>281</v>
       </c>
@@ -13133,12 +13496,13 @@
       <c r="I282" s="64">
         <v>44974</v>
       </c>
-      <c r="J282" s="1" t="s">
+      <c r="J282" s="64"/>
+      <c r="K282" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K282" s="1"/>
-    </row>
-    <row r="283" spans="2:11" customFormat="1" hidden="1">
+      <c r="L282" s="1"/>
+    </row>
+    <row r="283" spans="2:12" customFormat="1" hidden="1">
       <c r="B283" s="1">
         <v>282</v>
       </c>
@@ -13161,12 +13525,13 @@
       <c r="I283" s="64">
         <v>44974</v>
       </c>
-      <c r="J283" s="1" t="s">
+      <c r="J283" s="64"/>
+      <c r="K283" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K283" s="1"/>
-    </row>
-    <row r="284" spans="2:11" customFormat="1" hidden="1">
+      <c r="L283" s="1"/>
+    </row>
+    <row r="284" spans="2:12" customFormat="1" hidden="1">
       <c r="B284" s="1">
         <v>283</v>
       </c>
@@ -13189,12 +13554,13 @@
       <c r="I284" s="64">
         <v>44977</v>
       </c>
-      <c r="J284" s="1" t="s">
+      <c r="J284" s="64"/>
+      <c r="K284" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K284" s="1"/>
-    </row>
-    <row r="285" spans="2:11" customFormat="1" hidden="1">
+      <c r="L284" s="1"/>
+    </row>
+    <row r="285" spans="2:12" customFormat="1" hidden="1">
       <c r="B285" s="1">
         <v>285</v>
       </c>
@@ -13217,12 +13583,13 @@
       <c r="I285" s="64">
         <v>44977</v>
       </c>
-      <c r="J285" s="1" t="s">
+      <c r="J285" s="64"/>
+      <c r="K285" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K285" s="1"/>
-    </row>
-    <row r="286" spans="2:11" customFormat="1" hidden="1">
+      <c r="L285" s="1"/>
+    </row>
+    <row r="286" spans="2:12" customFormat="1" hidden="1">
       <c r="B286" s="1">
         <v>284</v>
       </c>
@@ -13245,12 +13612,13 @@
       <c r="I286" s="64">
         <v>44978</v>
       </c>
-      <c r="J286" s="1" t="s">
+      <c r="J286" s="64"/>
+      <c r="K286" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K286" s="1"/>
-    </row>
-    <row r="287" spans="2:11" customFormat="1" hidden="1">
+      <c r="L286" s="1"/>
+    </row>
+    <row r="287" spans="2:12" customFormat="1" hidden="1">
       <c r="B287" s="1">
         <v>286</v>
       </c>
@@ -13273,12 +13641,13 @@
       <c r="I287" s="64">
         <v>44978</v>
       </c>
-      <c r="J287" s="1" t="s">
+      <c r="J287" s="64"/>
+      <c r="K287" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K287" s="1"/>
-    </row>
-    <row r="288" spans="2:11" customFormat="1" hidden="1">
+      <c r="L287" s="1"/>
+    </row>
+    <row r="288" spans="2:12" customFormat="1" hidden="1">
       <c r="B288" s="1">
         <v>287</v>
       </c>
@@ -13301,12 +13670,13 @@
       <c r="I288" s="64">
         <v>44978</v>
       </c>
-      <c r="J288" s="1" t="s">
+      <c r="J288" s="64"/>
+      <c r="K288" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K288" s="1"/>
-    </row>
-    <row r="289" spans="2:11" customFormat="1" hidden="1">
+      <c r="L288" s="1"/>
+    </row>
+    <row r="289" spans="2:12" customFormat="1" hidden="1">
       <c r="B289" s="1">
         <v>289</v>
       </c>
@@ -13329,12 +13699,13 @@
       <c r="I289" s="64">
         <v>44978</v>
       </c>
-      <c r="J289" s="1" t="s">
+      <c r="J289" s="64"/>
+      <c r="K289" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K289" s="1"/>
-    </row>
-    <row r="290" spans="2:11" customFormat="1" hidden="1">
+      <c r="L289" s="1"/>
+    </row>
+    <row r="290" spans="2:12" customFormat="1" hidden="1">
       <c r="B290" s="1">
         <v>288</v>
       </c>
@@ -13357,12 +13728,13 @@
       <c r="I290" s="64">
         <v>44979</v>
       </c>
-      <c r="J290" s="1" t="s">
+      <c r="J290" s="64"/>
+      <c r="K290" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K290" s="1"/>
-    </row>
-    <row r="291" spans="2:11" customFormat="1" hidden="1">
+      <c r="L290" s="1"/>
+    </row>
+    <row r="291" spans="2:12" customFormat="1" hidden="1">
       <c r="B291" s="1">
         <v>290</v>
       </c>
@@ -13385,12 +13757,13 @@
       <c r="I291" s="64">
         <v>44979</v>
       </c>
-      <c r="J291" s="1" t="s">
+      <c r="J291" s="64"/>
+      <c r="K291" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K291" s="1"/>
-    </row>
-    <row r="292" spans="2:11" customFormat="1" hidden="1">
+      <c r="L291" s="1"/>
+    </row>
+    <row r="292" spans="2:12" customFormat="1" hidden="1">
       <c r="B292" s="1">
         <v>291</v>
       </c>
@@ -13413,12 +13786,13 @@
       <c r="I292" s="64">
         <v>44979</v>
       </c>
-      <c r="J292" s="1" t="s">
+      <c r="J292" s="64"/>
+      <c r="K292" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K292" s="1"/>
-    </row>
-    <row r="293" spans="2:11" customFormat="1" hidden="1">
+      <c r="L292" s="1"/>
+    </row>
+    <row r="293" spans="2:12" customFormat="1" hidden="1">
       <c r="B293" s="1">
         <v>293</v>
       </c>
@@ -13441,12 +13815,13 @@
       <c r="I293" s="64">
         <v>44979</v>
       </c>
-      <c r="J293" s="1" t="s">
+      <c r="J293" s="64"/>
+      <c r="K293" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K293" s="1"/>
-    </row>
-    <row r="294" spans="2:11" customFormat="1" hidden="1">
+      <c r="L293" s="1"/>
+    </row>
+    <row r="294" spans="2:12" customFormat="1" hidden="1">
       <c r="B294" s="1">
         <v>292</v>
       </c>
@@ -13469,12 +13844,13 @@
       <c r="I294" s="64">
         <v>44981</v>
       </c>
-      <c r="J294" s="1" t="s">
+      <c r="J294" s="64"/>
+      <c r="K294" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K294" s="1"/>
-    </row>
-    <row r="295" spans="2:11" customFormat="1" hidden="1">
+      <c r="L294" s="1"/>
+    </row>
+    <row r="295" spans="2:12" customFormat="1" hidden="1">
       <c r="B295" s="1">
         <v>294</v>
       </c>
@@ -13497,12 +13873,13 @@
       <c r="I295" s="64">
         <v>44981</v>
       </c>
-      <c r="J295" s="1" t="s">
+      <c r="J295" s="64"/>
+      <c r="K295" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K295" s="1"/>
-    </row>
-    <row r="296" spans="2:11" customFormat="1" hidden="1">
+      <c r="L295" s="1"/>
+    </row>
+    <row r="296" spans="2:12" customFormat="1" hidden="1">
       <c r="B296" s="1">
         <v>295</v>
       </c>
@@ -13525,12 +13902,13 @@
       <c r="I296" s="64">
         <v>44981</v>
       </c>
-      <c r="J296" s="1" t="s">
+      <c r="J296" s="64"/>
+      <c r="K296" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K296" s="1"/>
-    </row>
-    <row r="297" spans="2:11" customFormat="1" hidden="1">
+      <c r="L296" s="1"/>
+    </row>
+    <row r="297" spans="2:12" customFormat="1" hidden="1">
       <c r="B297" s="1">
         <v>297</v>
       </c>
@@ -13553,12 +13931,13 @@
       <c r="I297" s="64">
         <v>44981</v>
       </c>
-      <c r="J297" s="1" t="s">
+      <c r="J297" s="64"/>
+      <c r="K297" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K297" s="1"/>
-    </row>
-    <row r="298" spans="2:11" customFormat="1" hidden="1">
+      <c r="L297" s="1"/>
+    </row>
+    <row r="298" spans="2:12" customFormat="1" hidden="1">
       <c r="B298" s="1">
         <v>296</v>
       </c>
@@ -13581,12 +13960,13 @@
       <c r="I298" s="64">
         <v>44984</v>
       </c>
-      <c r="J298" s="1" t="s">
+      <c r="J298" s="64"/>
+      <c r="K298" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K298" s="1"/>
-    </row>
-    <row r="299" spans="2:11" customFormat="1" hidden="1">
+      <c r="L298" s="1"/>
+    </row>
+    <row r="299" spans="2:12" customFormat="1" hidden="1">
       <c r="B299" s="1">
         <v>298</v>
       </c>
@@ -13609,12 +13989,13 @@
       <c r="I299" s="64">
         <v>44984</v>
       </c>
-      <c r="J299" s="1" t="s">
+      <c r="J299" s="64"/>
+      <c r="K299" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K299" s="1"/>
-    </row>
-    <row r="300" spans="2:11" customFormat="1" hidden="1">
+      <c r="L299" s="1"/>
+    </row>
+    <row r="300" spans="2:12" customFormat="1" hidden="1">
       <c r="B300" s="1">
         <v>299</v>
       </c>
@@ -13637,12 +14018,13 @@
       <c r="I300" s="64">
         <v>44984</v>
       </c>
-      <c r="J300" s="1" t="s">
+      <c r="J300" s="64"/>
+      <c r="K300" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K300" s="1"/>
-    </row>
-    <row r="301" spans="2:11" customFormat="1" hidden="1">
+      <c r="L300" s="1"/>
+    </row>
+    <row r="301" spans="2:12" customFormat="1" hidden="1">
       <c r="B301" s="1">
         <v>301</v>
       </c>
@@ -13665,12 +14047,13 @@
       <c r="I301" s="64">
         <v>44984</v>
       </c>
-      <c r="J301" s="1" t="s">
+      <c r="J301" s="64"/>
+      <c r="K301" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K301" s="1"/>
-    </row>
-    <row r="302" spans="2:11" customFormat="1" hidden="1">
+      <c r="L301" s="1"/>
+    </row>
+    <row r="302" spans="2:12" customFormat="1" hidden="1">
       <c r="B302" s="1">
         <v>300</v>
       </c>
@@ -13693,12 +14076,13 @@
       <c r="I302" s="64">
         <v>44985</v>
       </c>
-      <c r="J302" s="1" t="s">
+      <c r="J302" s="64"/>
+      <c r="K302" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K302" s="1"/>
-    </row>
-    <row r="303" spans="2:11" customFormat="1" hidden="1">
+      <c r="L302" s="1"/>
+    </row>
+    <row r="303" spans="2:12" customFormat="1" hidden="1">
       <c r="B303" s="1">
         <v>302</v>
       </c>
@@ -13721,12 +14105,13 @@
       <c r="I303" s="64">
         <v>44985</v>
       </c>
-      <c r="J303" s="1" t="s">
+      <c r="J303" s="64"/>
+      <c r="K303" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K303" s="1"/>
-    </row>
-    <row r="304" spans="2:11" customFormat="1" hidden="1">
+      <c r="L303" s="1"/>
+    </row>
+    <row r="304" spans="2:12" customFormat="1" hidden="1">
       <c r="B304" s="1">
         <v>303</v>
       </c>
@@ -13749,12 +14134,13 @@
       <c r="I304" s="64">
         <v>44985</v>
       </c>
-      <c r="J304" s="1" t="s">
+      <c r="J304" s="64"/>
+      <c r="K304" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K304" s="1"/>
-    </row>
-    <row r="305" spans="2:11" customFormat="1" hidden="1">
+      <c r="L304" s="1"/>
+    </row>
+    <row r="305" spans="2:12" customFormat="1" hidden="1">
       <c r="B305" s="1">
         <v>305</v>
       </c>
@@ -13777,12 +14163,13 @@
       <c r="I305" s="64">
         <v>44985</v>
       </c>
-      <c r="J305" s="1" t="s">
+      <c r="J305" s="64"/>
+      <c r="K305" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K305" s="1"/>
-    </row>
-    <row r="306" spans="2:11" customFormat="1" hidden="1">
+      <c r="L305" s="1"/>
+    </row>
+    <row r="306" spans="2:12" customFormat="1" hidden="1">
       <c r="B306" s="1">
         <v>304</v>
       </c>
@@ -13805,12 +14192,13 @@
       <c r="I306" s="64">
         <v>44986</v>
       </c>
-      <c r="J306" s="1" t="s">
+      <c r="J306" s="64"/>
+      <c r="K306" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K306" s="1"/>
-    </row>
-    <row r="307" spans="2:11" customFormat="1" hidden="1">
+      <c r="L306" s="1"/>
+    </row>
+    <row r="307" spans="2:12" customFormat="1" hidden="1">
       <c r="B307" s="1">
         <v>306</v>
       </c>
@@ -13833,12 +14221,13 @@
       <c r="I307" s="64">
         <v>44986</v>
       </c>
-      <c r="J307" s="1" t="s">
+      <c r="J307" s="64"/>
+      <c r="K307" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K307" s="1"/>
-    </row>
-    <row r="308" spans="2:11" customFormat="1" hidden="1">
+      <c r="L307" s="1"/>
+    </row>
+    <row r="308" spans="2:12" customFormat="1" hidden="1">
       <c r="B308" s="1">
         <v>307</v>
       </c>
@@ -13861,12 +14250,13 @@
       <c r="I308" s="64">
         <v>44986</v>
       </c>
-      <c r="J308" s="1" t="s">
+      <c r="J308" s="64"/>
+      <c r="K308" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K308" s="1"/>
-    </row>
-    <row r="309" spans="2:11" customFormat="1" hidden="1">
+      <c r="L308" s="1"/>
+    </row>
+    <row r="309" spans="2:12" customFormat="1" hidden="1">
       <c r="B309" s="1">
         <v>309</v>
       </c>
@@ -13889,12 +14279,13 @@
       <c r="I309" s="64">
         <v>44986</v>
       </c>
-      <c r="J309" s="1" t="s">
+      <c r="J309" s="64"/>
+      <c r="K309" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K309" s="1"/>
-    </row>
-    <row r="310" spans="2:11" customFormat="1" hidden="1">
+      <c r="L309" s="1"/>
+    </row>
+    <row r="310" spans="2:12" customFormat="1" hidden="1">
       <c r="B310" s="1">
         <v>308</v>
       </c>
@@ -13917,12 +14308,13 @@
       <c r="I310" s="64">
         <v>44987</v>
       </c>
-      <c r="J310" s="1" t="s">
+      <c r="J310" s="64"/>
+      <c r="K310" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K310" s="1"/>
-    </row>
-    <row r="311" spans="2:11" customFormat="1" hidden="1">
+      <c r="L310" s="1"/>
+    </row>
+    <row r="311" spans="2:12" customFormat="1" hidden="1">
       <c r="B311" s="1">
         <v>310</v>
       </c>
@@ -13945,12 +14337,13 @@
       <c r="I311" s="64">
         <v>44987</v>
       </c>
-      <c r="J311" s="1" t="s">
+      <c r="J311" s="64"/>
+      <c r="K311" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K311" s="1"/>
-    </row>
-    <row r="312" spans="2:11" customFormat="1" hidden="1">
+      <c r="L311" s="1"/>
+    </row>
+    <row r="312" spans="2:12" customFormat="1" hidden="1">
       <c r="B312" s="1">
         <v>311</v>
       </c>
@@ -13973,12 +14366,13 @@
       <c r="I312" s="64">
         <v>44987</v>
       </c>
-      <c r="J312" s="1" t="s">
+      <c r="J312" s="64"/>
+      <c r="K312" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K312" s="1"/>
-    </row>
-    <row r="313" spans="2:11" customFormat="1" hidden="1">
+      <c r="L312" s="1"/>
+    </row>
+    <row r="313" spans="2:12" customFormat="1" hidden="1">
       <c r="B313" s="1">
         <v>313</v>
       </c>
@@ -14001,12 +14395,13 @@
       <c r="I313" s="64">
         <v>44987</v>
       </c>
-      <c r="J313" s="1" t="s">
+      <c r="J313" s="64"/>
+      <c r="K313" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K313" s="1"/>
-    </row>
-    <row r="314" spans="2:11" customFormat="1" hidden="1">
+      <c r="L313" s="1"/>
+    </row>
+    <row r="314" spans="2:12" customFormat="1" hidden="1">
       <c r="B314" s="1">
         <v>312</v>
       </c>
@@ -14029,12 +14424,13 @@
       <c r="I314" s="64">
         <v>44988</v>
       </c>
-      <c r="J314" s="1" t="s">
+      <c r="J314" s="64"/>
+      <c r="K314" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K314" s="1"/>
-    </row>
-    <row r="315" spans="2:11" customFormat="1" hidden="1">
+      <c r="L314" s="1"/>
+    </row>
+    <row r="315" spans="2:12" customFormat="1" hidden="1">
       <c r="B315" s="1">
         <v>314</v>
       </c>
@@ -14057,12 +14453,13 @@
       <c r="I315" s="64">
         <v>44988</v>
       </c>
-      <c r="J315" s="1" t="s">
+      <c r="J315" s="64"/>
+      <c r="K315" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K315" s="1"/>
-    </row>
-    <row r="316" spans="2:11" customFormat="1" hidden="1">
+      <c r="L315" s="1"/>
+    </row>
+    <row r="316" spans="2:12" customFormat="1" hidden="1">
       <c r="B316" s="1">
         <v>315</v>
       </c>
@@ -14085,12 +14482,13 @@
       <c r="I316" s="64">
         <v>44988</v>
       </c>
-      <c r="J316" s="1" t="s">
+      <c r="J316" s="64"/>
+      <c r="K316" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K316" s="1"/>
-    </row>
-    <row r="317" spans="2:11" customFormat="1" hidden="1">
+      <c r="L316" s="1"/>
+    </row>
+    <row r="317" spans="2:12" customFormat="1" hidden="1">
       <c r="B317" s="1">
         <v>317</v>
       </c>
@@ -14113,12 +14511,13 @@
       <c r="I317" s="64">
         <v>44988</v>
       </c>
-      <c r="J317" s="1" t="s">
+      <c r="J317" s="64"/>
+      <c r="K317" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K317" s="1"/>
-    </row>
-    <row r="318" spans="2:11" customFormat="1" hidden="1">
+      <c r="L317" s="1"/>
+    </row>
+    <row r="318" spans="2:12" customFormat="1" hidden="1">
       <c r="B318" s="1">
         <v>316</v>
       </c>
@@ -14141,12 +14540,13 @@
       <c r="I318" s="64">
         <v>44991</v>
       </c>
-      <c r="J318" s="1" t="s">
+      <c r="J318" s="64"/>
+      <c r="K318" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K318" s="1"/>
-    </row>
-    <row r="319" spans="2:11" customFormat="1" hidden="1">
+      <c r="L318" s="1"/>
+    </row>
+    <row r="319" spans="2:12" customFormat="1" hidden="1">
       <c r="B319" s="1">
         <v>318</v>
       </c>
@@ -14169,12 +14569,13 @@
       <c r="I319" s="64">
         <v>44991</v>
       </c>
-      <c r="J319" s="1" t="s">
+      <c r="J319" s="64"/>
+      <c r="K319" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K319" s="1"/>
-    </row>
-    <row r="320" spans="2:11" customFormat="1" hidden="1">
+      <c r="L319" s="1"/>
+    </row>
+    <row r="320" spans="2:12" customFormat="1" hidden="1">
       <c r="B320" s="1">
         <v>319</v>
       </c>
@@ -14197,12 +14598,13 @@
       <c r="I320" s="64">
         <v>44991</v>
       </c>
-      <c r="J320" s="1" t="s">
+      <c r="J320" s="64"/>
+      <c r="K320" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K320" s="1"/>
-    </row>
-    <row r="321" spans="2:11" customFormat="1" hidden="1">
+      <c r="L320" s="1"/>
+    </row>
+    <row r="321" spans="2:12" customFormat="1" hidden="1">
       <c r="B321" s="1">
         <v>321</v>
       </c>
@@ -14225,12 +14627,13 @@
       <c r="I321" s="64">
         <v>44991</v>
       </c>
-      <c r="J321" s="1" t="s">
+      <c r="J321" s="64"/>
+      <c r="K321" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K321" s="1"/>
-    </row>
-    <row r="322" spans="2:11" customFormat="1" hidden="1">
+      <c r="L321" s="1"/>
+    </row>
+    <row r="322" spans="2:12" customFormat="1" hidden="1">
       <c r="B322" s="1">
         <v>320</v>
       </c>
@@ -14253,12 +14656,13 @@
       <c r="I322" s="64">
         <v>44992</v>
       </c>
-      <c r="J322" s="1" t="s">
+      <c r="J322" s="64"/>
+      <c r="K322" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K322" s="1"/>
-    </row>
-    <row r="323" spans="2:11" customFormat="1" hidden="1">
+      <c r="L322" s="1"/>
+    </row>
+    <row r="323" spans="2:12" customFormat="1" hidden="1">
       <c r="B323" s="1">
         <v>322</v>
       </c>
@@ -14281,12 +14685,13 @@
       <c r="I323" s="64">
         <v>44992</v>
       </c>
-      <c r="J323" s="1" t="s">
+      <c r="J323" s="64"/>
+      <c r="K323" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K323" s="1"/>
-    </row>
-    <row r="324" spans="2:11" customFormat="1" hidden="1">
+      <c r="L323" s="1"/>
+    </row>
+    <row r="324" spans="2:12" customFormat="1" hidden="1">
       <c r="B324" s="1">
         <v>323</v>
       </c>
@@ -14309,12 +14714,13 @@
       <c r="I324" s="64">
         <v>44992</v>
       </c>
-      <c r="J324" s="1" t="s">
+      <c r="J324" s="64"/>
+      <c r="K324" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K324" s="1"/>
-    </row>
-    <row r="325" spans="2:11" customFormat="1" hidden="1">
+      <c r="L324" s="1"/>
+    </row>
+    <row r="325" spans="2:12" customFormat="1" hidden="1">
       <c r="B325" s="1">
         <v>325</v>
       </c>
@@ -14337,12 +14743,13 @@
       <c r="I325" s="64">
         <v>44992</v>
       </c>
-      <c r="J325" s="1" t="s">
+      <c r="J325" s="64"/>
+      <c r="K325" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K325" s="1"/>
-    </row>
-    <row r="326" spans="2:11" customFormat="1" hidden="1">
+      <c r="L325" s="1"/>
+    </row>
+    <row r="326" spans="2:12" customFormat="1" hidden="1">
       <c r="B326" s="1">
         <v>324</v>
       </c>
@@ -14365,12 +14772,13 @@
       <c r="I326" s="64">
         <v>44993</v>
       </c>
-      <c r="J326" s="1" t="s">
+      <c r="J326" s="64"/>
+      <c r="K326" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K326" s="1"/>
-    </row>
-    <row r="327" spans="2:11" customFormat="1" hidden="1">
+      <c r="L326" s="1"/>
+    </row>
+    <row r="327" spans="2:12" customFormat="1" hidden="1">
       <c r="B327" s="1">
         <v>326</v>
       </c>
@@ -14393,12 +14801,13 @@
       <c r="I327" s="64">
         <v>44993</v>
       </c>
-      <c r="J327" s="1" t="s">
+      <c r="J327" s="64"/>
+      <c r="K327" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K327" s="1"/>
-    </row>
-    <row r="328" spans="2:11" customFormat="1" hidden="1">
+      <c r="L327" s="1"/>
+    </row>
+    <row r="328" spans="2:12" customFormat="1" hidden="1">
       <c r="B328" s="1">
         <v>327</v>
       </c>
@@ -14421,12 +14830,13 @@
       <c r="I328" s="64">
         <v>44993</v>
       </c>
-      <c r="J328" s="1" t="s">
+      <c r="J328" s="64"/>
+      <c r="K328" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K328" s="1"/>
-    </row>
-    <row r="329" spans="2:11" customFormat="1" hidden="1">
+      <c r="L328" s="1"/>
+    </row>
+    <row r="329" spans="2:12" customFormat="1" hidden="1">
       <c r="B329" s="1">
         <v>329</v>
       </c>
@@ -14449,12 +14859,13 @@
       <c r="I329" s="64">
         <v>44993</v>
       </c>
-      <c r="J329" s="1" t="s">
+      <c r="J329" s="64"/>
+      <c r="K329" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K329" s="1"/>
-    </row>
-    <row r="330" spans="2:11" customFormat="1" hidden="1">
+      <c r="L329" s="1"/>
+    </row>
+    <row r="330" spans="2:12" customFormat="1" hidden="1">
       <c r="B330" s="1">
         <v>328</v>
       </c>
@@ -14477,12 +14888,13 @@
       <c r="I330" s="64">
         <v>44994</v>
       </c>
-      <c r="J330" s="1" t="s">
+      <c r="J330" s="64"/>
+      <c r="K330" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K330" s="1"/>
-    </row>
-    <row r="331" spans="2:11" customFormat="1" hidden="1">
+      <c r="L330" s="1"/>
+    </row>
+    <row r="331" spans="2:12" customFormat="1" hidden="1">
       <c r="B331" s="1">
         <v>330</v>
       </c>
@@ -14505,12 +14917,13 @@
       <c r="I331" s="64">
         <v>44994</v>
       </c>
-      <c r="J331" s="1" t="s">
+      <c r="J331" s="64"/>
+      <c r="K331" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K331" s="1"/>
-    </row>
-    <row r="332" spans="2:11" customFormat="1" hidden="1">
+      <c r="L331" s="1"/>
+    </row>
+    <row r="332" spans="2:12" customFormat="1" hidden="1">
       <c r="B332" s="1">
         <v>331</v>
       </c>
@@ -14533,12 +14946,13 @@
       <c r="I332" s="64">
         <v>44994</v>
       </c>
-      <c r="J332" s="1" t="s">
+      <c r="J332" s="64"/>
+      <c r="K332" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K332" s="1"/>
-    </row>
-    <row r="333" spans="2:11" customFormat="1" hidden="1">
+      <c r="L332" s="1"/>
+    </row>
+    <row r="333" spans="2:12" customFormat="1" hidden="1">
       <c r="B333" s="1">
         <v>333</v>
       </c>
@@ -14561,12 +14975,13 @@
       <c r="I333" s="64">
         <v>44994</v>
       </c>
-      <c r="J333" s="1" t="s">
+      <c r="J333" s="64"/>
+      <c r="K333" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K333" s="1"/>
-    </row>
-    <row r="334" spans="2:11" customFormat="1" hidden="1">
+      <c r="L333" s="1"/>
+    </row>
+    <row r="334" spans="2:12" customFormat="1" hidden="1">
       <c r="B334" s="1">
         <v>332</v>
       </c>
@@ -14589,12 +15004,13 @@
       <c r="I334" s="64">
         <v>44995</v>
       </c>
-      <c r="J334" s="1" t="s">
+      <c r="J334" s="64"/>
+      <c r="K334" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K334" s="1"/>
-    </row>
-    <row r="335" spans="2:11" customFormat="1" hidden="1">
+      <c r="L334" s="1"/>
+    </row>
+    <row r="335" spans="2:12" customFormat="1" hidden="1">
       <c r="B335" s="1">
         <v>334</v>
       </c>
@@ -14617,12 +15033,13 @@
       <c r="I335" s="64">
         <v>44995</v>
       </c>
-      <c r="J335" s="1" t="s">
+      <c r="J335" s="64"/>
+      <c r="K335" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K335" s="1"/>
-    </row>
-    <row r="336" spans="2:11" customFormat="1" hidden="1">
+      <c r="L335" s="1"/>
+    </row>
+    <row r="336" spans="2:12" customFormat="1" hidden="1">
       <c r="B336" s="1">
         <v>335</v>
       </c>
@@ -14645,12 +15062,13 @@
       <c r="I336" s="64">
         <v>44995</v>
       </c>
-      <c r="J336" s="1" t="s">
+      <c r="J336" s="64"/>
+      <c r="K336" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K336" s="1"/>
-    </row>
-    <row r="337" spans="2:11" customFormat="1" hidden="1">
+      <c r="L336" s="1"/>
+    </row>
+    <row r="337" spans="2:12" customFormat="1" hidden="1">
       <c r="B337" s="1">
         <v>337</v>
       </c>
@@ -14673,12 +15091,13 @@
       <c r="I337" s="64">
         <v>44995</v>
       </c>
-      <c r="J337" s="1" t="s">
+      <c r="J337" s="64"/>
+      <c r="K337" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K337" s="1"/>
-    </row>
-    <row r="338" spans="2:11" customFormat="1" hidden="1">
+      <c r="L337" s="1"/>
+    </row>
+    <row r="338" spans="2:12" customFormat="1" hidden="1">
       <c r="B338" s="1">
         <v>336</v>
       </c>
@@ -14701,12 +15120,13 @@
       <c r="I338" s="64">
         <v>44998</v>
       </c>
-      <c r="J338" s="1" t="s">
+      <c r="J338" s="64"/>
+      <c r="K338" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K338" s="1"/>
-    </row>
-    <row r="339" spans="2:11" customFormat="1" hidden="1">
+      <c r="L338" s="1"/>
+    </row>
+    <row r="339" spans="2:12" customFormat="1" hidden="1">
       <c r="B339" s="1">
         <v>338</v>
       </c>
@@ -14729,12 +15149,13 @@
       <c r="I339" s="64">
         <v>44998</v>
       </c>
-      <c r="J339" s="1" t="s">
+      <c r="J339" s="64"/>
+      <c r="K339" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K339" s="1"/>
-    </row>
-    <row r="340" spans="2:11" customFormat="1" hidden="1">
+      <c r="L339" s="1"/>
+    </row>
+    <row r="340" spans="2:12" customFormat="1" hidden="1">
       <c r="B340" s="1">
         <v>339</v>
       </c>
@@ -14757,12 +15178,13 @@
       <c r="I340" s="64">
         <v>44998</v>
       </c>
-      <c r="J340" s="1" t="s">
+      <c r="J340" s="64"/>
+      <c r="K340" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K340" s="1"/>
-    </row>
-    <row r="341" spans="2:11" customFormat="1" hidden="1">
+      <c r="L340" s="1"/>
+    </row>
+    <row r="341" spans="2:12" customFormat="1" hidden="1">
       <c r="B341" s="1">
         <v>341</v>
       </c>
@@ -14785,12 +15207,13 @@
       <c r="I341" s="64">
         <v>44998</v>
       </c>
-      <c r="J341" s="1" t="s">
+      <c r="J341" s="64"/>
+      <c r="K341" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K341" s="1"/>
-    </row>
-    <row r="342" spans="2:11" customFormat="1" hidden="1">
+      <c r="L341" s="1"/>
+    </row>
+    <row r="342" spans="2:12" customFormat="1" hidden="1">
       <c r="B342" s="1">
         <v>340</v>
       </c>
@@ -14813,12 +15236,13 @@
       <c r="I342" s="64">
         <v>44999</v>
       </c>
-      <c r="J342" s="1" t="s">
+      <c r="J342" s="64"/>
+      <c r="K342" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K342" s="1"/>
-    </row>
-    <row r="343" spans="2:11" customFormat="1" hidden="1">
+      <c r="L342" s="1"/>
+    </row>
+    <row r="343" spans="2:12" customFormat="1" hidden="1">
       <c r="B343" s="1">
         <v>342</v>
       </c>
@@ -14841,12 +15265,13 @@
       <c r="I343" s="64">
         <v>44999</v>
       </c>
-      <c r="J343" s="1" t="s">
+      <c r="J343" s="64"/>
+      <c r="K343" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K343" s="1"/>
-    </row>
-    <row r="344" spans="2:11" customFormat="1" hidden="1">
+      <c r="L343" s="1"/>
+    </row>
+    <row r="344" spans="2:12" customFormat="1" hidden="1">
       <c r="B344" s="63">
         <v>18</v>
       </c>
@@ -14867,12 +15292,13 @@
       </c>
       <c r="H344" s="66"/>
       <c r="I344" s="66"/>
-      <c r="J344" s="63" t="s">
+      <c r="J344" s="66"/>
+      <c r="K344" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="K344" s="63"/>
-    </row>
-    <row r="345" spans="2:11" customFormat="1" hidden="1">
+      <c r="L344" s="63"/>
+    </row>
+    <row r="345" spans="2:12" customFormat="1" hidden="1">
       <c r="B345" s="63">
         <v>19</v>
       </c>
@@ -14893,12 +15319,13 @@
       </c>
       <c r="H345" s="66"/>
       <c r="I345" s="66"/>
-      <c r="J345" s="63" t="s">
+      <c r="J345" s="66"/>
+      <c r="K345" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="K345" s="63"/>
-    </row>
-    <row r="346" spans="2:11" customFormat="1" hidden="1">
+      <c r="L345" s="63"/>
+    </row>
+    <row r="346" spans="2:12" customFormat="1" hidden="1">
       <c r="B346" s="1">
         <v>343</v>
       </c>
@@ -14915,10 +15342,11 @@
       </c>
       <c r="H346" s="64"/>
       <c r="I346" s="64"/>
-      <c r="J346" s="1"/>
+      <c r="J346" s="64"/>
       <c r="K346" s="1"/>
-    </row>
-    <row r="347" spans="2:11" customFormat="1" hidden="1">
+      <c r="L346" s="1"/>
+    </row>
+    <row r="347" spans="2:12" customFormat="1" hidden="1">
       <c r="B347" s="1">
         <v>344</v>
       </c>
@@ -14935,10 +15363,11 @@
       </c>
       <c r="H347" s="64"/>
       <c r="I347" s="64"/>
-      <c r="J347" s="1"/>
+      <c r="J347" s="64"/>
       <c r="K347" s="1"/>
-    </row>
-    <row r="348" spans="2:11" customFormat="1" hidden="1">
+      <c r="L347" s="1"/>
+    </row>
+    <row r="348" spans="2:12" customFormat="1" hidden="1">
       <c r="B348" s="1">
         <v>345</v>
       </c>
@@ -14955,10 +15384,11 @@
       </c>
       <c r="H348" s="64"/>
       <c r="I348" s="64"/>
-      <c r="J348" s="1"/>
+      <c r="J348" s="64"/>
       <c r="K348" s="1"/>
-    </row>
-    <row r="349" spans="2:11" customFormat="1" hidden="1">
+      <c r="L348" s="1"/>
+    </row>
+    <row r="349" spans="2:12" customFormat="1" hidden="1">
       <c r="B349" s="1">
         <v>346</v>
       </c>
@@ -14975,15 +15405,16 @@
       </c>
       <c r="H349" s="64"/>
       <c r="I349" s="64"/>
-      <c r="J349" s="1"/>
+      <c r="J349" s="64"/>
       <c r="K349" s="1"/>
+      <c r="L349" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K349">
+  <autoFilter ref="B2:L349">
     <filterColumn colId="4">
-      <filters>
-        <filter val="API"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
     <filterColumn colId="5">
       <filters>
@@ -14995,18 +15426,20 @@
       <filters>
         <dateGroupItem year="2022" month="11" dateTimeGrouping="month"/>
         <dateGroupItem year="2022" month="12" day="1" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="12" day="2" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="8"/>
   </autoFilter>
   <sortState ref="B3:K349">
     <sortCondition ref="I2"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C68:E68">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  <conditionalFormatting sqref="C68:D68">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67:E67">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="C67:D67">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15030,15 +15463,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
     </row>
     <row r="2" spans="2:15" ht="15" thickBot="1">
       <c r="B2" s="12" t="s">
@@ -15106,14 +15539,14 @@
       <c r="H4" s="44">
         <v>55</v>
       </c>
-      <c r="J4" s="101" t="s">
+      <c r="J4" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="103"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="114"/>
     </row>
     <row r="5" spans="2:15" ht="15" thickBot="1">
       <c r="B5" s="39">
@@ -15230,15 +15663,15 @@
     </row>
     <row r="11" spans="2:15" ht="15" thickBot="1"/>
     <row r="12" spans="2:15" ht="15" thickBot="1">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="22" t="s">
@@ -15390,14 +15823,14 @@
       <c r="H19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="107" t="s">
+      <c r="J19" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="109"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="100"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="3">
@@ -15532,15 +15965,15 @@
     </row>
     <row r="25" spans="2:15" ht="15" thickBot="1"/>
     <row r="26" spans="2:15" ht="15" thickBot="1">
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="107"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="27" t="s">
@@ -15629,14 +16062,14 @@
       <c r="H30" s="3">
         <v>255</v>
       </c>
-      <c r="J30" s="107" t="s">
+      <c r="J30" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="109"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="100"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="3">
@@ -15700,14 +16133,14 @@
       <c r="H33" s="3">
         <v>10</v>
       </c>
-      <c r="J33" s="107" t="s">
+      <c r="J33" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="109"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="100"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="3">
@@ -15836,15 +16269,15 @@
     </row>
     <row r="41" spans="2:15" ht="15" thickBot="1"/>
     <row r="42" spans="2:15" ht="15" thickBot="1">
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="115" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="114"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="117"/>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="27" t="s">
@@ -16014,15 +16447,15 @@
     </row>
     <row r="52" spans="2:8" ht="15" thickBot="1"/>
     <row r="53" spans="2:8" ht="15" thickBot="1">
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="107"/>
     </row>
     <row r="54" spans="2:8" ht="15" thickBot="1">
       <c r="B54" s="22" t="s">
@@ -16187,15 +16620,15 @@
     </row>
     <row r="64" spans="2:8" ht="15" thickBot="1"/>
     <row r="65" spans="2:16" ht="15" thickBot="1">
-      <c r="B65" s="104" t="s">
+      <c r="B65" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="105"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="107"/>
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="27" t="s">
@@ -16278,15 +16711,15 @@
         <v>188</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="J69" s="107" t="s">
+      <c r="J69" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="K69" s="110"/>
-      <c r="L69" s="110"/>
-      <c r="M69" s="110"/>
-      <c r="N69" s="110"/>
-      <c r="O69" s="110"/>
-      <c r="P69" s="111"/>
+      <c r="K69" s="103"/>
+      <c r="L69" s="103"/>
+      <c r="M69" s="103"/>
+      <c r="N69" s="103"/>
+      <c r="O69" s="103"/>
+      <c r="P69" s="104"/>
     </row>
     <row r="70" spans="2:16">
       <c r="B70" s="34"/>
@@ -16401,15 +16834,15 @@
     </row>
     <row r="75" spans="2:16" ht="15" thickBot="1"/>
     <row r="76" spans="2:16" ht="15" thickBot="1">
-      <c r="B76" s="97" t="s">
+      <c r="B76" s="95" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="98"/>
-      <c r="D76" s="98"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="98"/>
-      <c r="H76" s="99"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="96"/>
+      <c r="H76" s="97"/>
     </row>
     <row r="77" spans="2:16" ht="15" thickBot="1">
       <c r="B77" s="22" t="s">
@@ -16625,15 +17058,15 @@
     </row>
     <row r="89" spans="2:8" ht="15" thickBot="1"/>
     <row r="90" spans="2:8" ht="15" thickBot="1">
-      <c r="B90" s="94" t="s">
+      <c r="B90" s="108" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="95"/>
-      <c r="D90" s="95"/>
-      <c r="E90" s="95"/>
-      <c r="F90" s="95"/>
-      <c r="G90" s="95"/>
-      <c r="H90" s="96"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="109"/>
+      <c r="F90" s="109"/>
+      <c r="G90" s="109"/>
+      <c r="H90" s="110"/>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="31" t="s">
@@ -16889,15 +17322,15 @@
     </row>
     <row r="105" spans="2:8" ht="15" thickBot="1"/>
     <row r="106" spans="2:8" ht="15" thickBot="1">
-      <c r="B106" s="97" t="s">
+      <c r="B106" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="98"/>
-      <c r="D106" s="98"/>
-      <c r="E106" s="98"/>
-      <c r="F106" s="98"/>
-      <c r="G106" s="98"/>
-      <c r="H106" s="99"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="96"/>
+      <c r="F106" s="96"/>
+      <c r="G106" s="96"/>
+      <c r="H106" s="97"/>
     </row>
     <row r="107" spans="2:8" ht="15" thickBot="1">
       <c r="B107" s="49" t="s">
@@ -17159,15 +17592,15 @@
     </row>
     <row r="119" spans="2:8" ht="15" thickBot="1"/>
     <row r="120" spans="2:8" ht="15" thickBot="1">
-      <c r="B120" s="97" t="s">
+      <c r="B120" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="C120" s="98"/>
-      <c r="D120" s="98"/>
-      <c r="E120" s="98"/>
-      <c r="F120" s="98"/>
-      <c r="G120" s="98"/>
-      <c r="H120" s="99"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="96"/>
+      <c r="F120" s="96"/>
+      <c r="G120" s="96"/>
+      <c r="H120" s="97"/>
     </row>
     <row r="121" spans="2:8">
       <c r="B121" s="27" t="s">
@@ -17347,15 +17780,15 @@
     </row>
     <row r="132" spans="2:8" ht="15" thickBot="1"/>
     <row r="133" spans="2:8" ht="15" thickBot="1">
-      <c r="B133" s="97" t="s">
+      <c r="B133" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="C133" s="98"/>
-      <c r="D133" s="98"/>
-      <c r="E133" s="98"/>
-      <c r="F133" s="98"/>
-      <c r="G133" s="98"/>
-      <c r="H133" s="99"/>
+      <c r="C133" s="96"/>
+      <c r="D133" s="96"/>
+      <c r="E133" s="96"/>
+      <c r="F133" s="96"/>
+      <c r="G133" s="96"/>
+      <c r="H133" s="97"/>
     </row>
     <row r="134" spans="2:8">
       <c r="B134" s="32" t="s">
@@ -17527,15 +17960,15 @@
     </row>
     <row r="143" spans="2:8" ht="15" thickBot="1"/>
     <row r="144" spans="2:8" ht="15" thickBot="1">
-      <c r="B144" s="97" t="s">
+      <c r="B144" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="C144" s="98"/>
-      <c r="D144" s="98"/>
-      <c r="E144" s="98"/>
-      <c r="F144" s="98"/>
-      <c r="G144" s="98"/>
-      <c r="H144" s="99"/>
+      <c r="C144" s="96"/>
+      <c r="D144" s="96"/>
+      <c r="E144" s="96"/>
+      <c r="F144" s="96"/>
+      <c r="G144" s="96"/>
+      <c r="H144" s="97"/>
     </row>
     <row r="145" spans="2:8">
       <c r="B145" s="27" t="s">
@@ -17706,15 +18139,15 @@
     </row>
     <row r="154" spans="2:8" ht="15" thickBot="1"/>
     <row r="155" spans="2:8" ht="15" thickBot="1">
-      <c r="B155" s="97" t="s">
+      <c r="B155" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="C155" s="98"/>
-      <c r="D155" s="98"/>
-      <c r="E155" s="98"/>
-      <c r="F155" s="98"/>
-      <c r="G155" s="98"/>
-      <c r="H155" s="99"/>
+      <c r="C155" s="96"/>
+      <c r="D155" s="96"/>
+      <c r="E155" s="96"/>
+      <c r="F155" s="96"/>
+      <c r="G155" s="96"/>
+      <c r="H155" s="97"/>
     </row>
     <row r="156" spans="2:8">
       <c r="B156" s="22" t="s">
@@ -17885,15 +18318,15 @@
       </c>
     </row>
     <row r="166" spans="2:17" ht="15" thickBot="1">
-      <c r="B166" s="116" t="s">
+      <c r="B166" s="101" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="116"/>
-      <c r="D166" s="116"/>
-      <c r="E166" s="116"/>
-      <c r="F166" s="116"/>
-      <c r="G166" s="116"/>
-      <c r="H166" s="116"/>
+      <c r="C166" s="101"/>
+      <c r="D166" s="101"/>
+      <c r="E166" s="101"/>
+      <c r="F166" s="101"/>
+      <c r="G166" s="101"/>
+      <c r="H166" s="101"/>
     </row>
     <row r="167" spans="2:17">
       <c r="B167" s="22" t="s">
@@ -17961,16 +18394,16 @@
       <c r="H169" s="3">
         <v>155</v>
       </c>
-      <c r="J169" s="107" t="s">
+      <c r="J169" s="102" t="s">
         <v>275</v>
       </c>
-      <c r="K169" s="110"/>
-      <c r="L169" s="110"/>
-      <c r="M169" s="110"/>
-      <c r="N169" s="110"/>
-      <c r="O169" s="110"/>
-      <c r="P169" s="110"/>
-      <c r="Q169" s="111"/>
+      <c r="K169" s="103"/>
+      <c r="L169" s="103"/>
+      <c r="M169" s="103"/>
+      <c r="N169" s="103"/>
+      <c r="O169" s="103"/>
+      <c r="P169" s="103"/>
+      <c r="Q169" s="104"/>
     </row>
     <row r="170" spans="2:17">
       <c r="B170" s="3">
@@ -18075,15 +18508,15 @@
     </row>
     <row r="175" spans="2:17" ht="15" thickBot="1"/>
     <row r="176" spans="2:17" ht="15" thickBot="1">
-      <c r="B176" s="104" t="s">
+      <c r="B176" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="C176" s="105"/>
-      <c r="D176" s="105"/>
-      <c r="E176" s="105"/>
-      <c r="F176" s="105"/>
-      <c r="G176" s="105"/>
-      <c r="H176" s="106"/>
+      <c r="C176" s="106"/>
+      <c r="D176" s="106"/>
+      <c r="E176" s="106"/>
+      <c r="F176" s="106"/>
+      <c r="G176" s="106"/>
+      <c r="H176" s="107"/>
     </row>
     <row r="177" spans="2:17">
       <c r="B177" s="22" t="s">
@@ -18143,16 +18576,16 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="J179" s="107" t="s">
+      <c r="J179" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="K179" s="110"/>
-      <c r="L179" s="110"/>
-      <c r="M179" s="110"/>
-      <c r="N179" s="110"/>
-      <c r="O179" s="110"/>
-      <c r="P179" s="110"/>
-      <c r="Q179" s="111"/>
+      <c r="K179" s="103"/>
+      <c r="L179" s="103"/>
+      <c r="M179" s="103"/>
+      <c r="N179" s="103"/>
+      <c r="O179" s="103"/>
+      <c r="P179" s="103"/>
+      <c r="Q179" s="104"/>
     </row>
     <row r="180" spans="2:17">
       <c r="B180" s="3">
@@ -18257,15 +18690,15 @@
     </row>
     <row r="186" spans="2:17" ht="15" thickBot="1"/>
     <row r="187" spans="2:17" ht="15" thickBot="1">
-      <c r="B187" s="97" t="s">
+      <c r="B187" s="95" t="s">
         <v>287</v>
       </c>
-      <c r="C187" s="98"/>
-      <c r="D187" s="98"/>
-      <c r="E187" s="98"/>
-      <c r="F187" s="98"/>
-      <c r="G187" s="98"/>
-      <c r="H187" s="99"/>
+      <c r="C187" s="96"/>
+      <c r="D187" s="96"/>
+      <c r="E187" s="96"/>
+      <c r="F187" s="96"/>
+      <c r="G187" s="96"/>
+      <c r="H187" s="97"/>
     </row>
     <row r="188" spans="2:17" ht="15" thickBot="1">
       <c r="B188" s="22" t="s">
@@ -18469,15 +18902,15 @@
     </row>
     <row r="199" spans="2:8" ht="15" thickBot="1"/>
     <row r="200" spans="2:8" ht="15" thickBot="1">
-      <c r="B200" s="97" t="s">
+      <c r="B200" s="95" t="s">
         <v>294</v>
       </c>
-      <c r="C200" s="98"/>
-      <c r="D200" s="98"/>
-      <c r="E200" s="98"/>
-      <c r="F200" s="98"/>
-      <c r="G200" s="98"/>
-      <c r="H200" s="99"/>
+      <c r="C200" s="96"/>
+      <c r="D200" s="96"/>
+      <c r="E200" s="96"/>
+      <c r="F200" s="96"/>
+      <c r="G200" s="96"/>
+      <c r="H200" s="97"/>
     </row>
     <row r="201" spans="2:8" ht="15" thickBot="1">
       <c r="B201" s="22" t="s">
@@ -18733,15 +19166,15 @@
     </row>
     <row r="214" spans="2:8" ht="15" thickBot="1"/>
     <row r="215" spans="2:8" ht="15" thickBot="1">
-      <c r="B215" s="97" t="s">
+      <c r="B215" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="C215" s="98"/>
-      <c r="D215" s="98"/>
-      <c r="E215" s="98"/>
-      <c r="F215" s="98"/>
-      <c r="G215" s="98"/>
-      <c r="H215" s="99"/>
+      <c r="C215" s="96"/>
+      <c r="D215" s="96"/>
+      <c r="E215" s="96"/>
+      <c r="F215" s="96"/>
+      <c r="G215" s="96"/>
+      <c r="H215" s="97"/>
     </row>
     <row r="216" spans="2:8" ht="15" thickBot="1">
       <c r="B216" s="22" t="s">
@@ -18979,15 +19412,15 @@
     </row>
     <row r="229" spans="2:8" ht="15" thickBot="1"/>
     <row r="230" spans="2:8" ht="15" thickBot="1">
-      <c r="B230" s="97" t="s">
+      <c r="B230" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="C230" s="98"/>
-      <c r="D230" s="98"/>
-      <c r="E230" s="98"/>
-      <c r="F230" s="98"/>
-      <c r="G230" s="98"/>
-      <c r="H230" s="99"/>
+      <c r="C230" s="96"/>
+      <c r="D230" s="96"/>
+      <c r="E230" s="96"/>
+      <c r="F230" s="96"/>
+      <c r="G230" s="96"/>
+      <c r="H230" s="97"/>
     </row>
     <row r="231" spans="2:8" ht="15" thickBot="1">
       <c r="B231" s="22" t="s">
@@ -19176,15 +19609,15 @@
     </row>
     <row r="241" spans="2:8" ht="15" thickBot="1"/>
     <row r="242" spans="2:8" ht="15" thickBot="1">
-      <c r="B242" s="97" t="s">
+      <c r="B242" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="C242" s="98"/>
-      <c r="D242" s="98"/>
-      <c r="E242" s="98"/>
-      <c r="F242" s="98"/>
-      <c r="G242" s="98"/>
-      <c r="H242" s="99"/>
+      <c r="C242" s="96"/>
+      <c r="D242" s="96"/>
+      <c r="E242" s="96"/>
+      <c r="F242" s="96"/>
+      <c r="G242" s="96"/>
+      <c r="H242" s="97"/>
     </row>
     <row r="243" spans="2:8" ht="15" thickBot="1">
       <c r="B243" s="22" t="s">
@@ -19505,15 +19938,15 @@
     </row>
     <row r="259" spans="2:8" ht="15" thickBot="1"/>
     <row r="260" spans="2:8" ht="15" thickBot="1">
-      <c r="B260" s="97" t="s">
+      <c r="B260" s="95" t="s">
         <v>319</v>
       </c>
-      <c r="C260" s="98"/>
-      <c r="D260" s="98"/>
-      <c r="E260" s="98"/>
-      <c r="F260" s="98"/>
-      <c r="G260" s="98"/>
-      <c r="H260" s="99"/>
+      <c r="C260" s="96"/>
+      <c r="D260" s="96"/>
+      <c r="E260" s="96"/>
+      <c r="F260" s="96"/>
+      <c r="G260" s="96"/>
+      <c r="H260" s="97"/>
     </row>
     <row r="261" spans="2:8" ht="15" thickBot="1">
       <c r="B261" s="22" t="s">
@@ -19738,15 +20171,15 @@
     </row>
     <row r="273" spans="2:16" ht="15" thickBot="1"/>
     <row r="274" spans="2:16" ht="15" thickBot="1">
-      <c r="B274" s="97" t="s">
+      <c r="B274" s="95" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="98"/>
-      <c r="D274" s="98"/>
-      <c r="E274" s="98"/>
-      <c r="F274" s="98"/>
-      <c r="G274" s="98"/>
-      <c r="H274" s="99"/>
+      <c r="C274" s="96"/>
+      <c r="D274" s="96"/>
+      <c r="E274" s="96"/>
+      <c r="F274" s="96"/>
+      <c r="G274" s="96"/>
+      <c r="H274" s="97"/>
     </row>
     <row r="275" spans="2:16" ht="15" thickBot="1">
       <c r="B275" s="22" t="s">
@@ -19812,15 +20245,15 @@
         <v>184</v>
       </c>
       <c r="H277" s="35"/>
-      <c r="J277" s="115" t="s">
+      <c r="J277" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="K277" s="108"/>
-      <c r="L277" s="108"/>
-      <c r="M277" s="108"/>
-      <c r="N277" s="108"/>
-      <c r="O277" s="108"/>
-      <c r="P277" s="109"/>
+      <c r="K277" s="99"/>
+      <c r="L277" s="99"/>
+      <c r="M277" s="99"/>
+      <c r="N277" s="99"/>
+      <c r="O277" s="99"/>
+      <c r="P277" s="100"/>
     </row>
     <row r="278" spans="2:16" ht="15" thickBot="1">
       <c r="B278" s="34">
@@ -19925,15 +20358,15 @@
     </row>
     <row r="284" spans="2:16" ht="15" thickBot="1"/>
     <row r="285" spans="2:16" ht="15" thickBot="1">
-      <c r="B285" s="97" t="s">
+      <c r="B285" s="95" t="s">
         <v>329</v>
       </c>
-      <c r="C285" s="98"/>
-      <c r="D285" s="98"/>
-      <c r="E285" s="98"/>
-      <c r="F285" s="98"/>
-      <c r="G285" s="98"/>
-      <c r="H285" s="99"/>
+      <c r="C285" s="96"/>
+      <c r="D285" s="96"/>
+      <c r="E285" s="96"/>
+      <c r="F285" s="96"/>
+      <c r="G285" s="96"/>
+      <c r="H285" s="97"/>
     </row>
     <row r="286" spans="2:16" ht="15" thickBot="1">
       <c r="B286" s="22" t="s">
@@ -20159,14 +20592,14 @@
       </c>
     </row>
     <row r="299" spans="2:8">
-      <c r="B299" s="117" t="s">
+      <c r="B299" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="C299" s="117"/>
-      <c r="D299" s="117"/>
-      <c r="E299" s="117"/>
-      <c r="F299" s="117"/>
-      <c r="G299" s="117"/>
+      <c r="C299" s="94"/>
+      <c r="D299" s="94"/>
+      <c r="E299" s="94"/>
+      <c r="F299" s="94"/>
+      <c r="G299" s="94"/>
     </row>
     <row r="300" spans="2:8">
       <c r="B300" s="11" t="s">
@@ -20331,15 +20764,15 @@
     </row>
     <row r="309" spans="2:8" ht="15" thickBot="1"/>
     <row r="310" spans="2:8" ht="15" thickBot="1">
-      <c r="B310" s="97" t="s">
+      <c r="B310" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="C310" s="98"/>
-      <c r="D310" s="98"/>
-      <c r="E310" s="98"/>
-      <c r="F310" s="98"/>
-      <c r="G310" s="98"/>
-      <c r="H310" s="99"/>
+      <c r="C310" s="96"/>
+      <c r="D310" s="96"/>
+      <c r="E310" s="96"/>
+      <c r="F310" s="96"/>
+      <c r="G310" s="96"/>
+      <c r="H310" s="97"/>
     </row>
     <row r="311" spans="2:8">
       <c r="B311" s="22" t="s">
@@ -20537,24 +20970,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B299:G299"/>
-    <mergeCell ref="B310:H310"/>
-    <mergeCell ref="B285:H285"/>
-    <mergeCell ref="B230:H230"/>
-    <mergeCell ref="B242:H242"/>
-    <mergeCell ref="B260:H260"/>
-    <mergeCell ref="B274:H274"/>
-    <mergeCell ref="J277:P277"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="J169:Q169"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="J179:Q179"/>
     <mergeCell ref="B90:H90"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B120:H120"/>
@@ -20570,6 +20985,24 @@
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="B65:H65"/>
+    <mergeCell ref="J277:P277"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="J169:Q169"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="J179:Q179"/>
+    <mergeCell ref="B299:G299"/>
+    <mergeCell ref="B310:H310"/>
+    <mergeCell ref="B285:H285"/>
+    <mergeCell ref="B230:H230"/>
+    <mergeCell ref="B242:H242"/>
+    <mergeCell ref="B260:H260"/>
+    <mergeCell ref="B274:H274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20601,13 +21034,13 @@
         <v>188</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -20618,7 +21051,7 @@
         <v>44894</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>381</v>
@@ -20633,7 +21066,7 @@
         <v>44894</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>381</v>
@@ -20648,7 +21081,7 @@
         <v>44894</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>381</v>
@@ -20663,7 +21096,7 @@
         <v>44894</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>381</v>
@@ -20678,10 +21111,10 @@
         <v>44894</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F7" s="92"/>
     </row>
@@ -20693,7 +21126,7 @@
         <v>44894</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>381</v>
@@ -20708,13 +21141,13 @@
         <v>44894</v>
       </c>
       <c r="D9" s="88" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F9" s="88" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -20725,7 +21158,7 @@
         <v>44894</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>381</v>
@@ -20740,7 +21173,7 @@
         <v>44894</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>381</v>
@@ -20755,7 +21188,7 @@
         <v>44894</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>381</v>
@@ -20770,7 +21203,7 @@
         <v>44894</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>381</v>
@@ -20785,13 +21218,13 @@
         <v>44894</v>
       </c>
       <c r="D14" s="88" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E14" s="88" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F14" s="88" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -20802,7 +21235,7 @@
         <v>44894</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>381</v>
@@ -20817,10 +21250,10 @@
         <v>44894</v>
       </c>
       <c r="D16" s="90" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E16" s="90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F16" s="90"/>
     </row>
@@ -20832,11 +21265,11 @@
         <v>44894</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -20847,11 +21280,11 @@
         <v>44894</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="2:6">

--- a/Traditional Yoga Updated Document.xlsx
+++ b/Traditional Yoga Updated Document.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\yoga_excelsheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8523B33-6686-4C3B-8125-C28BBB85FF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3324" uniqueCount="509">
   <si>
     <t xml:space="preserve">Module </t>
   </si>
@@ -1550,13 +1556,16 @@
   </si>
   <si>
     <t>ajith R</t>
+  </si>
+  <si>
+    <t>Add Course UI modified API need to update according to that</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2342,7 +2351,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2352,45 +2376,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2405,6 +2390,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2414,14 +2423,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2701,18 +2710,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:J99" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="B2:J99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:J99" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="B2:J99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="S No" dataDxfId="10"/>
-    <tableColumn id="2" name="Page" dataDxfId="9"/>
-    <tableColumn id="3" name="Method" dataDxfId="8"/>
-    <tableColumn id="4" name="API" dataDxfId="7"/>
-    <tableColumn id="6" name="Date" dataDxfId="6"/>
-    <tableColumn id="12" name="API Status" dataDxfId="5"/>
-    <tableColumn id="5" name="Resource" dataDxfId="4"/>
-    <tableColumn id="13" name="Integration Status" dataDxfId="3"/>
-    <tableColumn id="11" name="Remark" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="S No" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Page" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Method" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="API" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="API Status" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Resource" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Integration Status" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Remark" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3007,29 +3016,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>173</v>
       </c>
@@ -3052,7 +3061,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="29.4" thickBot="1">
+    <row r="3" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>174</v>
       </c>
@@ -3063,7 +3072,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="2:8" ht="29.4" thickBot="1">
+    <row r="4" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>175</v>
       </c>
@@ -3074,7 +3083,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>168</v>
       </c>
@@ -3085,7 +3094,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>176</v>
       </c>
@@ -3096,7 +3105,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1">
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>177</v>
       </c>
@@ -3107,7 +3116,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>178</v>
       </c>
@@ -3125,14 +3134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:J99"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -3145,7 +3154,7 @@
     <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="5" customFormat="1">
+    <row r="2" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="82" t="s">
         <v>395</v>
       </c>
@@ -3174,7 +3183,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -3197,7 +3206,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -3220,7 +3229,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -3243,7 +3252,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -3266,7 +3275,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -3289,7 +3298,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -3312,7 +3321,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -3335,7 +3344,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -3358,7 +3367,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -3381,7 +3390,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -3404,7 +3413,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -3427,7 +3436,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -3450,7 +3459,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -3473,7 +3482,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -3496,7 +3505,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -3519,7 +3528,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -3542,7 +3551,7 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -3565,7 +3574,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -3588,7 +3597,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -3611,7 +3620,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -3634,7 +3643,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -3657,7 +3666,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -3680,7 +3689,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -3703,7 +3712,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>24</v>
       </c>
@@ -3726,7 +3735,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>25</v>
       </c>
@@ -3749,7 +3758,7 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>26</v>
       </c>
@@ -3772,7 +3781,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>27</v>
       </c>
@@ -3795,7 +3804,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>28</v>
       </c>
@@ -3818,7 +3827,7 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>29</v>
       </c>
@@ -3841,7 +3850,7 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>30</v>
       </c>
@@ -3864,7 +3873,7 @@
       </c>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>31</v>
       </c>
@@ -3887,7 +3896,7 @@
       </c>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>32</v>
       </c>
@@ -3910,7 +3919,7 @@
       </c>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>33</v>
       </c>
@@ -3933,7 +3942,7 @@
       </c>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>34</v>
       </c>
@@ -3956,7 +3965,7 @@
       </c>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>35</v>
       </c>
@@ -3979,7 +3988,7 @@
       </c>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>36</v>
       </c>
@@ -4002,7 +4011,7 @@
       </c>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>37</v>
       </c>
@@ -4025,7 +4034,7 @@
       </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>38</v>
       </c>
@@ -4048,7 +4057,7 @@
       </c>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>39</v>
       </c>
@@ -4071,7 +4080,7 @@
       </c>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>40</v>
       </c>
@@ -4094,7 +4103,7 @@
       </c>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>41</v>
       </c>
@@ -4117,7 +4126,7 @@
       </c>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>42</v>
       </c>
@@ -4140,7 +4149,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>43</v>
       </c>
@@ -4167,7 +4176,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>44</v>
       </c>
@@ -4194,7 +4203,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>45</v>
       </c>
@@ -4221,7 +4230,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>46</v>
       </c>
@@ -4248,7 +4257,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>47</v>
       </c>
@@ -4275,7 +4284,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>48</v>
       </c>
@@ -4302,7 +4311,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>49</v>
       </c>
@@ -4329,7 +4338,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>50</v>
       </c>
@@ -4356,7 +4365,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>51</v>
       </c>
@@ -4383,7 +4392,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>52</v>
       </c>
@@ -4410,7 +4419,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>53</v>
       </c>
@@ -4439,7 +4448,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>54</v>
       </c>
@@ -4468,7 +4477,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>55</v>
       </c>
@@ -4497,7 +4506,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <v>56</v>
       </c>
@@ -4526,7 +4535,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>57</v>
       </c>
@@ -4555,7 +4564,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>58</v>
       </c>
@@ -4584,7 +4593,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>62</v>
       </c>
@@ -4601,7 +4610,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
         <v>63</v>
       </c>
@@ -4614,7 +4623,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>64</v>
       </c>
@@ -4627,7 +4636,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
         <v>65</v>
       </c>
@@ -4640,7 +4649,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
         <v>66</v>
       </c>
@@ -4653,7 +4662,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
         <v>67</v>
       </c>
@@ -4666,7 +4675,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
         <v>68</v>
       </c>
@@ -4679,7 +4688,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
         <v>69</v>
       </c>
@@ -4692,7 +4701,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
         <v>70</v>
       </c>
@@ -4705,7 +4714,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
         <v>71</v>
       </c>
@@ -4718,7 +4727,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
         <v>72</v>
       </c>
@@ -4731,7 +4740,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
         <v>73</v>
       </c>
@@ -4744,7 +4753,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <v>74</v>
       </c>
@@ -4757,7 +4766,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
         <v>75</v>
       </c>
@@ -4770,7 +4779,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="3">
         <v>76</v>
       </c>
@@ -4783,7 +4792,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="3">
         <v>77</v>
       </c>
@@ -4796,7 +4805,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="3">
         <v>78</v>
       </c>
@@ -4809,7 +4818,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="3">
         <v>79</v>
       </c>
@@ -4822,7 +4831,7 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="3">
         <v>80</v>
       </c>
@@ -4835,7 +4844,7 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="3">
         <v>81</v>
       </c>
@@ -4848,7 +4857,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="3">
         <v>82</v>
       </c>
@@ -4861,7 +4870,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="3">
         <v>83</v>
       </c>
@@ -4874,7 +4883,7 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="3">
         <v>84</v>
       </c>
@@ -4887,7 +4896,7 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="3">
         <v>85</v>
       </c>
@@ -4900,7 +4909,7 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="3">
         <v>86</v>
       </c>
@@ -4913,7 +4922,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="3">
         <v>87</v>
       </c>
@@ -4926,7 +4935,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="3">
         <v>88</v>
       </c>
@@ -4939,7 +4948,7 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="3">
         <v>89</v>
       </c>
@@ -4952,7 +4961,7 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="3">
         <v>90</v>
       </c>
@@ -4965,7 +4974,7 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="3">
         <v>91</v>
       </c>
@@ -4978,7 +4987,7 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="3">
         <v>92</v>
       </c>
@@ -4991,7 +5000,7 @@
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="3">
         <v>93</v>
       </c>
@@ -5004,7 +5013,7 @@
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="3">
         <v>94</v>
       </c>
@@ -5017,7 +5026,7 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="3">
         <v>95</v>
       </c>
@@ -5030,7 +5039,7 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="3">
         <v>96</v>
       </c>
@@ -5043,7 +5052,7 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="3">
         <v>97</v>
       </c>
@@ -5056,7 +5065,7 @@
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="3">
         <v>98</v>
       </c>
@@ -5069,7 +5078,7 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="3">
         <v>99</v>
       </c>
@@ -5082,7 +5091,7 @@
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="3">
         <v>100</v>
       </c>
@@ -5104,15 +5113,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E352" sqref="E352"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="78" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -5129,10 +5138,10 @@
     <col min="13" max="16384" width="9.109375" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:12" s="79" customFormat="1">
+    <row r="2" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="67" t="s">
         <v>164</v>
@@ -5168,7 +5177,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="72">
         <v>2</v>
       </c>
@@ -5199,7 +5208,7 @@
       </c>
       <c r="L3" s="72"/>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="72">
         <v>4</v>
       </c>
@@ -5230,7 +5239,7 @@
       </c>
       <c r="L4" s="72"/>
     </row>
-    <row r="5" spans="1:12" hidden="1">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="62">
         <v>6</v>
       </c>
@@ -5261,7 +5270,7 @@
       </c>
       <c r="L5" s="62"/>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="62">
         <v>8</v>
       </c>
@@ -5292,7 +5301,7 @@
       </c>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" hidden="1">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="72">
         <v>3</v>
       </c>
@@ -5323,7 +5332,7 @@
       </c>
       <c r="L7" s="72"/>
     </row>
-    <row r="8" spans="1:12" hidden="1">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="72">
         <v>5</v>
       </c>
@@ -5354,7 +5363,7 @@
       </c>
       <c r="L8" s="72"/>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="62">
         <v>10</v>
       </c>
@@ -5385,7 +5394,7 @@
       </c>
       <c r="L9" s="62"/>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="72">
         <v>12</v>
       </c>
@@ -5416,7 +5425,7 @@
       </c>
       <c r="L10" s="72"/>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="72">
         <v>7</v>
       </c>
@@ -5447,7 +5456,7 @@
       </c>
       <c r="L11" s="72"/>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="72">
         <v>9</v>
       </c>
@@ -5478,7 +5487,7 @@
       </c>
       <c r="L12" s="72"/>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="72">
         <v>14</v>
       </c>
@@ -5509,7 +5518,7 @@
       </c>
       <c r="L13" s="72"/>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="72">
         <v>16</v>
       </c>
@@ -5540,7 +5549,7 @@
       </c>
       <c r="L14" s="72"/>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="72">
         <v>11</v>
       </c>
@@ -5571,7 +5580,7 @@
       </c>
       <c r="L15" s="72"/>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="72">
         <v>13</v>
       </c>
@@ -5602,7 +5611,7 @@
       </c>
       <c r="L16" s="72"/>
     </row>
-    <row r="17" spans="2:12" hidden="1">
+    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="72">
         <v>15</v>
       </c>
@@ -5633,7 +5642,7 @@
       </c>
       <c r="L17" s="72"/>
     </row>
-    <row r="18" spans="2:12" hidden="1">
+    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="72">
         <v>17</v>
       </c>
@@ -5664,7 +5673,7 @@
       </c>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="2:12" hidden="1">
+    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="75">
         <v>22</v>
       </c>
@@ -5695,7 +5704,7 @@
       </c>
       <c r="L19" s="75"/>
     </row>
-    <row r="20" spans="2:12" hidden="1">
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="75">
         <v>24</v>
       </c>
@@ -5726,7 +5735,7 @@
       </c>
       <c r="L20" s="75"/>
     </row>
-    <row r="21" spans="2:12" hidden="1">
+    <row r="21" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="75">
         <v>26</v>
       </c>
@@ -5757,7 +5766,7 @@
       </c>
       <c r="L21" s="75"/>
     </row>
-    <row r="22" spans="2:12" hidden="1">
+    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="75">
         <v>28</v>
       </c>
@@ -5788,7 +5797,7 @@
       </c>
       <c r="L22" s="75"/>
     </row>
-    <row r="23" spans="2:12" hidden="1">
+    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="72">
         <v>23</v>
       </c>
@@ -5819,7 +5828,7 @@
       </c>
       <c r="L23" s="72"/>
     </row>
-    <row r="24" spans="2:12" hidden="1">
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="75">
         <v>30</v>
       </c>
@@ -5850,7 +5859,7 @@
       </c>
       <c r="L24" s="75"/>
     </row>
-    <row r="25" spans="2:12" hidden="1">
+    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="75">
         <v>32</v>
       </c>
@@ -5881,7 +5890,7 @@
       </c>
       <c r="L25" s="75"/>
     </row>
-    <row r="26" spans="2:12" hidden="1">
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="63">
         <v>1</v>
       </c>
@@ -5906,7 +5915,7 @@
       <c r="K26" s="63"/>
       <c r="L26" s="63"/>
     </row>
-    <row r="27" spans="2:12" hidden="1">
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="72">
         <v>27</v>
       </c>
@@ -5937,7 +5946,7 @@
       </c>
       <c r="L27" s="72"/>
     </row>
-    <row r="28" spans="2:12" hidden="1">
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="72">
         <v>29</v>
       </c>
@@ -5968,7 +5977,7 @@
       </c>
       <c r="L28" s="72"/>
     </row>
-    <row r="29" spans="2:12" hidden="1">
+    <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="75">
         <v>34</v>
       </c>
@@ -5999,7 +6008,7 @@
       </c>
       <c r="L29" s="75"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="75">
         <v>36</v>
       </c>
@@ -6030,7 +6039,7 @@
       </c>
       <c r="L30" s="75"/>
     </row>
-    <row r="31" spans="2:12" hidden="1">
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>37</v>
       </c>
@@ -6063,7 +6072,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="2:12" hidden="1">
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>25</v>
       </c>
@@ -6094,7 +6103,7 @@
       </c>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="2:12" hidden="1">
+    <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="72">
         <v>31</v>
       </c>
@@ -6125,7 +6134,7 @@
       </c>
       <c r="L33" s="72"/>
     </row>
-    <row r="34" spans="2:12" hidden="1">
+    <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="72">
         <v>33</v>
       </c>
@@ -6156,7 +6165,7 @@
       </c>
       <c r="L34" s="72"/>
     </row>
-    <row r="35" spans="2:12" hidden="1">
+    <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="72">
         <v>35</v>
       </c>
@@ -6187,7 +6196,7 @@
       </c>
       <c r="L35" s="72"/>
     </row>
-    <row r="36" spans="2:12" hidden="1">
+    <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="75">
         <v>39</v>
       </c>
@@ -6220,7 +6229,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="2:12" hidden="1">
+    <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="75">
         <v>41</v>
       </c>
@@ -6253,7 +6262,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:12" hidden="1">
+    <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="72">
         <v>43</v>
       </c>
@@ -6284,7 +6293,7 @@
       </c>
       <c r="L38" s="72"/>
     </row>
-    <row r="39" spans="2:12" hidden="1">
+    <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -6315,7 +6324,7 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>40</v>
       </c>
@@ -6348,7 +6357,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="2:12" hidden="1">
+    <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>42</v>
       </c>
@@ -6379,7 +6388,7 @@
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>44</v>
       </c>
@@ -6412,7 +6421,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="2:12" hidden="1">
+    <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="72">
         <v>45</v>
       </c>
@@ -6443,7 +6452,7 @@
       </c>
       <c r="L43" s="72"/>
     </row>
-    <row r="44" spans="2:12" hidden="1">
+    <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="75">
         <v>47</v>
       </c>
@@ -6476,7 +6485,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="2:12" hidden="1">
+    <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="75">
         <v>49</v>
       </c>
@@ -6509,7 +6518,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="2:12" hidden="1">
+    <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>46</v>
       </c>
@@ -6540,7 +6549,7 @@
       </c>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="2:12" hidden="1">
+    <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>48</v>
       </c>
@@ -6573,7 +6582,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="2:12" hidden="1">
+    <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>50</v>
       </c>
@@ -6606,7 +6615,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="2:12" hidden="1">
+    <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="72">
         <v>51</v>
       </c>
@@ -6637,7 +6646,7 @@
       </c>
       <c r="L49" s="72"/>
     </row>
-    <row r="50" spans="2:12" hidden="1">
+    <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>52</v>
       </c>
@@ -6668,7 +6677,7 @@
       </c>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="2:12" hidden="1">
+    <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="72">
         <v>53</v>
       </c>
@@ -6699,7 +6708,7 @@
       </c>
       <c r="L51" s="72"/>
     </row>
-    <row r="52" spans="2:12" hidden="1">
+    <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>54</v>
       </c>
@@ -6732,7 +6741,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="53" spans="2:12" hidden="1">
+    <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>55</v>
       </c>
@@ -6763,7 +6772,7 @@
       </c>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="2:12" hidden="1">
+    <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>56</v>
       </c>
@@ -6796,7 +6805,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="2:12" hidden="1">
+    <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="72">
         <v>57</v>
       </c>
@@ -6827,7 +6836,7 @@
       </c>
       <c r="L55" s="72"/>
     </row>
-    <row r="56" spans="2:12" hidden="1">
+    <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>58</v>
       </c>
@@ -6860,7 +6869,7 @@
       </c>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="2:12" hidden="1">
+    <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>60</v>
       </c>
@@ -6893,7 +6902,7 @@
       </c>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="2:12" hidden="1">
+    <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>62</v>
       </c>
@@ -6926,7 +6935,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="2:12" hidden="1">
+    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>64</v>
       </c>
@@ -6959,7 +6968,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="2:12" hidden="1">
+    <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>66</v>
       </c>
@@ -6992,7 +7001,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="2:12" hidden="1">
+    <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="72">
         <v>59</v>
       </c>
@@ -7023,7 +7032,7 @@
       </c>
       <c r="L61" s="72"/>
     </row>
-    <row r="62" spans="2:12" hidden="1">
+    <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="70">
         <v>61</v>
       </c>
@@ -7054,40 +7063,40 @@
       </c>
       <c r="L62" s="70"/>
     </row>
-    <row r="63" spans="2:12" ht="28.8" hidden="1">
-      <c r="B63" s="118">
+    <row r="63" spans="2:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="94">
         <v>68</v>
       </c>
-      <c r="C63" s="118" t="s">
+      <c r="C63" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="119" t="s">
+      <c r="D63" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="118" t="s">
+      <c r="E63" s="94" t="s">
         <v>502</v>
       </c>
-      <c r="F63" s="118" t="s">
+      <c r="F63" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="G63" s="118" t="s">
+      <c r="G63" s="94" t="s">
         <v>503</v>
       </c>
-      <c r="H63" s="120">
+      <c r="H63" s="96">
         <v>44887</v>
       </c>
-      <c r="I63" s="120">
+      <c r="I63" s="96">
         <v>44887</v>
       </c>
-      <c r="J63" s="120"/>
-      <c r="K63" s="118" t="s">
+      <c r="J63" s="96"/>
+      <c r="K63" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="L63" s="118" t="s">
+      <c r="L63" s="94" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="64" spans="2:12" hidden="1">
+    <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>70</v>
       </c>
@@ -7118,7 +7127,7 @@
       </c>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" s="70">
         <v>63</v>
       </c>
@@ -7149,7 +7158,7 @@
       </c>
       <c r="L65" s="70"/>
     </row>
-    <row r="66" spans="2:12" hidden="1">
+    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="70">
         <v>65</v>
       </c>
@@ -7180,7 +7189,7 @@
       </c>
       <c r="L66" s="70"/>
     </row>
-    <row r="67" spans="2:12" hidden="1">
+    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>72</v>
       </c>
@@ -7213,7 +7222,7 @@
       </c>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="2:12">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>74</v>
       </c>
@@ -7244,7 +7253,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="2:12" hidden="1">
+    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="70">
         <v>67</v>
       </c>
@@ -7275,7 +7284,7 @@
       </c>
       <c r="L69" s="70"/>
     </row>
-    <row r="70" spans="2:12" hidden="1">
+    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="70">
         <v>69</v>
       </c>
@@ -7306,7 +7315,7 @@
       </c>
       <c r="L70" s="70"/>
     </row>
-    <row r="71" spans="2:12">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>76</v>
       </c>
@@ -7337,7 +7346,7 @@
       </c>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="2:12" hidden="1">
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>78</v>
       </c>
@@ -7370,7 +7379,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="73" spans="2:12" hidden="1">
+    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>71</v>
       </c>
@@ -7401,7 +7410,7 @@
       </c>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="2:12" hidden="1">
+    <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <v>73</v>
       </c>
@@ -7432,7 +7441,7 @@
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="2:12" hidden="1">
+    <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="70">
         <v>75</v>
       </c>
@@ -7463,7 +7472,7 @@
       </c>
       <c r="L75" s="70"/>
     </row>
-    <row r="76" spans="2:12" hidden="1">
+    <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="70">
         <v>77</v>
       </c>
@@ -7494,7 +7503,7 @@
       </c>
       <c r="L76" s="70"/>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>80</v>
       </c>
@@ -7525,7 +7534,7 @@
       </c>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="2:12" hidden="1">
+    <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>82</v>
       </c>
@@ -7556,7 +7565,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="79" spans="2:12" hidden="1">
+    <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>79</v>
       </c>
@@ -7587,7 +7596,7 @@
       </c>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="2:12" hidden="1">
+    <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>81</v>
       </c>
@@ -7618,7 +7627,7 @@
       </c>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="2:12" hidden="1">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1">
         <v>84</v>
       </c>
@@ -7649,7 +7658,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="82" spans="2:12">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B82" s="1">
         <v>86</v>
       </c>
@@ -7680,7 +7689,7 @@
       </c>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="2:12" hidden="1">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
         <v>83</v>
       </c>
@@ -7711,7 +7720,7 @@
       </c>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="2:12" hidden="1">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
         <v>85</v>
       </c>
@@ -7742,40 +7751,40 @@
       </c>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="2:12">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>88</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D85" s="118" t="s">
+      <c r="D85" s="94" t="s">
         <v>38</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="F85" s="118" t="s">
+      <c r="F85" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="G85" s="118" t="s">
-        <v>383</v>
-      </c>
-      <c r="H85" s="120">
+      <c r="G85" s="94" t="s">
+        <v>383</v>
+      </c>
+      <c r="H85" s="96">
         <v>44895</v>
       </c>
-      <c r="I85" s="120">
+      <c r="I85" s="96">
         <v>44895</v>
       </c>
-      <c r="J85" s="120"/>
-      <c r="K85" s="118" t="s">
+      <c r="J85" s="96"/>
+      <c r="K85" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="L85" s="118" t="s">
+      <c r="L85" s="94" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="2:12">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B86" s="1">
         <v>90</v>
       </c>
@@ -7806,7 +7815,7 @@
       </c>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="2:12" customFormat="1" hidden="1">
+    <row r="87" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="1">
         <v>87</v>
       </c>
@@ -7837,7 +7846,7 @@
       </c>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="2:12" customFormat="1" hidden="1">
+    <row r="88" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
         <v>89</v>
       </c>
@@ -7868,7 +7877,7 @@
       </c>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="2:12" customFormat="1">
+    <row r="89" spans="2:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1">
         <v>92</v>
       </c>
@@ -7899,7 +7908,7 @@
       </c>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="2:12" customFormat="1">
+    <row r="90" spans="2:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1">
         <v>94</v>
       </c>
@@ -7930,7 +7939,7 @@
       </c>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="2:12" customFormat="1">
+    <row r="91" spans="2:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1">
         <v>91</v>
       </c>
@@ -7961,7 +7970,7 @@
       </c>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="2:12" customFormat="1">
+    <row r="92" spans="2:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
         <v>93</v>
       </c>
@@ -7992,7 +8001,7 @@
       </c>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="2:12" customFormat="1">
+    <row r="93" spans="2:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
         <v>96</v>
       </c>
@@ -8021,7 +8030,7 @@
       </c>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="2:12" customFormat="1">
+    <row r="94" spans="2:12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1">
         <v>98</v>
       </c>
@@ -8050,7 +8059,7 @@
       </c>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="2:12" customFormat="1" hidden="1">
+    <row r="95" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95" s="1">
         <v>95</v>
       </c>
@@ -8079,7 +8088,7 @@
       </c>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="2:12" customFormat="1" hidden="1">
+    <row r="96" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1">
         <v>97</v>
       </c>
@@ -8108,7 +8117,7 @@
       </c>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="2:12" customFormat="1" hidden="1">
+    <row r="97" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1">
         <v>100</v>
       </c>
@@ -8137,7 +8146,7 @@
       </c>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="2:12" customFormat="1" hidden="1">
+    <row r="98" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1">
         <v>102</v>
       </c>
@@ -8166,7 +8175,7 @@
       </c>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="2:12" customFormat="1" hidden="1">
+    <row r="99" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1">
         <v>99</v>
       </c>
@@ -8195,7 +8204,7 @@
       </c>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="2:12" customFormat="1" hidden="1">
+    <row r="100" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1">
         <v>101</v>
       </c>
@@ -8224,7 +8233,7 @@
       </c>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="2:12" customFormat="1" hidden="1">
+    <row r="101" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1">
         <v>104</v>
       </c>
@@ -8253,7 +8262,7 @@
       </c>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="2:12" customFormat="1" hidden="1">
+    <row r="102" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1">
         <v>106</v>
       </c>
@@ -8282,7 +8291,7 @@
       </c>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="2:12" customFormat="1" hidden="1">
+    <row r="103" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="1">
         <v>103</v>
       </c>
@@ -8311,7 +8320,7 @@
       </c>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="2:12" customFormat="1" hidden="1">
+    <row r="104" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="1">
         <v>105</v>
       </c>
@@ -8340,7 +8349,7 @@
       </c>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="2:12" customFormat="1" hidden="1">
+    <row r="105" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="1">
         <v>108</v>
       </c>
@@ -8369,7 +8378,7 @@
       </c>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="2:12" customFormat="1" hidden="1">
+    <row r="106" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="1">
         <v>110</v>
       </c>
@@ -8398,7 +8407,7 @@
       </c>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="2:12" customFormat="1" hidden="1">
+    <row r="107" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="1">
         <v>107</v>
       </c>
@@ -8427,7 +8436,7 @@
       </c>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="2:12" customFormat="1" hidden="1">
+    <row r="108" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="1">
         <v>109</v>
       </c>
@@ -8456,7 +8465,7 @@
       </c>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="2:12" customFormat="1" hidden="1">
+    <row r="109" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1">
         <v>112</v>
       </c>
@@ -8485,7 +8494,7 @@
       </c>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="2:12" customFormat="1" hidden="1">
+    <row r="110" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="1">
         <v>114</v>
       </c>
@@ -8514,7 +8523,7 @@
       </c>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="2:12" customFormat="1" hidden="1">
+    <row r="111" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="1">
         <v>111</v>
       </c>
@@ -8543,7 +8552,7 @@
       </c>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="2:12" customFormat="1" hidden="1">
+    <row r="112" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B112" s="1">
         <v>116</v>
       </c>
@@ -8572,7 +8581,7 @@
       </c>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="2:12" customFormat="1" hidden="1">
+    <row r="113" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113" s="1">
         <v>118</v>
       </c>
@@ -8601,7 +8610,7 @@
       </c>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="2:12" customFormat="1" hidden="1">
+    <row r="114" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114" s="1">
         <v>113</v>
       </c>
@@ -8630,7 +8639,7 @@
       </c>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="2:12" customFormat="1" hidden="1">
+    <row r="115" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="1">
         <v>115</v>
       </c>
@@ -8659,7 +8668,7 @@
       </c>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="2:12" customFormat="1" hidden="1">
+    <row r="116" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116" s="1">
         <v>120</v>
       </c>
@@ -8688,7 +8697,7 @@
       </c>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="2:12" customFormat="1" ht="28.8" hidden="1">
+    <row r="117" spans="2:12" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117" s="1">
         <v>122</v>
       </c>
@@ -8717,7 +8726,7 @@
       </c>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="2:12" customFormat="1" hidden="1">
+    <row r="118" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" s="1">
         <v>117</v>
       </c>
@@ -8746,7 +8755,7 @@
       </c>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" spans="2:12" customFormat="1" hidden="1">
+    <row r="119" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" s="1">
         <v>119</v>
       </c>
@@ -8775,7 +8784,7 @@
       </c>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="2:12" customFormat="1" ht="28.8" hidden="1">
+    <row r="120" spans="2:12" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" s="1">
         <v>124</v>
       </c>
@@ -8804,7 +8813,7 @@
       </c>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" spans="2:12" customFormat="1" ht="28.8" hidden="1">
+    <row r="121" spans="2:12" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" s="1">
         <v>121</v>
       </c>
@@ -8833,7 +8842,7 @@
       </c>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="2:12" customFormat="1" ht="28.8" hidden="1">
+    <row r="122" spans="2:12" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122" s="1">
         <v>123</v>
       </c>
@@ -8862,7 +8871,7 @@
       </c>
       <c r="L122" s="1"/>
     </row>
-    <row r="123" spans="2:12" customFormat="1" hidden="1">
+    <row r="123" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123" s="1">
         <v>125</v>
       </c>
@@ -8891,7 +8900,7 @@
       </c>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="2:12" customFormat="1" ht="28.8" hidden="1">
+    <row r="124" spans="2:12" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" s="1">
         <v>127</v>
       </c>
@@ -8920,7 +8929,7 @@
       </c>
       <c r="L124" s="1"/>
     </row>
-    <row r="125" spans="2:12" customFormat="1" hidden="1">
+    <row r="125" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125" s="1">
         <v>126</v>
       </c>
@@ -8949,7 +8958,7 @@
       </c>
       <c r="L125" s="1"/>
     </row>
-    <row r="126" spans="2:12" customFormat="1" ht="28.8" hidden="1">
+    <row r="126" spans="2:12" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126" s="1">
         <v>128</v>
       </c>
@@ -8978,7 +8987,7 @@
       </c>
       <c r="L126" s="1"/>
     </row>
-    <row r="127" spans="2:12" customFormat="1" hidden="1">
+    <row r="127" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127" s="1">
         <v>129</v>
       </c>
@@ -9007,7 +9016,7 @@
       </c>
       <c r="L127" s="1"/>
     </row>
-    <row r="128" spans="2:12" customFormat="1" hidden="1">
+    <row r="128" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B128" s="1">
         <v>131</v>
       </c>
@@ -9036,7 +9045,7 @@
       </c>
       <c r="L128" s="1"/>
     </row>
-    <row r="129" spans="2:12" customFormat="1" hidden="1">
+    <row r="129" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129" s="1">
         <v>130</v>
       </c>
@@ -9065,7 +9074,7 @@
       </c>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="2:12" customFormat="1" hidden="1">
+    <row r="130" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130" s="1">
         <v>132</v>
       </c>
@@ -9094,7 +9103,7 @@
       </c>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" spans="2:12" customFormat="1" ht="28.8" hidden="1">
+    <row r="131" spans="2:12" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1">
         <v>133</v>
       </c>
@@ -9123,7 +9132,7 @@
       </c>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="2:12" customFormat="1" hidden="1">
+    <row r="132" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132" s="1">
         <v>135</v>
       </c>
@@ -9152,7 +9161,7 @@
       </c>
       <c r="L132" s="1"/>
     </row>
-    <row r="133" spans="2:12" customFormat="1" ht="28.8" hidden="1">
+    <row r="133" spans="2:12" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133" s="1">
         <v>134</v>
       </c>
@@ -9181,7 +9190,7 @@
       </c>
       <c r="L133" s="1"/>
     </row>
-    <row r="134" spans="2:12" customFormat="1" hidden="1">
+    <row r="134" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134" s="1">
         <v>136</v>
       </c>
@@ -9210,7 +9219,7 @@
       </c>
       <c r="L134" s="1"/>
     </row>
-    <row r="135" spans="2:12" customFormat="1" hidden="1">
+    <row r="135" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135" s="70">
         <v>20</v>
       </c>
@@ -9239,7 +9248,7 @@
       </c>
       <c r="L135" s="70"/>
     </row>
-    <row r="136" spans="2:12" customFormat="1" hidden="1">
+    <row r="136" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B136" s="70">
         <v>21</v>
       </c>
@@ -9268,7 +9277,7 @@
       </c>
       <c r="L136" s="70"/>
     </row>
-    <row r="137" spans="2:12" customFormat="1" hidden="1">
+    <row r="137" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" s="1">
         <v>137</v>
       </c>
@@ -9297,7 +9306,7 @@
       </c>
       <c r="L137" s="1"/>
     </row>
-    <row r="138" spans="2:12" customFormat="1" hidden="1">
+    <row r="138" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" s="1">
         <v>139</v>
       </c>
@@ -9326,7 +9335,7 @@
       </c>
       <c r="L138" s="1"/>
     </row>
-    <row r="139" spans="2:12" customFormat="1" hidden="1">
+    <row r="139" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" s="1">
         <v>138</v>
       </c>
@@ -9355,7 +9364,7 @@
       </c>
       <c r="L139" s="1"/>
     </row>
-    <row r="140" spans="2:12" customFormat="1" hidden="1">
+    <row r="140" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" s="1">
         <v>140</v>
       </c>
@@ -9384,7 +9393,7 @@
       </c>
       <c r="L140" s="1"/>
     </row>
-    <row r="141" spans="2:12" customFormat="1" hidden="1">
+    <row r="141" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141" s="1">
         <v>141</v>
       </c>
@@ -9413,7 +9422,7 @@
       </c>
       <c r="L141" s="1"/>
     </row>
-    <row r="142" spans="2:12" customFormat="1" hidden="1">
+    <row r="142" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142" s="1">
         <v>143</v>
       </c>
@@ -9442,7 +9451,7 @@
       </c>
       <c r="L142" s="1"/>
     </row>
-    <row r="143" spans="2:12" customFormat="1" hidden="1">
+    <row r="143" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1">
         <v>142</v>
       </c>
@@ -9471,7 +9480,7 @@
       </c>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" spans="2:12" customFormat="1" hidden="1">
+    <row r="144" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B144" s="1">
         <v>144</v>
       </c>
@@ -9500,7 +9509,7 @@
       </c>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" spans="2:12" customFormat="1" hidden="1">
+    <row r="145" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145" s="1">
         <v>145</v>
       </c>
@@ -9529,7 +9538,7 @@
       </c>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="2:12" customFormat="1" hidden="1">
+    <row r="146" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146" s="1">
         <v>147</v>
       </c>
@@ -9558,7 +9567,7 @@
       </c>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="2:12" customFormat="1" hidden="1">
+    <row r="147" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147" s="1">
         <v>146</v>
       </c>
@@ -9587,7 +9596,7 @@
       </c>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="2:12" customFormat="1" hidden="1">
+    <row r="148" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148" s="1">
         <v>148</v>
       </c>
@@ -9616,7 +9625,7 @@
       </c>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" spans="2:12" customFormat="1" hidden="1">
+    <row r="149" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149" s="1">
         <v>149</v>
       </c>
@@ -9645,7 +9654,7 @@
       </c>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="2:12" customFormat="1" hidden="1">
+    <row r="150" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150" s="1">
         <v>151</v>
       </c>
@@ -9674,7 +9683,7 @@
       </c>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="2:12" customFormat="1" hidden="1">
+    <row r="151" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151" s="1">
         <v>150</v>
       </c>
@@ -9703,7 +9712,7 @@
       </c>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="2:12" customFormat="1" hidden="1">
+    <row r="152" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B152" s="1">
         <v>152</v>
       </c>
@@ -9732,7 +9741,7 @@
       </c>
       <c r="L152" s="1"/>
     </row>
-    <row r="153" spans="2:12" customFormat="1" hidden="1">
+    <row r="153" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153" s="1">
         <v>153</v>
       </c>
@@ -9761,7 +9770,7 @@
       </c>
       <c r="L153" s="1"/>
     </row>
-    <row r="154" spans="2:12" customFormat="1" hidden="1">
+    <row r="154" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" s="1">
         <v>155</v>
       </c>
@@ -9790,7 +9799,7 @@
       </c>
       <c r="L154" s="1"/>
     </row>
-    <row r="155" spans="2:12" customFormat="1" hidden="1">
+    <row r="155" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" s="1">
         <v>154</v>
       </c>
@@ -9819,7 +9828,7 @@
       </c>
       <c r="L155" s="1"/>
     </row>
-    <row r="156" spans="2:12" customFormat="1" hidden="1">
+    <row r="156" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" s="1">
         <v>156</v>
       </c>
@@ -9848,7 +9857,7 @@
       </c>
       <c r="L156" s="1"/>
     </row>
-    <row r="157" spans="2:12" customFormat="1" hidden="1">
+    <row r="157" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" s="1">
         <v>157</v>
       </c>
@@ -9877,7 +9886,7 @@
       </c>
       <c r="L157" s="1"/>
     </row>
-    <row r="158" spans="2:12" customFormat="1" hidden="1">
+    <row r="158" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" s="1">
         <v>158</v>
       </c>
@@ -9906,7 +9915,7 @@
       </c>
       <c r="L158" s="1"/>
     </row>
-    <row r="159" spans="2:12" customFormat="1" hidden="1">
+    <row r="159" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" s="1">
         <v>159</v>
       </c>
@@ -9935,7 +9944,7 @@
       </c>
       <c r="L159" s="1"/>
     </row>
-    <row r="160" spans="2:12" customFormat="1" hidden="1">
+    <row r="160" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B160" s="1">
         <v>161</v>
       </c>
@@ -9964,7 +9973,7 @@
       </c>
       <c r="L160" s="1"/>
     </row>
-    <row r="161" spans="2:12" customFormat="1" hidden="1">
+    <row r="161" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161" s="1">
         <v>160</v>
       </c>
@@ -9993,7 +10002,7 @@
       </c>
       <c r="L161" s="1"/>
     </row>
-    <row r="162" spans="2:12" customFormat="1" hidden="1">
+    <row r="162" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162" s="1">
         <v>162</v>
       </c>
@@ -10022,7 +10031,7 @@
       </c>
       <c r="L162" s="1"/>
     </row>
-    <row r="163" spans="2:12" customFormat="1" hidden="1">
+    <row r="163" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163" s="1">
         <v>163</v>
       </c>
@@ -10051,7 +10060,7 @@
       </c>
       <c r="L163" s="1"/>
     </row>
-    <row r="164" spans="2:12" customFormat="1" hidden="1">
+    <row r="164" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164" s="1">
         <v>165</v>
       </c>
@@ -10080,7 +10089,7 @@
       </c>
       <c r="L164" s="1"/>
     </row>
-    <row r="165" spans="2:12" customFormat="1" hidden="1">
+    <row r="165" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165" s="1">
         <v>164</v>
       </c>
@@ -10109,7 +10118,7 @@
       </c>
       <c r="L165" s="1"/>
     </row>
-    <row r="166" spans="2:12" customFormat="1" hidden="1">
+    <row r="166" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166" s="1">
         <v>166</v>
       </c>
@@ -10138,7 +10147,7 @@
       </c>
       <c r="L166" s="1"/>
     </row>
-    <row r="167" spans="2:12" customFormat="1" hidden="1">
+    <row r="167" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167" s="1">
         <v>167</v>
       </c>
@@ -10167,7 +10176,7 @@
       </c>
       <c r="L167" s="1"/>
     </row>
-    <row r="168" spans="2:12" customFormat="1" hidden="1">
+    <row r="168" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B168" s="1">
         <v>169</v>
       </c>
@@ -10196,7 +10205,7 @@
       </c>
       <c r="L168" s="1"/>
     </row>
-    <row r="169" spans="2:12" customFormat="1" hidden="1">
+    <row r="169" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169" s="1">
         <v>168</v>
       </c>
@@ -10225,7 +10234,7 @@
       </c>
       <c r="L169" s="1"/>
     </row>
-    <row r="170" spans="2:12" customFormat="1" hidden="1">
+    <row r="170" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170" s="1">
         <v>170</v>
       </c>
@@ -10254,7 +10263,7 @@
       </c>
       <c r="L170" s="1"/>
     </row>
-    <row r="171" spans="2:12" customFormat="1" hidden="1">
+    <row r="171" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171" s="1">
         <v>171</v>
       </c>
@@ -10283,7 +10292,7 @@
       </c>
       <c r="L171" s="1"/>
     </row>
-    <row r="172" spans="2:12" customFormat="1" hidden="1">
+    <row r="172" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172" s="1">
         <v>173</v>
       </c>
@@ -10312,7 +10321,7 @@
       </c>
       <c r="L172" s="1"/>
     </row>
-    <row r="173" spans="2:12" customFormat="1" hidden="1">
+    <row r="173" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173" s="1">
         <v>172</v>
       </c>
@@ -10341,7 +10350,7 @@
       </c>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="2:12" customFormat="1" hidden="1">
+    <row r="174" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174" s="1">
         <v>174</v>
       </c>
@@ -10370,7 +10379,7 @@
       </c>
       <c r="L174" s="1"/>
     </row>
-    <row r="175" spans="2:12" customFormat="1" hidden="1">
+    <row r="175" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175" s="1">
         <v>175</v>
       </c>
@@ -10399,7 +10408,7 @@
       </c>
       <c r="L175" s="1"/>
     </row>
-    <row r="176" spans="2:12" customFormat="1" hidden="1">
+    <row r="176" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B176" s="1">
         <v>177</v>
       </c>
@@ -10428,7 +10437,7 @@
       </c>
       <c r="L176" s="1"/>
     </row>
-    <row r="177" spans="2:12" customFormat="1" hidden="1">
+    <row r="177" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177" s="1">
         <v>176</v>
       </c>
@@ -10457,7 +10466,7 @@
       </c>
       <c r="L177" s="1"/>
     </row>
-    <row r="178" spans="2:12" customFormat="1" hidden="1">
+    <row r="178" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178" s="1">
         <v>178</v>
       </c>
@@ -10486,7 +10495,7 @@
       </c>
       <c r="L178" s="1"/>
     </row>
-    <row r="179" spans="2:12" customFormat="1" hidden="1">
+    <row r="179" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179" s="1">
         <v>179</v>
       </c>
@@ -10515,7 +10524,7 @@
       </c>
       <c r="L179" s="1"/>
     </row>
-    <row r="180" spans="2:12" customFormat="1" hidden="1">
+    <row r="180" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180" s="1">
         <v>181</v>
       </c>
@@ -10544,7 +10553,7 @@
       </c>
       <c r="L180" s="1"/>
     </row>
-    <row r="181" spans="2:12" customFormat="1" hidden="1">
+    <row r="181" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181" s="1">
         <v>180</v>
       </c>
@@ -10573,7 +10582,7 @@
       </c>
       <c r="L181" s="1"/>
     </row>
-    <row r="182" spans="2:12" customFormat="1" hidden="1">
+    <row r="182" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182" s="1">
         <v>182</v>
       </c>
@@ -10602,7 +10611,7 @@
       </c>
       <c r="L182" s="1"/>
     </row>
-    <row r="183" spans="2:12" customFormat="1" hidden="1">
+    <row r="183" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" s="1">
         <v>183</v>
       </c>
@@ -10631,7 +10640,7 @@
       </c>
       <c r="L183" s="1"/>
     </row>
-    <row r="184" spans="2:12" customFormat="1" hidden="1">
+    <row r="184" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" s="1">
         <v>185</v>
       </c>
@@ -10660,7 +10669,7 @@
       </c>
       <c r="L184" s="1"/>
     </row>
-    <row r="185" spans="2:12" customFormat="1" hidden="1">
+    <row r="185" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185" s="1">
         <v>184</v>
       </c>
@@ -10689,7 +10698,7 @@
       </c>
       <c r="L185" s="1"/>
     </row>
-    <row r="186" spans="2:12" customFormat="1" hidden="1">
+    <row r="186" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" s="1">
         <v>186</v>
       </c>
@@ -10718,7 +10727,7 @@
       </c>
       <c r="L186" s="1"/>
     </row>
-    <row r="187" spans="2:12" customFormat="1" hidden="1">
+    <row r="187" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187" s="1">
         <v>187</v>
       </c>
@@ -10747,7 +10756,7 @@
       </c>
       <c r="L187" s="1"/>
     </row>
-    <row r="188" spans="2:12" customFormat="1" hidden="1">
+    <row r="188" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" s="1">
         <v>189</v>
       </c>
@@ -10776,7 +10785,7 @@
       </c>
       <c r="L188" s="1"/>
     </row>
-    <row r="189" spans="2:12" customFormat="1" hidden="1">
+    <row r="189" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189" s="1">
         <v>188</v>
       </c>
@@ -10805,7 +10814,7 @@
       </c>
       <c r="L189" s="1"/>
     </row>
-    <row r="190" spans="2:12" customFormat="1" hidden="1">
+    <row r="190" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190" s="1">
         <v>190</v>
       </c>
@@ -10834,7 +10843,7 @@
       </c>
       <c r="L190" s="1"/>
     </row>
-    <row r="191" spans="2:12" customFormat="1" hidden="1">
+    <row r="191" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191" s="1">
         <v>191</v>
       </c>
@@ -10863,7 +10872,7 @@
       </c>
       <c r="L191" s="1"/>
     </row>
-    <row r="192" spans="2:12" customFormat="1" hidden="1">
+    <row r="192" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B192" s="1">
         <v>193</v>
       </c>
@@ -10892,7 +10901,7 @@
       </c>
       <c r="L192" s="1"/>
     </row>
-    <row r="193" spans="2:12" customFormat="1" hidden="1">
+    <row r="193" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193" s="1">
         <v>192</v>
       </c>
@@ -10921,7 +10930,7 @@
       </c>
       <c r="L193" s="1"/>
     </row>
-    <row r="194" spans="2:12" customFormat="1" hidden="1">
+    <row r="194" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194" s="1">
         <v>194</v>
       </c>
@@ -10950,7 +10959,7 @@
       </c>
       <c r="L194" s="1"/>
     </row>
-    <row r="195" spans="2:12" customFormat="1" hidden="1">
+    <row r="195" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195" s="1">
         <v>195</v>
       </c>
@@ -10979,7 +10988,7 @@
       </c>
       <c r="L195" s="1"/>
     </row>
-    <row r="196" spans="2:12" customFormat="1" hidden="1">
+    <row r="196" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196" s="1">
         <v>196</v>
       </c>
@@ -11008,7 +11017,7 @@
       </c>
       <c r="L196" s="1"/>
     </row>
-    <row r="197" spans="2:12" customFormat="1" hidden="1">
+    <row r="197" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197" s="1">
         <v>198</v>
       </c>
@@ -11037,7 +11046,7 @@
       </c>
       <c r="L197" s="1"/>
     </row>
-    <row r="198" spans="2:12" customFormat="1" hidden="1">
+    <row r="198" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198" s="1">
         <v>197</v>
       </c>
@@ -11066,7 +11075,7 @@
       </c>
       <c r="L198" s="1"/>
     </row>
-    <row r="199" spans="2:12" customFormat="1" hidden="1">
+    <row r="199" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199" s="1">
         <v>199</v>
       </c>
@@ -11095,7 +11104,7 @@
       </c>
       <c r="L199" s="1"/>
     </row>
-    <row r="200" spans="2:12" customFormat="1" hidden="1">
+    <row r="200" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B200" s="1">
         <v>200</v>
       </c>
@@ -11124,7 +11133,7 @@
       </c>
       <c r="L200" s="1"/>
     </row>
-    <row r="201" spans="2:12" customFormat="1" hidden="1">
+    <row r="201" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201" s="1">
         <v>202</v>
       </c>
@@ -11153,7 +11162,7 @@
       </c>
       <c r="L201" s="1"/>
     </row>
-    <row r="202" spans="2:12" customFormat="1" hidden="1">
+    <row r="202" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202" s="1">
         <v>201</v>
       </c>
@@ -11182,7 +11191,7 @@
       </c>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="2:12" customFormat="1" hidden="1">
+    <row r="203" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203" s="1">
         <v>203</v>
       </c>
@@ -11211,7 +11220,7 @@
       </c>
       <c r="L203" s="1"/>
     </row>
-    <row r="204" spans="2:12" customFormat="1" hidden="1">
+    <row r="204" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204" s="1">
         <v>204</v>
       </c>
@@ -11240,7 +11249,7 @@
       </c>
       <c r="L204" s="1"/>
     </row>
-    <row r="205" spans="2:12" customFormat="1" hidden="1">
+    <row r="205" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205" s="1">
         <v>206</v>
       </c>
@@ -11269,7 +11278,7 @@
       </c>
       <c r="L205" s="1"/>
     </row>
-    <row r="206" spans="2:12" customFormat="1" hidden="1">
+    <row r="206" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206" s="1">
         <v>205</v>
       </c>
@@ -11298,7 +11307,7 @@
       </c>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" spans="2:12" customFormat="1" hidden="1">
+    <row r="207" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" s="1">
         <v>207</v>
       </c>
@@ -11327,7 +11336,7 @@
       </c>
       <c r="L207" s="1"/>
     </row>
-    <row r="208" spans="2:12" customFormat="1" hidden="1">
+    <row r="208" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" s="1">
         <v>208</v>
       </c>
@@ -11356,7 +11365,7 @@
       </c>
       <c r="L208" s="1"/>
     </row>
-    <row r="209" spans="2:12" customFormat="1" hidden="1">
+    <row r="209" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" s="1">
         <v>210</v>
       </c>
@@ -11385,7 +11394,7 @@
       </c>
       <c r="L209" s="1"/>
     </row>
-    <row r="210" spans="2:12" customFormat="1" hidden="1">
+    <row r="210" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" s="1">
         <v>209</v>
       </c>
@@ -11414,7 +11423,7 @@
       </c>
       <c r="L210" s="1"/>
     </row>
-    <row r="211" spans="2:12" customFormat="1" hidden="1">
+    <row r="211" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" s="1">
         <v>211</v>
       </c>
@@ -11443,7 +11452,7 @@
       </c>
       <c r="L211" s="1"/>
     </row>
-    <row r="212" spans="2:12" customFormat="1" hidden="1">
+    <row r="212" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" s="1">
         <v>212</v>
       </c>
@@ -11472,7 +11481,7 @@
       </c>
       <c r="L212" s="1"/>
     </row>
-    <row r="213" spans="2:12" customFormat="1" hidden="1">
+    <row r="213" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" s="1">
         <v>214</v>
       </c>
@@ -11501,7 +11510,7 @@
       </c>
       <c r="L213" s="1"/>
     </row>
-    <row r="214" spans="2:12" customFormat="1" hidden="1">
+    <row r="214" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" s="1">
         <v>213</v>
       </c>
@@ -11530,7 +11539,7 @@
       </c>
       <c r="L214" s="1"/>
     </row>
-    <row r="215" spans="2:12" customFormat="1" hidden="1">
+    <row r="215" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" s="1">
         <v>215</v>
       </c>
@@ -11559,7 +11568,7 @@
       </c>
       <c r="L215" s="1"/>
     </row>
-    <row r="216" spans="2:12" customFormat="1" hidden="1">
+    <row r="216" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" s="1">
         <v>216</v>
       </c>
@@ -11588,7 +11597,7 @@
       </c>
       <c r="L216" s="1"/>
     </row>
-    <row r="217" spans="2:12" customFormat="1" hidden="1">
+    <row r="217" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" s="1">
         <v>218</v>
       </c>
@@ -11617,7 +11626,7 @@
       </c>
       <c r="L217" s="1"/>
     </row>
-    <row r="218" spans="2:12" customFormat="1" hidden="1">
+    <row r="218" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" s="1">
         <v>217</v>
       </c>
@@ -11646,7 +11655,7 @@
       </c>
       <c r="L218" s="1"/>
     </row>
-    <row r="219" spans="2:12" customFormat="1" hidden="1">
+    <row r="219" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" s="1">
         <v>219</v>
       </c>
@@ -11675,7 +11684,7 @@
       </c>
       <c r="L219" s="1"/>
     </row>
-    <row r="220" spans="2:12" customFormat="1" hidden="1">
+    <row r="220" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220" s="1">
         <v>220</v>
       </c>
@@ -11704,7 +11713,7 @@
       </c>
       <c r="L220" s="1"/>
     </row>
-    <row r="221" spans="2:12" customFormat="1" hidden="1">
+    <row r="221" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" s="1">
         <v>222</v>
       </c>
@@ -11733,7 +11742,7 @@
       </c>
       <c r="L221" s="1"/>
     </row>
-    <row r="222" spans="2:12" customFormat="1" hidden="1">
+    <row r="222" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222" s="1">
         <v>221</v>
       </c>
@@ -11762,7 +11771,7 @@
       </c>
       <c r="L222" s="1"/>
     </row>
-    <row r="223" spans="2:12" customFormat="1" hidden="1">
+    <row r="223" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223" s="1">
         <v>223</v>
       </c>
@@ -11791,7 +11800,7 @@
       </c>
       <c r="L223" s="1"/>
     </row>
-    <row r="224" spans="2:12" customFormat="1" hidden="1">
+    <row r="224" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B224" s="1">
         <v>224</v>
       </c>
@@ -11820,7 +11829,7 @@
       </c>
       <c r="L224" s="1"/>
     </row>
-    <row r="225" spans="2:12" customFormat="1" hidden="1">
+    <row r="225" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225" s="1">
         <v>226</v>
       </c>
@@ -11849,7 +11858,7 @@
       </c>
       <c r="L225" s="1"/>
     </row>
-    <row r="226" spans="2:12" customFormat="1" hidden="1">
+    <row r="226" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226" s="1">
         <v>225</v>
       </c>
@@ -11878,7 +11887,7 @@
       </c>
       <c r="L226" s="1"/>
     </row>
-    <row r="227" spans="2:12" customFormat="1" hidden="1">
+    <row r="227" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227" s="1">
         <v>227</v>
       </c>
@@ -11907,7 +11916,7 @@
       </c>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="2:12" customFormat="1" hidden="1">
+    <row r="228" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228" s="1">
         <v>228</v>
       </c>
@@ -11936,7 +11945,7 @@
       </c>
       <c r="L228" s="1"/>
     </row>
-    <row r="229" spans="2:12" customFormat="1" hidden="1">
+    <row r="229" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229" s="1">
         <v>230</v>
       </c>
@@ -11965,7 +11974,7 @@
       </c>
       <c r="L229" s="1"/>
     </row>
-    <row r="230" spans="2:12" customFormat="1" hidden="1">
+    <row r="230" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230" s="1">
         <v>229</v>
       </c>
@@ -11994,7 +12003,7 @@
       </c>
       <c r="L230" s="1"/>
     </row>
-    <row r="231" spans="2:12" customFormat="1" hidden="1">
+    <row r="231" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231" s="1">
         <v>231</v>
       </c>
@@ -12023,7 +12032,7 @@
       </c>
       <c r="L231" s="1"/>
     </row>
-    <row r="232" spans="2:12" customFormat="1" hidden="1">
+    <row r="232" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B232" s="1">
         <v>232</v>
       </c>
@@ -12052,7 +12061,7 @@
       </c>
       <c r="L232" s="1"/>
     </row>
-    <row r="233" spans="2:12" customFormat="1" hidden="1">
+    <row r="233" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233" s="1">
         <v>234</v>
       </c>
@@ -12081,7 +12090,7 @@
       </c>
       <c r="L233" s="1"/>
     </row>
-    <row r="234" spans="2:12" customFormat="1" hidden="1">
+    <row r="234" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234" s="1">
         <v>233</v>
       </c>
@@ -12110,7 +12119,7 @@
       </c>
       <c r="L234" s="1"/>
     </row>
-    <row r="235" spans="2:12" customFormat="1" hidden="1">
+    <row r="235" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" s="1">
         <v>235</v>
       </c>
@@ -12139,7 +12148,7 @@
       </c>
       <c r="L235" s="1"/>
     </row>
-    <row r="236" spans="2:12" customFormat="1" hidden="1">
+    <row r="236" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" s="1">
         <v>236</v>
       </c>
@@ -12168,7 +12177,7 @@
       </c>
       <c r="L236" s="1"/>
     </row>
-    <row r="237" spans="2:12" customFormat="1" hidden="1">
+    <row r="237" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" s="1">
         <v>238</v>
       </c>
@@ -12197,7 +12206,7 @@
       </c>
       <c r="L237" s="1"/>
     </row>
-    <row r="238" spans="2:12" customFormat="1" hidden="1">
+    <row r="238" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" s="1">
         <v>237</v>
       </c>
@@ -12226,7 +12235,7 @@
       </c>
       <c r="L238" s="1"/>
     </row>
-    <row r="239" spans="2:12" customFormat="1" hidden="1">
+    <row r="239" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" s="1">
         <v>239</v>
       </c>
@@ -12255,7 +12264,7 @@
       </c>
       <c r="L239" s="1"/>
     </row>
-    <row r="240" spans="2:12" customFormat="1" hidden="1">
+    <row r="240" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B240" s="1">
         <v>240</v>
       </c>
@@ -12284,7 +12293,7 @@
       </c>
       <c r="L240" s="1"/>
     </row>
-    <row r="241" spans="2:12" customFormat="1" hidden="1">
+    <row r="241" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B241" s="1">
         <v>242</v>
       </c>
@@ -12313,7 +12322,7 @@
       </c>
       <c r="L241" s="1"/>
     </row>
-    <row r="242" spans="2:12" customFormat="1" hidden="1">
+    <row r="242" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B242" s="1">
         <v>241</v>
       </c>
@@ -12342,7 +12351,7 @@
       </c>
       <c r="L242" s="1"/>
     </row>
-    <row r="243" spans="2:12" customFormat="1" hidden="1">
+    <row r="243" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B243" s="1">
         <v>243</v>
       </c>
@@ -12371,7 +12380,7 @@
       </c>
       <c r="L243" s="1"/>
     </row>
-    <row r="244" spans="2:12" customFormat="1" hidden="1">
+    <row r="244" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B244" s="1">
         <v>244</v>
       </c>
@@ -12400,7 +12409,7 @@
       </c>
       <c r="L244" s="1"/>
     </row>
-    <row r="245" spans="2:12" customFormat="1" hidden="1">
+    <row r="245" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B245" s="1">
         <v>246</v>
       </c>
@@ -12429,7 +12438,7 @@
       </c>
       <c r="L245" s="1"/>
     </row>
-    <row r="246" spans="2:12" customFormat="1" hidden="1">
+    <row r="246" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B246" s="1">
         <v>245</v>
       </c>
@@ -12458,7 +12467,7 @@
       </c>
       <c r="L246" s="1"/>
     </row>
-    <row r="247" spans="2:12" customFormat="1" hidden="1">
+    <row r="247" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B247" s="1">
         <v>248</v>
       </c>
@@ -12487,7 +12496,7 @@
       </c>
       <c r="L247" s="1"/>
     </row>
-    <row r="248" spans="2:12" customFormat="1" hidden="1">
+    <row r="248" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B248" s="1">
         <v>250</v>
       </c>
@@ -12516,7 +12525,7 @@
       </c>
       <c r="L248" s="1"/>
     </row>
-    <row r="249" spans="2:12" customFormat="1" hidden="1">
+    <row r="249" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B249" s="1">
         <v>247</v>
       </c>
@@ -12545,7 +12554,7 @@
       </c>
       <c r="L249" s="1"/>
     </row>
-    <row r="250" spans="2:12" customFormat="1" hidden="1">
+    <row r="250" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B250" s="1">
         <v>249</v>
       </c>
@@ -12574,7 +12583,7 @@
       </c>
       <c r="L250" s="1"/>
     </row>
-    <row r="251" spans="2:12" customFormat="1" hidden="1">
+    <row r="251" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B251" s="1">
         <v>252</v>
       </c>
@@ -12603,7 +12612,7 @@
       </c>
       <c r="L251" s="1"/>
     </row>
-    <row r="252" spans="2:12" customFormat="1" hidden="1">
+    <row r="252" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B252" s="1">
         <v>254</v>
       </c>
@@ -12632,7 +12641,7 @@
       </c>
       <c r="L252" s="1"/>
     </row>
-    <row r="253" spans="2:12" customFormat="1" hidden="1">
+    <row r="253" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" s="1">
         <v>251</v>
       </c>
@@ -12661,7 +12670,7 @@
       </c>
       <c r="L253" s="1"/>
     </row>
-    <row r="254" spans="2:12" customFormat="1" hidden="1">
+    <row r="254" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" s="1">
         <v>253</v>
       </c>
@@ -12690,7 +12699,7 @@
       </c>
       <c r="L254" s="1"/>
     </row>
-    <row r="255" spans="2:12" customFormat="1" hidden="1">
+    <row r="255" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B255" s="1">
         <v>255</v>
       </c>
@@ -12719,7 +12728,7 @@
       </c>
       <c r="L255" s="1"/>
     </row>
-    <row r="256" spans="2:12" customFormat="1" hidden="1">
+    <row r="256" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B256" s="1">
         <v>256</v>
       </c>
@@ -12748,7 +12757,7 @@
       </c>
       <c r="L256" s="1"/>
     </row>
-    <row r="257" spans="2:12" customFormat="1" hidden="1">
+    <row r="257" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B257" s="1">
         <v>258</v>
       </c>
@@ -12777,7 +12786,7 @@
       </c>
       <c r="L257" s="1"/>
     </row>
-    <row r="258" spans="2:12" customFormat="1" hidden="1">
+    <row r="258" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B258" s="1">
         <v>257</v>
       </c>
@@ -12806,7 +12815,7 @@
       </c>
       <c r="L258" s="1"/>
     </row>
-    <row r="259" spans="2:12" customFormat="1" hidden="1">
+    <row r="259" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B259" s="1">
         <v>259</v>
       </c>
@@ -12835,7 +12844,7 @@
       </c>
       <c r="L259" s="1"/>
     </row>
-    <row r="260" spans="2:12" customFormat="1" hidden="1">
+    <row r="260" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B260" s="1">
         <v>260</v>
       </c>
@@ -12864,7 +12873,7 @@
       </c>
       <c r="L260" s="1"/>
     </row>
-    <row r="261" spans="2:12" customFormat="1" hidden="1">
+    <row r="261" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B261" s="1">
         <v>262</v>
       </c>
@@ -12893,7 +12902,7 @@
       </c>
       <c r="L261" s="1"/>
     </row>
-    <row r="262" spans="2:12" customFormat="1" hidden="1">
+    <row r="262" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B262" s="1">
         <v>261</v>
       </c>
@@ -12922,7 +12931,7 @@
       </c>
       <c r="L262" s="1"/>
     </row>
-    <row r="263" spans="2:12" customFormat="1" hidden="1">
+    <row r="263" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B263" s="1">
         <v>263</v>
       </c>
@@ -12951,7 +12960,7 @@
       </c>
       <c r="L263" s="1"/>
     </row>
-    <row r="264" spans="2:12" customFormat="1" hidden="1">
+    <row r="264" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B264" s="1">
         <v>264</v>
       </c>
@@ -12980,7 +12989,7 @@
       </c>
       <c r="L264" s="1"/>
     </row>
-    <row r="265" spans="2:12" customFormat="1" hidden="1">
+    <row r="265" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B265" s="1">
         <v>266</v>
       </c>
@@ -13009,7 +13018,7 @@
       </c>
       <c r="L265" s="1"/>
     </row>
-    <row r="266" spans="2:12" customFormat="1" hidden="1">
+    <row r="266" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B266" s="1">
         <v>265</v>
       </c>
@@ -13038,7 +13047,7 @@
       </c>
       <c r="L266" s="1"/>
     </row>
-    <row r="267" spans="2:12" customFormat="1" hidden="1">
+    <row r="267" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B267" s="1">
         <v>267</v>
       </c>
@@ -13067,7 +13076,7 @@
       </c>
       <c r="L267" s="1"/>
     </row>
-    <row r="268" spans="2:12" customFormat="1" hidden="1">
+    <row r="268" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B268" s="1">
         <v>268</v>
       </c>
@@ -13096,7 +13105,7 @@
       </c>
       <c r="L268" s="1"/>
     </row>
-    <row r="269" spans="2:12" customFormat="1" hidden="1">
+    <row r="269" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B269" s="1">
         <v>270</v>
       </c>
@@ -13125,7 +13134,7 @@
       </c>
       <c r="L269" s="1"/>
     </row>
-    <row r="270" spans="2:12" customFormat="1" hidden="1">
+    <row r="270" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B270" s="1">
         <v>269</v>
       </c>
@@ -13154,7 +13163,7 @@
       </c>
       <c r="L270" s="1"/>
     </row>
-    <row r="271" spans="2:12" customFormat="1" hidden="1">
+    <row r="271" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B271" s="1">
         <v>271</v>
       </c>
@@ -13183,7 +13192,7 @@
       </c>
       <c r="L271" s="1"/>
     </row>
-    <row r="272" spans="2:12" customFormat="1" hidden="1">
+    <row r="272" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B272" s="1">
         <v>272</v>
       </c>
@@ -13212,7 +13221,7 @@
       </c>
       <c r="L272" s="1"/>
     </row>
-    <row r="273" spans="2:12" customFormat="1" hidden="1">
+    <row r="273" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B273" s="1">
         <v>274</v>
       </c>
@@ -13241,7 +13250,7 @@
       </c>
       <c r="L273" s="1"/>
     </row>
-    <row r="274" spans="2:12" customFormat="1" hidden="1">
+    <row r="274" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B274" s="1">
         <v>273</v>
       </c>
@@ -13270,7 +13279,7 @@
       </c>
       <c r="L274" s="1"/>
     </row>
-    <row r="275" spans="2:12" customFormat="1" hidden="1">
+    <row r="275" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B275" s="1">
         <v>275</v>
       </c>
@@ -13299,7 +13308,7 @@
       </c>
       <c r="L275" s="1"/>
     </row>
-    <row r="276" spans="2:12" customFormat="1" hidden="1">
+    <row r="276" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B276" s="1">
         <v>276</v>
       </c>
@@ -13328,7 +13337,7 @@
       </c>
       <c r="L276" s="1"/>
     </row>
-    <row r="277" spans="2:12" customFormat="1" hidden="1">
+    <row r="277" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B277" s="1">
         <v>278</v>
       </c>
@@ -13357,7 +13366,7 @@
       </c>
       <c r="L277" s="1"/>
     </row>
-    <row r="278" spans="2:12" customFormat="1" hidden="1">
+    <row r="278" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B278" s="1">
         <v>277</v>
       </c>
@@ -13386,7 +13395,7 @@
       </c>
       <c r="L278" s="1"/>
     </row>
-    <row r="279" spans="2:12" customFormat="1" hidden="1">
+    <row r="279" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B279" s="1">
         <v>279</v>
       </c>
@@ -13415,7 +13424,7 @@
       </c>
       <c r="L279" s="1"/>
     </row>
-    <row r="280" spans="2:12" customFormat="1" hidden="1">
+    <row r="280" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B280" s="1">
         <v>280</v>
       </c>
@@ -13444,7 +13453,7 @@
       </c>
       <c r="L280" s="1"/>
     </row>
-    <row r="281" spans="2:12" customFormat="1" hidden="1">
+    <row r="281" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B281" s="1">
         <v>281</v>
       </c>
@@ -13473,7 +13482,7 @@
       </c>
       <c r="L281" s="1"/>
     </row>
-    <row r="282" spans="2:12" customFormat="1" hidden="1">
+    <row r="282" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B282" s="1">
         <v>281</v>
       </c>
@@ -13502,7 +13511,7 @@
       </c>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" spans="2:12" customFormat="1" hidden="1">
+    <row r="283" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B283" s="1">
         <v>282</v>
       </c>
@@ -13531,7 +13540,7 @@
       </c>
       <c r="L283" s="1"/>
     </row>
-    <row r="284" spans="2:12" customFormat="1" hidden="1">
+    <row r="284" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B284" s="1">
         <v>283</v>
       </c>
@@ -13560,7 +13569,7 @@
       </c>
       <c r="L284" s="1"/>
     </row>
-    <row r="285" spans="2:12" customFormat="1" hidden="1">
+    <row r="285" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B285" s="1">
         <v>285</v>
       </c>
@@ -13589,7 +13598,7 @@
       </c>
       <c r="L285" s="1"/>
     </row>
-    <row r="286" spans="2:12" customFormat="1" hidden="1">
+    <row r="286" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B286" s="1">
         <v>284</v>
       </c>
@@ -13618,7 +13627,7 @@
       </c>
       <c r="L286" s="1"/>
     </row>
-    <row r="287" spans="2:12" customFormat="1" hidden="1">
+    <row r="287" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B287" s="1">
         <v>286</v>
       </c>
@@ -13647,7 +13656,7 @@
       </c>
       <c r="L287" s="1"/>
     </row>
-    <row r="288" spans="2:12" customFormat="1" hidden="1">
+    <row r="288" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B288" s="1">
         <v>287</v>
       </c>
@@ -13676,7 +13685,7 @@
       </c>
       <c r="L288" s="1"/>
     </row>
-    <row r="289" spans="2:12" customFormat="1" hidden="1">
+    <row r="289" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B289" s="1">
         <v>289</v>
       </c>
@@ -13705,7 +13714,7 @@
       </c>
       <c r="L289" s="1"/>
     </row>
-    <row r="290" spans="2:12" customFormat="1" hidden="1">
+    <row r="290" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B290" s="1">
         <v>288</v>
       </c>
@@ -13734,7 +13743,7 @@
       </c>
       <c r="L290" s="1"/>
     </row>
-    <row r="291" spans="2:12" customFormat="1" hidden="1">
+    <row r="291" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B291" s="1">
         <v>290</v>
       </c>
@@ -13763,7 +13772,7 @@
       </c>
       <c r="L291" s="1"/>
     </row>
-    <row r="292" spans="2:12" customFormat="1" hidden="1">
+    <row r="292" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B292" s="1">
         <v>291</v>
       </c>
@@ -13792,7 +13801,7 @@
       </c>
       <c r="L292" s="1"/>
     </row>
-    <row r="293" spans="2:12" customFormat="1" hidden="1">
+    <row r="293" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B293" s="1">
         <v>293</v>
       </c>
@@ -13821,7 +13830,7 @@
       </c>
       <c r="L293" s="1"/>
     </row>
-    <row r="294" spans="2:12" customFormat="1" hidden="1">
+    <row r="294" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B294" s="1">
         <v>292</v>
       </c>
@@ -13850,7 +13859,7 @@
       </c>
       <c r="L294" s="1"/>
     </row>
-    <row r="295" spans="2:12" customFormat="1" hidden="1">
+    <row r="295" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B295" s="1">
         <v>294</v>
       </c>
@@ -13879,7 +13888,7 @@
       </c>
       <c r="L295" s="1"/>
     </row>
-    <row r="296" spans="2:12" customFormat="1" hidden="1">
+    <row r="296" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B296" s="1">
         <v>295</v>
       </c>
@@ -13908,7 +13917,7 @@
       </c>
       <c r="L296" s="1"/>
     </row>
-    <row r="297" spans="2:12" customFormat="1" hidden="1">
+    <row r="297" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B297" s="1">
         <v>297</v>
       </c>
@@ -13937,7 +13946,7 @@
       </c>
       <c r="L297" s="1"/>
     </row>
-    <row r="298" spans="2:12" customFormat="1" hidden="1">
+    <row r="298" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B298" s="1">
         <v>296</v>
       </c>
@@ -13966,7 +13975,7 @@
       </c>
       <c r="L298" s="1"/>
     </row>
-    <row r="299" spans="2:12" customFormat="1" hidden="1">
+    <row r="299" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B299" s="1">
         <v>298</v>
       </c>
@@ -13995,7 +14004,7 @@
       </c>
       <c r="L299" s="1"/>
     </row>
-    <row r="300" spans="2:12" customFormat="1" hidden="1">
+    <row r="300" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B300" s="1">
         <v>299</v>
       </c>
@@ -14024,7 +14033,7 @@
       </c>
       <c r="L300" s="1"/>
     </row>
-    <row r="301" spans="2:12" customFormat="1" hidden="1">
+    <row r="301" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B301" s="1">
         <v>301</v>
       </c>
@@ -14053,7 +14062,7 @@
       </c>
       <c r="L301" s="1"/>
     </row>
-    <row r="302" spans="2:12" customFormat="1" hidden="1">
+    <row r="302" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B302" s="1">
         <v>300</v>
       </c>
@@ -14082,7 +14091,7 @@
       </c>
       <c r="L302" s="1"/>
     </row>
-    <row r="303" spans="2:12" customFormat="1" hidden="1">
+    <row r="303" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B303" s="1">
         <v>302</v>
       </c>
@@ -14111,7 +14120,7 @@
       </c>
       <c r="L303" s="1"/>
     </row>
-    <row r="304" spans="2:12" customFormat="1" hidden="1">
+    <row r="304" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B304" s="1">
         <v>303</v>
       </c>
@@ -14140,7 +14149,7 @@
       </c>
       <c r="L304" s="1"/>
     </row>
-    <row r="305" spans="2:12" customFormat="1" hidden="1">
+    <row r="305" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B305" s="1">
         <v>305</v>
       </c>
@@ -14169,7 +14178,7 @@
       </c>
       <c r="L305" s="1"/>
     </row>
-    <row r="306" spans="2:12" customFormat="1" hidden="1">
+    <row r="306" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B306" s="1">
         <v>304</v>
       </c>
@@ -14198,7 +14207,7 @@
       </c>
       <c r="L306" s="1"/>
     </row>
-    <row r="307" spans="2:12" customFormat="1" hidden="1">
+    <row r="307" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B307" s="1">
         <v>306</v>
       </c>
@@ -14227,7 +14236,7 @@
       </c>
       <c r="L307" s="1"/>
     </row>
-    <row r="308" spans="2:12" customFormat="1" hidden="1">
+    <row r="308" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B308" s="1">
         <v>307</v>
       </c>
@@ -14256,7 +14265,7 @@
       </c>
       <c r="L308" s="1"/>
     </row>
-    <row r="309" spans="2:12" customFormat="1" hidden="1">
+    <row r="309" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B309" s="1">
         <v>309</v>
       </c>
@@ -14285,7 +14294,7 @@
       </c>
       <c r="L309" s="1"/>
     </row>
-    <row r="310" spans="2:12" customFormat="1" hidden="1">
+    <row r="310" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B310" s="1">
         <v>308</v>
       </c>
@@ -14314,7 +14323,7 @@
       </c>
       <c r="L310" s="1"/>
     </row>
-    <row r="311" spans="2:12" customFormat="1" hidden="1">
+    <row r="311" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B311" s="1">
         <v>310</v>
       </c>
@@ -14343,7 +14352,7 @@
       </c>
       <c r="L311" s="1"/>
     </row>
-    <row r="312" spans="2:12" customFormat="1" hidden="1">
+    <row r="312" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B312" s="1">
         <v>311</v>
       </c>
@@ -14372,7 +14381,7 @@
       </c>
       <c r="L312" s="1"/>
     </row>
-    <row r="313" spans="2:12" customFormat="1" hidden="1">
+    <row r="313" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B313" s="1">
         <v>313</v>
       </c>
@@ -14401,7 +14410,7 @@
       </c>
       <c r="L313" s="1"/>
     </row>
-    <row r="314" spans="2:12" customFormat="1" hidden="1">
+    <row r="314" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B314" s="1">
         <v>312</v>
       </c>
@@ -14430,7 +14439,7 @@
       </c>
       <c r="L314" s="1"/>
     </row>
-    <row r="315" spans="2:12" customFormat="1" hidden="1">
+    <row r="315" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B315" s="1">
         <v>314</v>
       </c>
@@ -14459,7 +14468,7 @@
       </c>
       <c r="L315" s="1"/>
     </row>
-    <row r="316" spans="2:12" customFormat="1" hidden="1">
+    <row r="316" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B316" s="1">
         <v>315</v>
       </c>
@@ -14488,7 +14497,7 @@
       </c>
       <c r="L316" s="1"/>
     </row>
-    <row r="317" spans="2:12" customFormat="1" hidden="1">
+    <row r="317" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B317" s="1">
         <v>317</v>
       </c>
@@ -14517,7 +14526,7 @@
       </c>
       <c r="L317" s="1"/>
     </row>
-    <row r="318" spans="2:12" customFormat="1" hidden="1">
+    <row r="318" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B318" s="1">
         <v>316</v>
       </c>
@@ -14546,7 +14555,7 @@
       </c>
       <c r="L318" s="1"/>
     </row>
-    <row r="319" spans="2:12" customFormat="1" hidden="1">
+    <row r="319" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B319" s="1">
         <v>318</v>
       </c>
@@ -14575,7 +14584,7 @@
       </c>
       <c r="L319" s="1"/>
     </row>
-    <row r="320" spans="2:12" customFormat="1" hidden="1">
+    <row r="320" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B320" s="1">
         <v>319</v>
       </c>
@@ -14604,7 +14613,7 @@
       </c>
       <c r="L320" s="1"/>
     </row>
-    <row r="321" spans="2:12" customFormat="1" hidden="1">
+    <row r="321" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B321" s="1">
         <v>321</v>
       </c>
@@ -14633,7 +14642,7 @@
       </c>
       <c r="L321" s="1"/>
     </row>
-    <row r="322" spans="2:12" customFormat="1" hidden="1">
+    <row r="322" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B322" s="1">
         <v>320</v>
       </c>
@@ -14662,7 +14671,7 @@
       </c>
       <c r="L322" s="1"/>
     </row>
-    <row r="323" spans="2:12" customFormat="1" hidden="1">
+    <row r="323" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B323" s="1">
         <v>322</v>
       </c>
@@ -14691,7 +14700,7 @@
       </c>
       <c r="L323" s="1"/>
     </row>
-    <row r="324" spans="2:12" customFormat="1" hidden="1">
+    <row r="324" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B324" s="1">
         <v>323</v>
       </c>
@@ -14720,7 +14729,7 @@
       </c>
       <c r="L324" s="1"/>
     </row>
-    <row r="325" spans="2:12" customFormat="1" hidden="1">
+    <row r="325" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B325" s="1">
         <v>325</v>
       </c>
@@ -14749,7 +14758,7 @@
       </c>
       <c r="L325" s="1"/>
     </row>
-    <row r="326" spans="2:12" customFormat="1" hidden="1">
+    <row r="326" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B326" s="1">
         <v>324</v>
       </c>
@@ -14778,7 +14787,7 @@
       </c>
       <c r="L326" s="1"/>
     </row>
-    <row r="327" spans="2:12" customFormat="1" hidden="1">
+    <row r="327" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B327" s="1">
         <v>326</v>
       </c>
@@ -14807,7 +14816,7 @@
       </c>
       <c r="L327" s="1"/>
     </row>
-    <row r="328" spans="2:12" customFormat="1" hidden="1">
+    <row r="328" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B328" s="1">
         <v>327</v>
       </c>
@@ -14836,7 +14845,7 @@
       </c>
       <c r="L328" s="1"/>
     </row>
-    <row r="329" spans="2:12" customFormat="1" hidden="1">
+    <row r="329" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B329" s="1">
         <v>329</v>
       </c>
@@ -14865,7 +14874,7 @@
       </c>
       <c r="L329" s="1"/>
     </row>
-    <row r="330" spans="2:12" customFormat="1" hidden="1">
+    <row r="330" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B330" s="1">
         <v>328</v>
       </c>
@@ -14894,7 +14903,7 @@
       </c>
       <c r="L330" s="1"/>
     </row>
-    <row r="331" spans="2:12" customFormat="1" hidden="1">
+    <row r="331" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B331" s="1">
         <v>330</v>
       </c>
@@ -14923,7 +14932,7 @@
       </c>
       <c r="L331" s="1"/>
     </row>
-    <row r="332" spans="2:12" customFormat="1" hidden="1">
+    <row r="332" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B332" s="1">
         <v>331</v>
       </c>
@@ -14952,7 +14961,7 @@
       </c>
       <c r="L332" s="1"/>
     </row>
-    <row r="333" spans="2:12" customFormat="1" hidden="1">
+    <row r="333" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B333" s="1">
         <v>333</v>
       </c>
@@ -14981,7 +14990,7 @@
       </c>
       <c r="L333" s="1"/>
     </row>
-    <row r="334" spans="2:12" customFormat="1" hidden="1">
+    <row r="334" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B334" s="1">
         <v>332</v>
       </c>
@@ -15010,7 +15019,7 @@
       </c>
       <c r="L334" s="1"/>
     </row>
-    <row r="335" spans="2:12" customFormat="1" hidden="1">
+    <row r="335" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B335" s="1">
         <v>334</v>
       </c>
@@ -15039,7 +15048,7 @@
       </c>
       <c r="L335" s="1"/>
     </row>
-    <row r="336" spans="2:12" customFormat="1" hidden="1">
+    <row r="336" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B336" s="1">
         <v>335</v>
       </c>
@@ -15068,7 +15077,7 @@
       </c>
       <c r="L336" s="1"/>
     </row>
-    <row r="337" spans="2:12" customFormat="1" hidden="1">
+    <row r="337" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B337" s="1">
         <v>337</v>
       </c>
@@ -15097,7 +15106,7 @@
       </c>
       <c r="L337" s="1"/>
     </row>
-    <row r="338" spans="2:12" customFormat="1" hidden="1">
+    <row r="338" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B338" s="1">
         <v>336</v>
       </c>
@@ -15126,7 +15135,7 @@
       </c>
       <c r="L338" s="1"/>
     </row>
-    <row r="339" spans="2:12" customFormat="1" hidden="1">
+    <row r="339" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B339" s="1">
         <v>338</v>
       </c>
@@ -15155,7 +15164,7 @@
       </c>
       <c r="L339" s="1"/>
     </row>
-    <row r="340" spans="2:12" customFormat="1" hidden="1">
+    <row r="340" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B340" s="1">
         <v>339</v>
       </c>
@@ -15184,7 +15193,7 @@
       </c>
       <c r="L340" s="1"/>
     </row>
-    <row r="341" spans="2:12" customFormat="1" hidden="1">
+    <row r="341" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B341" s="1">
         <v>341</v>
       </c>
@@ -15213,7 +15222,7 @@
       </c>
       <c r="L341" s="1"/>
     </row>
-    <row r="342" spans="2:12" customFormat="1" hidden="1">
+    <row r="342" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B342" s="1">
         <v>340</v>
       </c>
@@ -15242,7 +15251,7 @@
       </c>
       <c r="L342" s="1"/>
     </row>
-    <row r="343" spans="2:12" customFormat="1" hidden="1">
+    <row r="343" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B343" s="1">
         <v>342</v>
       </c>
@@ -15271,7 +15280,7 @@
       </c>
       <c r="L343" s="1"/>
     </row>
-    <row r="344" spans="2:12" customFormat="1" hidden="1">
+    <row r="344" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B344" s="63">
         <v>18</v>
       </c>
@@ -15298,7 +15307,7 @@
       </c>
       <c r="L344" s="63"/>
     </row>
-    <row r="345" spans="2:12" customFormat="1" hidden="1">
+    <row r="345" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B345" s="63">
         <v>19</v>
       </c>
@@ -15325,7 +15334,7 @@
       </c>
       <c r="L345" s="63"/>
     </row>
-    <row r="346" spans="2:12" customFormat="1" hidden="1">
+    <row r="346" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B346" s="1">
         <v>343</v>
       </c>
@@ -15346,7 +15355,7 @@
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
     </row>
-    <row r="347" spans="2:12" customFormat="1" hidden="1">
+    <row r="347" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B347" s="1">
         <v>344</v>
       </c>
@@ -15367,7 +15376,7 @@
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
     </row>
-    <row r="348" spans="2:12" customFormat="1" hidden="1">
+    <row r="348" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B348" s="1">
         <v>345</v>
       </c>
@@ -15388,7 +15397,7 @@
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
     </row>
-    <row r="349" spans="2:12" customFormat="1" hidden="1">
+    <row r="349" spans="2:12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="B349" s="1">
         <v>346</v>
       </c>
@@ -15410,7 +15419,7 @@
       <c r="L349" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:L349">
+  <autoFilter ref="B2:L349" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="4">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15429,9 +15438,8 @@
         <dateGroupItem year="2022" month="12" day="2" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="8"/>
   </autoFilter>
-  <sortState ref="B3:K349">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K349">
     <sortCondition ref="I2"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -15447,14 +15455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:Q320"/>
   <sheetViews>
     <sheetView topLeftCell="A309" workbookViewId="0">
       <selection activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
@@ -15462,18 +15470,18 @@
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1">
-      <c r="B1" s="111" t="s">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-    </row>
-    <row r="2" spans="2:15" ht="15" thickBot="1">
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+    </row>
+    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>164</v>
       </c>
@@ -15496,7 +15504,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1">
+    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -15519,7 +15527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1">
+    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18">
         <v>2</v>
       </c>
@@ -15539,16 +15547,16 @@
       <c r="H4" s="44">
         <v>55</v>
       </c>
-      <c r="J4" s="112" t="s">
+      <c r="J4" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="114"/>
-    </row>
-    <row r="5" spans="2:15" ht="15" thickBot="1">
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="106"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="39">
         <v>3</v>
       </c>
@@ -15573,7 +15581,7 @@
       <c r="N5" s="56"/>
       <c r="O5" s="56"/>
     </row>
-    <row r="6" spans="2:15" ht="15" thickBot="1">
+    <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="40">
         <v>4</v>
       </c>
@@ -15600,7 +15608,7 @@
       <c r="N6" s="56"/>
       <c r="O6" s="56"/>
     </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1">
+    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="39">
         <v>5</v>
       </c>
@@ -15619,7 +15627,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:15" ht="15" thickBot="1">
+    <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="40">
         <v>6</v>
       </c>
@@ -15640,7 +15648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15" thickBot="1">
+    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="39">
         <v>7</v>
       </c>
@@ -15661,19 +15669,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15" thickBot="1"/>
-    <row r="12" spans="2:15" ht="15" thickBot="1">
-      <c r="B12" s="105" t="s">
+    <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="107"/>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="22" t="s">
         <v>164</v>
       </c>
@@ -15696,7 +15704,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -15719,7 +15727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -15740,7 +15748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>3</v>
       </c>
@@ -15761,7 +15769,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>4</v>
       </c>
@@ -15782,7 +15790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="15" thickBot="1">
+    <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>5</v>
       </c>
@@ -15803,7 +15811,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="15" thickBot="1">
+    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>6</v>
       </c>
@@ -15823,16 +15831,16 @@
       <c r="H19" s="3">
         <v>10</v>
       </c>
-      <c r="J19" s="102" t="s">
+      <c r="J19" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="100"/>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="112"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>7</v>
       </c>
@@ -15857,7 +15865,7 @@
       <c r="N20" s="56"/>
       <c r="O20" s="56"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>8</v>
       </c>
@@ -15884,7 +15892,7 @@
       <c r="N21" s="56"/>
       <c r="O21" s="56"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>9</v>
       </c>
@@ -15909,7 +15917,7 @@
       <c r="N22" s="56"/>
       <c r="O22" s="56"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>10</v>
       </c>
@@ -15936,7 +15944,7 @@
       <c r="N23" s="56"/>
       <c r="O23" s="56"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>11</v>
       </c>
@@ -15963,19 +15971,19 @@
       <c r="N24" s="56"/>
       <c r="O24" s="56"/>
     </row>
-    <row r="25" spans="2:15" ht="15" thickBot="1"/>
-    <row r="26" spans="2:15" ht="15" thickBot="1">
-      <c r="B26" s="105" t="s">
+    <row r="25" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="107" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="107"/>
-    </row>
-    <row r="27" spans="2:15">
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="109"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
         <v>164</v>
       </c>
@@ -15998,7 +16006,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="26">
         <v>1</v>
       </c>
@@ -16021,7 +16029,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="15" thickBot="1">
+    <row r="29" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -16042,7 +16050,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="15" thickBot="1">
+    <row r="30" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>3</v>
       </c>
@@ -16062,16 +16070,16 @@
       <c r="H30" s="3">
         <v>255</v>
       </c>
-      <c r="J30" s="102" t="s">
+      <c r="J30" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="100"/>
-    </row>
-    <row r="31" spans="2:15">
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="112"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>4</v>
       </c>
@@ -16092,7 +16100,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="15" thickBot="1">
+    <row r="32" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -16113,7 +16121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="15" thickBot="1">
+    <row r="33" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>6</v>
       </c>
@@ -16133,16 +16141,16 @@
       <c r="H33" s="3">
         <v>10</v>
       </c>
-      <c r="J33" s="102" t="s">
+      <c r="J33" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="100"/>
-    </row>
-    <row r="34" spans="2:15">
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="112"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>7</v>
       </c>
@@ -16167,7 +16175,7 @@
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>8</v>
       </c>
@@ -16194,7 +16202,7 @@
       <c r="N35" s="56"/>
       <c r="O35" s="56"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>9</v>
       </c>
@@ -16219,7 +16227,7 @@
       <c r="N36" s="56"/>
       <c r="O36" s="56"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>10</v>
       </c>
@@ -16246,7 +16254,7 @@
       <c r="N37" s="56"/>
       <c r="O37" s="56"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>11</v>
       </c>
@@ -16267,8 +16275,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="15" thickBot="1"/>
-    <row r="42" spans="2:15" ht="15" thickBot="1">
+    <row r="41" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="115" t="s">
         <v>226</v>
       </c>
@@ -16279,7 +16287,7 @@
       <c r="G42" s="116"/>
       <c r="H42" s="117"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="27" t="s">
         <v>164</v>
       </c>
@@ -16302,7 +16310,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -16325,7 +16333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -16344,7 +16352,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>3</v>
       </c>
@@ -16363,7 +16371,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>4</v>
       </c>
@@ -16384,7 +16392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>5</v>
       </c>
@@ -16403,7 +16411,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>6</v>
       </c>
@@ -16424,7 +16432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>7</v>
       </c>
@@ -16445,19 +16453,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15" thickBot="1"/>
-    <row r="53" spans="2:8" ht="15" thickBot="1">
-      <c r="B53" s="105" t="s">
+    <row r="52" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="106"/>
-      <c r="D53" s="106"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="107"/>
-    </row>
-    <row r="54" spans="2:8" ht="15" thickBot="1">
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="109"/>
+    </row>
+    <row r="54" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="22" t="s">
         <v>164</v>
       </c>
@@ -16480,7 +16488,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="15">
         <v>1</v>
       </c>
@@ -16503,7 +16511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="34">
         <v>2</v>
       </c>
@@ -16526,7 +16534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="34">
         <v>3</v>
       </c>
@@ -16547,7 +16555,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -16560,7 +16568,7 @@
       </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -16575,7 +16583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -16588,7 +16596,7 @@
       </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -16603,7 +16611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -16618,19 +16626,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15" thickBot="1"/>
-    <row r="65" spans="2:16" ht="15" thickBot="1">
-      <c r="B65" s="105" t="s">
+    <row r="64" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
-      <c r="G65" s="106"/>
-      <c r="H65" s="107"/>
-    </row>
-    <row r="66" spans="2:16">
+      <c r="C65" s="108"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="109"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" s="27" t="s">
         <v>164</v>
       </c>
@@ -16653,7 +16661,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="2:16">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" s="34">
         <v>1</v>
       </c>
@@ -16676,7 +16684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="15" thickBot="1">
+    <row r="68" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="34">
         <v>2</v>
       </c>
@@ -16695,7 +16703,7 @@
       </c>
       <c r="H68" s="35"/>
     </row>
-    <row r="69" spans="2:16" ht="15" thickBot="1">
+    <row r="69" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="34"/>
       <c r="C69" s="3" t="s">
         <v>204</v>
@@ -16711,17 +16719,17 @@
         <v>188</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="J69" s="102" t="s">
+      <c r="J69" s="110" t="s">
         <v>237</v>
       </c>
-      <c r="K69" s="103"/>
-      <c r="L69" s="103"/>
-      <c r="M69" s="103"/>
-      <c r="N69" s="103"/>
-      <c r="O69" s="103"/>
-      <c r="P69" s="104"/>
-    </row>
-    <row r="70" spans="2:16">
+      <c r="K69" s="113"/>
+      <c r="L69" s="113"/>
+      <c r="M69" s="113"/>
+      <c r="N69" s="113"/>
+      <c r="O69" s="113"/>
+      <c r="P69" s="114"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="34"/>
       <c r="C70" s="3" t="s">
         <v>204</v>
@@ -16747,7 +16755,7 @@
       <c r="O70" s="55"/>
       <c r="P70" s="55"/>
     </row>
-    <row r="71" spans="2:16">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="34"/>
       <c r="C71" s="3" t="s">
         <v>204</v>
@@ -16771,7 +16779,7 @@
       <c r="O71" s="55"/>
       <c r="P71" s="55"/>
     </row>
-    <row r="72" spans="2:16">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="34"/>
       <c r="C72" s="3" t="s">
         <v>204</v>
@@ -16797,7 +16805,7 @@
       <c r="O72" s="55"/>
       <c r="P72" s="55"/>
     </row>
-    <row r="73" spans="2:16" ht="15" thickBot="1">
+    <row r="73" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="18"/>
       <c r="C73" s="3" t="s">
         <v>204</v>
@@ -16823,7 +16831,7 @@
       <c r="O73" s="55"/>
       <c r="P73" s="55"/>
     </row>
-    <row r="74" spans="2:16">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J74" s="55"/>
       <c r="K74" s="55"/>
       <c r="L74" s="55"/>
@@ -16832,19 +16840,19 @@
       <c r="O74" s="55"/>
       <c r="P74" s="55"/>
     </row>
-    <row r="75" spans="2:16" ht="15" thickBot="1"/>
-    <row r="76" spans="2:16" ht="15" thickBot="1">
-      <c r="B76" s="95" t="s">
+    <row r="75" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="96"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="96"/>
-      <c r="H76" s="97"/>
-    </row>
-    <row r="77" spans="2:16" ht="15" thickBot="1">
+      <c r="C76" s="101"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="101"/>
+      <c r="F76" s="101"/>
+      <c r="G76" s="101"/>
+      <c r="H76" s="102"/>
+    </row>
+    <row r="77" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="22" t="s">
         <v>164</v>
       </c>
@@ -16867,7 +16875,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="2:16">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="15">
         <v>1</v>
       </c>
@@ -16890,7 +16898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="2:16">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="34">
         <v>2</v>
       </c>
@@ -16911,7 +16919,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="2:16">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="34">
         <v>3</v>
       </c>
@@ -16934,7 +16942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="45">
         <v>4</v>
       </c>
@@ -16955,7 +16963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="34">
         <v>5</v>
       </c>
@@ -16974,7 +16982,7 @@
       </c>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="45">
         <v>6</v>
       </c>
@@ -16995,7 +17003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="34">
         <v>7</v>
       </c>
@@ -17014,7 +17022,7 @@
       </c>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="45">
         <v>8</v>
       </c>
@@ -17035,7 +17043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="34">
         <v>9</v>
       </c>
@@ -17056,19 +17064,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15" thickBot="1"/>
-    <row r="90" spans="2:8" ht="15" thickBot="1">
-      <c r="B90" s="108" t="s">
+    <row r="89" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="109"/>
-      <c r="F90" s="109"/>
-      <c r="G90" s="109"/>
-      <c r="H90" s="110"/>
-    </row>
-    <row r="91" spans="2:8">
+      <c r="C90" s="98"/>
+      <c r="D90" s="98"/>
+      <c r="E90" s="98"/>
+      <c r="F90" s="98"/>
+      <c r="G90" s="98"/>
+      <c r="H90" s="99"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="31" t="s">
         <v>164</v>
       </c>
@@ -17091,7 +17099,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="34">
         <v>1</v>
       </c>
@@ -17114,7 +17122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="34">
         <v>2</v>
       </c>
@@ -17135,7 +17143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="34">
         <v>3</v>
       </c>
@@ -17156,7 +17164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="34">
         <v>4</v>
       </c>
@@ -17177,7 +17185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="34">
         <v>5</v>
       </c>
@@ -17198,7 +17206,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="45">
         <v>6</v>
       </c>
@@ -17219,7 +17227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="34">
         <v>7</v>
       </c>
@@ -17238,7 +17246,7 @@
       </c>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="34">
         <v>8</v>
       </c>
@@ -17259,7 +17267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="45">
         <v>9</v>
       </c>
@@ -17278,7 +17286,7 @@
       </c>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="34">
         <v>10</v>
       </c>
@@ -17299,7 +17307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="34">
         <v>11</v>
       </c>
@@ -17320,19 +17328,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="15" thickBot="1"/>
-    <row r="106" spans="2:8" ht="15" thickBot="1">
-      <c r="B106" s="95" t="s">
+    <row r="105" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="100" t="s">
         <v>247</v>
       </c>
-      <c r="C106" s="96"/>
-      <c r="D106" s="96"/>
-      <c r="E106" s="96"/>
-      <c r="F106" s="96"/>
-      <c r="G106" s="96"/>
-      <c r="H106" s="97"/>
-    </row>
-    <row r="107" spans="2:8" ht="15" thickBot="1">
+      <c r="C106" s="101"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="101"/>
+      <c r="G106" s="101"/>
+      <c r="H106" s="102"/>
+    </row>
+    <row r="107" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="49" t="s">
         <v>164</v>
       </c>
@@ -17355,7 +17363,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="2:8">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" s="15">
         <v>1</v>
       </c>
@@ -17378,7 +17386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="2:8">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B109" s="34">
         <v>2</v>
       </c>
@@ -17399,7 +17407,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="110" spans="2:8">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="34">
         <v>3</v>
       </c>
@@ -17420,7 +17428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="2:8">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="34">
         <v>4</v>
       </c>
@@ -17443,7 +17451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="2:8">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="34">
         <v>5</v>
       </c>
@@ -17466,7 +17474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="34">
         <v>6</v>
       </c>
@@ -17489,7 +17497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="34">
         <v>7</v>
       </c>
@@ -17508,7 +17516,7 @@
       </c>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" s="34">
         <v>8</v>
       </c>
@@ -17529,7 +17537,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" s="34">
         <v>9</v>
       </c>
@@ -17548,7 +17556,7 @@
       </c>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="2:8">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" s="34">
         <v>10</v>
       </c>
@@ -17569,7 +17577,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="15" thickBot="1">
+    <row r="118" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="34">
         <v>11</v>
       </c>
@@ -17590,19 +17598,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="15" thickBot="1"/>
-    <row r="120" spans="2:8" ht="15" thickBot="1">
-      <c r="B120" s="95" t="s">
+    <row r="119" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="100" t="s">
         <v>259</v>
       </c>
-      <c r="C120" s="96"/>
-      <c r="D120" s="96"/>
-      <c r="E120" s="96"/>
-      <c r="F120" s="96"/>
-      <c r="G120" s="96"/>
-      <c r="H120" s="97"/>
-    </row>
-    <row r="121" spans="2:8">
+      <c r="C120" s="101"/>
+      <c r="D120" s="101"/>
+      <c r="E120" s="101"/>
+      <c r="F120" s="101"/>
+      <c r="G120" s="101"/>
+      <c r="H120" s="102"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" s="27" t="s">
         <v>164</v>
       </c>
@@ -17625,7 +17633,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="34">
         <v>1</v>
       </c>
@@ -17645,7 +17653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" s="45">
         <v>2</v>
       </c>
@@ -17668,7 +17676,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="2:8">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" s="34">
         <v>3</v>
       </c>
@@ -17687,7 +17695,7 @@
       </c>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="2:8">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B125" s="45">
         <v>4</v>
       </c>
@@ -17708,7 +17716,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="2:8">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B126" s="34">
         <v>5</v>
       </c>
@@ -17727,7 +17735,7 @@
       </c>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="2:8">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B127" s="45">
         <v>6</v>
       </c>
@@ -17748,7 +17756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="15" thickBot="1">
+    <row r="128" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="34">
         <v>7</v>
       </c>
@@ -17769,28 +17777,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="2:8">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F129" s="47"/>
     </row>
-    <row r="130" spans="2:8">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F130" s="38"/>
     </row>
-    <row r="131" spans="2:8">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:8" ht="15" thickBot="1"/>
-    <row r="133" spans="2:8" ht="15" thickBot="1">
-      <c r="B133" s="95" t="s">
+    <row r="132" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="133" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="100" t="s">
         <v>261</v>
       </c>
-      <c r="C133" s="96"/>
-      <c r="D133" s="96"/>
-      <c r="E133" s="96"/>
-      <c r="F133" s="96"/>
-      <c r="G133" s="96"/>
-      <c r="H133" s="97"/>
-    </row>
-    <row r="134" spans="2:8">
+      <c r="C133" s="101"/>
+      <c r="D133" s="101"/>
+      <c r="E133" s="101"/>
+      <c r="F133" s="101"/>
+      <c r="G133" s="101"/>
+      <c r="H133" s="102"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" s="32" t="s">
         <v>164</v>
       </c>
@@ -17813,7 +17821,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="2:8">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B135" s="3">
         <v>1</v>
       </c>
@@ -17834,7 +17842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="2:8">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B136" s="3">
         <v>2</v>
       </c>
@@ -17857,7 +17865,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="2:8">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B137" s="3">
         <v>3</v>
       </c>
@@ -17876,7 +17884,7 @@
       </c>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="2:8">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" s="3">
         <v>4</v>
       </c>
@@ -17897,7 +17905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="2:8">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" s="3">
         <v>5</v>
       </c>
@@ -17916,7 +17924,7 @@
       </c>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="2:8">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="3">
         <v>6</v>
       </c>
@@ -17937,7 +17945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="2:8">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" s="3">
         <v>7</v>
       </c>
@@ -17958,19 +17966,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="15" thickBot="1"/>
-    <row r="144" spans="2:8" ht="15" thickBot="1">
-      <c r="B144" s="95" t="s">
+    <row r="143" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="100" t="s">
         <v>264</v>
       </c>
-      <c r="C144" s="96"/>
-      <c r="D144" s="96"/>
-      <c r="E144" s="96"/>
-      <c r="F144" s="96"/>
-      <c r="G144" s="96"/>
-      <c r="H144" s="97"/>
-    </row>
-    <row r="145" spans="2:8">
+      <c r="C144" s="101"/>
+      <c r="D144" s="101"/>
+      <c r="E144" s="101"/>
+      <c r="F144" s="101"/>
+      <c r="G144" s="101"/>
+      <c r="H144" s="102"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" s="27" t="s">
         <v>164</v>
       </c>
@@ -17993,7 +18001,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="146" spans="2:8">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" s="34">
         <v>1</v>
       </c>
@@ -18013,7 +18021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="2:8">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" s="45">
         <v>2</v>
       </c>
@@ -18036,7 +18044,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="148" spans="2:8">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B148" s="34">
         <v>3</v>
       </c>
@@ -18055,7 +18063,7 @@
       </c>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="2:8">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B149" s="45">
         <v>4</v>
       </c>
@@ -18076,7 +18084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="2:8">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B150" s="34">
         <v>5</v>
       </c>
@@ -18095,7 +18103,7 @@
       </c>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="2:8">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B151" s="45">
         <v>6</v>
       </c>
@@ -18116,7 +18124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="2:8">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B152" s="34">
         <v>7</v>
       </c>
@@ -18137,19 +18145,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="15" thickBot="1"/>
-    <row r="155" spans="2:8" ht="15" thickBot="1">
-      <c r="B155" s="95" t="s">
+    <row r="154" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="155" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="100" t="s">
         <v>268</v>
       </c>
-      <c r="C155" s="96"/>
-      <c r="D155" s="96"/>
-      <c r="E155" s="96"/>
-      <c r="F155" s="96"/>
-      <c r="G155" s="96"/>
-      <c r="H155" s="97"/>
-    </row>
-    <row r="156" spans="2:8">
+      <c r="C155" s="101"/>
+      <c r="D155" s="101"/>
+      <c r="E155" s="101"/>
+      <c r="F155" s="101"/>
+      <c r="G155" s="101"/>
+      <c r="H155" s="102"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" s="22" t="s">
         <v>164</v>
       </c>
@@ -18172,7 +18180,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="2:8">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" s="3">
         <v>1</v>
       </c>
@@ -18195,7 +18203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="2:8">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" s="3">
         <v>2</v>
       </c>
@@ -18216,7 +18224,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="2:8">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" s="3">
         <v>3</v>
       </c>
@@ -18235,7 +18243,7 @@
       </c>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="2:8">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" s="3">
         <v>4</v>
       </c>
@@ -18256,7 +18264,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="2:17">
+    <row r="161" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B161" s="3">
         <v>5</v>
       </c>
@@ -18275,7 +18283,7 @@
       </c>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="2:17">
+    <row r="162" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B162" s="3">
         <v>6</v>
       </c>
@@ -18296,7 +18304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="2:17">
+    <row r="163" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B163" s="3">
         <v>7</v>
       </c>
@@ -18317,18 +18325,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="2:17" ht="15" thickBot="1">
-      <c r="B166" s="101" t="s">
+    <row r="166" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B166" s="119" t="s">
         <v>271</v>
       </c>
-      <c r="C166" s="101"/>
-      <c r="D166" s="101"/>
-      <c r="E166" s="101"/>
-      <c r="F166" s="101"/>
-      <c r="G166" s="101"/>
-      <c r="H166" s="101"/>
-    </row>
-    <row r="167" spans="2:17">
+      <c r="C166" s="119"/>
+      <c r="D166" s="119"/>
+      <c r="E166" s="119"/>
+      <c r="F166" s="119"/>
+      <c r="G166" s="119"/>
+      <c r="H166" s="119"/>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B167" s="22" t="s">
         <v>164</v>
       </c>
@@ -18351,7 +18359,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="2:17" ht="15" thickBot="1">
+    <row r="168" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B168" s="3">
         <v>1</v>
       </c>
@@ -18374,7 +18382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="2:17" ht="15" thickBot="1">
+    <row r="169" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B169" s="3">
         <v>2</v>
       </c>
@@ -18394,18 +18402,18 @@
       <c r="H169" s="3">
         <v>155</v>
       </c>
-      <c r="J169" s="102" t="s">
+      <c r="J169" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="K169" s="103"/>
-      <c r="L169" s="103"/>
-      <c r="M169" s="103"/>
-      <c r="N169" s="103"/>
-      <c r="O169" s="103"/>
-      <c r="P169" s="103"/>
-      <c r="Q169" s="104"/>
-    </row>
-    <row r="170" spans="2:17">
+      <c r="K169" s="113"/>
+      <c r="L169" s="113"/>
+      <c r="M169" s="113"/>
+      <c r="N169" s="113"/>
+      <c r="O169" s="113"/>
+      <c r="P169" s="113"/>
+      <c r="Q169" s="114"/>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B170" s="3">
         <v>3</v>
       </c>
@@ -18424,7 +18432,7 @@
       </c>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="2:17">
+    <row r="171" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B171" s="3">
         <v>4</v>
       </c>
@@ -18445,7 +18453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="2:17">
+    <row r="172" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B172" s="3">
         <v>5</v>
       </c>
@@ -18464,7 +18472,7 @@
       </c>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="2:17">
+    <row r="173" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B173" s="3">
         <v>6</v>
       </c>
@@ -18485,7 +18493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="2:17">
+    <row r="174" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B174" s="3">
         <v>7</v>
       </c>
@@ -18506,19 +18514,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="2:17" ht="15" thickBot="1"/>
-    <row r="176" spans="2:17" ht="15" thickBot="1">
-      <c r="B176" s="105" t="s">
+    <row r="175" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="176" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B176" s="107" t="s">
         <v>276</v>
       </c>
-      <c r="C176" s="106"/>
-      <c r="D176" s="106"/>
-      <c r="E176" s="106"/>
-      <c r="F176" s="106"/>
-      <c r="G176" s="106"/>
-      <c r="H176" s="107"/>
-    </row>
-    <row r="177" spans="2:17">
+      <c r="C176" s="108"/>
+      <c r="D176" s="108"/>
+      <c r="E176" s="108"/>
+      <c r="F176" s="108"/>
+      <c r="G176" s="108"/>
+      <c r="H176" s="109"/>
+    </row>
+    <row r="177" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B177" s="22" t="s">
         <v>164</v>
       </c>
@@ -18541,7 +18549,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="2:17" ht="15" thickBot="1">
+    <row r="178" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B178" s="3">
         <v>1</v>
       </c>
@@ -18560,7 +18568,7 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="2:17" ht="15" thickBot="1">
+    <row r="179" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B179" s="3">
         <v>2</v>
       </c>
@@ -18576,18 +18584,18 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="J179" s="102" t="s">
+      <c r="J179" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="K179" s="103"/>
-      <c r="L179" s="103"/>
-      <c r="M179" s="103"/>
-      <c r="N179" s="103"/>
-      <c r="O179" s="103"/>
-      <c r="P179" s="103"/>
-      <c r="Q179" s="104"/>
-    </row>
-    <row r="180" spans="2:17">
+      <c r="K179" s="113"/>
+      <c r="L179" s="113"/>
+      <c r="M179" s="113"/>
+      <c r="N179" s="113"/>
+      <c r="O179" s="113"/>
+      <c r="P179" s="113"/>
+      <c r="Q179" s="114"/>
+    </row>
+    <row r="180" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B180" s="3">
         <v>3</v>
       </c>
@@ -18606,7 +18614,7 @@
       </c>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="2:17">
+    <row r="181" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B181" s="3">
         <v>4</v>
       </c>
@@ -18627,7 +18635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="2:17">
+    <row r="182" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B182" s="3">
         <v>5</v>
       </c>
@@ -18646,7 +18654,7 @@
       </c>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="2:17">
+    <row r="183" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B183" s="3">
         <v>6</v>
       </c>
@@ -18667,7 +18675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="2:17">
+    <row r="184" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B184" s="3">
         <v>7</v>
       </c>
@@ -18688,19 +18696,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="2:17" ht="15" thickBot="1"/>
-    <row r="187" spans="2:17" ht="15" thickBot="1">
-      <c r="B187" s="95" t="s">
+    <row r="186" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="187" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B187" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="C187" s="96"/>
-      <c r="D187" s="96"/>
-      <c r="E187" s="96"/>
-      <c r="F187" s="96"/>
-      <c r="G187" s="96"/>
-      <c r="H187" s="97"/>
-    </row>
-    <row r="188" spans="2:17" ht="15" thickBot="1">
+      <c r="C187" s="101"/>
+      <c r="D187" s="101"/>
+      <c r="E187" s="101"/>
+      <c r="F187" s="101"/>
+      <c r="G187" s="101"/>
+      <c r="H187" s="102"/>
+    </row>
+    <row r="188" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B188" s="22" t="s">
         <v>164</v>
       </c>
@@ -18723,7 +18731,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="189" spans="2:17">
+    <row r="189" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B189" s="15">
         <v>1</v>
       </c>
@@ -18742,7 +18750,7 @@
       <c r="G189" s="16"/>
       <c r="H189" s="17"/>
     </row>
-    <row r="190" spans="2:17">
+    <row r="190" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B190" s="34">
         <v>2</v>
       </c>
@@ -18761,7 +18769,7 @@
       <c r="G190" s="3"/>
       <c r="H190" s="35"/>
     </row>
-    <row r="191" spans="2:17">
+    <row r="191" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B191" s="34">
         <v>3</v>
       </c>
@@ -18780,7 +18788,7 @@
       <c r="G191" s="50"/>
       <c r="H191" s="44"/>
     </row>
-    <row r="192" spans="2:17">
+    <row r="192" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B192" s="34">
         <v>4</v>
       </c>
@@ -18799,7 +18807,7 @@
       <c r="G192" s="3"/>
       <c r="H192" s="35"/>
     </row>
-    <row r="193" spans="2:8">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B193" s="34">
         <v>3</v>
       </c>
@@ -18818,7 +18826,7 @@
       </c>
       <c r="H193" s="35"/>
     </row>
-    <row r="194" spans="2:8">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B194" s="34">
         <v>4</v>
       </c>
@@ -18839,7 +18847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="2:8">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B195" s="34">
         <v>5</v>
       </c>
@@ -18858,7 +18866,7 @@
       </c>
       <c r="H195" s="35"/>
     </row>
-    <row r="196" spans="2:8">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B196" s="34">
         <v>6</v>
       </c>
@@ -18879,7 +18887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="2:8" ht="15" thickBot="1">
+    <row r="197" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B197" s="18">
         <v>7</v>
       </c>
@@ -18900,19 +18908,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="2:8" ht="15" thickBot="1"/>
-    <row r="200" spans="2:8" ht="15" thickBot="1">
-      <c r="B200" s="95" t="s">
+    <row r="199" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="200" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B200" s="100" t="s">
         <v>294</v>
       </c>
-      <c r="C200" s="96"/>
-      <c r="D200" s="96"/>
-      <c r="E200" s="96"/>
-      <c r="F200" s="96"/>
-      <c r="G200" s="96"/>
-      <c r="H200" s="97"/>
-    </row>
-    <row r="201" spans="2:8" ht="15" thickBot="1">
+      <c r="C200" s="101"/>
+      <c r="D200" s="101"/>
+      <c r="E200" s="101"/>
+      <c r="F200" s="101"/>
+      <c r="G200" s="101"/>
+      <c r="H200" s="102"/>
+    </row>
+    <row r="201" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B201" s="22" t="s">
         <v>164</v>
       </c>
@@ -18935,7 +18943,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="2:8">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B202" s="15">
         <v>1</v>
       </c>
@@ -18958,7 +18966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="2:8">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B203" s="34">
         <v>2</v>
       </c>
@@ -18981,7 +18989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="2:8">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B204" s="34">
         <v>3</v>
       </c>
@@ -19004,7 +19012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="2:8">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B205" s="34">
         <v>4</v>
       </c>
@@ -19023,7 +19031,7 @@
       </c>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="2:8">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B206" s="34">
         <v>3</v>
       </c>
@@ -19042,7 +19050,7 @@
       </c>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" spans="2:8">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B207" s="34">
         <v>4</v>
       </c>
@@ -19063,7 +19071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="2:8">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B208" s="34">
         <v>5</v>
       </c>
@@ -19082,7 +19090,7 @@
       </c>
       <c r="H208" s="35"/>
     </row>
-    <row r="209" spans="2:8">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B209" s="34">
         <v>6</v>
       </c>
@@ -19103,7 +19111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="15" thickBot="1">
+    <row r="210" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B210" s="18">
         <v>7</v>
       </c>
@@ -19122,7 +19130,7 @@
       </c>
       <c r="H210" s="35"/>
     </row>
-    <row r="211" spans="2:8">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B211" s="34">
         <v>8</v>
       </c>
@@ -19143,7 +19151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="15" thickBot="1">
+    <row r="212" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B212" s="18">
         <v>9</v>
       </c>
@@ -19164,19 +19172,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="2:8" ht="15" thickBot="1"/>
-    <row r="215" spans="2:8" ht="15" thickBot="1">
-      <c r="B215" s="95" t="s">
+    <row r="214" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="215" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B215" s="100" t="s">
         <v>299</v>
       </c>
-      <c r="C215" s="96"/>
-      <c r="D215" s="96"/>
-      <c r="E215" s="96"/>
-      <c r="F215" s="96"/>
-      <c r="G215" s="96"/>
-      <c r="H215" s="97"/>
-    </row>
-    <row r="216" spans="2:8" ht="15" thickBot="1">
+      <c r="C215" s="101"/>
+      <c r="D215" s="101"/>
+      <c r="E215" s="101"/>
+      <c r="F215" s="101"/>
+      <c r="G215" s="101"/>
+      <c r="H215" s="102"/>
+    </row>
+    <row r="216" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B216" s="22" t="s">
         <v>164</v>
       </c>
@@ -19199,7 +19207,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="217" spans="2:8">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B217" s="15">
         <v>1</v>
       </c>
@@ -19222,7 +19230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="2:8">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B218" s="34">
         <v>2</v>
       </c>
@@ -19241,7 +19249,7 @@
       <c r="G218" s="3"/>
       <c r="H218" s="35"/>
     </row>
-    <row r="219" spans="2:8">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B219" s="34">
         <v>3</v>
       </c>
@@ -19258,7 +19266,7 @@
       <c r="G219" s="3"/>
       <c r="H219" s="35"/>
     </row>
-    <row r="220" spans="2:8" ht="15" thickBot="1">
+    <row r="220" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B220" s="34">
         <v>4</v>
       </c>
@@ -19275,7 +19283,7 @@
       <c r="G220" s="3"/>
       <c r="H220" s="35"/>
     </row>
-    <row r="221" spans="2:8">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B221" s="15">
         <v>5</v>
       </c>
@@ -19292,7 +19300,7 @@
       <c r="G221" s="3"/>
       <c r="H221" s="35"/>
     </row>
-    <row r="222" spans="2:8">
+    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B222" s="34">
         <v>6</v>
       </c>
@@ -19309,7 +19317,7 @@
       <c r="G222" s="3"/>
       <c r="H222" s="35"/>
     </row>
-    <row r="223" spans="2:8">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B223" s="34">
         <v>7</v>
       </c>
@@ -19328,7 +19336,7 @@
       </c>
       <c r="H223" s="35"/>
     </row>
-    <row r="224" spans="2:8" ht="15" thickBot="1">
+    <row r="224" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B224" s="34">
         <v>8</v>
       </c>
@@ -19349,7 +19357,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="225" spans="2:8">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B225" s="15">
         <v>9</v>
       </c>
@@ -19368,7 +19376,7 @@
       </c>
       <c r="H225" s="35"/>
     </row>
-    <row r="226" spans="2:8">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B226" s="34">
         <v>10</v>
       </c>
@@ -19389,7 +19397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="2:8" ht="15" thickBot="1">
+    <row r="227" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B227" s="18">
         <v>11</v>
       </c>
@@ -19410,19 +19418,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="2:8" ht="15" thickBot="1"/>
-    <row r="230" spans="2:8" ht="15" thickBot="1">
-      <c r="B230" s="95" t="s">
+    <row r="229" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="230" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B230" s="100" t="s">
         <v>307</v>
       </c>
-      <c r="C230" s="96"/>
-      <c r="D230" s="96"/>
-      <c r="E230" s="96"/>
-      <c r="F230" s="96"/>
-      <c r="G230" s="96"/>
-      <c r="H230" s="97"/>
-    </row>
-    <row r="231" spans="2:8" ht="15" thickBot="1">
+      <c r="C230" s="101"/>
+      <c r="D230" s="101"/>
+      <c r="E230" s="101"/>
+      <c r="F230" s="101"/>
+      <c r="G230" s="101"/>
+      <c r="H230" s="102"/>
+    </row>
+    <row r="231" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B231" s="22" t="s">
         <v>164</v>
       </c>
@@ -19445,7 +19453,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="232" spans="2:8">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B232" s="15">
         <v>1</v>
       </c>
@@ -19468,7 +19476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="2:8" ht="15" thickBot="1">
+    <row r="233" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B233" s="34">
         <v>2</v>
       </c>
@@ -19487,7 +19495,7 @@
       </c>
       <c r="H233" s="35"/>
     </row>
-    <row r="234" spans="2:8" ht="15" thickBot="1">
+    <row r="234" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B234" s="15">
         <v>3</v>
       </c>
@@ -19506,7 +19514,7 @@
       </c>
       <c r="H234" s="35"/>
     </row>
-    <row r="235" spans="2:8">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B235" s="15">
         <v>4</v>
       </c>
@@ -19525,7 +19533,7 @@
       </c>
       <c r="H235" s="35"/>
     </row>
-    <row r="236" spans="2:8" ht="15" thickBot="1">
+    <row r="236" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B236" s="34">
         <v>5</v>
       </c>
@@ -19546,7 +19554,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="2:8" ht="15" thickBot="1">
+    <row r="237" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B237" s="15">
         <v>6</v>
       </c>
@@ -19565,7 +19573,7 @@
       </c>
       <c r="H237" s="35"/>
     </row>
-    <row r="238" spans="2:8">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B238" s="15">
         <v>7</v>
       </c>
@@ -19586,7 +19594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="2:8" ht="15" thickBot="1">
+    <row r="239" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B239" s="34">
         <v>8</v>
       </c>
@@ -19607,19 +19615,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="2:8" ht="15" thickBot="1"/>
-    <row r="242" spans="2:8" ht="15" thickBot="1">
-      <c r="B242" s="95" t="s">
+    <row r="241" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="242" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B242" s="100" t="s">
         <v>310</v>
       </c>
-      <c r="C242" s="96"/>
-      <c r="D242" s="96"/>
-      <c r="E242" s="96"/>
-      <c r="F242" s="96"/>
-      <c r="G242" s="96"/>
-      <c r="H242" s="97"/>
-    </row>
-    <row r="243" spans="2:8" ht="15" thickBot="1">
+      <c r="C242" s="101"/>
+      <c r="D242" s="101"/>
+      <c r="E242" s="101"/>
+      <c r="F242" s="101"/>
+      <c r="G242" s="101"/>
+      <c r="H242" s="102"/>
+    </row>
+    <row r="243" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B243" s="22" t="s">
         <v>164</v>
       </c>
@@ -19642,7 +19650,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="244" spans="2:8">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B244" s="15">
         <v>1</v>
       </c>
@@ -19665,7 +19673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="2:8">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B245" s="34">
         <v>2</v>
       </c>
@@ -19688,7 +19696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="2:8">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B246" s="34">
         <v>3</v>
       </c>
@@ -19709,7 +19717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="2:8">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B247" s="34">
         <v>4</v>
       </c>
@@ -19730,7 +19738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="2:8">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B248" s="34">
         <v>5</v>
       </c>
@@ -19751,7 +19759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="2:8">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B249" s="34">
         <v>6</v>
       </c>
@@ -19772,7 +19780,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="2:8">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B250" s="34">
         <v>7</v>
       </c>
@@ -19793,7 +19801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="2:8">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B251" s="34">
         <v>8</v>
       </c>
@@ -19814,7 +19822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="2:8">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B252" s="34">
         <v>9</v>
       </c>
@@ -19835,7 +19843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="2:8">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B253" s="34">
         <v>10</v>
       </c>
@@ -19854,7 +19862,7 @@
       </c>
       <c r="H253" s="35"/>
     </row>
-    <row r="254" spans="2:8">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B254" s="34">
         <v>11</v>
       </c>
@@ -19875,7 +19883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="2:8">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B255" s="34">
         <v>12</v>
       </c>
@@ -19894,7 +19902,7 @@
       </c>
       <c r="H255" s="35"/>
     </row>
-    <row r="256" spans="2:8">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B256" s="34">
         <v>13</v>
       </c>
@@ -19915,7 +19923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="2:8" ht="15" thickBot="1">
+    <row r="257" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B257" s="18">
         <v>14</v>
       </c>
@@ -19936,19 +19944,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="2:8" ht="15" thickBot="1"/>
-    <row r="260" spans="2:8" ht="15" thickBot="1">
-      <c r="B260" s="95" t="s">
+    <row r="259" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="260" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B260" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="C260" s="96"/>
-      <c r="D260" s="96"/>
-      <c r="E260" s="96"/>
-      <c r="F260" s="96"/>
-      <c r="G260" s="96"/>
-      <c r="H260" s="97"/>
-    </row>
-    <row r="261" spans="2:8" ht="15" thickBot="1">
+      <c r="C260" s="101"/>
+      <c r="D260" s="101"/>
+      <c r="E260" s="101"/>
+      <c r="F260" s="101"/>
+      <c r="G260" s="101"/>
+      <c r="H260" s="102"/>
+    </row>
+    <row r="261" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B261" s="22" t="s">
         <v>164</v>
       </c>
@@ -19971,7 +19979,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="262" spans="2:8">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B262" s="15">
         <v>1</v>
       </c>
@@ -19992,7 +20000,7 @@
       </c>
       <c r="H262" s="17"/>
     </row>
-    <row r="263" spans="2:8">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B263" s="34">
         <v>2</v>
       </c>
@@ -20011,7 +20019,7 @@
       </c>
       <c r="H263" s="35"/>
     </row>
-    <row r="264" spans="2:8" ht="15" thickBot="1">
+    <row r="264" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B264" s="34">
         <v>3</v>
       </c>
@@ -20030,7 +20038,7 @@
       </c>
       <c r="H264" s="35"/>
     </row>
-    <row r="265" spans="2:8">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B265" s="15">
         <v>4</v>
       </c>
@@ -20049,7 +20057,7 @@
       </c>
       <c r="H265" s="35"/>
     </row>
-    <row r="266" spans="2:8" ht="15" thickBot="1">
+    <row r="266" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B266" s="34">
         <v>5</v>
       </c>
@@ -20068,7 +20076,7 @@
       </c>
       <c r="H266" s="35"/>
     </row>
-    <row r="267" spans="2:8">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B267" s="15">
         <v>6</v>
       </c>
@@ -20087,7 +20095,7 @@
       </c>
       <c r="H267" s="54"/>
     </row>
-    <row r="268" spans="2:8">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B268" s="34">
         <v>7</v>
       </c>
@@ -20108,7 +20116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="269" spans="2:8" ht="15" thickBot="1">
+    <row r="269" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B269" s="34">
         <v>8</v>
       </c>
@@ -20127,7 +20135,7 @@
       </c>
       <c r="H269" s="35"/>
     </row>
-    <row r="270" spans="2:8">
+    <row r="270" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B270" s="15">
         <v>9</v>
       </c>
@@ -20148,7 +20156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="271" spans="2:8" ht="15" thickBot="1">
+    <row r="271" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B271" s="18">
         <v>10</v>
       </c>
@@ -20169,19 +20177,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="2:16" ht="15" thickBot="1"/>
-    <row r="274" spans="2:16" ht="15" thickBot="1">
-      <c r="B274" s="95" t="s">
+    <row r="273" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="274" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B274" s="100" t="s">
         <v>323</v>
       </c>
-      <c r="C274" s="96"/>
-      <c r="D274" s="96"/>
-      <c r="E274" s="96"/>
-      <c r="F274" s="96"/>
-      <c r="G274" s="96"/>
-      <c r="H274" s="97"/>
-    </row>
-    <row r="275" spans="2:16" ht="15" thickBot="1">
+      <c r="C274" s="101"/>
+      <c r="D274" s="101"/>
+      <c r="E274" s="101"/>
+      <c r="F274" s="101"/>
+      <c r="G274" s="101"/>
+      <c r="H274" s="102"/>
+    </row>
+    <row r="275" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B275" s="22" t="s">
         <v>164</v>
       </c>
@@ -20204,7 +20212,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="276" spans="2:16" ht="15" thickBot="1">
+    <row r="276" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B276" s="15">
         <v>1</v>
       </c>
@@ -20225,7 +20233,7 @@
       </c>
       <c r="H276" s="17"/>
     </row>
-    <row r="277" spans="2:16" ht="15" thickBot="1">
+    <row r="277" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B277" s="34">
         <v>2</v>
       </c>
@@ -20245,17 +20253,17 @@
         <v>184</v>
       </c>
       <c r="H277" s="35"/>
-      <c r="J277" s="98" t="s">
+      <c r="J277" s="118" t="s">
         <v>327</v>
       </c>
-      <c r="K277" s="99"/>
-      <c r="L277" s="99"/>
-      <c r="M277" s="99"/>
-      <c r="N277" s="99"/>
-      <c r="O277" s="99"/>
-      <c r="P277" s="100"/>
-    </row>
-    <row r="278" spans="2:16" ht="15" thickBot="1">
+      <c r="K277" s="111"/>
+      <c r="L277" s="111"/>
+      <c r="M277" s="111"/>
+      <c r="N277" s="111"/>
+      <c r="O277" s="111"/>
+      <c r="P277" s="112"/>
+    </row>
+    <row r="278" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B278" s="34">
         <v>3</v>
       </c>
@@ -20274,7 +20282,7 @@
       </c>
       <c r="H278" s="54"/>
     </row>
-    <row r="279" spans="2:16">
+    <row r="279" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B279" s="15">
         <v>4</v>
       </c>
@@ -20295,7 +20303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="2:16">
+    <row r="280" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B280" s="34">
         <v>5</v>
       </c>
@@ -20314,7 +20322,7 @@
       </c>
       <c r="H280" s="35"/>
     </row>
-    <row r="281" spans="2:16" ht="15" thickBot="1">
+    <row r="281" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B281" s="34">
         <v>6</v>
       </c>
@@ -20335,7 +20343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="2:16" ht="15" thickBot="1">
+    <row r="282" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B282" s="42">
         <v>7</v>
       </c>
@@ -20356,19 +20364,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="2:16" ht="15" thickBot="1"/>
-    <row r="285" spans="2:16" ht="15" thickBot="1">
-      <c r="B285" s="95" t="s">
+    <row r="284" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="285" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B285" s="100" t="s">
         <v>329</v>
       </c>
-      <c r="C285" s="96"/>
-      <c r="D285" s="96"/>
-      <c r="E285" s="96"/>
-      <c r="F285" s="96"/>
-      <c r="G285" s="96"/>
-      <c r="H285" s="97"/>
-    </row>
-    <row r="286" spans="2:16" ht="15" thickBot="1">
+      <c r="C285" s="101"/>
+      <c r="D285" s="101"/>
+      <c r="E285" s="101"/>
+      <c r="F285" s="101"/>
+      <c r="G285" s="101"/>
+      <c r="H285" s="102"/>
+    </row>
+    <row r="286" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B286" s="22" t="s">
         <v>164</v>
       </c>
@@ -20391,7 +20399,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="287" spans="2:16">
+    <row r="287" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B287" s="15">
         <v>1</v>
       </c>
@@ -20412,7 +20420,7 @@
       </c>
       <c r="H287" s="17"/>
     </row>
-    <row r="288" spans="2:16" ht="15" thickBot="1">
+    <row r="288" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B288" s="34">
         <v>2</v>
       </c>
@@ -20433,7 +20441,7 @@
       </c>
       <c r="H288" s="35"/>
     </row>
-    <row r="289" spans="2:8">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B289" s="15">
         <v>3</v>
       </c>
@@ -20452,7 +20460,7 @@
       </c>
       <c r="H289" s="35"/>
     </row>
-    <row r="290" spans="2:8" ht="15" thickBot="1">
+    <row r="290" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B290" s="34">
         <v>4</v>
       </c>
@@ -20471,7 +20479,7 @@
       </c>
       <c r="H290" s="35"/>
     </row>
-    <row r="291" spans="2:8">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B291" s="15">
         <v>5</v>
       </c>
@@ -20490,7 +20498,7 @@
       </c>
       <c r="H291" s="35"/>
     </row>
-    <row r="292" spans="2:8" ht="15" thickBot="1">
+    <row r="292" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B292" s="34">
         <v>6</v>
       </c>
@@ -20509,7 +20517,7 @@
       </c>
       <c r="H292" s="35"/>
     </row>
-    <row r="293" spans="2:8">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B293" s="15">
         <v>7</v>
       </c>
@@ -20530,7 +20538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="2:8" ht="15" thickBot="1">
+    <row r="294" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B294" s="34">
         <v>8</v>
       </c>
@@ -20549,7 +20557,7 @@
       </c>
       <c r="H294" s="35"/>
     </row>
-    <row r="295" spans="2:8">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B295" s="15">
         <v>9</v>
       </c>
@@ -20570,7 +20578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="2:8" ht="15" thickBot="1">
+    <row r="296" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B296" s="18">
         <v>10</v>
       </c>
@@ -20591,17 +20599,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="2:8">
-      <c r="B299" s="94" t="s">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B299" s="120" t="s">
         <v>194</v>
       </c>
-      <c r="C299" s="94"/>
-      <c r="D299" s="94"/>
-      <c r="E299" s="94"/>
-      <c r="F299" s="94"/>
-      <c r="G299" s="94"/>
-    </row>
-    <row r="300" spans="2:8">
+      <c r="C299" s="120"/>
+      <c r="D299" s="120"/>
+      <c r="E299" s="120"/>
+      <c r="F299" s="120"/>
+      <c r="G299" s="120"/>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B300" s="11" t="s">
         <v>179</v>
       </c>
@@ -20621,7 +20629,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="301" spans="2:8">
+    <row r="301" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B301" s="3">
         <v>1</v>
       </c>
@@ -20641,7 +20649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="2:8">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B302" s="3">
         <v>2</v>
       </c>
@@ -20661,7 +20669,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="2:8" ht="15" thickBot="1">
+    <row r="303" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B303" s="34">
         <v>6</v>
       </c>
@@ -20680,7 +20688,7 @@
       </c>
       <c r="H303" s="35"/>
     </row>
-    <row r="304" spans="2:8">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B304" s="15">
         <v>7</v>
       </c>
@@ -20701,7 +20709,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="305" spans="2:8" ht="15" thickBot="1">
+    <row r="305" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B305" s="34">
         <v>8</v>
       </c>
@@ -20720,7 +20728,7 @@
       </c>
       <c r="H305" s="35"/>
     </row>
-    <row r="306" spans="2:8">
+    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B306" s="15">
         <v>9</v>
       </c>
@@ -20741,7 +20749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="2:8" ht="15" thickBot="1">
+    <row r="307" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B307" s="18">
         <v>10</v>
       </c>
@@ -20762,19 +20770,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="2:8" ht="15" thickBot="1"/>
-    <row r="310" spans="2:8" ht="15" thickBot="1">
-      <c r="B310" s="95" t="s">
+    <row r="309" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="310" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B310" s="100" t="s">
         <v>333</v>
       </c>
-      <c r="C310" s="96"/>
-      <c r="D310" s="96"/>
-      <c r="E310" s="96"/>
-      <c r="F310" s="96"/>
-      <c r="G310" s="96"/>
-      <c r="H310" s="97"/>
-    </row>
-    <row r="311" spans="2:8">
+      <c r="C310" s="101"/>
+      <c r="D310" s="101"/>
+      <c r="E310" s="101"/>
+      <c r="F310" s="101"/>
+      <c r="G310" s="101"/>
+      <c r="H310" s="102"/>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B311" s="22" t="s">
         <v>164</v>
       </c>
@@ -20797,7 +20805,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="312" spans="2:8">
+    <row r="312" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B312" s="3">
         <v>1</v>
       </c>
@@ -20814,7 +20822,7 @@
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" spans="2:8">
+    <row r="313" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B313" s="3">
         <v>2</v>
       </c>
@@ -20833,7 +20841,7 @@
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="2:8">
+    <row r="314" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B314" s="3">
         <v>3</v>
       </c>
@@ -20850,7 +20858,7 @@
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="2:8">
+    <row r="315" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B315" s="3">
         <v>4</v>
       </c>
@@ -20867,7 +20875,7 @@
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="2:8">
+    <row r="316" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B316" s="3">
         <v>5</v>
       </c>
@@ -20886,7 +20894,7 @@
       </c>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="2:8">
+    <row r="317" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B317" s="3">
         <v>6</v>
       </c>
@@ -20907,7 +20915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="2:8">
+    <row r="318" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B318" s="3">
         <v>7</v>
       </c>
@@ -20926,7 +20934,7 @@
       </c>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="2:8">
+    <row r="319" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B319" s="3">
         <v>8</v>
       </c>
@@ -20947,7 +20955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="2:8">
+    <row r="320" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B320" s="3">
         <v>9</v>
       </c>
@@ -20970,6 +20978,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B299:G299"/>
+    <mergeCell ref="B310:H310"/>
+    <mergeCell ref="B285:H285"/>
+    <mergeCell ref="B230:H230"/>
+    <mergeCell ref="B242:H242"/>
+    <mergeCell ref="B260:H260"/>
+    <mergeCell ref="B274:H274"/>
+    <mergeCell ref="J277:P277"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="J169:Q169"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="J179:Q179"/>
     <mergeCell ref="B90:H90"/>
     <mergeCell ref="B106:H106"/>
     <mergeCell ref="B120:H120"/>
@@ -20985,24 +21011,6 @@
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="B65:H65"/>
-    <mergeCell ref="J277:P277"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="J169:Q169"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="J179:Q179"/>
-    <mergeCell ref="B299:G299"/>
-    <mergeCell ref="B310:H310"/>
-    <mergeCell ref="B285:H285"/>
-    <mergeCell ref="B230:H230"/>
-    <mergeCell ref="B242:H242"/>
-    <mergeCell ref="B260:H260"/>
-    <mergeCell ref="B274:H274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21010,14 +21018,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -21026,7 +21034,7 @@
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>395</v>
       </c>
@@ -21043,7 +21051,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -21058,7 +21066,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -21073,7 +21081,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -21088,7 +21096,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -21103,7 +21111,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="90">
         <v>5</v>
       </c>
@@ -21118,7 +21126,7 @@
       </c>
       <c r="F7" s="92"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -21133,7 +21141,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="88">
         <v>7</v>
       </c>
@@ -21150,7 +21158,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -21165,7 +21173,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -21180,7 +21188,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -21195,7 +21203,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -21210,7 +21218,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="88">
         <v>12</v>
       </c>
@@ -21227,7 +21235,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -21242,7 +21250,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="90">
         <v>14</v>
       </c>
@@ -21257,7 +21265,7 @@
       </c>
       <c r="F16" s="90"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -21272,7 +21280,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -21287,16 +21295,22 @@
         <v>488</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="87">
+        <v>44604</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>486</v>
+      </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -21305,7 +21319,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -21314,7 +21328,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -21323,7 +21337,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -21332,7 +21346,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -21341,7 +21355,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -21350,7 +21364,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>24</v>
       </c>
@@ -21359,7 +21373,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>25</v>
       </c>
@@ -21368,7 +21382,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>26</v>
       </c>
@@ -21377,7 +21391,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>27</v>
       </c>
@@ -21386,7 +21400,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>28</v>
       </c>
@@ -21395,7 +21409,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>29</v>
       </c>
@@ -21404,7 +21418,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>30</v>
       </c>
@@ -21413,7 +21427,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>31</v>
       </c>
@@ -21422,7 +21436,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>32</v>
       </c>
@@ -21431,7 +21445,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>33</v>
       </c>
@@ -21440,7 +21454,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>34</v>
       </c>
@@ -21449,7 +21463,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>35</v>
       </c>
@@ -21458,7 +21472,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>36</v>
       </c>
@@ -21467,7 +21481,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>37</v>
       </c>
@@ -21476,7 +21490,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>38</v>
       </c>
@@ -21485,7 +21499,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>39</v>
       </c>
@@ -21494,7 +21508,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>40</v>
       </c>
@@ -21503,7 +21517,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>41</v>
       </c>
@@ -21512,7 +21526,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>42</v>
       </c>
@@ -21521,7 +21535,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>43</v>
       </c>
@@ -21530,7 +21544,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>44</v>
       </c>
@@ -21539,7 +21553,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>45</v>
       </c>
@@ -21548,7 +21562,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>46</v>
       </c>
@@ -21557,7 +21571,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>47</v>
       </c>
@@ -21566,7 +21580,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>48</v>
       </c>
@@ -21575,7 +21589,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>49</v>
       </c>
@@ -21584,7 +21598,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>50</v>
       </c>
